--- a/Data/coded-Dataset.xlsx
+++ b/Data/coded-Dataset.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\enric\Desktop\Meta-Review ADHD dyslexia\__GITHUB__\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laura/Desktop/GITHUB-METAREVIEW/Meta-review-cognitive-profiles-ADHD-Dyslexia/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F36DFDA-AFAF-4AAA-A18C-993F951D2889}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCD03974-159E-7A49-A8A2-EF854FDFB9F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="660" windowWidth="30240" windowHeight="17200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="effect_sizes" sheetId="1" r:id="rId1"/>
+    <sheet name="legenda colori" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11361" uniqueCount="1858">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11780" uniqueCount="1923">
   <si>
     <t>ID_article</t>
   </si>
@@ -5607,6 +5608,205 @@
   </si>
   <si>
     <t>Visual perception</t>
+  </si>
+  <si>
+    <t>other_methods</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>Marx, I., Cortese, S., Koelch, M. G., &amp; Hacker, T.</t>
+  </si>
+  <si>
+    <t>Meta-analysis: Altered Perceptual Timing Abilities in Attention-Deficit/Hyperactivity Disorder</t>
+  </si>
+  <si>
+    <t>['I2', 'Q', 'other']</t>
+  </si>
+  <si>
+    <t>2001_1</t>
+  </si>
+  <si>
+    <t>Primary pooled estimates by paradigm/outcome; likely overlapping study pools across outcomes within paradigms.</t>
+  </si>
+  <si>
+    <t>Sensitivity threshold / number of correct comparisons (time discrimination and temporal bisection)</t>
+  </si>
+  <si>
+    <t>Assessed</t>
+  </si>
+  <si>
+    <t>Sample age composition not provided in extracted text (Table S3 online-only).</t>
+  </si>
+  <si>
+    <t>Time discrimination: 1,420 subjects total; 675 ADHD; 745 controls.</t>
+  </si>
+  <si>
+    <t>Time discrimination pooled effect; uses main outcome (sensitivity threshold / correct comparisons).</t>
+  </si>
+  <si>
+    <t>2001_2</t>
+  </si>
+  <si>
+    <t>2001_3</t>
+  </si>
+  <si>
+    <t>2001_4</t>
+  </si>
+  <si>
+    <t>2001_5</t>
+  </si>
+  <si>
+    <t>2001_6</t>
+  </si>
+  <si>
+    <t>2001_7</t>
+  </si>
+  <si>
+    <t>2001_8</t>
+  </si>
+  <si>
+    <t>2001_9</t>
+  </si>
+  <si>
+    <t>2001_10</t>
+  </si>
+  <si>
+    <t>2001_11</t>
+  </si>
+  <si>
+    <t>2001_12</t>
+  </si>
+  <si>
+    <t>Absolute errors / absolute discrepancy score (time estimation)</t>
+  </si>
+  <si>
+    <t>Time estimation (absolute discrepancy score): 971 subjects total; 577 ADHD; 394 controls.</t>
+  </si>
+  <si>
+    <t>output di chat gpt non menziona queste voci per cui non ci sono informazioni da riportare a mano</t>
+  </si>
+  <si>
+    <t>fatto da laura usando il prompt di estrazione scaricato dalla repo in data 15/01/26</t>
+  </si>
+  <si>
+    <t>Accuracy coefficient score (time estimation)</t>
+  </si>
+  <si>
+    <t>Time estimation (accuracy score): 342 subjects total; 240 ADHD; 102 controls.</t>
+  </si>
+  <si>
+    <t>Absolute errors / absolute discrepancy score (time production)</t>
+  </si>
+  <si>
+    <t>Time production (absolute discrepancy score): 448 subjects total; 177 ADHD; 271 controls.</t>
+  </si>
+  <si>
+    <t>Accuracy coefficient score (time production)</t>
+  </si>
+  <si>
+    <t>Time production (accuracy score): 212 subjects total; 74 ADHD; 138 controls.</t>
+  </si>
+  <si>
+    <t>Absolute errors / absolute discrepancy score (time reproduction)</t>
+  </si>
+  <si>
+    <t>Time reproduction (absolute discrepancy score): 3,029 subjects total; 1,690 ADHD; 1,339 controls.</t>
+  </si>
+  <si>
+    <t>Accuracy coefficient score (time reproduction)</t>
+  </si>
+  <si>
+    <t>Time reproduction (accuracy score): 1,007 subjects total; 518 ADHD; 489 controls.</t>
+  </si>
+  <si>
+    <t>Time estimation pooled effect (absolute discrepancy score).</t>
+  </si>
+  <si>
+    <t>Time estimation pooled effect (accuracy coefficient score).</t>
+  </si>
+  <si>
+    <t>Time production pooled effect (absolute discrepancy score).</t>
+  </si>
+  <si>
+    <t>Time production pooled effect (accuracy coefficient score).</t>
+  </si>
+  <si>
+    <t>Time reproduction pooled effect (absolute discrepancy score).</t>
+  </si>
+  <si>
+    <t>Time reproduction pooled effect (accuracy coefficient score).</t>
+  </si>
+  <si>
+    <t>Moderation/meta-regression subset estimate within time discrimination (IQ data available); overlap with main time discrimination pool likely.</t>
+  </si>
+  <si>
+    <t>Time discrimination paradigm (subset with IQ moderator data): estimated average outcome</t>
+  </si>
+  <si>
+    <t>ADHD vs neurotypical controls (subset: IQ moderator available)</t>
+  </si>
+  <si>
+    <t>Reported under 'Sociodemographic Data' moderation analyses for time discrimination; interpreted as model-based average outcome for subset.</t>
+  </si>
+  <si>
+    <t>Moderation/meta-regression estimate in time discrimination by interval duration; overlap with main time discrimination pool likely.</t>
+  </si>
+  <si>
+    <t>Time discrimination paradigm (interval duration moderation): subject versus control condition (model estimate)</t>
+  </si>
+  <si>
+    <t>ADHD vs neurotypical controls (duration moderation model)</t>
+  </si>
+  <si>
+    <t>Reported under interval duration moderation for time discrimination; number of studies for this specific model not explicitly captured in extracted text snippet (appears earlier in same paragraph).</t>
+  </si>
+  <si>
+    <t>Meta-regression coefficient from time discrimination interval-duration moderation; not a separate pooled cognitive outcome.</t>
+  </si>
+  <si>
+    <t>Time discrimination paradigm (interval duration moderation): difference between &lt;1-second and &gt;1-second durations (model coefficient)</t>
+  </si>
+  <si>
+    <t>Meta-regression coefficient (&lt;1s vs &gt;1s)</t>
+  </si>
+  <si>
+    <t>Coefficient reported as difference between duration categories; retained as an additional protocol-relevant effect estimate tied to time discrimination.</t>
+  </si>
+  <si>
+    <t>Moderation/meta-regression estimate in time estimation (absolute discrepancy) by interval duration; overlap with main time estimation pool likely.</t>
+  </si>
+  <si>
+    <t>Time estimation (absolute discrepancy) interval duration moderation: subject versus control condition (model estimate)</t>
+  </si>
+  <si>
+    <t>ADHD vs neurotypical controls (duration moderation model; absolute discrepancy)</t>
+  </si>
+  <si>
+    <t>Reported under time estimation interval duration moderation (7 studies). CI lower bound appears as '–0.34' in extracted text.</t>
+  </si>
+  <si>
+    <t>Meta-regression coefficient from time estimation interval-duration moderation; not a separate pooled cognitive outcome.</t>
+  </si>
+  <si>
+    <t>Time estimation (absolute discrepancy) interval duration moderation: stimulus interval duration effect (model coefficient)</t>
+  </si>
+  <si>
+    <t>Meta-regression coefficient (interval duration)</t>
+  </si>
+  <si>
+    <t>Coefficient reported as stimulus interval duration effect in time estimation moderation model (7 studies).</t>
+  </si>
+  <si>
+    <t>Some additional effect estimates are reported in moderation/meta-regression sections; these are model estimates from subsets and may not equal the primary pooled effects.
+"Age range / age subgroup composition for included samples is not reported in the extracted text (Table S3 referenced as online-only).",
+"Between-study variance is reported as s^2, but tau or tau^2 values are not provided for pooled effects in the extracted text (Tables S4/S5 referenced as online-only).",
+"Effect size is described as 'Bias corrected standardized mean differences (SMD)'; coded as 'Standardized Mean Difference'.",
+"One moderation result reports 95% CI lower bound as negative ('–0.34') despite a positive estimate; transcribed as printed without correction."</t>
   </si>
 </sst>
 </file>
@@ -5649,12 +5849,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -5684,7 +5896,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -5716,6 +5928,25 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6019,66 +6250,66 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AV312"/>
+  <dimension ref="A1:AV325"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AC11" sqref="AC11"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A302" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R327" sqref="R327"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15.5" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.81640625" customWidth="1"/>
-    <col min="4" max="4" width="6.81640625" customWidth="1"/>
-    <col min="5" max="5" width="70.08984375" customWidth="1"/>
-    <col min="6" max="6" width="36.453125" customWidth="1"/>
-    <col min="7" max="7" width="32.36328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30.7265625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="31.1796875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.81640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="33.81640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.83203125" customWidth="1"/>
+    <col min="4" max="4" width="6.83203125" customWidth="1"/>
+    <col min="5" max="5" width="70.1640625" customWidth="1"/>
+    <col min="6" max="6" width="36.5" customWidth="1"/>
+    <col min="7" max="7" width="32.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="31.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="33.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.1640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="23" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="25.81640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="27.1796875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="23.1796875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="28.6328125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="44.1796875" customWidth="1"/>
-    <col min="19" max="19" width="12.08984375" style="3" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.1796875" style="3" customWidth="1"/>
-    <col min="21" max="21" width="14.54296875" style="3" customWidth="1"/>
-    <col min="22" max="22" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="20.26953125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="17.7265625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="16.7265625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="54.7265625" customWidth="1"/>
-    <col min="27" max="27" width="28.1796875" customWidth="1"/>
-    <col min="28" max="28" width="24.453125" customWidth="1"/>
-    <col min="29" max="29" width="32.08984375" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="19.36328125" customWidth="1"/>
-    <col min="31" max="31" width="10.453125" customWidth="1"/>
-    <col min="32" max="32" width="10.453125" style="3" customWidth="1"/>
-    <col min="33" max="33" width="12.54296875" style="3" customWidth="1"/>
-    <col min="34" max="34" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="16.54296875" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="8.1796875" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="8.453125" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="6.90625" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="16.7265625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="17.08984375" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="57.90625" customWidth="1"/>
-    <col min="42" max="42" width="33.453125" customWidth="1"/>
-    <col min="43" max="43" width="21.6328125" customWidth="1"/>
-    <col min="44" max="44" width="31.6328125" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="25.83203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="27.1640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="44.1640625" customWidth="1"/>
+    <col min="19" max="19" width="12.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.1640625" style="3" customWidth="1"/>
+    <col min="21" max="21" width="14.5" style="3" customWidth="1"/>
+    <col min="22" max="22" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="54.6640625" customWidth="1"/>
+    <col min="27" max="27" width="28.1640625" customWidth="1"/>
+    <col min="28" max="28" width="24.5" customWidth="1"/>
+    <col min="29" max="29" width="32.1640625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="19.33203125" customWidth="1"/>
+    <col min="31" max="31" width="10.5" customWidth="1"/>
+    <col min="32" max="32" width="10.5" style="3" customWidth="1"/>
+    <col min="33" max="33" width="12.5" style="3" customWidth="1"/>
+    <col min="34" max="34" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="57.83203125" customWidth="1"/>
+    <col min="42" max="42" width="33.5" customWidth="1"/>
+    <col min="43" max="43" width="21.6640625" customWidth="1"/>
+    <col min="44" max="44" width="31.6640625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="16.5" bestFit="1" customWidth="1"/>
     <col min="46" max="46" width="42" customWidth="1"/>
-    <col min="47" max="47" width="41.453125" customWidth="1"/>
-    <col min="48" max="48" width="48.6328125" customWidth="1"/>
+    <col min="47" max="47" width="41.5" customWidth="1"/>
+    <col min="48" max="48" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" s="5" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:48" s="5" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>1853</v>
       </c>
@@ -6224,7 +6455,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1854</v>
       </c>
@@ -6358,7 +6589,7 @@
         <v>1815</v>
       </c>
     </row>
-    <row r="3" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1854</v>
       </c>
@@ -6489,7 +6720,7 @@
         <v>1814</v>
       </c>
     </row>
-    <row r="4" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1854</v>
       </c>
@@ -6620,7 +6851,7 @@
         <v>1814</v>
       </c>
     </row>
-    <row r="5" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>1854</v>
       </c>
@@ -6751,7 +6982,7 @@
         <v>1814</v>
       </c>
     </row>
-    <row r="6" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>1854</v>
       </c>
@@ -6882,7 +7113,7 @@
         <v>1814</v>
       </c>
     </row>
-    <row r="7" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>1854</v>
       </c>
@@ -7010,7 +7241,7 @@
         <v>1814</v>
       </c>
     </row>
-    <row r="8" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>1854</v>
       </c>
@@ -7150,7 +7381,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="9" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>1854</v>
       </c>
@@ -7290,7 +7521,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="10" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>1854</v>
       </c>
@@ -7430,7 +7661,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="11" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>1854</v>
       </c>
@@ -7567,7 +7798,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="12" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>1854</v>
       </c>
@@ -7704,7 +7935,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="13" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>1854</v>
       </c>
@@ -7841,7 +8072,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="14" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>1854</v>
       </c>
@@ -7981,7 +8212,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="15" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>1854</v>
       </c>
@@ -8124,7 +8355,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="16" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>1854</v>
       </c>
@@ -8264,7 +8495,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="17" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>1854</v>
       </c>
@@ -8407,7 +8638,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="18" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>1854</v>
       </c>
@@ -8550,7 +8781,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="19" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>1854</v>
       </c>
@@ -8687,7 +8918,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="20" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>1854</v>
       </c>
@@ -8824,7 +9055,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="21" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>1854</v>
       </c>
@@ -8961,7 +9192,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="22" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>1854</v>
       </c>
@@ -9095,7 +9326,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="23" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>1854</v>
       </c>
@@ -9232,7 +9463,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="24" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>1854</v>
       </c>
@@ -9366,7 +9597,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="25" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>1854</v>
       </c>
@@ -9500,7 +9731,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="26" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>1854</v>
       </c>
@@ -9634,7 +9865,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="27" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>1854</v>
       </c>
@@ -9771,7 +10002,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="28" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>1854</v>
       </c>
@@ -9911,7 +10142,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="29" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>1854</v>
       </c>
@@ -10048,7 +10279,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="30" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>1854</v>
       </c>
@@ -10188,7 +10419,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="31" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>1854</v>
       </c>
@@ -10325,7 +10556,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="32" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>1854</v>
       </c>
@@ -10468,7 +10699,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="33" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>1854</v>
       </c>
@@ -10593,7 +10824,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="34" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>1854</v>
       </c>
@@ -10718,7 +10949,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="35" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>1854</v>
       </c>
@@ -10843,7 +11074,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="36" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>1854</v>
       </c>
@@ -10968,7 +11199,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="37" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>1854</v>
       </c>
@@ -11108,7 +11339,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="38" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>1854</v>
       </c>
@@ -11248,7 +11479,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="39" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>1854</v>
       </c>
@@ -11385,7 +11616,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="40" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>1854</v>
       </c>
@@ -11522,7 +11753,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="41" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>1854</v>
       </c>
@@ -11662,7 +11893,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="42" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>1854</v>
       </c>
@@ -11796,7 +12027,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="43" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>1854</v>
       </c>
@@ -11930,7 +12161,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="44" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>1854</v>
       </c>
@@ -12064,7 +12295,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="45" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>1854</v>
       </c>
@@ -12198,7 +12429,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="46" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>1854</v>
       </c>
@@ -12332,7 +12563,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="47" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>1854</v>
       </c>
@@ -12469,7 +12700,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="48" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>1854</v>
       </c>
@@ -12603,7 +12834,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="49" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>1854</v>
       </c>
@@ -12737,7 +12968,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="50" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>1854</v>
       </c>
@@ -12877,7 +13108,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="51" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>1854</v>
       </c>
@@ -13014,7 +13245,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="52" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>1854</v>
       </c>
@@ -13154,7 +13385,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="53" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>1854</v>
       </c>
@@ -13294,7 +13525,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="54" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>1854</v>
       </c>
@@ -13431,7 +13662,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="55" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>1854</v>
       </c>
@@ -13568,7 +13799,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="56" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>1854</v>
       </c>
@@ -13705,7 +13936,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="57" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>1854</v>
       </c>
@@ -13839,7 +14070,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="58" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>1854</v>
       </c>
@@ -13976,7 +14207,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="59" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>1854</v>
       </c>
@@ -14116,7 +14347,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="60" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>1854</v>
       </c>
@@ -14253,7 +14484,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="61" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>1854</v>
       </c>
@@ -14393,7 +14624,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="62" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>1854</v>
       </c>
@@ -14530,7 +14761,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="63" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>1854</v>
       </c>
@@ -14667,7 +14898,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="64" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>1854</v>
       </c>
@@ -14801,7 +15032,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="65" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>1854</v>
       </c>
@@ -14938,7 +15169,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="66" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>1854</v>
       </c>
@@ -15072,7 +15303,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="67" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>1854</v>
       </c>
@@ -15206,7 +15437,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="68" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>1854</v>
       </c>
@@ -15340,7 +15571,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="69" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>1854</v>
       </c>
@@ -15471,7 +15702,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="70" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>1854</v>
       </c>
@@ -15602,7 +15833,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="71" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>1854</v>
       </c>
@@ -15730,7 +15961,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="72" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>1854</v>
       </c>
@@ -15858,7 +16089,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="73" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>1854</v>
       </c>
@@ -15986,7 +16217,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="74" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>1854</v>
       </c>
@@ -16114,7 +16345,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="75" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>1854</v>
       </c>
@@ -16251,7 +16482,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="76" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>1854</v>
       </c>
@@ -16376,7 +16607,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="77" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>1854</v>
       </c>
@@ -16501,7 +16732,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="78" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>1854</v>
       </c>
@@ -16629,7 +16860,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="79" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>1854</v>
       </c>
@@ -16763,7 +16994,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="80" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>1854</v>
       </c>
@@ -16900,7 +17131,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="81" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>1854</v>
       </c>
@@ -17037,7 +17268,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="82" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>1854</v>
       </c>
@@ -17174,7 +17405,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="83" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>1854</v>
       </c>
@@ -17299,7 +17530,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="84" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>1854</v>
       </c>
@@ -17424,7 +17655,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="85" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>1854</v>
       </c>
@@ -17549,7 +17780,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="86" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>1854</v>
       </c>
@@ -17674,7 +17905,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="87" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>1854</v>
       </c>
@@ -17799,7 +18030,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="88" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>1854</v>
       </c>
@@ -17924,7 +18155,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="89" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>1854</v>
       </c>
@@ -18061,7 +18292,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="90" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>1854</v>
       </c>
@@ -18198,7 +18429,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="91" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>1854</v>
       </c>
@@ -18335,7 +18566,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="92" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>1854</v>
       </c>
@@ -18472,7 +18703,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="93" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>1854</v>
       </c>
@@ -18609,7 +18840,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="94" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>1854</v>
       </c>
@@ -18746,7 +18977,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="95" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>1854</v>
       </c>
@@ -18883,7 +19114,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="96" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>1854</v>
       </c>
@@ -19008,7 +19239,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="97" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>1854</v>
       </c>
@@ -19133,7 +19364,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="98" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>1854</v>
       </c>
@@ -19258,7 +19489,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="99" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>1854</v>
       </c>
@@ -19383,7 +19614,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="100" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>1854</v>
       </c>
@@ -19508,7 +19739,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="101" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>1854</v>
       </c>
@@ -19645,7 +19876,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="102" spans="1:48" s="9" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:48" s="9" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>1854</v>
       </c>
@@ -19777,7 +20008,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="103" spans="1:48" s="9" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:48" s="9" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>1854</v>
       </c>
@@ -19909,7 +20140,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="104" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>1854</v>
       </c>
@@ -20046,7 +20277,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="105" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>1854</v>
       </c>
@@ -20183,7 +20414,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="106" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>1854</v>
       </c>
@@ -20320,7 +20551,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="107" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>1854</v>
       </c>
@@ -20454,7 +20685,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="108" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>1854</v>
       </c>
@@ -20588,7 +20819,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="109" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>1854</v>
       </c>
@@ -20722,7 +20953,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="110" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>1854</v>
       </c>
@@ -20856,7 +21087,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="111" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>1854</v>
       </c>
@@ -20990,7 +21221,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="112" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>1854</v>
       </c>
@@ -21115,7 +21346,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="113" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>1854</v>
       </c>
@@ -21243,7 +21474,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="114" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>1854</v>
       </c>
@@ -21371,7 +21602,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="115" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>1854</v>
       </c>
@@ -21499,7 +21730,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="116" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>1854</v>
       </c>
@@ -21627,7 +21858,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="117" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>1854</v>
       </c>
@@ -21755,7 +21986,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="118" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>1854</v>
       </c>
@@ -21883,7 +22114,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="119" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>1854</v>
       </c>
@@ -22011,7 +22242,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="120" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>1854</v>
       </c>
@@ -22139,7 +22370,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="121" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>1854</v>
       </c>
@@ -22273,7 +22504,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="122" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>1854</v>
       </c>
@@ -22407,7 +22638,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="123" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>1854</v>
       </c>
@@ -22541,7 +22772,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="124" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>1854</v>
       </c>
@@ -22675,7 +22906,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="125" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>1854</v>
       </c>
@@ -22806,7 +23037,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="126" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>1854</v>
       </c>
@@ -22940,7 +23171,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="127" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>1854</v>
       </c>
@@ -23074,7 +23305,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="128" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>1854</v>
       </c>
@@ -23208,7 +23439,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="129" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>1854</v>
       </c>
@@ -23339,7 +23570,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="130" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>1854</v>
       </c>
@@ -23473,7 +23704,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="131" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>1854</v>
       </c>
@@ -23613,7 +23844,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="132" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>1854</v>
       </c>
@@ -23750,7 +23981,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="133" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>1854</v>
       </c>
@@ -23887,7 +24118,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="134" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>1854</v>
       </c>
@@ -24024,7 +24255,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="135" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>1854</v>
       </c>
@@ -24161,7 +24392,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="136" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>1854</v>
       </c>
@@ -24295,7 +24526,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="137" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>1854</v>
       </c>
@@ -24429,7 +24660,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="138" spans="1:48" s="5" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:48" s="5" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>1854</v>
       </c>
@@ -24564,7 +24795,7 @@
         <v>1846</v>
       </c>
     </row>
-    <row r="139" spans="1:48" s="5" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:48" s="5" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>1854</v>
       </c>
@@ -24696,7 +24927,7 @@
         <v>1846</v>
       </c>
     </row>
-    <row r="140" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>1854</v>
       </c>
@@ -24821,7 +25052,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="141" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>1854</v>
       </c>
@@ -24943,7 +25174,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="142" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>1854</v>
       </c>
@@ -25065,7 +25296,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="143" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>1854</v>
       </c>
@@ -25199,7 +25430,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="144" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>1854</v>
       </c>
@@ -25336,7 +25567,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="145" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>1854</v>
       </c>
@@ -25467,7 +25698,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="146" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>1854</v>
       </c>
@@ -25601,7 +25832,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="147" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>1854</v>
       </c>
@@ -25738,7 +25969,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="148" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>1854</v>
       </c>
@@ -25872,7 +26103,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="149" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>1854</v>
       </c>
@@ -25994,7 +26225,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="150" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>1854</v>
       </c>
@@ -26134,7 +26365,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="151" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>1854</v>
       </c>
@@ -26274,7 +26505,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="152" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>1854</v>
       </c>
@@ -26414,7 +26645,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="153" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>1854</v>
       </c>
@@ -26554,7 +26785,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="154" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>1854</v>
       </c>
@@ -26691,7 +26922,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="155" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>1854</v>
       </c>
@@ -26831,7 +27062,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="156" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>1854</v>
       </c>
@@ -26971,7 +27202,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="157" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>1854</v>
       </c>
@@ -27111,7 +27342,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="158" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>1854</v>
       </c>
@@ -27251,7 +27482,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="159" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>1854</v>
       </c>
@@ -27391,7 +27622,7 @@
         <v>1138</v>
       </c>
     </row>
-    <row r="160" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>1854</v>
       </c>
@@ -27531,7 +27762,7 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="161" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>1854</v>
       </c>
@@ -27671,7 +27902,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="162" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>1854</v>
       </c>
@@ -27811,7 +28042,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="163" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>1854</v>
       </c>
@@ -27951,7 +28182,7 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="164" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>1854</v>
       </c>
@@ -28085,7 +28316,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="165" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>1854</v>
       </c>
@@ -28219,7 +28450,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="166" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>1854</v>
       </c>
@@ -28353,7 +28584,7 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="167" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>1854</v>
       </c>
@@ -28487,7 +28718,7 @@
         <v>1187</v>
       </c>
     </row>
-    <row r="168" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>1854</v>
       </c>
@@ -28621,7 +28852,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="169" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>1854</v>
       </c>
@@ -28755,7 +28986,7 @@
         <v>1193</v>
       </c>
     </row>
-    <row r="170" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>1854</v>
       </c>
@@ -28889,7 +29120,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="171" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>1854</v>
       </c>
@@ -29020,7 +29251,7 @@
         <v>1199</v>
       </c>
     </row>
-    <row r="172" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>1854</v>
       </c>
@@ -29151,7 +29382,7 @@
         <v>1202</v>
       </c>
     </row>
-    <row r="173" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>1854</v>
       </c>
@@ -29282,7 +29513,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="174" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>1854</v>
       </c>
@@ -29413,7 +29644,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="175" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>1854</v>
       </c>
@@ -29547,7 +29778,7 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="176" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>1854</v>
       </c>
@@ -29681,7 +29912,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="177" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>1854</v>
       </c>
@@ -29815,7 +30046,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="178" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>1854</v>
       </c>
@@ -29949,7 +30180,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="179" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>1854</v>
       </c>
@@ -30083,7 +30314,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="180" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>1854</v>
       </c>
@@ -30217,7 +30448,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="181" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>1854</v>
       </c>
@@ -30348,7 +30579,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="182" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>1854</v>
       </c>
@@ -30482,7 +30713,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="183" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>1854</v>
       </c>
@@ -30616,7 +30847,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="184" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>1854</v>
       </c>
@@ -30750,7 +30981,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="185" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>1854</v>
       </c>
@@ -30887,7 +31118,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="186" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>1854</v>
       </c>
@@ -31024,7 +31255,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="187" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>1854</v>
       </c>
@@ -31161,7 +31392,7 @@
         <v>1262</v>
       </c>
     </row>
-    <row r="188" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>1854</v>
       </c>
@@ -31298,7 +31529,7 @@
         <v>1267</v>
       </c>
     </row>
-    <row r="189" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>1854</v>
       </c>
@@ -31432,7 +31663,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="190" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>1854</v>
       </c>
@@ -31566,7 +31797,7 @@
         <v>1284</v>
       </c>
     </row>
-    <row r="191" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>1854</v>
       </c>
@@ -31703,7 +31934,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="192" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>1854</v>
       </c>
@@ -31840,7 +32071,7 @@
         <v>1295</v>
       </c>
     </row>
-    <row r="193" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>1854</v>
       </c>
@@ -31980,7 +32211,7 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="194" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>1854</v>
       </c>
@@ -32111,7 +32342,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="195" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>1854</v>
       </c>
@@ -32245,7 +32476,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="196" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>1854</v>
       </c>
@@ -32379,7 +32610,7 @@
         <v>1328</v>
       </c>
     </row>
-    <row r="197" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>1854</v>
       </c>
@@ -32513,7 +32744,7 @@
         <v>1328</v>
       </c>
     </row>
-    <row r="198" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>1854</v>
       </c>
@@ -32644,7 +32875,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="199" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>1854</v>
       </c>
@@ -32775,7 +33006,7 @@
         <v>1336</v>
       </c>
     </row>
-    <row r="200" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>1854</v>
       </c>
@@ -32903,7 +33134,7 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="201" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>1854</v>
       </c>
@@ -33034,7 +33265,7 @@
         <v>1328</v>
       </c>
     </row>
-    <row r="202" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>1854</v>
       </c>
@@ -33165,7 +33396,7 @@
         <v>1328</v>
       </c>
     </row>
-    <row r="203" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>1854</v>
       </c>
@@ -33296,7 +33527,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="204" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>1854</v>
       </c>
@@ -33424,7 +33655,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="205" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>1854</v>
       </c>
@@ -33561,7 +33792,7 @@
         <v>1361</v>
       </c>
     </row>
-    <row r="206" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>1854</v>
       </c>
@@ -33698,7 +33929,7 @@
         <v>1365</v>
       </c>
     </row>
-    <row r="207" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>1854</v>
       </c>
@@ -33832,7 +34063,7 @@
         <v>1365</v>
       </c>
     </row>
-    <row r="208" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>1854</v>
       </c>
@@ -33969,7 +34200,7 @@
         <v>1365</v>
       </c>
     </row>
-    <row r="209" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>1854</v>
       </c>
@@ -34106,7 +34337,7 @@
         <v>1365</v>
       </c>
     </row>
-    <row r="210" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>1854</v>
       </c>
@@ -34240,7 +34471,7 @@
         <v>1365</v>
       </c>
     </row>
-    <row r="211" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>1854</v>
       </c>
@@ -34377,7 +34608,7 @@
         <v>1365</v>
       </c>
     </row>
-    <row r="212" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>1854</v>
       </c>
@@ -34517,7 +34748,7 @@
         <v>1395</v>
       </c>
     </row>
-    <row r="213" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>1854</v>
       </c>
@@ -34657,7 +34888,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="214" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>1854</v>
       </c>
@@ -34797,7 +35028,7 @@
         <v>1404</v>
       </c>
     </row>
-    <row r="215" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>1854</v>
       </c>
@@ -34937,7 +35168,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="216" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>1854</v>
       </c>
@@ -35077,7 +35308,7 @@
         <v>1412</v>
       </c>
     </row>
-    <row r="217" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>1854</v>
       </c>
@@ -35217,7 +35448,7 @@
         <v>1417</v>
       </c>
     </row>
-    <row r="218" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>1854</v>
       </c>
@@ -35357,7 +35588,7 @@
         <v>1421</v>
       </c>
     </row>
-    <row r="219" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>1854</v>
       </c>
@@ -35497,7 +35728,7 @@
         <v>1424</v>
       </c>
     </row>
-    <row r="220" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>1854</v>
       </c>
@@ -35637,7 +35868,7 @@
         <v>1428</v>
       </c>
     </row>
-    <row r="221" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>1854</v>
       </c>
@@ -35771,7 +36002,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="222" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>1854</v>
       </c>
@@ -35911,7 +36142,7 @@
         <v>1445</v>
       </c>
     </row>
-    <row r="223" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>1854</v>
       </c>
@@ -36051,7 +36282,7 @@
         <v>1450</v>
       </c>
     </row>
-    <row r="224" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>1854</v>
       </c>
@@ -36191,7 +36422,7 @@
         <v>1455</v>
       </c>
     </row>
-    <row r="225" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>1854</v>
       </c>
@@ -36331,7 +36562,7 @@
         <v>1460</v>
       </c>
     </row>
-    <row r="226" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>1854</v>
       </c>
@@ -36471,7 +36702,7 @@
         <v>1465</v>
       </c>
     </row>
-    <row r="227" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>1854</v>
       </c>
@@ -36611,7 +36842,7 @@
         <v>1469</v>
       </c>
     </row>
-    <row r="228" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>1854</v>
       </c>
@@ -36751,7 +36982,7 @@
         <v>1473</v>
       </c>
     </row>
-    <row r="229" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>1854</v>
       </c>
@@ -36891,7 +37122,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="230" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>1854</v>
       </c>
@@ -37031,7 +37262,7 @@
         <v>1482</v>
       </c>
     </row>
-    <row r="231" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>1854</v>
       </c>
@@ -37168,7 +37399,7 @@
         <v>1486</v>
       </c>
     </row>
-    <row r="232" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>1854</v>
       </c>
@@ -37305,7 +37536,7 @@
         <v>1490</v>
       </c>
     </row>
-    <row r="233" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>1854</v>
       </c>
@@ -37445,7 +37676,7 @@
         <v>1502</v>
       </c>
     </row>
-    <row r="234" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>1854</v>
       </c>
@@ -37582,7 +37813,7 @@
         <v>1506</v>
       </c>
     </row>
-    <row r="235" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>1854</v>
       </c>
@@ -37722,7 +37953,7 @@
         <v>1510</v>
       </c>
     </row>
-    <row r="236" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>1854</v>
       </c>
@@ -37862,7 +38093,7 @@
         <v>1515</v>
       </c>
     </row>
-    <row r="237" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>1854</v>
       </c>
@@ -38002,7 +38233,7 @@
         <v>1519</v>
       </c>
     </row>
-    <row r="238" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>1854</v>
       </c>
@@ -38142,7 +38373,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="239" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>1854</v>
       </c>
@@ -38282,7 +38513,7 @@
         <v>1528</v>
       </c>
     </row>
-    <row r="240" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>1854</v>
       </c>
@@ -38422,7 +38653,7 @@
         <v>1502</v>
       </c>
     </row>
-    <row r="241" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>1854</v>
       </c>
@@ -38562,7 +38793,7 @@
         <v>1537</v>
       </c>
     </row>
-    <row r="242" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>1854</v>
       </c>
@@ -38705,7 +38936,7 @@
         <v>1543</v>
       </c>
     </row>
-    <row r="243" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>1854</v>
       </c>
@@ -38839,7 +39070,7 @@
         <v>1554</v>
       </c>
     </row>
-    <row r="244" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>1854</v>
       </c>
@@ -38973,7 +39204,7 @@
         <v>1559</v>
       </c>
     </row>
-    <row r="245" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>1854</v>
       </c>
@@ -39107,7 +39338,7 @@
         <v>1564</v>
       </c>
     </row>
-    <row r="246" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>1854</v>
       </c>
@@ -39241,7 +39472,7 @@
         <v>1568</v>
       </c>
     </row>
-    <row r="247" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>1854</v>
       </c>
@@ -39375,7 +39606,7 @@
         <v>1577</v>
       </c>
     </row>
-    <row r="248" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>1854</v>
       </c>
@@ -39503,7 +39734,7 @@
         <v>1577</v>
       </c>
     </row>
-    <row r="249" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>1854</v>
       </c>
@@ -39631,7 +39862,7 @@
         <v>1577</v>
       </c>
     </row>
-    <row r="250" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>1854</v>
       </c>
@@ -39756,7 +39987,7 @@
         <v>1577</v>
       </c>
     </row>
-    <row r="251" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>1854</v>
       </c>
@@ -39881,7 +40112,7 @@
         <v>1577</v>
       </c>
     </row>
-    <row r="252" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>1854</v>
       </c>
@@ -40009,7 +40240,7 @@
         <v>1577</v>
       </c>
     </row>
-    <row r="253" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>1854</v>
       </c>
@@ -40137,7 +40368,7 @@
         <v>1577</v>
       </c>
     </row>
-    <row r="254" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>1854</v>
       </c>
@@ -40265,7 +40496,7 @@
         <v>1577</v>
       </c>
     </row>
-    <row r="255" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>1854</v>
       </c>
@@ -40393,7 +40624,7 @@
         <v>1577</v>
       </c>
     </row>
-    <row r="256" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>1854</v>
       </c>
@@ -40521,7 +40752,7 @@
         <v>1577</v>
       </c>
     </row>
-    <row r="257" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>1854</v>
       </c>
@@ -40649,7 +40880,7 @@
         <v>1577</v>
       </c>
     </row>
-    <row r="258" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>1854</v>
       </c>
@@ -40777,7 +41008,7 @@
         <v>1577</v>
       </c>
     </row>
-    <row r="259" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>1854</v>
       </c>
@@ -40905,7 +41136,7 @@
         <v>1577</v>
       </c>
     </row>
-    <row r="260" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>1854</v>
       </c>
@@ -41033,7 +41264,7 @@
         <v>1577</v>
       </c>
     </row>
-    <row r="261" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>1854</v>
       </c>
@@ -41161,7 +41392,7 @@
         <v>1577</v>
       </c>
     </row>
-    <row r="262" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>1854</v>
       </c>
@@ -41289,7 +41520,7 @@
         <v>1577</v>
       </c>
     </row>
-    <row r="263" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>1854</v>
       </c>
@@ -41417,7 +41648,7 @@
         <v>1577</v>
       </c>
     </row>
-    <row r="264" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>1854</v>
       </c>
@@ -41545,7 +41776,7 @@
         <v>1577</v>
       </c>
     </row>
-    <row r="265" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>1854</v>
       </c>
@@ -41673,7 +41904,7 @@
         <v>1577</v>
       </c>
     </row>
-    <row r="266" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>1854</v>
       </c>
@@ -41801,7 +42032,7 @@
         <v>1577</v>
       </c>
     </row>
-    <row r="267" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>1854</v>
       </c>
@@ -41929,7 +42160,7 @@
         <v>1577</v>
       </c>
     </row>
-    <row r="268" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>1854</v>
       </c>
@@ -42057,7 +42288,7 @@
         <v>1577</v>
       </c>
     </row>
-    <row r="269" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>1854</v>
       </c>
@@ -42185,7 +42416,7 @@
         <v>1577</v>
       </c>
     </row>
-    <row r="270" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>1854</v>
       </c>
@@ -42313,7 +42544,7 @@
         <v>1577</v>
       </c>
     </row>
-    <row r="271" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>1854</v>
       </c>
@@ -42441,7 +42672,7 @@
         <v>1577</v>
       </c>
     </row>
-    <row r="272" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>1854</v>
       </c>
@@ -42566,7 +42797,7 @@
         <v>1577</v>
       </c>
     </row>
-    <row r="273" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>1854</v>
       </c>
@@ -42691,7 +42922,7 @@
         <v>1577</v>
       </c>
     </row>
-    <row r="274" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>1854</v>
       </c>
@@ -42822,7 +43053,7 @@
         <v>1577</v>
       </c>
     </row>
-    <row r="275" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>1854</v>
       </c>
@@ -42953,7 +43184,7 @@
         <v>1577</v>
       </c>
     </row>
-    <row r="276" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>1854</v>
       </c>
@@ -43078,7 +43309,7 @@
         <v>1577</v>
       </c>
     </row>
-    <row r="277" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>1854</v>
       </c>
@@ -43203,7 +43434,7 @@
         <v>1577</v>
       </c>
     </row>
-    <row r="278" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>1854</v>
       </c>
@@ -43331,7 +43562,7 @@
         <v>1577</v>
       </c>
     </row>
-    <row r="279" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>1854</v>
       </c>
@@ -43456,7 +43687,7 @@
         <v>1577</v>
       </c>
     </row>
-    <row r="280" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>1854</v>
       </c>
@@ -43581,7 +43812,7 @@
         <v>1577</v>
       </c>
     </row>
-    <row r="281" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>1854</v>
       </c>
@@ -43703,7 +43934,7 @@
         <v>1667</v>
       </c>
     </row>
-    <row r="282" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>1854</v>
       </c>
@@ -43825,7 +44056,7 @@
         <v>1667</v>
       </c>
     </row>
-    <row r="283" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>1854</v>
       </c>
@@ -43947,7 +44178,7 @@
         <v>1667</v>
       </c>
     </row>
-    <row r="284" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>1854</v>
       </c>
@@ -44069,7 +44300,7 @@
         <v>1667</v>
       </c>
     </row>
-    <row r="285" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>1854</v>
       </c>
@@ -44191,7 +44422,7 @@
         <v>1667</v>
       </c>
     </row>
-    <row r="286" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>1854</v>
       </c>
@@ -44313,7 +44544,7 @@
         <v>1667</v>
       </c>
     </row>
-    <row r="287" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>1854</v>
       </c>
@@ -44435,7 +44666,7 @@
         <v>1667</v>
       </c>
     </row>
-    <row r="288" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>1854</v>
       </c>
@@ -44557,7 +44788,7 @@
         <v>1667</v>
       </c>
     </row>
-    <row r="289" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>1854</v>
       </c>
@@ -44679,7 +44910,7 @@
         <v>1685</v>
       </c>
     </row>
-    <row r="290" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>1854</v>
       </c>
@@ -44801,7 +45032,7 @@
         <v>1696</v>
       </c>
     </row>
-    <row r="291" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>1854</v>
       </c>
@@ -44923,7 +45154,7 @@
         <v>1696</v>
       </c>
     </row>
-    <row r="292" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>1854</v>
       </c>
@@ -45045,7 +45276,7 @@
         <v>1696</v>
       </c>
     </row>
-    <row r="293" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>1854</v>
       </c>
@@ -45167,7 +45398,7 @@
         <v>1706</v>
       </c>
     </row>
-    <row r="294" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>1854</v>
       </c>
@@ -45292,7 +45523,7 @@
         <v>1717</v>
       </c>
     </row>
-    <row r="295" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>1854</v>
       </c>
@@ -45417,7 +45648,7 @@
         <v>1721</v>
       </c>
     </row>
-    <row r="296" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>1854</v>
       </c>
@@ -45542,7 +45773,7 @@
         <v>1724</v>
       </c>
     </row>
-    <row r="297" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>1854</v>
       </c>
@@ -45667,7 +45898,7 @@
         <v>1727</v>
       </c>
     </row>
-    <row r="298" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>1854</v>
       </c>
@@ -45804,7 +46035,7 @@
         <v>1740</v>
       </c>
     </row>
-    <row r="299" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>1854</v>
       </c>
@@ -45941,7 +46172,7 @@
         <v>1743</v>
       </c>
     </row>
-    <row r="300" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>1854</v>
       </c>
@@ -46078,7 +46309,7 @@
         <v>1747</v>
       </c>
     </row>
-    <row r="301" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>1854</v>
       </c>
@@ -46215,7 +46446,7 @@
         <v>1750</v>
       </c>
     </row>
-    <row r="302" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>1854</v>
       </c>
@@ -46355,7 +46586,7 @@
         <v>1754</v>
       </c>
     </row>
-    <row r="303" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>1854</v>
       </c>
@@ -46492,7 +46723,7 @@
         <v>1760</v>
       </c>
     </row>
-    <row r="304" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>1854</v>
       </c>
@@ -46632,7 +46863,7 @@
         <v>1766</v>
       </c>
     </row>
-    <row r="305" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>1854</v>
       </c>
@@ -46772,7 +47003,7 @@
         <v>1768</v>
       </c>
     </row>
-    <row r="306" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>1854</v>
       </c>
@@ -46912,7 +47143,7 @@
         <v>1770</v>
       </c>
     </row>
-    <row r="307" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>1854</v>
       </c>
@@ -47052,7 +47283,7 @@
         <v>1772</v>
       </c>
     </row>
-    <row r="308" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>1854</v>
       </c>
@@ -47192,7 +47423,7 @@
         <v>1774</v>
       </c>
     </row>
-    <row r="309" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>1854</v>
       </c>
@@ -47332,7 +47563,7 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="310" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>1854</v>
       </c>
@@ -47466,7 +47697,7 @@
         <v>1786</v>
       </c>
     </row>
-    <row r="311" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>1854</v>
       </c>
@@ -47600,7 +47831,7 @@
         <v>1793</v>
       </c>
     </row>
-    <row r="312" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>1854</v>
       </c>
@@ -47733,10 +47964,1601 @@
       <c r="AV312" t="s">
         <v>1793</v>
       </c>
+    </row>
+    <row r="313" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A313" s="14" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B313" s="15" t="s">
+        <v>1859</v>
+      </c>
+      <c r="C313" s="16" t="s">
+        <v>1861</v>
+      </c>
+      <c r="D313" s="16">
+        <v>2022</v>
+      </c>
+      <c r="E313" s="16" t="s">
+        <v>1862</v>
+      </c>
+      <c r="F313" s="16" t="s">
+        <v>1547</v>
+      </c>
+      <c r="G313" s="16" t="s">
+        <v>647</v>
+      </c>
+      <c r="H313" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I313" s="16" t="s">
+        <v>1863</v>
+      </c>
+      <c r="J313" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="K313" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="L313" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="M313" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="N313" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="O313" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="P313" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q313" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="R313" s="18" t="s">
+        <v>1922</v>
+      </c>
+      <c r="S313" s="17" t="s">
+        <v>1864</v>
+      </c>
+      <c r="T313" s="19"/>
+      <c r="U313" s="19"/>
+      <c r="V313" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="W313" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="X313" s="16" t="s">
+        <v>266</v>
+      </c>
+      <c r="Y313" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z313" s="16" t="s">
+        <v>1865</v>
+      </c>
+      <c r="AA313" s="16" t="s">
+        <v>1866</v>
+      </c>
+      <c r="AB313" s="16" t="s">
+        <v>1855</v>
+      </c>
+      <c r="AC313" s="16" t="s">
+        <v>325</v>
+      </c>
+      <c r="AE313" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="AF313" s="19"/>
+      <c r="AG313" s="17">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="AH313" s="16">
+        <v>6.1224489799999997E-2</v>
+      </c>
+      <c r="AI313" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ313" s="16">
+        <v>0.45</v>
+      </c>
+      <c r="AK313" s="16">
+        <v>0.69</v>
+      </c>
+      <c r="AL313" s="16">
+        <v>0.95</v>
+      </c>
+      <c r="AN313" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO313" s="16" t="s">
+        <v>1867</v>
+      </c>
+      <c r="AQ313" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="AR313" s="16" t="s">
+        <v>1868</v>
+      </c>
+      <c r="AS313" s="16">
+        <v>25</v>
+      </c>
+      <c r="AT313" s="16" t="s">
+        <v>1869</v>
+      </c>
+      <c r="AU313" s="16" t="s">
+        <v>329</v>
+      </c>
+      <c r="AV313" s="16" t="s">
+        <v>1870</v>
+      </c>
+    </row>
+    <row r="314" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A314" s="14" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B314" s="15" t="s">
+        <v>1859</v>
+      </c>
+      <c r="C314" s="16" t="s">
+        <v>1861</v>
+      </c>
+      <c r="D314" s="16">
+        <v>2022</v>
+      </c>
+      <c r="E314" s="16" t="s">
+        <v>1862</v>
+      </c>
+      <c r="F314" s="16" t="s">
+        <v>1547</v>
+      </c>
+      <c r="G314" s="16" t="s">
+        <v>647</v>
+      </c>
+      <c r="H314" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I314" s="16" t="s">
+        <v>1863</v>
+      </c>
+      <c r="J314" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="K314" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="L314" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="M314" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="N314" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="O314" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="P314" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q314" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="R314" s="18" t="s">
+        <v>1922</v>
+      </c>
+      <c r="S314" s="17" t="s">
+        <v>1871</v>
+      </c>
+      <c r="T314" s="19"/>
+      <c r="U314" s="19"/>
+      <c r="V314" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="W314" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="X314" s="16" t="s">
+        <v>266</v>
+      </c>
+      <c r="Y314" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z314" s="16" t="s">
+        <v>1865</v>
+      </c>
+      <c r="AA314" s="18" t="s">
+        <v>1882</v>
+      </c>
+      <c r="AB314" s="16" t="s">
+        <v>1855</v>
+      </c>
+      <c r="AC314" s="16" t="s">
+        <v>325</v>
+      </c>
+      <c r="AE314" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="AF314" s="19"/>
+      <c r="AG314" s="17">
+        <v>0.35</v>
+      </c>
+      <c r="AH314" s="16">
+        <v>6.6326530600000003E-2</v>
+      </c>
+      <c r="AI314" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ314" s="16">
+        <v>0.22</v>
+      </c>
+      <c r="AK314" s="16">
+        <v>0.48</v>
+      </c>
+      <c r="AL314" s="16">
+        <v>0.95</v>
+      </c>
+      <c r="AN314" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO314" s="16" t="s">
+        <v>1867</v>
+      </c>
+      <c r="AQ314" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="AR314" s="16" t="s">
+        <v>1868</v>
+      </c>
+      <c r="AS314" s="16">
+        <v>8</v>
+      </c>
+      <c r="AT314" s="16" t="s">
+        <v>1883</v>
+      </c>
+      <c r="AU314" s="16" t="s">
+        <v>329</v>
+      </c>
+      <c r="AV314" s="16" t="s">
+        <v>1896</v>
+      </c>
+    </row>
+    <row r="315" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A315" s="14" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B315" s="15" t="s">
+        <v>1859</v>
+      </c>
+      <c r="C315" s="16" t="s">
+        <v>1861</v>
+      </c>
+      <c r="D315" s="16">
+        <v>2022</v>
+      </c>
+      <c r="E315" s="16" t="s">
+        <v>1862</v>
+      </c>
+      <c r="F315" s="16" t="s">
+        <v>1547</v>
+      </c>
+      <c r="G315" s="16" t="s">
+        <v>647</v>
+      </c>
+      <c r="H315" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I315" s="16" t="s">
+        <v>1863</v>
+      </c>
+      <c r="J315" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="K315" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="L315" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="M315" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="N315" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="O315" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="P315" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q315" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="R315" s="18" t="s">
+        <v>1922</v>
+      </c>
+      <c r="S315" s="17" t="s">
+        <v>1872</v>
+      </c>
+      <c r="T315" s="19"/>
+      <c r="U315" s="19"/>
+      <c r="V315" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="W315" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="X315" s="16" t="s">
+        <v>266</v>
+      </c>
+      <c r="Y315" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z315" s="16" t="s">
+        <v>1865</v>
+      </c>
+      <c r="AA315" s="16" t="s">
+        <v>1886</v>
+      </c>
+      <c r="AB315" s="16" t="s">
+        <v>1855</v>
+      </c>
+      <c r="AC315" s="16" t="s">
+        <v>325</v>
+      </c>
+      <c r="AE315" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="AF315" s="19"/>
+      <c r="AG315" s="17">
+        <v>0.43</v>
+      </c>
+      <c r="AH315" s="16">
+        <v>0.17091836730000001</v>
+      </c>
+      <c r="AI315" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ315" s="16">
+        <v>0.1</v>
+      </c>
+      <c r="AK315" s="16">
+        <v>0.77</v>
+      </c>
+      <c r="AL315" s="16">
+        <v>0.95</v>
+      </c>
+      <c r="AN315" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO315" s="16" t="s">
+        <v>1867</v>
+      </c>
+      <c r="AQ315" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="AR315" s="16" t="s">
+        <v>1868</v>
+      </c>
+      <c r="AS315" s="16">
+        <v>2</v>
+      </c>
+      <c r="AT315" s="16" t="s">
+        <v>1887</v>
+      </c>
+      <c r="AU315" s="16" t="s">
+        <v>329</v>
+      </c>
+      <c r="AV315" s="16" t="s">
+        <v>1897</v>
+      </c>
+    </row>
+    <row r="316" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A316" s="14" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B316" s="15" t="s">
+        <v>1859</v>
+      </c>
+      <c r="C316" s="16" t="s">
+        <v>1861</v>
+      </c>
+      <c r="D316" s="16">
+        <v>2022</v>
+      </c>
+      <c r="E316" s="16" t="s">
+        <v>1862</v>
+      </c>
+      <c r="F316" s="16" t="s">
+        <v>1547</v>
+      </c>
+      <c r="G316" s="16" t="s">
+        <v>647</v>
+      </c>
+      <c r="H316" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I316" s="16" t="s">
+        <v>1863</v>
+      </c>
+      <c r="J316" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="K316" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="L316" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="M316" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="N316" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="O316" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="P316" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q316" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="R316" s="18" t="s">
+        <v>1922</v>
+      </c>
+      <c r="S316" s="17" t="s">
+        <v>1873</v>
+      </c>
+      <c r="T316" s="19"/>
+      <c r="U316" s="19"/>
+      <c r="V316" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="W316" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="X316" s="16" t="s">
+        <v>266</v>
+      </c>
+      <c r="Y316" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z316" s="16" t="s">
+        <v>1865</v>
+      </c>
+      <c r="AA316" s="16" t="s">
+        <v>1888</v>
+      </c>
+      <c r="AB316" s="16" t="s">
+        <v>1855</v>
+      </c>
+      <c r="AC316" s="16" t="s">
+        <v>325</v>
+      </c>
+      <c r="AE316" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="AF316" s="19"/>
+      <c r="AG316" s="17">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="AH316" s="16">
+        <v>0.125</v>
+      </c>
+      <c r="AI316" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ316" s="16">
+        <v>0.05</v>
+      </c>
+      <c r="AK316" s="16">
+        <v>0.54</v>
+      </c>
+      <c r="AL316" s="16">
+        <v>0.95</v>
+      </c>
+      <c r="AN316" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO316" s="16" t="s">
+        <v>1867</v>
+      </c>
+      <c r="AQ316" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="AR316" s="16" t="s">
+        <v>1868</v>
+      </c>
+      <c r="AS316" s="16">
+        <v>7</v>
+      </c>
+      <c r="AT316" s="16" t="s">
+        <v>1889</v>
+      </c>
+      <c r="AU316" s="16" t="s">
+        <v>329</v>
+      </c>
+      <c r="AV316" s="16" t="s">
+        <v>1898</v>
+      </c>
+    </row>
+    <row r="317" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A317" s="14" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B317" s="15" t="s">
+        <v>1859</v>
+      </c>
+      <c r="C317" s="16" t="s">
+        <v>1861</v>
+      </c>
+      <c r="D317" s="16">
+        <v>2022</v>
+      </c>
+      <c r="E317" s="16" t="s">
+        <v>1862</v>
+      </c>
+      <c r="F317" s="16" t="s">
+        <v>1547</v>
+      </c>
+      <c r="G317" s="16" t="s">
+        <v>647</v>
+      </c>
+      <c r="H317" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I317" s="16" t="s">
+        <v>1863</v>
+      </c>
+      <c r="J317" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="K317" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="L317" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="M317" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="N317" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="O317" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="P317" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q317" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="R317" s="18" t="s">
+        <v>1922</v>
+      </c>
+      <c r="S317" s="17" t="s">
+        <v>1874</v>
+      </c>
+      <c r="T317" s="19"/>
+      <c r="U317" s="19"/>
+      <c r="V317" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="W317" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="X317" s="16" t="s">
+        <v>266</v>
+      </c>
+      <c r="Y317" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z317" s="16" t="s">
+        <v>1865</v>
+      </c>
+      <c r="AA317" s="16" t="s">
+        <v>1890</v>
+      </c>
+      <c r="AB317" s="16" t="s">
+        <v>1855</v>
+      </c>
+      <c r="AC317" s="16" t="s">
+        <v>325</v>
+      </c>
+      <c r="AE317" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="AF317" s="19"/>
+      <c r="AG317" s="17">
+        <v>-0.56999999999999995</v>
+      </c>
+      <c r="AH317" s="16">
+        <v>0.1147959184</v>
+      </c>
+      <c r="AI317" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ317" s="16">
+        <v>-0.8</v>
+      </c>
+      <c r="AK317" s="16">
+        <v>-0.35</v>
+      </c>
+      <c r="AL317" s="16">
+        <v>0.95</v>
+      </c>
+      <c r="AN317" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO317" s="16" t="s">
+        <v>1867</v>
+      </c>
+      <c r="AQ317" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="AR317" s="16" t="s">
+        <v>1868</v>
+      </c>
+      <c r="AS317" s="16">
+        <v>3</v>
+      </c>
+      <c r="AT317" s="16" t="s">
+        <v>1891</v>
+      </c>
+      <c r="AU317" s="16" t="s">
+        <v>329</v>
+      </c>
+      <c r="AV317" s="16" t="s">
+        <v>1899</v>
+      </c>
+    </row>
+    <row r="318" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A318" s="14" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B318" s="15" t="s">
+        <v>1859</v>
+      </c>
+      <c r="C318" s="16" t="s">
+        <v>1861</v>
+      </c>
+      <c r="D318" s="16">
+        <v>2022</v>
+      </c>
+      <c r="E318" s="16" t="s">
+        <v>1862</v>
+      </c>
+      <c r="F318" s="16" t="s">
+        <v>1547</v>
+      </c>
+      <c r="G318" s="16" t="s">
+        <v>647</v>
+      </c>
+      <c r="H318" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I318" s="16" t="s">
+        <v>1863</v>
+      </c>
+      <c r="J318" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="K318" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="L318" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="M318" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="N318" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="O318" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="P318" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q318" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="R318" s="18" t="s">
+        <v>1922</v>
+      </c>
+      <c r="S318" s="17" t="s">
+        <v>1875</v>
+      </c>
+      <c r="T318" s="19"/>
+      <c r="U318" s="19"/>
+      <c r="V318" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="W318" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="X318" s="16" t="s">
+        <v>266</v>
+      </c>
+      <c r="Y318" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z318" s="16" t="s">
+        <v>1865</v>
+      </c>
+      <c r="AA318" s="16" t="s">
+        <v>1892</v>
+      </c>
+      <c r="AB318" s="16" t="s">
+        <v>1855</v>
+      </c>
+      <c r="AC318" s="16" t="s">
+        <v>325</v>
+      </c>
+      <c r="AE318" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="AF318" s="19"/>
+      <c r="AG318" s="17">
+        <v>0.53</v>
+      </c>
+      <c r="AH318" s="16">
+        <v>5.3571428599999998E-2</v>
+      </c>
+      <c r="AI318" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ318" s="16">
+        <v>0.43</v>
+      </c>
+      <c r="AK318" s="16">
+        <v>0.64</v>
+      </c>
+      <c r="AL318" s="16">
+        <v>0.95</v>
+      </c>
+      <c r="AN318" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO318" s="16" t="s">
+        <v>1867</v>
+      </c>
+      <c r="AQ318" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="AR318" s="16" t="s">
+        <v>1868</v>
+      </c>
+      <c r="AS318" s="16">
+        <v>26</v>
+      </c>
+      <c r="AT318" s="16" t="s">
+        <v>1893</v>
+      </c>
+      <c r="AU318" s="16" t="s">
+        <v>329</v>
+      </c>
+      <c r="AV318" s="16" t="s">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="319" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A319" s="14" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B319" s="15" t="s">
+        <v>1859</v>
+      </c>
+      <c r="C319" s="16" t="s">
+        <v>1861</v>
+      </c>
+      <c r="D319" s="16">
+        <v>2022</v>
+      </c>
+      <c r="E319" s="16" t="s">
+        <v>1862</v>
+      </c>
+      <c r="F319" s="16" t="s">
+        <v>1547</v>
+      </c>
+      <c r="G319" s="16" t="s">
+        <v>647</v>
+      </c>
+      <c r="H319" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I319" s="16" t="s">
+        <v>1863</v>
+      </c>
+      <c r="J319" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="K319" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="L319" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="M319" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="N319" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="O319" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="P319" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q319" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="R319" s="18" t="s">
+        <v>1922</v>
+      </c>
+      <c r="S319" s="17" t="s">
+        <v>1876</v>
+      </c>
+      <c r="T319" s="19"/>
+      <c r="U319" s="19"/>
+      <c r="V319" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="W319" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="X319" s="16" t="s">
+        <v>266</v>
+      </c>
+      <c r="Y319" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z319" s="16" t="s">
+        <v>1865</v>
+      </c>
+      <c r="AA319" s="16" t="s">
+        <v>1894</v>
+      </c>
+      <c r="AB319" s="16" t="s">
+        <v>1855</v>
+      </c>
+      <c r="AC319" s="16" t="s">
+        <v>325</v>
+      </c>
+      <c r="AE319" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="AF319" s="19"/>
+      <c r="AG319" s="17">
+        <v>0.17</v>
+      </c>
+      <c r="AH319" s="16">
+        <v>0.15306122450000001</v>
+      </c>
+      <c r="AI319" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ319" s="16">
+        <v>-0.13</v>
+      </c>
+      <c r="AK319" s="16">
+        <v>0.47</v>
+      </c>
+      <c r="AL319" s="16">
+        <v>0.95</v>
+      </c>
+      <c r="AN319" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO319" s="16" t="s">
+        <v>1867</v>
+      </c>
+      <c r="AQ319" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="AR319" s="16" t="s">
+        <v>1868</v>
+      </c>
+      <c r="AS319" s="16">
+        <v>14</v>
+      </c>
+      <c r="AT319" s="16" t="s">
+        <v>1895</v>
+      </c>
+      <c r="AU319" s="16" t="s">
+        <v>329</v>
+      </c>
+      <c r="AV319" s="16" t="s">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="320" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A320" s="14" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B320" s="15" t="s">
+        <v>1859</v>
+      </c>
+      <c r="C320" s="16" t="s">
+        <v>1861</v>
+      </c>
+      <c r="D320" s="16">
+        <v>2022</v>
+      </c>
+      <c r="E320" s="16" t="s">
+        <v>1862</v>
+      </c>
+      <c r="F320" s="16" t="s">
+        <v>1547</v>
+      </c>
+      <c r="G320" s="16" t="s">
+        <v>647</v>
+      </c>
+      <c r="H320" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I320" s="16" t="s">
+        <v>1863</v>
+      </c>
+      <c r="J320" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="K320" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="L320" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="M320" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="N320" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="O320" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="P320" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q320" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="R320" s="18" t="s">
+        <v>1922</v>
+      </c>
+      <c r="S320" s="17" t="s">
+        <v>1877</v>
+      </c>
+      <c r="T320" s="19"/>
+      <c r="U320" s="19"/>
+      <c r="V320" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="W320" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="X320" s="16" t="s">
+        <v>266</v>
+      </c>
+      <c r="Y320" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z320" s="16" t="s">
+        <v>1902</v>
+      </c>
+      <c r="AA320" s="16" t="s">
+        <v>1903</v>
+      </c>
+      <c r="AB320" s="16" t="s">
+        <v>1855</v>
+      </c>
+      <c r="AC320" s="16" t="s">
+        <v>325</v>
+      </c>
+      <c r="AE320" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="AF320" s="19"/>
+      <c r="AG320" s="17">
+        <v>2.48</v>
+      </c>
+      <c r="AH320" s="16">
+        <v>0.84948979589999996</v>
+      </c>
+      <c r="AI320" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ320" s="16">
+        <v>0.82</v>
+      </c>
+      <c r="AK320" s="16">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="AL320" s="16">
+        <v>0.95</v>
+      </c>
+      <c r="AN320" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO320" s="16" t="s">
+        <v>1867</v>
+      </c>
+      <c r="AQ320" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="AR320" s="16" t="s">
+        <v>1868</v>
+      </c>
+      <c r="AS320" s="16">
+        <v>22</v>
+      </c>
+      <c r="AU320" s="16" t="s">
+        <v>1904</v>
+      </c>
+      <c r="AV320" s="16" t="s">
+        <v>1905</v>
+      </c>
+    </row>
+    <row r="321" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A321" s="14" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B321" s="15" t="s">
+        <v>1859</v>
+      </c>
+      <c r="C321" s="16" t="s">
+        <v>1861</v>
+      </c>
+      <c r="D321" s="16">
+        <v>2022</v>
+      </c>
+      <c r="E321" s="16" t="s">
+        <v>1862</v>
+      </c>
+      <c r="F321" s="16" t="s">
+        <v>1547</v>
+      </c>
+      <c r="G321" s="16" t="s">
+        <v>647</v>
+      </c>
+      <c r="H321" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I321" s="16" t="s">
+        <v>1863</v>
+      </c>
+      <c r="J321" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="K321" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="L321" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="M321" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="N321" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="O321" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="P321" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q321" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="R321" s="18" t="s">
+        <v>1922</v>
+      </c>
+      <c r="S321" s="17" t="s">
+        <v>1878</v>
+      </c>
+      <c r="T321" s="19"/>
+      <c r="U321" s="19"/>
+      <c r="V321" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="W321" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="X321" s="16" t="s">
+        <v>266</v>
+      </c>
+      <c r="Y321" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z321" s="16" t="s">
+        <v>1906</v>
+      </c>
+      <c r="AA321" s="16" t="s">
+        <v>1907</v>
+      </c>
+      <c r="AB321" s="16" t="s">
+        <v>1855</v>
+      </c>
+      <c r="AC321" s="16" t="s">
+        <v>325</v>
+      </c>
+      <c r="AE321" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="AF321" s="19"/>
+      <c r="AG321" s="17">
+        <v>0.71</v>
+      </c>
+      <c r="AH321" s="16">
+        <v>7.3979591799999994E-2</v>
+      </c>
+      <c r="AI321" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ321" s="16">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="AK321" s="16">
+        <v>0.85</v>
+      </c>
+      <c r="AL321" s="16">
+        <v>0.95</v>
+      </c>
+      <c r="AN321" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO321" s="16" t="s">
+        <v>1867</v>
+      </c>
+      <c r="AQ321" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="AR321" s="16" t="s">
+        <v>1868</v>
+      </c>
+      <c r="AU321" s="16" t="s">
+        <v>1908</v>
+      </c>
+      <c r="AV321" s="16" t="s">
+        <v>1909</v>
+      </c>
+    </row>
+    <row r="322" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A322" s="14" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B322" s="15" t="s">
+        <v>1859</v>
+      </c>
+      <c r="C322" s="16" t="s">
+        <v>1861</v>
+      </c>
+      <c r="D322" s="16">
+        <v>2022</v>
+      </c>
+      <c r="E322" s="16" t="s">
+        <v>1862</v>
+      </c>
+      <c r="F322" s="16" t="s">
+        <v>1547</v>
+      </c>
+      <c r="G322" s="16" t="s">
+        <v>647</v>
+      </c>
+      <c r="H322" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I322" s="16" t="s">
+        <v>1863</v>
+      </c>
+      <c r="J322" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="K322" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="L322" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="M322" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="N322" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="O322" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="P322" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q322" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="R322" s="18" t="s">
+        <v>1922</v>
+      </c>
+      <c r="S322" s="17" t="s">
+        <v>1879</v>
+      </c>
+      <c r="T322" s="19"/>
+      <c r="U322" s="19"/>
+      <c r="V322" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="W322" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="X322" s="16" t="s">
+        <v>266</v>
+      </c>
+      <c r="Y322" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z322" s="16" t="s">
+        <v>1910</v>
+      </c>
+      <c r="AA322" s="16" t="s">
+        <v>1911</v>
+      </c>
+      <c r="AB322" s="16" t="s">
+        <v>1855</v>
+      </c>
+      <c r="AC322" s="16" t="s">
+        <v>325</v>
+      </c>
+      <c r="AE322" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="AF322" s="19"/>
+      <c r="AG322" s="17">
+        <v>-0.22</v>
+      </c>
+      <c r="AH322" s="16">
+        <v>9.9489795899999997E-2</v>
+      </c>
+      <c r="AI322" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ322" s="16">
+        <v>-0.41</v>
+      </c>
+      <c r="AK322" s="16">
+        <v>-0.02</v>
+      </c>
+      <c r="AL322" s="16">
+        <v>0.95</v>
+      </c>
+      <c r="AN322" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO322" s="16" t="s">
+        <v>1867</v>
+      </c>
+      <c r="AQ322" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="AR322" s="16" t="s">
+        <v>1868</v>
+      </c>
+      <c r="AU322" s="16" t="s">
+        <v>1912</v>
+      </c>
+      <c r="AV322" s="16" t="s">
+        <v>1913</v>
+      </c>
+    </row>
+    <row r="323" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A323" s="14" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B323" s="15" t="s">
+        <v>1859</v>
+      </c>
+      <c r="C323" s="16" t="s">
+        <v>1861</v>
+      </c>
+      <c r="D323" s="16">
+        <v>2022</v>
+      </c>
+      <c r="E323" s="16" t="s">
+        <v>1862</v>
+      </c>
+      <c r="F323" s="16" t="s">
+        <v>1547</v>
+      </c>
+      <c r="G323" s="16" t="s">
+        <v>647</v>
+      </c>
+      <c r="H323" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I323" s="16" t="s">
+        <v>1863</v>
+      </c>
+      <c r="J323" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="K323" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="L323" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="M323" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="N323" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="O323" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="P323" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q323" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="R323" s="18" t="s">
+        <v>1922</v>
+      </c>
+      <c r="S323" s="17" t="s">
+        <v>1880</v>
+      </c>
+      <c r="T323" s="19"/>
+      <c r="U323" s="19"/>
+      <c r="V323" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="W323" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="X323" s="16" t="s">
+        <v>266</v>
+      </c>
+      <c r="Y323" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z323" s="16" t="s">
+        <v>1914</v>
+      </c>
+      <c r="AA323" s="16" t="s">
+        <v>1915</v>
+      </c>
+      <c r="AB323" s="16" t="s">
+        <v>1855</v>
+      </c>
+      <c r="AC323" s="16" t="s">
+        <v>325</v>
+      </c>
+      <c r="AE323" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="AF323" s="19"/>
+      <c r="AG323" s="17">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AH323" s="16">
+        <v>0.28061224489999997</v>
+      </c>
+      <c r="AI323" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ323" s="16">
+        <v>-0.34</v>
+      </c>
+      <c r="AK323" s="16">
+        <v>0.76</v>
+      </c>
+      <c r="AL323" s="16">
+        <v>0.95</v>
+      </c>
+      <c r="AN323" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO323" s="16" t="s">
+        <v>1867</v>
+      </c>
+      <c r="AQ323" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="AR323" s="16" t="s">
+        <v>1868</v>
+      </c>
+      <c r="AS323" s="16">
+        <v>7</v>
+      </c>
+      <c r="AU323" s="16" t="s">
+        <v>1916</v>
+      </c>
+      <c r="AV323" s="16" t="s">
+        <v>1917</v>
+      </c>
+    </row>
+    <row r="324" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A324" s="14" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B324" s="15" t="s">
+        <v>1859</v>
+      </c>
+      <c r="C324" s="16" t="s">
+        <v>1861</v>
+      </c>
+      <c r="D324" s="16">
+        <v>2022</v>
+      </c>
+      <c r="E324" s="16" t="s">
+        <v>1862</v>
+      </c>
+      <c r="F324" s="16" t="s">
+        <v>1547</v>
+      </c>
+      <c r="G324" s="16" t="s">
+        <v>647</v>
+      </c>
+      <c r="H324" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I324" s="16" t="s">
+        <v>1863</v>
+      </c>
+      <c r="J324" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="K324" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="L324" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="M324" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="N324" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="O324" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="P324" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q324" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="R324" s="18" t="s">
+        <v>1922</v>
+      </c>
+      <c r="S324" s="17" t="s">
+        <v>1881</v>
+      </c>
+      <c r="T324" s="19"/>
+      <c r="U324" s="19"/>
+      <c r="V324" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="W324" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="X324" s="16" t="s">
+        <v>266</v>
+      </c>
+      <c r="Y324" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z324" s="16" t="s">
+        <v>1918</v>
+      </c>
+      <c r="AA324" s="16" t="s">
+        <v>1919</v>
+      </c>
+      <c r="AB324" s="16" t="s">
+        <v>1855</v>
+      </c>
+      <c r="AC324" s="16" t="s">
+        <v>325</v>
+      </c>
+      <c r="AE324" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="AF324" s="19"/>
+      <c r="AG324" s="17">
+        <v>-0.01</v>
+      </c>
+      <c r="AH324" s="16">
+        <v>2.5510203999999999E-3</v>
+      </c>
+      <c r="AI324" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ324" s="16">
+        <v>-0.01</v>
+      </c>
+      <c r="AK324" s="16">
+        <v>0</v>
+      </c>
+      <c r="AL324" s="16">
+        <v>0.95</v>
+      </c>
+      <c r="AN324" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO324" s="16" t="s">
+        <v>1867</v>
+      </c>
+      <c r="AQ324" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="AR324" s="16" t="s">
+        <v>1868</v>
+      </c>
+      <c r="AS324" s="16">
+        <v>7</v>
+      </c>
+      <c r="AU324" s="18" t="s">
+        <v>1920</v>
+      </c>
+      <c r="AV324" s="16" t="s">
+        <v>1921</v>
+      </c>
+    </row>
+    <row r="325" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A325" s="21" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B325" s="22" t="s">
+        <v>1860</v>
+      </c>
+      <c r="S325" s="24"/>
+      <c r="T325" s="24"/>
+      <c r="U325" s="24"/>
+      <c r="AF325" s="24"/>
+      <c r="AG325" s="24"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA510F86-D66D-D540-A0B9-F358FD0C245A}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="20"/>
+      <c r="C1" t="s">
+        <v>1884</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="16"/>
+      <c r="C2" t="s">
+        <v>1885</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Data/coded-Dataset.xlsx
+++ b/Data/coded-Dataset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laura/Desktop/GITHUB-METAREVIEW/Meta-review-cognitive-profiles-ADHD-Dyslexia/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCD03974-159E-7A49-A8A2-EF854FDFB9F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B43DAE3F-7C93-774D-BA45-24C92AC8A987}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="660" windowWidth="30240" windowHeight="17200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30260" yWindow="600" windowWidth="38380" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="effect_sizes" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11780" uniqueCount="1923">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11958" uniqueCount="1946">
   <si>
     <t>ID_article</t>
   </si>
@@ -5807,6 +5807,75 @@
 "Between-study variance is reported as s^2, but tau or tau^2 values are not provided for pooled effects in the extracted text (Tables S4/S5 referenced as online-only).",
 "Effect size is described as 'Bias corrected standardized mean differences (SMD)'; coded as 'Standardized Mean Difference'.",
 "One moderation result reports 95% CI lower bound as negative ('–0.34') despite a positive estimate; transcribed as printed without correction."</t>
+  </si>
+  <si>
+    <t>Zheng, Q., Wang, X., Chiu, K. Y., &amp; Shum, K. K.</t>
+  </si>
+  <si>
+    <t>Time Perception Deficits in Children and Adolescents with ADHD: A Meta-analysis</t>
+  </si>
+  <si>
+    <t>Per pooled estimate sample sizes are not reported; only overall sample size is reported in the article text.; Publication-bias test statistics are explicitly reported in Results for outlier-corrected absolute error, outlier-corrected signed accuracy, and precision; not explicitly reported for the 'outliers included' variants.</t>
+  </si>
+  <si>
+    <t>2002_1</t>
+  </si>
+  <si>
+    <t>All pooled effects are for ADHD vs healthy controls in time perception; study pools differ by outcome and outlier rules but may overlap (conservatively treated as overlapping).</t>
+  </si>
+  <si>
+    <t>Absolute error in accuracy (Outliers included)</t>
+  </si>
+  <si>
+    <t>6-19 years</t>
+  </si>
+  <si>
+    <t>Overall: 1,620 ADHD and 1,249 healthy controls; per-pooled-estimate totals not reported.</t>
+  </si>
+  <si>
+    <t>ADHD vs healthy controls</t>
+  </si>
+  <si>
+    <t>Table 2, absolute error accuracy (outliers included). Tau derived from Tau2.</t>
+  </si>
+  <si>
+    <t>2002_2</t>
+  </si>
+  <si>
+    <t>2002_3</t>
+  </si>
+  <si>
+    <t>2002_4</t>
+  </si>
+  <si>
+    <t>2002_5</t>
+  </si>
+  <si>
+    <t>Absolute error in accuracy (Outlier-corrected)</t>
+  </si>
+  <si>
+    <t>Children/adolescents (6 to 19 years)</t>
+  </si>
+  <si>
+    <t>Table 2, absolute error accuracy (outlier-corrected). Tau derived from Tau2.</t>
+  </si>
+  <si>
+    <t>Signed accuracy (Outliers included)</t>
+  </si>
+  <si>
+    <t>Table 2, signed accuracy (outliers included). Tau derived from Tau2.</t>
+  </si>
+  <si>
+    <t>Signed accuracy (Outlier-corrected)</t>
+  </si>
+  <si>
+    <t>Table 2, signed accuracy (outlier-corrected). Tau derived from Tau2.</t>
+  </si>
+  <si>
+    <t>Precision (No outliers)</t>
+  </si>
+  <si>
+    <t>Table 2, precision (no outliers). Tau derived from Tau2</t>
   </si>
 </sst>
 </file>
@@ -5849,7 +5918,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5865,6 +5934,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5942,10 +6017,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -6250,11 +6325,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AV325"/>
+  <dimension ref="A1:AV329"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A302" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R327" sqref="R327"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A305" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R333" sqref="R333"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -49523,11 +49598,680 @@
       <c r="B325" s="22" t="s">
         <v>1860</v>
       </c>
-      <c r="S325" s="24"/>
-      <c r="T325" s="24"/>
-      <c r="U325" s="24"/>
-      <c r="AF325" s="24"/>
-      <c r="AG325" s="24"/>
+      <c r="C325" s="23" t="s">
+        <v>1923</v>
+      </c>
+      <c r="D325" s="23">
+        <v>2022</v>
+      </c>
+      <c r="E325" s="23" t="s">
+        <v>1924</v>
+      </c>
+      <c r="F325" s="23" t="s">
+        <v>407</v>
+      </c>
+      <c r="G325" s="23" t="s">
+        <v>1160</v>
+      </c>
+      <c r="H325" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I325" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="J325" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="K325" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="L325" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="M325" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="N325" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="O325" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="P325" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q325" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="R325" s="23" t="s">
+        <v>1925</v>
+      </c>
+      <c r="S325" s="24" t="s">
+        <v>1926</v>
+      </c>
+      <c r="T325" s="19"/>
+      <c r="U325" s="19"/>
+      <c r="V325" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="W325" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="X325" s="23" t="s">
+        <v>266</v>
+      </c>
+      <c r="Y325" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z325" s="23" t="s">
+        <v>1927</v>
+      </c>
+      <c r="AA325" s="23" t="s">
+        <v>1928</v>
+      </c>
+      <c r="AB325" s="23" t="s">
+        <v>1855</v>
+      </c>
+      <c r="AC325" s="23" t="s">
+        <v>325</v>
+      </c>
+      <c r="AE325" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF325" s="19"/>
+      <c r="AG325" s="24">
+        <v>0.65</v>
+      </c>
+      <c r="AH325" s="23">
+        <v>0.13010204081632601</v>
+      </c>
+      <c r="AI325" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ325" s="23">
+        <v>0.39</v>
+      </c>
+      <c r="AK325" s="23">
+        <v>0.9</v>
+      </c>
+      <c r="AL325" s="23">
+        <v>0.95</v>
+      </c>
+      <c r="AM325" s="23">
+        <v>0.556776436283002</v>
+      </c>
+      <c r="AN325" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="AO325" s="23" t="s">
+        <v>1867</v>
+      </c>
+      <c r="AP325" s="23" t="s">
+        <v>1929</v>
+      </c>
+      <c r="AQ325" s="23" t="s">
+        <v>1839</v>
+      </c>
+      <c r="AR325" s="23" t="s">
+        <v>1938</v>
+      </c>
+      <c r="AS325" s="23">
+        <v>18</v>
+      </c>
+      <c r="AT325" s="23" t="s">
+        <v>1930</v>
+      </c>
+      <c r="AU325" s="23" t="s">
+        <v>1931</v>
+      </c>
+      <c r="AV325" s="23" t="s">
+        <v>1932</v>
+      </c>
+    </row>
+    <row r="326" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A326" s="21" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B326" s="22" t="s">
+        <v>1860</v>
+      </c>
+      <c r="C326" s="23" t="s">
+        <v>1923</v>
+      </c>
+      <c r="D326" s="23">
+        <v>2022</v>
+      </c>
+      <c r="E326" s="23" t="s">
+        <v>1924</v>
+      </c>
+      <c r="F326" s="23" t="s">
+        <v>407</v>
+      </c>
+      <c r="G326" s="23" t="s">
+        <v>1160</v>
+      </c>
+      <c r="H326" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I326" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="J326" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="K326" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="L326" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="M326" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="N326" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="O326" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="P326" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q326" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="R326" s="23" t="s">
+        <v>1925</v>
+      </c>
+      <c r="S326" s="24" t="s">
+        <v>1933</v>
+      </c>
+      <c r="T326" s="19"/>
+      <c r="U326" s="19"/>
+      <c r="V326" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="W326" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="X326" s="23" t="s">
+        <v>266</v>
+      </c>
+      <c r="Y326" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z326" s="23" t="s">
+        <v>1927</v>
+      </c>
+      <c r="AA326" s="23" t="s">
+        <v>1937</v>
+      </c>
+      <c r="AB326" s="23" t="s">
+        <v>1855</v>
+      </c>
+      <c r="AC326" s="23" t="s">
+        <v>325</v>
+      </c>
+      <c r="AE326" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF326" s="19"/>
+      <c r="AG326" s="24">
+        <v>0.46</v>
+      </c>
+      <c r="AH326" s="23">
+        <v>5.10204081632653E-2</v>
+      </c>
+      <c r="AI326" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ326" s="23">
+        <v>0.36</v>
+      </c>
+      <c r="AK326" s="23">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="AL326" s="23">
+        <v>0.95</v>
+      </c>
+      <c r="AM326" s="23">
+        <v>0.1</v>
+      </c>
+      <c r="AN326" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="AO326" s="23" t="s">
+        <v>1867</v>
+      </c>
+      <c r="AP326" s="23" t="s">
+        <v>1929</v>
+      </c>
+      <c r="AQ326" s="23" t="s">
+        <v>1839</v>
+      </c>
+      <c r="AR326" s="23" t="s">
+        <v>1938</v>
+      </c>
+      <c r="AS326" s="23">
+        <v>16</v>
+      </c>
+      <c r="AT326" s="23" t="s">
+        <v>1930</v>
+      </c>
+      <c r="AU326" s="23" t="s">
+        <v>1931</v>
+      </c>
+      <c r="AV326" s="23" t="s">
+        <v>1939</v>
+      </c>
+    </row>
+    <row r="327" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A327" s="21" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B327" s="22" t="s">
+        <v>1860</v>
+      </c>
+      <c r="C327" s="23" t="s">
+        <v>1923</v>
+      </c>
+      <c r="D327" s="23">
+        <v>2022</v>
+      </c>
+      <c r="E327" s="23" t="s">
+        <v>1924</v>
+      </c>
+      <c r="F327" s="23" t="s">
+        <v>407</v>
+      </c>
+      <c r="G327" s="23" t="s">
+        <v>1160</v>
+      </c>
+      <c r="H327" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I327" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="J327" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="K327" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="L327" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="M327" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="N327" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="O327" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="P327" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q327" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="R327" s="23" t="s">
+        <v>1925</v>
+      </c>
+      <c r="S327" s="24" t="s">
+        <v>1934</v>
+      </c>
+      <c r="T327" s="19"/>
+      <c r="U327" s="19"/>
+      <c r="V327" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="W327" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="X327" s="23" t="s">
+        <v>266</v>
+      </c>
+      <c r="Y327" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z327" s="23" t="s">
+        <v>1927</v>
+      </c>
+      <c r="AA327" s="23" t="s">
+        <v>1940</v>
+      </c>
+      <c r="AB327" s="23" t="s">
+        <v>1855</v>
+      </c>
+      <c r="AC327" s="23" t="s">
+        <v>325</v>
+      </c>
+      <c r="AE327" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF327" s="19"/>
+      <c r="AG327" s="24">
+        <v>-0.38</v>
+      </c>
+      <c r="AH327" s="23">
+        <v>0.15051020408163199</v>
+      </c>
+      <c r="AI327" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ327" s="23">
+        <v>-0.68</v>
+      </c>
+      <c r="AK327" s="23">
+        <v>-0.09</v>
+      </c>
+      <c r="AL327" s="23">
+        <v>0.95</v>
+      </c>
+      <c r="AM327" s="23">
+        <v>0.45825756949558399</v>
+      </c>
+      <c r="AN327" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="AO327" s="23" t="s">
+        <v>1867</v>
+      </c>
+      <c r="AP327" s="23" t="s">
+        <v>1929</v>
+      </c>
+      <c r="AQ327" s="23" t="s">
+        <v>1839</v>
+      </c>
+      <c r="AR327" s="23" t="s">
+        <v>1938</v>
+      </c>
+      <c r="AS327" s="23">
+        <v>9</v>
+      </c>
+      <c r="AT327" s="23" t="s">
+        <v>1930</v>
+      </c>
+      <c r="AU327" s="23" t="s">
+        <v>1931</v>
+      </c>
+      <c r="AV327" s="23" t="s">
+        <v>1941</v>
+      </c>
+    </row>
+    <row r="328" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A328" s="21" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B328" s="22" t="s">
+        <v>1860</v>
+      </c>
+      <c r="C328" s="23" t="s">
+        <v>1923</v>
+      </c>
+      <c r="D328" s="23">
+        <v>2022</v>
+      </c>
+      <c r="E328" s="23" t="s">
+        <v>1924</v>
+      </c>
+      <c r="F328" s="23" t="s">
+        <v>407</v>
+      </c>
+      <c r="G328" s="23" t="s">
+        <v>1160</v>
+      </c>
+      <c r="H328" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I328" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="J328" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="K328" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="L328" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="M328" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="N328" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="O328" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="P328" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q328" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="R328" s="23" t="s">
+        <v>1925</v>
+      </c>
+      <c r="S328" s="24" t="s">
+        <v>1935</v>
+      </c>
+      <c r="T328" s="19"/>
+      <c r="U328" s="19"/>
+      <c r="V328" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="W328" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="X328" s="23" t="s">
+        <v>266</v>
+      </c>
+      <c r="Y328" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z328" s="23" t="s">
+        <v>1927</v>
+      </c>
+      <c r="AA328" s="23" t="s">
+        <v>1942</v>
+      </c>
+      <c r="AB328" s="23" t="s">
+        <v>1855</v>
+      </c>
+      <c r="AC328" s="23" t="s">
+        <v>325</v>
+      </c>
+      <c r="AE328" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF328" s="19"/>
+      <c r="AG328" s="24">
+        <v>-0.44</v>
+      </c>
+      <c r="AH328" s="23">
+        <v>7.1428571428571397E-2</v>
+      </c>
+      <c r="AI328" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ328" s="23">
+        <v>-0.57999999999999996</v>
+      </c>
+      <c r="AK328" s="23">
+        <v>-0.3</v>
+      </c>
+      <c r="AL328" s="23">
+        <v>0.95</v>
+      </c>
+      <c r="AM328" s="23">
+        <v>0.1</v>
+      </c>
+      <c r="AN328" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="AO328" s="23" t="s">
+        <v>1867</v>
+      </c>
+      <c r="AP328" s="23" t="s">
+        <v>1929</v>
+      </c>
+      <c r="AQ328" s="23" t="s">
+        <v>1839</v>
+      </c>
+      <c r="AR328" s="23" t="s">
+        <v>1938</v>
+      </c>
+      <c r="AS328" s="23">
+        <v>8</v>
+      </c>
+      <c r="AT328" s="23" t="s">
+        <v>1930</v>
+      </c>
+      <c r="AU328" s="23" t="s">
+        <v>1931</v>
+      </c>
+      <c r="AV328" s="23" t="s">
+        <v>1943</v>
+      </c>
+    </row>
+    <row r="329" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A329" s="21" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B329" s="22" t="s">
+        <v>1860</v>
+      </c>
+      <c r="C329" s="23" t="s">
+        <v>1923</v>
+      </c>
+      <c r="D329" s="23">
+        <v>2022</v>
+      </c>
+      <c r="E329" s="23" t="s">
+        <v>1924</v>
+      </c>
+      <c r="F329" s="23" t="s">
+        <v>407</v>
+      </c>
+      <c r="G329" s="23" t="s">
+        <v>1160</v>
+      </c>
+      <c r="H329" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I329" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="J329" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="K329" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="L329" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="M329" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="N329" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="O329" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="P329" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q329" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="R329" s="23" t="s">
+        <v>1925</v>
+      </c>
+      <c r="S329" s="24" t="s">
+        <v>1936</v>
+      </c>
+      <c r="T329" s="19"/>
+      <c r="U329" s="19"/>
+      <c r="V329" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="W329" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="X329" s="23" t="s">
+        <v>266</v>
+      </c>
+      <c r="Y329" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z329" s="23" t="s">
+        <v>1927</v>
+      </c>
+      <c r="AA329" s="23" t="s">
+        <v>1944</v>
+      </c>
+      <c r="AB329" s="23" t="s">
+        <v>1855</v>
+      </c>
+      <c r="AC329" s="23" t="s">
+        <v>325</v>
+      </c>
+      <c r="AE329" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF329" s="19"/>
+      <c r="AG329" s="24">
+        <v>0.66</v>
+      </c>
+      <c r="AH329" s="23">
+        <v>7.9081632653061201E-2</v>
+      </c>
+      <c r="AI329" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ329" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="AK329" s="23">
+        <v>0.91</v>
+      </c>
+      <c r="AL329" s="23">
+        <v>0.95</v>
+      </c>
+      <c r="AM329" s="23">
+        <v>0.141421356237309</v>
+      </c>
+      <c r="AN329" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="AO329" s="23" t="s">
+        <v>1867</v>
+      </c>
+      <c r="AP329" s="23" t="s">
+        <v>1929</v>
+      </c>
+      <c r="AQ329" s="23" t="s">
+        <v>1839</v>
+      </c>
+      <c r="AR329" s="23" t="s">
+        <v>1938</v>
+      </c>
+      <c r="AT329" s="23" t="s">
+        <v>1930</v>
+      </c>
+      <c r="AU329" s="23" t="s">
+        <v>1931</v>
+      </c>
+      <c r="AV329" s="23" t="s">
+        <v>1945</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Data/coded-Dataset.xlsx
+++ b/Data/coded-Dataset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laura/Desktop/GITHUB-METAREVIEW/Meta-review-cognitive-profiles-ADHD-Dyslexia/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B43DAE3F-7C93-774D-BA45-24C92AC8A987}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{634F9E5E-6558-E344-9AE8-C10D346B4E31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30260" yWindow="600" windowWidth="38380" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11958" uniqueCount="1946">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12088" uniqueCount="1976">
   <si>
     <t>ID_article</t>
   </si>
@@ -5876,6 +5876,96 @@
   </si>
   <si>
     <t>Table 2, precision (no outliers). Tau derived from Tau2</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>Meilleur, Foster, Coll, Brambati, Hyde, &amp; Mottron</t>
+  </si>
+  <si>
+    <t>Unisensory and multisensory temporal processing in autism and dyslexia: A systematic review and meta-analysis</t>
+  </si>
+  <si>
+    <t>Trim_and_fill</t>
+  </si>
+  <si>
+    <t>The paper reports meta-analysed correlations with reading/writing skills within the clinical DD group; excluded per protocol (dimensional analyses must be in general-population samples).; Moderator/subgroup pooled effects for gender-matching are reported without CI/SE/k; extracted with missing uncertainty fields.</t>
+  </si>
+  <si>
+    <t>2006_1</t>
+  </si>
+  <si>
+    <t>2006_2</t>
+  </si>
+  <si>
+    <t>2006_3</t>
+  </si>
+  <si>
+    <t>2006_4</t>
+  </si>
+  <si>
+    <t>2006_5</t>
+  </si>
+  <si>
+    <t>2006_6</t>
+  </si>
+  <si>
+    <t>2006_7</t>
+  </si>
+  <si>
+    <t>DD vs TD temporal processing: overall and subgroup/modality pooled effects; study pools likely overlap unless stated otherwise.</t>
+  </si>
+  <si>
+    <t>overall temporal processing</t>
+  </si>
+  <si>
+    <t>Trim-and-fill (6 imputed effect sizes); effect remained significant (p &lt; 0.001).</t>
+  </si>
+  <si>
+    <t>Age range not clearly reported in extracted text (age analysed as moderator).</t>
+  </si>
+  <si>
+    <t>DD vs TD</t>
+  </si>
+  <si>
+    <t>Overall DD group difference reported as Hedges g; publication-bias results stated for overall DD analysis (Fig. 5).</t>
+  </si>
+  <si>
+    <t>overall temporal processing (gender matched studies)</t>
+  </si>
+  <si>
+    <t>Subgroup/moderator statement: gender-matched studies show smaller effect size; no CI/SE/k provided.</t>
+  </si>
+  <si>
+    <t>overall temporal processing (gender not matched studies)</t>
+  </si>
+  <si>
+    <t>DD vs TD temporal processing: overall and subgroup/modality pooled effects; study pools likely overlap unless stated otherwise."</t>
+  </si>
+  <si>
+    <t>auditory temporal processing</t>
+  </si>
+  <si>
+    <t>tactile temporal processing</t>
+  </si>
+  <si>
+    <t>Tactile modality pooled effect; explicitly cautioned due to small k.</t>
+  </si>
+  <si>
+    <t>visual temporal processing</t>
+  </si>
+  <si>
+    <t>Visual modality pooled effect; referenced to Fig. 6b.</t>
+  </si>
+  <si>
+    <t>Auditory modality pooled effect; referenced to Fig. 6a.</t>
+  </si>
+  <si>
+    <t>multisensory temporal processing</t>
+  </si>
+  <si>
+    <t>Multisensory modality pooled effect; referenced to Fig. 6c.</t>
   </si>
 </sst>
 </file>
@@ -6325,11 +6415,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AV329"/>
+  <dimension ref="A1:AV336"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="AO1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A305" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R333" sqref="R333"/>
+      <selection pane="bottomLeft" activeCell="AU331" sqref="AU331"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -50273,6 +50363,542 @@
         <v>1945</v>
       </c>
     </row>
+    <row r="330" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A330" s="14" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B330" s="15" t="s">
+        <v>1946</v>
+      </c>
+      <c r="C330" s="16" t="s">
+        <v>1947</v>
+      </c>
+      <c r="D330" s="16">
+        <v>2020</v>
+      </c>
+      <c r="E330" s="16" t="s">
+        <v>1948</v>
+      </c>
+      <c r="F330" s="16" t="s">
+        <v>442</v>
+      </c>
+      <c r="G330" s="16" t="s">
+        <v>1949</v>
+      </c>
+      <c r="H330" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I330" s="16" t="s">
+        <v>443</v>
+      </c>
+      <c r="J330" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="K330" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="L330" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="M330" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="N330" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="O330" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="P330" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q330" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="R330" s="16" t="s">
+        <v>1950</v>
+      </c>
+      <c r="S330" s="17" t="s">
+        <v>1951</v>
+      </c>
+      <c r="T330" s="17"/>
+      <c r="U330" s="17"/>
+      <c r="V330" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="W330" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="X330" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y330" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z330" s="16" t="s">
+        <v>1958</v>
+      </c>
+      <c r="AA330" s="16" t="s">
+        <v>1959</v>
+      </c>
+      <c r="AB330" s="16" t="s">
+        <v>1855</v>
+      </c>
+      <c r="AC330" s="16" t="s">
+        <v>325</v>
+      </c>
+      <c r="AE330" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF330" s="17"/>
+      <c r="AG330" s="17">
+        <v>0.82</v>
+      </c>
+      <c r="AH330" s="16">
+        <v>0.08</v>
+      </c>
+      <c r="AI330" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="AJ330" s="16">
+        <v>0.64</v>
+      </c>
+      <c r="AK330" s="16">
+        <v>0.99</v>
+      </c>
+      <c r="AL330" s="16">
+        <v>0.95</v>
+      </c>
+      <c r="AN330" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO330" s="16" t="s">
+        <v>1960</v>
+      </c>
+      <c r="AQ330" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="AR330" s="16" t="s">
+        <v>1961</v>
+      </c>
+      <c r="AS330" s="16">
+        <v>13</v>
+      </c>
+      <c r="AU330" s="16" t="s">
+        <v>1962</v>
+      </c>
+      <c r="AV330" s="16" t="s">
+        <v>1963</v>
+      </c>
+    </row>
+    <row r="331" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A331" s="14"/>
+      <c r="B331" s="15"/>
+      <c r="S331" s="17" t="s">
+        <v>1952</v>
+      </c>
+      <c r="T331" s="17"/>
+      <c r="U331" s="17"/>
+      <c r="V331" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="W331" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="X331" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y331" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z331" s="16" t="s">
+        <v>1958</v>
+      </c>
+      <c r="AA331" s="16" t="s">
+        <v>1964</v>
+      </c>
+      <c r="AB331" s="16" t="s">
+        <v>1855</v>
+      </c>
+      <c r="AC331" s="16" t="s">
+        <v>325</v>
+      </c>
+      <c r="AE331" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF331" s="17"/>
+      <c r="AG331" s="17">
+        <v>0.59</v>
+      </c>
+      <c r="AI331" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AN331" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ331" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="AR331" s="16" t="s">
+        <v>1961</v>
+      </c>
+      <c r="AU331" s="16" t="s">
+        <v>1962</v>
+      </c>
+      <c r="AV331" s="16" t="s">
+        <v>1965</v>
+      </c>
+    </row>
+    <row r="332" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A332" s="14"/>
+      <c r="B332" s="15"/>
+      <c r="S332" s="17" t="s">
+        <v>1953</v>
+      </c>
+      <c r="T332" s="17"/>
+      <c r="U332" s="17"/>
+      <c r="V332" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="W332" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="X332" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y332" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z332" s="16" t="s">
+        <v>1967</v>
+      </c>
+      <c r="AA332" s="16" t="s">
+        <v>1966</v>
+      </c>
+      <c r="AB332" s="16" t="s">
+        <v>1855</v>
+      </c>
+      <c r="AC332" s="16" t="s">
+        <v>325</v>
+      </c>
+      <c r="AE332" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF332" s="17"/>
+      <c r="AG332" s="17">
+        <v>1.05</v>
+      </c>
+      <c r="AI332" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AN332" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ332" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="AR332" s="16" t="s">
+        <v>1961</v>
+      </c>
+      <c r="AU332" s="16" t="s">
+        <v>1962</v>
+      </c>
+      <c r="AV332" s="16" t="s">
+        <v>1965</v>
+      </c>
+    </row>
+    <row r="333" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A333" s="14"/>
+      <c r="B333" s="15"/>
+      <c r="S333" s="17" t="s">
+        <v>1954</v>
+      </c>
+      <c r="T333" s="17"/>
+      <c r="U333" s="17"/>
+      <c r="V333" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="W333" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="X333" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y333" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z333" s="16" t="s">
+        <v>1958</v>
+      </c>
+      <c r="AA333" s="16" t="s">
+        <v>1968</v>
+      </c>
+      <c r="AB333" s="16" t="s">
+        <v>1855</v>
+      </c>
+      <c r="AC333" s="16" t="s">
+        <v>325</v>
+      </c>
+      <c r="AE333" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF333" s="17"/>
+      <c r="AG333" s="17">
+        <v>0.87</v>
+      </c>
+      <c r="AH333" s="16">
+        <v>0.1</v>
+      </c>
+      <c r="AI333" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="AJ333" s="16">
+        <v>0.68</v>
+      </c>
+      <c r="AK333" s="16">
+        <v>1.06</v>
+      </c>
+      <c r="AL333" s="16">
+        <v>0.95</v>
+      </c>
+      <c r="AN333" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ333" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="AR333" s="16" t="s">
+        <v>1961</v>
+      </c>
+      <c r="AS333" s="16">
+        <v>8</v>
+      </c>
+      <c r="AU333" s="16" t="s">
+        <v>1962</v>
+      </c>
+      <c r="AV333" s="16" t="s">
+        <v>1973</v>
+      </c>
+    </row>
+    <row r="334" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A334" s="14"/>
+      <c r="B334" s="15"/>
+      <c r="S334" s="17" t="s">
+        <v>1955</v>
+      </c>
+      <c r="T334" s="17"/>
+      <c r="U334" s="17"/>
+      <c r="V334" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="W334" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="X334" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y334" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z334" s="16" t="s">
+        <v>1958</v>
+      </c>
+      <c r="AA334" s="16" t="s">
+        <v>1969</v>
+      </c>
+      <c r="AB334" s="16" t="s">
+        <v>1855</v>
+      </c>
+      <c r="AC334" s="16" t="s">
+        <v>325</v>
+      </c>
+      <c r="AE334" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF334" s="17"/>
+      <c r="AG334" s="17">
+        <v>0.65</v>
+      </c>
+      <c r="AH334" s="16">
+        <v>0.15</v>
+      </c>
+      <c r="AI334" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="AJ334" s="16">
+        <v>0.36</v>
+      </c>
+      <c r="AK334" s="16">
+        <v>0.94</v>
+      </c>
+      <c r="AL334" s="16">
+        <v>0.95</v>
+      </c>
+      <c r="AN334" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ334" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="AR334" s="16" t="s">
+        <v>1961</v>
+      </c>
+      <c r="AS334" s="16">
+        <v>3</v>
+      </c>
+      <c r="AU334" s="16" t="s">
+        <v>1962</v>
+      </c>
+      <c r="AV334" s="16" t="s">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="335" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A335" s="14"/>
+      <c r="B335" s="15"/>
+      <c r="S335" s="17" t="s">
+        <v>1956</v>
+      </c>
+      <c r="T335" s="17"/>
+      <c r="U335" s="17"/>
+      <c r="V335" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="W335" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="X335" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y335" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z335" s="16" t="s">
+        <v>1958</v>
+      </c>
+      <c r="AA335" s="16" t="s">
+        <v>1971</v>
+      </c>
+      <c r="AB335" s="16" t="s">
+        <v>1855</v>
+      </c>
+      <c r="AC335" s="16" t="s">
+        <v>325</v>
+      </c>
+      <c r="AE335" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF335" s="17"/>
+      <c r="AG335" s="17">
+        <v>0.78</v>
+      </c>
+      <c r="AH335" s="16">
+        <v>0.17</v>
+      </c>
+      <c r="AI335" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="AJ335" s="16">
+        <v>0.45</v>
+      </c>
+      <c r="AK335" s="16">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AL335" s="16">
+        <v>0.95</v>
+      </c>
+      <c r="AN335" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ335" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="AR335" s="16" t="s">
+        <v>1961</v>
+      </c>
+      <c r="AS335" s="16">
+        <v>8</v>
+      </c>
+      <c r="AU335" s="16" t="s">
+        <v>1962</v>
+      </c>
+      <c r="AV335" s="16" t="s">
+        <v>1972</v>
+      </c>
+    </row>
+    <row r="336" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A336" s="14"/>
+      <c r="B336" s="15"/>
+      <c r="S336" s="17" t="s">
+        <v>1957</v>
+      </c>
+      <c r="T336" s="17"/>
+      <c r="U336" s="17"/>
+      <c r="V336" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="W336" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="X336" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y336" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z336" s="16" t="s">
+        <v>1958</v>
+      </c>
+      <c r="AA336" s="16" t="s">
+        <v>1974</v>
+      </c>
+      <c r="AB336" s="16" t="s">
+        <v>1855</v>
+      </c>
+      <c r="AC336" s="16" t="s">
+        <v>325</v>
+      </c>
+      <c r="AE336" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF336" s="17"/>
+      <c r="AG336" s="17">
+        <v>0.53</v>
+      </c>
+      <c r="AH336" s="16">
+        <v>0.09</v>
+      </c>
+      <c r="AI336" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="AJ336" s="16">
+        <v>0.39</v>
+      </c>
+      <c r="AK336" s="16">
+        <v>0.67</v>
+      </c>
+      <c r="AL336" s="16">
+        <v>0.95</v>
+      </c>
+      <c r="AN336" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ336" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="AR336" s="16" t="s">
+        <v>1961</v>
+      </c>
+      <c r="AS336" s="16">
+        <v>4</v>
+      </c>
+      <c r="AU336" s="16" t="s">
+        <v>1962</v>
+      </c>
+      <c r="AV336" s="16" t="s">
+        <v>1975</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Data/coded-Dataset.xlsx
+++ b/Data/coded-Dataset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laura/Desktop/GITHUB-METAREVIEW/Meta-review-cognitive-profiles-ADHD-Dyslexia/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{634F9E5E-6558-E344-9AE8-C10D346B4E31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8680AC4-CFEF-024B-9050-FD2CBBE30DAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30260" yWindow="600" windowWidth="38380" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12088" uniqueCount="1976">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12664" uniqueCount="2032">
   <si>
     <t>ID_article</t>
   </si>
@@ -5917,9 +5917,6 @@
     <t>DD vs TD temporal processing: overall and subgroup/modality pooled effects; study pools likely overlap unless stated otherwise.</t>
   </si>
   <si>
-    <t>overall temporal processing</t>
-  </si>
-  <si>
     <t>Trim-and-fill (6 imputed effect sizes); effect remained significant (p &lt; 0.001).</t>
   </si>
   <si>
@@ -5932,40 +5929,211 @@
     <t>Overall DD group difference reported as Hedges g; publication-bias results stated for overall DD analysis (Fig. 5).</t>
   </si>
   <si>
-    <t>overall temporal processing (gender matched studies)</t>
-  </si>
-  <si>
     <t>Subgroup/moderator statement: gender-matched studies show smaller effect size; no CI/SE/k provided.</t>
   </si>
   <si>
-    <t>overall temporal processing (gender not matched studies)</t>
-  </si>
-  <si>
     <t>DD vs TD temporal processing: overall and subgroup/modality pooled effects; study pools likely overlap unless stated otherwise."</t>
   </si>
   <si>
-    <t>auditory temporal processing</t>
-  </si>
-  <si>
-    <t>tactile temporal processing</t>
-  </si>
-  <si>
     <t>Tactile modality pooled effect; explicitly cautioned due to small k.</t>
   </si>
   <si>
-    <t>visual temporal processing</t>
-  </si>
-  <si>
     <t>Visual modality pooled effect; referenced to Fig. 6b.</t>
   </si>
   <si>
     <t>Auditory modality pooled effect; referenced to Fig. 6a.</t>
   </si>
   <si>
-    <t>multisensory temporal processing</t>
-  </si>
-  <si>
     <t>Multisensory modality pooled effect; referenced to Fig. 6c.</t>
+  </si>
+  <si>
+    <t>2007_1</t>
+  </si>
+  <si>
+    <t>2007_2</t>
+  </si>
+  <si>
+    <t>2007_3</t>
+  </si>
+  <si>
+    <t>2007_4</t>
+  </si>
+  <si>
+    <t>2007_5</t>
+  </si>
+  <si>
+    <t>2007_6</t>
+  </si>
+  <si>
+    <t>2007_7</t>
+  </si>
+  <si>
+    <t>2007_8</t>
+  </si>
+  <si>
+    <t>2007_9</t>
+  </si>
+  <si>
+    <t>2007_10</t>
+  </si>
+  <si>
+    <t>2007_11</t>
+  </si>
+  <si>
+    <t>2007_12</t>
+  </si>
+  <si>
+    <t>2007_13</t>
+  </si>
+  <si>
+    <t>Tang, Xiao, Chen, Zhu, Li, Zhang, &amp; Song</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>Visual attention span deficit in developmental dyslexia: A meta-analysis</t>
+  </si>
+  <si>
+    <t>Table 3 reports tau2 for n-back-nonverbal as an inequality (&lt;0.001), so Tau_heterogeneity was left null for that row.</t>
+  </si>
+  <si>
+    <t>All pooled estimates refer to VAS case-control studies; subgroup rows are moderator-specific subsets and likely overlap.</t>
+  </si>
+  <si>
+    <t>No (Egger p = 0.16; assessed for overall VAS).</t>
+  </si>
+  <si>
+    <t>Mixed (children and adults across included studies).</t>
+  </si>
+  <si>
+    <t>N=4211 (2132 DD; 2079 controls).</t>
+  </si>
+  <si>
+    <t>DD vs typically developing controls</t>
+  </si>
+  <si>
+    <t>Overall pooled estimate from Table 2; tau computed as sqrt(tau2) where tau2=0.31.</t>
+  </si>
+  <si>
+    <t>Overall temporal processing</t>
+  </si>
+  <si>
+    <t>Overall temporal processing (gender matched studies)</t>
+  </si>
+  <si>
+    <t>Overall temporal processing (gender not matched studies)</t>
+  </si>
+  <si>
+    <t>Auditory temporal processing</t>
+  </si>
+  <si>
+    <t>Tactile temporal processing</t>
+  </si>
+  <si>
+    <t>Visual temporal processing</t>
+  </si>
+  <si>
+    <t>Multisensory temporal processing</t>
+  </si>
+  <si>
+    <t>Report-verbal VAS</t>
+  </si>
+  <si>
+    <t>DD vs controls (task-stimulus subgroup)</t>
+  </si>
+  <si>
+    <t>Moderator subgroup from Table 3 (task-stimulus type); tau computed as sqrt(tau2) where tau2=0.24.</t>
+  </si>
+  <si>
+    <t>n-back-verbal VAS</t>
+  </si>
+  <si>
+    <t>Moderator subgroup from Table 3 (task-stimulus type); tau computed as sqrt(tau2) where tau2=0.14.</t>
+  </si>
+  <si>
+    <t>Moderator subgroup from Table 3 (task-stimulus type); tau2 reported as “&lt;0.001”, so tau not computed.</t>
+  </si>
+  <si>
+    <t>DD vs controls (writing system subgroup)</t>
+  </si>
+  <si>
+    <t>Moderator subgroup from Table 3 (writing system); tau computed as sqrt(tau2) where tau2=0.35.</t>
+  </si>
+  <si>
+    <t>Moderator subgroup from Table 3 (writing system); tau computed as sqrt(tau2) where tau2=0.03.</t>
+  </si>
+  <si>
+    <t>Deep orthography</t>
+  </si>
+  <si>
+    <t>Logographic (writing system)</t>
+  </si>
+  <si>
+    <t>Alphabetic (writing system</t>
+  </si>
+  <si>
+    <t>DD vs controls (orthographic depth subgroup)</t>
+  </si>
+  <si>
+    <t>Moderator subgroup from Table 3 (orthographic depth); tau computed as sqrt(tau2) where tau2=0.45.</t>
+  </si>
+  <si>
+    <t>Medium orthography</t>
+  </si>
+  <si>
+    <t>Moderator subgroup from Table 3 (orthographic depth); tau computed as sqrt(tau2) where tau2=0.01.</t>
+  </si>
+  <si>
+    <t>Shallow orthography</t>
+  </si>
+  <si>
+    <t>Moderator subgroup from Table 3 (orthographic depth); tau computed as sqrt(tau2) where tau2=0.29.</t>
+  </si>
+  <si>
+    <t>Age matched (control group type)</t>
+  </si>
+  <si>
+    <t>DD vs age-matched controls</t>
+  </si>
+  <si>
+    <t>Moderator subgroup from Table 3 (control group type); tau computed as sqrt(tau2) where tau2=0.35.</t>
+  </si>
+  <si>
+    <t>Reading matched (control group type)</t>
+  </si>
+  <si>
+    <t>DD vs reading-matched controls</t>
+  </si>
+  <si>
+    <t>Moderator subgroup from Table 3 (control group type); tau computed as sqrt(tau2) where tau2=0.00.</t>
+  </si>
+  <si>
+    <t>6–18 (age subgroup)</t>
+  </si>
+  <si>
+    <t>Children/adolescents (6 to 18 years)</t>
+  </si>
+  <si>
+    <t>DD vs controls (age subgroup)</t>
+  </si>
+  <si>
+    <t>Moderator subgroup from Table 3 (age); tau computed as sqrt(tau2) where tau2=0.34.</t>
+  </si>
+  <si>
+    <t>≥18 (age subgroup)</t>
+  </si>
+  <si>
+    <t>Moderator subgroup from Table 3 (age); tau computed as sqrt(tau2) where tau2=0.17.</t>
+  </si>
+  <si>
+    <t>risposta strana</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2023</t>
   </si>
 </sst>
 </file>
@@ -6008,7 +6176,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6030,6 +6198,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6061,7 +6235,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -6113,6 +6287,8 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="16" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6415,11 +6591,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AV336"/>
+  <dimension ref="A1:AV350"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AO1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A305" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AU331" sqref="AU331"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A325" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B355" sqref="B355"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -50421,8 +50597,8 @@
       <c r="S330" s="17" t="s">
         <v>1951</v>
       </c>
-      <c r="T330" s="17"/>
-      <c r="U330" s="17"/>
+      <c r="T330" s="19"/>
+      <c r="U330" s="19"/>
       <c r="V330" s="16" t="s">
         <v>63</v>
       </c>
@@ -50439,7 +50615,7 @@
         <v>1958</v>
       </c>
       <c r="AA330" s="16" t="s">
-        <v>1959</v>
+        <v>1992</v>
       </c>
       <c r="AB330" s="16" t="s">
         <v>1855</v>
@@ -50450,7 +50626,7 @@
       <c r="AE330" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="AF330" s="17"/>
+      <c r="AF330" s="19"/>
       <c r="AG330" s="17">
         <v>0.82</v>
       </c>
@@ -50473,32 +50649,84 @@
         <v>56</v>
       </c>
       <c r="AO330" s="16" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="AQ330" s="16" t="s">
         <v>307</v>
       </c>
       <c r="AR330" s="16" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="AS330" s="16">
         <v>13</v>
       </c>
       <c r="AU330" s="16" t="s">
+        <v>1961</v>
+      </c>
+      <c r="AV330" s="16" t="s">
         <v>1962</v>
-      </c>
-      <c r="AV330" s="16" t="s">
-        <v>1963</v>
       </c>
     </row>
     <row r="331" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A331" s="14"/>
-      <c r="B331" s="15"/>
+      <c r="A331" s="14" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B331" s="15" t="s">
+        <v>1946</v>
+      </c>
+      <c r="C331" s="16" t="s">
+        <v>1947</v>
+      </c>
+      <c r="D331" s="16">
+        <v>2020</v>
+      </c>
+      <c r="E331" s="16" t="s">
+        <v>1948</v>
+      </c>
+      <c r="F331" s="16" t="s">
+        <v>442</v>
+      </c>
+      <c r="G331" s="16" t="s">
+        <v>1949</v>
+      </c>
+      <c r="H331" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I331" s="16" t="s">
+        <v>443</v>
+      </c>
+      <c r="J331" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="K331" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="L331" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="M331" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="N331" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="O331" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="P331" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q331" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="R331" s="16" t="s">
+        <v>1950</v>
+      </c>
       <c r="S331" s="17" t="s">
         <v>1952</v>
       </c>
-      <c r="T331" s="17"/>
-      <c r="U331" s="17"/>
+      <c r="T331" s="19"/>
+      <c r="U331" s="19"/>
       <c r="V331" s="16" t="s">
         <v>63</v>
       </c>
@@ -50515,7 +50743,7 @@
         <v>1958</v>
       </c>
       <c r="AA331" s="16" t="s">
-        <v>1964</v>
+        <v>1993</v>
       </c>
       <c r="AB331" s="16" t="s">
         <v>1855</v>
@@ -50526,7 +50754,7 @@
       <c r="AE331" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="AF331" s="17"/>
+      <c r="AF331" s="19"/>
       <c r="AG331" s="17">
         <v>0.59</v>
       </c>
@@ -50540,23 +50768,75 @@
         <v>307</v>
       </c>
       <c r="AR331" s="16" t="s">
+        <v>1960</v>
+      </c>
+      <c r="AU331" s="16" t="s">
         <v>1961</v>
       </c>
-      <c r="AU331" s="16" t="s">
-        <v>1962</v>
-      </c>
       <c r="AV331" s="16" t="s">
-        <v>1965</v>
+        <v>1963</v>
       </c>
     </row>
     <row r="332" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A332" s="14"/>
-      <c r="B332" s="15"/>
+      <c r="A332" s="14" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B332" s="15" t="s">
+        <v>1946</v>
+      </c>
+      <c r="C332" s="16" t="s">
+        <v>1947</v>
+      </c>
+      <c r="D332" s="16">
+        <v>2020</v>
+      </c>
+      <c r="E332" s="16" t="s">
+        <v>1948</v>
+      </c>
+      <c r="F332" s="16" t="s">
+        <v>442</v>
+      </c>
+      <c r="G332" s="16" t="s">
+        <v>1949</v>
+      </c>
+      <c r="H332" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I332" s="16" t="s">
+        <v>443</v>
+      </c>
+      <c r="J332" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="K332" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="L332" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="M332" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="N332" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="O332" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="P332" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q332" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="R332" s="16" t="s">
+        <v>1950</v>
+      </c>
       <c r="S332" s="17" t="s">
         <v>1953</v>
       </c>
-      <c r="T332" s="17"/>
-      <c r="U332" s="17"/>
+      <c r="T332" s="19"/>
+      <c r="U332" s="19"/>
       <c r="V332" s="16" t="s">
         <v>63</v>
       </c>
@@ -50570,10 +50850,10 @@
         <v>52</v>
       </c>
       <c r="Z332" s="16" t="s">
-        <v>1967</v>
+        <v>1964</v>
       </c>
       <c r="AA332" s="16" t="s">
-        <v>1966</v>
+        <v>1994</v>
       </c>
       <c r="AB332" s="16" t="s">
         <v>1855</v>
@@ -50584,7 +50864,7 @@
       <c r="AE332" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="AF332" s="17"/>
+      <c r="AF332" s="19"/>
       <c r="AG332" s="17">
         <v>1.05</v>
       </c>
@@ -50598,23 +50878,75 @@
         <v>307</v>
       </c>
       <c r="AR332" s="16" t="s">
+        <v>1960</v>
+      </c>
+      <c r="AU332" s="16" t="s">
         <v>1961</v>
       </c>
-      <c r="AU332" s="16" t="s">
-        <v>1962</v>
-      </c>
       <c r="AV332" s="16" t="s">
-        <v>1965</v>
+        <v>1963</v>
       </c>
     </row>
     <row r="333" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A333" s="14"/>
-      <c r="B333" s="15"/>
+      <c r="A333" s="14" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B333" s="15" t="s">
+        <v>1946</v>
+      </c>
+      <c r="C333" s="16" t="s">
+        <v>1947</v>
+      </c>
+      <c r="D333" s="16">
+        <v>2020</v>
+      </c>
+      <c r="E333" s="16" t="s">
+        <v>1948</v>
+      </c>
+      <c r="F333" s="16" t="s">
+        <v>442</v>
+      </c>
+      <c r="G333" s="16" t="s">
+        <v>1949</v>
+      </c>
+      <c r="H333" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I333" s="16" t="s">
+        <v>443</v>
+      </c>
+      <c r="J333" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="K333" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="L333" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="M333" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="N333" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="O333" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="P333" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q333" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="R333" s="16" t="s">
+        <v>1950</v>
+      </c>
       <c r="S333" s="17" t="s">
         <v>1954</v>
       </c>
-      <c r="T333" s="17"/>
-      <c r="U333" s="17"/>
+      <c r="T333" s="19"/>
+      <c r="U333" s="19"/>
       <c r="V333" s="16" t="s">
         <v>63</v>
       </c>
@@ -50631,7 +50963,7 @@
         <v>1958</v>
       </c>
       <c r="AA333" s="16" t="s">
-        <v>1968</v>
+        <v>1995</v>
       </c>
       <c r="AB333" s="16" t="s">
         <v>1855</v>
@@ -50642,7 +50974,7 @@
       <c r="AE333" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="AF333" s="17"/>
+      <c r="AF333" s="19"/>
       <c r="AG333" s="17">
         <v>0.87</v>
       </c>
@@ -50668,26 +51000,78 @@
         <v>307</v>
       </c>
       <c r="AR333" s="16" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="AS333" s="16">
         <v>8</v>
       </c>
       <c r="AU333" s="16" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
       <c r="AV333" s="16" t="s">
-        <v>1973</v>
+        <v>1967</v>
       </c>
     </row>
     <row r="334" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A334" s="14"/>
-      <c r="B334" s="15"/>
+      <c r="A334" s="14" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B334" s="15" t="s">
+        <v>1946</v>
+      </c>
+      <c r="C334" s="16" t="s">
+        <v>1947</v>
+      </c>
+      <c r="D334" s="16">
+        <v>2020</v>
+      </c>
+      <c r="E334" s="16" t="s">
+        <v>1948</v>
+      </c>
+      <c r="F334" s="16" t="s">
+        <v>442</v>
+      </c>
+      <c r="G334" s="16" t="s">
+        <v>1949</v>
+      </c>
+      <c r="H334" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I334" s="16" t="s">
+        <v>443</v>
+      </c>
+      <c r="J334" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="K334" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="L334" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="M334" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="N334" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="O334" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="P334" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q334" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="R334" s="16" t="s">
+        <v>1950</v>
+      </c>
       <c r="S334" s="17" t="s">
         <v>1955</v>
       </c>
-      <c r="T334" s="17"/>
-      <c r="U334" s="17"/>
+      <c r="T334" s="19"/>
+      <c r="U334" s="19"/>
       <c r="V334" s="16" t="s">
         <v>63</v>
       </c>
@@ -50704,7 +51088,7 @@
         <v>1958</v>
       </c>
       <c r="AA334" s="16" t="s">
-        <v>1969</v>
+        <v>1996</v>
       </c>
       <c r="AB334" s="16" t="s">
         <v>1855</v>
@@ -50715,7 +51099,7 @@
       <c r="AE334" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="AF334" s="17"/>
+      <c r="AF334" s="19"/>
       <c r="AG334" s="17">
         <v>0.65</v>
       </c>
@@ -50741,26 +51125,78 @@
         <v>307</v>
       </c>
       <c r="AR334" s="16" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="AS334" s="16">
         <v>3</v>
       </c>
       <c r="AU334" s="16" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
       <c r="AV334" s="16" t="s">
-        <v>1970</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="335" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A335" s="14"/>
-      <c r="B335" s="15"/>
+      <c r="A335" s="14" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B335" s="15" t="s">
+        <v>1946</v>
+      </c>
+      <c r="C335" s="16" t="s">
+        <v>1947</v>
+      </c>
+      <c r="D335" s="16">
+        <v>2020</v>
+      </c>
+      <c r="E335" s="16" t="s">
+        <v>1948</v>
+      </c>
+      <c r="F335" s="16" t="s">
+        <v>442</v>
+      </c>
+      <c r="G335" s="16" t="s">
+        <v>1949</v>
+      </c>
+      <c r="H335" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I335" s="16" t="s">
+        <v>443</v>
+      </c>
+      <c r="J335" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="K335" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="L335" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="M335" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="N335" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="O335" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="P335" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q335" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="R335" s="16" t="s">
+        <v>1950</v>
+      </c>
       <c r="S335" s="17" t="s">
         <v>1956</v>
       </c>
-      <c r="T335" s="17"/>
-      <c r="U335" s="17"/>
+      <c r="T335" s="19"/>
+      <c r="U335" s="19"/>
       <c r="V335" s="16" t="s">
         <v>63</v>
       </c>
@@ -50777,7 +51213,7 @@
         <v>1958</v>
       </c>
       <c r="AA335" s="16" t="s">
-        <v>1971</v>
+        <v>1997</v>
       </c>
       <c r="AB335" s="16" t="s">
         <v>1855</v>
@@ -50788,7 +51224,7 @@
       <c r="AE335" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="AF335" s="17"/>
+      <c r="AF335" s="19"/>
       <c r="AG335" s="17">
         <v>0.78</v>
       </c>
@@ -50814,26 +51250,78 @@
         <v>307</v>
       </c>
       <c r="AR335" s="16" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="AS335" s="16">
         <v>8</v>
       </c>
       <c r="AU335" s="16" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
       <c r="AV335" s="16" t="s">
-        <v>1972</v>
+        <v>1966</v>
       </c>
     </row>
     <row r="336" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A336" s="14"/>
-      <c r="B336" s="15"/>
+      <c r="A336" s="14" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B336" s="15" t="s">
+        <v>1946</v>
+      </c>
+      <c r="C336" s="16" t="s">
+        <v>1947</v>
+      </c>
+      <c r="D336" s="16">
+        <v>2020</v>
+      </c>
+      <c r="E336" s="16" t="s">
+        <v>1948</v>
+      </c>
+      <c r="F336" s="16" t="s">
+        <v>442</v>
+      </c>
+      <c r="G336" s="16" t="s">
+        <v>1949</v>
+      </c>
+      <c r="H336" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I336" s="16" t="s">
+        <v>443</v>
+      </c>
+      <c r="J336" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="K336" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="L336" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="M336" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="N336" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="O336" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="P336" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q336" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="R336" s="16" t="s">
+        <v>1950</v>
+      </c>
       <c r="S336" s="17" t="s">
         <v>1957</v>
       </c>
-      <c r="T336" s="17"/>
-      <c r="U336" s="17"/>
+      <c r="T336" s="19"/>
+      <c r="U336" s="19"/>
       <c r="V336" s="16" t="s">
         <v>63</v>
       </c>
@@ -50850,7 +51338,7 @@
         <v>1958</v>
       </c>
       <c r="AA336" s="16" t="s">
-        <v>1974</v>
+        <v>1998</v>
       </c>
       <c r="AB336" s="16" t="s">
         <v>1855</v>
@@ -50861,7 +51349,7 @@
       <c r="AE336" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="AF336" s="17"/>
+      <c r="AF336" s="19"/>
       <c r="AG336" s="17">
         <v>0.53</v>
       </c>
@@ -50887,17 +51375,1772 @@
         <v>307</v>
       </c>
       <c r="AR336" s="16" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="AS336" s="16">
         <v>4</v>
       </c>
       <c r="AU336" s="16" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
       <c r="AV336" s="16" t="s">
+        <v>1968</v>
+      </c>
+    </row>
+    <row r="337" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A337" s="21" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B337" s="22" t="s">
+        <v>1983</v>
+      </c>
+      <c r="C337" s="23" t="s">
+        <v>1982</v>
+      </c>
+      <c r="D337" s="22" t="s">
+        <v>2031</v>
+      </c>
+      <c r="E337" s="23" t="s">
+        <v>1984</v>
+      </c>
+      <c r="F337" s="23" t="s">
+        <v>904</v>
+      </c>
+      <c r="G337" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H337" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I337" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="J337" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="K337" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="L337" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="M337" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="N337" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="O337" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="P337" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q337" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="R337" s="23" t="s">
+        <v>1985</v>
+      </c>
+      <c r="S337" s="24" t="s">
+        <v>1969</v>
+      </c>
+      <c r="T337" s="19"/>
+      <c r="U337" s="19"/>
+      <c r="V337" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="W337" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="X337" s="23" t="s">
+        <v>266</v>
+      </c>
+      <c r="Y337" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z337" s="23" t="s">
+        <v>1986</v>
+      </c>
+      <c r="AA337" s="23" t="s">
+        <v>541</v>
+      </c>
+      <c r="AB337" s="23" t="s">
+        <v>278</v>
+      </c>
+      <c r="AC337" s="23" t="s">
+        <v>529</v>
+      </c>
+      <c r="AD337" s="23" t="s">
+        <v>542</v>
+      </c>
+      <c r="AE337" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF337" s="19"/>
+      <c r="AG337" s="24">
+        <v>-0.83</v>
+      </c>
+      <c r="AH337" s="23">
+        <v>8.6734693900000007E-2</v>
+      </c>
+      <c r="AI337" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ337" s="23">
+        <v>-1</v>
+      </c>
+      <c r="AK337" s="23">
+        <v>-0.66</v>
+      </c>
+      <c r="AL337" s="23">
+        <v>0.95</v>
+      </c>
+      <c r="AN337" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="AO337" s="23" t="s">
+        <v>1987</v>
+      </c>
+      <c r="AQ337" s="23" t="s">
+        <v>307</v>
+      </c>
+      <c r="AR337" s="23" t="s">
+        <v>1988</v>
+      </c>
+      <c r="AS337" s="23">
+        <v>54</v>
+      </c>
+      <c r="AT337" s="23" t="s">
+        <v>1989</v>
+      </c>
+      <c r="AU337" s="23" t="s">
+        <v>1990</v>
+      </c>
+      <c r="AV337" s="23" t="s">
+        <v>1991</v>
+      </c>
+    </row>
+    <row r="338" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A338" s="21" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B338" s="22" t="s">
+        <v>1983</v>
+      </c>
+      <c r="C338" s="23" t="s">
+        <v>1982</v>
+      </c>
+      <c r="D338" s="22" t="s">
+        <v>2031</v>
+      </c>
+      <c r="E338" s="23" t="s">
+        <v>1984</v>
+      </c>
+      <c r="F338" s="23" t="s">
+        <v>904</v>
+      </c>
+      <c r="G338" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H338" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I338" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="J338" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="K338" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="L338" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="M338" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="N338" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="O338" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="P338" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q338" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="R338" s="23" t="s">
+        <v>1985</v>
+      </c>
+      <c r="S338" s="24" t="s">
+        <v>1970</v>
+      </c>
+      <c r="T338" s="19"/>
+      <c r="U338" s="19"/>
+      <c r="V338" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="W338" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="X338" s="23" t="s">
+        <v>266</v>
+      </c>
+      <c r="Y338" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z338" s="23" t="s">
+        <v>1986</v>
+      </c>
+      <c r="AA338" s="23" t="s">
+        <v>1999</v>
+      </c>
+      <c r="AB338" s="23" t="s">
+        <v>278</v>
+      </c>
+      <c r="AC338" s="23" t="s">
+        <v>529</v>
+      </c>
+      <c r="AD338" s="23" t="s">
+        <v>542</v>
+      </c>
+      <c r="AE338" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF338" s="19"/>
+      <c r="AG338" s="24">
+        <v>-1.1399999999999999</v>
+      </c>
+      <c r="AH338" s="23">
+        <v>0.1045918367</v>
+      </c>
+      <c r="AI338" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ338" s="23">
+        <v>-1.35</v>
+      </c>
+      <c r="AK338" s="23">
+        <v>-0.94</v>
+      </c>
+      <c r="AL338" s="23">
+        <v>0.95</v>
+      </c>
+      <c r="AN338" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="AO338" s="23" t="s">
+        <v>1987</v>
+      </c>
+      <c r="AQ338" s="23" t="s">
+        <v>307</v>
+      </c>
+      <c r="AR338" s="23" t="s">
+        <v>1988</v>
+      </c>
+      <c r="AS338" s="23">
+        <v>32</v>
+      </c>
+      <c r="AU338" s="23" t="s">
+        <v>2000</v>
+      </c>
+      <c r="AV338" s="23" t="s">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="339" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A339" s="21" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B339" s="22" t="s">
+        <v>1983</v>
+      </c>
+      <c r="C339" s="23" t="s">
+        <v>1982</v>
+      </c>
+      <c r="D339" s="22" t="s">
+        <v>2031</v>
+      </c>
+      <c r="E339" s="23" t="s">
+        <v>1984</v>
+      </c>
+      <c r="F339" s="23" t="s">
+        <v>904</v>
+      </c>
+      <c r="G339" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H339" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I339" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="J339" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="K339" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="L339" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="M339" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="N339" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="O339" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="P339" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q339" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="R339" s="23" t="s">
+        <v>1985</v>
+      </c>
+      <c r="S339" s="24" t="s">
+        <v>1971</v>
+      </c>
+      <c r="T339" s="19"/>
+      <c r="U339" s="19"/>
+      <c r="V339" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="W339" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="X339" s="23" t="s">
+        <v>266</v>
+      </c>
+      <c r="Y339" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z339" s="23" t="s">
+        <v>1986</v>
+      </c>
+      <c r="AA339" s="23" t="s">
+        <v>2002</v>
+      </c>
+      <c r="AB339" s="23" t="s">
+        <v>278</v>
+      </c>
+      <c r="AC339" s="23" t="s">
+        <v>529</v>
+      </c>
+      <c r="AD339" s="23" t="s">
+        <v>542</v>
+      </c>
+      <c r="AE339" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF339" s="19"/>
+      <c r="AG339" s="24">
+        <v>-0.51</v>
+      </c>
+      <c r="AH339" s="23">
+        <v>0.20153061219999999</v>
+      </c>
+      <c r="AI339" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ339" s="23">
+        <v>-0.91</v>
+      </c>
+      <c r="AK339" s="23">
+        <v>-0.12</v>
+      </c>
+      <c r="AL339" s="23">
+        <v>0.95</v>
+      </c>
+      <c r="AM339" s="23">
+        <v>0.37416573869999997</v>
+      </c>
+      <c r="AN339" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="AO339" s="23" t="s">
+        <v>1987</v>
+      </c>
+      <c r="AQ339" s="23" t="s">
+        <v>307</v>
+      </c>
+      <c r="AR339" s="23" t="s">
+        <v>1988</v>
+      </c>
+      <c r="AS339" s="23">
+        <v>6</v>
+      </c>
+      <c r="AU339" s="23" t="s">
+        <v>2000</v>
+      </c>
+      <c r="AV339" s="23" t="s">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="340" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A340" s="21" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B340" s="22" t="s">
+        <v>1983</v>
+      </c>
+      <c r="C340" s="23" t="s">
+        <v>1982</v>
+      </c>
+      <c r="D340" s="22" t="s">
+        <v>2031</v>
+      </c>
+      <c r="E340" s="23" t="s">
+        <v>1984</v>
+      </c>
+      <c r="F340" s="23" t="s">
+        <v>904</v>
+      </c>
+      <c r="G340" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H340" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I340" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="J340" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="K340" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="L340" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="M340" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="N340" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="O340" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="P340" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q340" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="R340" s="23" t="s">
+        <v>1985</v>
+      </c>
+      <c r="S340" s="24" t="s">
+        <v>1972</v>
+      </c>
+      <c r="T340" s="19"/>
+      <c r="U340" s="19"/>
+      <c r="V340" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="W340" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="X340" s="23" t="s">
+        <v>266</v>
+      </c>
+      <c r="Y340" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z340" s="23" t="s">
+        <v>1986</v>
+      </c>
+      <c r="AA340" s="23" t="s">
+        <v>2002</v>
+      </c>
+      <c r="AB340" s="23" t="s">
+        <v>278</v>
+      </c>
+      <c r="AC340" s="23" t="s">
+        <v>529</v>
+      </c>
+      <c r="AD340" s="23" t="s">
+        <v>542</v>
+      </c>
+      <c r="AE340" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF340" s="19"/>
+      <c r="AG340" s="24">
+        <v>-0.23</v>
+      </c>
+      <c r="AH340" s="23">
+        <v>6.3775510199999996E-2</v>
+      </c>
+      <c r="AI340" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ340" s="23">
+        <v>-0.36</v>
+      </c>
+      <c r="AK340" s="23">
+        <v>-0.11</v>
+      </c>
+      <c r="AL340" s="23">
+        <v>0.95</v>
+      </c>
+      <c r="AN340" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO340" s="23" t="s">
+        <v>1987</v>
+      </c>
+      <c r="AQ340" s="23" t="s">
+        <v>307</v>
+      </c>
+      <c r="AR340" s="23" t="s">
+        <v>1988</v>
+      </c>
+      <c r="AS340" s="23">
+        <v>14</v>
+      </c>
+      <c r="AU340" s="23" t="s">
+        <v>2000</v>
+      </c>
+      <c r="AV340" s="23" t="s">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="341" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A341" s="21" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B341" s="22" t="s">
+        <v>1983</v>
+      </c>
+      <c r="C341" s="23" t="s">
+        <v>1982</v>
+      </c>
+      <c r="D341" s="22" t="s">
+        <v>2031</v>
+      </c>
+      <c r="E341" s="23" t="s">
+        <v>1984</v>
+      </c>
+      <c r="F341" s="23" t="s">
+        <v>904</v>
+      </c>
+      <c r="G341" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H341" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I341" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="J341" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="K341" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="L341" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="M341" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="N341" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="O341" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="P341" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q341" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="R341" s="23" t="s">
+        <v>1985</v>
+      </c>
+      <c r="S341" s="24" t="s">
+        <v>1973</v>
+      </c>
+      <c r="T341" s="19"/>
+      <c r="U341" s="19"/>
+      <c r="V341" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="W341" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="X341" s="23" t="s">
+        <v>266</v>
+      </c>
+      <c r="Y341" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z341" s="23" t="s">
+        <v>1986</v>
+      </c>
+      <c r="AA341" s="23" t="s">
+        <v>2010</v>
+      </c>
+      <c r="AB341" s="23" t="s">
+        <v>278</v>
+      </c>
+      <c r="AC341" s="23" t="s">
+        <v>529</v>
+      </c>
+      <c r="AD341" s="23" t="s">
+        <v>542</v>
+      </c>
+      <c r="AE341" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF341" s="19"/>
+      <c r="AG341" s="24">
+        <v>-1</v>
+      </c>
+      <c r="AH341" s="23">
+        <v>0.1096938776</v>
+      </c>
+      <c r="AI341" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ341" s="23">
+        <v>-1.21</v>
+      </c>
+      <c r="AK341" s="23">
+        <v>-0.78</v>
+      </c>
+      <c r="AL341" s="23">
+        <v>0.95</v>
+      </c>
+      <c r="AM341" s="23">
+        <v>0.5916079783</v>
+      </c>
+      <c r="AN341" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="AO341" s="23" t="s">
+        <v>1987</v>
+      </c>
+      <c r="AQ341" s="23" t="s">
+        <v>307</v>
+      </c>
+      <c r="AR341" s="23" t="s">
+        <v>1988</v>
+      </c>
+      <c r="AS341" s="23">
+        <v>40</v>
+      </c>
+      <c r="AU341" s="23" t="s">
+        <v>2005</v>
+      </c>
+      <c r="AV341" s="23" t="s">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="342" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A342" s="21" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B342" s="22" t="s">
+        <v>1983</v>
+      </c>
+      <c r="C342" s="23" t="s">
+        <v>1982</v>
+      </c>
+      <c r="D342" s="22" t="s">
+        <v>2031</v>
+      </c>
+      <c r="E342" s="23" t="s">
+        <v>1984</v>
+      </c>
+      <c r="F342" s="23" t="s">
+        <v>904</v>
+      </c>
+      <c r="G342" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H342" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I342" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="J342" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="K342" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="L342" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="M342" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="N342" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="O342" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="P342" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q342" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="R342" s="23" t="s">
+        <v>1985</v>
+      </c>
+      <c r="S342" s="24" t="s">
+        <v>1974</v>
+      </c>
+      <c r="T342" s="19"/>
+      <c r="U342" s="19"/>
+      <c r="V342" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="W342" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="X342" s="23" t="s">
+        <v>266</v>
+      </c>
+      <c r="Y342" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z342" s="23" t="s">
+        <v>1986</v>
+      </c>
+      <c r="AA342" s="23" t="s">
+        <v>2009</v>
+      </c>
+      <c r="AB342" s="23" t="s">
+        <v>278</v>
+      </c>
+      <c r="AC342" s="23" t="s">
+        <v>529</v>
+      </c>
+      <c r="AD342" s="23" t="s">
+        <v>542</v>
+      </c>
+      <c r="AE342" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF342" s="19"/>
+      <c r="AG342" s="24">
+        <v>-0.35</v>
+      </c>
+      <c r="AH342" s="23">
+        <v>8.1632653099999994E-2</v>
+      </c>
+      <c r="AI342" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ342" s="23">
+        <v>-0.51</v>
+      </c>
+      <c r="AK342" s="23">
+        <v>-0.19</v>
+      </c>
+      <c r="AL342" s="23">
+        <v>0.95</v>
+      </c>
+      <c r="AM342" s="23">
+        <v>0.17320508079999999</v>
+      </c>
+      <c r="AN342" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="AO342" s="23" t="s">
+        <v>1987</v>
+      </c>
+      <c r="AQ342" s="23" t="s">
+        <v>307</v>
+      </c>
+      <c r="AR342" s="23" t="s">
+        <v>1988</v>
+      </c>
+      <c r="AS342" s="23">
+        <v>14</v>
+      </c>
+      <c r="AU342" s="23" t="s">
+        <v>2005</v>
+      </c>
+      <c r="AV342" s="23" t="s">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="343" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A343" s="21" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B343" s="22" t="s">
+        <v>1983</v>
+      </c>
+      <c r="C343" s="23" t="s">
+        <v>1982</v>
+      </c>
+      <c r="D343" s="22" t="s">
+        <v>2031</v>
+      </c>
+      <c r="E343" s="23" t="s">
+        <v>1984</v>
+      </c>
+      <c r="F343" s="23" t="s">
+        <v>904</v>
+      </c>
+      <c r="G343" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H343" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I343" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="J343" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="K343" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="L343" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="M343" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="N343" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="O343" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="P343" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q343" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="R343" s="23" t="s">
+        <v>1985</v>
+      </c>
+      <c r="S343" s="24" t="s">
         <v>1975</v>
       </c>
+      <c r="T343" s="19"/>
+      <c r="U343" s="19"/>
+      <c r="V343" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="W343" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="X343" s="23" t="s">
+        <v>266</v>
+      </c>
+      <c r="Y343" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z343" s="23" t="s">
+        <v>1986</v>
+      </c>
+      <c r="AA343" s="23" t="s">
+        <v>2008</v>
+      </c>
+      <c r="AB343" s="23" t="s">
+        <v>278</v>
+      </c>
+      <c r="AC343" s="23" t="s">
+        <v>529</v>
+      </c>
+      <c r="AD343" s="23" t="s">
+        <v>542</v>
+      </c>
+      <c r="AE343" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF343" s="19"/>
+      <c r="AG343" s="24">
+        <v>-1.1100000000000001</v>
+      </c>
+      <c r="AH343" s="23">
+        <v>0.13775510199999999</v>
+      </c>
+      <c r="AI343" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ343" s="23">
+        <v>-1.38</v>
+      </c>
+      <c r="AK343" s="23">
+        <v>-0.84</v>
+      </c>
+      <c r="AL343" s="23">
+        <v>0.95</v>
+      </c>
+      <c r="AM343" s="23">
+        <v>0.67082039319999998</v>
+      </c>
+      <c r="AN343" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="AO343" s="23" t="s">
+        <v>1987</v>
+      </c>
+      <c r="AQ343" s="23" t="s">
+        <v>307</v>
+      </c>
+      <c r="AR343" s="23" t="s">
+        <v>1988</v>
+      </c>
+      <c r="AS343" s="23">
+        <v>30</v>
+      </c>
+      <c r="AU343" s="23" t="s">
+        <v>2011</v>
+      </c>
+      <c r="AV343" s="23" t="s">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="344" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A344" s="21" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B344" s="22" t="s">
+        <v>1983</v>
+      </c>
+      <c r="C344" s="23" t="s">
+        <v>1982</v>
+      </c>
+      <c r="D344" s="22" t="s">
+        <v>2031</v>
+      </c>
+      <c r="E344" s="23" t="s">
+        <v>1984</v>
+      </c>
+      <c r="F344" s="23" t="s">
+        <v>904</v>
+      </c>
+      <c r="G344" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H344" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I344" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="J344" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="K344" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="L344" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="M344" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="N344" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="O344" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="P344" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q344" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="R344" s="23" t="s">
+        <v>1985</v>
+      </c>
+      <c r="S344" s="24" t="s">
+        <v>1976</v>
+      </c>
+      <c r="T344" s="19"/>
+      <c r="U344" s="19"/>
+      <c r="V344" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="W344" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="X344" s="23" t="s">
+        <v>266</v>
+      </c>
+      <c r="Y344" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z344" s="23" t="s">
+        <v>1986</v>
+      </c>
+      <c r="AA344" s="23" t="s">
+        <v>2013</v>
+      </c>
+      <c r="AB344" s="23" t="s">
+        <v>278</v>
+      </c>
+      <c r="AC344" s="23" t="s">
+        <v>529</v>
+      </c>
+      <c r="AD344" s="23" t="s">
+        <v>542</v>
+      </c>
+      <c r="AE344" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF344" s="19"/>
+      <c r="AG344" s="24">
+        <v>-0.93</v>
+      </c>
+      <c r="AH344" s="23">
+        <v>0.112244898</v>
+      </c>
+      <c r="AI344" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ344" s="23">
+        <v>-1.1499999999999999</v>
+      </c>
+      <c r="AK344" s="23">
+        <v>-0.71</v>
+      </c>
+      <c r="AL344" s="23">
+        <v>0.95</v>
+      </c>
+      <c r="AM344" s="23">
+        <v>0.1</v>
+      </c>
+      <c r="AN344" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="AO344" s="23" t="s">
+        <v>1987</v>
+      </c>
+      <c r="AQ344" s="23" t="s">
+        <v>307</v>
+      </c>
+      <c r="AR344" s="23" t="s">
+        <v>1988</v>
+      </c>
+      <c r="AS344" s="23">
+        <v>6</v>
+      </c>
+      <c r="AU344" s="23" t="s">
+        <v>2011</v>
+      </c>
+      <c r="AV344" s="23" t="s">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="345" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A345" s="21" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B345" s="22" t="s">
+        <v>1983</v>
+      </c>
+      <c r="C345" s="23" t="s">
+        <v>1982</v>
+      </c>
+      <c r="D345" s="22" t="s">
+        <v>2031</v>
+      </c>
+      <c r="E345" s="23" t="s">
+        <v>1984</v>
+      </c>
+      <c r="F345" s="23" t="s">
+        <v>904</v>
+      </c>
+      <c r="G345" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H345" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I345" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="J345" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="K345" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="L345" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="M345" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="N345" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="O345" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="P345" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q345" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="R345" s="23" t="s">
+        <v>1985</v>
+      </c>
+      <c r="S345" s="24" t="s">
+        <v>1977</v>
+      </c>
+      <c r="T345" s="19"/>
+      <c r="U345" s="19"/>
+      <c r="V345" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="W345" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="X345" s="23" t="s">
+        <v>266</v>
+      </c>
+      <c r="Y345" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z345" s="23" t="s">
+        <v>1986</v>
+      </c>
+      <c r="AA345" s="23" t="s">
+        <v>2015</v>
+      </c>
+      <c r="AB345" s="23" t="s">
+        <v>278</v>
+      </c>
+      <c r="AC345" s="23" t="s">
+        <v>529</v>
+      </c>
+      <c r="AD345" s="23" t="s">
+        <v>542</v>
+      </c>
+      <c r="AE345" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF345" s="19"/>
+      <c r="AG345" s="24">
+        <v>-0.44</v>
+      </c>
+      <c r="AH345" s="23">
+        <v>0.31632653059999999</v>
+      </c>
+      <c r="AI345" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ345" s="23">
+        <v>-1.06</v>
+      </c>
+      <c r="AK345" s="23">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="AL345" s="23">
+        <v>0.95</v>
+      </c>
+      <c r="AM345" s="23">
+        <v>0.53851648070000002</v>
+      </c>
+      <c r="AN345" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="AO345" s="23" t="s">
+        <v>1987</v>
+      </c>
+      <c r="AQ345" s="23" t="s">
+        <v>307</v>
+      </c>
+      <c r="AR345" s="23" t="s">
+        <v>1988</v>
+      </c>
+      <c r="AS345" s="23">
+        <v>4</v>
+      </c>
+      <c r="AU345" s="23" t="s">
+        <v>2011</v>
+      </c>
+      <c r="AV345" s="23" t="s">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="346" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A346" s="21" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B346" s="22" t="s">
+        <v>1983</v>
+      </c>
+      <c r="C346" s="23" t="s">
+        <v>1982</v>
+      </c>
+      <c r="D346" s="22" t="s">
+        <v>2031</v>
+      </c>
+      <c r="E346" s="23" t="s">
+        <v>1984</v>
+      </c>
+      <c r="F346" s="23" t="s">
+        <v>904</v>
+      </c>
+      <c r="G346" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H346" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I346" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="J346" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="K346" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="L346" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="M346" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="N346" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="O346" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="P346" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q346" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="R346" s="23" t="s">
+        <v>1985</v>
+      </c>
+      <c r="S346" s="24" t="s">
+        <v>1978</v>
+      </c>
+      <c r="T346" s="19"/>
+      <c r="U346" s="19"/>
+      <c r="V346" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="W346" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="X346" s="23" t="s">
+        <v>266</v>
+      </c>
+      <c r="Y346" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z346" s="23" t="s">
+        <v>1986</v>
+      </c>
+      <c r="AA346" s="23" t="s">
+        <v>2017</v>
+      </c>
+      <c r="AB346" s="23" t="s">
+        <v>278</v>
+      </c>
+      <c r="AC346" s="23" t="s">
+        <v>529</v>
+      </c>
+      <c r="AD346" s="23" t="s">
+        <v>542</v>
+      </c>
+      <c r="AE346" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF346" s="19"/>
+      <c r="AG346" s="24">
+        <v>-0.88</v>
+      </c>
+      <c r="AH346" s="23">
+        <v>9.9489795899999997E-2</v>
+      </c>
+      <c r="AI346" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ346" s="23">
+        <v>-1.08</v>
+      </c>
+      <c r="AK346" s="23">
+        <v>-0.69</v>
+      </c>
+      <c r="AL346" s="23">
+        <v>0.95</v>
+      </c>
+      <c r="AM346" s="23">
+        <v>0.5916079783</v>
+      </c>
+      <c r="AN346" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="AO346" s="23" t="s">
+        <v>1987</v>
+      </c>
+      <c r="AQ346" s="23" t="s">
+        <v>307</v>
+      </c>
+      <c r="AR346" s="23" t="s">
+        <v>1988</v>
+      </c>
+      <c r="AS346" s="23">
+        <v>48</v>
+      </c>
+      <c r="AU346" s="23" t="s">
+        <v>2018</v>
+      </c>
+      <c r="AV346" s="23" t="s">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="347" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A347" s="21" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B347" s="22" t="s">
+        <v>1983</v>
+      </c>
+      <c r="C347" s="23" t="s">
+        <v>1982</v>
+      </c>
+      <c r="D347" s="22" t="s">
+        <v>2031</v>
+      </c>
+      <c r="E347" s="23" t="s">
+        <v>1984</v>
+      </c>
+      <c r="F347" s="23" t="s">
+        <v>904</v>
+      </c>
+      <c r="G347" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H347" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I347" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="J347" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="K347" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="L347" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="M347" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="N347" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="O347" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="P347" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q347" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="R347" s="23" t="s">
+        <v>1985</v>
+      </c>
+      <c r="S347" s="24" t="s">
+        <v>1979</v>
+      </c>
+      <c r="T347" s="19"/>
+      <c r="U347" s="19"/>
+      <c r="V347" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="W347" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="X347" s="23" t="s">
+        <v>266</v>
+      </c>
+      <c r="Y347" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z347" s="23" t="s">
+        <v>1986</v>
+      </c>
+      <c r="AA347" s="23" t="s">
+        <v>2020</v>
+      </c>
+      <c r="AB347" s="23" t="s">
+        <v>278</v>
+      </c>
+      <c r="AC347" s="23" t="s">
+        <v>529</v>
+      </c>
+      <c r="AD347" s="23" t="s">
+        <v>542</v>
+      </c>
+      <c r="AE347" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF347" s="19"/>
+      <c r="AG347" s="24">
+        <v>-0.28000000000000003</v>
+      </c>
+      <c r="AH347" s="23">
+        <v>0.1096938776</v>
+      </c>
+      <c r="AI347" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ347" s="23">
+        <v>-0.49</v>
+      </c>
+      <c r="AK347" s="23">
+        <v>-0.06</v>
+      </c>
+      <c r="AL347" s="23">
+        <v>0.95</v>
+      </c>
+      <c r="AM347" s="23">
+        <v>0</v>
+      </c>
+      <c r="AN347" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="AO347" s="23" t="s">
+        <v>1987</v>
+      </c>
+      <c r="AQ347" s="23" t="s">
+        <v>307</v>
+      </c>
+      <c r="AR347" s="23" t="s">
+        <v>1988</v>
+      </c>
+      <c r="AS347" s="23">
+        <v>4</v>
+      </c>
+      <c r="AU347" s="23" t="s">
+        <v>2021</v>
+      </c>
+      <c r="AV347" s="23" t="s">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="348" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A348" s="21" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B348" s="22" t="s">
+        <v>1983</v>
+      </c>
+      <c r="C348" s="23" t="s">
+        <v>1982</v>
+      </c>
+      <c r="D348" s="22" t="s">
+        <v>2031</v>
+      </c>
+      <c r="E348" s="23" t="s">
+        <v>1984</v>
+      </c>
+      <c r="F348" s="23" t="s">
+        <v>904</v>
+      </c>
+      <c r="G348" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H348" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I348" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="J348" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="K348" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="L348" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="M348" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="N348" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="O348" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="P348" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q348" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="R348" s="23" t="s">
+        <v>1985</v>
+      </c>
+      <c r="S348" s="24" t="s">
+        <v>1980</v>
+      </c>
+      <c r="T348" s="19"/>
+      <c r="U348" s="19"/>
+      <c r="V348" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="W348" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="X348" s="23" t="s">
+        <v>266</v>
+      </c>
+      <c r="Y348" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z348" s="23" t="s">
+        <v>1986</v>
+      </c>
+      <c r="AA348" s="25" t="s">
+        <v>2023</v>
+      </c>
+      <c r="AB348" s="23" t="s">
+        <v>278</v>
+      </c>
+      <c r="AC348" s="23" t="s">
+        <v>529</v>
+      </c>
+      <c r="AD348" s="23" t="s">
+        <v>542</v>
+      </c>
+      <c r="AE348" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF348" s="19"/>
+      <c r="AG348" s="24">
+        <v>-0.82</v>
+      </c>
+      <c r="AH348" s="23">
+        <v>9.9489795899999997E-2</v>
+      </c>
+      <c r="AI348" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ348" s="23">
+        <v>-1.02</v>
+      </c>
+      <c r="AK348" s="23">
+        <v>-0.63</v>
+      </c>
+      <c r="AL348" s="23">
+        <v>0.95</v>
+      </c>
+      <c r="AM348" s="23">
+        <v>0.58309518950000006</v>
+      </c>
+      <c r="AN348" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="AO348" s="23" t="s">
+        <v>1987</v>
+      </c>
+      <c r="AP348" s="26" t="s">
+        <v>572</v>
+      </c>
+      <c r="AQ348" s="23" t="s">
+        <v>1839</v>
+      </c>
+      <c r="AR348" s="23" t="s">
+        <v>2024</v>
+      </c>
+      <c r="AS348" s="23">
+        <v>44</v>
+      </c>
+      <c r="AU348" s="23" t="s">
+        <v>2025</v>
+      </c>
+      <c r="AV348" s="23" t="s">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="349" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A349" s="21" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B349" s="22" t="s">
+        <v>1983</v>
+      </c>
+      <c r="C349" s="23" t="s">
+        <v>1982</v>
+      </c>
+      <c r="D349" s="22" t="s">
+        <v>2031</v>
+      </c>
+      <c r="E349" s="23" t="s">
+        <v>1984</v>
+      </c>
+      <c r="F349" s="23" t="s">
+        <v>904</v>
+      </c>
+      <c r="G349" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H349" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I349" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="J349" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="K349" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="L349" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="M349" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="N349" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="O349" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="P349" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q349" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="R349" s="23" t="s">
+        <v>1985</v>
+      </c>
+      <c r="S349" s="24" t="s">
+        <v>1981</v>
+      </c>
+      <c r="T349" s="19"/>
+      <c r="U349" s="19"/>
+      <c r="V349" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="W349" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="X349" s="23" t="s">
+        <v>266</v>
+      </c>
+      <c r="Y349" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z349" s="23" t="s">
+        <v>1986</v>
+      </c>
+      <c r="AA349" s="25" t="s">
+        <v>2027</v>
+      </c>
+      <c r="AB349" s="23" t="s">
+        <v>278</v>
+      </c>
+      <c r="AC349" s="23" t="s">
+        <v>529</v>
+      </c>
+      <c r="AD349" s="23" t="s">
+        <v>542</v>
+      </c>
+      <c r="AE349" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF349" s="19"/>
+      <c r="AG349" s="24">
+        <v>-0.83</v>
+      </c>
+      <c r="AH349" s="23">
+        <v>0.17091836730000001</v>
+      </c>
+      <c r="AI349" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ349" s="23">
+        <v>-1.1599999999999999</v>
+      </c>
+      <c r="AK349" s="23">
+        <v>-0.49</v>
+      </c>
+      <c r="AL349" s="23">
+        <v>0.95</v>
+      </c>
+      <c r="AM349" s="23">
+        <v>0.41231056259999999</v>
+      </c>
+      <c r="AN349" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="AO349" s="23" t="s">
+        <v>1987</v>
+      </c>
+      <c r="AP349" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="AQ349" s="23" t="s">
+        <v>1837</v>
+      </c>
+      <c r="AR349" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="AS349" s="23">
+        <v>10</v>
+      </c>
+      <c r="AU349" s="23" t="s">
+        <v>2025</v>
+      </c>
+      <c r="AV349" s="23" t="s">
+        <v>2028</v>
+      </c>
+    </row>
+    <row r="350" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A350" s="14" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B350" s="15" t="s">
+        <v>2030</v>
+      </c>
+      <c r="S350" s="17"/>
+      <c r="T350" s="17"/>
+      <c r="U350" s="17"/>
+      <c r="AF350" s="17"/>
+      <c r="AG350" s="17"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -50908,10 +53151,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA510F86-D66D-D540-A0B9-F358FD0C245A}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -50928,6 +53171,12 @@
         <v>1885</v>
       </c>
     </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="25"/>
+      <c r="C4" t="s">
+        <v>2029</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data/coded-Dataset.xlsx
+++ b/Data/coded-Dataset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laura/Desktop/GITHUB-METAREVIEW/Meta-review-cognitive-profiles-ADHD-Dyslexia/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8680AC4-CFEF-024B-9050-FD2CBBE30DAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53FCEFE1-E687-9F48-887D-6FA3574B6EA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30260" yWindow="600" windowWidth="38380" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="660" windowWidth="30240" windowHeight="17200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="effect_sizes" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12664" uniqueCount="2032">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13119" uniqueCount="2102">
   <si>
     <t>ID_article</t>
   </si>
@@ -6134,6 +6134,216 @@
   </si>
   <si>
     <t>2023</t>
+  </si>
+  <si>
+    <t>Liu, J.; Ren, X.; Wang, Y.; Zhao, J.</t>
+  </si>
+  <si>
+    <t>Visual attention span capacity in developmental dyslexia: A meta-analysis</t>
+  </si>
+  <si>
+    <t>Table 2 reports Glass’s delta; coded as Type_effect_size = 'Standardized Mean Difference' and noted verbatim in Notes.; lnSDR (variance ratio) meta-analysis is reported; Type_effect_size vocabulary has no matching canonical label, so Type_effect_size is null for that row.</t>
+  </si>
+  <si>
+    <t>2009_1</t>
+  </si>
+  <si>
+    <t>VAS capacity group differences (overall and moderator subgroups) appear to draw from overlapping subsets of the same study pool (31 studies).</t>
+  </si>
+  <si>
+    <t>Visual attention span (VAS) capacity (total)</t>
+  </si>
+  <si>
+    <t>9.01–27.21 years</t>
+  </si>
+  <si>
+    <t>Across included studies: ages 9.01 to 27.21 years</t>
+  </si>
+  <si>
+    <t>Across included studies: 859 readers with dyslexia; 1048 typically developing readers</t>
+  </si>
+  <si>
+    <t>Dyslexia vs typically developing readers</t>
+  </si>
+  <si>
+    <t>Table 2 total effect; authors label effect size as Glass’s delta. Tau computed as sqrt(Tau2=0.50).</t>
+  </si>
+  <si>
+    <t>2009_2</t>
+  </si>
+  <si>
+    <t>2009_3</t>
+  </si>
+  <si>
+    <t>2009_4</t>
+  </si>
+  <si>
+    <t>2009_5</t>
+  </si>
+  <si>
+    <t>2009_6</t>
+  </si>
+  <si>
+    <t>2009_38</t>
+  </si>
+  <si>
+    <t>2009_7</t>
+  </si>
+  <si>
+    <t>2009_8</t>
+  </si>
+  <si>
+    <t>2009_9</t>
+  </si>
+  <si>
+    <t>2009_10</t>
+  </si>
+  <si>
+    <t>2009_11</t>
+  </si>
+  <si>
+    <t>2009_12</t>
+  </si>
+  <si>
+    <t>2009_13</t>
+  </si>
+  <si>
+    <t>2009_14</t>
+  </si>
+  <si>
+    <t>2009_15</t>
+  </si>
+  <si>
+    <t>2009_16</t>
+  </si>
+  <si>
+    <t>2009_17</t>
+  </si>
+  <si>
+    <t>2009_18</t>
+  </si>
+  <si>
+    <t>2009_19</t>
+  </si>
+  <si>
+    <t>2009_20</t>
+  </si>
+  <si>
+    <t>2009_21</t>
+  </si>
+  <si>
+    <t>2009_22</t>
+  </si>
+  <si>
+    <t>2009_23</t>
+  </si>
+  <si>
+    <t>2009_24</t>
+  </si>
+  <si>
+    <t>2009_25</t>
+  </si>
+  <si>
+    <t>2009_26</t>
+  </si>
+  <si>
+    <t>2009_27</t>
+  </si>
+  <si>
+    <t>2009_28</t>
+  </si>
+  <si>
+    <t>2009_29</t>
+  </si>
+  <si>
+    <t>2009_30</t>
+  </si>
+  <si>
+    <t>2009_31</t>
+  </si>
+  <si>
+    <t>2009_32</t>
+  </si>
+  <si>
+    <t>2009_33</t>
+  </si>
+  <si>
+    <t>2009_34</t>
+  </si>
+  <si>
+    <t>2009_35</t>
+  </si>
+  <si>
+    <t>2009_36</t>
+  </si>
+  <si>
+    <t>2009_37</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>See EG01 description.</t>
+  </si>
+  <si>
+    <t>Visual attention span (VAS) capacity (global report paradigm)</t>
+  </si>
+  <si>
+    <t>Global report</t>
+  </si>
+  <si>
+    <t>Subgroup by paradigm; age range not reported for this subgroup.</t>
+  </si>
+  <si>
+    <t>Table 2 paradigms subgroup. Glass’s delta; Tau computed as sqrt(Tau2=0.43).</t>
+  </si>
+  <si>
+    <t>Partial report</t>
+  </si>
+  <si>
+    <t>Table 2 paradigms subgroup. Glass’s delta; Tau computed as sqrt(Tau2=0.48).</t>
+  </si>
+  <si>
+    <t>Visual attention span (VAS) capacity (nameable linguistic materials)</t>
+  </si>
+  <si>
+    <t>Nameable linguistic materials</t>
+  </si>
+  <si>
+    <t>Subgroup by materials; age range not reported for this subgroup.</t>
+  </si>
+  <si>
+    <t>Table 2 materials subgroup. Glass’s delta; Tau computed as sqrt(Tau2=0.36).</t>
+  </si>
+  <si>
+    <t>Visual attention span (VAS) capacity (unnameable nonlinguistic materials)</t>
+  </si>
+  <si>
+    <t>Unnameable nonlinguistic materials</t>
+  </si>
+  <si>
+    <t>Table 2 materials subgroup. Glass’s delta; Tau computed as sqrt(Tau2=0.08).</t>
+  </si>
+  <si>
+    <t>Visual attention span (VAS) capacity (low visual complexity materials)</t>
+  </si>
+  <si>
+    <t>Low visual complexity</t>
+  </si>
+  <si>
+    <t>Subgroup by visual complexity; age range not reported for this subgroup.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Table 2 VC_L subgroup. Glass’s delta; Tau computed as sqrt(Tau2=0).</t>
+  </si>
+  <si>
+    <t>Visual attention span (VAS) capacity (high visual complexity materials)</t>
+  </si>
+  <si>
+    <t>High visual complexity</t>
+  </si>
+  <si>
+    <t>Table 2 VC_H subgroup. Glass’s delta; Tau computed as sqrt(Tau2=0.13).</t>
   </si>
 </sst>
 </file>
@@ -6591,11 +6801,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AV350"/>
+  <dimension ref="A1:AV388"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A325" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B355" sqref="B355"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="61" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A347" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D351" sqref="D351"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -53136,11 +53346,1821 @@
       <c r="B350" s="15" t="s">
         <v>2030</v>
       </c>
-      <c r="S350" s="17"/>
-      <c r="T350" s="17"/>
-      <c r="U350" s="17"/>
-      <c r="AF350" s="17"/>
-      <c r="AG350" s="17"/>
+      <c r="C350" s="16" t="s">
+        <v>2032</v>
+      </c>
+      <c r="D350" s="16">
+        <v>2023</v>
+      </c>
+      <c r="E350" s="16" t="s">
+        <v>2033</v>
+      </c>
+      <c r="F350" s="16" t="s">
+        <v>904</v>
+      </c>
+      <c r="G350" s="16" t="s">
+        <v>1160</v>
+      </c>
+      <c r="H350" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I350" s="16" t="s">
+        <v>1863</v>
+      </c>
+      <c r="J350" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="K350" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="L350" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="M350" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="N350" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="O350" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="P350" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q350" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="R350" s="16" t="s">
+        <v>2034</v>
+      </c>
+      <c r="S350" s="17" t="s">
+        <v>2035</v>
+      </c>
+      <c r="T350" s="19"/>
+      <c r="U350" s="19"/>
+      <c r="V350" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="W350" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="X350" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y350" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z350" s="16" t="s">
+        <v>2036</v>
+      </c>
+      <c r="AA350" s="16" t="s">
+        <v>2037</v>
+      </c>
+      <c r="AB350" s="16" t="s">
+        <v>278</v>
+      </c>
+      <c r="AC350" s="16" t="s">
+        <v>529</v>
+      </c>
+      <c r="AD350" s="16" t="s">
+        <v>542</v>
+      </c>
+      <c r="AE350" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="AF350" s="19"/>
+      <c r="AG350" s="17">
+        <v>-0.99</v>
+      </c>
+      <c r="AH350" s="16">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="AI350" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="AJ350" s="16">
+        <v>-1.28</v>
+      </c>
+      <c r="AK350" s="16">
+        <v>-0.69</v>
+      </c>
+      <c r="AL350" s="16">
+        <v>0.95</v>
+      </c>
+      <c r="AM350" s="16">
+        <v>0.70710678120000003</v>
+      </c>
+      <c r="AN350" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="AO350" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="AP350" s="16" t="s">
+        <v>2038</v>
+      </c>
+      <c r="AQ350" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="AR350" s="16" t="s">
+        <v>2039</v>
+      </c>
+      <c r="AS350" s="16">
+        <v>31</v>
+      </c>
+      <c r="AT350" s="16" t="s">
+        <v>2040</v>
+      </c>
+      <c r="AU350" s="16" t="s">
+        <v>2041</v>
+      </c>
+      <c r="AV350" s="16" t="s">
+        <v>2042</v>
+      </c>
+    </row>
+    <row r="351" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A351" s="14"/>
+      <c r="B351" s="15"/>
+      <c r="C351" s="16" t="s">
+        <v>2032</v>
+      </c>
+      <c r="S351" s="17" t="s">
+        <v>2043</v>
+      </c>
+      <c r="T351" s="19"/>
+      <c r="U351" s="19"/>
+      <c r="V351" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="W351" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="X351" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y351" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z351" s="16" t="s">
+        <v>2081</v>
+      </c>
+      <c r="AA351" s="16" t="s">
+        <v>2082</v>
+      </c>
+      <c r="AB351" s="16" t="s">
+        <v>278</v>
+      </c>
+      <c r="AC351" s="16" t="s">
+        <v>529</v>
+      </c>
+      <c r="AD351" s="16" t="s">
+        <v>2083</v>
+      </c>
+      <c r="AE351" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="AF351" s="19"/>
+      <c r="AG351" s="17">
+        <v>-1.37</v>
+      </c>
+      <c r="AH351" s="16">
+        <v>0.15</v>
+      </c>
+      <c r="AI351" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="AJ351" s="16">
+        <v>-1.69</v>
+      </c>
+      <c r="AK351" s="16">
+        <v>-1.06</v>
+      </c>
+      <c r="AL351" s="16">
+        <v>0.95</v>
+      </c>
+      <c r="AM351" s="16">
+        <v>0.65574385239999999</v>
+      </c>
+      <c r="AN351" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="AQ351" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="AR351" s="16" t="s">
+        <v>2084</v>
+      </c>
+      <c r="AS351" s="16">
+        <v>22</v>
+      </c>
+      <c r="AU351" s="16" t="s">
+        <v>2041</v>
+      </c>
+      <c r="AV351" s="16" t="s">
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="352" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A352" s="14"/>
+      <c r="B352" s="15"/>
+      <c r="C352" s="16" t="s">
+        <v>2032</v>
+      </c>
+      <c r="S352" s="17" t="s">
+        <v>2044</v>
+      </c>
+      <c r="T352" s="19"/>
+      <c r="U352" s="19"/>
+      <c r="V352" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="W352" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="X352" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y352" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z352" s="16" t="s">
+        <v>2081</v>
+      </c>
+      <c r="AA352" s="16" t="s">
+        <v>2082</v>
+      </c>
+      <c r="AB352" s="16" t="s">
+        <v>278</v>
+      </c>
+      <c r="AC352" s="16" t="s">
+        <v>529</v>
+      </c>
+      <c r="AD352" s="16" t="s">
+        <v>2086</v>
+      </c>
+      <c r="AE352" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="AF352" s="19"/>
+      <c r="AG352" s="17">
+        <v>-0.74</v>
+      </c>
+      <c r="AH352" s="16">
+        <v>0.19</v>
+      </c>
+      <c r="AI352" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="AJ352" s="16">
+        <v>-1.1299999999999999</v>
+      </c>
+      <c r="AK352" s="16">
+        <v>-0.35</v>
+      </c>
+      <c r="AL352" s="16">
+        <v>0.95</v>
+      </c>
+      <c r="AM352" s="16">
+        <v>0.69282032299999996</v>
+      </c>
+      <c r="AN352" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="AQ352" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="AR352" s="16" t="s">
+        <v>2084</v>
+      </c>
+      <c r="AS352" s="16">
+        <v>19</v>
+      </c>
+      <c r="AU352" s="16" t="s">
+        <v>2041</v>
+      </c>
+      <c r="AV352" s="16" t="s">
+        <v>2087</v>
+      </c>
+    </row>
+    <row r="353" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A353" s="14"/>
+      <c r="B353" s="15"/>
+      <c r="C353" s="16" t="s">
+        <v>2032</v>
+      </c>
+      <c r="S353" s="17" t="s">
+        <v>2045</v>
+      </c>
+      <c r="T353" s="19"/>
+      <c r="U353" s="19"/>
+      <c r="V353" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="W353" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="X353" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y353" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z353" s="16" t="s">
+        <v>2081</v>
+      </c>
+      <c r="AA353" s="16" t="s">
+        <v>2088</v>
+      </c>
+      <c r="AB353" s="16" t="s">
+        <v>278</v>
+      </c>
+      <c r="AC353" s="16" t="s">
+        <v>529</v>
+      </c>
+      <c r="AD353" s="16" t="s">
+        <v>2089</v>
+      </c>
+      <c r="AE353" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="AF353" s="19"/>
+      <c r="AG353" s="17">
+        <v>-1.27</v>
+      </c>
+      <c r="AH353" s="16">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="AI353" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="AJ353" s="16">
+        <v>-1.56</v>
+      </c>
+      <c r="AK353" s="16">
+        <v>-0.97</v>
+      </c>
+      <c r="AL353" s="16">
+        <v>0.95</v>
+      </c>
+      <c r="AM353" s="16">
+        <v>0.6</v>
+      </c>
+      <c r="AN353" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="AQ353" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="AR353" s="16" t="s">
+        <v>2090</v>
+      </c>
+      <c r="AS353" s="16">
+        <v>25</v>
+      </c>
+      <c r="AU353" s="16" t="s">
+        <v>2041</v>
+      </c>
+      <c r="AV353" s="16" t="s">
+        <v>2091</v>
+      </c>
+    </row>
+    <row r="354" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A354" s="14"/>
+      <c r="B354" s="15"/>
+      <c r="C354" s="16" t="s">
+        <v>2032</v>
+      </c>
+      <c r="S354" s="17" t="s">
+        <v>2046</v>
+      </c>
+      <c r="T354" s="19"/>
+      <c r="U354" s="19"/>
+      <c r="V354" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="W354" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="X354" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y354" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z354" s="16" t="s">
+        <v>2081</v>
+      </c>
+      <c r="AA354" s="16" t="s">
+        <v>2092</v>
+      </c>
+      <c r="AB354" s="16" t="s">
+        <v>278</v>
+      </c>
+      <c r="AC354" s="16" t="s">
+        <v>529</v>
+      </c>
+      <c r="AD354" s="16" t="s">
+        <v>2093</v>
+      </c>
+      <c r="AE354" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="AF354" s="19"/>
+      <c r="AG354" s="17">
+        <v>-0.27</v>
+      </c>
+      <c r="AH354" s="16">
+        <v>0.12</v>
+      </c>
+      <c r="AI354" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="AJ354" s="16">
+        <v>-0.54</v>
+      </c>
+      <c r="AK354" s="16">
+        <v>-5.0000000000000001E-3</v>
+      </c>
+      <c r="AL354" s="16">
+        <v>0.95</v>
+      </c>
+      <c r="AM354" s="16">
+        <v>0.28284271249999998</v>
+      </c>
+      <c r="AN354" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="AQ354" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="AR354" s="16" t="s">
+        <v>2090</v>
+      </c>
+      <c r="AS354" s="16">
+        <v>10</v>
+      </c>
+      <c r="AU354" s="16" t="s">
+        <v>2041</v>
+      </c>
+      <c r="AV354" s="16" t="s">
+        <v>2094</v>
+      </c>
+    </row>
+    <row r="355" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A355" s="14"/>
+      <c r="B355" s="15"/>
+      <c r="C355" s="16" t="s">
+        <v>2032</v>
+      </c>
+      <c r="S355" s="17" t="s">
+        <v>2047</v>
+      </c>
+      <c r="T355" s="19"/>
+      <c r="U355" s="19"/>
+      <c r="V355" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="W355" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="X355" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y355" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z355" s="16" t="s">
+        <v>2081</v>
+      </c>
+      <c r="AA355" s="16" t="s">
+        <v>2095</v>
+      </c>
+      <c r="AB355" s="16" t="s">
+        <v>278</v>
+      </c>
+      <c r="AC355" s="16" t="s">
+        <v>529</v>
+      </c>
+      <c r="AD355" s="16" t="s">
+        <v>2096</v>
+      </c>
+      <c r="AE355" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="AF355" s="19"/>
+      <c r="AG355" s="17">
+        <v>-0.05</v>
+      </c>
+      <c r="AH355" s="16">
+        <v>0.01</v>
+      </c>
+      <c r="AI355" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="AJ355" s="16">
+        <v>-0.08</v>
+      </c>
+      <c r="AK355" s="16">
+        <v>-0.02</v>
+      </c>
+      <c r="AL355" s="16">
+        <v>0.95</v>
+      </c>
+      <c r="AM355" s="16">
+        <v>0</v>
+      </c>
+      <c r="AN355" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="AQ355" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="AR355" s="16" t="s">
+        <v>2097</v>
+      </c>
+      <c r="AS355" s="16">
+        <v>4</v>
+      </c>
+      <c r="AU355" s="16" t="s">
+        <v>2041</v>
+      </c>
+      <c r="AV355" s="16" t="s">
+        <v>2098</v>
+      </c>
+    </row>
+    <row r="356" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A356" s="14"/>
+      <c r="B356" s="15"/>
+      <c r="C356" s="16" t="s">
+        <v>2032</v>
+      </c>
+      <c r="S356" s="17" t="s">
+        <v>2049</v>
+      </c>
+      <c r="T356" s="19"/>
+      <c r="U356" s="19"/>
+      <c r="V356" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="W356" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="X356" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y356" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z356" s="16" t="s">
+        <v>2081</v>
+      </c>
+      <c r="AA356" s="16" t="s">
+        <v>2099</v>
+      </c>
+      <c r="AB356" s="16" t="s">
+        <v>278</v>
+      </c>
+      <c r="AC356" s="16" t="s">
+        <v>529</v>
+      </c>
+      <c r="AD356" s="16" t="s">
+        <v>2100</v>
+      </c>
+      <c r="AE356" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="AF356" s="19"/>
+      <c r="AG356" s="17">
+        <v>-0.37</v>
+      </c>
+      <c r="AH356" s="16">
+        <v>0.16</v>
+      </c>
+      <c r="AI356" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="AJ356" s="16">
+        <v>-0.74</v>
+      </c>
+      <c r="AK356" s="16">
+        <v>-2E-3</v>
+      </c>
+      <c r="AL356" s="16">
+        <v>0.95</v>
+      </c>
+      <c r="AM356" s="16">
+        <v>0.36055512750000002</v>
+      </c>
+      <c r="AN356" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="AQ356" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="AR356" s="16" t="s">
+        <v>2097</v>
+      </c>
+      <c r="AS356" s="16">
+        <v>8</v>
+      </c>
+      <c r="AU356" s="16" t="s">
+        <v>2041</v>
+      </c>
+      <c r="AV356" s="16" t="s">
+        <v>2101</v>
+      </c>
+    </row>
+    <row r="357" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A357" s="14"/>
+      <c r="B357" s="15"/>
+      <c r="C357" s="16" t="s">
+        <v>2032</v>
+      </c>
+      <c r="S357" s="17" t="s">
+        <v>2050</v>
+      </c>
+      <c r="T357" s="19"/>
+      <c r="U357" s="19"/>
+      <c r="V357" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="W357" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="X357" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y357" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB357" s="16" t="s">
+        <v>278</v>
+      </c>
+      <c r="AC357" s="16" t="s">
+        <v>529</v>
+      </c>
+      <c r="AE357" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="AF357" s="19"/>
+      <c r="AG357" s="17"/>
+      <c r="AU357" s="16" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="358" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A358" s="14"/>
+      <c r="B358" s="15"/>
+      <c r="C358" s="16" t="s">
+        <v>2032</v>
+      </c>
+      <c r="S358" s="17" t="s">
+        <v>2051</v>
+      </c>
+      <c r="T358" s="19"/>
+      <c r="U358" s="19"/>
+      <c r="V358" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="W358" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="X358" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y358" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB358" s="16" t="s">
+        <v>278</v>
+      </c>
+      <c r="AC358" s="16" t="s">
+        <v>529</v>
+      </c>
+      <c r="AE358" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="AF358" s="19"/>
+      <c r="AG358" s="17"/>
+      <c r="AU358" s="16" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="359" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A359" s="14"/>
+      <c r="B359" s="15"/>
+      <c r="C359" s="16" t="s">
+        <v>2032</v>
+      </c>
+      <c r="S359" s="17" t="s">
+        <v>2052</v>
+      </c>
+      <c r="T359" s="19"/>
+      <c r="U359" s="19"/>
+      <c r="V359" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="W359" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="X359" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y359" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB359" s="16" t="s">
+        <v>278</v>
+      </c>
+      <c r="AC359" s="16" t="s">
+        <v>529</v>
+      </c>
+      <c r="AE359" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="AF359" s="19"/>
+      <c r="AG359" s="17"/>
+      <c r="AU359" s="16" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="360" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A360" s="14"/>
+      <c r="B360" s="15"/>
+      <c r="C360" s="16" t="s">
+        <v>2032</v>
+      </c>
+      <c r="S360" s="17" t="s">
+        <v>2053</v>
+      </c>
+      <c r="T360" s="19"/>
+      <c r="U360" s="19"/>
+      <c r="V360" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="W360" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="X360" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y360" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB360" s="16" t="s">
+        <v>278</v>
+      </c>
+      <c r="AC360" s="16" t="s">
+        <v>529</v>
+      </c>
+      <c r="AE360" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="AF360" s="19"/>
+      <c r="AG360" s="17"/>
+      <c r="AU360" s="16" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="361" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A361" s="14"/>
+      <c r="B361" s="15"/>
+      <c r="C361" s="16" t="s">
+        <v>2032</v>
+      </c>
+      <c r="S361" s="17" t="s">
+        <v>2054</v>
+      </c>
+      <c r="T361" s="19"/>
+      <c r="U361" s="19"/>
+      <c r="V361" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="W361" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="X361" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y361" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB361" s="16" t="s">
+        <v>278</v>
+      </c>
+      <c r="AC361" s="16" t="s">
+        <v>529</v>
+      </c>
+      <c r="AE361" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="AF361" s="19"/>
+      <c r="AG361" s="17"/>
+      <c r="AU361" s="16" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="362" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A362" s="14"/>
+      <c r="B362" s="15"/>
+      <c r="C362" s="16" t="s">
+        <v>2032</v>
+      </c>
+      <c r="S362" s="17" t="s">
+        <v>2055</v>
+      </c>
+      <c r="T362" s="19"/>
+      <c r="U362" s="19"/>
+      <c r="V362" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="W362" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="X362" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y362" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB362" s="16" t="s">
+        <v>278</v>
+      </c>
+      <c r="AC362" s="16" t="s">
+        <v>529</v>
+      </c>
+      <c r="AE362" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="AF362" s="19"/>
+      <c r="AG362" s="17"/>
+      <c r="AU362" s="16" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="363" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A363" s="14"/>
+      <c r="B363" s="15"/>
+      <c r="C363" s="16" t="s">
+        <v>2032</v>
+      </c>
+      <c r="S363" s="17" t="s">
+        <v>2056</v>
+      </c>
+      <c r="T363" s="19"/>
+      <c r="U363" s="19"/>
+      <c r="V363" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="W363" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="X363" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y363" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB363" s="16" t="s">
+        <v>278</v>
+      </c>
+      <c r="AC363" s="16" t="s">
+        <v>529</v>
+      </c>
+      <c r="AE363" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="AF363" s="19"/>
+      <c r="AG363" s="17"/>
+      <c r="AU363" s="16" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="364" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A364" s="14"/>
+      <c r="B364" s="15"/>
+      <c r="C364" s="16" t="s">
+        <v>2032</v>
+      </c>
+      <c r="S364" s="17" t="s">
+        <v>2057</v>
+      </c>
+      <c r="T364" s="19"/>
+      <c r="U364" s="19"/>
+      <c r="V364" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="W364" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="X364" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y364" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB364" s="16" t="s">
+        <v>278</v>
+      </c>
+      <c r="AC364" s="16" t="s">
+        <v>529</v>
+      </c>
+      <c r="AE364" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="AF364" s="19"/>
+      <c r="AG364" s="17"/>
+      <c r="AU364" s="16" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="365" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A365" s="14"/>
+      <c r="B365" s="15"/>
+      <c r="C365" s="16" t="s">
+        <v>2032</v>
+      </c>
+      <c r="S365" s="17" t="s">
+        <v>2058</v>
+      </c>
+      <c r="T365" s="19"/>
+      <c r="U365" s="19"/>
+      <c r="V365" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="W365" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="X365" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y365" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB365" s="16" t="s">
+        <v>278</v>
+      </c>
+      <c r="AC365" s="16" t="s">
+        <v>529</v>
+      </c>
+      <c r="AE365" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="AF365" s="19"/>
+      <c r="AG365" s="17"/>
+      <c r="AU365" s="16" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="366" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A366" s="14"/>
+      <c r="B366" s="15"/>
+      <c r="C366" s="16" t="s">
+        <v>2032</v>
+      </c>
+      <c r="S366" s="17" t="s">
+        <v>2059</v>
+      </c>
+      <c r="T366" s="19"/>
+      <c r="U366" s="19"/>
+      <c r="V366" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="W366" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="X366" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y366" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB366" s="16" t="s">
+        <v>278</v>
+      </c>
+      <c r="AC366" s="16" t="s">
+        <v>529</v>
+      </c>
+      <c r="AE366" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="AF366" s="19"/>
+      <c r="AG366" s="17"/>
+      <c r="AU366" s="16" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="367" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A367" s="14"/>
+      <c r="B367" s="15"/>
+      <c r="C367" s="16" t="s">
+        <v>2032</v>
+      </c>
+      <c r="S367" s="17" t="s">
+        <v>2060</v>
+      </c>
+      <c r="T367" s="19"/>
+      <c r="U367" s="19"/>
+      <c r="V367" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="W367" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="X367" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y367" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB367" s="16" t="s">
+        <v>278</v>
+      </c>
+      <c r="AC367" s="16" t="s">
+        <v>529</v>
+      </c>
+      <c r="AE367" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="AF367" s="19"/>
+      <c r="AG367" s="17"/>
+      <c r="AU367" s="16" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="368" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A368" s="14"/>
+      <c r="B368" s="15"/>
+      <c r="C368" s="16" t="s">
+        <v>2032</v>
+      </c>
+      <c r="S368" s="17" t="s">
+        <v>2061</v>
+      </c>
+      <c r="T368" s="19"/>
+      <c r="U368" s="19"/>
+      <c r="V368" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="W368" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="X368" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y368" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB368" s="16" t="s">
+        <v>278</v>
+      </c>
+      <c r="AC368" s="16" t="s">
+        <v>529</v>
+      </c>
+      <c r="AE368" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="AF368" s="19"/>
+      <c r="AG368" s="17"/>
+      <c r="AU368" s="16" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="369" spans="1:47" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A369" s="14"/>
+      <c r="B369" s="15"/>
+      <c r="C369" s="16" t="s">
+        <v>2032</v>
+      </c>
+      <c r="S369" s="17" t="s">
+        <v>2062</v>
+      </c>
+      <c r="T369" s="19"/>
+      <c r="U369" s="19"/>
+      <c r="V369" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="W369" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="X369" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y369" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB369" s="16" t="s">
+        <v>278</v>
+      </c>
+      <c r="AC369" s="16" t="s">
+        <v>529</v>
+      </c>
+      <c r="AE369" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="AF369" s="19"/>
+      <c r="AG369" s="17"/>
+      <c r="AU369" s="16" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="370" spans="1:47" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A370" s="14"/>
+      <c r="B370" s="15"/>
+      <c r="C370" s="16" t="s">
+        <v>2032</v>
+      </c>
+      <c r="S370" s="17" t="s">
+        <v>2063</v>
+      </c>
+      <c r="T370" s="19"/>
+      <c r="U370" s="19"/>
+      <c r="V370" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="W370" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="X370" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y370" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB370" s="16" t="s">
+        <v>278</v>
+      </c>
+      <c r="AC370" s="16" t="s">
+        <v>529</v>
+      </c>
+      <c r="AE370" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="AF370" s="19"/>
+      <c r="AG370" s="17"/>
+      <c r="AU370" s="16" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="371" spans="1:47" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A371" s="14"/>
+      <c r="B371" s="15"/>
+      <c r="C371" s="16" t="s">
+        <v>2032</v>
+      </c>
+      <c r="S371" s="17" t="s">
+        <v>2064</v>
+      </c>
+      <c r="T371" s="19"/>
+      <c r="U371" s="19"/>
+      <c r="V371" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="W371" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="X371" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y371" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB371" s="16" t="s">
+        <v>278</v>
+      </c>
+      <c r="AC371" s="16" t="s">
+        <v>529</v>
+      </c>
+      <c r="AE371" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="AF371" s="19"/>
+      <c r="AG371" s="17"/>
+      <c r="AU371" s="16" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="372" spans="1:47" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A372" s="14"/>
+      <c r="B372" s="15"/>
+      <c r="C372" s="16" t="s">
+        <v>2032</v>
+      </c>
+      <c r="S372" s="17" t="s">
+        <v>2065</v>
+      </c>
+      <c r="T372" s="19"/>
+      <c r="U372" s="19"/>
+      <c r="V372" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="W372" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="X372" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y372" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB372" s="16" t="s">
+        <v>278</v>
+      </c>
+      <c r="AC372" s="16" t="s">
+        <v>529</v>
+      </c>
+      <c r="AE372" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="AF372" s="19"/>
+      <c r="AG372" s="17"/>
+      <c r="AU372" s="16" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="373" spans="1:47" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A373" s="14"/>
+      <c r="B373" s="15"/>
+      <c r="C373" s="16" t="s">
+        <v>2032</v>
+      </c>
+      <c r="S373" s="17" t="s">
+        <v>2066</v>
+      </c>
+      <c r="T373" s="19"/>
+      <c r="U373" s="19"/>
+      <c r="V373" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="W373" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="X373" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y373" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB373" s="16" t="s">
+        <v>278</v>
+      </c>
+      <c r="AC373" s="16" t="s">
+        <v>529</v>
+      </c>
+      <c r="AE373" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="AF373" s="19"/>
+      <c r="AG373" s="17"/>
+      <c r="AU373" s="16" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="374" spans="1:47" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A374" s="14"/>
+      <c r="B374" s="15"/>
+      <c r="C374" s="16" t="s">
+        <v>2032</v>
+      </c>
+      <c r="S374" s="17" t="s">
+        <v>2067</v>
+      </c>
+      <c r="T374" s="19"/>
+      <c r="U374" s="19"/>
+      <c r="V374" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="W374" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="X374" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y374" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB374" s="16" t="s">
+        <v>278</v>
+      </c>
+      <c r="AC374" s="16" t="s">
+        <v>529</v>
+      </c>
+      <c r="AE374" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="AF374" s="19"/>
+      <c r="AG374" s="17"/>
+      <c r="AU374" s="16" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="375" spans="1:47" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A375" s="14"/>
+      <c r="B375" s="15"/>
+      <c r="C375" s="16" t="s">
+        <v>2032</v>
+      </c>
+      <c r="S375" s="17" t="s">
+        <v>2068</v>
+      </c>
+      <c r="T375" s="19"/>
+      <c r="U375" s="19"/>
+      <c r="V375" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="W375" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="X375" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y375" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB375" s="16" t="s">
+        <v>278</v>
+      </c>
+      <c r="AC375" s="16" t="s">
+        <v>529</v>
+      </c>
+      <c r="AE375" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="AF375" s="19"/>
+      <c r="AG375" s="17"/>
+      <c r="AU375" s="16" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="376" spans="1:47" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A376" s="14"/>
+      <c r="B376" s="15"/>
+      <c r="C376" s="16" t="s">
+        <v>2032</v>
+      </c>
+      <c r="S376" s="17" t="s">
+        <v>2069</v>
+      </c>
+      <c r="T376" s="19"/>
+      <c r="U376" s="19"/>
+      <c r="V376" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="W376" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="X376" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y376" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB376" s="16" t="s">
+        <v>278</v>
+      </c>
+      <c r="AC376" s="16" t="s">
+        <v>529</v>
+      </c>
+      <c r="AE376" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="AF376" s="19"/>
+      <c r="AG376" s="17"/>
+      <c r="AU376" s="16" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="377" spans="1:47" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A377" s="14"/>
+      <c r="B377" s="15"/>
+      <c r="C377" s="16" t="s">
+        <v>2032</v>
+      </c>
+      <c r="S377" s="17" t="s">
+        <v>2070</v>
+      </c>
+      <c r="T377" s="19"/>
+      <c r="U377" s="19"/>
+      <c r="V377" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="W377" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="X377" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y377" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB377" s="16" t="s">
+        <v>278</v>
+      </c>
+      <c r="AC377" s="16" t="s">
+        <v>529</v>
+      </c>
+      <c r="AE377" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="AF377" s="19"/>
+      <c r="AG377" s="17"/>
+      <c r="AU377" s="16" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="378" spans="1:47" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A378" s="14"/>
+      <c r="B378" s="15"/>
+      <c r="C378" s="16" t="s">
+        <v>2032</v>
+      </c>
+      <c r="S378" s="17" t="s">
+        <v>2071</v>
+      </c>
+      <c r="T378" s="19"/>
+      <c r="U378" s="19"/>
+      <c r="V378" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="W378" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="X378" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y378" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB378" s="16" t="s">
+        <v>278</v>
+      </c>
+      <c r="AC378" s="16" t="s">
+        <v>529</v>
+      </c>
+      <c r="AE378" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="AF378" s="19"/>
+      <c r="AG378" s="17"/>
+      <c r="AU378" s="16" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="379" spans="1:47" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A379" s="14"/>
+      <c r="B379" s="15"/>
+      <c r="C379" s="16" t="s">
+        <v>2032</v>
+      </c>
+      <c r="S379" s="17" t="s">
+        <v>2072</v>
+      </c>
+      <c r="T379" s="19"/>
+      <c r="U379" s="19"/>
+      <c r="V379" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="W379" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="X379" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y379" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB379" s="16" t="s">
+        <v>278</v>
+      </c>
+      <c r="AC379" s="16" t="s">
+        <v>529</v>
+      </c>
+      <c r="AE379" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="AF379" s="19"/>
+      <c r="AG379" s="17"/>
+      <c r="AU379" s="16" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="380" spans="1:47" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A380" s="14"/>
+      <c r="B380" s="15"/>
+      <c r="C380" s="16" t="s">
+        <v>2032</v>
+      </c>
+      <c r="S380" s="17" t="s">
+        <v>2073</v>
+      </c>
+      <c r="T380" s="19"/>
+      <c r="U380" s="19"/>
+      <c r="V380" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="W380" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="X380" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y380" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB380" s="16" t="s">
+        <v>278</v>
+      </c>
+      <c r="AC380" s="16" t="s">
+        <v>529</v>
+      </c>
+      <c r="AE380" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="AF380" s="19"/>
+      <c r="AG380" s="17"/>
+      <c r="AU380" s="16" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="381" spans="1:47" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A381" s="14"/>
+      <c r="B381" s="15"/>
+      <c r="C381" s="16" t="s">
+        <v>2032</v>
+      </c>
+      <c r="S381" s="17" t="s">
+        <v>2074</v>
+      </c>
+      <c r="T381" s="19"/>
+      <c r="U381" s="19"/>
+      <c r="V381" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="W381" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="X381" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y381" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB381" s="16" t="s">
+        <v>278</v>
+      </c>
+      <c r="AC381" s="16" t="s">
+        <v>529</v>
+      </c>
+      <c r="AE381" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="AF381" s="19"/>
+      <c r="AG381" s="17"/>
+      <c r="AU381" s="16" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="382" spans="1:47" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A382" s="14"/>
+      <c r="B382" s="15"/>
+      <c r="C382" s="16" t="s">
+        <v>2032</v>
+      </c>
+      <c r="S382" s="17" t="s">
+        <v>2075</v>
+      </c>
+      <c r="T382" s="19"/>
+      <c r="U382" s="19"/>
+      <c r="V382" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="W382" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="X382" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y382" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB382" s="16" t="s">
+        <v>278</v>
+      </c>
+      <c r="AC382" s="16" t="s">
+        <v>529</v>
+      </c>
+      <c r="AE382" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="AF382" s="19"/>
+      <c r="AG382" s="17"/>
+      <c r="AU382" s="16" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="383" spans="1:47" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A383" s="14"/>
+      <c r="B383" s="15"/>
+      <c r="C383" s="16" t="s">
+        <v>2032</v>
+      </c>
+      <c r="S383" s="17" t="s">
+        <v>2076</v>
+      </c>
+      <c r="T383" s="19"/>
+      <c r="U383" s="19"/>
+      <c r="V383" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="W383" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="X383" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y383" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB383" s="16" t="s">
+        <v>278</v>
+      </c>
+      <c r="AC383" s="16" t="s">
+        <v>529</v>
+      </c>
+      <c r="AE383" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="AF383" s="19"/>
+      <c r="AG383" s="17"/>
+      <c r="AU383" s="16" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="384" spans="1:47" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A384" s="14"/>
+      <c r="B384" s="15"/>
+      <c r="C384" s="16" t="s">
+        <v>2032</v>
+      </c>
+      <c r="S384" s="17" t="s">
+        <v>2077</v>
+      </c>
+      <c r="T384" s="19"/>
+      <c r="U384" s="19"/>
+      <c r="V384" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="W384" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="X384" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y384" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB384" s="16" t="s">
+        <v>278</v>
+      </c>
+      <c r="AC384" s="16" t="s">
+        <v>529</v>
+      </c>
+      <c r="AE384" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="AF384" s="19"/>
+      <c r="AG384" s="17"/>
+      <c r="AU384" s="16" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="385" spans="1:47" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A385" s="14"/>
+      <c r="B385" s="15"/>
+      <c r="C385" s="16" t="s">
+        <v>2032</v>
+      </c>
+      <c r="S385" s="17" t="s">
+        <v>2078</v>
+      </c>
+      <c r="T385" s="19"/>
+      <c r="U385" s="19"/>
+      <c r="V385" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="W385" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="X385" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y385" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB385" s="16" t="s">
+        <v>278</v>
+      </c>
+      <c r="AC385" s="16" t="s">
+        <v>529</v>
+      </c>
+      <c r="AE385" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="AF385" s="19"/>
+      <c r="AG385" s="17"/>
+      <c r="AU385" s="16" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="386" spans="1:47" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A386" s="14"/>
+      <c r="B386" s="15"/>
+      <c r="C386" s="16" t="s">
+        <v>2032</v>
+      </c>
+      <c r="S386" s="17" t="s">
+        <v>2079</v>
+      </c>
+      <c r="T386" s="19"/>
+      <c r="U386" s="19"/>
+      <c r="V386" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="W386" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="X386" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y386" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB386" s="16" t="s">
+        <v>278</v>
+      </c>
+      <c r="AC386" s="16" t="s">
+        <v>529</v>
+      </c>
+      <c r="AE386" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="AF386" s="19"/>
+      <c r="AG386" s="17"/>
+      <c r="AU386" s="16" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="387" spans="1:47" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A387" s="14"/>
+      <c r="B387" s="15"/>
+      <c r="C387" s="16" t="s">
+        <v>2032</v>
+      </c>
+      <c r="S387" s="17" t="s">
+        <v>2048</v>
+      </c>
+      <c r="T387" s="19"/>
+      <c r="U387" s="19"/>
+      <c r="V387" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="W387" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="X387" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y387" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB387" s="16" t="s">
+        <v>278</v>
+      </c>
+      <c r="AC387" s="16" t="s">
+        <v>529</v>
+      </c>
+      <c r="AE387" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="AF387" s="19"/>
+      <c r="AG387" s="17"/>
+      <c r="AU387" s="16" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="388" spans="1:47" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A388" s="21" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B388" s="22" t="s">
+        <v>2080</v>
+      </c>
+      <c r="S388" s="24"/>
+      <c r="T388" s="24"/>
+      <c r="U388" s="24"/>
+      <c r="AF388" s="24"/>
+      <c r="AG388" s="24"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Data/coded-Dataset.xlsx
+++ b/Data/coded-Dataset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laura/Desktop/GITHUB-METAREVIEW/Meta-review-cognitive-profiles-ADHD-Dyslexia/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53FCEFE1-E687-9F48-887D-6FA3574B6EA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18C37E2A-A077-4641-BEBA-4A09056B6DDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="660" windowWidth="30240" windowHeight="17200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20" yWindow="660" windowWidth="30240" windowHeight="17200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="effect_sizes" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13119" uniqueCount="2102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13153" uniqueCount="2114">
   <si>
     <t>ID_article</t>
   </si>
@@ -6344,6 +6344,42 @@
   </si>
   <si>
     <t>Table 2 VC_H subgroup. Glass’s delta; Tau computed as sqrt(Tau2=0.13).</t>
+  </si>
+  <si>
+    <t>2011_1</t>
+  </si>
+  <si>
+    <t>Dyslexia,No,TASK_OR_MEASURE,EG01,Overall pooled estimate and subgroup/sensitivity estimates are based on the same set of 13 studies (overlap assumed).,Overall accuracy score (visual AGL test phase),Learning and memory,,,Hedges g,,0.46,0.16071428571428573,derived_from_95ci,0.14,0.77,0.95,,missing,Yes,8.5–36.8 years old,mixed,Mean age range: 8.5–36.8 years old,13,13 studies; 255 participants with dyslexia and 292 control participants,Dyslexia vs non-dyslexic controls,Random-effects model (REML) with Knapp-Hartung adjustment; pooled estimate reported in Results and Fig. 3.</t>
+  </si>
+  <si>
+    <t>van Witteloostuijn, M.; Boersma, P.; Wijnen, F.; Rispens, J.</t>
+  </si>
+  <si>
+    <t>Visual artificial grammar learning in dyslexia: A meta-analysis</t>
+  </si>
+  <si>
+    <t>This meta-analysis targets visual artificial grammar learning (implicit learning); the protocol L1/L2 vocabulary has no explicit ‘implicit/statistical learning’ option. Domain coded as Learning and memory (L2/L3 left null).; Row 2011_4 is a publication-bias-adjusted (trim-and-fill) pooled estimate; included as a sensitivity estimate dependent on the same evidence group.; Tau/tau2 are not reported; only Q and I2 are provided, so Tau_heterogeneity is null for all rows.</t>
+  </si>
+  <si>
+    <t>Overall pooled estimate and subgroup/sensitivity estimates are based on the same set of 13 studies (overlap assumed).</t>
+  </si>
+  <si>
+    <t>Overall accuracy score (visual AGL test phase)</t>
+  </si>
+  <si>
+    <t>8.5–36.8 years old</t>
+  </si>
+  <si>
+    <t>Mean age range: 8.5–36.8 years old</t>
+  </si>
+  <si>
+    <t>13 studies; 255 participants with dyslexia and 292 control participants</t>
+  </si>
+  <si>
+    <t>Dyslexia vs non-dyslexic controls</t>
+  </si>
+  <si>
+    <t>Random-effects model (REML) with Knapp-Hartung adjustment; pooled estimate reported in Results and Fig. 3. Publication bias assessed via Egger regression and trim-and-fill.</t>
   </si>
 </sst>
 </file>
@@ -6801,11 +6837,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AV388"/>
+  <dimension ref="A1:AV389"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="61" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A347" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D351" sqref="D351"/>
+    <sheetView tabSelected="1" topLeftCell="Y1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A359" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AU371" sqref="AU371"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6829,7 +6865,7 @@
     <col min="17" max="17" width="28.6640625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="44.1640625" customWidth="1"/>
     <col min="19" max="19" width="12.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.1640625" style="3" customWidth="1"/>
+    <col min="20" max="20" width="13.83203125" style="3" customWidth="1"/>
     <col min="21" max="21" width="14.5" style="3" customWidth="1"/>
     <col min="22" max="22" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="20.33203125" bestFit="1" customWidth="1"/>
@@ -55035,7 +55071,7 @@
         <v>2041</v>
       </c>
     </row>
-    <row r="385" spans="1:47" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A385" s="14"/>
       <c r="B385" s="15"/>
       <c r="C385" s="16" t="s">
@@ -55073,7 +55109,7 @@
         <v>2041</v>
       </c>
     </row>
-    <row r="386" spans="1:47" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A386" s="14"/>
       <c r="B386" s="15"/>
       <c r="C386" s="16" t="s">
@@ -55111,7 +55147,7 @@
         <v>2041</v>
       </c>
     </row>
-    <row r="387" spans="1:47" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A387" s="14"/>
       <c r="B387" s="15"/>
       <c r="C387" s="16" t="s">
@@ -55149,18 +55185,141 @@
         <v>2041</v>
       </c>
     </row>
-    <row r="388" spans="1:47" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A388" s="21" t="s">
         <v>1858</v>
       </c>
       <c r="B388" s="22" t="s">
         <v>2080</v>
       </c>
-      <c r="S388" s="24"/>
+      <c r="C388" s="23" t="s">
+        <v>2104</v>
+      </c>
+      <c r="D388" s="23">
+        <v>2017</v>
+      </c>
+      <c r="E388" s="23" t="s">
+        <v>2105</v>
+      </c>
+      <c r="F388" s="23" t="s">
+        <v>904</v>
+      </c>
+      <c r="G388" s="23" t="s">
+        <v>1160</v>
+      </c>
+      <c r="H388" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="I388" s="23" t="s">
+        <v>858</v>
+      </c>
+      <c r="J388" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="K388" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="L388" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="M388" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="N388" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="O388" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="P388" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q388" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="R388" s="23" t="s">
+        <v>2106</v>
+      </c>
+      <c r="S388" s="24" t="s">
+        <v>2102</v>
+      </c>
       <c r="T388" s="24"/>
       <c r="U388" s="24"/>
+      <c r="V388" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="W388" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="X388" s="23" t="s">
+        <v>266</v>
+      </c>
+      <c r="Y388" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z388" s="23" t="s">
+        <v>2107</v>
+      </c>
+      <c r="AA388" s="23" t="s">
+        <v>2108</v>
+      </c>
+      <c r="AB388" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="AE388" s="23" t="s">
+        <v>54</v>
+      </c>
       <c r="AF388" s="24"/>
-      <c r="AG388" s="24"/>
+      <c r="AG388" s="24">
+        <v>0.46</v>
+      </c>
+      <c r="AH388" s="23">
+        <v>0.160714285714285</v>
+      </c>
+      <c r="AI388" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ388" s="23">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="AK388" s="23">
+        <v>0.77</v>
+      </c>
+      <c r="AL388" s="23">
+        <v>0.95</v>
+      </c>
+      <c r="AN388" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO388" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="AP388" s="23" t="s">
+        <v>2109</v>
+      </c>
+      <c r="AQ388" s="23" t="s">
+        <v>307</v>
+      </c>
+      <c r="AR388" s="23" t="s">
+        <v>2110</v>
+      </c>
+      <c r="AS388" s="23">
+        <v>13</v>
+      </c>
+      <c r="AT388" s="23" t="s">
+        <v>2111</v>
+      </c>
+      <c r="AU388" s="23" t="s">
+        <v>2112</v>
+      </c>
+      <c r="AV388" s="23" t="s">
+        <v>2113</v>
+      </c>
+    </row>
+    <row r="389" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V389" t="s">
+        <v>2103</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Data/coded-Dataset.xlsx
+++ b/Data/coded-Dataset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laura/Desktop/GITHUB-METAREVIEW/Meta-review-cognitive-profiles-ADHD-Dyslexia/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18C37E2A-A077-4641-BEBA-4A09056B6DDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C66F5433-7630-9344-B9B1-9155872B5605}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="660" windowWidth="30240" windowHeight="17200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="660" windowWidth="30240" windowHeight="17200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="effect_sizes" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13153" uniqueCount="2114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13152" uniqueCount="2113">
   <si>
     <t>ID_article</t>
   </si>
@@ -6347,9 +6347,6 @@
   </si>
   <si>
     <t>2011_1</t>
-  </si>
-  <si>
-    <t>Dyslexia,No,TASK_OR_MEASURE,EG01,Overall pooled estimate and subgroup/sensitivity estimates are based on the same set of 13 studies (overlap assumed).,Overall accuracy score (visual AGL test phase),Learning and memory,,,Hedges g,,0.46,0.16071428571428573,derived_from_95ci,0.14,0.77,0.95,,missing,Yes,8.5–36.8 years old,mixed,Mean age range: 8.5–36.8 years old,13,13 studies; 255 participants with dyslexia and 292 control participants,Dyslexia vs non-dyslexic controls,Random-effects model (REML) with Knapp-Hartung adjustment; pooled estimate reported in Results and Fig. 3.</t>
   </si>
   <si>
     <t>van Witteloostuijn, M.; Boersma, P.; Wijnen, F.; Rispens, J.</t>
@@ -6837,11 +6834,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AV389"/>
+  <dimension ref="A1:AV388"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A359" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AU371" sqref="AU371"/>
+    <sheetView tabSelected="1" topLeftCell="AQ1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A369" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AS389" sqref="AS389:AV390"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -55193,13 +55190,13 @@
         <v>2080</v>
       </c>
       <c r="C388" s="23" t="s">
-        <v>2104</v>
+        <v>2103</v>
       </c>
       <c r="D388" s="23">
         <v>2017</v>
       </c>
       <c r="E388" s="23" t="s">
-        <v>2105</v>
+        <v>2104</v>
       </c>
       <c r="F388" s="23" t="s">
         <v>904</v>
@@ -55238,7 +55235,7 @@
         <v>46</v>
       </c>
       <c r="R388" s="23" t="s">
-        <v>2106</v>
+        <v>2105</v>
       </c>
       <c r="S388" s="24" t="s">
         <v>2102</v>
@@ -55258,10 +55255,10 @@
         <v>52</v>
       </c>
       <c r="Z388" s="23" t="s">
+        <v>2106</v>
+      </c>
+      <c r="AA388" s="23" t="s">
         <v>2107</v>
-      </c>
-      <c r="AA388" s="23" t="s">
-        <v>2108</v>
       </c>
       <c r="AB388" s="23" t="s">
         <v>98</v>
@@ -55295,30 +55292,25 @@
         <v>46</v>
       </c>
       <c r="AP388" s="23" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
       <c r="AQ388" s="23" t="s">
         <v>307</v>
       </c>
       <c r="AR388" s="23" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
       <c r="AS388" s="23">
         <v>13</v>
       </c>
       <c r="AT388" s="23" t="s">
+        <v>2110</v>
+      </c>
+      <c r="AU388" s="23" t="s">
         <v>2111</v>
       </c>
-      <c r="AU388" s="23" t="s">
+      <c r="AV388" s="23" t="s">
         <v>2112</v>
-      </c>
-      <c r="AV388" s="23" t="s">
-        <v>2113</v>
-      </c>
-    </row>
-    <row r="389" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="V389" t="s">
-        <v>2103</v>
       </c>
     </row>
   </sheetData>

--- a/Data/coded-Dataset.xlsx
+++ b/Data/coded-Dataset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laura/Desktop/GITHUB-METAREVIEW/Meta-review-cognitive-profiles-ADHD-Dyslexia/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C66F5433-7630-9344-B9B1-9155872B5605}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6769D889-008A-F247-94A6-A99D50E6CA00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="660" windowWidth="30240" windowHeight="17200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13152" uniqueCount="2113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12963" uniqueCount="2120">
   <si>
     <t>ID_article</t>
   </si>
@@ -6377,6 +6377,27 @@
   </si>
   <si>
     <t>Random-effects model (REML) with Knapp-Hartung adjustment; pooled estimate reported in Results and Fig. 3. Publication bias assessed via Egger regression and trim-and-fill.</t>
+  </si>
+  <si>
+    <t>VAS capacity (Responses)</t>
+  </si>
+  <si>
+    <t>Key pressing</t>
+  </si>
+  <si>
+    <t>Subgroup by response; age range not reported for this subgroup.</t>
+  </si>
+  <si>
+    <t>Table 2 responses subgroup. Glass’s delta; Tau computed as sqrt(Tau2=0).</t>
+  </si>
+  <si>
+    <t>Visual attention span (VAS) capacity (oral report response)</t>
+  </si>
+  <si>
+    <t>Oral report</t>
+  </si>
+  <si>
+    <t>Table 2 responses subgroup. Glass’s delta; Tau computed as sqrt(Tau2=0.70).</t>
   </si>
 </sst>
 </file>
@@ -6834,11 +6855,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AV388"/>
+  <dimension ref="A1:AV389"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AQ1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A369" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AS389" sqref="AS389:AV390"/>
+    <sheetView tabSelected="1" topLeftCell="S1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A347" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="V383" sqref="V383"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -54022,24 +54043,65 @@
         <v>50</v>
       </c>
       <c r="X357" s="16" t="s">
-        <v>121</v>
+        <v>266</v>
       </c>
       <c r="Y357" s="16" t="s">
         <v>52</v>
       </c>
+      <c r="Z357" s="16" t="s">
+        <v>2113</v>
+      </c>
+      <c r="AA357" s="16" t="s">
+        <v>2114</v>
+      </c>
       <c r="AB357" s="16" t="s">
         <v>278</v>
       </c>
       <c r="AC357" s="16" t="s">
         <v>529</v>
       </c>
+      <c r="AD357" s="16" t="s">
+        <v>542</v>
+      </c>
       <c r="AE357" s="16" t="s">
         <v>112</v>
       </c>
       <c r="AF357" s="19"/>
-      <c r="AG357" s="17"/>
+      <c r="AG357" s="17">
+        <v>-0.18</v>
+      </c>
+      <c r="AH357" s="16">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AI357" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="AJ357" s="16">
+        <v>-0.34</v>
+      </c>
+      <c r="AK357" s="16">
+        <v>-0.02</v>
+      </c>
+      <c r="AL357" s="16">
+        <v>0.95</v>
+      </c>
+      <c r="AM357" s="16">
+        <v>0</v>
+      </c>
+      <c r="AN357" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="AR357" s="16" t="s">
+        <v>2115</v>
+      </c>
+      <c r="AS357" s="16">
+        <v>10</v>
+      </c>
       <c r="AU357" s="16" t="s">
         <v>2041</v>
+      </c>
+      <c r="AV357" s="16" t="s">
+        <v>2116</v>
       </c>
     </row>
     <row r="358" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -54060,24 +54122,68 @@
         <v>50</v>
       </c>
       <c r="X358" s="16" t="s">
-        <v>121</v>
+        <v>266</v>
       </c>
       <c r="Y358" s="16" t="s">
         <v>52</v>
       </c>
+      <c r="Z358" s="16" t="s">
+        <v>2081</v>
+      </c>
+      <c r="AA358" s="16" t="s">
+        <v>2117</v>
+      </c>
       <c r="AB358" s="16" t="s">
         <v>278</v>
       </c>
       <c r="AC358" s="16" t="s">
         <v>529</v>
       </c>
+      <c r="AD358" s="16" t="s">
+        <v>2118</v>
+      </c>
       <c r="AE358" s="16" t="s">
         <v>112</v>
       </c>
       <c r="AF358" s="19"/>
-      <c r="AG358" s="17"/>
+      <c r="AG358" s="17">
+        <v>-1.26</v>
+      </c>
+      <c r="AH358" s="16">
+        <v>0.22</v>
+      </c>
+      <c r="AI358" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="AJ358" s="16">
+        <v>-1.71</v>
+      </c>
+      <c r="AK358" s="16">
+        <v>-0.81</v>
+      </c>
+      <c r="AL358" s="16">
+        <v>0.95</v>
+      </c>
+      <c r="AM358" s="16">
+        <v>0.83666002650000004</v>
+      </c>
+      <c r="AN358" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="AQ358" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="AR358" s="16" t="s">
+        <v>2115</v>
+      </c>
+      <c r="AS358" s="16">
+        <v>24</v>
+      </c>
       <c r="AU358" s="16" t="s">
         <v>2041</v>
+      </c>
+      <c r="AV358" s="16" t="s">
+        <v>2119</v>
       </c>
     </row>
     <row r="359" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -54091,32 +54197,8 @@
       </c>
       <c r="T359" s="19"/>
       <c r="U359" s="19"/>
-      <c r="V359" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="W359" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="X359" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="Y359" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="AB359" s="16" t="s">
-        <v>278</v>
-      </c>
-      <c r="AC359" s="16" t="s">
-        <v>529</v>
-      </c>
-      <c r="AE359" s="16" t="s">
-        <v>112</v>
-      </c>
       <c r="AF359" s="19"/>
       <c r="AG359" s="17"/>
-      <c r="AU359" s="16" t="s">
-        <v>2041</v>
-      </c>
     </row>
     <row r="360" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A360" s="14"/>
@@ -54129,27 +54211,6 @@
       </c>
       <c r="T360" s="19"/>
       <c r="U360" s="19"/>
-      <c r="V360" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="W360" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="X360" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="Y360" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="AB360" s="16" t="s">
-        <v>278</v>
-      </c>
-      <c r="AC360" s="16" t="s">
-        <v>529</v>
-      </c>
-      <c r="AE360" s="16" t="s">
-        <v>112</v>
-      </c>
       <c r="AF360" s="19"/>
       <c r="AG360" s="17"/>
       <c r="AU360" s="16" t="s">
@@ -54167,27 +54228,6 @@
       </c>
       <c r="T361" s="19"/>
       <c r="U361" s="19"/>
-      <c r="V361" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="W361" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="X361" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="Y361" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="AB361" s="16" t="s">
-        <v>278</v>
-      </c>
-      <c r="AC361" s="16" t="s">
-        <v>529</v>
-      </c>
-      <c r="AE361" s="16" t="s">
-        <v>112</v>
-      </c>
       <c r="AF361" s="19"/>
       <c r="AG361" s="17"/>
       <c r="AU361" s="16" t="s">
@@ -54205,27 +54245,6 @@
       </c>
       <c r="T362" s="19"/>
       <c r="U362" s="19"/>
-      <c r="V362" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="W362" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="X362" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="Y362" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="AB362" s="16" t="s">
-        <v>278</v>
-      </c>
-      <c r="AC362" s="16" t="s">
-        <v>529</v>
-      </c>
-      <c r="AE362" s="16" t="s">
-        <v>112</v>
-      </c>
       <c r="AF362" s="19"/>
       <c r="AG362" s="17"/>
       <c r="AU362" s="16" t="s">
@@ -54243,27 +54262,6 @@
       </c>
       <c r="T363" s="19"/>
       <c r="U363" s="19"/>
-      <c r="V363" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="W363" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="X363" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="Y363" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="AB363" s="16" t="s">
-        <v>278</v>
-      </c>
-      <c r="AC363" s="16" t="s">
-        <v>529</v>
-      </c>
-      <c r="AE363" s="16" t="s">
-        <v>112</v>
-      </c>
       <c r="AF363" s="19"/>
       <c r="AG363" s="17"/>
       <c r="AU363" s="16" t="s">
@@ -54281,27 +54279,6 @@
       </c>
       <c r="T364" s="19"/>
       <c r="U364" s="19"/>
-      <c r="V364" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="W364" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="X364" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="Y364" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="AB364" s="16" t="s">
-        <v>278</v>
-      </c>
-      <c r="AC364" s="16" t="s">
-        <v>529</v>
-      </c>
-      <c r="AE364" s="16" t="s">
-        <v>112</v>
-      </c>
       <c r="AF364" s="19"/>
       <c r="AG364" s="17"/>
       <c r="AU364" s="16" t="s">
@@ -54319,27 +54296,6 @@
       </c>
       <c r="T365" s="19"/>
       <c r="U365" s="19"/>
-      <c r="V365" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="W365" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="X365" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="Y365" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="AB365" s="16" t="s">
-        <v>278</v>
-      </c>
-      <c r="AC365" s="16" t="s">
-        <v>529</v>
-      </c>
-      <c r="AE365" s="16" t="s">
-        <v>112</v>
-      </c>
       <c r="AF365" s="19"/>
       <c r="AG365" s="17"/>
       <c r="AU365" s="16" t="s">
@@ -54357,27 +54313,6 @@
       </c>
       <c r="T366" s="19"/>
       <c r="U366" s="19"/>
-      <c r="V366" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="W366" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="X366" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="Y366" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="AB366" s="16" t="s">
-        <v>278</v>
-      </c>
-      <c r="AC366" s="16" t="s">
-        <v>529</v>
-      </c>
-      <c r="AE366" s="16" t="s">
-        <v>112</v>
-      </c>
       <c r="AF366" s="19"/>
       <c r="AG366" s="17"/>
       <c r="AU366" s="16" t="s">
@@ -54395,27 +54330,6 @@
       </c>
       <c r="T367" s="19"/>
       <c r="U367" s="19"/>
-      <c r="V367" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="W367" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="X367" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="Y367" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="AB367" s="16" t="s">
-        <v>278</v>
-      </c>
-      <c r="AC367" s="16" t="s">
-        <v>529</v>
-      </c>
-      <c r="AE367" s="16" t="s">
-        <v>112</v>
-      </c>
       <c r="AF367" s="19"/>
       <c r="AG367" s="17"/>
       <c r="AU367" s="16" t="s">
@@ -54433,27 +54347,6 @@
       </c>
       <c r="T368" s="19"/>
       <c r="U368" s="19"/>
-      <c r="V368" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="W368" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="X368" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="Y368" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="AB368" s="16" t="s">
-        <v>278</v>
-      </c>
-      <c r="AC368" s="16" t="s">
-        <v>529</v>
-      </c>
-      <c r="AE368" s="16" t="s">
-        <v>112</v>
-      </c>
       <c r="AF368" s="19"/>
       <c r="AG368" s="17"/>
       <c r="AU368" s="16" t="s">
@@ -54471,27 +54364,6 @@
       </c>
       <c r="T369" s="19"/>
       <c r="U369" s="19"/>
-      <c r="V369" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="W369" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="X369" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="Y369" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="AB369" s="16" t="s">
-        <v>278</v>
-      </c>
-      <c r="AC369" s="16" t="s">
-        <v>529</v>
-      </c>
-      <c r="AE369" s="16" t="s">
-        <v>112</v>
-      </c>
       <c r="AF369" s="19"/>
       <c r="AG369" s="17"/>
       <c r="AU369" s="16" t="s">
@@ -54509,27 +54381,6 @@
       </c>
       <c r="T370" s="19"/>
       <c r="U370" s="19"/>
-      <c r="V370" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="W370" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="X370" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="Y370" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="AB370" s="16" t="s">
-        <v>278</v>
-      </c>
-      <c r="AC370" s="16" t="s">
-        <v>529</v>
-      </c>
-      <c r="AE370" s="16" t="s">
-        <v>112</v>
-      </c>
       <c r="AF370" s="19"/>
       <c r="AG370" s="17"/>
       <c r="AU370" s="16" t="s">
@@ -54547,27 +54398,6 @@
       </c>
       <c r="T371" s="19"/>
       <c r="U371" s="19"/>
-      <c r="V371" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="W371" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="X371" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="Y371" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="AB371" s="16" t="s">
-        <v>278</v>
-      </c>
-      <c r="AC371" s="16" t="s">
-        <v>529</v>
-      </c>
-      <c r="AE371" s="16" t="s">
-        <v>112</v>
-      </c>
       <c r="AF371" s="19"/>
       <c r="AG371" s="17"/>
       <c r="AU371" s="16" t="s">
@@ -54585,27 +54415,6 @@
       </c>
       <c r="T372" s="19"/>
       <c r="U372" s="19"/>
-      <c r="V372" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="W372" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="X372" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="Y372" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="AB372" s="16" t="s">
-        <v>278</v>
-      </c>
-      <c r="AC372" s="16" t="s">
-        <v>529</v>
-      </c>
-      <c r="AE372" s="16" t="s">
-        <v>112</v>
-      </c>
       <c r="AF372" s="19"/>
       <c r="AG372" s="17"/>
       <c r="AU372" s="16" t="s">
@@ -54623,27 +54432,6 @@
       </c>
       <c r="T373" s="19"/>
       <c r="U373" s="19"/>
-      <c r="V373" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="W373" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="X373" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="Y373" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="AB373" s="16" t="s">
-        <v>278</v>
-      </c>
-      <c r="AC373" s="16" t="s">
-        <v>529</v>
-      </c>
-      <c r="AE373" s="16" t="s">
-        <v>112</v>
-      </c>
       <c r="AF373" s="19"/>
       <c r="AG373" s="17"/>
       <c r="AU373" s="16" t="s">
@@ -54661,27 +54449,6 @@
       </c>
       <c r="T374" s="19"/>
       <c r="U374" s="19"/>
-      <c r="V374" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="W374" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="X374" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="Y374" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="AB374" s="16" t="s">
-        <v>278</v>
-      </c>
-      <c r="AC374" s="16" t="s">
-        <v>529</v>
-      </c>
-      <c r="AE374" s="16" t="s">
-        <v>112</v>
-      </c>
       <c r="AF374" s="19"/>
       <c r="AG374" s="17"/>
       <c r="AU374" s="16" t="s">
@@ -54699,27 +54466,6 @@
       </c>
       <c r="T375" s="19"/>
       <c r="U375" s="19"/>
-      <c r="V375" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="W375" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="X375" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="Y375" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="AB375" s="16" t="s">
-        <v>278</v>
-      </c>
-      <c r="AC375" s="16" t="s">
-        <v>529</v>
-      </c>
-      <c r="AE375" s="16" t="s">
-        <v>112</v>
-      </c>
       <c r="AF375" s="19"/>
       <c r="AG375" s="17"/>
       <c r="AU375" s="16" t="s">
@@ -54737,27 +54483,6 @@
       </c>
       <c r="T376" s="19"/>
       <c r="U376" s="19"/>
-      <c r="V376" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="W376" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="X376" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="Y376" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="AB376" s="16" t="s">
-        <v>278</v>
-      </c>
-      <c r="AC376" s="16" t="s">
-        <v>529</v>
-      </c>
-      <c r="AE376" s="16" t="s">
-        <v>112</v>
-      </c>
       <c r="AF376" s="19"/>
       <c r="AG376" s="17"/>
       <c r="AU376" s="16" t="s">
@@ -54775,27 +54500,6 @@
       </c>
       <c r="T377" s="19"/>
       <c r="U377" s="19"/>
-      <c r="V377" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="W377" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="X377" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="Y377" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="AB377" s="16" t="s">
-        <v>278</v>
-      </c>
-      <c r="AC377" s="16" t="s">
-        <v>529</v>
-      </c>
-      <c r="AE377" s="16" t="s">
-        <v>112</v>
-      </c>
       <c r="AF377" s="19"/>
       <c r="AG377" s="17"/>
       <c r="AU377" s="16" t="s">
@@ -54813,27 +54517,6 @@
       </c>
       <c r="T378" s="19"/>
       <c r="U378" s="19"/>
-      <c r="V378" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="W378" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="X378" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="Y378" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="AB378" s="16" t="s">
-        <v>278</v>
-      </c>
-      <c r="AC378" s="16" t="s">
-        <v>529</v>
-      </c>
-      <c r="AE378" s="16" t="s">
-        <v>112</v>
-      </c>
       <c r="AF378" s="19"/>
       <c r="AG378" s="17"/>
       <c r="AU378" s="16" t="s">
@@ -54851,27 +54534,6 @@
       </c>
       <c r="T379" s="19"/>
       <c r="U379" s="19"/>
-      <c r="V379" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="W379" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="X379" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="Y379" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="AB379" s="16" t="s">
-        <v>278</v>
-      </c>
-      <c r="AC379" s="16" t="s">
-        <v>529</v>
-      </c>
-      <c r="AE379" s="16" t="s">
-        <v>112</v>
-      </c>
       <c r="AF379" s="19"/>
       <c r="AG379" s="17"/>
       <c r="AU379" s="16" t="s">
@@ -54889,27 +54551,6 @@
       </c>
       <c r="T380" s="19"/>
       <c r="U380" s="19"/>
-      <c r="V380" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="W380" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="X380" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="Y380" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="AB380" s="16" t="s">
-        <v>278</v>
-      </c>
-      <c r="AC380" s="16" t="s">
-        <v>529</v>
-      </c>
-      <c r="AE380" s="16" t="s">
-        <v>112</v>
-      </c>
       <c r="AF380" s="19"/>
       <c r="AG380" s="17"/>
       <c r="AU380" s="16" t="s">
@@ -54927,27 +54568,6 @@
       </c>
       <c r="T381" s="19"/>
       <c r="U381" s="19"/>
-      <c r="V381" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="W381" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="X381" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="Y381" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="AB381" s="16" t="s">
-        <v>278</v>
-      </c>
-      <c r="AC381" s="16" t="s">
-        <v>529</v>
-      </c>
-      <c r="AE381" s="16" t="s">
-        <v>112</v>
-      </c>
       <c r="AF381" s="19"/>
       <c r="AG381" s="17"/>
       <c r="AU381" s="16" t="s">
@@ -54965,27 +54585,6 @@
       </c>
       <c r="T382" s="19"/>
       <c r="U382" s="19"/>
-      <c r="V382" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="W382" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="X382" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="Y382" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="AB382" s="16" t="s">
-        <v>278</v>
-      </c>
-      <c r="AC382" s="16" t="s">
-        <v>529</v>
-      </c>
-      <c r="AE382" s="16" t="s">
-        <v>112</v>
-      </c>
       <c r="AF382" s="19"/>
       <c r="AG382" s="17"/>
       <c r="AU382" s="16" t="s">
@@ -55003,27 +54602,6 @@
       </c>
       <c r="T383" s="19"/>
       <c r="U383" s="19"/>
-      <c r="V383" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="W383" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="X383" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="Y383" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="AB383" s="16" t="s">
-        <v>278</v>
-      </c>
-      <c r="AC383" s="16" t="s">
-        <v>529</v>
-      </c>
-      <c r="AE383" s="16" t="s">
-        <v>112</v>
-      </c>
       <c r="AF383" s="19"/>
       <c r="AG383" s="17"/>
       <c r="AU383" s="16" t="s">
@@ -55041,27 +54619,6 @@
       </c>
       <c r="T384" s="19"/>
       <c r="U384" s="19"/>
-      <c r="V384" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="W384" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="X384" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="Y384" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="AB384" s="16" t="s">
-        <v>278</v>
-      </c>
-      <c r="AC384" s="16" t="s">
-        <v>529</v>
-      </c>
-      <c r="AE384" s="16" t="s">
-        <v>112</v>
-      </c>
       <c r="AF384" s="19"/>
       <c r="AG384" s="17"/>
       <c r="AU384" s="16" t="s">
@@ -55079,27 +54636,6 @@
       </c>
       <c r="T385" s="19"/>
       <c r="U385" s="19"/>
-      <c r="V385" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="W385" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="X385" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="Y385" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="AB385" s="16" t="s">
-        <v>278</v>
-      </c>
-      <c r="AC385" s="16" t="s">
-        <v>529</v>
-      </c>
-      <c r="AE385" s="16" t="s">
-        <v>112</v>
-      </c>
       <c r="AF385" s="19"/>
       <c r="AG385" s="17"/>
       <c r="AU385" s="16" t="s">
@@ -55117,27 +54653,6 @@
       </c>
       <c r="T386" s="19"/>
       <c r="U386" s="19"/>
-      <c r="V386" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="W386" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="X386" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="Y386" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="AB386" s="16" t="s">
-        <v>278</v>
-      </c>
-      <c r="AC386" s="16" t="s">
-        <v>529</v>
-      </c>
-      <c r="AE386" s="16" t="s">
-        <v>112</v>
-      </c>
       <c r="AF386" s="19"/>
       <c r="AG386" s="17"/>
       <c r="AU386" s="16" t="s">
@@ -55155,161 +54670,149 @@
       </c>
       <c r="T387" s="19"/>
       <c r="U387" s="19"/>
-      <c r="V387" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="W387" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="X387" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="Y387" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="AB387" s="16" t="s">
-        <v>278</v>
-      </c>
-      <c r="AC387" s="16" t="s">
-        <v>529</v>
-      </c>
-      <c r="AE387" s="16" t="s">
-        <v>112</v>
-      </c>
       <c r="AF387" s="19"/>
       <c r="AG387" s="17"/>
       <c r="AU387" s="16" t="s">
         <v>2041</v>
       </c>
     </row>
-    <row r="388" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A388" s="21" t="s">
+    <row r="388" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A388" s="14"/>
+      <c r="B388" s="15"/>
+      <c r="S388" s="17"/>
+      <c r="T388" s="19"/>
+      <c r="U388" s="19"/>
+      <c r="AF388" s="19"/>
+      <c r="AG388" s="17"/>
+    </row>
+    <row r="389" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A389" s="21" t="s">
         <v>1858</v>
       </c>
-      <c r="B388" s="22" t="s">
+      <c r="B389" s="22" t="s">
         <v>2080</v>
       </c>
-      <c r="C388" s="23" t="s">
+      <c r="C389" s="23" t="s">
         <v>2103</v>
       </c>
-      <c r="D388" s="23">
+      <c r="D389" s="23">
         <v>2017</v>
       </c>
-      <c r="E388" s="23" t="s">
+      <c r="E389" s="23" t="s">
         <v>2104</v>
       </c>
-      <c r="F388" s="23" t="s">
+      <c r="F389" s="23" t="s">
         <v>904</v>
       </c>
-      <c r="G388" s="23" t="s">
+      <c r="G389" s="23" t="s">
         <v>1160</v>
       </c>
-      <c r="H388" s="23" t="s">
+      <c r="H389" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="I388" s="23" t="s">
+      <c r="I389" s="23" t="s">
         <v>858</v>
       </c>
-      <c r="J388" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="K388" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="L388" s="23" t="s">
+      <c r="J389" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="K389" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="L389" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="M388" s="23" t="s">
+      <c r="M389" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="N388" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="O388" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="P388" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q388" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="R388" s="23" t="s">
+      <c r="N389" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="O389" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="P389" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q389" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="R389" s="23" t="s">
         <v>2105</v>
       </c>
-      <c r="S388" s="24" t="s">
+      <c r="S389" s="24" t="s">
         <v>2102</v>
       </c>
-      <c r="T388" s="24"/>
-      <c r="U388" s="24"/>
-      <c r="V388" s="23" t="s">
+      <c r="T389" s="24"/>
+      <c r="U389" s="24"/>
+      <c r="V389" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="W388" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="X388" s="23" t="s">
+      <c r="W389" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="X389" s="23" t="s">
         <v>266</v>
       </c>
-      <c r="Y388" s="23" t="s">
+      <c r="Y389" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="Z388" s="23" t="s">
+      <c r="Z389" s="23" t="s">
         <v>2106</v>
       </c>
-      <c r="AA388" s="23" t="s">
+      <c r="AA389" s="23" t="s">
         <v>2107</v>
       </c>
-      <c r="AB388" s="23" t="s">
+      <c r="AB389" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="AE388" s="23" t="s">
+      <c r="AE389" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="AF388" s="24"/>
-      <c r="AG388" s="24">
+      <c r="AF389" s="24"/>
+      <c r="AG389" s="24">
         <v>0.46</v>
       </c>
-      <c r="AH388" s="23">
+      <c r="AH389" s="23">
         <v>0.160714285714285</v>
       </c>
-      <c r="AI388" s="23" t="s">
+      <c r="AI389" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="AJ388" s="23">
+      <c r="AJ389" s="23">
         <v>0.14000000000000001</v>
       </c>
-      <c r="AK388" s="23">
+      <c r="AK389" s="23">
         <v>0.77</v>
       </c>
-      <c r="AL388" s="23">
+      <c r="AL389" s="23">
         <v>0.95</v>
       </c>
-      <c r="AN388" s="23" t="s">
+      <c r="AN389" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="AO388" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="AP388" s="23" t="s">
+      <c r="AO389" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="AP389" s="23" t="s">
         <v>2108</v>
       </c>
-      <c r="AQ388" s="23" t="s">
+      <c r="AQ389" s="23" t="s">
         <v>307</v>
       </c>
-      <c r="AR388" s="23" t="s">
+      <c r="AR389" s="23" t="s">
         <v>2109</v>
       </c>
-      <c r="AS388" s="23">
+      <c r="AS389" s="23">
         <v>13</v>
       </c>
-      <c r="AT388" s="23" t="s">
+      <c r="AT389" s="23" t="s">
         <v>2110</v>
       </c>
-      <c r="AU388" s="23" t="s">
+      <c r="AU389" s="23" t="s">
         <v>2111</v>
       </c>
-      <c r="AV388" s="23" t="s">
+      <c r="AV389" s="23" t="s">
         <v>2112</v>
       </c>
     </row>

--- a/Data/coded-Dataset.xlsx
+++ b/Data/coded-Dataset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laura/Desktop/GITHUB-METAREVIEW/Meta-review-cognitive-profiles-ADHD-Dyslexia/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6769D889-008A-F247-94A6-A99D50E6CA00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC8EE882-8FA3-E746-87EF-DF3546B85425}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="660" windowWidth="30240" windowHeight="17200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12963" uniqueCount="2120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13390" uniqueCount="2226">
   <si>
     <t>ID_article</t>
   </si>
@@ -6398,6 +6398,324 @@
   </si>
   <si>
     <t>Table 2 responses subgroup. Glass’s delta; Tau computed as sqrt(Tau2=0.70).</t>
+  </si>
+  <si>
+    <t>Visual attention span (VAS) capacity (logographic writing system)</t>
+  </si>
+  <si>
+    <t>Logographic writing system</t>
+  </si>
+  <si>
+    <t>Subgroup by writing system; age range not reported for this subgroup.</t>
+  </si>
+  <si>
+    <t>Table 2 writing systems subgroup. Glass’s delta; Tau computed as sqrt(Tau2=0.32).</t>
+  </si>
+  <si>
+    <t>Visual attention span (VAS) capacity (alphabetic writing system)</t>
+  </si>
+  <si>
+    <t>Alphabetic writing system</t>
+  </si>
+  <si>
+    <t>Table 2 writing systems subgroup. Glass’s delta; Tau computed as sqrt(Tau2=0.46).</t>
+  </si>
+  <si>
+    <t>Visual attention span (VAS) capacity (more opaque orthographies)</t>
+  </si>
+  <si>
+    <t>Orthographic depth (opaque)</t>
+  </si>
+  <si>
+    <t>Subgroup by orthographic depth; age range not reported for this subgroup.</t>
+  </si>
+  <si>
+    <t>Table 2 orthographic depth subgroup. Glass’s delta; Tau computed as sqrt(Tau2=0.41).</t>
+  </si>
+  <si>
+    <t>Visual attention span (VAS) capacity (more transparent orthographies)</t>
+  </si>
+  <si>
+    <t>Orthographic depth (transparent)</t>
+  </si>
+  <si>
+    <t>Table 2 orthographic depth subgroup. Glass’s delta; Tau computed as sqrt(Tau2=0.26).</t>
+  </si>
+  <si>
+    <t>Visual attention span (VAS) capacity (clinical recruitment)</t>
+  </si>
+  <si>
+    <t>Clinical recruitment</t>
+  </si>
+  <si>
+    <t>Subgroup by recruitment; age range not reported for this subgroup.</t>
+  </si>
+  <si>
+    <t>Table 2 recruitment subgroup. Glass’s delta; Tau computed as sqrt(Tau2=0.44).</t>
+  </si>
+  <si>
+    <t>Visual attention span (VAS) capacity (nonclinical recruitment)</t>
+  </si>
+  <si>
+    <t>Nonclinical recruitment</t>
+  </si>
+  <si>
+    <t>Table 2 recruitment subgroup. Glass’s delta; Tau computed as sqrt(Tau2=0.25).</t>
+  </si>
+  <si>
+    <t>Visual attention span (VAS) capacity (primary-school stage; age ≤ 12)</t>
+  </si>
+  <si>
+    <t>Primary-school stage</t>
+  </si>
+  <si>
+    <t>Primary-school subgroup (participants’ ages ≤ 12 years old).</t>
+  </si>
+  <si>
+    <t>Table 2 age groups subgroup. Glass’s delta; Tau computed as sqrt(Tau2=0.49).</t>
+  </si>
+  <si>
+    <t>Visual attention span (VAS) capacity (high-grade stage; age &gt; 12)</t>
+  </si>
+  <si>
+    <t>High-grade stage</t>
+  </si>
+  <si>
+    <t>Higher-grade subgroup (participants’ ages &gt; 12 years old).</t>
+  </si>
+  <si>
+    <t>Table 2 age groups subgroup. Glass’s delta; Tau computed as sqrt(Tau2=0.26).</t>
+  </si>
+  <si>
+    <t>Visual attention span (VAS) capacity (dyslexia with phonological deficit)</t>
+  </si>
+  <si>
+    <t>With phonological deficit</t>
+  </si>
+  <si>
+    <t>Subtype subgroup; age range not reported for this subgroup.</t>
+  </si>
+  <si>
+    <t>Table 2 subtypes subgroup. Glass’s delta; Tau computed as sqrt(Tau2=0.42).</t>
+  </si>
+  <si>
+    <t>Visual attention span (VAS) capacity (dyslexia without phonological deficit)</t>
+  </si>
+  <si>
+    <t>Without phonological deficit</t>
+  </si>
+  <si>
+    <t>Table 2 subtypes subgroup. Glass’s delta; Tau computed as sqrt(Tau2=0.58).</t>
+  </si>
+  <si>
+    <t>Visual attention span (VAS) capacity (nameable linguistic materials; dyslexia with phonological deficit)</t>
+  </si>
+  <si>
+    <t>Combined subgroup; age range not reported for this subgroup.</t>
+  </si>
+  <si>
+    <t>Table 2 combined subgroup. Glass’s delta; Tau computed as sqrt(Tau2=0.23).</t>
+  </si>
+  <si>
+    <t>Visual attention span (VAS) capacity (nameable linguistic materials; dyslexia without phonological deficit)</t>
+  </si>
+  <si>
+    <t>Table 2 combined subgroup. Glass’s delta; Tau computed as sqrt(Tau2=0.50).</t>
+  </si>
+  <si>
+    <t>Visual attention span (VAS) capacity (opaque orthography &amp; primary-school stage)</t>
+  </si>
+  <si>
+    <t>Opaque &amp; primary school</t>
+  </si>
+  <si>
+    <t>Primary school students (≤12) in more opaque languages.</t>
+  </si>
+  <si>
+    <t>Table 2 combination moderators. Glass’s delta; Tau computed as sqrt(Tau2=0.34).</t>
+  </si>
+  <si>
+    <t>Visual attention span (VAS) capacity (opaque orthography &amp; high-grade stage)</t>
+  </si>
+  <si>
+    <t>Opaque &amp; high grades</t>
+  </si>
+  <si>
+    <t>High grades (&gt;12) in more opaque languages.</t>
+  </si>
+  <si>
+    <t>Table 2 combination moderators. Glass’s delta; Tau computed as sqrt(Tau2=0.88).</t>
+  </si>
+  <si>
+    <t>Visual attention span (VAS) capacity (transparent orthography &amp; primary-school stage)</t>
+  </si>
+  <si>
+    <t>Transparent &amp; primary school</t>
+  </si>
+  <si>
+    <t>Primary school students (≤12) in more transparent languages.</t>
+  </si>
+  <si>
+    <t>Table 2 combination moderators. Glass’s delta; Tau computed as sqrt(Tau2=0.35).</t>
+  </si>
+  <si>
+    <t>Visual attention span (VAS) capacity (transparent orthography &amp; high-grade stage)</t>
+  </si>
+  <si>
+    <t>Transparent &amp; high grades</t>
+  </si>
+  <si>
+    <t>High grades (&gt;12) in more transparent languages.</t>
+  </si>
+  <si>
+    <t>Table 2 combination moderators. Glass’s delta; Tau computed as sqrt(Tau2=0.10).</t>
+  </si>
+  <si>
+    <t>Visual attention span (VAS) capacity (nameable linguistic materials in primary schools)</t>
+  </si>
+  <si>
+    <t>Primary school; subgroup by materials.</t>
+  </si>
+  <si>
+    <t>Table 2 materials × age subgroup. Glass’s delta; Tau computed as sqrt(Tau2=0.37).</t>
+  </si>
+  <si>
+    <t>Visual attention span (VAS) capacity (unnameable nonlinguistic materials in primary schools)</t>
+  </si>
+  <si>
+    <t>Table 2 materials × age subgroup. Glass’s delta; Tau computed as sqrt(Tau2=0.10).</t>
+  </si>
+  <si>
+    <t>Visual attention span (VAS) capacity (nameable linguistic materials in high grades)</t>
+  </si>
+  <si>
+    <t>High grades; subgroup by materials.</t>
+  </si>
+  <si>
+    <t>Table 2 materials × age subgroup. Glass’s delta; Tau computed as sqrt(Tau2=0.26).</t>
+  </si>
+  <si>
+    <t>Visual attention span (VAS) capacity (unnameable nonlinguistic materials in high grades)</t>
+  </si>
+  <si>
+    <t>Table 2 materials × age subgroup. Glass’s delta; Tau computed as sqrt(Tau2=0).</t>
+  </si>
+  <si>
+    <t>VAS–reading association meta-analyses (Table 3) appear based on a smaller subset of studies (k=2–9), likely overlapping within this association set.</t>
+  </si>
+  <si>
+    <t>Correlation between VAS scores and reading skills (total)</t>
+  </si>
+  <si>
+    <t>VAS–reading correlation</t>
+  </si>
+  <si>
+    <t>Age range not reported for the correlation subset.</t>
+  </si>
+  <si>
+    <t>Association between VAS ability and reading skills</t>
+  </si>
+  <si>
+    <t>Table 3 labels effect size as Hedges’ g for VAS–reading association. Tau computed as sqrt(Tau2=0.01).</t>
+  </si>
+  <si>
+    <t>See EG02 description.</t>
+  </si>
+  <si>
+    <t>VAS–reading correlation (regular word reading)</t>
+  </si>
+  <si>
+    <t>Regular word reading</t>
+  </si>
+  <si>
+    <t>Association between VAS ability and regular word reading</t>
+  </si>
+  <si>
+    <t>Domain mapping: regular word reading coded as Reading/decoding.</t>
+  </si>
+  <si>
+    <t>VAS–reading correlation (exception word reading)</t>
+  </si>
+  <si>
+    <t>Exception word reading</t>
+  </si>
+  <si>
+    <t>Association between VAS ability and exception word reading</t>
+  </si>
+  <si>
+    <t>Domain mapping: exception word reading coded as Reading/decoding.</t>
+  </si>
+  <si>
+    <t>VAS–reading correlation (pseudoword reading)</t>
+  </si>
+  <si>
+    <t>Pseudoword reading</t>
+  </si>
+  <si>
+    <t>Association between VAS ability and pseudoword reading</t>
+  </si>
+  <si>
+    <t>Domain mapping: pseudoword reading coded as Reading/decoding.</t>
+  </si>
+  <si>
+    <t>VAS–reading correlation (text reading)</t>
+  </si>
+  <si>
+    <t>Text reading</t>
+  </si>
+  <si>
+    <t>Association between VAS ability and text reading</t>
+  </si>
+  <si>
+    <t>Text reading could reflect fluency and/or comprehension; Domain_L2 left null because measurement not specified.</t>
+  </si>
+  <si>
+    <t>VAS–reading correlation (reading speed)</t>
+  </si>
+  <si>
+    <t>Reading speed</t>
+  </si>
+  <si>
+    <t>Association between VAS ability and reading speed</t>
+  </si>
+  <si>
+    <t>Reading speed coded as Reading fluency.</t>
+  </si>
+  <si>
+    <t>VAS–reading correlation (reading accuracy)</t>
+  </si>
+  <si>
+    <t>Reading accuracy</t>
+  </si>
+  <si>
+    <t>Association between VAS ability and reading accuracy</t>
+  </si>
+  <si>
+    <t>Reading accuracy mapped deterministically to Reading/decoding per protocol rule C.</t>
+  </si>
+  <si>
+    <t>Visual attention span (VAS) capacity (trim-and-fill adjusted overall effect)</t>
+  </si>
+  <si>
+    <t>Trim and fill</t>
+  </si>
+  <si>
+    <t>Reported in text: “average weighted effect size = -0.56, 95% CI [-0.94 — -0.18]”; SE derived from 95% CI.</t>
+  </si>
+  <si>
+    <t>lnSDR (ratio of SDs) for VAS task performance</t>
+  </si>
+  <si>
+    <t>lnSDR</t>
+  </si>
+  <si>
+    <t>SD differences between dyslexic and control groups (VAS)</t>
+  </si>
+  <si>
+    <t>Text reports lnSDR pooled effect and SE but not CI. Effect size type (lnSDR) not in Type_effect_size controlled list.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dyslexia vs typically developing readers. </t>
   </si>
 </sst>
 </file>
@@ -6855,11 +7173,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AV389"/>
+  <dimension ref="A1:AW388"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A347" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V383" sqref="V383"/>
+    <sheetView tabSelected="1" topLeftCell="AP1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A359" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AU391" sqref="AU391"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -54197,8 +54515,76 @@
       </c>
       <c r="T359" s="19"/>
       <c r="U359" s="19"/>
+      <c r="V359" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="W359" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="X359" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y359" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z359" s="16" t="s">
+        <v>2081</v>
+      </c>
+      <c r="AA359" s="16" t="s">
+        <v>2120</v>
+      </c>
+      <c r="AB359" s="16" t="s">
+        <v>278</v>
+      </c>
+      <c r="AC359" s="16" t="s">
+        <v>529</v>
+      </c>
+      <c r="AD359" s="16" t="s">
+        <v>2121</v>
+      </c>
+      <c r="AE359" s="16" t="s">
+        <v>112</v>
+      </c>
       <c r="AF359" s="19"/>
-      <c r="AG359" s="17"/>
+      <c r="AG359" s="17">
+        <v>-0.43</v>
+      </c>
+      <c r="AH359" s="16">
+        <v>0.24</v>
+      </c>
+      <c r="AI359" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="AJ359" s="16">
+        <v>-1.0900000000000001</v>
+      </c>
+      <c r="AK359" s="16">
+        <v>0.24</v>
+      </c>
+      <c r="AL359" s="16">
+        <v>0.95</v>
+      </c>
+      <c r="AM359" s="16">
+        <v>0.56568542489999996</v>
+      </c>
+      <c r="AN359" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="AQ359" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="AR359" s="16" t="s">
+        <v>2122</v>
+      </c>
+      <c r="AS359" s="16">
+        <v>5</v>
+      </c>
+      <c r="AU359" s="16" t="s">
+        <v>2041</v>
+      </c>
+      <c r="AV359" s="16" t="s">
+        <v>2123</v>
+      </c>
     </row>
     <row r="360" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A360" s="14"/>
@@ -54211,10 +54597,75 @@
       </c>
       <c r="T360" s="19"/>
       <c r="U360" s="19"/>
+      <c r="V360" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="W360" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="X360" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y360" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z360" s="16" t="s">
+        <v>2081</v>
+      </c>
+      <c r="AA360" s="16" t="s">
+        <v>2124</v>
+      </c>
+      <c r="AB360" s="16" t="s">
+        <v>278</v>
+      </c>
+      <c r="AC360" s="16" t="s">
+        <v>529</v>
+      </c>
+      <c r="AD360" s="16" t="s">
+        <v>2125</v>
+      </c>
+      <c r="AE360" s="16" t="s">
+        <v>112</v>
+      </c>
       <c r="AF360" s="19"/>
-      <c r="AG360" s="17"/>
+      <c r="AG360" s="17">
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="AH360" s="16">
+        <v>0.15</v>
+      </c>
+      <c r="AI360" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="AJ360" s="16">
+        <v>-1.42</v>
+      </c>
+      <c r="AK360" s="16">
+        <v>-0.78</v>
+      </c>
+      <c r="AL360" s="16">
+        <v>0.95</v>
+      </c>
+      <c r="AM360" s="16">
+        <v>0.67823299829999995</v>
+      </c>
+      <c r="AN360" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="AQ360" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="AR360" s="16" t="s">
+        <v>2122</v>
+      </c>
+      <c r="AS360" s="16">
+        <v>24</v>
+      </c>
       <c r="AU360" s="16" t="s">
         <v>2041</v>
+      </c>
+      <c r="AV360" s="16" t="s">
+        <v>2126</v>
       </c>
     </row>
     <row r="361" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -54228,10 +54679,75 @@
       </c>
       <c r="T361" s="19"/>
       <c r="U361" s="19"/>
+      <c r="V361" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="W361" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="X361" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y361" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z361" s="16" t="s">
+        <v>2081</v>
+      </c>
+      <c r="AA361" s="16" t="s">
+        <v>2127</v>
+      </c>
+      <c r="AB361" s="16" t="s">
+        <v>278</v>
+      </c>
+      <c r="AC361" s="16" t="s">
+        <v>529</v>
+      </c>
+      <c r="AD361" s="16" t="s">
+        <v>2128</v>
+      </c>
+      <c r="AE361" s="16" t="s">
+        <v>112</v>
+      </c>
       <c r="AF361" s="19"/>
-      <c r="AG361" s="17"/>
+      <c r="AG361" s="17">
+        <v>-1.36</v>
+      </c>
+      <c r="AH361" s="16">
+        <v>0.18</v>
+      </c>
+      <c r="AI361" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="AJ361" s="16">
+        <v>-1.73</v>
+      </c>
+      <c r="AK361" s="16">
+        <v>-0.99</v>
+      </c>
+      <c r="AL361" s="16">
+        <v>0.95</v>
+      </c>
+      <c r="AM361" s="16">
+        <v>0.64031242369999997</v>
+      </c>
+      <c r="AN361" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="AQ361" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="AR361" s="16" t="s">
+        <v>2129</v>
+      </c>
+      <c r="AS361" s="16">
+        <v>17</v>
+      </c>
       <c r="AU361" s="16" t="s">
         <v>2041</v>
+      </c>
+      <c r="AV361" s="16" t="s">
+        <v>2130</v>
       </c>
     </row>
     <row r="362" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -54245,10 +54761,75 @@
       </c>
       <c r="T362" s="19"/>
       <c r="U362" s="19"/>
+      <c r="V362" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="W362" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="X362" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y362" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z362" s="16" t="s">
+        <v>2081</v>
+      </c>
+      <c r="AA362" s="16" t="s">
+        <v>2131</v>
+      </c>
+      <c r="AB362" s="16" t="s">
+        <v>278</v>
+      </c>
+      <c r="AC362" s="16" t="s">
+        <v>529</v>
+      </c>
+      <c r="AD362" s="16" t="s">
+        <v>2132</v>
+      </c>
+      <c r="AE362" s="16" t="s">
+        <v>112</v>
+      </c>
       <c r="AF362" s="19"/>
-      <c r="AG362" s="17"/>
+      <c r="AG362" s="17">
+        <v>-0.52</v>
+      </c>
+      <c r="AH362" s="16">
+        <v>0.19</v>
+      </c>
+      <c r="AI362" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="AJ362" s="16">
+        <v>-0.98</v>
+      </c>
+      <c r="AK362" s="16">
+        <v>-0.06</v>
+      </c>
+      <c r="AL362" s="16">
+        <v>0.95</v>
+      </c>
+      <c r="AM362" s="16">
+        <v>0.50990195140000005</v>
+      </c>
+      <c r="AN362" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="AQ362" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="AR362" s="16" t="s">
+        <v>2129</v>
+      </c>
+      <c r="AS362" s="16">
+        <v>7</v>
+      </c>
       <c r="AU362" s="16" t="s">
         <v>2041</v>
+      </c>
+      <c r="AV362" s="16" t="s">
+        <v>2133</v>
       </c>
     </row>
     <row r="363" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -54262,10 +54843,75 @@
       </c>
       <c r="T363" s="19"/>
       <c r="U363" s="19"/>
+      <c r="V363" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="W363" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="X363" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y363" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z363" s="16" t="s">
+        <v>2081</v>
+      </c>
+      <c r="AA363" s="16" t="s">
+        <v>2134</v>
+      </c>
+      <c r="AB363" s="16" t="s">
+        <v>278</v>
+      </c>
+      <c r="AC363" s="16" t="s">
+        <v>529</v>
+      </c>
+      <c r="AD363" s="16" t="s">
+        <v>2135</v>
+      </c>
+      <c r="AE363" s="16" t="s">
+        <v>112</v>
+      </c>
       <c r="AF363" s="19"/>
-      <c r="AG363" s="17"/>
+      <c r="AG363" s="17">
+        <v>-1.37</v>
+      </c>
+      <c r="AH363" s="16">
+        <v>0.18</v>
+      </c>
+      <c r="AI363" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="AJ363" s="16">
+        <v>-1.75</v>
+      </c>
+      <c r="AK363" s="16">
+        <v>-0.99</v>
+      </c>
+      <c r="AL363" s="16">
+        <v>0.95</v>
+      </c>
+      <c r="AM363" s="16">
+        <v>0.66332495810000003</v>
+      </c>
+      <c r="AN363" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="AQ363" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="AR363" s="16" t="s">
+        <v>2136</v>
+      </c>
+      <c r="AS363" s="16">
+        <v>18</v>
+      </c>
       <c r="AU363" s="16" t="s">
         <v>2041</v>
+      </c>
+      <c r="AV363" s="16" t="s">
+        <v>2137</v>
       </c>
     </row>
     <row r="364" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -54279,10 +54925,75 @@
       </c>
       <c r="T364" s="19"/>
       <c r="U364" s="19"/>
+      <c r="V364" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="W364" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="X364" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y364" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z364" s="16" t="s">
+        <v>2081</v>
+      </c>
+      <c r="AA364" s="16" t="s">
+        <v>2138</v>
+      </c>
+      <c r="AB364" s="16" t="s">
+        <v>278</v>
+      </c>
+      <c r="AC364" s="16" t="s">
+        <v>529</v>
+      </c>
+      <c r="AD364" s="16" t="s">
+        <v>2139</v>
+      </c>
+      <c r="AE364" s="16" t="s">
+        <v>112</v>
+      </c>
       <c r="AF364" s="19"/>
-      <c r="AG364" s="17"/>
+      <c r="AG364" s="17">
+        <v>-0.54</v>
+      </c>
+      <c r="AH364" s="16">
+        <v>0.15</v>
+      </c>
+      <c r="AI364" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="AJ364" s="16">
+        <v>-0.86</v>
+      </c>
+      <c r="AK364" s="16">
+        <v>-0.22</v>
+      </c>
+      <c r="AL364" s="16">
+        <v>0.95</v>
+      </c>
+      <c r="AM364" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="AN364" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="AQ364" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="AR364" s="16" t="s">
+        <v>2136</v>
+      </c>
+      <c r="AS364" s="16">
+        <v>13</v>
+      </c>
       <c r="AU364" s="16" t="s">
         <v>2041</v>
+      </c>
+      <c r="AV364" s="16" t="s">
+        <v>2140</v>
       </c>
     </row>
     <row r="365" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -54296,10 +55007,75 @@
       </c>
       <c r="T365" s="19"/>
       <c r="U365" s="19"/>
+      <c r="V365" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="W365" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="X365" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y365" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z365" s="16" t="s">
+        <v>2081</v>
+      </c>
+      <c r="AA365" s="16" t="s">
+        <v>2141</v>
+      </c>
+      <c r="AB365" s="16" t="s">
+        <v>278</v>
+      </c>
+      <c r="AC365" s="16" t="s">
+        <v>529</v>
+      </c>
+      <c r="AD365" s="16" t="s">
+        <v>2142</v>
+      </c>
+      <c r="AE365" s="16" t="s">
+        <v>112</v>
+      </c>
       <c r="AF365" s="19"/>
-      <c r="AG365" s="17"/>
+      <c r="AG365" s="17">
+        <v>-1.1200000000000001</v>
+      </c>
+      <c r="AH365" s="16">
+        <v>0.16</v>
+      </c>
+      <c r="AI365" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="AJ365" s="16">
+        <v>-1.45</v>
+      </c>
+      <c r="AK365" s="16">
+        <v>-0.79</v>
+      </c>
+      <c r="AL365" s="16">
+        <v>0.95</v>
+      </c>
+      <c r="AM365" s="16">
+        <v>0.7</v>
+      </c>
+      <c r="AN365" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="AQ365" s="16" t="s">
+        <v>1839</v>
+      </c>
+      <c r="AR365" s="16" t="s">
+        <v>2143</v>
+      </c>
+      <c r="AS365" s="16">
+        <v>24</v>
+      </c>
       <c r="AU365" s="16" t="s">
         <v>2041</v>
+      </c>
+      <c r="AV365" s="16" t="s">
+        <v>2144</v>
       </c>
     </row>
     <row r="366" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -54313,10 +55089,75 @@
       </c>
       <c r="T366" s="19"/>
       <c r="U366" s="19"/>
+      <c r="V366" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="W366" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="X366" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y366" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z366" s="16" t="s">
+        <v>2081</v>
+      </c>
+      <c r="AA366" s="16" t="s">
+        <v>2145</v>
+      </c>
+      <c r="AB366" s="16" t="s">
+        <v>278</v>
+      </c>
+      <c r="AC366" s="16" t="s">
+        <v>529</v>
+      </c>
+      <c r="AD366" s="16" t="s">
+        <v>2146</v>
+      </c>
+      <c r="AE366" s="16" t="s">
+        <v>112</v>
+      </c>
       <c r="AF366" s="19"/>
-      <c r="AG366" s="17"/>
+      <c r="AG366" s="17">
+        <v>-0.62</v>
+      </c>
+      <c r="AH366" s="16">
+        <v>0.22</v>
+      </c>
+      <c r="AI366" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="AJ366" s="16">
+        <v>-1.1599999999999999</v>
+      </c>
+      <c r="AK366" s="16">
+        <v>-0.08</v>
+      </c>
+      <c r="AL366" s="16">
+        <v>0.95</v>
+      </c>
+      <c r="AM366" s="16">
+        <v>0.50990195140000005</v>
+      </c>
+      <c r="AN366" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="AQ366" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="AR366" s="16" t="s">
+        <v>2147</v>
+      </c>
+      <c r="AS366" s="16">
+        <v>7</v>
+      </c>
       <c r="AU366" s="16" t="s">
         <v>2041</v>
+      </c>
+      <c r="AV366" s="16" t="s">
+        <v>2148</v>
       </c>
     </row>
     <row r="367" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -54330,10 +55171,75 @@
       </c>
       <c r="T367" s="19"/>
       <c r="U367" s="19"/>
+      <c r="V367" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="W367" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="X367" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y367" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z367" s="16" t="s">
+        <v>2081</v>
+      </c>
+      <c r="AA367" s="16" t="s">
+        <v>2149</v>
+      </c>
+      <c r="AB367" s="16" t="s">
+        <v>278</v>
+      </c>
+      <c r="AC367" s="16" t="s">
+        <v>529</v>
+      </c>
+      <c r="AD367" s="16" t="s">
+        <v>2150</v>
+      </c>
+      <c r="AE367" s="16" t="s">
+        <v>112</v>
+      </c>
       <c r="AF367" s="19"/>
-      <c r="AG367" s="17"/>
+      <c r="AG367" s="17">
+        <v>-0.84</v>
+      </c>
+      <c r="AH367" s="16">
+        <v>0.17</v>
+      </c>
+      <c r="AI367" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="AJ367" s="16">
+        <v>-1.19</v>
+      </c>
+      <c r="AK367" s="16">
+        <v>-0.49</v>
+      </c>
+      <c r="AL367" s="16">
+        <v>0.95</v>
+      </c>
+      <c r="AM367" s="16">
+        <v>0.64807406980000004</v>
+      </c>
+      <c r="AN367" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="AQ367" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="AR367" s="16" t="s">
+        <v>2151</v>
+      </c>
+      <c r="AS367" s="16">
+        <v>19</v>
+      </c>
       <c r="AU367" s="16" t="s">
         <v>2041</v>
+      </c>
+      <c r="AV367" s="16" t="s">
+        <v>2152</v>
       </c>
     </row>
     <row r="368" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -54347,13 +55253,78 @@
       </c>
       <c r="T368" s="19"/>
       <c r="U368" s="19"/>
+      <c r="V368" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="W368" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="X368" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y368" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z368" s="16" t="s">
+        <v>2081</v>
+      </c>
+      <c r="AA368" s="16" t="s">
+        <v>2153</v>
+      </c>
+      <c r="AB368" s="16" t="s">
+        <v>278</v>
+      </c>
+      <c r="AC368" s="16" t="s">
+        <v>529</v>
+      </c>
+      <c r="AD368" s="16" t="s">
+        <v>2154</v>
+      </c>
+      <c r="AE368" s="16" t="s">
+        <v>112</v>
+      </c>
       <c r="AF368" s="19"/>
-      <c r="AG368" s="17"/>
+      <c r="AG368" s="17">
+        <v>-1.45</v>
+      </c>
+      <c r="AH368" s="16">
+        <v>0.35</v>
+      </c>
+      <c r="AI368" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="AJ368" s="16">
+        <v>-2.2999999999999998</v>
+      </c>
+      <c r="AK368" s="16">
+        <v>-0.6</v>
+      </c>
+      <c r="AL368" s="16">
+        <v>0.95</v>
+      </c>
+      <c r="AM368" s="16">
+        <v>0.7615773106</v>
+      </c>
+      <c r="AN368" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="AQ368" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="AR368" s="16" t="s">
+        <v>2151</v>
+      </c>
+      <c r="AS368" s="16">
+        <v>8</v>
+      </c>
       <c r="AU368" s="16" t="s">
         <v>2041</v>
       </c>
+      <c r="AV368" s="16" t="s">
+        <v>2155</v>
+      </c>
     </row>
-    <row r="369" spans="1:47" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:49" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A369" s="14"/>
       <c r="B369" s="15"/>
       <c r="C369" s="16" t="s">
@@ -54364,13 +55335,78 @@
       </c>
       <c r="T369" s="19"/>
       <c r="U369" s="19"/>
+      <c r="V369" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="W369" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="X369" s="16" t="s">
+        <v>266</v>
+      </c>
+      <c r="Y369" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z369" s="16" t="s">
+        <v>2081</v>
+      </c>
+      <c r="AA369" s="16" t="s">
+        <v>2156</v>
+      </c>
+      <c r="AB369" s="16" t="s">
+        <v>278</v>
+      </c>
+      <c r="AC369" s="16" t="s">
+        <v>529</v>
+      </c>
+      <c r="AD369" s="16" t="s">
+        <v>2089</v>
+      </c>
+      <c r="AE369" s="16" t="s">
+        <v>112</v>
+      </c>
       <c r="AF369" s="19"/>
-      <c r="AG369" s="17"/>
+      <c r="AG369" s="17">
+        <v>-1.08</v>
+      </c>
+      <c r="AH369" s="16">
+        <v>0.15</v>
+      </c>
+      <c r="AI369" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="AJ369" s="16">
+        <v>-1.41</v>
+      </c>
+      <c r="AK369" s="16">
+        <v>-0.75</v>
+      </c>
+      <c r="AL369" s="16">
+        <v>0.95</v>
+      </c>
+      <c r="AM369" s="16">
+        <v>0.47958315229999998</v>
+      </c>
+      <c r="AN369" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="AQ369" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="AR369" s="16" t="s">
+        <v>2157</v>
+      </c>
+      <c r="AS369" s="16">
+        <v>14</v>
+      </c>
       <c r="AU369" s="16" t="s">
         <v>2041</v>
       </c>
+      <c r="AV369" s="16" t="s">
+        <v>2158</v>
+      </c>
     </row>
-    <row r="370" spans="1:47" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:49" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A370" s="14"/>
       <c r="B370" s="15"/>
       <c r="C370" s="16" t="s">
@@ -54381,13 +55417,78 @@
       </c>
       <c r="T370" s="19"/>
       <c r="U370" s="19"/>
+      <c r="V370" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="W370" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="X370" s="16" t="s">
+        <v>266</v>
+      </c>
+      <c r="Y370" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z370" s="16" t="s">
+        <v>2081</v>
+      </c>
+      <c r="AA370" s="16" t="s">
+        <v>2159</v>
+      </c>
+      <c r="AB370" s="16" t="s">
+        <v>278</v>
+      </c>
+      <c r="AC370" s="16" t="s">
+        <v>529</v>
+      </c>
+      <c r="AD370" s="16" t="s">
+        <v>2089</v>
+      </c>
+      <c r="AE370" s="16" t="s">
+        <v>112</v>
+      </c>
       <c r="AF370" s="19"/>
-      <c r="AG370" s="17"/>
+      <c r="AG370" s="17">
+        <v>-1.6</v>
+      </c>
+      <c r="AH370" s="16">
+        <v>0.33</v>
+      </c>
+      <c r="AI370" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="AJ370" s="16">
+        <v>-2.38</v>
+      </c>
+      <c r="AK370" s="16">
+        <v>-0.82</v>
+      </c>
+      <c r="AL370" s="16">
+        <v>0.95</v>
+      </c>
+      <c r="AM370" s="16">
+        <v>0.70710678120000003</v>
+      </c>
+      <c r="AN370" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="AQ370" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="AR370" s="16" t="s">
+        <v>2157</v>
+      </c>
+      <c r="AS370" s="16">
+        <v>8</v>
+      </c>
       <c r="AU370" s="16" t="s">
         <v>2041</v>
       </c>
+      <c r="AV370" s="16" t="s">
+        <v>2160</v>
+      </c>
     </row>
-    <row r="371" spans="1:47" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:49" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A371" s="14"/>
       <c r="B371" s="15"/>
       <c r="C371" s="16" t="s">
@@ -54398,13 +55499,78 @@
       </c>
       <c r="T371" s="19"/>
       <c r="U371" s="19"/>
+      <c r="V371" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="W371" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="X371" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y371" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z371" s="16" t="s">
+        <v>2081</v>
+      </c>
+      <c r="AA371" s="16" t="s">
+        <v>2161</v>
+      </c>
+      <c r="AB371" s="16" t="s">
+        <v>278</v>
+      </c>
+      <c r="AC371" s="16" t="s">
+        <v>529</v>
+      </c>
+      <c r="AD371" s="16" t="s">
+        <v>2162</v>
+      </c>
+      <c r="AE371" s="16" t="s">
+        <v>112</v>
+      </c>
       <c r="AF371" s="19"/>
-      <c r="AG371" s="17"/>
+      <c r="AG371" s="17">
+        <v>-1.45</v>
+      </c>
+      <c r="AH371" s="16">
+        <v>0.17</v>
+      </c>
+      <c r="AI371" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="AJ371" s="16">
+        <v>-1.81</v>
+      </c>
+      <c r="AK371" s="16">
+        <v>-1.0900000000000001</v>
+      </c>
+      <c r="AL371" s="16">
+        <v>0.95</v>
+      </c>
+      <c r="AM371" s="16">
+        <v>0.58309518950000006</v>
+      </c>
+      <c r="AN371" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="AQ371" s="16" t="s">
+        <v>1839</v>
+      </c>
+      <c r="AR371" s="16" t="s">
+        <v>2163</v>
+      </c>
+      <c r="AS371" s="16">
+        <v>14</v>
+      </c>
       <c r="AU371" s="16" t="s">
         <v>2041</v>
       </c>
+      <c r="AV371" s="16" t="s">
+        <v>2164</v>
+      </c>
     </row>
-    <row r="372" spans="1:47" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:49" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A372" s="14"/>
       <c r="B372" s="15"/>
       <c r="C372" s="16" t="s">
@@ -54415,13 +55581,78 @@
       </c>
       <c r="T372" s="19"/>
       <c r="U372" s="19"/>
+      <c r="V372" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="W372" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="X372" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y372" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z372" s="16" t="s">
+        <v>2081</v>
+      </c>
+      <c r="AA372" s="16" t="s">
+        <v>2165</v>
+      </c>
+      <c r="AB372" s="16" t="s">
+        <v>278</v>
+      </c>
+      <c r="AC372" s="16" t="s">
+        <v>529</v>
+      </c>
+      <c r="AD372" s="16" t="s">
+        <v>2166</v>
+      </c>
+      <c r="AE372" s="16" t="s">
+        <v>112</v>
+      </c>
       <c r="AF372" s="19"/>
-      <c r="AG372" s="17"/>
+      <c r="AG372" s="17">
+        <v>-0.91</v>
+      </c>
+      <c r="AH372" s="16">
+        <v>0.66</v>
+      </c>
+      <c r="AI372" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="AJ372" s="16">
+        <v>-3.76</v>
+      </c>
+      <c r="AK372" s="16">
+        <v>1.94</v>
+      </c>
+      <c r="AL372" s="16">
+        <v>0.95</v>
+      </c>
+      <c r="AM372" s="16">
+        <v>0.93808315190000002</v>
+      </c>
+      <c r="AN372" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="AQ372" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="AR372" s="16" t="s">
+        <v>2167</v>
+      </c>
+      <c r="AS372" s="16">
+        <v>3</v>
+      </c>
       <c r="AU372" s="16" t="s">
         <v>2041</v>
       </c>
+      <c r="AV372" s="16" t="s">
+        <v>2168</v>
+      </c>
     </row>
-    <row r="373" spans="1:47" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:49" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A373" s="14"/>
       <c r="B373" s="15"/>
       <c r="C373" s="16" t="s">
@@ -54432,13 +55663,78 @@
       </c>
       <c r="T373" s="19"/>
       <c r="U373" s="19"/>
+      <c r="V373" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="W373" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="X373" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y373" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z373" s="16" t="s">
+        <v>2081</v>
+      </c>
+      <c r="AA373" s="16" t="s">
+        <v>2169</v>
+      </c>
+      <c r="AB373" s="16" t="s">
+        <v>278</v>
+      </c>
+      <c r="AC373" s="16" t="s">
+        <v>529</v>
+      </c>
+      <c r="AD373" s="16" t="s">
+        <v>2170</v>
+      </c>
+      <c r="AE373" s="16" t="s">
+        <v>112</v>
+      </c>
       <c r="AF373" s="19"/>
-      <c r="AG373" s="17"/>
+      <c r="AG373" s="17">
+        <v>-0.59</v>
+      </c>
+      <c r="AH373" s="16">
+        <v>0.32</v>
+      </c>
+      <c r="AI373" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="AJ373" s="16">
+        <v>-1.6</v>
+      </c>
+      <c r="AK373" s="16">
+        <v>0.42</v>
+      </c>
+      <c r="AL373" s="16">
+        <v>0.95</v>
+      </c>
+      <c r="AM373" s="16">
+        <v>0.5916079783</v>
+      </c>
+      <c r="AN373" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="AQ373" s="16" t="s">
+        <v>1839</v>
+      </c>
+      <c r="AR373" s="16" t="s">
+        <v>2171</v>
+      </c>
+      <c r="AS373" s="16">
+        <v>4</v>
+      </c>
       <c r="AU373" s="16" t="s">
         <v>2041</v>
       </c>
+      <c r="AV373" s="16" t="s">
+        <v>2172</v>
+      </c>
     </row>
-    <row r="374" spans="1:47" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:49" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A374" s="14"/>
       <c r="B374" s="15"/>
       <c r="C374" s="16" t="s">
@@ -54449,13 +55745,78 @@
       </c>
       <c r="T374" s="19"/>
       <c r="U374" s="19"/>
+      <c r="V374" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="W374" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="X374" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y374" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z374" s="16" t="s">
+        <v>2081</v>
+      </c>
+      <c r="AA374" s="16" t="s">
+        <v>2173</v>
+      </c>
+      <c r="AB374" s="16" t="s">
+        <v>278</v>
+      </c>
+      <c r="AC374" s="16" t="s">
+        <v>529</v>
+      </c>
+      <c r="AD374" s="16" t="s">
+        <v>2174</v>
+      </c>
+      <c r="AE374" s="16" t="s">
+        <v>112</v>
+      </c>
       <c r="AF374" s="19"/>
-      <c r="AG374" s="17"/>
+      <c r="AG374" s="17">
+        <v>-0.41</v>
+      </c>
+      <c r="AH374" s="16">
+        <v>0.06</v>
+      </c>
+      <c r="AI374" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="AJ374" s="16">
+        <v>-0.67</v>
+      </c>
+      <c r="AK374" s="16">
+        <v>-0.15</v>
+      </c>
+      <c r="AL374" s="16">
+        <v>0.95</v>
+      </c>
+      <c r="AM374" s="16">
+        <v>0.31622776600000002</v>
+      </c>
+      <c r="AN374" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="AQ374" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="AR374" s="16" t="s">
+        <v>2175</v>
+      </c>
+      <c r="AS374" s="16">
+        <v>3</v>
+      </c>
       <c r="AU374" s="16" t="s">
         <v>2041</v>
       </c>
+      <c r="AV374" s="16" t="s">
+        <v>2176</v>
+      </c>
     </row>
-    <row r="375" spans="1:47" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:49" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A375" s="14"/>
       <c r="B375" s="15"/>
       <c r="C375" s="16" t="s">
@@ -54466,13 +55827,78 @@
       </c>
       <c r="T375" s="19"/>
       <c r="U375" s="19"/>
+      <c r="V375" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="W375" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="X375" s="16" t="s">
+        <v>266</v>
+      </c>
+      <c r="Y375" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z375" s="16" t="s">
+        <v>2081</v>
+      </c>
+      <c r="AA375" s="16" t="s">
+        <v>2177</v>
+      </c>
+      <c r="AB375" s="16" t="s">
+        <v>278</v>
+      </c>
+      <c r="AC375" s="16" t="s">
+        <v>529</v>
+      </c>
+      <c r="AD375" s="16" t="s">
+        <v>2089</v>
+      </c>
+      <c r="AE375" s="16" t="s">
+        <v>112</v>
+      </c>
       <c r="AF375" s="19"/>
-      <c r="AG375" s="17"/>
+      <c r="AG375" s="17">
+        <v>-1.4</v>
+      </c>
+      <c r="AH375" s="16">
+        <v>0.17</v>
+      </c>
+      <c r="AI375" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="AJ375" s="16">
+        <v>-1.75</v>
+      </c>
+      <c r="AK375" s="16">
+        <v>-1.05</v>
+      </c>
+      <c r="AL375" s="16">
+        <v>0.95</v>
+      </c>
+      <c r="AM375" s="16">
+        <v>0.60827625299999999</v>
+      </c>
+      <c r="AN375" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="AQ375" s="16" t="s">
+        <v>1839</v>
+      </c>
+      <c r="AR375" s="16" t="s">
+        <v>2178</v>
+      </c>
+      <c r="AS375" s="16">
+        <v>18</v>
+      </c>
       <c r="AU375" s="16" t="s">
         <v>2041</v>
       </c>
+      <c r="AV375" s="16" t="s">
+        <v>2179</v>
+      </c>
     </row>
-    <row r="376" spans="1:47" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:49" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A376" s="14"/>
       <c r="B376" s="15"/>
       <c r="C376" s="16" t="s">
@@ -54483,13 +55909,78 @@
       </c>
       <c r="T376" s="19"/>
       <c r="U376" s="19"/>
+      <c r="V376" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="W376" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="X376" s="16" t="s">
+        <v>266</v>
+      </c>
+      <c r="Y376" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z376" s="16" t="s">
+        <v>2081</v>
+      </c>
+      <c r="AA376" s="16" t="s">
+        <v>2180</v>
+      </c>
+      <c r="AB376" s="16" t="s">
+        <v>278</v>
+      </c>
+      <c r="AC376" s="16" t="s">
+        <v>529</v>
+      </c>
+      <c r="AD376" s="16" t="s">
+        <v>2093</v>
+      </c>
+      <c r="AE376" s="16" t="s">
+        <v>112</v>
+      </c>
       <c r="AF376" s="19"/>
-      <c r="AG376" s="17"/>
+      <c r="AG376" s="17">
+        <v>-0.28000000000000003</v>
+      </c>
+      <c r="AH376" s="16">
+        <v>0.13</v>
+      </c>
+      <c r="AI376" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="AJ376" s="16">
+        <v>-0.57999999999999996</v>
+      </c>
+      <c r="AK376" s="16">
+        <v>0.02</v>
+      </c>
+      <c r="AL376" s="16">
+        <v>0.95</v>
+      </c>
+      <c r="AM376" s="16">
+        <v>0.31622776600000002</v>
+      </c>
+      <c r="AN376" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="AQ376" s="16" t="s">
+        <v>1839</v>
+      </c>
+      <c r="AR376" s="16" t="s">
+        <v>2178</v>
+      </c>
+      <c r="AS376" s="16">
+        <v>9</v>
+      </c>
       <c r="AU376" s="16" t="s">
         <v>2041</v>
       </c>
+      <c r="AV376" s="16" t="s">
+        <v>2181</v>
+      </c>
     </row>
-    <row r="377" spans="1:47" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:49" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A377" s="14"/>
       <c r="B377" s="15"/>
       <c r="C377" s="16" t="s">
@@ -54500,13 +55991,78 @@
       </c>
       <c r="T377" s="19"/>
       <c r="U377" s="19"/>
+      <c r="V377" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="W377" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="X377" s="16" t="s">
+        <v>266</v>
+      </c>
+      <c r="Y377" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z377" s="16" t="s">
+        <v>2081</v>
+      </c>
+      <c r="AA377" s="16" t="s">
+        <v>2182</v>
+      </c>
+      <c r="AB377" s="16" t="s">
+        <v>278</v>
+      </c>
+      <c r="AC377" s="16" t="s">
+        <v>529</v>
+      </c>
+      <c r="AD377" s="16" t="s">
+        <v>2089</v>
+      </c>
+      <c r="AE377" s="16" t="s">
+        <v>112</v>
+      </c>
       <c r="AF377" s="19"/>
-      <c r="AG377" s="17"/>
+      <c r="AG377" s="17">
+        <v>-0.9</v>
+      </c>
+      <c r="AH377" s="16">
+        <v>0.24</v>
+      </c>
+      <c r="AI377" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="AJ377" s="16">
+        <v>-1.49</v>
+      </c>
+      <c r="AK377" s="16">
+        <v>-0.3</v>
+      </c>
+      <c r="AL377" s="16">
+        <v>0.95</v>
+      </c>
+      <c r="AM377" s="16">
+        <v>0.50990195140000005</v>
+      </c>
+      <c r="AN377" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="AQ377" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="AR377" s="16" t="s">
+        <v>2183</v>
+      </c>
+      <c r="AS377" s="16">
+        <v>7</v>
+      </c>
       <c r="AU377" s="16" t="s">
         <v>2041</v>
       </c>
+      <c r="AV377" s="16" t="s">
+        <v>2184</v>
+      </c>
     </row>
-    <row r="378" spans="1:47" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:49" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A378" s="14"/>
       <c r="B378" s="15"/>
       <c r="C378" s="16" t="s">
@@ -54517,13 +56073,78 @@
       </c>
       <c r="T378" s="19"/>
       <c r="U378" s="19"/>
+      <c r="V378" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="W378" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="X378" s="16" t="s">
+        <v>266</v>
+      </c>
+      <c r="Y378" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z378" s="16" t="s">
+        <v>2081</v>
+      </c>
+      <c r="AA378" s="16" t="s">
+        <v>2185</v>
+      </c>
+      <c r="AB378" s="16" t="s">
+        <v>278</v>
+      </c>
+      <c r="AC378" s="16" t="s">
+        <v>529</v>
+      </c>
+      <c r="AD378" s="16" t="s">
+        <v>2093</v>
+      </c>
+      <c r="AE378" s="16" t="s">
+        <v>112</v>
+      </c>
       <c r="AF378" s="19"/>
-      <c r="AG378" s="17"/>
+      <c r="AG378" s="17">
+        <v>-0.09</v>
+      </c>
+      <c r="AH378" s="16">
+        <v>0.03</v>
+      </c>
+      <c r="AI378" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="AJ378" s="16">
+        <v>-0.24</v>
+      </c>
+      <c r="AK378" s="16">
+        <v>0.06</v>
+      </c>
+      <c r="AL378" s="16">
+        <v>0.95</v>
+      </c>
+      <c r="AM378" s="16">
+        <v>0</v>
+      </c>
+      <c r="AN378" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="AQ378" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="AR378" s="16" t="s">
+        <v>2183</v>
+      </c>
+      <c r="AS378" s="16">
+        <v>7</v>
+      </c>
       <c r="AU378" s="16" t="s">
         <v>2041</v>
       </c>
+      <c r="AV378" s="16" t="s">
+        <v>2186</v>
+      </c>
     </row>
-    <row r="379" spans="1:47" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:49" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A379" s="14"/>
       <c r="B379" s="15"/>
       <c r="C379" s="16" t="s">
@@ -54534,13 +56155,75 @@
       </c>
       <c r="T379" s="19"/>
       <c r="U379" s="19"/>
+      <c r="V379" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="W379" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="X379" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y379" s="16" t="s">
+        <v>353</v>
+      </c>
+      <c r="Z379" s="16" t="s">
+        <v>2187</v>
+      </c>
+      <c r="AA379" s="16" t="s">
+        <v>2188</v>
+      </c>
+      <c r="AB379" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD379" s="16" t="s">
+        <v>2189</v>
+      </c>
+      <c r="AE379" s="16" t="s">
+        <v>54</v>
+      </c>
       <c r="AF379" s="19"/>
-      <c r="AG379" s="17"/>
+      <c r="AG379" s="17">
+        <v>0.86</v>
+      </c>
+      <c r="AH379" s="16">
+        <v>0.13</v>
+      </c>
+      <c r="AI379" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="AJ379" s="16">
+        <v>0.6</v>
+      </c>
+      <c r="AK379" s="16">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="AL379" s="16">
+        <v>0.95</v>
+      </c>
+      <c r="AM379" s="16">
+        <v>0.1</v>
+      </c>
+      <c r="AN379" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="AQ379" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="AR379" s="16" t="s">
+        <v>2190</v>
+      </c>
+      <c r="AS379" s="16">
+        <v>9</v>
+      </c>
       <c r="AU379" s="16" t="s">
-        <v>2041</v>
+        <v>2191</v>
+      </c>
+      <c r="AV379" s="16" t="s">
+        <v>2192</v>
       </c>
     </row>
-    <row r="380" spans="1:47" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:49" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A380" s="14"/>
       <c r="B380" s="15"/>
       <c r="C380" s="16" t="s">
@@ -54551,13 +56234,75 @@
       </c>
       <c r="T380" s="19"/>
       <c r="U380" s="19"/>
+      <c r="V380" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="W380" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="X380" s="16" t="s">
+        <v>266</v>
+      </c>
+      <c r="Y380" s="16" t="s">
+        <v>353</v>
+      </c>
+      <c r="Z380" s="16" t="s">
+        <v>2193</v>
+      </c>
+      <c r="AA380" s="16" t="s">
+        <v>2194</v>
+      </c>
+      <c r="AB380" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC380" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD380" s="16" t="s">
+        <v>2195</v>
+      </c>
+      <c r="AE380" s="16" t="s">
+        <v>54</v>
+      </c>
       <c r="AF380" s="19"/>
-      <c r="AG380" s="17"/>
+      <c r="AG380" s="17">
+        <v>0.91</v>
+      </c>
+      <c r="AH380" s="16">
+        <v>0.13</v>
+      </c>
+      <c r="AI380" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="AJ380" s="16">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="AK380" s="16">
+        <v>1.23</v>
+      </c>
+      <c r="AL380" s="16">
+        <v>0.95</v>
+      </c>
+      <c r="AM380" s="16">
+        <v>0.31622776600000002</v>
+      </c>
+      <c r="AN380" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="AQ380" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="AS380" s="16">
+        <v>8</v>
+      </c>
       <c r="AU380" s="16" t="s">
-        <v>2041</v>
+        <v>2196</v>
+      </c>
+      <c r="AV380" s="16" t="s">
+        <v>2197</v>
       </c>
     </row>
-    <row r="381" spans="1:47" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:49" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A381" s="14"/>
       <c r="B381" s="15"/>
       <c r="C381" s="16" t="s">
@@ -54568,13 +56313,75 @@
       </c>
       <c r="T381" s="19"/>
       <c r="U381" s="19"/>
+      <c r="V381" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="W381" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="X381" s="16" t="s">
+        <v>266</v>
+      </c>
+      <c r="Y381" s="16" t="s">
+        <v>353</v>
+      </c>
+      <c r="Z381" s="16" t="s">
+        <v>2193</v>
+      </c>
+      <c r="AA381" s="16" t="s">
+        <v>2198</v>
+      </c>
+      <c r="AB381" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC381" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD381" s="16" t="s">
+        <v>2199</v>
+      </c>
+      <c r="AE381" s="16" t="s">
+        <v>54</v>
+      </c>
       <c r="AF381" s="19"/>
-      <c r="AG381" s="17"/>
+      <c r="AG381" s="17">
+        <v>1</v>
+      </c>
+      <c r="AH381" s="16">
+        <v>0.22</v>
+      </c>
+      <c r="AI381" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="AJ381" s="16">
+        <v>0.27</v>
+      </c>
+      <c r="AK381" s="16">
+        <v>1.72</v>
+      </c>
+      <c r="AL381" s="16">
+        <v>0.95</v>
+      </c>
+      <c r="AM381" s="16">
+        <v>0.4</v>
+      </c>
+      <c r="AN381" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="AQ381" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="AS381" s="16">
+        <v>4</v>
+      </c>
       <c r="AU381" s="16" t="s">
-        <v>2041</v>
+        <v>2200</v>
+      </c>
+      <c r="AV381" s="16" t="s">
+        <v>2201</v>
       </c>
     </row>
-    <row r="382" spans="1:47" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:49" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A382" s="14"/>
       <c r="B382" s="15"/>
       <c r="C382" s="16" t="s">
@@ -54585,13 +56392,75 @@
       </c>
       <c r="T382" s="19"/>
       <c r="U382" s="19"/>
+      <c r="V382" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="W382" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="X382" s="16" t="s">
+        <v>266</v>
+      </c>
+      <c r="Y382" s="16" t="s">
+        <v>353</v>
+      </c>
+      <c r="Z382" s="16" t="s">
+        <v>2193</v>
+      </c>
+      <c r="AA382" s="16" t="s">
+        <v>2202</v>
+      </c>
+      <c r="AB382" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC382" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD382" s="16" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AE382" s="16" t="s">
+        <v>54</v>
+      </c>
       <c r="AF382" s="19"/>
-      <c r="AG382" s="17"/>
+      <c r="AG382" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="AH382" s="16">
+        <v>0.13</v>
+      </c>
+      <c r="AI382" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="AJ382" s="16">
+        <v>0.42</v>
+      </c>
+      <c r="AK382" s="16">
+        <v>1.08</v>
+      </c>
+      <c r="AL382" s="16">
+        <v>0.95</v>
+      </c>
+      <c r="AM382" s="16">
+        <v>0.28284271249999998</v>
+      </c>
+      <c r="AN382" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="AQ382" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="AS382" s="16">
+        <v>6</v>
+      </c>
       <c r="AU382" s="16" t="s">
-        <v>2041</v>
+        <v>2204</v>
+      </c>
+      <c r="AV382" s="16" t="s">
+        <v>2205</v>
       </c>
     </row>
-    <row r="383" spans="1:47" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:49" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A383" s="14"/>
       <c r="B383" s="15"/>
       <c r="C383" s="16" t="s">
@@ -54602,13 +56471,75 @@
       </c>
       <c r="T383" s="19"/>
       <c r="U383" s="19"/>
+      <c r="V383" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="W383" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="X383" s="16" t="s">
+        <v>266</v>
+      </c>
+      <c r="Y383" s="16" t="s">
+        <v>353</v>
+      </c>
+      <c r="Z383" s="16" t="s">
+        <v>2193</v>
+      </c>
+      <c r="AA383" s="16" t="s">
+        <v>2206</v>
+      </c>
+      <c r="AB383" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD383" s="16" t="s">
+        <v>2207</v>
+      </c>
+      <c r="AE383" s="16" t="s">
+        <v>54</v>
+      </c>
       <c r="AF383" s="19"/>
-      <c r="AG383" s="17"/>
+      <c r="AG383" s="17">
+        <v>0.67</v>
+      </c>
+      <c r="AH383" s="16">
+        <v>0.03</v>
+      </c>
+      <c r="AI383" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="AJ383" s="16">
+        <v>0.34</v>
+      </c>
+      <c r="AK383" s="16">
+        <v>1</v>
+      </c>
+      <c r="AL383" s="16">
+        <v>0.95</v>
+      </c>
+      <c r="AM383" s="16">
+        <v>0.1</v>
+      </c>
+      <c r="AN383" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="AQ383" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="AS383" s="16">
+        <v>2</v>
+      </c>
       <c r="AU383" s="16" t="s">
-        <v>2041</v>
+        <v>2208</v>
+      </c>
+      <c r="AV383" s="16" t="s">
+        <v>2209</v>
+      </c>
+      <c r="AW383" s="16" t="s">
+        <v>2209</v>
       </c>
     </row>
-    <row r="384" spans="1:47" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:49" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A384" s="14"/>
       <c r="B384" s="15"/>
       <c r="C384" s="16" t="s">
@@ -54619,10 +56550,72 @@
       </c>
       <c r="T384" s="19"/>
       <c r="U384" s="19"/>
+      <c r="V384" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="W384" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="X384" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y384" s="16" t="s">
+        <v>353</v>
+      </c>
+      <c r="Z384" s="16" t="s">
+        <v>2193</v>
+      </c>
+      <c r="AA384" s="16" t="s">
+        <v>2210</v>
+      </c>
+      <c r="AB384" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC384" s="16" t="s">
+        <v>461</v>
+      </c>
+      <c r="AD384" s="16" t="s">
+        <v>2211</v>
+      </c>
+      <c r="AE384" s="16" t="s">
+        <v>54</v>
+      </c>
       <c r="AF384" s="19"/>
-      <c r="AG384" s="17"/>
+      <c r="AG384" s="17">
+        <v>0.97</v>
+      </c>
+      <c r="AH384" s="16">
+        <v>0.11</v>
+      </c>
+      <c r="AI384" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="AJ384" s="16">
+        <v>0.76</v>
+      </c>
+      <c r="AK384" s="16">
+        <v>1.19</v>
+      </c>
+      <c r="AL384" s="16">
+        <v>0.95</v>
+      </c>
+      <c r="AM384" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="AN384" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="AQ384" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="AS384" s="16">
+        <v>6</v>
+      </c>
       <c r="AU384" s="16" t="s">
-        <v>2041</v>
+        <v>2212</v>
+      </c>
+      <c r="AV384" s="16" t="s">
+        <v>2213</v>
       </c>
     </row>
     <row r="385" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -54636,10 +56629,72 @@
       </c>
       <c r="T385" s="19"/>
       <c r="U385" s="19"/>
+      <c r="V385" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="W385" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="X385" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y385" s="16" t="s">
+        <v>353</v>
+      </c>
+      <c r="Z385" s="16" t="s">
+        <v>2193</v>
+      </c>
+      <c r="AA385" s="16" t="s">
+        <v>2214</v>
+      </c>
+      <c r="AB385" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC385" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD385" s="16" t="s">
+        <v>2215</v>
+      </c>
+      <c r="AE385" s="16" t="s">
+        <v>54</v>
+      </c>
       <c r="AF385" s="19"/>
-      <c r="AG385" s="17"/>
+      <c r="AG385" s="17">
+        <v>0.88</v>
+      </c>
+      <c r="AH385" s="16">
+        <v>0.06</v>
+      </c>
+      <c r="AI385" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="AJ385" s="16">
+        <v>0.77</v>
+      </c>
+      <c r="AK385" s="16">
+        <v>0.99</v>
+      </c>
+      <c r="AL385" s="16">
+        <v>0.95</v>
+      </c>
+      <c r="AM385" s="16">
+        <v>0.36055512750000002</v>
+      </c>
+      <c r="AN385" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="AQ385" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="AS385" s="16">
+        <v>7</v>
+      </c>
       <c r="AU385" s="16" t="s">
-        <v>2041</v>
+        <v>2216</v>
+      </c>
+      <c r="AV385" s="16" t="s">
+        <v>2217</v>
       </c>
     </row>
     <row r="386" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -54653,10 +56708,69 @@
       </c>
       <c r="T386" s="19"/>
       <c r="U386" s="19"/>
+      <c r="V386" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="W386" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="X386" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y386" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z386" s="16" t="s">
+        <v>2081</v>
+      </c>
+      <c r="AA386" s="16" t="s">
+        <v>2218</v>
+      </c>
+      <c r="AB386" s="16" t="s">
+        <v>278</v>
+      </c>
+      <c r="AC386" s="16" t="s">
+        <v>529</v>
+      </c>
+      <c r="AD386" s="16" t="s">
+        <v>2219</v>
+      </c>
+      <c r="AE386" s="16" t="s">
+        <v>112</v>
+      </c>
       <c r="AF386" s="19"/>
-      <c r="AG386" s="17"/>
+      <c r="AG386" s="17">
+        <v>-0.56000000000000005</v>
+      </c>
+      <c r="AH386" s="16">
+        <v>0.19387755100000001</v>
+      </c>
+      <c r="AI386" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ386" s="16">
+        <v>-0.94</v>
+      </c>
+      <c r="AK386" s="16">
+        <v>-0.18</v>
+      </c>
+      <c r="AL386" s="16">
+        <v>0.95</v>
+      </c>
+      <c r="AN386" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO386" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="AR386" s="16" t="s">
+        <v>307</v>
+      </c>
       <c r="AU386" s="16" t="s">
-        <v>2041</v>
+        <v>2225</v>
+      </c>
+      <c r="AV386" s="16" t="s">
+        <v>2220</v>
       </c>
     </row>
     <row r="387" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -54670,149 +56784,187 @@
       </c>
       <c r="T387" s="19"/>
       <c r="U387" s="19"/>
+      <c r="V387" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="W387" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="X387" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y387" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z387" s="16" t="s">
+        <v>2081</v>
+      </c>
+      <c r="AA387" s="16" t="s">
+        <v>2221</v>
+      </c>
+      <c r="AB387" s="16" t="s">
+        <v>278</v>
+      </c>
+      <c r="AC387" s="16" t="s">
+        <v>529</v>
+      </c>
+      <c r="AD387" s="16" t="s">
+        <v>2222</v>
+      </c>
       <c r="AF387" s="19"/>
-      <c r="AG387" s="17"/>
+      <c r="AG387" s="17">
+        <v>0.09</v>
+      </c>
+      <c r="AH387" s="16">
+        <v>0.04</v>
+      </c>
+      <c r="AI387" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="AN387" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ387" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="AT387" s="16">
+        <v>31</v>
+      </c>
       <c r="AU387" s="16" t="s">
-        <v>2041</v>
+        <v>2223</v>
+      </c>
+      <c r="AV387" s="16" t="s">
+        <v>2224</v>
       </c>
     </row>
-    <row r="388" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A388" s="14"/>
-      <c r="B388" s="15"/>
-      <c r="S388" s="17"/>
-      <c r="T388" s="19"/>
-      <c r="U388" s="19"/>
-      <c r="AF388" s="19"/>
-      <c r="AG388" s="17"/>
-    </row>
-    <row r="389" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A389" s="21" t="s">
+    <row r="388" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A388" s="21" t="s">
         <v>1858</v>
       </c>
-      <c r="B389" s="22" t="s">
+      <c r="B388" s="22" t="s">
         <v>2080</v>
       </c>
-      <c r="C389" s="23" t="s">
+      <c r="C388" s="23" t="s">
         <v>2103</v>
       </c>
-      <c r="D389" s="23">
+      <c r="D388" s="23">
         <v>2017</v>
       </c>
-      <c r="E389" s="23" t="s">
+      <c r="E388" s="23" t="s">
         <v>2104</v>
       </c>
-      <c r="F389" s="23" t="s">
+      <c r="F388" s="23" t="s">
         <v>904</v>
       </c>
-      <c r="G389" s="23" t="s">
+      <c r="G388" s="23" t="s">
         <v>1160</v>
       </c>
-      <c r="H389" s="23" t="s">
+      <c r="H388" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="I389" s="23" t="s">
+      <c r="I388" s="23" t="s">
         <v>858</v>
       </c>
-      <c r="J389" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="K389" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="L389" s="23" t="s">
+      <c r="J388" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="K388" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="L388" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="M389" s="23" t="s">
+      <c r="M388" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="N389" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="O389" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="P389" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q389" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="R389" s="23" t="s">
+      <c r="N388" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="O388" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="P388" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q388" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="R388" s="23" t="s">
         <v>2105</v>
       </c>
-      <c r="S389" s="24" t="s">
+      <c r="S388" s="24" t="s">
         <v>2102</v>
       </c>
-      <c r="T389" s="24"/>
-      <c r="U389" s="24"/>
-      <c r="V389" s="23" t="s">
+      <c r="T388" s="24"/>
+      <c r="U388" s="24"/>
+      <c r="V388" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="W389" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="X389" s="23" t="s">
+      <c r="W388" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="X388" s="23" t="s">
         <v>266</v>
       </c>
-      <c r="Y389" s="23" t="s">
+      <c r="Y388" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="Z389" s="23" t="s">
+      <c r="Z388" s="23" t="s">
         <v>2106</v>
       </c>
-      <c r="AA389" s="23" t="s">
+      <c r="AA388" s="23" t="s">
         <v>2107</v>
       </c>
-      <c r="AB389" s="23" t="s">
+      <c r="AB388" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="AE389" s="23" t="s">
+      <c r="AE388" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="AF389" s="24"/>
-      <c r="AG389" s="24">
+      <c r="AF388" s="24"/>
+      <c r="AG388" s="24">
         <v>0.46</v>
       </c>
-      <c r="AH389" s="23">
+      <c r="AH388" s="23">
         <v>0.160714285714285</v>
       </c>
-      <c r="AI389" s="23" t="s">
+      <c r="AI388" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="AJ389" s="23">
+      <c r="AJ388" s="23">
         <v>0.14000000000000001</v>
       </c>
-      <c r="AK389" s="23">
+      <c r="AK388" s="23">
         <v>0.77</v>
       </c>
-      <c r="AL389" s="23">
+      <c r="AL388" s="23">
         <v>0.95</v>
       </c>
-      <c r="AN389" s="23" t="s">
+      <c r="AN388" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="AO389" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="AP389" s="23" t="s">
+      <c r="AO388" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="AP388" s="23" t="s">
         <v>2108</v>
       </c>
-      <c r="AQ389" s="23" t="s">
+      <c r="AQ388" s="23" t="s">
         <v>307</v>
       </c>
-      <c r="AR389" s="23" t="s">
+      <c r="AR388" s="23" t="s">
         <v>2109</v>
       </c>
-      <c r="AS389" s="23">
+      <c r="AS388" s="23">
         <v>13</v>
       </c>
-      <c r="AT389" s="23" t="s">
+      <c r="AT388" s="23" t="s">
         <v>2110</v>
       </c>
-      <c r="AU389" s="23" t="s">
+      <c r="AU388" s="23" t="s">
         <v>2111</v>
       </c>
-      <c r="AV389" s="23" t="s">
+      <c r="AV388" s="23" t="s">
         <v>2112</v>
       </c>
     </row>

--- a/Data/coded-Dataset.xlsx
+++ b/Data/coded-Dataset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laura/Desktop/GITHUB-METAREVIEW/Meta-review-cognitive-profiles-ADHD-Dyslexia/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC8EE882-8FA3-E746-87EF-DF3546B85425}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D6865B6-5794-9740-A950-CDDAFB72C220}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="660" windowWidth="30240" windowHeight="17200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20" yWindow="660" windowWidth="30240" windowHeight="17200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="effect_sizes" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13390" uniqueCount="2226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14675" uniqueCount="2324">
   <si>
     <t>ID_article</t>
   </si>
@@ -6717,12 +6717,306 @@
   <si>
     <t xml:space="preserve">Dyslexia vs typically developing readers. </t>
   </si>
+  <si>
+    <t>2011_2</t>
+  </si>
+  <si>
+    <t>2011_3</t>
+  </si>
+  <si>
+    <t>2011_4</t>
+  </si>
+  <si>
+    <t>All pooled estimates concern visual AGL accuracy and draw on the same 13-study pool; age strata are subsets; trim-and-fill is an adjusted re-estimate.</t>
+  </si>
+  <si>
+    <t>overall accuracy score in the test phase of the AGL experiment (child studies)</t>
+  </si>
+  <si>
+    <t>Visual artificial grammar learning</t>
+  </si>
+  <si>
+    <t>Yes (reported at article level).</t>
+  </si>
+  <si>
+    <t>Child studies</t>
+  </si>
+  <si>
+    <t>Dyslexia vs non-dyslexic controls (children; visual AGL accuracy)</t>
+  </si>
+  <si>
+    <t>Child-studies pooled estimate reported separately (N=7). SE deterministically derived from explicitly stated 95% CI.</t>
+  </si>
+  <si>
+    <t>overall accuracy score in the test phase of the AGL experiment (adult studies)</t>
+  </si>
+  <si>
+    <t>Adult studies</t>
+  </si>
+  <si>
+    <t>Dyslexia vs non-dyslexic controls (adults; visual AGL accuracy)</t>
+  </si>
+  <si>
+    <t>Adult-studies pooled estimate reported separately (N=6). SE deterministically derived from explicitly stated 95% CI.</t>
+  </si>
+  <si>
+    <t>average weighted effect size after trim and fill adjustment</t>
+  </si>
+  <si>
+    <t>Yes (trim-and-fill adjustment; five studies imputed).</t>
+  </si>
+  <si>
+    <t>Trim-and-fill adjusted pooled estimate</t>
+  </si>
+  <si>
+    <t>Dyslexia vs non-dyslexic controls (trim-and-fill adjusted; visual AGL accuracy)</t>
+  </si>
+  <si>
+    <t>Trim-and-fill estimated five missing studies; pooled estimate reported with 95% CI; SE deterministically derived from CI.</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2015</t>
+  </si>
+  <si>
+    <t>2015_1</t>
+  </si>
+  <si>
+    <t>2015_2</t>
+  </si>
+  <si>
+    <t>2015_3</t>
+  </si>
+  <si>
+    <t>2015_4</t>
+  </si>
+  <si>
+    <t>2015_5</t>
+  </si>
+  <si>
+    <t>2015_6</t>
+  </si>
+  <si>
+    <t>2015_7</t>
+  </si>
+  <si>
+    <t>Witton, C.; Swoboda, K.; Shapiro, L. R.; Talcott J. B.</t>
+  </si>
+  <si>
+    <t>Auditory frequency discrimination in developmental dyslexia: A meta-analysis</t>
+  </si>
+  <si>
+    <t>2015_8</t>
+  </si>
+  <si>
+    <t>2015_9</t>
+  </si>
+  <si>
+    <t>2015_10</t>
+  </si>
+  <si>
+    <t>2015_11</t>
+  </si>
+  <si>
+    <t>2015_12</t>
+  </si>
+  <si>
+    <t>2015_13</t>
+  </si>
+  <si>
+    <t>2015_14</t>
+  </si>
+  <si>
+    <t>2015_15</t>
+  </si>
+  <si>
+    <t>2015_16</t>
+  </si>
+  <si>
+    <t>2015_17</t>
+  </si>
+  <si>
+    <t>2015_18</t>
+  </si>
+  <si>
+    <t>Primary pooled estimate for frequency discrimination (overall meta-analysis).</t>
+  </si>
+  <si>
+    <t>frequency discrimination</t>
+  </si>
+  <si>
+    <t>Frequency discrimination</t>
+  </si>
+  <si>
+    <t>Egger's test not significant (no evidence of publication bias reported).</t>
+  </si>
+  <si>
+    <t>Mixed ages across included studies (not summarised as a single range).</t>
+  </si>
+  <si>
+    <t>Developmental dyslexia vs control readers (group difference).</t>
+  </si>
+  <si>
+    <t>Overall meta-analysis pooled estimate reported in Results (Section 4.1) and Table 1 mean row. :contentReference[oaicite:0]{index=0}</t>
+  </si>
+  <si>
+    <t>Task-design subgroup pooled estimate (subset of effects; overlaps with overall pool).</t>
+  </si>
+  <si>
+    <t>frequency discrimination (same-different tasks)</t>
+  </si>
+  <si>
+    <t>Same-different task</t>
+  </si>
+  <si>
+    <t>Task-design pooled mean effect-size reported without CI/SE (Section 4.2 / task design paragraph). :contentReference[oaicite:0]{index=0}</t>
+  </si>
+  <si>
+    <t>frequency discrimination (higher/lower tasks)</t>
+  </si>
+  <si>
+    <t>Higher/lower task</t>
+  </si>
+  <si>
+    <t>frequency discrimination (AXB tasks)</t>
+  </si>
+  <si>
+    <t>AXB task</t>
+  </si>
+  <si>
+    <t>frequency discrimination (two-pairs tasks)</t>
+  </si>
+  <si>
+    <t>Which pair has 2 pitches?</t>
+  </si>
+  <si>
+    <t>frequency discrimination (ten-tone task)</t>
+  </si>
+  <si>
+    <t>Ten-tone task</t>
+  </si>
+  <si>
+    <t>Task-design pooled mean effect-size reported without CI/SE; subgroup n not reported in the same sentence (Section 4.2 / task design paragraph). :contentReference[oaicite:0]{index=0}</t>
+  </si>
+  <si>
+    <t>Pooled frequency-discrimination effect size restricted to studies contributing the moderator meta-regression (Age).</t>
+  </si>
+  <si>
+    <t>frequency discrimination (subset: age moderator available)</t>
+  </si>
+  <si>
+    <t>Table 3 pooled frequency-discrimination effect size for subset of studies used in age meta-regression (k=19). :contentReference[oaicite:0]{index=0}</t>
+  </si>
+  <si>
+    <t>Pooled frequency-discrimination effect size restricted to studies contributing the moderator meta-regression (Non-word reading, standardised).</t>
+  </si>
+  <si>
+    <t>frequency discrimination (subset: non-word reading, standardised)</t>
+  </si>
+  <si>
+    <t>Table 3 pooled frequency-discrimination effect size for subset used in non-word reading (standardised) meta-regression (k=8). :contentReference[oaicite:0]{index=0}</t>
+  </si>
+  <si>
+    <t>Pooled frequency-discrimination effect size restricted to studies contributing the moderator meta-regression (Non-word reading, non-standardised).</t>
+  </si>
+  <si>
+    <t>frequency discrimination (subset: non-word reading, non-standardised)</t>
+  </si>
+  <si>
+    <t>Table 3 pooled frequency-discrimination effect size for subset used in non-word reading (non-standardised) meta-regression (k=13). :contentReference[oaicite:0]{index=0}</t>
+  </si>
+  <si>
+    <t>Pooled frequency-discrimination effect size restricted to studies contributing the moderator meta-regression (Non-word reading, combined).</t>
+  </si>
+  <si>
+    <t>frequency discrimination (subset: non-word reading, combined)</t>
+  </si>
+  <si>
+    <t>Table 3 pooled frequency-discrimination effect size for subset used in non-word reading (combined) meta-regression (k=21). :contentReference[oaicite:0]{index=0}</t>
+  </si>
+  <si>
+    <t>Pooled frequency-discrimination effect size restricted to studies contributing the moderator meta-regression (Real word reading, standardised).</t>
+  </si>
+  <si>
+    <t>frequency discrimination (subset: real word reading, standardised)</t>
+  </si>
+  <si>
+    <t>Table 3 pooled frequency-discrimination effect size for subset used in real word reading (standardised) meta-regression (k=8). :contentReference[oaicite:0]{index=0}</t>
+  </si>
+  <si>
+    <t>Pooled frequency-discrimination effect size restricted to studies contributing the moderator meta-regression (Real word reading, non-standardised).</t>
+  </si>
+  <si>
+    <t>frequency discrimination (subset: real word reading, non-standardised)</t>
+  </si>
+  <si>
+    <t>Table 3 pooled frequency-discrimination effect size for subset used in real word reading (non-standardised) meta-regression (k=10). :contentReference[oaicite:0]{index=0}</t>
+  </si>
+  <si>
+    <t>Pooled frequency-discrimination effect size restricted to studies contributing the moderator meta-regression (Real word reading, combined).</t>
+  </si>
+  <si>
+    <t>frequency discrimination (subset: real word reading, combined)</t>
+  </si>
+  <si>
+    <t>Table 3 pooled frequency-discrimination effect size for subset used in real word reading (combined) meta-regression (k=18). :contentReference[oaicite:0]{index=0}</t>
+  </si>
+  <si>
+    <t>Pooled frequency-discrimination effect size restricted to studies contributing the moderator meta-regression (Phoneme deletion).</t>
+  </si>
+  <si>
+    <t>frequency discrimination (subset: phoneme deletion moderator available)</t>
+  </si>
+  <si>
+    <t>Table 3 pooled frequency-discrimination effect size for subset used in phoneme deletion meta-regression (k=8). :contentReference[oaicite:0]{index=0}</t>
+  </si>
+  <si>
+    <t>Pooled frequency-discrimination effect size restricted to studies contributing the moderator meta-regression (Spoonerisms).</t>
+  </si>
+  <si>
+    <t>frequency discrimination (subset: spoonerisms moderator available)</t>
+  </si>
+  <si>
+    <t>Table 3 pooled frequency-discrimination effect size for subset used in spoonerisms meta-regression (k=8). :contentReference[oaicite:0]{index=0}</t>
+  </si>
+  <si>
+    <t>Pooled frequency-discrimination effect size restricted to studies contributing the moderator meta-regression (Non-verbal IQ).</t>
+  </si>
+  <si>
+    <t>frequency discrimination (subset: non-verbal IQ moderator available)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Table 3 pooled frequency-discrimination effect size for subset used in non-verbal IQ meta-regression (k=19). </t>
+  </si>
+  <si>
+    <t>Pooled frequency-discrimination effect size restricted to studies contributing the moderator meta-regression (Digit span).</t>
+  </si>
+  <si>
+    <t>frequency discrimination (subset: digit span moderator available)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Table 3 pooled frequency-discrimination effect size for subset used in digit span meta-regression (k=13). </t>
+  </si>
+  <si>
+    <t>Pooled frequency-discrimination effect size restricted to studies contributing the moderator meta-regression (Verbal abilities).</t>
+  </si>
+  <si>
+    <t>frequency discrimination (subset: verbal abilities moderator available)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Table 3 pooled frequency-discrimination effect size for subset used in verbal abilities meta-regression (k=16). </t>
+  </si>
+  <si>
+    <t>Protocol PDF not provided in inputs; extraction performed using the article PDF only.; Task-design subgroup mean effect-sizes are reported without CIs/SEs; row-level CI/SE left null.; Table 3 reports multiple pooled frequency-discrimination effect sizes for subsets of studies (by moderator availability); these were extracted as additional pooled results.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6757,8 +7051,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6789,6 +7090,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -6817,7 +7124,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -6871,6 +7178,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="16" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7173,11 +7484,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AW388"/>
+  <dimension ref="A1:AX411"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AP1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A359" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AU391" sqref="AU391"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A377" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R418" sqref="R418"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -53852,10 +54163,59 @@
       </c>
     </row>
     <row r="351" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A351" s="14"/>
-      <c r="B351" s="15"/>
+      <c r="A351" s="14" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B351" s="15" t="s">
+        <v>2030</v>
+      </c>
       <c r="C351" s="16" t="s">
         <v>2032</v>
+      </c>
+      <c r="D351" s="16">
+        <v>2023</v>
+      </c>
+      <c r="E351" s="16" t="s">
+        <v>2033</v>
+      </c>
+      <c r="F351" s="16" t="s">
+        <v>904</v>
+      </c>
+      <c r="G351" s="16" t="s">
+        <v>1160</v>
+      </c>
+      <c r="H351" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I351" s="16" t="s">
+        <v>1863</v>
+      </c>
+      <c r="J351" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="K351" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="L351" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="M351" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="N351" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="O351" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="P351" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q351" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="R351" s="16" t="s">
+        <v>2034</v>
       </c>
       <c r="S351" s="17" t="s">
         <v>2043</v>
@@ -53934,10 +54294,59 @@
       </c>
     </row>
     <row r="352" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A352" s="14"/>
-      <c r="B352" s="15"/>
+      <c r="A352" s="14" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B352" s="15" t="s">
+        <v>2030</v>
+      </c>
       <c r="C352" s="16" t="s">
         <v>2032</v>
+      </c>
+      <c r="D352" s="16">
+        <v>2023</v>
+      </c>
+      <c r="E352" s="16" t="s">
+        <v>2033</v>
+      </c>
+      <c r="F352" s="16" t="s">
+        <v>904</v>
+      </c>
+      <c r="G352" s="16" t="s">
+        <v>1160</v>
+      </c>
+      <c r="H352" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I352" s="16" t="s">
+        <v>1863</v>
+      </c>
+      <c r="J352" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="K352" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="L352" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="M352" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="N352" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="O352" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="P352" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q352" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="R352" s="16" t="s">
+        <v>2034</v>
       </c>
       <c r="S352" s="17" t="s">
         <v>2044</v>
@@ -54016,10 +54425,59 @@
       </c>
     </row>
     <row r="353" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A353" s="14"/>
-      <c r="B353" s="15"/>
+      <c r="A353" s="14" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B353" s="15" t="s">
+        <v>2030</v>
+      </c>
       <c r="C353" s="16" t="s">
         <v>2032</v>
+      </c>
+      <c r="D353" s="16">
+        <v>2023</v>
+      </c>
+      <c r="E353" s="16" t="s">
+        <v>2033</v>
+      </c>
+      <c r="F353" s="16" t="s">
+        <v>904</v>
+      </c>
+      <c r="G353" s="16" t="s">
+        <v>1160</v>
+      </c>
+      <c r="H353" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I353" s="16" t="s">
+        <v>1863</v>
+      </c>
+      <c r="J353" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="K353" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="L353" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="M353" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="N353" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="O353" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="P353" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q353" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="R353" s="16" t="s">
+        <v>2034</v>
       </c>
       <c r="S353" s="17" t="s">
         <v>2045</v>
@@ -54098,10 +54556,59 @@
       </c>
     </row>
     <row r="354" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A354" s="14"/>
-      <c r="B354" s="15"/>
+      <c r="A354" s="14" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B354" s="15" t="s">
+        <v>2030</v>
+      </c>
       <c r="C354" s="16" t="s">
         <v>2032</v>
+      </c>
+      <c r="D354" s="16">
+        <v>2023</v>
+      </c>
+      <c r="E354" s="16" t="s">
+        <v>2033</v>
+      </c>
+      <c r="F354" s="16" t="s">
+        <v>904</v>
+      </c>
+      <c r="G354" s="16" t="s">
+        <v>1160</v>
+      </c>
+      <c r="H354" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I354" s="16" t="s">
+        <v>1863</v>
+      </c>
+      <c r="J354" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="K354" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="L354" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="M354" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="N354" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="O354" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="P354" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q354" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="R354" s="16" t="s">
+        <v>2034</v>
       </c>
       <c r="S354" s="17" t="s">
         <v>2046</v>
@@ -54180,10 +54687,59 @@
       </c>
     </row>
     <row r="355" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A355" s="14"/>
-      <c r="B355" s="15"/>
+      <c r="A355" s="14" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B355" s="15" t="s">
+        <v>2030</v>
+      </c>
       <c r="C355" s="16" t="s">
         <v>2032</v>
+      </c>
+      <c r="D355" s="16">
+        <v>2023</v>
+      </c>
+      <c r="E355" s="16" t="s">
+        <v>2033</v>
+      </c>
+      <c r="F355" s="16" t="s">
+        <v>904</v>
+      </c>
+      <c r="G355" s="16" t="s">
+        <v>1160</v>
+      </c>
+      <c r="H355" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I355" s="16" t="s">
+        <v>1863</v>
+      </c>
+      <c r="J355" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="K355" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="L355" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="M355" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="N355" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="O355" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="P355" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q355" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="R355" s="16" t="s">
+        <v>2034</v>
       </c>
       <c r="S355" s="17" t="s">
         <v>2047</v>
@@ -54262,10 +54818,59 @@
       </c>
     </row>
     <row r="356" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A356" s="14"/>
-      <c r="B356" s="15"/>
+      <c r="A356" s="14" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B356" s="15" t="s">
+        <v>2030</v>
+      </c>
       <c r="C356" s="16" t="s">
         <v>2032</v>
+      </c>
+      <c r="D356" s="16">
+        <v>2023</v>
+      </c>
+      <c r="E356" s="16" t="s">
+        <v>2033</v>
+      </c>
+      <c r="F356" s="16" t="s">
+        <v>904</v>
+      </c>
+      <c r="G356" s="16" t="s">
+        <v>1160</v>
+      </c>
+      <c r="H356" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I356" s="16" t="s">
+        <v>1863</v>
+      </c>
+      <c r="J356" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="K356" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="L356" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="M356" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="N356" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="O356" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="P356" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q356" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="R356" s="16" t="s">
+        <v>2034</v>
       </c>
       <c r="S356" s="17" t="s">
         <v>2049</v>
@@ -54344,10 +54949,59 @@
       </c>
     </row>
     <row r="357" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A357" s="14"/>
-      <c r="B357" s="15"/>
+      <c r="A357" s="14" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B357" s="15" t="s">
+        <v>2030</v>
+      </c>
       <c r="C357" s="16" t="s">
         <v>2032</v>
+      </c>
+      <c r="D357" s="16">
+        <v>2023</v>
+      </c>
+      <c r="E357" s="16" t="s">
+        <v>2033</v>
+      </c>
+      <c r="F357" s="16" t="s">
+        <v>904</v>
+      </c>
+      <c r="G357" s="16" t="s">
+        <v>1160</v>
+      </c>
+      <c r="H357" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I357" s="16" t="s">
+        <v>1863</v>
+      </c>
+      <c r="J357" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="K357" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="L357" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="M357" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="N357" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="O357" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="P357" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q357" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="R357" s="16" t="s">
+        <v>2034</v>
       </c>
       <c r="S357" s="17" t="s">
         <v>2050</v>
@@ -54423,10 +55077,59 @@
       </c>
     </row>
     <row r="358" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A358" s="14"/>
-      <c r="B358" s="15"/>
+      <c r="A358" s="14" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B358" s="15" t="s">
+        <v>2030</v>
+      </c>
       <c r="C358" s="16" t="s">
         <v>2032</v>
+      </c>
+      <c r="D358" s="16">
+        <v>2023</v>
+      </c>
+      <c r="E358" s="16" t="s">
+        <v>2033</v>
+      </c>
+      <c r="F358" s="16" t="s">
+        <v>904</v>
+      </c>
+      <c r="G358" s="16" t="s">
+        <v>1160</v>
+      </c>
+      <c r="H358" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I358" s="16" t="s">
+        <v>1863</v>
+      </c>
+      <c r="J358" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="K358" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="L358" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="M358" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="N358" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="O358" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="P358" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q358" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="R358" s="16" t="s">
+        <v>2034</v>
       </c>
       <c r="S358" s="17" t="s">
         <v>2051</v>
@@ -54505,10 +55208,59 @@
       </c>
     </row>
     <row r="359" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A359" s="14"/>
-      <c r="B359" s="15"/>
+      <c r="A359" s="14" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B359" s="15" t="s">
+        <v>2030</v>
+      </c>
       <c r="C359" s="16" t="s">
         <v>2032</v>
+      </c>
+      <c r="D359" s="16">
+        <v>2023</v>
+      </c>
+      <c r="E359" s="16" t="s">
+        <v>2033</v>
+      </c>
+      <c r="F359" s="16" t="s">
+        <v>904</v>
+      </c>
+      <c r="G359" s="16" t="s">
+        <v>1160</v>
+      </c>
+      <c r="H359" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I359" s="16" t="s">
+        <v>1863</v>
+      </c>
+      <c r="J359" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="K359" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="L359" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="M359" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="N359" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="O359" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="P359" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q359" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="R359" s="16" t="s">
+        <v>2034</v>
       </c>
       <c r="S359" s="17" t="s">
         <v>2052</v>
@@ -54587,10 +55339,59 @@
       </c>
     </row>
     <row r="360" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A360" s="14"/>
-      <c r="B360" s="15"/>
+      <c r="A360" s="14" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B360" s="15" t="s">
+        <v>2030</v>
+      </c>
       <c r="C360" s="16" t="s">
         <v>2032</v>
+      </c>
+      <c r="D360" s="16">
+        <v>2023</v>
+      </c>
+      <c r="E360" s="16" t="s">
+        <v>2033</v>
+      </c>
+      <c r="F360" s="16" t="s">
+        <v>904</v>
+      </c>
+      <c r="G360" s="16" t="s">
+        <v>1160</v>
+      </c>
+      <c r="H360" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I360" s="16" t="s">
+        <v>1863</v>
+      </c>
+      <c r="J360" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="K360" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="L360" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="M360" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="N360" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="O360" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="P360" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q360" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="R360" s="16" t="s">
+        <v>2034</v>
       </c>
       <c r="S360" s="17" t="s">
         <v>2053</v>
@@ -54669,10 +55470,59 @@
       </c>
     </row>
     <row r="361" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A361" s="14"/>
-      <c r="B361" s="15"/>
+      <c r="A361" s="14" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B361" s="15" t="s">
+        <v>2030</v>
+      </c>
       <c r="C361" s="16" t="s">
         <v>2032</v>
+      </c>
+      <c r="D361" s="16">
+        <v>2023</v>
+      </c>
+      <c r="E361" s="16" t="s">
+        <v>2033</v>
+      </c>
+      <c r="F361" s="16" t="s">
+        <v>904</v>
+      </c>
+      <c r="G361" s="16" t="s">
+        <v>1160</v>
+      </c>
+      <c r="H361" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I361" s="16" t="s">
+        <v>1863</v>
+      </c>
+      <c r="J361" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="K361" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="L361" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="M361" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="N361" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="O361" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="P361" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q361" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="R361" s="16" t="s">
+        <v>2034</v>
       </c>
       <c r="S361" s="17" t="s">
         <v>2054</v>
@@ -54751,10 +55601,59 @@
       </c>
     </row>
     <row r="362" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A362" s="14"/>
-      <c r="B362" s="15"/>
+      <c r="A362" s="14" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B362" s="15" t="s">
+        <v>2030</v>
+      </c>
       <c r="C362" s="16" t="s">
         <v>2032</v>
+      </c>
+      <c r="D362" s="16">
+        <v>2023</v>
+      </c>
+      <c r="E362" s="16" t="s">
+        <v>2033</v>
+      </c>
+      <c r="F362" s="16" t="s">
+        <v>904</v>
+      </c>
+      <c r="G362" s="16" t="s">
+        <v>1160</v>
+      </c>
+      <c r="H362" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I362" s="16" t="s">
+        <v>1863</v>
+      </c>
+      <c r="J362" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="K362" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="L362" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="M362" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="N362" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="O362" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="P362" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q362" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="R362" s="16" t="s">
+        <v>2034</v>
       </c>
       <c r="S362" s="17" t="s">
         <v>2055</v>
@@ -54833,10 +55732,59 @@
       </c>
     </row>
     <row r="363" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A363" s="14"/>
-      <c r="B363" s="15"/>
+      <c r="A363" s="14" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B363" s="15" t="s">
+        <v>2030</v>
+      </c>
       <c r="C363" s="16" t="s">
         <v>2032</v>
+      </c>
+      <c r="D363" s="16">
+        <v>2023</v>
+      </c>
+      <c r="E363" s="16" t="s">
+        <v>2033</v>
+      </c>
+      <c r="F363" s="16" t="s">
+        <v>904</v>
+      </c>
+      <c r="G363" s="16" t="s">
+        <v>1160</v>
+      </c>
+      <c r="H363" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I363" s="16" t="s">
+        <v>1863</v>
+      </c>
+      <c r="J363" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="K363" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="L363" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="M363" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="N363" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="O363" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="P363" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q363" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="R363" s="16" t="s">
+        <v>2034</v>
       </c>
       <c r="S363" s="17" t="s">
         <v>2056</v>
@@ -54915,10 +55863,59 @@
       </c>
     </row>
     <row r="364" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A364" s="14"/>
-      <c r="B364" s="15"/>
+      <c r="A364" s="14" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B364" s="15" t="s">
+        <v>2030</v>
+      </c>
       <c r="C364" s="16" t="s">
         <v>2032</v>
+      </c>
+      <c r="D364" s="16">
+        <v>2023</v>
+      </c>
+      <c r="E364" s="16" t="s">
+        <v>2033</v>
+      </c>
+      <c r="F364" s="16" t="s">
+        <v>904</v>
+      </c>
+      <c r="G364" s="16" t="s">
+        <v>1160</v>
+      </c>
+      <c r="H364" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I364" s="16" t="s">
+        <v>1863</v>
+      </c>
+      <c r="J364" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="K364" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="L364" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="M364" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="N364" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="O364" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="P364" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q364" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="R364" s="16" t="s">
+        <v>2034</v>
       </c>
       <c r="S364" s="17" t="s">
         <v>2057</v>
@@ -54997,10 +55994,59 @@
       </c>
     </row>
     <row r="365" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A365" s="14"/>
-      <c r="B365" s="15"/>
+      <c r="A365" s="14" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B365" s="15" t="s">
+        <v>2030</v>
+      </c>
       <c r="C365" s="16" t="s">
         <v>2032</v>
+      </c>
+      <c r="D365" s="16">
+        <v>2023</v>
+      </c>
+      <c r="E365" s="16" t="s">
+        <v>2033</v>
+      </c>
+      <c r="F365" s="16" t="s">
+        <v>904</v>
+      </c>
+      <c r="G365" s="16" t="s">
+        <v>1160</v>
+      </c>
+      <c r="H365" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I365" s="16" t="s">
+        <v>1863</v>
+      </c>
+      <c r="J365" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="K365" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="L365" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="M365" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="N365" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="O365" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="P365" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q365" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="R365" s="16" t="s">
+        <v>2034</v>
       </c>
       <c r="S365" s="17" t="s">
         <v>2058</v>
@@ -55079,10 +56125,59 @@
       </c>
     </row>
     <row r="366" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A366" s="14"/>
-      <c r="B366" s="15"/>
+      <c r="A366" s="14" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B366" s="15" t="s">
+        <v>2030</v>
+      </c>
       <c r="C366" s="16" t="s">
         <v>2032</v>
+      </c>
+      <c r="D366" s="16">
+        <v>2023</v>
+      </c>
+      <c r="E366" s="16" t="s">
+        <v>2033</v>
+      </c>
+      <c r="F366" s="16" t="s">
+        <v>904</v>
+      </c>
+      <c r="G366" s="16" t="s">
+        <v>1160</v>
+      </c>
+      <c r="H366" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I366" s="16" t="s">
+        <v>1863</v>
+      </c>
+      <c r="J366" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="K366" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="L366" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="M366" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="N366" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="O366" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="P366" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q366" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="R366" s="16" t="s">
+        <v>2034</v>
       </c>
       <c r="S366" s="17" t="s">
         <v>2059</v>
@@ -55161,10 +56256,59 @@
       </c>
     </row>
     <row r="367" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A367" s="14"/>
-      <c r="B367" s="15"/>
+      <c r="A367" s="14" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B367" s="15" t="s">
+        <v>2030</v>
+      </c>
       <c r="C367" s="16" t="s">
         <v>2032</v>
+      </c>
+      <c r="D367" s="16">
+        <v>2023</v>
+      </c>
+      <c r="E367" s="16" t="s">
+        <v>2033</v>
+      </c>
+      <c r="F367" s="16" t="s">
+        <v>904</v>
+      </c>
+      <c r="G367" s="16" t="s">
+        <v>1160</v>
+      </c>
+      <c r="H367" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I367" s="16" t="s">
+        <v>1863</v>
+      </c>
+      <c r="J367" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="K367" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="L367" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="M367" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="N367" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="O367" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="P367" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q367" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="R367" s="16" t="s">
+        <v>2034</v>
       </c>
       <c r="S367" s="17" t="s">
         <v>2060</v>
@@ -55243,10 +56387,59 @@
       </c>
     </row>
     <row r="368" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A368" s="14"/>
-      <c r="B368" s="15"/>
+      <c r="A368" s="14" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B368" s="15" t="s">
+        <v>2030</v>
+      </c>
       <c r="C368" s="16" t="s">
         <v>2032</v>
+      </c>
+      <c r="D368" s="16">
+        <v>2023</v>
+      </c>
+      <c r="E368" s="16" t="s">
+        <v>2033</v>
+      </c>
+      <c r="F368" s="16" t="s">
+        <v>904</v>
+      </c>
+      <c r="G368" s="16" t="s">
+        <v>1160</v>
+      </c>
+      <c r="H368" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I368" s="16" t="s">
+        <v>1863</v>
+      </c>
+      <c r="J368" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="K368" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="L368" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="M368" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="N368" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="O368" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="P368" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q368" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="R368" s="16" t="s">
+        <v>2034</v>
       </c>
       <c r="S368" s="17" t="s">
         <v>2061</v>
@@ -55325,10 +56518,59 @@
       </c>
     </row>
     <row r="369" spans="1:49" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A369" s="14"/>
-      <c r="B369" s="15"/>
+      <c r="A369" s="14" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B369" s="15" t="s">
+        <v>2030</v>
+      </c>
       <c r="C369" s="16" t="s">
         <v>2032</v>
+      </c>
+      <c r="D369" s="16">
+        <v>2023</v>
+      </c>
+      <c r="E369" s="16" t="s">
+        <v>2033</v>
+      </c>
+      <c r="F369" s="16" t="s">
+        <v>904</v>
+      </c>
+      <c r="G369" s="16" t="s">
+        <v>1160</v>
+      </c>
+      <c r="H369" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I369" s="16" t="s">
+        <v>1863</v>
+      </c>
+      <c r="J369" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="K369" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="L369" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="M369" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="N369" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="O369" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="P369" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q369" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="R369" s="16" t="s">
+        <v>2034</v>
       </c>
       <c r="S369" s="17" t="s">
         <v>2062</v>
@@ -55407,10 +56649,59 @@
       </c>
     </row>
     <row r="370" spans="1:49" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A370" s="14"/>
-      <c r="B370" s="15"/>
+      <c r="A370" s="14" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B370" s="15" t="s">
+        <v>2030</v>
+      </c>
       <c r="C370" s="16" t="s">
         <v>2032</v>
+      </c>
+      <c r="D370" s="16">
+        <v>2023</v>
+      </c>
+      <c r="E370" s="16" t="s">
+        <v>2033</v>
+      </c>
+      <c r="F370" s="16" t="s">
+        <v>904</v>
+      </c>
+      <c r="G370" s="16" t="s">
+        <v>1160</v>
+      </c>
+      <c r="H370" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I370" s="16" t="s">
+        <v>1863</v>
+      </c>
+      <c r="J370" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="K370" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="L370" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="M370" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="N370" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="O370" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="P370" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q370" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="R370" s="16" t="s">
+        <v>2034</v>
       </c>
       <c r="S370" s="17" t="s">
         <v>2063</v>
@@ -55489,10 +56780,59 @@
       </c>
     </row>
     <row r="371" spans="1:49" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A371" s="14"/>
-      <c r="B371" s="15"/>
+      <c r="A371" s="14" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B371" s="15" t="s">
+        <v>2030</v>
+      </c>
       <c r="C371" s="16" t="s">
         <v>2032</v>
+      </c>
+      <c r="D371" s="16">
+        <v>2023</v>
+      </c>
+      <c r="E371" s="16" t="s">
+        <v>2033</v>
+      </c>
+      <c r="F371" s="16" t="s">
+        <v>904</v>
+      </c>
+      <c r="G371" s="16" t="s">
+        <v>1160</v>
+      </c>
+      <c r="H371" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I371" s="16" t="s">
+        <v>1863</v>
+      </c>
+      <c r="J371" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="K371" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="L371" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="M371" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="N371" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="O371" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="P371" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q371" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="R371" s="16" t="s">
+        <v>2034</v>
       </c>
       <c r="S371" s="17" t="s">
         <v>2064</v>
@@ -55571,10 +56911,59 @@
       </c>
     </row>
     <row r="372" spans="1:49" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A372" s="14"/>
-      <c r="B372" s="15"/>
+      <c r="A372" s="14" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B372" s="15" t="s">
+        <v>2030</v>
+      </c>
       <c r="C372" s="16" t="s">
         <v>2032</v>
+      </c>
+      <c r="D372" s="16">
+        <v>2023</v>
+      </c>
+      <c r="E372" s="16" t="s">
+        <v>2033</v>
+      </c>
+      <c r="F372" s="16" t="s">
+        <v>904</v>
+      </c>
+      <c r="G372" s="16" t="s">
+        <v>1160</v>
+      </c>
+      <c r="H372" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I372" s="16" t="s">
+        <v>1863</v>
+      </c>
+      <c r="J372" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="K372" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="L372" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="M372" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="N372" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="O372" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="P372" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q372" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="R372" s="16" t="s">
+        <v>2034</v>
       </c>
       <c r="S372" s="17" t="s">
         <v>2065</v>
@@ -55653,10 +57042,59 @@
       </c>
     </row>
     <row r="373" spans="1:49" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A373" s="14"/>
-      <c r="B373" s="15"/>
+      <c r="A373" s="14" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B373" s="15" t="s">
+        <v>2030</v>
+      </c>
       <c r="C373" s="16" t="s">
         <v>2032</v>
+      </c>
+      <c r="D373" s="16">
+        <v>2023</v>
+      </c>
+      <c r="E373" s="16" t="s">
+        <v>2033</v>
+      </c>
+      <c r="F373" s="16" t="s">
+        <v>904</v>
+      </c>
+      <c r="G373" s="16" t="s">
+        <v>1160</v>
+      </c>
+      <c r="H373" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I373" s="16" t="s">
+        <v>1863</v>
+      </c>
+      <c r="J373" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="K373" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="L373" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="M373" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="N373" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="O373" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="P373" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q373" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="R373" s="16" t="s">
+        <v>2034</v>
       </c>
       <c r="S373" s="17" t="s">
         <v>2066</v>
@@ -55735,10 +57173,59 @@
       </c>
     </row>
     <row r="374" spans="1:49" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A374" s="14"/>
-      <c r="B374" s="15"/>
+      <c r="A374" s="14" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B374" s="15" t="s">
+        <v>2030</v>
+      </c>
       <c r="C374" s="16" t="s">
         <v>2032</v>
+      </c>
+      <c r="D374" s="16">
+        <v>2023</v>
+      </c>
+      <c r="E374" s="16" t="s">
+        <v>2033</v>
+      </c>
+      <c r="F374" s="16" t="s">
+        <v>904</v>
+      </c>
+      <c r="G374" s="16" t="s">
+        <v>1160</v>
+      </c>
+      <c r="H374" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I374" s="16" t="s">
+        <v>1863</v>
+      </c>
+      <c r="J374" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="K374" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="L374" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="M374" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="N374" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="O374" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="P374" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q374" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="R374" s="16" t="s">
+        <v>2034</v>
       </c>
       <c r="S374" s="17" t="s">
         <v>2067</v>
@@ -55817,10 +57304,59 @@
       </c>
     </row>
     <row r="375" spans="1:49" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A375" s="14"/>
-      <c r="B375" s="15"/>
+      <c r="A375" s="14" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B375" s="15" t="s">
+        <v>2030</v>
+      </c>
       <c r="C375" s="16" t="s">
         <v>2032</v>
+      </c>
+      <c r="D375" s="16">
+        <v>2023</v>
+      </c>
+      <c r="E375" s="16" t="s">
+        <v>2033</v>
+      </c>
+      <c r="F375" s="16" t="s">
+        <v>904</v>
+      </c>
+      <c r="G375" s="16" t="s">
+        <v>1160</v>
+      </c>
+      <c r="H375" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I375" s="16" t="s">
+        <v>1863</v>
+      </c>
+      <c r="J375" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="K375" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="L375" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="M375" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="N375" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="O375" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="P375" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q375" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="R375" s="16" t="s">
+        <v>2034</v>
       </c>
       <c r="S375" s="17" t="s">
         <v>2068</v>
@@ -55899,10 +57435,59 @@
       </c>
     </row>
     <row r="376" spans="1:49" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A376" s="14"/>
-      <c r="B376" s="15"/>
+      <c r="A376" s="14" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B376" s="15" t="s">
+        <v>2030</v>
+      </c>
       <c r="C376" s="16" t="s">
         <v>2032</v>
+      </c>
+      <c r="D376" s="16">
+        <v>2023</v>
+      </c>
+      <c r="E376" s="16" t="s">
+        <v>2033</v>
+      </c>
+      <c r="F376" s="16" t="s">
+        <v>904</v>
+      </c>
+      <c r="G376" s="16" t="s">
+        <v>1160</v>
+      </c>
+      <c r="H376" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I376" s="16" t="s">
+        <v>1863</v>
+      </c>
+      <c r="J376" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="K376" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="L376" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="M376" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="N376" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="O376" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="P376" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q376" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="R376" s="16" t="s">
+        <v>2034</v>
       </c>
       <c r="S376" s="17" t="s">
         <v>2069</v>
@@ -55981,10 +57566,59 @@
       </c>
     </row>
     <row r="377" spans="1:49" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A377" s="14"/>
-      <c r="B377" s="15"/>
+      <c r="A377" s="14" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B377" s="15" t="s">
+        <v>2030</v>
+      </c>
       <c r="C377" s="16" t="s">
         <v>2032</v>
+      </c>
+      <c r="D377" s="27">
+        <v>2023</v>
+      </c>
+      <c r="E377" s="16" t="s">
+        <v>2033</v>
+      </c>
+      <c r="F377" s="16" t="s">
+        <v>904</v>
+      </c>
+      <c r="G377" s="16" t="s">
+        <v>1160</v>
+      </c>
+      <c r="H377" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I377" s="16" t="s">
+        <v>1863</v>
+      </c>
+      <c r="J377" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="K377" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="L377" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="M377" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="N377" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="O377" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="P377" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q377" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="R377" s="16" t="s">
+        <v>2034</v>
       </c>
       <c r="S377" s="17" t="s">
         <v>2070</v>
@@ -56063,10 +57697,59 @@
       </c>
     </row>
     <row r="378" spans="1:49" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A378" s="14"/>
-      <c r="B378" s="15"/>
+      <c r="A378" s="14" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B378" s="15" t="s">
+        <v>2030</v>
+      </c>
       <c r="C378" s="16" t="s">
         <v>2032</v>
+      </c>
+      <c r="D378" s="27">
+        <v>2023</v>
+      </c>
+      <c r="E378" s="16" t="s">
+        <v>2033</v>
+      </c>
+      <c r="F378" s="16" t="s">
+        <v>904</v>
+      </c>
+      <c r="G378" s="16" t="s">
+        <v>1160</v>
+      </c>
+      <c r="H378" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I378" s="16" t="s">
+        <v>1863</v>
+      </c>
+      <c r="J378" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="K378" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="L378" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="M378" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="N378" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="O378" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="P378" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q378" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="R378" s="16" t="s">
+        <v>2034</v>
       </c>
       <c r="S378" s="17" t="s">
         <v>2071</v>
@@ -56145,10 +57828,59 @@
       </c>
     </row>
     <row r="379" spans="1:49" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A379" s="14"/>
-      <c r="B379" s="15"/>
+      <c r="A379" s="14" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B379" s="15" t="s">
+        <v>2030</v>
+      </c>
       <c r="C379" s="16" t="s">
         <v>2032</v>
+      </c>
+      <c r="D379" s="27">
+        <v>2023</v>
+      </c>
+      <c r="E379" s="16" t="s">
+        <v>2033</v>
+      </c>
+      <c r="F379" s="16" t="s">
+        <v>904</v>
+      </c>
+      <c r="G379" s="16" t="s">
+        <v>1160</v>
+      </c>
+      <c r="H379" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I379" s="16" t="s">
+        <v>1863</v>
+      </c>
+      <c r="J379" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="K379" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="L379" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="M379" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="N379" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="O379" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="P379" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q379" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="R379" s="16" t="s">
+        <v>2034</v>
       </c>
       <c r="S379" s="17" t="s">
         <v>2072</v>
@@ -56224,10 +57956,59 @@
       </c>
     </row>
     <row r="380" spans="1:49" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A380" s="14"/>
-      <c r="B380" s="15"/>
+      <c r="A380" s="14" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B380" s="15" t="s">
+        <v>2030</v>
+      </c>
       <c r="C380" s="16" t="s">
         <v>2032</v>
+      </c>
+      <c r="D380" s="27">
+        <v>2023</v>
+      </c>
+      <c r="E380" s="16" t="s">
+        <v>2033</v>
+      </c>
+      <c r="F380" s="16" t="s">
+        <v>904</v>
+      </c>
+      <c r="G380" s="16" t="s">
+        <v>1160</v>
+      </c>
+      <c r="H380" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I380" s="16" t="s">
+        <v>1863</v>
+      </c>
+      <c r="J380" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="K380" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="L380" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="M380" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="N380" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="O380" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="P380" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q380" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="R380" s="16" t="s">
+        <v>2034</v>
       </c>
       <c r="S380" s="17" t="s">
         <v>2073</v>
@@ -56303,10 +58084,59 @@
       </c>
     </row>
     <row r="381" spans="1:49" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A381" s="14"/>
-      <c r="B381" s="15"/>
+      <c r="A381" s="14" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B381" s="15" t="s">
+        <v>2030</v>
+      </c>
       <c r="C381" s="16" t="s">
         <v>2032</v>
+      </c>
+      <c r="D381" s="27">
+        <v>2023</v>
+      </c>
+      <c r="E381" s="16" t="s">
+        <v>2033</v>
+      </c>
+      <c r="F381" s="16" t="s">
+        <v>904</v>
+      </c>
+      <c r="G381" s="16" t="s">
+        <v>1160</v>
+      </c>
+      <c r="H381" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I381" s="16" t="s">
+        <v>1863</v>
+      </c>
+      <c r="J381" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="K381" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="L381" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="M381" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="N381" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="O381" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="P381" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q381" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="R381" s="16" t="s">
+        <v>2034</v>
       </c>
       <c r="S381" s="17" t="s">
         <v>2074</v>
@@ -56382,10 +58212,59 @@
       </c>
     </row>
     <row r="382" spans="1:49" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A382" s="14"/>
-      <c r="B382" s="15"/>
+      <c r="A382" s="14" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B382" s="15" t="s">
+        <v>2030</v>
+      </c>
       <c r="C382" s="16" t="s">
         <v>2032</v>
+      </c>
+      <c r="D382" s="27">
+        <v>2023</v>
+      </c>
+      <c r="E382" s="16" t="s">
+        <v>2033</v>
+      </c>
+      <c r="F382" s="16" t="s">
+        <v>904</v>
+      </c>
+      <c r="G382" s="16" t="s">
+        <v>1160</v>
+      </c>
+      <c r="H382" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I382" s="16" t="s">
+        <v>1863</v>
+      </c>
+      <c r="J382" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="K382" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="L382" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="M382" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="N382" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="O382" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="P382" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q382" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="R382" s="16" t="s">
+        <v>2034</v>
       </c>
       <c r="S382" s="17" t="s">
         <v>2075</v>
@@ -56461,10 +58340,59 @@
       </c>
     </row>
     <row r="383" spans="1:49" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A383" s="14"/>
-      <c r="B383" s="15"/>
+      <c r="A383" s="14" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B383" s="15" t="s">
+        <v>2030</v>
+      </c>
       <c r="C383" s="16" t="s">
         <v>2032</v>
+      </c>
+      <c r="D383" s="27">
+        <v>2023</v>
+      </c>
+      <c r="E383" s="16" t="s">
+        <v>2033</v>
+      </c>
+      <c r="F383" s="16" t="s">
+        <v>904</v>
+      </c>
+      <c r="G383" s="16" t="s">
+        <v>1160</v>
+      </c>
+      <c r="H383" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I383" s="16" t="s">
+        <v>1863</v>
+      </c>
+      <c r="J383" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="K383" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="L383" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="M383" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="N383" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="O383" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="P383" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q383" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="R383" s="16" t="s">
+        <v>2034</v>
       </c>
       <c r="S383" s="17" t="s">
         <v>2076</v>
@@ -56540,10 +58468,59 @@
       </c>
     </row>
     <row r="384" spans="1:49" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A384" s="14"/>
-      <c r="B384" s="15"/>
+      <c r="A384" s="14" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B384" s="15" t="s">
+        <v>2030</v>
+      </c>
       <c r="C384" s="16" t="s">
         <v>2032</v>
+      </c>
+      <c r="D384" s="27">
+        <v>2023</v>
+      </c>
+      <c r="E384" s="16" t="s">
+        <v>2033</v>
+      </c>
+      <c r="F384" s="16" t="s">
+        <v>904</v>
+      </c>
+      <c r="G384" s="16" t="s">
+        <v>1160</v>
+      </c>
+      <c r="H384" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I384" s="16" t="s">
+        <v>1863</v>
+      </c>
+      <c r="J384" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="K384" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="L384" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="M384" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="N384" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="O384" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="P384" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q384" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="R384" s="16" t="s">
+        <v>2034</v>
       </c>
       <c r="S384" s="17" t="s">
         <v>2077</v>
@@ -56618,11 +58595,60 @@
         <v>2213</v>
       </c>
     </row>
-    <row r="385" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A385" s="14"/>
-      <c r="B385" s="15"/>
+    <row r="385" spans="1:50" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A385" s="14" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B385" s="15" t="s">
+        <v>2030</v>
+      </c>
       <c r="C385" s="16" t="s">
         <v>2032</v>
+      </c>
+      <c r="D385" s="27">
+        <v>2023</v>
+      </c>
+      <c r="E385" s="16" t="s">
+        <v>2033</v>
+      </c>
+      <c r="F385" s="16" t="s">
+        <v>904</v>
+      </c>
+      <c r="G385" s="16" t="s">
+        <v>1160</v>
+      </c>
+      <c r="H385" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I385" s="16" t="s">
+        <v>1863</v>
+      </c>
+      <c r="J385" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="K385" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="L385" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="M385" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="N385" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="O385" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="P385" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q385" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="R385" s="16" t="s">
+        <v>2034</v>
       </c>
       <c r="S385" s="17" t="s">
         <v>2078</v>
@@ -56697,11 +58723,60 @@
         <v>2217</v>
       </c>
     </row>
-    <row r="386" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A386" s="14"/>
-      <c r="B386" s="15"/>
+    <row r="386" spans="1:50" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A386" s="14" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B386" s="15" t="s">
+        <v>2030</v>
+      </c>
       <c r="C386" s="16" t="s">
         <v>2032</v>
+      </c>
+      <c r="D386" s="27">
+        <v>2023</v>
+      </c>
+      <c r="E386" s="16" t="s">
+        <v>2033</v>
+      </c>
+      <c r="F386" s="16" t="s">
+        <v>904</v>
+      </c>
+      <c r="G386" s="16" t="s">
+        <v>1160</v>
+      </c>
+      <c r="H386" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I386" s="16" t="s">
+        <v>1863</v>
+      </c>
+      <c r="J386" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="K386" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="L386" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="M386" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="N386" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="O386" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="P386" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q386" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="R386" s="16" t="s">
+        <v>2034</v>
       </c>
       <c r="S386" s="17" t="s">
         <v>2079</v>
@@ -56773,11 +58848,60 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="387" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A387" s="14"/>
-      <c r="B387" s="15"/>
+    <row r="387" spans="1:50" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A387" s="14" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B387" s="15" t="s">
+        <v>2030</v>
+      </c>
       <c r="C387" s="16" t="s">
         <v>2032</v>
+      </c>
+      <c r="D387" s="27">
+        <v>2023</v>
+      </c>
+      <c r="E387" s="16" t="s">
+        <v>2033</v>
+      </c>
+      <c r="F387" s="16" t="s">
+        <v>904</v>
+      </c>
+      <c r="G387" s="16" t="s">
+        <v>1160</v>
+      </c>
+      <c r="H387" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I387" s="16" t="s">
+        <v>1863</v>
+      </c>
+      <c r="J387" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="K387" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="L387" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="M387" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="N387" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="O387" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="P387" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q387" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="R387" s="16" t="s">
+        <v>2034</v>
       </c>
       <c r="S387" s="17" t="s">
         <v>2048</v>
@@ -56837,7 +58961,7 @@
         <v>2224</v>
       </c>
     </row>
-    <row r="388" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:50" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A388" s="21" t="s">
         <v>1858</v>
       </c>
@@ -56895,8 +59019,8 @@
       <c r="S388" s="24" t="s">
         <v>2102</v>
       </c>
-      <c r="T388" s="24"/>
-      <c r="U388" s="24"/>
+      <c r="T388" s="19"/>
+      <c r="U388" s="19"/>
       <c r="V388" s="23" t="s">
         <v>63</v>
       </c>
@@ -56921,7 +59045,7 @@
       <c r="AE388" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="AF388" s="24"/>
+      <c r="AF388" s="19"/>
       <c r="AG388" s="24">
         <v>0.46</v>
       </c>
@@ -56966,6 +59090,2584 @@
       </c>
       <c r="AV388" s="23" t="s">
         <v>2112</v>
+      </c>
+    </row>
+    <row r="389" spans="1:50" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A389" s="21" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B389" s="22" t="s">
+        <v>2080</v>
+      </c>
+      <c r="C389" s="23" t="s">
+        <v>2103</v>
+      </c>
+      <c r="D389" s="23">
+        <v>2017</v>
+      </c>
+      <c r="E389" s="23" t="s">
+        <v>2104</v>
+      </c>
+      <c r="F389" s="23" t="s">
+        <v>904</v>
+      </c>
+      <c r="G389" s="23" t="s">
+        <v>1160</v>
+      </c>
+      <c r="H389" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="I389" s="23" t="s">
+        <v>858</v>
+      </c>
+      <c r="J389" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="K389" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="L389" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="M389" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="N389" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="O389" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="P389" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q389" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="R389" s="23" t="s">
+        <v>2105</v>
+      </c>
+      <c r="S389" s="24" t="s">
+        <v>2226</v>
+      </c>
+      <c r="T389" s="19"/>
+      <c r="U389" s="19"/>
+      <c r="V389" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="W389" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="X389" s="23" t="s">
+        <v>266</v>
+      </c>
+      <c r="Y389" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z389" s="23" t="s">
+        <v>2229</v>
+      </c>
+      <c r="AA389" s="23" t="s">
+        <v>2230</v>
+      </c>
+      <c r="AB389" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD389" s="23" t="s">
+        <v>2231</v>
+      </c>
+      <c r="AE389" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF389" s="19"/>
+      <c r="AG389" s="24">
+        <v>0.71</v>
+      </c>
+      <c r="AH389" s="23">
+        <v>0.18112244899999999</v>
+      </c>
+      <c r="AI389" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ389" s="23">
+        <v>0.36</v>
+      </c>
+      <c r="AK389" s="23">
+        <v>1.07</v>
+      </c>
+      <c r="AL389" s="23">
+        <v>0.95</v>
+      </c>
+      <c r="AN389" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO389" s="23" t="s">
+        <v>2232</v>
+      </c>
+      <c r="AQ389" s="23" t="s">
+        <v>1839</v>
+      </c>
+      <c r="AR389" s="23" t="s">
+        <v>2233</v>
+      </c>
+      <c r="AS389" s="23">
+        <v>7</v>
+      </c>
+      <c r="AU389" s="23" t="s">
+        <v>2234</v>
+      </c>
+      <c r="AV389" s="23" t="s">
+        <v>2235</v>
+      </c>
+    </row>
+    <row r="390" spans="1:50" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A390" s="21" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B390" s="22" t="s">
+        <v>2080</v>
+      </c>
+      <c r="C390" s="23" t="s">
+        <v>2103</v>
+      </c>
+      <c r="D390" s="23">
+        <v>2017</v>
+      </c>
+      <c r="E390" s="23" t="s">
+        <v>2104</v>
+      </c>
+      <c r="F390" s="23" t="s">
+        <v>904</v>
+      </c>
+      <c r="G390" s="23" t="s">
+        <v>1160</v>
+      </c>
+      <c r="H390" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="I390" s="23" t="s">
+        <v>858</v>
+      </c>
+      <c r="J390" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="K390" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="L390" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="M390" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="N390" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="O390" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="P390" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q390" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="R390" s="23" t="s">
+        <v>2105</v>
+      </c>
+      <c r="S390" s="24" t="s">
+        <v>2227</v>
+      </c>
+      <c r="T390" s="19"/>
+      <c r="U390" s="19"/>
+      <c r="V390" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="W390" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="X390" s="23" t="s">
+        <v>266</v>
+      </c>
+      <c r="Y390" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z390" s="23" t="s">
+        <v>2229</v>
+      </c>
+      <c r="AA390" s="23" t="s">
+        <v>2236</v>
+      </c>
+      <c r="AB390" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD390" s="23" t="s">
+        <v>2231</v>
+      </c>
+      <c r="AE390" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF390" s="19"/>
+      <c r="AG390" s="24">
+        <v>0.16</v>
+      </c>
+      <c r="AH390" s="23">
+        <v>0.26785714290000001</v>
+      </c>
+      <c r="AI390" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ390" s="23">
+        <v>-0.36</v>
+      </c>
+      <c r="AK390" s="23">
+        <v>0.69</v>
+      </c>
+      <c r="AL390" s="23">
+        <v>0.95</v>
+      </c>
+      <c r="AN390" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO390" s="23" t="s">
+        <v>2232</v>
+      </c>
+      <c r="AQ390" s="23" t="s">
+        <v>1837</v>
+      </c>
+      <c r="AR390" s="23" t="s">
+        <v>2237</v>
+      </c>
+      <c r="AS390" s="23">
+        <v>6</v>
+      </c>
+      <c r="AU390" s="23" t="s">
+        <v>2238</v>
+      </c>
+      <c r="AV390" s="23" t="s">
+        <v>2239</v>
+      </c>
+    </row>
+    <row r="391" spans="1:50" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A391" s="21" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B391" s="22" t="s">
+        <v>2080</v>
+      </c>
+      <c r="C391" s="23" t="s">
+        <v>2103</v>
+      </c>
+      <c r="D391" s="23">
+        <v>2017</v>
+      </c>
+      <c r="E391" s="23" t="s">
+        <v>2104</v>
+      </c>
+      <c r="F391" s="23" t="s">
+        <v>904</v>
+      </c>
+      <c r="G391" s="23" t="s">
+        <v>1160</v>
+      </c>
+      <c r="H391" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="I391" s="23" t="s">
+        <v>858</v>
+      </c>
+      <c r="J391" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="K391" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="L391" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="M391" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="N391" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="O391" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="P391" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q391" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="R391" s="23" t="s">
+        <v>2105</v>
+      </c>
+      <c r="S391" s="24" t="s">
+        <v>2228</v>
+      </c>
+      <c r="T391" s="19"/>
+      <c r="U391" s="19"/>
+      <c r="V391" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="W391" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="X391" s="23" t="s">
+        <v>266</v>
+      </c>
+      <c r="Y391" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z391" s="23" t="s">
+        <v>2229</v>
+      </c>
+      <c r="AA391" s="23" t="s">
+        <v>2240</v>
+      </c>
+      <c r="AB391" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD391" s="23" t="s">
+        <v>2231</v>
+      </c>
+      <c r="AE391" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF391" s="19"/>
+      <c r="AG391" s="24">
+        <v>0.2</v>
+      </c>
+      <c r="AH391" s="23">
+        <v>0.1556122449</v>
+      </c>
+      <c r="AI391" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ391" s="23">
+        <v>-0.11</v>
+      </c>
+      <c r="AK391" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="AL391" s="23">
+        <v>0.95</v>
+      </c>
+      <c r="AN391" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO391" s="23" t="s">
+        <v>2241</v>
+      </c>
+      <c r="AQ391" s="23" t="s">
+        <v>307</v>
+      </c>
+      <c r="AR391" s="23" t="s">
+        <v>2242</v>
+      </c>
+      <c r="AS391" s="23">
+        <v>13</v>
+      </c>
+      <c r="AU391" s="23" t="s">
+        <v>2243</v>
+      </c>
+      <c r="AV391" s="23" t="s">
+        <v>2244</v>
+      </c>
+    </row>
+    <row r="392" spans="1:50" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A392" s="14" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B392" s="15" t="s">
+        <v>2245</v>
+      </c>
+      <c r="S392" s="17"/>
+      <c r="T392" s="19"/>
+      <c r="U392" s="19"/>
+      <c r="AF392" s="19"/>
+      <c r="AG392" s="17"/>
+    </row>
+    <row r="393" spans="1:50" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A393" s="14"/>
+      <c r="B393" s="15"/>
+      <c r="S393" s="17"/>
+      <c r="T393" s="19"/>
+      <c r="U393" s="19"/>
+      <c r="AF393" s="19"/>
+      <c r="AG393" s="17"/>
+    </row>
+    <row r="394" spans="1:50" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A394" s="21" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B394" s="22" t="s">
+        <v>2246</v>
+      </c>
+      <c r="C394" s="23" t="s">
+        <v>2254</v>
+      </c>
+      <c r="D394" s="23">
+        <v>2020</v>
+      </c>
+      <c r="E394" s="23" t="s">
+        <v>2255</v>
+      </c>
+      <c r="F394" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="G394" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H394" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I394" s="23" t="s">
+        <v>858</v>
+      </c>
+      <c r="J394" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="K394" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="L394" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="M394" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="N394" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="O394" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="P394" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q394" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="R394" s="28" t="s">
+        <v>2323</v>
+      </c>
+      <c r="S394" s="24" t="s">
+        <v>2247</v>
+      </c>
+      <c r="T394" s="19"/>
+      <c r="U394" s="19"/>
+      <c r="V394" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="W394" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="X394" s="23" t="s">
+        <v>266</v>
+      </c>
+      <c r="Y394" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z394" s="23" t="s">
+        <v>2267</v>
+      </c>
+      <c r="AA394" s="23" t="s">
+        <v>2268</v>
+      </c>
+      <c r="AB394" s="23" t="s">
+        <v>1855</v>
+      </c>
+      <c r="AC394" s="23" t="s">
+        <v>1856</v>
+      </c>
+      <c r="AD394" s="23" t="s">
+        <v>2269</v>
+      </c>
+      <c r="AE394" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF394" s="19"/>
+      <c r="AG394" s="24">
+        <v>0.76</v>
+      </c>
+      <c r="AH394" s="23">
+        <v>7.9081632653061201E-2</v>
+      </c>
+      <c r="AI394" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ394" s="23">
+        <v>0.6</v>
+      </c>
+      <c r="AK394" s="23">
+        <v>0.91</v>
+      </c>
+      <c r="AL394" s="23">
+        <v>0.95</v>
+      </c>
+      <c r="AN394" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO394" s="23" t="s">
+        <v>2270</v>
+      </c>
+      <c r="AQ394" s="23" t="s">
+        <v>307</v>
+      </c>
+      <c r="AR394" s="23" t="s">
+        <v>2271</v>
+      </c>
+      <c r="AS394" s="23">
+        <v>30</v>
+      </c>
+      <c r="AU394" s="23" t="s">
+        <v>2272</v>
+      </c>
+      <c r="AV394" s="23" t="s">
+        <v>2273</v>
+      </c>
+    </row>
+    <row r="395" spans="1:50" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A395" s="21" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B395" s="22" t="s">
+        <v>2246</v>
+      </c>
+      <c r="C395" s="23" t="s">
+        <v>2254</v>
+      </c>
+      <c r="D395" s="23">
+        <v>2020</v>
+      </c>
+      <c r="E395" s="23" t="s">
+        <v>2255</v>
+      </c>
+      <c r="F395" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="G395" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H395" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I395" s="23" t="s">
+        <v>858</v>
+      </c>
+      <c r="J395" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="K395" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="L395" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="M395" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="N395" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="O395" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="P395" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q395" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="R395" s="28" t="s">
+        <v>2323</v>
+      </c>
+      <c r="S395" s="24" t="s">
+        <v>2248</v>
+      </c>
+      <c r="T395" s="19"/>
+      <c r="U395" s="19"/>
+      <c r="V395" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="W395" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="X395" s="23" t="s">
+        <v>266</v>
+      </c>
+      <c r="Y395" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z395" s="23" t="s">
+        <v>2274</v>
+      </c>
+      <c r="AA395" s="23" t="s">
+        <v>2275</v>
+      </c>
+      <c r="AB395" s="23" t="s">
+        <v>1855</v>
+      </c>
+      <c r="AC395" s="23" t="s">
+        <v>1856</v>
+      </c>
+      <c r="AD395" s="23" t="s">
+        <v>2276</v>
+      </c>
+      <c r="AE395" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF395" s="19"/>
+      <c r="AG395" s="24">
+        <v>0.4</v>
+      </c>
+      <c r="AJ395" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AN395" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ395" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AS395" s="23" t="s">
+        <v>307</v>
+      </c>
+      <c r="AU395" s="23">
+        <v>4</v>
+      </c>
+      <c r="AW395" s="23" t="s">
+        <v>2272</v>
+      </c>
+      <c r="AX395" s="23" t="s">
+        <v>2277</v>
+      </c>
+    </row>
+    <row r="396" spans="1:50" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A396" s="21" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B396" s="22" t="s">
+        <v>2246</v>
+      </c>
+      <c r="C396" s="23" t="s">
+        <v>2254</v>
+      </c>
+      <c r="D396" s="23">
+        <v>2020</v>
+      </c>
+      <c r="E396" s="23" t="s">
+        <v>2255</v>
+      </c>
+      <c r="F396" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="G396" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H396" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I396" s="23" t="s">
+        <v>858</v>
+      </c>
+      <c r="J396" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="K396" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="L396" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="M396" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="N396" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="O396" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="P396" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q396" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="R396" s="28" t="s">
+        <v>2323</v>
+      </c>
+      <c r="S396" s="24" t="s">
+        <v>2249</v>
+      </c>
+      <c r="T396" s="19"/>
+      <c r="U396" s="19"/>
+      <c r="V396" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="W396" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="X396" s="23" t="s">
+        <v>266</v>
+      </c>
+      <c r="Y396" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z396" s="23" t="s">
+        <v>2274</v>
+      </c>
+      <c r="AA396" s="23" t="s">
+        <v>2278</v>
+      </c>
+      <c r="AB396" s="23" t="s">
+        <v>1855</v>
+      </c>
+      <c r="AC396" s="23" t="s">
+        <v>1856</v>
+      </c>
+      <c r="AD396" s="23" t="s">
+        <v>2279</v>
+      </c>
+      <c r="AE396" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF396" s="19"/>
+      <c r="AG396" s="24">
+        <v>0.92</v>
+      </c>
+      <c r="AJ396" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AN396" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ396" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AS396" s="23" t="s">
+        <v>307</v>
+      </c>
+      <c r="AU396" s="23">
+        <v>9</v>
+      </c>
+      <c r="AW396" s="23" t="s">
+        <v>2272</v>
+      </c>
+      <c r="AX396" s="23" t="s">
+        <v>2277</v>
+      </c>
+    </row>
+    <row r="397" spans="1:50" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A397" s="21" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B397" s="22" t="s">
+        <v>2246</v>
+      </c>
+      <c r="C397" s="23" t="s">
+        <v>2254</v>
+      </c>
+      <c r="D397" s="23">
+        <v>2020</v>
+      </c>
+      <c r="E397" s="23" t="s">
+        <v>2255</v>
+      </c>
+      <c r="F397" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="G397" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H397" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I397" s="23" t="s">
+        <v>858</v>
+      </c>
+      <c r="J397" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="K397" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="L397" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="M397" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="N397" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="O397" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="P397" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q397" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="R397" s="28" t="s">
+        <v>2323</v>
+      </c>
+      <c r="S397" s="24" t="s">
+        <v>2250</v>
+      </c>
+      <c r="T397" s="19"/>
+      <c r="U397" s="19"/>
+      <c r="V397" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="W397" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="X397" s="23" t="s">
+        <v>266</v>
+      </c>
+      <c r="Y397" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z397" s="23" t="s">
+        <v>2274</v>
+      </c>
+      <c r="AA397" s="23" t="s">
+        <v>2280</v>
+      </c>
+      <c r="AB397" s="23" t="s">
+        <v>1855</v>
+      </c>
+      <c r="AC397" s="23" t="s">
+        <v>1856</v>
+      </c>
+      <c r="AD397" s="23" t="s">
+        <v>2281</v>
+      </c>
+      <c r="AE397" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF397" s="19"/>
+      <c r="AG397" s="24">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AJ397" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AN397" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ397" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AS397" s="23" t="s">
+        <v>307</v>
+      </c>
+      <c r="AU397" s="23">
+        <v>11</v>
+      </c>
+      <c r="AW397" s="23" t="s">
+        <v>2272</v>
+      </c>
+      <c r="AX397" s="23" t="s">
+        <v>2277</v>
+      </c>
+    </row>
+    <row r="398" spans="1:50" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A398" s="21" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B398" s="22" t="s">
+        <v>2246</v>
+      </c>
+      <c r="C398" s="23" t="s">
+        <v>2254</v>
+      </c>
+      <c r="D398" s="23">
+        <v>2020</v>
+      </c>
+      <c r="E398" s="23" t="s">
+        <v>2255</v>
+      </c>
+      <c r="F398" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="G398" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H398" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I398" s="23" t="s">
+        <v>858</v>
+      </c>
+      <c r="J398" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="K398" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="L398" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="M398" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="N398" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="O398" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="P398" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q398" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="R398" s="28" t="s">
+        <v>2323</v>
+      </c>
+      <c r="S398" s="24" t="s">
+        <v>2251</v>
+      </c>
+      <c r="T398" s="19"/>
+      <c r="U398" s="19"/>
+      <c r="V398" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="W398" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="X398" s="23" t="s">
+        <v>266</v>
+      </c>
+      <c r="Y398" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z398" s="23" t="s">
+        <v>2274</v>
+      </c>
+      <c r="AA398" s="23" t="s">
+        <v>2282</v>
+      </c>
+      <c r="AB398" s="23" t="s">
+        <v>1855</v>
+      </c>
+      <c r="AC398" s="23" t="s">
+        <v>1856</v>
+      </c>
+      <c r="AD398" s="23" t="s">
+        <v>2283</v>
+      </c>
+      <c r="AE398" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF398" s="19"/>
+      <c r="AG398" s="24">
+        <v>0.42</v>
+      </c>
+      <c r="AJ398" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AN398" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ398" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AS398" s="23" t="s">
+        <v>307</v>
+      </c>
+      <c r="AU398" s="23">
+        <v>6</v>
+      </c>
+      <c r="AW398" s="23" t="s">
+        <v>2272</v>
+      </c>
+      <c r="AX398" s="23" t="s">
+        <v>2277</v>
+      </c>
+    </row>
+    <row r="399" spans="1:50" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A399" s="21" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B399" s="22" t="s">
+        <v>2246</v>
+      </c>
+      <c r="C399" s="23" t="s">
+        <v>2254</v>
+      </c>
+      <c r="D399" s="23">
+        <v>2020</v>
+      </c>
+      <c r="E399" s="23" t="s">
+        <v>2255</v>
+      </c>
+      <c r="F399" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="G399" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H399" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I399" s="23" t="s">
+        <v>858</v>
+      </c>
+      <c r="J399" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="K399" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="L399" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="M399" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="N399" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="O399" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="P399" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q399" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="R399" s="28" t="s">
+        <v>2323</v>
+      </c>
+      <c r="S399" s="24" t="s">
+        <v>2252</v>
+      </c>
+      <c r="T399" s="19"/>
+      <c r="U399" s="19"/>
+      <c r="V399" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="W399" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="X399" s="23" t="s">
+        <v>266</v>
+      </c>
+      <c r="Y399" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z399" s="23" t="s">
+        <v>2274</v>
+      </c>
+      <c r="AA399" s="23" t="s">
+        <v>2284</v>
+      </c>
+      <c r="AB399" s="23" t="s">
+        <v>1855</v>
+      </c>
+      <c r="AC399" s="23" t="s">
+        <v>1856</v>
+      </c>
+      <c r="AD399" s="23" t="s">
+        <v>2285</v>
+      </c>
+      <c r="AE399" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF399" s="19"/>
+      <c r="AG399" s="24">
+        <v>0.59</v>
+      </c>
+      <c r="AJ399" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AN399" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ399" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AS399" s="23" t="s">
+        <v>307</v>
+      </c>
+      <c r="AV399" s="23" t="s">
+        <v>2272</v>
+      </c>
+      <c r="AW399" s="23" t="s">
+        <v>2286</v>
+      </c>
+    </row>
+    <row r="400" spans="1:50" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A400" s="21" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B400" s="22" t="s">
+        <v>2246</v>
+      </c>
+      <c r="C400" s="23" t="s">
+        <v>2254</v>
+      </c>
+      <c r="D400" s="23">
+        <v>2020</v>
+      </c>
+      <c r="E400" s="23" t="s">
+        <v>2255</v>
+      </c>
+      <c r="F400" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="G400" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H400" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I400" s="23" t="s">
+        <v>858</v>
+      </c>
+      <c r="J400" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="K400" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="L400" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="M400" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="N400" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="O400" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="P400" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q400" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="R400" s="28" t="s">
+        <v>2323</v>
+      </c>
+      <c r="S400" s="24" t="s">
+        <v>2253</v>
+      </c>
+      <c r="T400" s="19"/>
+      <c r="U400" s="19"/>
+      <c r="V400" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="W400" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="X400" s="23" t="s">
+        <v>266</v>
+      </c>
+      <c r="Y400" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z400" s="23" t="s">
+        <v>2287</v>
+      </c>
+      <c r="AA400" s="23" t="s">
+        <v>2288</v>
+      </c>
+      <c r="AB400" s="23" t="s">
+        <v>1855</v>
+      </c>
+      <c r="AC400" s="23" t="s">
+        <v>1856</v>
+      </c>
+      <c r="AE400" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF400" s="19"/>
+      <c r="AG400" s="24">
+        <v>0.74</v>
+      </c>
+      <c r="AH400" s="23">
+        <v>9.18367346938775E-2</v>
+      </c>
+      <c r="AI400" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ400" s="23">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="AK400" s="23">
+        <v>0.92</v>
+      </c>
+      <c r="AL400" s="23">
+        <v>0.95</v>
+      </c>
+      <c r="AN400" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ400" s="23" t="s">
+        <v>307</v>
+      </c>
+      <c r="AS400" s="23">
+        <v>19</v>
+      </c>
+      <c r="AU400" s="23" t="s">
+        <v>2272</v>
+      </c>
+      <c r="AV400" s="23" t="s">
+        <v>2289</v>
+      </c>
+    </row>
+    <row r="401" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A401" s="21" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B401" s="22" t="s">
+        <v>2246</v>
+      </c>
+      <c r="C401" s="23" t="s">
+        <v>2254</v>
+      </c>
+      <c r="D401" s="23">
+        <v>2020</v>
+      </c>
+      <c r="E401" s="23" t="s">
+        <v>2255</v>
+      </c>
+      <c r="F401" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="G401" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H401" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I401" s="23" t="s">
+        <v>858</v>
+      </c>
+      <c r="J401" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="K401" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="L401" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="M401" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="N401" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="O401" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="P401" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q401" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="R401" s="28" t="s">
+        <v>2323</v>
+      </c>
+      <c r="S401" s="24" t="s">
+        <v>2256</v>
+      </c>
+      <c r="T401" s="19"/>
+      <c r="U401" s="19"/>
+      <c r="V401" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="W401" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="X401" s="23" t="s">
+        <v>266</v>
+      </c>
+      <c r="Y401" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z401" s="23" t="s">
+        <v>2290</v>
+      </c>
+      <c r="AA401" s="23" t="s">
+        <v>2291</v>
+      </c>
+      <c r="AB401" s="23" t="s">
+        <v>1855</v>
+      </c>
+      <c r="AC401" s="23" t="s">
+        <v>1856</v>
+      </c>
+      <c r="AE401" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF401" s="19"/>
+      <c r="AG401" s="24">
+        <v>0.73</v>
+      </c>
+      <c r="AH401" s="23">
+        <v>8.1632653061224497E-2</v>
+      </c>
+      <c r="AI401" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ401" s="23">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="AK401" s="23">
+        <v>0.89</v>
+      </c>
+      <c r="AL401" s="23">
+        <v>0.95</v>
+      </c>
+      <c r="AN401" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ401" s="23" t="s">
+        <v>307</v>
+      </c>
+      <c r="AS401" s="23">
+        <v>8</v>
+      </c>
+      <c r="AU401" s="23" t="s">
+        <v>2272</v>
+      </c>
+      <c r="AV401" s="23" t="s">
+        <v>2292</v>
+      </c>
+    </row>
+    <row r="402" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A402" s="21" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B402" s="22" t="s">
+        <v>2246</v>
+      </c>
+      <c r="C402" s="23" t="s">
+        <v>2254</v>
+      </c>
+      <c r="D402" s="23">
+        <v>2020</v>
+      </c>
+      <c r="E402" s="23" t="s">
+        <v>2255</v>
+      </c>
+      <c r="F402" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="G402" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H402" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I402" s="23" t="s">
+        <v>858</v>
+      </c>
+      <c r="J402" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="K402" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="L402" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="M402" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="N402" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="O402" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="P402" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q402" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="R402" s="28" t="s">
+        <v>2323</v>
+      </c>
+      <c r="S402" s="24" t="s">
+        <v>2257</v>
+      </c>
+      <c r="T402" s="19"/>
+      <c r="U402" s="19"/>
+      <c r="V402" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="W402" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="X402" s="23" t="s">
+        <v>266</v>
+      </c>
+      <c r="Y402" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z402" s="23" t="s">
+        <v>2293</v>
+      </c>
+      <c r="AA402" s="23" t="s">
+        <v>2294</v>
+      </c>
+      <c r="AB402" s="23" t="s">
+        <v>1855</v>
+      </c>
+      <c r="AC402" s="23" t="s">
+        <v>1856</v>
+      </c>
+      <c r="AE402" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF402" s="19"/>
+      <c r="AG402" s="24">
+        <v>0.62</v>
+      </c>
+      <c r="AH402" s="23">
+        <v>9.18367346938775E-2</v>
+      </c>
+      <c r="AI402" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ402" s="23">
+        <v>0.44</v>
+      </c>
+      <c r="AK402" s="23">
+        <v>0.8</v>
+      </c>
+      <c r="AL402" s="23">
+        <v>0.95</v>
+      </c>
+      <c r="AN402" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ402" s="23" t="s">
+        <v>307</v>
+      </c>
+      <c r="AS402" s="23">
+        <v>13</v>
+      </c>
+      <c r="AU402" s="23" t="s">
+        <v>2272</v>
+      </c>
+      <c r="AV402" s="23" t="s">
+        <v>2295</v>
+      </c>
+    </row>
+    <row r="403" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A403" s="21" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B403" s="22" t="s">
+        <v>2246</v>
+      </c>
+      <c r="C403" s="23" t="s">
+        <v>2254</v>
+      </c>
+      <c r="D403" s="23">
+        <v>2020</v>
+      </c>
+      <c r="E403" s="23" t="s">
+        <v>2255</v>
+      </c>
+      <c r="F403" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="G403" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H403" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I403" s="23" t="s">
+        <v>858</v>
+      </c>
+      <c r="J403" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="K403" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="L403" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="M403" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="N403" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="O403" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="P403" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q403" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="R403" s="28" t="s">
+        <v>2323</v>
+      </c>
+      <c r="S403" s="24" t="s">
+        <v>2258</v>
+      </c>
+      <c r="T403" s="19"/>
+      <c r="U403" s="19"/>
+      <c r="V403" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="W403" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="X403" s="23" t="s">
+        <v>266</v>
+      </c>
+      <c r="Y403" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z403" s="23" t="s">
+        <v>2296</v>
+      </c>
+      <c r="AA403" s="23" t="s">
+        <v>2297</v>
+      </c>
+      <c r="AB403" s="23" t="s">
+        <v>1855</v>
+      </c>
+      <c r="AC403" s="23" t="s">
+        <v>1856</v>
+      </c>
+      <c r="AE403" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF403" s="19"/>
+      <c r="AG403" s="24">
+        <v>0.67</v>
+      </c>
+      <c r="AH403" s="23">
+        <v>6.1224489795918297E-2</v>
+      </c>
+      <c r="AI403" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ403" s="23">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AK403" s="23">
+        <v>0.79</v>
+      </c>
+      <c r="AL403" s="23">
+        <v>0.95</v>
+      </c>
+      <c r="AN403" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ403" s="23" t="s">
+        <v>307</v>
+      </c>
+      <c r="AS403" s="23">
+        <v>21</v>
+      </c>
+      <c r="AU403" s="23" t="s">
+        <v>2272</v>
+      </c>
+      <c r="AV403" s="23" t="s">
+        <v>2298</v>
+      </c>
+    </row>
+    <row r="404" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A404" s="21" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B404" s="22" t="s">
+        <v>2246</v>
+      </c>
+      <c r="C404" s="23" t="s">
+        <v>2254</v>
+      </c>
+      <c r="D404" s="23">
+        <v>2020</v>
+      </c>
+      <c r="E404" s="23" t="s">
+        <v>2255</v>
+      </c>
+      <c r="F404" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="G404" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H404" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I404" s="23" t="s">
+        <v>858</v>
+      </c>
+      <c r="J404" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="K404" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="L404" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="M404" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="N404" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="O404" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="P404" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q404" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="R404" s="28" t="s">
+        <v>2323</v>
+      </c>
+      <c r="S404" s="24" t="s">
+        <v>2259</v>
+      </c>
+      <c r="T404" s="19"/>
+      <c r="U404" s="19"/>
+      <c r="V404" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="W404" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="X404" s="23" t="s">
+        <v>266</v>
+      </c>
+      <c r="Y404" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z404" s="23" t="s">
+        <v>2299</v>
+      </c>
+      <c r="AA404" s="23" t="s">
+        <v>2300</v>
+      </c>
+      <c r="AB404" s="23" t="s">
+        <v>1855</v>
+      </c>
+      <c r="AC404" s="23" t="s">
+        <v>1856</v>
+      </c>
+      <c r="AE404" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF404" s="19"/>
+      <c r="AG404" s="24">
+        <v>0.7</v>
+      </c>
+      <c r="AH404" s="23">
+        <v>9.4387755102040796E-2</v>
+      </c>
+      <c r="AI404" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ404" s="23">
+        <v>0.51</v>
+      </c>
+      <c r="AK404" s="23">
+        <v>0.88</v>
+      </c>
+      <c r="AL404" s="23">
+        <v>0.95</v>
+      </c>
+      <c r="AN404" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ404" s="23" t="s">
+        <v>307</v>
+      </c>
+      <c r="AS404" s="23">
+        <v>8</v>
+      </c>
+      <c r="AU404" s="23" t="s">
+        <v>2272</v>
+      </c>
+      <c r="AV404" s="23" t="s">
+        <v>2301</v>
+      </c>
+    </row>
+    <row r="405" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A405" s="21" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B405" s="22" t="s">
+        <v>2246</v>
+      </c>
+      <c r="C405" s="23" t="s">
+        <v>2254</v>
+      </c>
+      <c r="D405" s="23">
+        <v>2020</v>
+      </c>
+      <c r="E405" s="23" t="s">
+        <v>2255</v>
+      </c>
+      <c r="F405" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="G405" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H405" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I405" s="23" t="s">
+        <v>858</v>
+      </c>
+      <c r="J405" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="K405" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="L405" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="M405" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="N405" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="O405" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="P405" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q405" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="R405" s="28" t="s">
+        <v>2323</v>
+      </c>
+      <c r="S405" s="24" t="s">
+        <v>2260</v>
+      </c>
+      <c r="T405" s="19"/>
+      <c r="U405" s="19"/>
+      <c r="V405" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="W405" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="X405" s="23" t="s">
+        <v>266</v>
+      </c>
+      <c r="Y405" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z405" s="23" t="s">
+        <v>2302</v>
+      </c>
+      <c r="AA405" s="23" t="s">
+        <v>2303</v>
+      </c>
+      <c r="AB405" s="23" t="s">
+        <v>1855</v>
+      </c>
+      <c r="AC405" s="23" t="s">
+        <v>1856</v>
+      </c>
+      <c r="AE405" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF405" s="19"/>
+      <c r="AG405" s="24">
+        <v>0.59</v>
+      </c>
+      <c r="AH405" s="23">
+        <v>0.11734693877551</v>
+      </c>
+      <c r="AI405" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ405" s="23">
+        <v>0.36</v>
+      </c>
+      <c r="AK405" s="23">
+        <v>0.82</v>
+      </c>
+      <c r="AL405" s="23">
+        <v>0.95</v>
+      </c>
+      <c r="AN405" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ405" s="23" t="s">
+        <v>307</v>
+      </c>
+      <c r="AS405" s="23">
+        <v>10</v>
+      </c>
+      <c r="AU405" s="23" t="s">
+        <v>2272</v>
+      </c>
+      <c r="AV405" s="23" t="s">
+        <v>2304</v>
+      </c>
+    </row>
+    <row r="406" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A406" s="21" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B406" s="22" t="s">
+        <v>2246</v>
+      </c>
+      <c r="C406" s="23" t="s">
+        <v>2254</v>
+      </c>
+      <c r="D406" s="23">
+        <v>2020</v>
+      </c>
+      <c r="E406" s="23" t="s">
+        <v>2255</v>
+      </c>
+      <c r="F406" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="G406" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H406" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I406" s="23" t="s">
+        <v>858</v>
+      </c>
+      <c r="J406" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="K406" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="L406" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="M406" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="N406" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="O406" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="P406" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q406" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="R406" s="28" t="s">
+        <v>2323</v>
+      </c>
+      <c r="S406" s="24" t="s">
+        <v>2261</v>
+      </c>
+      <c r="T406" s="19"/>
+      <c r="U406" s="19"/>
+      <c r="V406" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="W406" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="X406" s="23" t="s">
+        <v>266</v>
+      </c>
+      <c r="Y406" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z406" s="23" t="s">
+        <v>2305</v>
+      </c>
+      <c r="AA406" s="23" t="s">
+        <v>2306</v>
+      </c>
+      <c r="AB406" s="23" t="s">
+        <v>1855</v>
+      </c>
+      <c r="AC406" s="23" t="s">
+        <v>1856</v>
+      </c>
+      <c r="AE406" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF406" s="19"/>
+      <c r="AG406" s="24">
+        <v>0.64</v>
+      </c>
+      <c r="AH406" s="23">
+        <v>7.1428571428571397E-2</v>
+      </c>
+      <c r="AI406" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ406" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="AK406" s="23">
+        <v>0.78</v>
+      </c>
+      <c r="AL406" s="23">
+        <v>0.95</v>
+      </c>
+      <c r="AN406" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ406" s="23" t="s">
+        <v>307</v>
+      </c>
+      <c r="AS406" s="23">
+        <v>18</v>
+      </c>
+      <c r="AU406" s="23" t="s">
+        <v>2272</v>
+      </c>
+      <c r="AV406" s="23" t="s">
+        <v>2307</v>
+      </c>
+    </row>
+    <row r="407" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A407" s="21" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B407" s="22" t="s">
+        <v>2246</v>
+      </c>
+      <c r="C407" s="23" t="s">
+        <v>2254</v>
+      </c>
+      <c r="D407" s="23">
+        <v>2020</v>
+      </c>
+      <c r="E407" s="23" t="s">
+        <v>2255</v>
+      </c>
+      <c r="F407" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="G407" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H407" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I407" s="23" t="s">
+        <v>858</v>
+      </c>
+      <c r="J407" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="K407" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="L407" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="M407" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="N407" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="O407" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="P407" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q407" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="R407" s="28" t="s">
+        <v>2323</v>
+      </c>
+      <c r="S407" s="24" t="s">
+        <v>2262</v>
+      </c>
+      <c r="T407" s="19"/>
+      <c r="U407" s="19"/>
+      <c r="V407" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="W407" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="X407" s="23" t="s">
+        <v>266</v>
+      </c>
+      <c r="Y407" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z407" s="23" t="s">
+        <v>2308</v>
+      </c>
+      <c r="AA407" s="23" t="s">
+        <v>2309</v>
+      </c>
+      <c r="AB407" s="23" t="s">
+        <v>1855</v>
+      </c>
+      <c r="AC407" s="23" t="s">
+        <v>1856</v>
+      </c>
+      <c r="AE407" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF407" s="19"/>
+      <c r="AG407" s="24">
+        <v>0.41</v>
+      </c>
+      <c r="AH407" s="23">
+        <v>0.11224489795918299</v>
+      </c>
+      <c r="AI407" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ407" s="23">
+        <v>0.19</v>
+      </c>
+      <c r="AK407" s="23">
+        <v>0.63</v>
+      </c>
+      <c r="AL407" s="23">
+        <v>0.95</v>
+      </c>
+      <c r="AN407" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ407" s="23" t="s">
+        <v>307</v>
+      </c>
+      <c r="AS407" s="23">
+        <v>8</v>
+      </c>
+      <c r="AU407" s="23" t="s">
+        <v>2272</v>
+      </c>
+      <c r="AV407" s="23" t="s">
+        <v>2310</v>
+      </c>
+    </row>
+    <row r="408" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A408" s="21" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B408" s="22" t="s">
+        <v>2246</v>
+      </c>
+      <c r="C408" s="23" t="s">
+        <v>2254</v>
+      </c>
+      <c r="D408" s="23">
+        <v>2020</v>
+      </c>
+      <c r="E408" s="23" t="s">
+        <v>2255</v>
+      </c>
+      <c r="F408" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="G408" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H408" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I408" s="23" t="s">
+        <v>858</v>
+      </c>
+      <c r="J408" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="K408" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="L408" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="M408" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="N408" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="O408" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="P408" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q408" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="R408" s="28" t="s">
+        <v>2323</v>
+      </c>
+      <c r="S408" s="24" t="s">
+        <v>2263</v>
+      </c>
+      <c r="T408" s="19"/>
+      <c r="U408" s="19"/>
+      <c r="V408" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="W408" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="X408" s="23" t="s">
+        <v>266</v>
+      </c>
+      <c r="Y408" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z408" s="23" t="s">
+        <v>2311</v>
+      </c>
+      <c r="AA408" s="23" t="s">
+        <v>2312</v>
+      </c>
+      <c r="AB408" s="23" t="s">
+        <v>1855</v>
+      </c>
+      <c r="AC408" s="23" t="s">
+        <v>1856</v>
+      </c>
+      <c r="AE408" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF408" s="19"/>
+      <c r="AG408" s="24">
+        <v>0.73</v>
+      </c>
+      <c r="AH408" s="23">
+        <v>9.18367346938775E-2</v>
+      </c>
+      <c r="AI408" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ408" s="23">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AK408" s="23">
+        <v>0.91</v>
+      </c>
+      <c r="AL408" s="23">
+        <v>0.95</v>
+      </c>
+      <c r="AN408" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ408" s="23" t="s">
+        <v>307</v>
+      </c>
+      <c r="AS408" s="23">
+        <v>8</v>
+      </c>
+      <c r="AU408" s="23" t="s">
+        <v>2272</v>
+      </c>
+      <c r="AV408" s="23" t="s">
+        <v>2313</v>
+      </c>
+    </row>
+    <row r="409" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A409" s="21" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B409" s="22" t="s">
+        <v>2246</v>
+      </c>
+      <c r="C409" s="23" t="s">
+        <v>2254</v>
+      </c>
+      <c r="D409" s="23">
+        <v>2020</v>
+      </c>
+      <c r="E409" s="23" t="s">
+        <v>2255</v>
+      </c>
+      <c r="F409" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="G409" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H409" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I409" s="23" t="s">
+        <v>858</v>
+      </c>
+      <c r="J409" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="K409" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="L409" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="M409" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="N409" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="O409" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="P409" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q409" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="R409" s="28" t="s">
+        <v>2323</v>
+      </c>
+      <c r="S409" s="24" t="s">
+        <v>2264</v>
+      </c>
+      <c r="T409" s="19"/>
+      <c r="U409" s="19"/>
+      <c r="V409" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="W409" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="X409" s="23" t="s">
+        <v>266</v>
+      </c>
+      <c r="Y409" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z409" s="23" t="s">
+        <v>2314</v>
+      </c>
+      <c r="AA409" s="23" t="s">
+        <v>2315</v>
+      </c>
+      <c r="AB409" s="23" t="s">
+        <v>1855</v>
+      </c>
+      <c r="AC409" s="23" t="s">
+        <v>1856</v>
+      </c>
+      <c r="AE409" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF409" s="19"/>
+      <c r="AG409" s="24">
+        <v>0.68</v>
+      </c>
+      <c r="AH409" s="23">
+        <v>6.1224489795918297E-2</v>
+      </c>
+      <c r="AI409" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ409" s="23">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="AK409" s="23">
+        <v>0.8</v>
+      </c>
+      <c r="AL409" s="23">
+        <v>0.95</v>
+      </c>
+      <c r="AN409" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ409" s="23" t="s">
+        <v>307</v>
+      </c>
+      <c r="AS409" s="23">
+        <v>19</v>
+      </c>
+      <c r="AU409" s="23" t="s">
+        <v>2272</v>
+      </c>
+      <c r="AV409" s="23" t="s">
+        <v>2316</v>
+      </c>
+    </row>
+    <row r="410" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A410" s="21" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B410" s="22" t="s">
+        <v>2246</v>
+      </c>
+      <c r="C410" s="23" t="s">
+        <v>2254</v>
+      </c>
+      <c r="D410" s="23">
+        <v>2020</v>
+      </c>
+      <c r="E410" s="23" t="s">
+        <v>2255</v>
+      </c>
+      <c r="F410" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="G410" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H410" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I410" s="23" t="s">
+        <v>858</v>
+      </c>
+      <c r="J410" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="K410" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="L410" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="M410" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="N410" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="O410" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="P410" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q410" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="R410" s="28" t="s">
+        <v>2323</v>
+      </c>
+      <c r="S410" s="24" t="s">
+        <v>2265</v>
+      </c>
+      <c r="T410" s="19"/>
+      <c r="U410" s="19"/>
+      <c r="V410" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="W410" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="X410" s="23" t="s">
+        <v>266</v>
+      </c>
+      <c r="Y410" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z410" s="23" t="s">
+        <v>2317</v>
+      </c>
+      <c r="AA410" s="23" t="s">
+        <v>2318</v>
+      </c>
+      <c r="AB410" s="23" t="s">
+        <v>1855</v>
+      </c>
+      <c r="AC410" s="23" t="s">
+        <v>1856</v>
+      </c>
+      <c r="AE410" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF410" s="19"/>
+      <c r="AG410" s="24">
+        <v>0.71</v>
+      </c>
+      <c r="AH410" s="23">
+        <v>6.8877551020408101E-2</v>
+      </c>
+      <c r="AI410" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ410" s="23">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="AK410" s="23">
+        <v>0.84</v>
+      </c>
+      <c r="AL410" s="23">
+        <v>0.95</v>
+      </c>
+      <c r="AN410" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ410" s="23" t="s">
+        <v>307</v>
+      </c>
+      <c r="AS410" s="23">
+        <v>13</v>
+      </c>
+      <c r="AU410" s="23" t="s">
+        <v>2272</v>
+      </c>
+      <c r="AV410" s="23" t="s">
+        <v>2319</v>
+      </c>
+    </row>
+    <row r="411" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A411" s="21" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B411" s="22" t="s">
+        <v>2246</v>
+      </c>
+      <c r="C411" s="23" t="s">
+        <v>2254</v>
+      </c>
+      <c r="D411" s="23">
+        <v>2020</v>
+      </c>
+      <c r="E411" s="23" t="s">
+        <v>2255</v>
+      </c>
+      <c r="F411" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="G411" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H411" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I411" s="23" t="s">
+        <v>858</v>
+      </c>
+      <c r="J411" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="K411" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="L411" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="M411" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="N411" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="O411" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="P411" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q411" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="R411" s="28" t="s">
+        <v>2323</v>
+      </c>
+      <c r="S411" s="24" t="s">
+        <v>2266</v>
+      </c>
+      <c r="T411" s="19"/>
+      <c r="U411" s="19"/>
+      <c r="V411" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="W411" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="X411" s="23" t="s">
+        <v>266</v>
+      </c>
+      <c r="Y411" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z411" s="23" t="s">
+        <v>2320</v>
+      </c>
+      <c r="AA411" s="23" t="s">
+        <v>2321</v>
+      </c>
+      <c r="AB411" s="23" t="s">
+        <v>1855</v>
+      </c>
+      <c r="AC411" s="23" t="s">
+        <v>1856</v>
+      </c>
+      <c r="AE411" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF411" s="19"/>
+      <c r="AG411" s="24">
+        <v>0.64</v>
+      </c>
+      <c r="AH411" s="23">
+        <v>6.6326530612244902E-2</v>
+      </c>
+      <c r="AI411" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ411" s="23">
+        <v>0.51</v>
+      </c>
+      <c r="AK411" s="23">
+        <v>0.77</v>
+      </c>
+      <c r="AL411" s="23">
+        <v>0.95</v>
+      </c>
+      <c r="AN411" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ411" s="23" t="s">
+        <v>307</v>
+      </c>
+      <c r="AS411" s="23">
+        <v>16</v>
+      </c>
+      <c r="AU411" s="23" t="s">
+        <v>2272</v>
+      </c>
+      <c r="AV411" s="23" t="s">
+        <v>2322</v>
       </c>
     </row>
   </sheetData>

--- a/Data/coded-Dataset.xlsx
+++ b/Data/coded-Dataset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laura/Desktop/GITHUB-METAREVIEW/Meta-review-cognitive-profiles-ADHD-Dyslexia/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D6865B6-5794-9740-A950-CDDAFB72C220}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9897DC3A-26FC-FC42-B32B-524D0792B067}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="660" windowWidth="30240" windowHeight="17200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30260" yWindow="600" windowWidth="38380" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="effect_sizes" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14675" uniqueCount="2324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14711" uniqueCount="2337">
   <si>
     <t>ID_article</t>
   </si>
@@ -7010,6 +7010,45 @@
   </si>
   <si>
     <t>Protocol PDF not provided in inputs; extraction performed using the article PDF only.; Task-design subgroup mean effect-sizes are reported without CIs/SEs; row-level CI/SE left null.; Table 3 reports multiple pooled frequency-discrimination effect sizes for subsets of studies (by moderator availability); these were extracted as additional pooled results.</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>2012_1</t>
+  </si>
+  <si>
+    <t>Single pooled estimate for procedural/sequence learning indexed by sequence learning on the serial reaction time (SRT) task; multiple within-study effects were averaged to one effect size where needed.</t>
+  </si>
+  <si>
+    <t>Sequence learning on the SRT task</t>
+  </si>
+  <si>
+    <t>Serial reaction time (SRT) task</t>
+  </si>
+  <si>
+    <t>Egger’s test of asymmetry not significant (p = .212). :contentReference[oaicite:0]{index=0}</t>
+  </si>
+  <si>
+    <t>Included studies span children to adults (e.g., adult samples present; see Table 1). :contentReference[oaicite:1]{index=1}</t>
+  </si>
+  <si>
+    <t>14 studies; 314 individuals with dyslexia and 317 typically developing controls. :contentReference[oaicite:2]{index=2}</t>
+  </si>
+  <si>
+    <t>Dyslexia vs typically developing (TD) controls on sequence learning (procedural learning) in SRT tasks. :contentReference[oaicite:3]{index=3}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The paper labels the pooled effect as an “average weighted standardized mean difference”; coded here as Standardized Mean Difference. Domain mapping is based on the paper framing this as procedural learning indexed by sequence learning on the SRT task. Publication-bias assessment is reported via Egger’s test; no tau/tau2 reported. </t>
+  </si>
+  <si>
+    <t>Lum, J. A. G.; Ullman, M. T.; Conti-Ramsden G.</t>
+  </si>
+  <si>
+    <t>Procedural learning is impaired in dyslexia: Evidence from a meta-analysis of serial reaction time studies</t>
+  </si>
+  <si>
+    <t>The article reports a single pooled meta-analytic effect size (overall weighted SMD); moderator/meta-regression results are not extracted as pooled cognitive outcomes.</t>
   </si>
 </sst>
 </file>
@@ -7486,9 +7525,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AX411"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A377" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R418" sqref="R418"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A358" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L387" sqref="L387"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -59483,20 +59522,263 @@
       <c r="B392" s="15" t="s">
         <v>2245</v>
       </c>
-      <c r="S392" s="17"/>
+      <c r="C392" s="16" t="s">
+        <v>2334</v>
+      </c>
+      <c r="D392" s="16">
+        <v>2013</v>
+      </c>
+      <c r="E392" s="16" t="s">
+        <v>2335</v>
+      </c>
+      <c r="F392" s="16" t="s">
+        <v>904</v>
+      </c>
+      <c r="G392" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H392" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I392" s="16" t="s">
+        <v>443</v>
+      </c>
+      <c r="J392" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="K392" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="L392" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="M392" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="N392" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="O392" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="P392" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q392" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="R392" s="16" t="s">
+        <v>2336</v>
+      </c>
+      <c r="S392" s="17" t="s">
+        <v>2325</v>
+      </c>
       <c r="T392" s="19"/>
       <c r="U392" s="19"/>
+      <c r="V392" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="W392" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="X392" s="16" t="s">
+        <v>266</v>
+      </c>
+      <c r="Y392" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z392" s="16" t="s">
+        <v>2326</v>
+      </c>
+      <c r="AA392" s="16" t="s">
+        <v>2327</v>
+      </c>
+      <c r="AB392" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="AC392" s="16" t="s">
+        <v>745</v>
+      </c>
+      <c r="AD392" s="16" t="s">
+        <v>2328</v>
+      </c>
+      <c r="AE392" s="16" t="s">
+        <v>112</v>
+      </c>
       <c r="AF392" s="19"/>
-      <c r="AG392" s="17"/>
+      <c r="AG392" s="17">
+        <v>0.44900000000000001</v>
+      </c>
+      <c r="AH392" s="16">
+        <v>0.124744897959183</v>
+      </c>
+      <c r="AI392" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ392" s="16">
+        <v>0.20399999999999999</v>
+      </c>
+      <c r="AK392" s="16">
+        <v>0.69299999999999995</v>
+      </c>
+      <c r="AL392" s="16">
+        <v>0.95</v>
+      </c>
+      <c r="AN392" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO392" s="16" t="s">
+        <v>2329</v>
+      </c>
+      <c r="AQ392" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="AR392" s="16" t="s">
+        <v>2330</v>
+      </c>
+      <c r="AS392" s="16">
+        <v>14</v>
+      </c>
+      <c r="AT392" s="16" t="s">
+        <v>2331</v>
+      </c>
+      <c r="AU392" s="16" t="s">
+        <v>2332</v>
+      </c>
+      <c r="AV392" s="16" t="s">
+        <v>2333</v>
+      </c>
     </row>
-    <row r="393" spans="1:50" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A393" s="14"/>
-      <c r="B393" s="15"/>
-      <c r="S393" s="17"/>
+    <row r="393" spans="1:50" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A393" s="21" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B393" s="22" t="s">
+        <v>2246</v>
+      </c>
+      <c r="C393" s="23" t="s">
+        <v>2254</v>
+      </c>
+      <c r="D393" s="23">
+        <v>2020</v>
+      </c>
+      <c r="E393" s="23" t="s">
+        <v>2255</v>
+      </c>
+      <c r="F393" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="G393" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H393" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I393" s="23" t="s">
+        <v>858</v>
+      </c>
+      <c r="J393" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="K393" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="L393" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="M393" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="N393" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="O393" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="P393" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q393" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="R393" s="28" t="s">
+        <v>2323</v>
+      </c>
+      <c r="S393" s="24" t="s">
+        <v>2247</v>
+      </c>
       <c r="T393" s="19"/>
       <c r="U393" s="19"/>
+      <c r="V393" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="W393" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="X393" s="23" t="s">
+        <v>266</v>
+      </c>
+      <c r="Y393" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z393" s="23" t="s">
+        <v>2267</v>
+      </c>
+      <c r="AA393" s="23" t="s">
+        <v>2268</v>
+      </c>
+      <c r="AB393" s="23" t="s">
+        <v>1855</v>
+      </c>
+      <c r="AC393" s="23" t="s">
+        <v>1856</v>
+      </c>
+      <c r="AD393" s="23" t="s">
+        <v>2269</v>
+      </c>
+      <c r="AE393" s="23" t="s">
+        <v>54</v>
+      </c>
       <c r="AF393" s="19"/>
-      <c r="AG393" s="17"/>
+      <c r="AG393" s="24">
+        <v>0.76</v>
+      </c>
+      <c r="AH393" s="23">
+        <v>7.9081632653061201E-2</v>
+      </c>
+      <c r="AI393" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ393" s="23">
+        <v>0.6</v>
+      </c>
+      <c r="AK393" s="23">
+        <v>0.91</v>
+      </c>
+      <c r="AL393" s="23">
+        <v>0.95</v>
+      </c>
+      <c r="AN393" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO393" s="23" t="s">
+        <v>2270</v>
+      </c>
+      <c r="AQ393" s="23" t="s">
+        <v>307</v>
+      </c>
+      <c r="AR393" s="23" t="s">
+        <v>2271</v>
+      </c>
+      <c r="AS393" s="23">
+        <v>30</v>
+      </c>
+      <c r="AU393" s="23" t="s">
+        <v>2272</v>
+      </c>
+      <c r="AV393" s="23" t="s">
+        <v>2273</v>
+      </c>
     </row>
     <row r="394" spans="1:50" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A394" s="21" t="s">
@@ -59554,7 +59836,7 @@
         <v>2323</v>
       </c>
       <c r="S394" s="24" t="s">
-        <v>2247</v>
+        <v>2248</v>
       </c>
       <c r="T394" s="19"/>
       <c r="U394" s="19"/>
@@ -59571,10 +59853,10 @@
         <v>52</v>
       </c>
       <c r="Z394" s="23" t="s">
-        <v>2267</v>
+        <v>2274</v>
       </c>
       <c r="AA394" s="23" t="s">
-        <v>2268</v>
+        <v>2275</v>
       </c>
       <c r="AB394" s="23" t="s">
         <v>1855</v>
@@ -59583,50 +59865,35 @@
         <v>1856</v>
       </c>
       <c r="AD394" s="23" t="s">
-        <v>2269</v>
+        <v>2276</v>
       </c>
       <c r="AE394" s="23" t="s">
         <v>54</v>
       </c>
       <c r="AF394" s="19"/>
       <c r="AG394" s="24">
-        <v>0.76</v>
-      </c>
-      <c r="AH394" s="23">
-        <v>7.9081632653061201E-2</v>
-      </c>
-      <c r="AI394" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="AJ394" s="23">
-        <v>0.6</v>
-      </c>
-      <c r="AK394" s="23">
-        <v>0.91</v>
-      </c>
-      <c r="AL394" s="23">
-        <v>0.95</v>
+        <v>0.4</v>
+      </c>
+      <c r="AJ394" s="23" t="s">
+        <v>56</v>
       </c>
       <c r="AN394" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="AO394" s="23" t="s">
-        <v>2270</v>
-      </c>
       <c r="AQ394" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AS394" s="23" t="s">
         <v>307</v>
       </c>
-      <c r="AR394" s="23" t="s">
-        <v>2271</v>
-      </c>
-      <c r="AS394" s="23">
-        <v>30</v>
-      </c>
-      <c r="AU394" s="23" t="s">
+      <c r="AU394" s="23">
+        <v>4</v>
+      </c>
+      <c r="AW394" s="23" t="s">
         <v>2272</v>
       </c>
-      <c r="AV394" s="23" t="s">
-        <v>2273</v>
+      <c r="AX394" s="23" t="s">
+        <v>2277</v>
       </c>
     </row>
     <row r="395" spans="1:50" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -59685,7 +59952,7 @@
         <v>2323</v>
       </c>
       <c r="S395" s="24" t="s">
-        <v>2248</v>
+        <v>2249</v>
       </c>
       <c r="T395" s="19"/>
       <c r="U395" s="19"/>
@@ -59705,7 +59972,7 @@
         <v>2274</v>
       </c>
       <c r="AA395" s="23" t="s">
-        <v>2275</v>
+        <v>2278</v>
       </c>
       <c r="AB395" s="23" t="s">
         <v>1855</v>
@@ -59714,14 +59981,14 @@
         <v>1856</v>
       </c>
       <c r="AD395" s="23" t="s">
-        <v>2276</v>
+        <v>2279</v>
       </c>
       <c r="AE395" s="23" t="s">
         <v>54</v>
       </c>
       <c r="AF395" s="19"/>
       <c r="AG395" s="24">
-        <v>0.4</v>
+        <v>0.92</v>
       </c>
       <c r="AJ395" s="23" t="s">
         <v>56</v>
@@ -59736,7 +60003,7 @@
         <v>307</v>
       </c>
       <c r="AU395" s="23">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AW395" s="23" t="s">
         <v>2272</v>
@@ -59801,7 +60068,7 @@
         <v>2323</v>
       </c>
       <c r="S396" s="24" t="s">
-        <v>2249</v>
+        <v>2250</v>
       </c>
       <c r="T396" s="19"/>
       <c r="U396" s="19"/>
@@ -59821,7 +60088,7 @@
         <v>2274</v>
       </c>
       <c r="AA396" s="23" t="s">
-        <v>2278</v>
+        <v>2280</v>
       </c>
       <c r="AB396" s="23" t="s">
         <v>1855</v>
@@ -59830,14 +60097,14 @@
         <v>1856</v>
       </c>
       <c r="AD396" s="23" t="s">
-        <v>2279</v>
+        <v>2281</v>
       </c>
       <c r="AE396" s="23" t="s">
         <v>54</v>
       </c>
       <c r="AF396" s="19"/>
       <c r="AG396" s="24">
-        <v>0.92</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AJ396" s="23" t="s">
         <v>56</v>
@@ -59852,7 +60119,7 @@
         <v>307</v>
       </c>
       <c r="AU396" s="23">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AW396" s="23" t="s">
         <v>2272</v>
@@ -59917,7 +60184,7 @@
         <v>2323</v>
       </c>
       <c r="S397" s="24" t="s">
-        <v>2250</v>
+        <v>2251</v>
       </c>
       <c r="T397" s="19"/>
       <c r="U397" s="19"/>
@@ -59937,7 +60204,7 @@
         <v>2274</v>
       </c>
       <c r="AA397" s="23" t="s">
-        <v>2280</v>
+        <v>2282</v>
       </c>
       <c r="AB397" s="23" t="s">
         <v>1855</v>
@@ -59946,14 +60213,14 @@
         <v>1856</v>
       </c>
       <c r="AD397" s="23" t="s">
-        <v>2281</v>
+        <v>2283</v>
       </c>
       <c r="AE397" s="23" t="s">
         <v>54</v>
       </c>
       <c r="AF397" s="19"/>
       <c r="AG397" s="24">
-        <v>1.1000000000000001</v>
+        <v>0.42</v>
       </c>
       <c r="AJ397" s="23" t="s">
         <v>56</v>
@@ -59968,7 +60235,7 @@
         <v>307</v>
       </c>
       <c r="AU397" s="23">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="AW397" s="23" t="s">
         <v>2272</v>
@@ -60033,7 +60300,7 @@
         <v>2323</v>
       </c>
       <c r="S398" s="24" t="s">
-        <v>2251</v>
+        <v>2252</v>
       </c>
       <c r="T398" s="19"/>
       <c r="U398" s="19"/>
@@ -60053,7 +60320,7 @@
         <v>2274</v>
       </c>
       <c r="AA398" s="23" t="s">
-        <v>2282</v>
+        <v>2284</v>
       </c>
       <c r="AB398" s="23" t="s">
         <v>1855</v>
@@ -60062,14 +60329,14 @@
         <v>1856</v>
       </c>
       <c r="AD398" s="23" t="s">
-        <v>2283</v>
+        <v>2285</v>
       </c>
       <c r="AE398" s="23" t="s">
         <v>54</v>
       </c>
       <c r="AF398" s="19"/>
       <c r="AG398" s="24">
-        <v>0.42</v>
+        <v>0.59</v>
       </c>
       <c r="AJ398" s="23" t="s">
         <v>56</v>
@@ -60083,14 +60350,11 @@
       <c r="AS398" s="23" t="s">
         <v>307</v>
       </c>
-      <c r="AU398" s="23">
-        <v>6</v>
+      <c r="AV398" s="23" t="s">
+        <v>2272</v>
       </c>
       <c r="AW398" s="23" t="s">
-        <v>2272</v>
-      </c>
-      <c r="AX398" s="23" t="s">
-        <v>2277</v>
+        <v>2286</v>
       </c>
     </row>
     <row r="399" spans="1:50" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -60149,7 +60413,7 @@
         <v>2323</v>
       </c>
       <c r="S399" s="24" t="s">
-        <v>2252</v>
+        <v>2253</v>
       </c>
       <c r="T399" s="19"/>
       <c r="U399" s="19"/>
@@ -60166,10 +60430,10 @@
         <v>52</v>
       </c>
       <c r="Z399" s="23" t="s">
-        <v>2274</v>
+        <v>2287</v>
       </c>
       <c r="AA399" s="23" t="s">
-        <v>2284</v>
+        <v>2288</v>
       </c>
       <c r="AB399" s="23" t="s">
         <v>1855</v>
@@ -60177,33 +60441,42 @@
       <c r="AC399" s="23" t="s">
         <v>1856</v>
       </c>
-      <c r="AD399" s="23" t="s">
-        <v>2285</v>
-      </c>
       <c r="AE399" s="23" t="s">
         <v>54</v>
       </c>
       <c r="AF399" s="19"/>
       <c r="AG399" s="24">
-        <v>0.59</v>
-      </c>
-      <c r="AJ399" s="23" t="s">
-        <v>56</v>
+        <v>0.74</v>
+      </c>
+      <c r="AH399" s="23">
+        <v>9.18367346938775E-2</v>
+      </c>
+      <c r="AI399" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ399" s="23">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="AK399" s="23">
+        <v>0.92</v>
+      </c>
+      <c r="AL399" s="23">
+        <v>0.95</v>
       </c>
       <c r="AN399" s="23" t="s">
         <v>56</v>
       </c>
       <c r="AQ399" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="AS399" s="23" t="s">
         <v>307</v>
       </c>
+      <c r="AS399" s="23">
+        <v>19</v>
+      </c>
+      <c r="AU399" s="23" t="s">
+        <v>2272</v>
+      </c>
       <c r="AV399" s="23" t="s">
-        <v>2272</v>
-      </c>
-      <c r="AW399" s="23" t="s">
-        <v>2286</v>
+        <v>2289</v>
       </c>
     </row>
     <row r="400" spans="1:50" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -60262,7 +60535,7 @@
         <v>2323</v>
       </c>
       <c r="S400" s="24" t="s">
-        <v>2253</v>
+        <v>2256</v>
       </c>
       <c r="T400" s="19"/>
       <c r="U400" s="19"/>
@@ -60279,10 +60552,10 @@
         <v>52</v>
       </c>
       <c r="Z400" s="23" t="s">
-        <v>2287</v>
+        <v>2290</v>
       </c>
       <c r="AA400" s="23" t="s">
-        <v>2288</v>
+        <v>2291</v>
       </c>
       <c r="AB400" s="23" t="s">
         <v>1855</v>
@@ -60295,19 +60568,19 @@
       </c>
       <c r="AF400" s="19"/>
       <c r="AG400" s="24">
-        <v>0.74</v>
+        <v>0.73</v>
       </c>
       <c r="AH400" s="23">
-        <v>9.18367346938775E-2</v>
+        <v>8.1632653061224497E-2</v>
       </c>
       <c r="AI400" s="23" t="s">
         <v>55</v>
       </c>
       <c r="AJ400" s="23">
-        <v>0.56000000000000005</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="AK400" s="23">
-        <v>0.92</v>
+        <v>0.89</v>
       </c>
       <c r="AL400" s="23">
         <v>0.95</v>
@@ -60319,13 +60592,13 @@
         <v>307</v>
       </c>
       <c r="AS400" s="23">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="AU400" s="23" t="s">
         <v>2272</v>
       </c>
       <c r="AV400" s="23" t="s">
-        <v>2289</v>
+        <v>2292</v>
       </c>
     </row>
     <row r="401" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -60384,7 +60657,7 @@
         <v>2323</v>
       </c>
       <c r="S401" s="24" t="s">
-        <v>2256</v>
+        <v>2257</v>
       </c>
       <c r="T401" s="19"/>
       <c r="U401" s="19"/>
@@ -60401,10 +60674,10 @@
         <v>52</v>
       </c>
       <c r="Z401" s="23" t="s">
-        <v>2290</v>
+        <v>2293</v>
       </c>
       <c r="AA401" s="23" t="s">
-        <v>2291</v>
+        <v>2294</v>
       </c>
       <c r="AB401" s="23" t="s">
         <v>1855</v>
@@ -60417,19 +60690,19 @@
       </c>
       <c r="AF401" s="19"/>
       <c r="AG401" s="24">
-        <v>0.73</v>
+        <v>0.62</v>
       </c>
       <c r="AH401" s="23">
-        <v>8.1632653061224497E-2</v>
+        <v>9.18367346938775E-2</v>
       </c>
       <c r="AI401" s="23" t="s">
         <v>55</v>
       </c>
       <c r="AJ401" s="23">
-        <v>0.56999999999999995</v>
+        <v>0.44</v>
       </c>
       <c r="AK401" s="23">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AL401" s="23">
         <v>0.95</v>
@@ -60441,13 +60714,13 @@
         <v>307</v>
       </c>
       <c r="AS401" s="23">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AU401" s="23" t="s">
         <v>2272</v>
       </c>
       <c r="AV401" s="23" t="s">
-        <v>2292</v>
+        <v>2295</v>
       </c>
     </row>
     <row r="402" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -60506,7 +60779,7 @@
         <v>2323</v>
       </c>
       <c r="S402" s="24" t="s">
-        <v>2257</v>
+        <v>2258</v>
       </c>
       <c r="T402" s="19"/>
       <c r="U402" s="19"/>
@@ -60523,10 +60796,10 @@
         <v>52</v>
       </c>
       <c r="Z402" s="23" t="s">
-        <v>2293</v>
+        <v>2296</v>
       </c>
       <c r="AA402" s="23" t="s">
-        <v>2294</v>
+        <v>2297</v>
       </c>
       <c r="AB402" s="23" t="s">
         <v>1855</v>
@@ -60539,19 +60812,19 @@
       </c>
       <c r="AF402" s="19"/>
       <c r="AG402" s="24">
-        <v>0.62</v>
+        <v>0.67</v>
       </c>
       <c r="AH402" s="23">
-        <v>9.18367346938775E-2</v>
+        <v>6.1224489795918297E-2</v>
       </c>
       <c r="AI402" s="23" t="s">
         <v>55</v>
       </c>
       <c r="AJ402" s="23">
-        <v>0.44</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="AK402" s="23">
-        <v>0.8</v>
+        <v>0.79</v>
       </c>
       <c r="AL402" s="23">
         <v>0.95</v>
@@ -60563,13 +60836,13 @@
         <v>307</v>
       </c>
       <c r="AS402" s="23">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AU402" s="23" t="s">
         <v>2272</v>
       </c>
       <c r="AV402" s="23" t="s">
-        <v>2295</v>
+        <v>2298</v>
       </c>
     </row>
     <row r="403" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -60628,7 +60901,7 @@
         <v>2323</v>
       </c>
       <c r="S403" s="24" t="s">
-        <v>2258</v>
+        <v>2259</v>
       </c>
       <c r="T403" s="19"/>
       <c r="U403" s="19"/>
@@ -60645,10 +60918,10 @@
         <v>52</v>
       </c>
       <c r="Z403" s="23" t="s">
-        <v>2296</v>
+        <v>2299</v>
       </c>
       <c r="AA403" s="23" t="s">
-        <v>2297</v>
+        <v>2300</v>
       </c>
       <c r="AB403" s="23" t="s">
         <v>1855</v>
@@ -60661,19 +60934,19 @@
       </c>
       <c r="AF403" s="19"/>
       <c r="AG403" s="24">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AH403" s="23">
-        <v>6.1224489795918297E-2</v>
+        <v>9.4387755102040796E-2</v>
       </c>
       <c r="AI403" s="23" t="s">
         <v>55</v>
       </c>
       <c r="AJ403" s="23">
-        <v>0.55000000000000004</v>
+        <v>0.51</v>
       </c>
       <c r="AK403" s="23">
-        <v>0.79</v>
+        <v>0.88</v>
       </c>
       <c r="AL403" s="23">
         <v>0.95</v>
@@ -60685,13 +60958,13 @@
         <v>307</v>
       </c>
       <c r="AS403" s="23">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="AU403" s="23" t="s">
         <v>2272</v>
       </c>
       <c r="AV403" s="23" t="s">
-        <v>2298</v>
+        <v>2301</v>
       </c>
     </row>
     <row r="404" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -60750,7 +61023,7 @@
         <v>2323</v>
       </c>
       <c r="S404" s="24" t="s">
-        <v>2259</v>
+        <v>2260</v>
       </c>
       <c r="T404" s="19"/>
       <c r="U404" s="19"/>
@@ -60767,10 +61040,10 @@
         <v>52</v>
       </c>
       <c r="Z404" s="23" t="s">
-        <v>2299</v>
+        <v>2302</v>
       </c>
       <c r="AA404" s="23" t="s">
-        <v>2300</v>
+        <v>2303</v>
       </c>
       <c r="AB404" s="23" t="s">
         <v>1855</v>
@@ -60783,19 +61056,19 @@
       </c>
       <c r="AF404" s="19"/>
       <c r="AG404" s="24">
-        <v>0.7</v>
+        <v>0.59</v>
       </c>
       <c r="AH404" s="23">
-        <v>9.4387755102040796E-2</v>
+        <v>0.11734693877551</v>
       </c>
       <c r="AI404" s="23" t="s">
         <v>55</v>
       </c>
       <c r="AJ404" s="23">
-        <v>0.51</v>
+        <v>0.36</v>
       </c>
       <c r="AK404" s="23">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AL404" s="23">
         <v>0.95</v>
@@ -60807,13 +61080,13 @@
         <v>307</v>
       </c>
       <c r="AS404" s="23">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AU404" s="23" t="s">
         <v>2272</v>
       </c>
       <c r="AV404" s="23" t="s">
-        <v>2301</v>
+        <v>2304</v>
       </c>
     </row>
     <row r="405" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -60872,7 +61145,7 @@
         <v>2323</v>
       </c>
       <c r="S405" s="24" t="s">
-        <v>2260</v>
+        <v>2261</v>
       </c>
       <c r="T405" s="19"/>
       <c r="U405" s="19"/>
@@ -60889,10 +61162,10 @@
         <v>52</v>
       </c>
       <c r="Z405" s="23" t="s">
-        <v>2302</v>
+        <v>2305</v>
       </c>
       <c r="AA405" s="23" t="s">
-        <v>2303</v>
+        <v>2306</v>
       </c>
       <c r="AB405" s="23" t="s">
         <v>1855</v>
@@ -60905,19 +61178,19 @@
       </c>
       <c r="AF405" s="19"/>
       <c r="AG405" s="24">
-        <v>0.59</v>
+        <v>0.64</v>
       </c>
       <c r="AH405" s="23">
-        <v>0.11734693877551</v>
+        <v>7.1428571428571397E-2</v>
       </c>
       <c r="AI405" s="23" t="s">
         <v>55</v>
       </c>
       <c r="AJ405" s="23">
-        <v>0.36</v>
+        <v>0.5</v>
       </c>
       <c r="AK405" s="23">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AL405" s="23">
         <v>0.95</v>
@@ -60929,13 +61202,13 @@
         <v>307</v>
       </c>
       <c r="AS405" s="23">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="AU405" s="23" t="s">
         <v>2272</v>
       </c>
       <c r="AV405" s="23" t="s">
-        <v>2304</v>
+        <v>2307</v>
       </c>
     </row>
     <row r="406" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -60994,7 +61267,7 @@
         <v>2323</v>
       </c>
       <c r="S406" s="24" t="s">
-        <v>2261</v>
+        <v>2262</v>
       </c>
       <c r="T406" s="19"/>
       <c r="U406" s="19"/>
@@ -61011,10 +61284,10 @@
         <v>52</v>
       </c>
       <c r="Z406" s="23" t="s">
-        <v>2305</v>
+        <v>2308</v>
       </c>
       <c r="AA406" s="23" t="s">
-        <v>2306</v>
+        <v>2309</v>
       </c>
       <c r="AB406" s="23" t="s">
         <v>1855</v>
@@ -61027,19 +61300,19 @@
       </c>
       <c r="AF406" s="19"/>
       <c r="AG406" s="24">
-        <v>0.64</v>
+        <v>0.41</v>
       </c>
       <c r="AH406" s="23">
-        <v>7.1428571428571397E-2</v>
+        <v>0.11224489795918299</v>
       </c>
       <c r="AI406" s="23" t="s">
         <v>55</v>
       </c>
       <c r="AJ406" s="23">
-        <v>0.5</v>
+        <v>0.19</v>
       </c>
       <c r="AK406" s="23">
-        <v>0.78</v>
+        <v>0.63</v>
       </c>
       <c r="AL406" s="23">
         <v>0.95</v>
@@ -61051,13 +61324,13 @@
         <v>307</v>
       </c>
       <c r="AS406" s="23">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="AU406" s="23" t="s">
         <v>2272</v>
       </c>
       <c r="AV406" s="23" t="s">
-        <v>2307</v>
+        <v>2310</v>
       </c>
     </row>
     <row r="407" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -61116,7 +61389,7 @@
         <v>2323</v>
       </c>
       <c r="S407" s="24" t="s">
-        <v>2262</v>
+        <v>2263</v>
       </c>
       <c r="T407" s="19"/>
       <c r="U407" s="19"/>
@@ -61133,10 +61406,10 @@
         <v>52</v>
       </c>
       <c r="Z407" s="23" t="s">
-        <v>2308</v>
+        <v>2311</v>
       </c>
       <c r="AA407" s="23" t="s">
-        <v>2309</v>
+        <v>2312</v>
       </c>
       <c r="AB407" s="23" t="s">
         <v>1855</v>
@@ -61149,19 +61422,19 @@
       </c>
       <c r="AF407" s="19"/>
       <c r="AG407" s="24">
-        <v>0.41</v>
+        <v>0.73</v>
       </c>
       <c r="AH407" s="23">
-        <v>0.11224489795918299</v>
+        <v>9.18367346938775E-2</v>
       </c>
       <c r="AI407" s="23" t="s">
         <v>55</v>
       </c>
       <c r="AJ407" s="23">
-        <v>0.19</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="AK407" s="23">
-        <v>0.63</v>
+        <v>0.91</v>
       </c>
       <c r="AL407" s="23">
         <v>0.95</v>
@@ -61179,7 +61452,7 @@
         <v>2272</v>
       </c>
       <c r="AV407" s="23" t="s">
-        <v>2310</v>
+        <v>2313</v>
       </c>
     </row>
     <row r="408" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -61238,7 +61511,7 @@
         <v>2323</v>
       </c>
       <c r="S408" s="24" t="s">
-        <v>2263</v>
+        <v>2264</v>
       </c>
       <c r="T408" s="19"/>
       <c r="U408" s="19"/>
@@ -61255,10 +61528,10 @@
         <v>52</v>
       </c>
       <c r="Z408" s="23" t="s">
-        <v>2311</v>
+        <v>2314</v>
       </c>
       <c r="AA408" s="23" t="s">
-        <v>2312</v>
+        <v>2315</v>
       </c>
       <c r="AB408" s="23" t="s">
         <v>1855</v>
@@ -61271,19 +61544,19 @@
       </c>
       <c r="AF408" s="19"/>
       <c r="AG408" s="24">
-        <v>0.73</v>
+        <v>0.68</v>
       </c>
       <c r="AH408" s="23">
-        <v>9.18367346938775E-2</v>
+        <v>6.1224489795918297E-2</v>
       </c>
       <c r="AI408" s="23" t="s">
         <v>55</v>
       </c>
       <c r="AJ408" s="23">
-        <v>0.55000000000000004</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="AK408" s="23">
-        <v>0.91</v>
+        <v>0.8</v>
       </c>
       <c r="AL408" s="23">
         <v>0.95</v>
@@ -61295,13 +61568,13 @@
         <v>307</v>
       </c>
       <c r="AS408" s="23">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="AU408" s="23" t="s">
         <v>2272</v>
       </c>
       <c r="AV408" s="23" t="s">
-        <v>2313</v>
+        <v>2316</v>
       </c>
     </row>
     <row r="409" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -61360,7 +61633,7 @@
         <v>2323</v>
       </c>
       <c r="S409" s="24" t="s">
-        <v>2264</v>
+        <v>2265</v>
       </c>
       <c r="T409" s="19"/>
       <c r="U409" s="19"/>
@@ -61377,10 +61650,10 @@
         <v>52</v>
       </c>
       <c r="Z409" s="23" t="s">
-        <v>2314</v>
+        <v>2317</v>
       </c>
       <c r="AA409" s="23" t="s">
-        <v>2315</v>
+        <v>2318</v>
       </c>
       <c r="AB409" s="23" t="s">
         <v>1855</v>
@@ -61393,19 +61666,19 @@
       </c>
       <c r="AF409" s="19"/>
       <c r="AG409" s="24">
-        <v>0.68</v>
+        <v>0.71</v>
       </c>
       <c r="AH409" s="23">
-        <v>6.1224489795918297E-2</v>
+        <v>6.8877551020408101E-2</v>
       </c>
       <c r="AI409" s="23" t="s">
         <v>55</v>
       </c>
       <c r="AJ409" s="23">
-        <v>0.56000000000000005</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="AK409" s="23">
-        <v>0.8</v>
+        <v>0.84</v>
       </c>
       <c r="AL409" s="23">
         <v>0.95</v>
@@ -61417,13 +61690,13 @@
         <v>307</v>
       </c>
       <c r="AS409" s="23">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AU409" s="23" t="s">
         <v>2272</v>
       </c>
       <c r="AV409" s="23" t="s">
-        <v>2316</v>
+        <v>2319</v>
       </c>
     </row>
     <row r="410" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -61482,7 +61755,7 @@
         <v>2323</v>
       </c>
       <c r="S410" s="24" t="s">
-        <v>2265</v>
+        <v>2266</v>
       </c>
       <c r="T410" s="19"/>
       <c r="U410" s="19"/>
@@ -61499,10 +61772,10 @@
         <v>52</v>
       </c>
       <c r="Z410" s="23" t="s">
-        <v>2317</v>
+        <v>2320</v>
       </c>
       <c r="AA410" s="23" t="s">
-        <v>2318</v>
+        <v>2321</v>
       </c>
       <c r="AB410" s="23" t="s">
         <v>1855</v>
@@ -61515,19 +61788,19 @@
       </c>
       <c r="AF410" s="19"/>
       <c r="AG410" s="24">
-        <v>0.71</v>
+        <v>0.64</v>
       </c>
       <c r="AH410" s="23">
-        <v>6.8877551020408101E-2</v>
+        <v>6.6326530612244902E-2</v>
       </c>
       <c r="AI410" s="23" t="s">
         <v>55</v>
       </c>
       <c r="AJ410" s="23">
-        <v>0.56999999999999995</v>
+        <v>0.51</v>
       </c>
       <c r="AK410" s="23">
-        <v>0.84</v>
+        <v>0.77</v>
       </c>
       <c r="AL410" s="23">
         <v>0.95</v>
@@ -61539,136 +61812,27 @@
         <v>307</v>
       </c>
       <c r="AS410" s="23">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AU410" s="23" t="s">
         <v>2272</v>
       </c>
       <c r="AV410" s="23" t="s">
-        <v>2319</v>
+        <v>2322</v>
       </c>
     </row>
-    <row r="411" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A411" s="21" t="s">
+    <row r="411" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A411" s="14" t="s">
         <v>1858</v>
       </c>
-      <c r="B411" s="22" t="s">
-        <v>2246</v>
-      </c>
-      <c r="C411" s="23" t="s">
-        <v>2254</v>
-      </c>
-      <c r="D411" s="23">
-        <v>2020</v>
-      </c>
-      <c r="E411" s="23" t="s">
-        <v>2255</v>
-      </c>
-      <c r="F411" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="G411" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="H411" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="I411" s="23" t="s">
-        <v>858</v>
-      </c>
-      <c r="J411" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="K411" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="L411" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="M411" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="N411" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="O411" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="P411" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q411" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="R411" s="28" t="s">
-        <v>2323</v>
-      </c>
-      <c r="S411" s="24" t="s">
-        <v>2266</v>
-      </c>
-      <c r="T411" s="19"/>
-      <c r="U411" s="19"/>
-      <c r="V411" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="W411" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="X411" s="23" t="s">
-        <v>266</v>
-      </c>
-      <c r="Y411" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z411" s="23" t="s">
-        <v>2320</v>
-      </c>
-      <c r="AA411" s="23" t="s">
-        <v>2321</v>
-      </c>
-      <c r="AB411" s="23" t="s">
-        <v>1855</v>
-      </c>
-      <c r="AC411" s="23" t="s">
-        <v>1856</v>
-      </c>
-      <c r="AE411" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="AF411" s="19"/>
-      <c r="AG411" s="24">
-        <v>0.64</v>
-      </c>
-      <c r="AH411" s="23">
-        <v>6.6326530612244902E-2</v>
-      </c>
-      <c r="AI411" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="AJ411" s="23">
-        <v>0.51</v>
-      </c>
-      <c r="AK411" s="23">
-        <v>0.77</v>
-      </c>
-      <c r="AL411" s="23">
-        <v>0.95</v>
-      </c>
-      <c r="AN411" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="AQ411" s="23" t="s">
-        <v>307</v>
-      </c>
-      <c r="AS411" s="23">
-        <v>16</v>
-      </c>
-      <c r="AU411" s="23" t="s">
-        <v>2272</v>
-      </c>
-      <c r="AV411" s="23" t="s">
-        <v>2322</v>
-      </c>
+      <c r="B411" s="15" t="s">
+        <v>2324</v>
+      </c>
+      <c r="S411" s="17"/>
+      <c r="T411" s="17"/>
+      <c r="U411" s="17"/>
+      <c r="AF411" s="17"/>
+      <c r="AG411" s="17"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Data/coded-Dataset.xlsx
+++ b/Data/coded-Dataset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laura/Desktop/GITHUB-METAREVIEW/Meta-review-cognitive-profiles-ADHD-Dyslexia/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9897DC3A-26FC-FC42-B32B-524D0792B067}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C338673-A69D-7B4A-9A34-8E8918C64D91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30260" yWindow="600" windowWidth="38380" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14711" uniqueCount="2337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14893" uniqueCount="2369">
   <si>
     <t>ID_article</t>
   </si>
@@ -7049,6 +7049,102 @@
   </si>
   <si>
     <t>The article reports a single pooled meta-analytic effect size (overall weighted SMD); moderator/meta-regression results are not extracted as pooled cognitive outcomes.</t>
+  </si>
+  <si>
+    <t>Noordenbos, M. W.; Serniclaes, W.</t>
+  </si>
+  <si>
+    <t>Categorical Perception Deficit in Dyslexia: A Meta-Analysis</t>
+  </si>
+  <si>
+    <t>2017_1</t>
+  </si>
+  <si>
+    <t>2017_2</t>
+  </si>
+  <si>
+    <t>2017_3</t>
+  </si>
+  <si>
+    <t>2017_4</t>
+  </si>
+  <si>
+    <t>2017_5</t>
+  </si>
+  <si>
+    <t>The paper states RL-control discrimination studies were too few (three) to draw conclusions; no pooled RL discrimination effect is reported.</t>
+  </si>
+  <si>
+    <t>Chronological-age (CA) controls; identification data pooled estimate.</t>
+  </si>
+  <si>
+    <t>Categorical perception—identification data</t>
+  </si>
+  <si>
+    <t>Categorical perception (CP) task</t>
+  </si>
+  <si>
+    <t>Funnel plots revealed no indication of publication bias; Egger’s asymmetry test intercept did not significantly differ from zero (both p &gt; .05), but discrimination plot showed slight asymmetry.</t>
+  </si>
+  <si>
+    <t>Individuals with dyslexia range = 8–62; CA controls range = 8–93; RL controls range = 8–37.</t>
+  </si>
+  <si>
+    <t>Range spans children to adults across included studies.</t>
+  </si>
+  <si>
+    <t>Identification: 34 studies, more than 700 participants per group.</t>
+  </si>
+  <si>
+    <t>Dyslexia vs chronological-age (CA) controls—identification</t>
+  </si>
+  <si>
+    <t>Effect sizes were computed using Cohen’s d and corrected for small sample bias (Hedges, 1981); authors report d.</t>
+  </si>
+  <si>
+    <t>Chronological-age (CA) controls; discrimination data pooled estimate.</t>
+  </si>
+  <si>
+    <t>Categorical perception—discrimination data</t>
+  </si>
+  <si>
+    <t>Discrimination: 13 studies, more than 250 participants per group.</t>
+  </si>
+  <si>
+    <t>Dyslexia vs chronological-age (CA) controls—discrimination</t>
+  </si>
+  <si>
+    <t>Reading-level (RL) controls; identification data pooled estimate.</t>
+  </si>
+  <si>
+    <t>RL controls identification: nine studies, about 170 participants per group.</t>
+  </si>
+  <si>
+    <t>Dyslexia vs reading-level (RL) controls—identification</t>
+  </si>
+  <si>
+    <t>Pairwise comparison subset: only the 11 studies with both identification and discrimination data available; identification pooled estimate.</t>
+  </si>
+  <si>
+    <t>Categorical perception—identification data (pairwise subset)</t>
+  </si>
+  <si>
+    <t>Pairwise comparison including only the 11 studies with both identification and discrimination data available.</t>
+  </si>
+  <si>
+    <t>Dyslexia vs controls—identification (pairwise subset)</t>
+  </si>
+  <si>
+    <t>Reported as part of a pairwise comparison; CI/SE not provided for these subset pooled estimates.</t>
+  </si>
+  <si>
+    <t>Pairwise comparison subset: only the 11 studies with both identification and discrimination data available; discrimination pooled estimate.</t>
+  </si>
+  <si>
+    <t>Categorical perception—discrimination data (pairwise subset)</t>
+  </si>
+  <si>
+    <t>Dyslexia vs controls—discrimination (pairwise subset)</t>
   </si>
 </sst>
 </file>
@@ -7523,11 +7619,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AX411"/>
+  <dimension ref="A1:BE415"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A358" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L387" sqref="L387"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A372" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="W413" sqref="W413"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -60601,7 +60697,7 @@
         <v>2292</v>
       </c>
     </row>
-    <row r="401" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:57" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A401" s="21" t="s">
         <v>1858</v>
       </c>
@@ -60723,7 +60819,7 @@
         <v>2295</v>
       </c>
     </row>
-    <row r="402" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:57" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A402" s="21" t="s">
         <v>1858</v>
       </c>
@@ -60845,7 +60941,7 @@
         <v>2298</v>
       </c>
     </row>
-    <row r="403" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:57" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A403" s="21" t="s">
         <v>1858</v>
       </c>
@@ -60967,7 +61063,7 @@
         <v>2301</v>
       </c>
     </row>
-    <row r="404" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:57" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A404" s="21" t="s">
         <v>1858</v>
       </c>
@@ -61089,7 +61185,7 @@
         <v>2304</v>
       </c>
     </row>
-    <row r="405" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:57" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A405" s="21" t="s">
         <v>1858</v>
       </c>
@@ -61211,7 +61307,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="406" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:57" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A406" s="21" t="s">
         <v>1858</v>
       </c>
@@ -61333,7 +61429,7 @@
         <v>2310</v>
       </c>
     </row>
-    <row r="407" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:57" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A407" s="21" t="s">
         <v>1858</v>
       </c>
@@ -61455,7 +61551,7 @@
         <v>2313</v>
       </c>
     </row>
-    <row r="408" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:57" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A408" s="21" t="s">
         <v>1858</v>
       </c>
@@ -61577,7 +61673,7 @@
         <v>2316</v>
       </c>
     </row>
-    <row r="409" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:57" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A409" s="21" t="s">
         <v>1858</v>
       </c>
@@ -61699,7 +61795,7 @@
         <v>2319</v>
       </c>
     </row>
-    <row r="410" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:57" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A410" s="21" t="s">
         <v>1858</v>
       </c>
@@ -61821,18 +61917,663 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="411" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:57" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A411" s="14" t="s">
         <v>1858</v>
       </c>
       <c r="B411" s="15" t="s">
         <v>2324</v>
       </c>
-      <c r="S411" s="17"/>
+      <c r="C411" s="16" t="s">
+        <v>2337</v>
+      </c>
+      <c r="D411" s="16">
+        <v>2015</v>
+      </c>
+      <c r="E411" s="16" t="s">
+        <v>2338</v>
+      </c>
+      <c r="F411" s="16" t="s">
+        <v>387</v>
+      </c>
+      <c r="G411" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H411" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I411" s="16" t="s">
+        <v>858</v>
+      </c>
+      <c r="J411" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="K411" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="L411" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="M411" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="N411" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="O411" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="P411" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q411" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="R411" s="16" t="s">
+        <v>2344</v>
+      </c>
+      <c r="S411" s="17" t="s">
+        <v>2339</v>
+      </c>
       <c r="T411" s="17"/>
       <c r="U411" s="17"/>
+      <c r="V411" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="W411" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="X411" s="16" t="s">
+        <v>266</v>
+      </c>
+      <c r="Y411" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z411" s="16" t="s">
+        <v>2345</v>
+      </c>
+      <c r="AA411" s="16" t="s">
+        <v>2346</v>
+      </c>
+      <c r="AB411" s="16" t="s">
+        <v>1855</v>
+      </c>
+      <c r="AC411" s="16" t="s">
+        <v>1856</v>
+      </c>
+      <c r="AD411" s="16" t="s">
+        <v>2347</v>
+      </c>
+      <c r="AE411" s="16" t="s">
+        <v>65</v>
+      </c>
       <c r="AF411" s="17"/>
-      <c r="AG411" s="17"/>
+      <c r="AG411" s="17">
+        <v>0.66</v>
+      </c>
+      <c r="AH411" s="16">
+        <v>5.8673469387755098E-2</v>
+      </c>
+      <c r="AI411" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ411" s="16">
+        <v>0.54</v>
+      </c>
+      <c r="AK411" s="16">
+        <v>0.77</v>
+      </c>
+      <c r="AL411" s="16">
+        <v>0.95</v>
+      </c>
+      <c r="AN411" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO411" s="16" t="s">
+        <v>2348</v>
+      </c>
+      <c r="AP411" s="16" t="s">
+        <v>2349</v>
+      </c>
+      <c r="AQ411" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="AR411" s="16" t="s">
+        <v>2350</v>
+      </c>
+      <c r="AS411" s="16">
+        <v>34</v>
+      </c>
+      <c r="AT411" s="16" t="s">
+        <v>2351</v>
+      </c>
+      <c r="AU411" s="16" t="s">
+        <v>2352</v>
+      </c>
+      <c r="AV411" s="16" t="s">
+        <v>2353</v>
+      </c>
+    </row>
+    <row r="412" spans="1:57" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A412" s="14" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B412" s="15" t="s">
+        <v>2324</v>
+      </c>
+      <c r="C412" s="16" t="s">
+        <v>2337</v>
+      </c>
+      <c r="D412" s="16">
+        <v>2015</v>
+      </c>
+      <c r="E412" s="16" t="s">
+        <v>2338</v>
+      </c>
+      <c r="F412" s="16" t="s">
+        <v>387</v>
+      </c>
+      <c r="G412" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H412" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I412" s="16" t="s">
+        <v>858</v>
+      </c>
+      <c r="J412" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="K412" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="L412" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="M412" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="N412" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="O412" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="P412" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q412" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="R412" s="16" t="s">
+        <v>2344</v>
+      </c>
+      <c r="S412" s="17" t="s">
+        <v>2340</v>
+      </c>
+      <c r="T412" s="17"/>
+      <c r="U412" s="17"/>
+      <c r="V412" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="W412" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="X412" s="16" t="s">
+        <v>266</v>
+      </c>
+      <c r="Y412" s="16" t="s">
+        <v>353</v>
+      </c>
+      <c r="Z412" s="16" t="s">
+        <v>2354</v>
+      </c>
+      <c r="AA412" s="16" t="s">
+        <v>2355</v>
+      </c>
+      <c r="AB412" s="16" t="s">
+        <v>1855</v>
+      </c>
+      <c r="AC412" s="16" t="s">
+        <v>1856</v>
+      </c>
+      <c r="AD412" s="16" t="s">
+        <v>2347</v>
+      </c>
+      <c r="AE412" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF412" s="17"/>
+      <c r="AG412" s="17">
+        <v>0.86</v>
+      </c>
+      <c r="AH412" s="16">
+        <v>0.15306122448979501</v>
+      </c>
+      <c r="AI412" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ412" s="16">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="AK412" s="16">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="AL412" s="16">
+        <v>0.95</v>
+      </c>
+      <c r="AN412" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO412" s="16" t="s">
+        <v>2348</v>
+      </c>
+      <c r="AP412" s="16" t="s">
+        <v>2349</v>
+      </c>
+      <c r="AQ412" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="AR412" s="16" t="s">
+        <v>2350</v>
+      </c>
+      <c r="AS412" s="16">
+        <v>13</v>
+      </c>
+      <c r="AT412" s="16" t="s">
+        <v>2356</v>
+      </c>
+      <c r="AU412" s="16" t="s">
+        <v>2357</v>
+      </c>
+      <c r="AV412" s="16" t="s">
+        <v>2353</v>
+      </c>
+    </row>
+    <row r="413" spans="1:57" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A413" s="14" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B413" s="15" t="s">
+        <v>2324</v>
+      </c>
+      <c r="C413" s="16" t="s">
+        <v>2337</v>
+      </c>
+      <c r="D413" s="16">
+        <v>2015</v>
+      </c>
+      <c r="E413" s="16" t="s">
+        <v>2338</v>
+      </c>
+      <c r="F413" s="16" t="s">
+        <v>387</v>
+      </c>
+      <c r="G413" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H413" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I413" s="16" t="s">
+        <v>858</v>
+      </c>
+      <c r="J413" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="K413" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="L413" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="M413" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="N413" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="O413" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="P413" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q413" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="R413" s="16" t="s">
+        <v>2344</v>
+      </c>
+      <c r="S413" s="17" t="s">
+        <v>2341</v>
+      </c>
+      <c r="T413" s="17"/>
+      <c r="U413" s="17"/>
+      <c r="V413" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="W413" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="X413" s="16" t="s">
+        <v>266</v>
+      </c>
+      <c r="Y413" s="16" t="s">
+        <v>434</v>
+      </c>
+      <c r="Z413" s="16" t="s">
+        <v>2358</v>
+      </c>
+      <c r="AA413" s="16" t="s">
+        <v>2346</v>
+      </c>
+      <c r="AB413" s="16" t="s">
+        <v>1855</v>
+      </c>
+      <c r="AC413" s="16" t="s">
+        <v>1856</v>
+      </c>
+      <c r="AD413" s="16" t="s">
+        <v>2347</v>
+      </c>
+      <c r="AE413" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF413" s="17"/>
+      <c r="AG413" s="17">
+        <v>0.32</v>
+      </c>
+      <c r="AH413" s="16">
+        <v>0.10969387755102</v>
+      </c>
+      <c r="AI413" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ413" s="16">
+        <v>0.1</v>
+      </c>
+      <c r="AK413" s="16">
+        <v>0.53</v>
+      </c>
+      <c r="AL413" s="16">
+        <v>0.95</v>
+      </c>
+      <c r="AN413" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ413" s="16" t="s">
+        <v>2349</v>
+      </c>
+      <c r="AR413" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="AS413" s="16" t="s">
+        <v>2350</v>
+      </c>
+      <c r="AT413" s="16">
+        <v>9</v>
+      </c>
+      <c r="AU413" s="16" t="s">
+        <v>2359</v>
+      </c>
+      <c r="AV413" s="16" t="s">
+        <v>2360</v>
+      </c>
+      <c r="AW413" s="16" t="s">
+        <v>2353</v>
+      </c>
+    </row>
+    <row r="414" spans="1:57" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A414" s="14" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B414" s="15" t="s">
+        <v>2324</v>
+      </c>
+      <c r="C414" s="16" t="s">
+        <v>2337</v>
+      </c>
+      <c r="D414" s="16">
+        <v>2015</v>
+      </c>
+      <c r="E414" s="16" t="s">
+        <v>2338</v>
+      </c>
+      <c r="F414" s="16" t="s">
+        <v>387</v>
+      </c>
+      <c r="G414" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H414" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I414" s="16" t="s">
+        <v>858</v>
+      </c>
+      <c r="J414" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="K414" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="L414" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="M414" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="N414" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="O414" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="P414" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q414" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="R414" s="16" t="s">
+        <v>2344</v>
+      </c>
+      <c r="S414" s="17" t="s">
+        <v>2342</v>
+      </c>
+      <c r="T414" s="17"/>
+      <c r="U414" s="17"/>
+      <c r="V414" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="W414" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="X414" s="16" t="s">
+        <v>266</v>
+      </c>
+      <c r="Y414" s="16" t="s">
+        <v>1756</v>
+      </c>
+      <c r="Z414" s="16" t="s">
+        <v>2361</v>
+      </c>
+      <c r="AA414" s="16" t="s">
+        <v>2362</v>
+      </c>
+      <c r="AB414" s="16" t="s">
+        <v>1855</v>
+      </c>
+      <c r="AC414" s="16" t="s">
+        <v>1856</v>
+      </c>
+      <c r="AD414" s="16" t="s">
+        <v>2347</v>
+      </c>
+      <c r="AE414" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF414" s="17"/>
+      <c r="AG414" s="17">
+        <v>0.64</v>
+      </c>
+      <c r="AJ414" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AN414" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ414" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AT414" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AW414" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY414" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="BB414" s="16">
+        <v>11</v>
+      </c>
+      <c r="BC414" s="16" t="s">
+        <v>2363</v>
+      </c>
+      <c r="BD414" s="16" t="s">
+        <v>2364</v>
+      </c>
+      <c r="BE414" s="16" t="s">
+        <v>2365</v>
+      </c>
+    </row>
+    <row r="415" spans="1:57" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A415" s="14" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B415" s="15" t="s">
+        <v>2324</v>
+      </c>
+      <c r="C415" s="16" t="s">
+        <v>2337</v>
+      </c>
+      <c r="D415" s="16">
+        <v>2015</v>
+      </c>
+      <c r="E415" s="16" t="s">
+        <v>2338</v>
+      </c>
+      <c r="F415" s="16" t="s">
+        <v>387</v>
+      </c>
+      <c r="G415" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H415" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I415" s="16" t="s">
+        <v>858</v>
+      </c>
+      <c r="J415" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="K415" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="L415" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="M415" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="N415" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="O415" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="P415" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q415" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="R415" s="16" t="s">
+        <v>2344</v>
+      </c>
+      <c r="S415" s="17" t="s">
+        <v>2343</v>
+      </c>
+      <c r="T415" s="17"/>
+      <c r="U415" s="17"/>
+      <c r="V415" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="W415" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="X415" s="16" t="s">
+        <v>266</v>
+      </c>
+      <c r="Y415" s="16" t="s">
+        <v>1756</v>
+      </c>
+      <c r="Z415" s="16" t="s">
+        <v>2366</v>
+      </c>
+      <c r="AA415" s="16" t="s">
+        <v>2367</v>
+      </c>
+      <c r="AB415" s="16" t="s">
+        <v>1855</v>
+      </c>
+      <c r="AC415" s="16" t="s">
+        <v>1856</v>
+      </c>
+      <c r="AD415" s="16" t="s">
+        <v>2347</v>
+      </c>
+      <c r="AE415" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF415" s="17"/>
+      <c r="AG415" s="17">
+        <v>0.97</v>
+      </c>
+      <c r="AJ415" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AN415" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ415" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AT415" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AW415" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY415" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="BB415" s="16">
+        <v>11</v>
+      </c>
+      <c r="BC415" s="16" t="s">
+        <v>2363</v>
+      </c>
+      <c r="BD415" s="16" t="s">
+        <v>2368</v>
+      </c>
+      <c r="BE415" s="16" t="s">
+        <v>2365</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Data/coded-Dataset.xlsx
+++ b/Data/coded-Dataset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laura/Desktop/GITHUB-METAREVIEW/Meta-review-cognitive-profiles-ADHD-Dyslexia/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C338673-A69D-7B4A-9A34-8E8918C64D91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D1B7400-0854-2A41-B630-79AFB4A0D1A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30260" yWindow="600" windowWidth="38380" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14893" uniqueCount="2369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14920" uniqueCount="2381">
   <si>
     <t>ID_article</t>
   </si>
@@ -7051,6 +7051,9 @@
     <t>The article reports a single pooled meta-analytic effect size (overall weighted SMD); moderator/meta-regression results are not extracted as pooled cognitive outcomes.</t>
   </si>
   <si>
+    <t>2020</t>
+  </si>
+  <si>
     <t>Noordenbos, M. W.; Serniclaes, W.</t>
   </si>
   <si>
@@ -7145,6 +7148,39 @@
   </si>
   <si>
     <t>Dyslexia vs controls—discrimination (pairwise subset)</t>
+  </si>
+  <si>
+    <t>Gillian M. Clark; Jarrad A.G. Lum</t>
+  </si>
+  <si>
+    <t>Procedural learning in Parkinson’s disease, specific language impairment, dyslexia, schizophrenia, developmental coordination disorder, and autism spectrum disorders: A second-order meta-analysis</t>
+  </si>
+  <si>
+    <t>Brain and Cognition</t>
+  </si>
+  <si>
+    <t>Paper reports effect sizes for multiple disorders; only the dyslexia pooled estimate was extracted as protocol-relevant.</t>
+  </si>
+  <si>
+    <t>2020_1</t>
+  </si>
+  <si>
+    <t>Single pooled estimate for SRTT procedural learning performance in dyslexia vs controls (second-order meta-analysis summary for dyslexia).</t>
+  </si>
+  <si>
+    <t>SRTT performance</t>
+  </si>
+  <si>
+    <t>Serial reaction time task (SRTT)</t>
+  </si>
+  <si>
+    <t>Dyslexia group n=314; control group n=317.</t>
+  </si>
+  <si>
+    <t>Dyslexia vs controls (SRTT performance)</t>
+  </si>
+  <si>
+    <t>Effect size and CI for dyslexia extracted from Fig. 3 (forest plot).</t>
   </si>
 </sst>
 </file>
@@ -7619,11 +7655,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BE415"/>
+  <dimension ref="A1:AX416"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A372" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W413" sqref="W413"/>
+    <sheetView tabSelected="1" topLeftCell="AC1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A376" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AD418" sqref="AD418"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -60697,7 +60733,7 @@
         <v>2292</v>
       </c>
     </row>
-    <row r="401" spans="1:57" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:49" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A401" s="21" t="s">
         <v>1858</v>
       </c>
@@ -60819,7 +60855,7 @@
         <v>2295</v>
       </c>
     </row>
-    <row r="402" spans="1:57" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:49" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A402" s="21" t="s">
         <v>1858</v>
       </c>
@@ -60941,7 +60977,7 @@
         <v>2298</v>
       </c>
     </row>
-    <row r="403" spans="1:57" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:49" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A403" s="21" t="s">
         <v>1858</v>
       </c>
@@ -61063,7 +61099,7 @@
         <v>2301</v>
       </c>
     </row>
-    <row r="404" spans="1:57" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:49" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A404" s="21" t="s">
         <v>1858</v>
       </c>
@@ -61185,7 +61221,7 @@
         <v>2304</v>
       </c>
     </row>
-    <row r="405" spans="1:57" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:49" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A405" s="21" t="s">
         <v>1858</v>
       </c>
@@ -61307,7 +61343,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="406" spans="1:57" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:49" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A406" s="21" t="s">
         <v>1858</v>
       </c>
@@ -61429,7 +61465,7 @@
         <v>2310</v>
       </c>
     </row>
-    <row r="407" spans="1:57" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:49" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A407" s="21" t="s">
         <v>1858</v>
       </c>
@@ -61551,7 +61587,7 @@
         <v>2313</v>
       </c>
     </row>
-    <row r="408" spans="1:57" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:49" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A408" s="21" t="s">
         <v>1858</v>
       </c>
@@ -61673,7 +61709,7 @@
         <v>2316</v>
       </c>
     </row>
-    <row r="409" spans="1:57" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:49" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A409" s="21" t="s">
         <v>1858</v>
       </c>
@@ -61795,7 +61831,7 @@
         <v>2319</v>
       </c>
     </row>
-    <row r="410" spans="1:57" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:49" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A410" s="21" t="s">
         <v>1858</v>
       </c>
@@ -61917,7 +61953,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="411" spans="1:57" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:49" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A411" s="14" t="s">
         <v>1858</v>
       </c>
@@ -61925,13 +61961,13 @@
         <v>2324</v>
       </c>
       <c r="C411" s="16" t="s">
-        <v>2337</v>
+        <v>2338</v>
       </c>
       <c r="D411" s="16">
         <v>2015</v>
       </c>
       <c r="E411" s="16" t="s">
-        <v>2338</v>
+        <v>2339</v>
       </c>
       <c r="F411" s="16" t="s">
         <v>387</v>
@@ -61970,10 +62006,10 @@
         <v>46</v>
       </c>
       <c r="R411" s="16" t="s">
-        <v>2344</v>
+        <v>2345</v>
       </c>
       <c r="S411" s="17" t="s">
-        <v>2339</v>
+        <v>2340</v>
       </c>
       <c r="T411" s="17"/>
       <c r="U411" s="17"/>
@@ -61990,10 +62026,10 @@
         <v>52</v>
       </c>
       <c r="Z411" s="16" t="s">
-        <v>2345</v>
+        <v>2346</v>
       </c>
       <c r="AA411" s="16" t="s">
-        <v>2346</v>
+        <v>2347</v>
       </c>
       <c r="AB411" s="16" t="s">
         <v>1855</v>
@@ -62002,7 +62038,7 @@
         <v>1856</v>
       </c>
       <c r="AD411" s="16" t="s">
-        <v>2347</v>
+        <v>2348</v>
       </c>
       <c r="AE411" s="16" t="s">
         <v>65</v>
@@ -62030,31 +62066,31 @@
         <v>56</v>
       </c>
       <c r="AO411" s="16" t="s">
-        <v>2348</v>
+        <v>2349</v>
       </c>
       <c r="AP411" s="16" t="s">
-        <v>2349</v>
+        <v>2350</v>
       </c>
       <c r="AQ411" s="16" t="s">
         <v>307</v>
       </c>
       <c r="AR411" s="16" t="s">
-        <v>2350</v>
+        <v>2351</v>
       </c>
       <c r="AS411" s="16">
         <v>34</v>
       </c>
       <c r="AT411" s="16" t="s">
-        <v>2351</v>
+        <v>2352</v>
       </c>
       <c r="AU411" s="16" t="s">
-        <v>2352</v>
+        <v>2353</v>
       </c>
       <c r="AV411" s="16" t="s">
-        <v>2353</v>
+        <v>2354</v>
       </c>
     </row>
-    <row r="412" spans="1:57" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:49" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A412" s="14" t="s">
         <v>1858</v>
       </c>
@@ -62062,13 +62098,13 @@
         <v>2324</v>
       </c>
       <c r="C412" s="16" t="s">
-        <v>2337</v>
+        <v>2338</v>
       </c>
       <c r="D412" s="16">
         <v>2015</v>
       </c>
       <c r="E412" s="16" t="s">
-        <v>2338</v>
+        <v>2339</v>
       </c>
       <c r="F412" s="16" t="s">
         <v>387</v>
@@ -62107,10 +62143,10 @@
         <v>46</v>
       </c>
       <c r="R412" s="16" t="s">
-        <v>2344</v>
+        <v>2345</v>
       </c>
       <c r="S412" s="17" t="s">
-        <v>2340</v>
+        <v>2341</v>
       </c>
       <c r="T412" s="17"/>
       <c r="U412" s="17"/>
@@ -62127,10 +62163,10 @@
         <v>353</v>
       </c>
       <c r="Z412" s="16" t="s">
-        <v>2354</v>
+        <v>2355</v>
       </c>
       <c r="AA412" s="16" t="s">
-        <v>2355</v>
+        <v>2356</v>
       </c>
       <c r="AB412" s="16" t="s">
         <v>1855</v>
@@ -62139,7 +62175,7 @@
         <v>1856</v>
       </c>
       <c r="AD412" s="16" t="s">
-        <v>2347</v>
+        <v>2348</v>
       </c>
       <c r="AE412" s="16" t="s">
         <v>65</v>
@@ -62167,31 +62203,31 @@
         <v>56</v>
       </c>
       <c r="AO412" s="16" t="s">
-        <v>2348</v>
+        <v>2349</v>
       </c>
       <c r="AP412" s="16" t="s">
-        <v>2349</v>
+        <v>2350</v>
       </c>
       <c r="AQ412" s="16" t="s">
         <v>307</v>
       </c>
       <c r="AR412" s="16" t="s">
-        <v>2350</v>
+        <v>2351</v>
       </c>
       <c r="AS412" s="16">
         <v>13</v>
       </c>
       <c r="AT412" s="16" t="s">
-        <v>2356</v>
+        <v>2357</v>
       </c>
       <c r="AU412" s="16" t="s">
-        <v>2357</v>
+        <v>2358</v>
       </c>
       <c r="AV412" s="16" t="s">
-        <v>2353</v>
+        <v>2354</v>
       </c>
     </row>
-    <row r="413" spans="1:57" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:49" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A413" s="14" t="s">
         <v>1858</v>
       </c>
@@ -62199,13 +62235,13 @@
         <v>2324</v>
       </c>
       <c r="C413" s="16" t="s">
-        <v>2337</v>
+        <v>2338</v>
       </c>
       <c r="D413" s="16">
         <v>2015</v>
       </c>
       <c r="E413" s="16" t="s">
-        <v>2338</v>
+        <v>2339</v>
       </c>
       <c r="F413" s="16" t="s">
         <v>387</v>
@@ -62244,10 +62280,10 @@
         <v>46</v>
       </c>
       <c r="R413" s="16" t="s">
-        <v>2344</v>
+        <v>2345</v>
       </c>
       <c r="S413" s="17" t="s">
-        <v>2341</v>
+        <v>2342</v>
       </c>
       <c r="T413" s="17"/>
       <c r="U413" s="17"/>
@@ -62264,10 +62300,10 @@
         <v>434</v>
       </c>
       <c r="Z413" s="16" t="s">
-        <v>2358</v>
+        <v>2359</v>
       </c>
       <c r="AA413" s="16" t="s">
-        <v>2346</v>
+        <v>2347</v>
       </c>
       <c r="AB413" s="16" t="s">
         <v>1855</v>
@@ -62276,7 +62312,7 @@
         <v>1856</v>
       </c>
       <c r="AD413" s="16" t="s">
-        <v>2347</v>
+        <v>2348</v>
       </c>
       <c r="AE413" s="16" t="s">
         <v>65</v>
@@ -62303,29 +62339,32 @@
       <c r="AN413" s="16" t="s">
         <v>56</v>
       </c>
+      <c r="AP413" s="16" t="s">
+        <v>2350</v>
+      </c>
       <c r="AQ413" s="16" t="s">
-        <v>2349</v>
+        <v>307</v>
       </c>
       <c r="AR413" s="16" t="s">
-        <v>307</v>
-      </c>
-      <c r="AS413" s="16" t="s">
-        <v>2350</v>
-      </c>
-      <c r="AT413" s="16">
+        <v>2351</v>
+      </c>
+      <c r="AS413" s="16">
         <v>9</v>
       </c>
+      <c r="AT413" s="16" t="s">
+        <v>2360</v>
+      </c>
       <c r="AU413" s="16" t="s">
-        <v>2359</v>
+        <v>2361</v>
       </c>
       <c r="AV413" s="16" t="s">
-        <v>2360</v>
+        <v>2354</v>
       </c>
       <c r="AW413" s="16" t="s">
-        <v>2353</v>
+        <v>2354</v>
       </c>
     </row>
-    <row r="414" spans="1:57" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:49" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A414" s="14" t="s">
         <v>1858</v>
       </c>
@@ -62333,13 +62372,13 @@
         <v>2324</v>
       </c>
       <c r="C414" s="16" t="s">
-        <v>2337</v>
+        <v>2338</v>
       </c>
       <c r="D414" s="16">
         <v>2015</v>
       </c>
       <c r="E414" s="16" t="s">
-        <v>2338</v>
+        <v>2339</v>
       </c>
       <c r="F414" s="16" t="s">
         <v>387</v>
@@ -62378,10 +62417,10 @@
         <v>46</v>
       </c>
       <c r="R414" s="16" t="s">
-        <v>2344</v>
+        <v>2345</v>
       </c>
       <c r="S414" s="17" t="s">
-        <v>2342</v>
+        <v>2343</v>
       </c>
       <c r="T414" s="17"/>
       <c r="U414" s="17"/>
@@ -62398,10 +62437,10 @@
         <v>1756</v>
       </c>
       <c r="Z414" s="16" t="s">
-        <v>2361</v>
+        <v>2362</v>
       </c>
       <c r="AA414" s="16" t="s">
-        <v>2362</v>
+        <v>2363</v>
       </c>
       <c r="AB414" s="16" t="s">
         <v>1855</v>
@@ -62410,7 +62449,7 @@
         <v>1856</v>
       </c>
       <c r="AD414" s="16" t="s">
-        <v>2347</v>
+        <v>2348</v>
       </c>
       <c r="AE414" s="16" t="s">
         <v>65</v>
@@ -62419,38 +62458,29 @@
       <c r="AG414" s="17">
         <v>0.64</v>
       </c>
-      <c r="AJ414" s="16" t="s">
+      <c r="AI414" s="16" t="s">
         <v>56</v>
       </c>
       <c r="AN414" s="16" t="s">
         <v>56</v>
       </c>
       <c r="AQ414" s="16" t="s">
-        <v>56</v>
+        <v>307</v>
+      </c>
+      <c r="AS414" s="16">
+        <v>11</v>
       </c>
       <c r="AT414" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="AW414" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="AY414" s="16" t="s">
-        <v>307</v>
-      </c>
-      <c r="BB414" s="16">
-        <v>11</v>
-      </c>
-      <c r="BC414" s="16" t="s">
-        <v>2363</v>
-      </c>
-      <c r="BD414" s="16" t="s">
         <v>2364</v>
       </c>
-      <c r="BE414" s="16" t="s">
+      <c r="AU414" s="16" t="s">
         <v>2365</v>
       </c>
+      <c r="AV414" s="16" t="s">
+        <v>2366</v>
+      </c>
     </row>
-    <row r="415" spans="1:57" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:49" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A415" s="14" t="s">
         <v>1858</v>
       </c>
@@ -62458,13 +62488,13 @@
         <v>2324</v>
       </c>
       <c r="C415" s="16" t="s">
-        <v>2337</v>
+        <v>2338</v>
       </c>
       <c r="D415" s="16">
         <v>2015</v>
       </c>
       <c r="E415" s="16" t="s">
-        <v>2338</v>
+        <v>2339</v>
       </c>
       <c r="F415" s="16" t="s">
         <v>387</v>
@@ -62503,10 +62533,10 @@
         <v>46</v>
       </c>
       <c r="R415" s="16" t="s">
+        <v>2345</v>
+      </c>
+      <c r="S415" s="17" t="s">
         <v>2344</v>
-      </c>
-      <c r="S415" s="17" t="s">
-        <v>2343</v>
       </c>
       <c r="T415" s="17"/>
       <c r="U415" s="17"/>
@@ -62523,10 +62553,10 @@
         <v>1756</v>
       </c>
       <c r="Z415" s="16" t="s">
-        <v>2366</v>
+        <v>2367</v>
       </c>
       <c r="AA415" s="16" t="s">
-        <v>2367</v>
+        <v>2368</v>
       </c>
       <c r="AB415" s="16" t="s">
         <v>1855</v>
@@ -62535,7 +62565,7 @@
         <v>1856</v>
       </c>
       <c r="AD415" s="16" t="s">
-        <v>2347</v>
+        <v>2348</v>
       </c>
       <c r="AE415" s="16" t="s">
         <v>65</v>
@@ -62544,35 +62574,148 @@
       <c r="AG415" s="17">
         <v>0.97</v>
       </c>
-      <c r="AJ415" s="16" t="s">
+      <c r="AI415" s="16" t="s">
         <v>56</v>
       </c>
       <c r="AN415" s="16" t="s">
         <v>56</v>
       </c>
       <c r="AQ415" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="AS415" s="16">
+        <v>11</v>
+      </c>
+      <c r="AT415" s="16" t="s">
+        <v>2364</v>
+      </c>
+      <c r="AU415" s="16" t="s">
+        <v>2369</v>
+      </c>
+      <c r="AV415" s="16" t="s">
+        <v>2366</v>
+      </c>
+    </row>
+    <row r="416" spans="1:49" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A416" s="21" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B416" s="22" t="s">
+        <v>2337</v>
+      </c>
+      <c r="C416" s="23" t="s">
+        <v>2370</v>
+      </c>
+      <c r="D416" s="23">
+        <v>2017</v>
+      </c>
+      <c r="E416" s="23" t="s">
+        <v>2371</v>
+      </c>
+      <c r="F416" s="23" t="s">
+        <v>2372</v>
+      </c>
+      <c r="G416" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="H416" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I416" s="23" t="s">
+        <v>443</v>
+      </c>
+      <c r="J416" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="K416" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="L416" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="M416" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="N416" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="O416" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="P416" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q416" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="R416" s="23" t="s">
+        <v>2373</v>
+      </c>
+      <c r="S416" s="24" t="s">
+        <v>2374</v>
+      </c>
+      <c r="T416" s="24"/>
+      <c r="U416" s="24"/>
+      <c r="V416" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="W416" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="X416" s="23" t="s">
+        <v>266</v>
+      </c>
+      <c r="Y416" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z416" s="23" t="s">
+        <v>2375</v>
+      </c>
+      <c r="AA416" s="23" t="s">
+        <v>2376</v>
+      </c>
+      <c r="AB416" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD416" s="23" t="s">
+        <v>2377</v>
+      </c>
+      <c r="AE416" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF416" s="24"/>
+      <c r="AG416" s="24">
+        <v>0.44</v>
+      </c>
+      <c r="AH416" s="23">
+        <v>0.122959183673469</v>
+      </c>
+      <c r="AI416" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ416" s="23">
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="AK416" s="23">
+        <v>0.68100000000000005</v>
+      </c>
+      <c r="AL416" s="23">
+        <v>0.95</v>
+      </c>
+      <c r="AN416" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="AT415" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="AW415" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="AY415" s="16" t="s">
-        <v>307</v>
-      </c>
-      <c r="BB415" s="16">
-        <v>11</v>
-      </c>
-      <c r="BC415" s="16" t="s">
-        <v>2363</v>
-      </c>
-      <c r="BD415" s="16" t="s">
-        <v>2368</v>
-      </c>
-      <c r="BE415" s="16" t="s">
-        <v>2365</v>
+      <c r="AS416" s="23">
+        <v>14</v>
+      </c>
+      <c r="AT416" s="23" t="s">
+        <v>2378</v>
+      </c>
+      <c r="AU416" s="23" t="s">
+        <v>2379</v>
+      </c>
+      <c r="AV416" s="23" t="s">
+        <v>2380</v>
       </c>
     </row>
   </sheetData>

--- a/Data/coded-Dataset.xlsx
+++ b/Data/coded-Dataset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laura/Desktop/GITHUB-METAREVIEW/Meta-review-cognitive-profiles-ADHD-Dyslexia/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D1B7400-0854-2A41-B630-79AFB4A0D1A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B5D4D57-B5C9-F948-8FFB-31A070982EC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30260" yWindow="600" windowWidth="38380" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14920" uniqueCount="2381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14956" uniqueCount="2396">
   <si>
     <t>ID_article</t>
   </si>
@@ -7150,9 +7150,6 @@
     <t>Dyslexia vs controls—discrimination (pairwise subset)</t>
   </si>
   <si>
-    <t>Gillian M. Clark; Jarrad A.G. Lum</t>
-  </si>
-  <si>
     <t>Procedural learning in Parkinson’s disease, specific language impairment, dyslexia, schizophrenia, developmental coordination disorder, and autism spectrum disorders: A second-order meta-analysis</t>
   </si>
   <si>
@@ -7181,6 +7178,54 @@
   </si>
   <si>
     <t>Effect size and CI for dyslexia extracted from Fig. 3 (forest plot).</t>
+  </si>
+  <si>
+    <t>2022</t>
+  </si>
+  <si>
+    <t>Clark G. M.; Lum J. A. G.</t>
+  </si>
+  <si>
+    <t>2029</t>
+  </si>
+  <si>
+    <t>Shulver, K. D.; Badcock, N. A.</t>
+  </si>
+  <si>
+    <t>Chasing the Anchor: A Systematic Review and Meta-Analysis of Perceptual Anchoring Deficits in Developmental Dyslexia</t>
+  </si>
+  <si>
+    <t>Journal of Speech, Language, and Hearing Research</t>
+  </si>
+  <si>
+    <t>['I2', 'Q', 'tau', 'tau2']</t>
+  </si>
+  <si>
+    <t>2029_1</t>
+  </si>
+  <si>
+    <t>Single pooled estimate across all included perceptual-anchoring tasks/studies (multiple paradigms/modalities).</t>
+  </si>
+  <si>
+    <t>Perceptual anchoring measure</t>
+  </si>
+  <si>
+    <t>Minimal bias suggested by funnel plot and Egger’s test.</t>
+  </si>
+  <si>
+    <t>Mean age range (groups): 10–24.8 years (dyslexic) and 10–25.9 years (controls).</t>
+  </si>
+  <si>
+    <t>Across studies: children and adults (mean age range ~10 to mid-20s).</t>
+  </si>
+  <si>
+    <t>Perceptual anchoring measure: dyslexia n = 204; control n = 218 (total n = 422).</t>
+  </si>
+  <si>
+    <t>Dyslexic versus nondyslexic (control) groups on perceptual anchoring tasks.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Only one pooled meta-analytic estimate is reported (overall perceptual anchoring). Individual-study effects are shown in Figure 2 but are not additional pooled results. Domain_L2 left null because included tasks span auditory/visual/noise paradigms and a RAN-based anchoring operationalization. </t>
   </si>
 </sst>
 </file>
@@ -7655,11 +7700,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AX416"/>
+  <dimension ref="A1:AX419"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AC1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A376" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AD418" sqref="AD418"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A385" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AG424" sqref="AG424"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -62011,8 +62056,8 @@
       <c r="S411" s="17" t="s">
         <v>2340</v>
       </c>
-      <c r="T411" s="17"/>
-      <c r="U411" s="17"/>
+      <c r="T411" s="19"/>
+      <c r="U411" s="19"/>
       <c r="V411" s="16" t="s">
         <v>63</v>
       </c>
@@ -62043,7 +62088,7 @@
       <c r="AE411" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="AF411" s="17"/>
+      <c r="AF411" s="19"/>
       <c r="AG411" s="17">
         <v>0.66</v>
       </c>
@@ -62148,8 +62193,8 @@
       <c r="S412" s="17" t="s">
         <v>2341</v>
       </c>
-      <c r="T412" s="17"/>
-      <c r="U412" s="17"/>
+      <c r="T412" s="19"/>
+      <c r="U412" s="19"/>
       <c r="V412" s="16" t="s">
         <v>63</v>
       </c>
@@ -62180,7 +62225,7 @@
       <c r="AE412" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="AF412" s="17"/>
+      <c r="AF412" s="19"/>
       <c r="AG412" s="17">
         <v>0.86</v>
       </c>
@@ -62285,8 +62330,8 @@
       <c r="S413" s="17" t="s">
         <v>2342</v>
       </c>
-      <c r="T413" s="17"/>
-      <c r="U413" s="17"/>
+      <c r="T413" s="19"/>
+      <c r="U413" s="19"/>
       <c r="V413" s="16" t="s">
         <v>63</v>
       </c>
@@ -62317,7 +62362,7 @@
       <c r="AE413" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="AF413" s="17"/>
+      <c r="AF413" s="19"/>
       <c r="AG413" s="17">
         <v>0.32</v>
       </c>
@@ -62422,8 +62467,8 @@
       <c r="S414" s="17" t="s">
         <v>2343</v>
       </c>
-      <c r="T414" s="17"/>
-      <c r="U414" s="17"/>
+      <c r="T414" s="19"/>
+      <c r="U414" s="19"/>
       <c r="V414" s="16" t="s">
         <v>63</v>
       </c>
@@ -62454,7 +62499,7 @@
       <c r="AE414" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="AF414" s="17"/>
+      <c r="AF414" s="19"/>
       <c r="AG414" s="17">
         <v>0.64</v>
       </c>
@@ -62538,8 +62583,8 @@
       <c r="S415" s="17" t="s">
         <v>2344</v>
       </c>
-      <c r="T415" s="17"/>
-      <c r="U415" s="17"/>
+      <c r="T415" s="19"/>
+      <c r="U415" s="19"/>
       <c r="V415" s="16" t="s">
         <v>63</v>
       </c>
@@ -62570,7 +62615,7 @@
       <c r="AE415" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="AF415" s="17"/>
+      <c r="AF415" s="19"/>
       <c r="AG415" s="17">
         <v>0.97</v>
       </c>
@@ -62604,16 +62649,16 @@
         <v>2337</v>
       </c>
       <c r="C416" s="23" t="s">
-        <v>2370</v>
+        <v>2381</v>
       </c>
       <c r="D416" s="23">
         <v>2017</v>
       </c>
       <c r="E416" s="23" t="s">
+        <v>2370</v>
+      </c>
+      <c r="F416" s="23" t="s">
         <v>2371</v>
-      </c>
-      <c r="F416" s="23" t="s">
-        <v>2372</v>
       </c>
       <c r="G416" s="23" t="s">
         <v>60</v>
@@ -62649,13 +62694,13 @@
         <v>61</v>
       </c>
       <c r="R416" s="23" t="s">
+        <v>2372</v>
+      </c>
+      <c r="S416" s="24" t="s">
         <v>2373</v>
       </c>
-      <c r="S416" s="24" t="s">
-        <v>2374</v>
-      </c>
-      <c r="T416" s="24"/>
-      <c r="U416" s="24"/>
+      <c r="T416" s="19"/>
+      <c r="U416" s="19"/>
       <c r="V416" s="23" t="s">
         <v>63</v>
       </c>
@@ -62669,21 +62714,21 @@
         <v>52</v>
       </c>
       <c r="Z416" s="23" t="s">
+        <v>2374</v>
+      </c>
+      <c r="AA416" s="23" t="s">
         <v>2375</v>
-      </c>
-      <c r="AA416" s="23" t="s">
-        <v>2376</v>
       </c>
       <c r="AB416" s="23" t="s">
         <v>98</v>
       </c>
       <c r="AD416" s="23" t="s">
-        <v>2377</v>
+        <v>2376</v>
       </c>
       <c r="AE416" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="AF416" s="24"/>
+      <c r="AF416" s="19"/>
       <c r="AG416" s="24">
         <v>0.44</v>
       </c>
@@ -62709,13 +62754,166 @@
         <v>14</v>
       </c>
       <c r="AT416" s="23" t="s">
+        <v>2377</v>
+      </c>
+      <c r="AU416" s="23" t="s">
         <v>2378</v>
       </c>
-      <c r="AU416" s="23" t="s">
+      <c r="AV416" s="23" t="s">
         <v>2379</v>
       </c>
-      <c r="AV416" s="23" t="s">
+    </row>
+    <row r="417" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A417" s="14" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B417" s="15" t="s">
         <v>2380</v>
+      </c>
+      <c r="S417" s="17"/>
+      <c r="T417" s="19"/>
+      <c r="U417" s="19"/>
+      <c r="AF417" s="19"/>
+      <c r="AG417" s="17"/>
+    </row>
+    <row r="418" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A418" s="14"/>
+      <c r="B418" s="15"/>
+      <c r="S418" s="17"/>
+      <c r="T418" s="19"/>
+      <c r="U418" s="19"/>
+      <c r="AF418" s="19"/>
+      <c r="AG418" s="17"/>
+    </row>
+    <row r="419" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A419" s="21" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B419" s="22" t="s">
+        <v>2382</v>
+      </c>
+      <c r="C419" s="23" t="s">
+        <v>2383</v>
+      </c>
+      <c r="D419" s="23">
+        <v>2021</v>
+      </c>
+      <c r="E419" s="23" t="s">
+        <v>2384</v>
+      </c>
+      <c r="F419" s="23" t="s">
+        <v>2385</v>
+      </c>
+      <c r="G419" s="23" t="s">
+        <v>818</v>
+      </c>
+      <c r="H419" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="I419" s="23" t="s">
+        <v>2386</v>
+      </c>
+      <c r="J419" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="K419" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="L419" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="M419" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="N419" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="O419" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="P419" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q419" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="S419" s="24" t="s">
+        <v>2387</v>
+      </c>
+      <c r="T419" s="19"/>
+      <c r="U419" s="19"/>
+      <c r="V419" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="W419" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="X419" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y419" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z419" s="23" t="s">
+        <v>2388</v>
+      </c>
+      <c r="AA419" s="23" t="s">
+        <v>2389</v>
+      </c>
+      <c r="AB419" s="23" t="s">
+        <v>1855</v>
+      </c>
+      <c r="AE419" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF419" s="19"/>
+      <c r="AG419" s="24">
+        <v>-0.7</v>
+      </c>
+      <c r="AH419" s="23">
+        <v>0.20663265310000001</v>
+      </c>
+      <c r="AI419" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ419" s="23">
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="AK419" s="23">
+        <v>-0.28999999999999998</v>
+      </c>
+      <c r="AL419" s="23">
+        <v>0.95</v>
+      </c>
+      <c r="AM419" s="23">
+        <v>0.4</v>
+      </c>
+      <c r="AN419" s="23" t="s">
+        <v>305</v>
+      </c>
+      <c r="AO419" s="23" t="s">
+        <v>2390</v>
+      </c>
+      <c r="AP419" s="23" t="s">
+        <v>2391</v>
+      </c>
+      <c r="AQ419" s="23" t="s">
+        <v>307</v>
+      </c>
+      <c r="AR419" s="23" t="s">
+        <v>2392</v>
+      </c>
+      <c r="AS419" s="23">
+        <v>8</v>
+      </c>
+      <c r="AT419" s="23" t="s">
+        <v>2393</v>
+      </c>
+      <c r="AU419" s="23" t="s">
+        <v>2394</v>
+      </c>
+      <c r="AV419" s="23" t="s">
+        <v>2395</v>
       </c>
     </row>
   </sheetData>

--- a/Data/coded-Dataset.xlsx
+++ b/Data/coded-Dataset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laura/Desktop/GITHUB-METAREVIEW/Meta-review-cognitive-profiles-ADHD-Dyslexia/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B5D4D57-B5C9-F948-8FFB-31A070982EC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DF55A8D-DB48-9041-BF94-AC616698A507}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30260" yWindow="600" windowWidth="38380" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14956" uniqueCount="2396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15313" uniqueCount="2470">
   <si>
     <t>ID_article</t>
   </si>
@@ -7226,6 +7226,229 @@
   </si>
   <si>
     <t xml:space="preserve">Only one pooled meta-analytic estimate is reported (overall perceptual anchoring). Individual-study effects are shown in Figure 2 but are not additional pooled results. Domain_L2 left null because included tasks span auditory/visual/noise paradigms and a RAN-based anchoring operationalization. </t>
+  </si>
+  <si>
+    <t>2033</t>
+  </si>
+  <si>
+    <t>Li, Y.; Zhao, J.; Bi, H.</t>
+  </si>
+  <si>
+    <t>Speech Perception in Noise Deficit in Individuals with Dyslexia: A Meta-Analysis
+"Journal": "Scientific Studies of Reading</t>
+  </si>
+  <si>
+    <t>2033_1</t>
+  </si>
+  <si>
+    <t>2033_2</t>
+  </si>
+  <si>
+    <t>2033_3</t>
+  </si>
+  <si>
+    <t>2033_4</t>
+  </si>
+  <si>
+    <t>2033_5</t>
+  </si>
+  <si>
+    <t>2033_6</t>
+  </si>
+  <si>
+    <t>2033_7</t>
+  </si>
+  <si>
+    <t>2033_8</t>
+  </si>
+  <si>
+    <t>2033_9</t>
+  </si>
+  <si>
+    <t>2033_10</t>
+  </si>
+  <si>
+    <t>Same underlying study pool; overall and subgroup pooled estimates are based on overlapping included studies/effect sizes.</t>
+  </si>
+  <si>
+    <t>SPIN ability</t>
+  </si>
+  <si>
+    <t>Speech perception in noise (SPIN)</t>
+  </si>
+  <si>
+    <t>Egger regressions indicated no significant asymmetry; trim-and-fill performed due to possible visual asymmetry.</t>
+  </si>
+  <si>
+    <t>5–35 years old</t>
+  </si>
+  <si>
+    <t>Children and adults included (overall sample age range 5–35 years).</t>
+  </si>
+  <si>
+    <t>Total: dyslexia n = 480; chronological age-matched controls n = 648; 20 independent samples; 69 effect sizes.</t>
+  </si>
+  <si>
+    <t>Dyslexic versus chronological age-matched controls on SPIN ability.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tau derived from reported τ2 = 0.23 (Tau_heterogeneity = sqrt(tau2)). </t>
+  </si>
+  <si>
+    <t>Restricted subset meta-analysis (excluding concurrent attention/language problems) still overlaps conceptually with the main study pool.</t>
+  </si>
+  <si>
+    <t>Subset analysis; age range not re-stated beyond overall sample.</t>
+  </si>
+  <si>
+    <t>Subset meta-analysis: n = 8 independent samples; k = 38 effect sizes.</t>
+  </si>
+  <si>
+    <t>Dyslexic versus chronological age-matched controls on SPIN ability (subset without concurrent attention/language problems).</t>
+  </si>
+  <si>
+    <t>Tau derived from reported τ2 = 0.16 (Tau_heterogeneity = sqrt(tau2)).</t>
+  </si>
+  <si>
+    <t>Subgroup pooled estimate by performance measure (accuracy).</t>
+  </si>
+  <si>
+    <t>Accuracy</t>
+  </si>
+  <si>
+    <t>Accuracy subgroup across studies; ages not separately summarized beyond overall range.</t>
+  </si>
+  <si>
+    <t>Accuracy subgroup: n = 12 independent samples; k = 54 effect sizes.</t>
+  </si>
+  <si>
+    <t>Dyslexic versus chronological age-matched controls on SPIN (accuracy measure).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tau derived from reported τ2 = 0.12 (Table 3). </t>
+  </si>
+  <si>
+    <t>Subgroup pooled estimate by performance measure (SRT).</t>
+  </si>
+  <si>
+    <t>SRT</t>
+  </si>
+  <si>
+    <t>SRT subgroup across studies; ages not separately summarized beyond overall range.</t>
+  </si>
+  <si>
+    <t>SRT subgroup: n = 7 independent samples; k = 14 effect sizes.</t>
+  </si>
+  <si>
+    <t>Dyslexic versus chronological age-matched controls on SPIN (speech reception threshold).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tau derived from reported τ2 = 0.07 (Table 3). </t>
+  </si>
+  <si>
+    <t>Subgroup pooled estimate by masking type (energetic masking, EM).</t>
+  </si>
+  <si>
+    <t>EM</t>
+  </si>
+  <si>
+    <t>EM subgroup across studies; ages not separately summarized beyond overall range.</t>
+  </si>
+  <si>
+    <t>EM subgroup: n = 15 independent samples; k = 47 effect sizes.</t>
+  </si>
+  <si>
+    <t>Dyslexic versus chronological age-matched controls on SPIN (energetic masking).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tau derived from reported τ2 = 0.18 (Table 3). </t>
+  </si>
+  <si>
+    <t>Subgroup pooled estimate by masking type (informational masking, IM).</t>
+  </si>
+  <si>
+    <t>IM</t>
+  </si>
+  <si>
+    <t>IM subgroup across studies; ages not separately summarized beyond overall range.</t>
+  </si>
+  <si>
+    <t>IM subgroup: n = 8 independent samples; k = 22 effect sizes.</t>
+  </si>
+  <si>
+    <t>Dyslexic versus chronological age-matched controls on SPIN (informational masking).</t>
+  </si>
+  <si>
+    <t>Tau derived from reported τ2 = 0.37 (Table 3).</t>
+  </si>
+  <si>
+    <t>Subgroup pooled estimate by age group (children).</t>
+  </si>
+  <si>
+    <t>Children (&lt;14 years old).</t>
+  </si>
+  <si>
+    <t>Children subgroup: n = 14 independent samples; k = 56 effect sizes.</t>
+  </si>
+  <si>
+    <t>Dyslexic versus chronological age-matched controls on SPIN (children).</t>
+  </si>
+  <si>
+    <t>Tau derived from reported τ2 = 0.15 (Table 3).</t>
+  </si>
+  <si>
+    <t>Subgroup pooled estimate by age group (adults).</t>
+  </si>
+  <si>
+    <t>Adults (&gt;18 years old).</t>
+  </si>
+  <si>
+    <t>Adults subgroup: n = 6 independent samples; k = 13 effect sizes.</t>
+  </si>
+  <si>
+    <t>Dyslexic versus chronological age-matched controls on SPIN (adults).</t>
+  </si>
+  <si>
+    <t>Tau derived from reported τ2 = 0.44 (Table 3).</t>
+  </si>
+  <si>
+    <t>Trim-and-fill adjusted pooled estimate at the study/sample level.</t>
+  </si>
+  <si>
+    <t>SPIN impairment effect (trim-and-fill, study/sample level)</t>
+  </si>
+  <si>
+    <t>Trim-and-fill (study/sample level) imputed one value; effect remained significant.</t>
+  </si>
+  <si>
+    <t>Trim-and-fill analysis at the study/sample level; ages not separately summarized beyond overall range.</t>
+  </si>
+  <si>
+    <t>Trim-and-fill (study/sample level): n = 21; SE = 0.10; Z = 5.08.</t>
+  </si>
+  <si>
+    <t>Dyslexic versus chronological age-matched controls on SPIN ability (trim-and-fill, study/sample level).</t>
+  </si>
+  <si>
+    <t>Trim-and-fill adjusted pooled estimate at the effect-size level.</t>
+  </si>
+  <si>
+    <t>SPIN impairment effect (trim-and-fill, effect size level)</t>
+  </si>
+  <si>
+    <t>Trim-and-fill (effect-size level) imputed two values; effect remained significant.</t>
+  </si>
+  <si>
+    <t>Trim-and-fill analysis at the effect size level; ages not separately summarized beyond overall range.</t>
+  </si>
+  <si>
+    <t>Trim-and-fill (effect size level): k = 71; SE = 0.06; Z = 10.38.</t>
+  </si>
+  <si>
+    <t>Dyslexic versus chronological age-matched controls on SPIN ability (trim-and-fill, effect size level).</t>
+  </si>
+  <si>
+    <t>2035</t>
   </si>
 </sst>
 </file>
@@ -7700,11 +7923,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AX419"/>
+  <dimension ref="A1:AX430"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A385" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AG424" sqref="AG424"/>
+      <pane ySplit="1" topLeftCell="A381" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C430" sqref="C430"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -62916,6 +63139,1342 @@
         <v>2395</v>
       </c>
     </row>
+    <row r="420" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A420" s="14" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B420" s="15" t="s">
+        <v>2396</v>
+      </c>
+      <c r="C420" s="16" t="s">
+        <v>2397</v>
+      </c>
+      <c r="D420" s="16">
+        <v>2023</v>
+      </c>
+      <c r="E420" s="18" t="s">
+        <v>2398</v>
+      </c>
+      <c r="F420" s="16" t="s">
+        <v>387</v>
+      </c>
+      <c r="G420" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="H420" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I420" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="J420" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="K420" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="L420" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="M420" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="N420" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="O420" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="P420" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q420" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="S420" s="17" t="s">
+        <v>2399</v>
+      </c>
+      <c r="T420" s="19"/>
+      <c r="U420" s="19"/>
+      <c r="V420" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="W420" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="X420" s="16" t="s">
+        <v>266</v>
+      </c>
+      <c r="Y420" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z420" s="16" t="s">
+        <v>2409</v>
+      </c>
+      <c r="AA420" s="16" t="s">
+        <v>2410</v>
+      </c>
+      <c r="AB420" s="16" t="s">
+        <v>1855</v>
+      </c>
+      <c r="AC420" s="16" t="s">
+        <v>1856</v>
+      </c>
+      <c r="AD420" s="16" t="s">
+        <v>2411</v>
+      </c>
+      <c r="AE420" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF420" s="19"/>
+      <c r="AG420" s="17">
+        <v>0.64</v>
+      </c>
+      <c r="AH420" s="16">
+        <v>9.1836734700000006E-2</v>
+      </c>
+      <c r="AI420" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ420" s="16">
+        <v>0.51</v>
+      </c>
+      <c r="AK420" s="16">
+        <v>0.87</v>
+      </c>
+      <c r="AL420" s="16">
+        <v>0.95</v>
+      </c>
+      <c r="AM420" s="16">
+        <v>0.47958315229999998</v>
+      </c>
+      <c r="AN420" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="AO420" s="16" t="s">
+        <v>2412</v>
+      </c>
+      <c r="AP420" s="16" t="s">
+        <v>2413</v>
+      </c>
+      <c r="AQ420" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="AR420" s="16" t="s">
+        <v>2414</v>
+      </c>
+      <c r="AS420" s="16">
+        <v>19</v>
+      </c>
+      <c r="AT420" s="16" t="s">
+        <v>2415</v>
+      </c>
+      <c r="AU420" s="16" t="s">
+        <v>2416</v>
+      </c>
+      <c r="AV420" s="16" t="s">
+        <v>2417</v>
+      </c>
+    </row>
+    <row r="421" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A421" s="14" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B421" s="15" t="s">
+        <v>2396</v>
+      </c>
+      <c r="C421" s="16" t="s">
+        <v>2397</v>
+      </c>
+      <c r="D421" s="16">
+        <v>2023</v>
+      </c>
+      <c r="E421" s="18" t="s">
+        <v>2398</v>
+      </c>
+      <c r="F421" s="16" t="s">
+        <v>387</v>
+      </c>
+      <c r="G421" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="H421" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I421" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="J421" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="K421" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="L421" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="M421" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="N421" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="O421" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="P421" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q421" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="S421" s="17" t="s">
+        <v>2400</v>
+      </c>
+      <c r="T421" s="19"/>
+      <c r="U421" s="19"/>
+      <c r="V421" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="W421" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="X421" s="16" t="s">
+        <v>266</v>
+      </c>
+      <c r="Y421" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z421" s="16" t="s">
+        <v>2418</v>
+      </c>
+      <c r="AA421" s="16" t="s">
+        <v>2410</v>
+      </c>
+      <c r="AB421" s="16" t="s">
+        <v>1855</v>
+      </c>
+      <c r="AC421" s="16" t="s">
+        <v>1856</v>
+      </c>
+      <c r="AD421" s="16" t="s">
+        <v>2411</v>
+      </c>
+      <c r="AE421" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF421" s="19"/>
+      <c r="AG421" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="AH421" s="16">
+        <v>0.1887755102</v>
+      </c>
+      <c r="AI421" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ421" s="16">
+        <v>0.13</v>
+      </c>
+      <c r="AK421" s="16">
+        <v>0.87</v>
+      </c>
+      <c r="AL421" s="16">
+        <v>0.95</v>
+      </c>
+      <c r="AM421" s="16">
+        <v>0.4</v>
+      </c>
+      <c r="AN421" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="AO421" s="16" t="s">
+        <v>2412</v>
+      </c>
+      <c r="AP421" s="16" t="s">
+        <v>2413</v>
+      </c>
+      <c r="AQ421" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="AR421" s="16" t="s">
+        <v>2419</v>
+      </c>
+      <c r="AT421" s="16" t="s">
+        <v>2420</v>
+      </c>
+      <c r="AU421" s="16" t="s">
+        <v>2421</v>
+      </c>
+      <c r="AV421" s="16" t="s">
+        <v>2422</v>
+      </c>
+    </row>
+    <row r="422" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A422" s="14" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B422" s="15" t="s">
+        <v>2396</v>
+      </c>
+      <c r="C422" s="16" t="s">
+        <v>2397</v>
+      </c>
+      <c r="D422" s="16">
+        <v>2023</v>
+      </c>
+      <c r="E422" s="18" t="s">
+        <v>2398</v>
+      </c>
+      <c r="F422" s="16" t="s">
+        <v>387</v>
+      </c>
+      <c r="G422" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="H422" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I422" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="J422" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="K422" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="L422" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="M422" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="N422" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="O422" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="P422" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q422" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="S422" s="17" t="s">
+        <v>2401</v>
+      </c>
+      <c r="T422" s="19"/>
+      <c r="U422" s="19"/>
+      <c r="V422" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="W422" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="X422" s="16" t="s">
+        <v>266</v>
+      </c>
+      <c r="Y422" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z422" s="16" t="s">
+        <v>2423</v>
+      </c>
+      <c r="AA422" s="16" t="s">
+        <v>2424</v>
+      </c>
+      <c r="AB422" s="16" t="s">
+        <v>1855</v>
+      </c>
+      <c r="AC422" s="16" t="s">
+        <v>1856</v>
+      </c>
+      <c r="AD422" s="16" t="s">
+        <v>2411</v>
+      </c>
+      <c r="AE422" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF422" s="19"/>
+      <c r="AG422" s="17">
+        <v>0.85</v>
+      </c>
+      <c r="AH422" s="16">
+        <v>0.1</v>
+      </c>
+      <c r="AI422" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="AJ422" s="16">
+        <v>0.62</v>
+      </c>
+      <c r="AK422" s="16">
+        <v>1.08</v>
+      </c>
+      <c r="AL422" s="16">
+        <v>0.95</v>
+      </c>
+      <c r="AM422" s="16">
+        <v>0.34641016149999998</v>
+      </c>
+      <c r="AN422" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="AO422" s="16" t="s">
+        <v>2412</v>
+      </c>
+      <c r="AP422" s="16" t="s">
+        <v>2413</v>
+      </c>
+      <c r="AQ422" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="AR422" s="16" t="s">
+        <v>2425</v>
+      </c>
+      <c r="AT422" s="16" t="s">
+        <v>2426</v>
+      </c>
+      <c r="AU422" s="16" t="s">
+        <v>2427</v>
+      </c>
+      <c r="AV422" s="16" t="s">
+        <v>2428</v>
+      </c>
+    </row>
+    <row r="423" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A423" s="14" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B423" s="15" t="s">
+        <v>2396</v>
+      </c>
+      <c r="C423" s="16" t="s">
+        <v>2397</v>
+      </c>
+      <c r="D423" s="16">
+        <v>2023</v>
+      </c>
+      <c r="E423" s="18" t="s">
+        <v>2398</v>
+      </c>
+      <c r="F423" s="16" t="s">
+        <v>387</v>
+      </c>
+      <c r="G423" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="H423" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I423" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="J423" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="K423" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="L423" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="M423" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="N423" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="O423" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="P423" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q423" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="S423" s="17" t="s">
+        <v>2402</v>
+      </c>
+      <c r="T423" s="19"/>
+      <c r="U423" s="19"/>
+      <c r="V423" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="W423" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="X423" s="16" t="s">
+        <v>266</v>
+      </c>
+      <c r="Y423" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z423" s="16" t="s">
+        <v>2429</v>
+      </c>
+      <c r="AA423" s="16" t="s">
+        <v>2430</v>
+      </c>
+      <c r="AB423" s="16" t="s">
+        <v>1855</v>
+      </c>
+      <c r="AC423" s="16" t="s">
+        <v>1856</v>
+      </c>
+      <c r="AD423" s="16" t="s">
+        <v>2411</v>
+      </c>
+      <c r="AE423" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF423" s="19"/>
+      <c r="AG423" s="17">
+        <v>0.22</v>
+      </c>
+      <c r="AH423" s="16">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="AI423" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="AJ423" s="16">
+        <v>-0.12</v>
+      </c>
+      <c r="AK423" s="16">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="AL423" s="16">
+        <v>0.95</v>
+      </c>
+      <c r="AM423" s="16">
+        <v>0.26457513110000003</v>
+      </c>
+      <c r="AN423" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="AO423" s="16" t="s">
+        <v>2412</v>
+      </c>
+      <c r="AP423" s="16" t="s">
+        <v>2413</v>
+      </c>
+      <c r="AQ423" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="AR423" s="16" t="s">
+        <v>2431</v>
+      </c>
+      <c r="AT423" s="16" t="s">
+        <v>2432</v>
+      </c>
+      <c r="AU423" s="16" t="s">
+        <v>2433</v>
+      </c>
+      <c r="AV423" s="16" t="s">
+        <v>2434</v>
+      </c>
+    </row>
+    <row r="424" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A424" s="14" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B424" s="15" t="s">
+        <v>2396</v>
+      </c>
+      <c r="C424" s="16" t="s">
+        <v>2397</v>
+      </c>
+      <c r="D424" s="16">
+        <v>2023</v>
+      </c>
+      <c r="E424" s="18" t="s">
+        <v>2398</v>
+      </c>
+      <c r="F424" s="16" t="s">
+        <v>387</v>
+      </c>
+      <c r="G424" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="H424" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I424" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="J424" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="K424" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="L424" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="M424" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="N424" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="O424" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="P424" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q424" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="S424" s="17" t="s">
+        <v>2403</v>
+      </c>
+      <c r="T424" s="19"/>
+      <c r="U424" s="19"/>
+      <c r="V424" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="W424" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="X424" s="16" t="s">
+        <v>266</v>
+      </c>
+      <c r="Y424" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z424" s="16" t="s">
+        <v>2435</v>
+      </c>
+      <c r="AA424" s="16" t="s">
+        <v>2436</v>
+      </c>
+      <c r="AB424" s="16" t="s">
+        <v>1855</v>
+      </c>
+      <c r="AC424" s="16" t="s">
+        <v>1856</v>
+      </c>
+      <c r="AD424" s="16" t="s">
+        <v>2411</v>
+      </c>
+      <c r="AE424" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF424" s="19"/>
+      <c r="AG424" s="17">
+        <v>0.65</v>
+      </c>
+      <c r="AH424" s="16">
+        <v>0.12</v>
+      </c>
+      <c r="AI424" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="AJ424" s="16">
+        <v>0.39</v>
+      </c>
+      <c r="AK424" s="16">
+        <v>0.91</v>
+      </c>
+      <c r="AL424" s="16">
+        <v>0.95</v>
+      </c>
+      <c r="AM424" s="16">
+        <v>0.4242640687</v>
+      </c>
+      <c r="AN424" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="AO424" s="16" t="s">
+        <v>2412</v>
+      </c>
+      <c r="AP424" s="16" t="s">
+        <v>2413</v>
+      </c>
+      <c r="AQ424" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="AR424" s="16" t="s">
+        <v>2437</v>
+      </c>
+      <c r="AT424" s="16" t="s">
+        <v>2438</v>
+      </c>
+      <c r="AU424" s="16" t="s">
+        <v>2439</v>
+      </c>
+      <c r="AV424" s="16" t="s">
+        <v>2440</v>
+      </c>
+    </row>
+    <row r="425" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A425" s="14" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B425" s="15" t="s">
+        <v>2396</v>
+      </c>
+      <c r="C425" s="16" t="s">
+        <v>2397</v>
+      </c>
+      <c r="D425" s="16">
+        <v>2023</v>
+      </c>
+      <c r="E425" s="18" t="s">
+        <v>2398</v>
+      </c>
+      <c r="F425" s="16" t="s">
+        <v>387</v>
+      </c>
+      <c r="G425" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="H425" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I425" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="J425" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="K425" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="L425" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="M425" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="N425" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="O425" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="P425" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q425" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="S425" s="17" t="s">
+        <v>2404</v>
+      </c>
+      <c r="T425" s="19"/>
+      <c r="U425" s="19"/>
+      <c r="V425" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="W425" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="X425" s="16" t="s">
+        <v>266</v>
+      </c>
+      <c r="Y425" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z425" s="16" t="s">
+        <v>2441</v>
+      </c>
+      <c r="AA425" s="16" t="s">
+        <v>2442</v>
+      </c>
+      <c r="AB425" s="16" t="s">
+        <v>1855</v>
+      </c>
+      <c r="AC425" s="16" t="s">
+        <v>1856</v>
+      </c>
+      <c r="AD425" s="16" t="s">
+        <v>2411</v>
+      </c>
+      <c r="AE425" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF425" s="19"/>
+      <c r="AG425" s="17">
+        <v>0.69</v>
+      </c>
+      <c r="AH425" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="AI425" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="AJ425" s="16">
+        <v>0.22</v>
+      </c>
+      <c r="AK425" s="16">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="AL425" s="16">
+        <v>0.95</v>
+      </c>
+      <c r="AM425" s="16">
+        <v>0.60827625299999999</v>
+      </c>
+      <c r="AN425" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="AO425" s="16" t="s">
+        <v>2412</v>
+      </c>
+      <c r="AP425" s="16" t="s">
+        <v>2413</v>
+      </c>
+      <c r="AQ425" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="AR425" s="16" t="s">
+        <v>2443</v>
+      </c>
+      <c r="AT425" s="16" t="s">
+        <v>2444</v>
+      </c>
+      <c r="AU425" s="16" t="s">
+        <v>2445</v>
+      </c>
+      <c r="AV425" s="16" t="s">
+        <v>2446</v>
+      </c>
+    </row>
+    <row r="426" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A426" s="14" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B426" s="15" t="s">
+        <v>2396</v>
+      </c>
+      <c r="C426" s="16" t="s">
+        <v>2397</v>
+      </c>
+      <c r="D426" s="16">
+        <v>2023</v>
+      </c>
+      <c r="E426" s="18" t="s">
+        <v>2398</v>
+      </c>
+      <c r="F426" s="16" t="s">
+        <v>387</v>
+      </c>
+      <c r="G426" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="H426" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I426" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="J426" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="K426" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="L426" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="M426" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="N426" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="O426" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="P426" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q426" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="S426" s="17" t="s">
+        <v>2405</v>
+      </c>
+      <c r="T426" s="19"/>
+      <c r="U426" s="19"/>
+      <c r="V426" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="W426" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="X426" s="16" t="s">
+        <v>266</v>
+      </c>
+      <c r="Y426" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z426" s="16" t="s">
+        <v>2447</v>
+      </c>
+      <c r="AA426" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB426" s="16" t="s">
+        <v>1855</v>
+      </c>
+      <c r="AC426" s="16" t="s">
+        <v>1856</v>
+      </c>
+      <c r="AD426" s="16" t="s">
+        <v>2411</v>
+      </c>
+      <c r="AE426" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF426" s="19"/>
+      <c r="AG426" s="17">
+        <v>0.6</v>
+      </c>
+      <c r="AH426" s="16">
+        <v>0.12</v>
+      </c>
+      <c r="AI426" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="AJ426" s="16">
+        <v>0.35</v>
+      </c>
+      <c r="AK426" s="16">
+        <v>0.85</v>
+      </c>
+      <c r="AL426" s="16">
+        <v>0.95</v>
+      </c>
+      <c r="AM426" s="16">
+        <v>0.38729833460000002</v>
+      </c>
+      <c r="AN426" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="AO426" s="16" t="s">
+        <v>2412</v>
+      </c>
+      <c r="AP426" s="16" t="s">
+        <v>2413</v>
+      </c>
+      <c r="AQ426" s="16" t="s">
+        <v>1839</v>
+      </c>
+      <c r="AR426" s="16" t="s">
+        <v>2448</v>
+      </c>
+      <c r="AT426" s="16" t="s">
+        <v>2449</v>
+      </c>
+      <c r="AU426" s="16" t="s">
+        <v>2450</v>
+      </c>
+      <c r="AV426" s="16" t="s">
+        <v>2451</v>
+      </c>
+    </row>
+    <row r="427" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A427" s="14" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B427" s="15" t="s">
+        <v>2396</v>
+      </c>
+      <c r="C427" s="16" t="s">
+        <v>2397</v>
+      </c>
+      <c r="D427" s="16">
+        <v>2023</v>
+      </c>
+      <c r="E427" s="18" t="s">
+        <v>2398</v>
+      </c>
+      <c r="F427" s="16" t="s">
+        <v>387</v>
+      </c>
+      <c r="G427" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="H427" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I427" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="J427" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="K427" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="L427" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="M427" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="N427" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="O427" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="P427" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q427" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="S427" s="17" t="s">
+        <v>2406</v>
+      </c>
+      <c r="T427" s="19"/>
+      <c r="U427" s="19"/>
+      <c r="V427" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="W427" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="X427" s="16" t="s">
+        <v>266</v>
+      </c>
+      <c r="Y427" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z427" s="16" t="s">
+        <v>2452</v>
+      </c>
+      <c r="AA427" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB427" s="16" t="s">
+        <v>1855</v>
+      </c>
+      <c r="AC427" s="16" t="s">
+        <v>1856</v>
+      </c>
+      <c r="AD427" s="16" t="s">
+        <v>2411</v>
+      </c>
+      <c r="AE427" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF427" s="19"/>
+      <c r="AG427" s="17">
+        <v>0.72</v>
+      </c>
+      <c r="AH427" s="16">
+        <v>0.25</v>
+      </c>
+      <c r="AI427" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="AJ427" s="16">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AK427" s="16">
+        <v>1.36</v>
+      </c>
+      <c r="AL427" s="16">
+        <v>0.95</v>
+      </c>
+      <c r="AM427" s="16">
+        <v>0.66332495810000003</v>
+      </c>
+      <c r="AN427" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="AO427" s="16" t="s">
+        <v>2412</v>
+      </c>
+      <c r="AP427" s="16" t="s">
+        <v>2413</v>
+      </c>
+      <c r="AQ427" s="16" t="s">
+        <v>1837</v>
+      </c>
+      <c r="AR427" s="16" t="s">
+        <v>2453</v>
+      </c>
+      <c r="AT427" s="16" t="s">
+        <v>2454</v>
+      </c>
+      <c r="AU427" s="16" t="s">
+        <v>2455</v>
+      </c>
+      <c r="AV427" s="16" t="s">
+        <v>2456</v>
+      </c>
+    </row>
+    <row r="428" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A428" s="14" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B428" s="15" t="s">
+        <v>2396</v>
+      </c>
+      <c r="C428" s="16" t="s">
+        <v>2397</v>
+      </c>
+      <c r="D428" s="16">
+        <v>2023</v>
+      </c>
+      <c r="E428" s="18" t="s">
+        <v>2398</v>
+      </c>
+      <c r="F428" s="16" t="s">
+        <v>387</v>
+      </c>
+      <c r="G428" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="H428" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I428" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="J428" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="K428" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="L428" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="M428" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="N428" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="O428" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="P428" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q428" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="S428" s="17" t="s">
+        <v>2407</v>
+      </c>
+      <c r="T428" s="19"/>
+      <c r="U428" s="19"/>
+      <c r="V428" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="W428" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="X428" s="16" t="s">
+        <v>266</v>
+      </c>
+      <c r="Y428" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z428" s="16" t="s">
+        <v>2457</v>
+      </c>
+      <c r="AA428" s="16" t="s">
+        <v>2458</v>
+      </c>
+      <c r="AB428" s="16" t="s">
+        <v>1855</v>
+      </c>
+      <c r="AC428" s="16" t="s">
+        <v>1856</v>
+      </c>
+      <c r="AD428" s="16" t="s">
+        <v>2411</v>
+      </c>
+      <c r="AE428" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF428" s="19"/>
+      <c r="AG428" s="17">
+        <v>0.52</v>
+      </c>
+      <c r="AH428" s="16">
+        <v>0.1</v>
+      </c>
+      <c r="AI428" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="AJ428" s="16">
+        <v>0.32</v>
+      </c>
+      <c r="AK428" s="16">
+        <v>0.72</v>
+      </c>
+      <c r="AL428" s="16">
+        <v>0.95</v>
+      </c>
+      <c r="AO428" s="16" t="s">
+        <v>2459</v>
+      </c>
+      <c r="AP428" s="16" t="s">
+        <v>2413</v>
+      </c>
+      <c r="AQ428" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="AR428" s="16" t="s">
+        <v>2460</v>
+      </c>
+      <c r="AT428" s="16" t="s">
+        <v>2461</v>
+      </c>
+      <c r="AU428" s="16" t="s">
+        <v>2462</v>
+      </c>
+    </row>
+    <row r="429" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A429" s="14" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B429" s="15" t="s">
+        <v>2396</v>
+      </c>
+      <c r="C429" s="16" t="s">
+        <v>2397</v>
+      </c>
+      <c r="D429" s="16">
+        <v>2023</v>
+      </c>
+      <c r="E429" s="18" t="s">
+        <v>2398</v>
+      </c>
+      <c r="F429" s="16" t="s">
+        <v>387</v>
+      </c>
+      <c r="G429" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="H429" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I429" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="J429" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="K429" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="L429" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="M429" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="N429" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="O429" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="P429" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q429" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="S429" s="17" t="s">
+        <v>2408</v>
+      </c>
+      <c r="T429" s="19"/>
+      <c r="U429" s="19"/>
+      <c r="V429" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="W429" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="X429" s="16" t="s">
+        <v>266</v>
+      </c>
+      <c r="Y429" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z429" s="16" t="s">
+        <v>2463</v>
+      </c>
+      <c r="AA429" s="16" t="s">
+        <v>2464</v>
+      </c>
+      <c r="AB429" s="16" t="s">
+        <v>1855</v>
+      </c>
+      <c r="AC429" s="16" t="s">
+        <v>1856</v>
+      </c>
+      <c r="AD429" s="16" t="s">
+        <v>2411</v>
+      </c>
+      <c r="AE429" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF429" s="19"/>
+      <c r="AG429" s="17">
+        <v>0.64</v>
+      </c>
+      <c r="AH429" s="16">
+        <v>0.06</v>
+      </c>
+      <c r="AI429" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="AJ429" s="16">
+        <v>0.52</v>
+      </c>
+      <c r="AK429" s="16">
+        <v>0.76</v>
+      </c>
+      <c r="AL429" s="16">
+        <v>0.95</v>
+      </c>
+      <c r="AO429" s="16" t="s">
+        <v>2465</v>
+      </c>
+      <c r="AP429" s="16" t="s">
+        <v>2413</v>
+      </c>
+      <c r="AQ429" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="AR429" s="16" t="s">
+        <v>2466</v>
+      </c>
+      <c r="AT429" s="16" t="s">
+        <v>2467</v>
+      </c>
+      <c r="AU429" s="16" t="s">
+        <v>2468</v>
+      </c>
+    </row>
+    <row r="430" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A430" s="21"/>
+      <c r="B430" s="22" t="s">
+        <v>2469</v>
+      </c>
+      <c r="S430" s="24"/>
+      <c r="T430" s="24"/>
+      <c r="U430" s="24"/>
+      <c r="AF430" s="24"/>
+      <c r="AG430" s="24"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Data/coded-Dataset.xlsx
+++ b/Data/coded-Dataset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laura/Desktop/GITHUB-METAREVIEW/Meta-review-cognitive-profiles-ADHD-Dyslexia/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DF55A8D-DB48-9041-BF94-AC616698A507}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C9D1EC3-6A19-CE48-AEE4-2754906E53FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30260" yWindow="600" windowWidth="38380" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30260" yWindow="600" windowWidth="38380" windowHeight="19220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="effect_sizes" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15313" uniqueCount="2470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15759" uniqueCount="2565">
   <si>
     <t>ID_article</t>
   </si>
@@ -7449,6 +7449,291 @@
   </si>
   <si>
     <t>2035</t>
+  </si>
+  <si>
+    <t>2035_1</t>
+  </si>
+  <si>
+    <t>Parrila, R.; Dudley, D.; Song, S.; Georgiou, G. K.</t>
+  </si>
+  <si>
+    <t>2035_2</t>
+  </si>
+  <si>
+    <t>2035_3</t>
+  </si>
+  <si>
+    <t>2035_4</t>
+  </si>
+  <si>
+    <t>2035_5</t>
+  </si>
+  <si>
+    <t>2035_6</t>
+  </si>
+  <si>
+    <t>2035_7</t>
+  </si>
+  <si>
+    <t>2035_8</t>
+  </si>
+  <si>
+    <t>2035_9</t>
+  </si>
+  <si>
+    <t>2035_10</t>
+  </si>
+  <si>
+    <t>2035_11</t>
+  </si>
+  <si>
+    <t>2035_12</t>
+  </si>
+  <si>
+    <t>2035_13</t>
+  </si>
+  <si>
+    <t>2035_14</t>
+  </si>
+  <si>
+    <t>2035_15</t>
+  </si>
+  <si>
+    <t>2035_16</t>
+  </si>
+  <si>
+    <t>2035_17</t>
+  </si>
+  <si>
+    <t>2035_18</t>
+  </si>
+  <si>
+    <t>2035_19</t>
+  </si>
+  <si>
+    <t>2035_20</t>
+  </si>
+  <si>
+    <t>2035_21</t>
+  </si>
+  <si>
+    <t>2035_22</t>
+  </si>
+  <si>
+    <t>2035_23</t>
+  </si>
+  <si>
+    <t>Word reading pooled estimates (matching variables; and word reading outcomes not used for matching), including task-type subgroup estimates.</t>
+  </si>
+  <si>
+    <t>Word reading (matching variables)</t>
+  </si>
+  <si>
+    <t>Word reading (matching tasks)</t>
+  </si>
+  <si>
+    <t>Classic Fail-Safe N; Trim and Fill (reported in Methods)</t>
+  </si>
+  <si>
+    <t>children younger than 13 years of age</t>
+  </si>
+  <si>
+    <t>RD vs RL</t>
+  </si>
+  <si>
+    <t>Matching-variable comparison between dyslexia/reading disabled (RD) and reading-level matched (RL) controls.</t>
+  </si>
+  <si>
+    <t>≥13 years</t>
+  </si>
+  <si>
+    <t>RD vs CA</t>
+  </si>
+  <si>
+    <t>Matching-variable comparison between dyslexia/reading disabled (RD) and chronological-age matched (CA) controls.</t>
+  </si>
+  <si>
+    <t>Word reading (measures not used for matching)</t>
+  </si>
+  <si>
+    <t>Word reading (not used for matching)</t>
+  </si>
+  <si>
+    <t>Trim and Fill reported for this outcome (funnel plot trimming mentioned)</t>
+  </si>
+  <si>
+    <t>“343 children in the RD groups … 367 … RL … 368 … CA groups”</t>
+  </si>
+  <si>
+    <t>Word reading measures not used for matching; funnel-plot trimming reported as an assessment.</t>
+  </si>
+  <si>
+    <t>“One study reported data for only the RD and RL groups”</t>
+  </si>
+  <si>
+    <t>Word reading measures not used for matching; CA comparison based on 10 studies (one lacked CA).</t>
+  </si>
+  <si>
+    <t>“eight reading accuracy comparisons”</t>
+  </si>
+  <si>
+    <t>Task-type subgroup estimate within word reading measures not used for matching.</t>
+  </si>
+  <si>
+    <t>Word reading efficiency</t>
+  </si>
+  <si>
+    <t>“nine reading efficiency comparisons”</t>
+  </si>
+  <si>
+    <t>Nonword reading pooled estimates (overall and task-type subgroup estimates).</t>
+  </si>
+  <si>
+    <t>Nonword reading</t>
+  </si>
+  <si>
+    <t>“353 … RD … 345 … RL … 347 … CA groups”</t>
+  </si>
+  <si>
+    <t>Overall nonword reading (accuracy or efficiency combined).</t>
+  </si>
+  <si>
+    <t>“comparison of RD and CA was based on 10 studies”</t>
+  </si>
+  <si>
+    <t>Overall nonword reading; CA comparison excludes studies lacking CA data.</t>
+  </si>
+  <si>
+    <t>Nonword reading accuracy</t>
+  </si>
+  <si>
+    <t>“eight nonword reading accuracy comparisons”</t>
+  </si>
+  <si>
+    <t>Task-type subgroup estimate within nonword reading.</t>
+  </si>
+  <si>
+    <t>Nonword reading efficiency</t>
+  </si>
+  <si>
+    <t>“eleven reading efficiency comparisons”</t>
+  </si>
+  <si>
+    <t>Phonological awareness pooled estimates (overall and task-type subgroup estimates).</t>
+  </si>
+  <si>
+    <t>“530 … RD … 558 … RL … 558 … CA groups”</t>
+  </si>
+  <si>
+    <t>Overall phonological awareness pooled estimate.</t>
+  </si>
+  <si>
+    <t>“Nineteen studies compared performance on phonological awareness tasks…”</t>
+  </si>
+  <si>
+    <t>Overall phonological awareness pooled estimate for RD vs CA.</t>
+  </si>
+  <si>
+    <t>Phonological awareness (syllable/rime tasks)</t>
+  </si>
+  <si>
+    <t>Syllable/rime manipulations</t>
+  </si>
+  <si>
+    <t>“Nine effect sizes assessed syllable or rime level manipulations”</t>
+  </si>
+  <si>
+    <t>Subgroup pooled estimate by phonological awareness task type.</t>
+  </si>
+  <si>
+    <t>Phonological awareness (simple phonemic tasks)</t>
+  </si>
+  <si>
+    <t>Simple phonemic (matching/blending/segmentation)</t>
+  </si>
+  <si>
+    <t>“Eight effect sizes … simple phonemic awareness tasks”</t>
+  </si>
+  <si>
+    <t>Phonological awareness (complex phonemic tasks)</t>
+  </si>
+  <si>
+    <t>Complex phonemic (deletion/substitution/spoonerisms)</t>
+  </si>
+  <si>
+    <t>“14 effect sizes from complex phonemic awareness tasks”</t>
+  </si>
+  <si>
+    <t>Subgroup pooled estimate by phonological awareness task type.```</t>
+  </si>
+  <si>
+    <t>Rapid automatized naming (RAN) pooled estimates.</t>
+  </si>
+  <si>
+    <t>“312 … RD … 402 … RL … 392 … CA groups”</t>
+  </si>
+  <si>
+    <t>Overall RAN pooled estimate; task-type (alphanumeric/nonalphanumeric) reported without CIs, so not extracted as separate pooled rows.```</t>
+  </si>
+  <si>
+    <t>“Fourteen studies reported comparisons … on RAN.”</t>
+  </si>
+  <si>
+    <t>Overall RAN pooled estimate for RD vs CA.```</t>
+  </si>
+  <si>
+    <t>Verbal short-term memory (VSTM) pooled estimates, including stimulus-type subgroup estimates.</t>
+  </si>
+  <si>
+    <t>“303 … RD … 347 … RL … 334 … CA groups”</t>
+  </si>
+  <si>
+    <t>Authors label is VSTM; mapped to Working memory per deterministic rule. Subgroup estimates by stimulus type extracted separately.```</t>
+  </si>
+  <si>
+    <t>“Twelve studies reported comparisons … on verbal short-term memory (VSTM).”</t>
+  </si>
+  <si>
+    <t>Authors label is VSTM; mapped to Working memory per deterministic rule.```</t>
+  </si>
+  <si>
+    <t>Verbal short-term memory (nonword repetition)</t>
+  </si>
+  <si>
+    <t>Nonword repetition</t>
+  </si>
+  <si>
+    <t>“Five studies … nonwords”</t>
+  </si>
+  <si>
+    <t>Stimulus-type subgroup estimate within VSTM; mapped to Working memory per deterministic rule.```</t>
+  </si>
+  <si>
+    <t>Verbal short-term memory (digits/words/sentences)</t>
+  </si>
+  <si>
+    <t>Digit/word/sentence repetition</t>
+  </si>
+  <si>
+    <t>“digits, words, or sentences, g = − 0.089”</t>
+  </si>
+  <si>
+    <t>EG06</t>
+  </si>
+  <si>
+    <t>Auditory temporal processing pooled estimates.</t>
+  </si>
+  <si>
+    <t>“107 … RD … 111 … RL … 111 … CA groups”</t>
+  </si>
+  <si>
+    <t>Auditory temporal processing (ATP) pooled estimate; mapped under Perception → Auditory perception.```</t>
+  </si>
+  <si>
+    <t>“Five studies reported comparisons … on auditory temporal processing.”</t>
+  </si>
+  <si>
+    <t>Auditory temporal processing (ATP) pooled estimate for RD vs CA.```</t>
   </si>
 </sst>
 </file>
@@ -7923,11 +8208,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AX430"/>
+  <dimension ref="A1:AX452"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A381" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C430" sqref="C430"/>
+    <sheetView tabSelected="1" topLeftCell="AI1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A415" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AP455" sqref="AP455"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -64465,15 +64750,1894 @@
       </c>
     </row>
     <row r="430" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A430" s="21"/>
+      <c r="A430" s="21" t="s">
+        <v>1858</v>
+      </c>
       <c r="B430" s="22" t="s">
         <v>2469</v>
       </c>
-      <c r="S430" s="24"/>
-      <c r="T430" s="24"/>
-      <c r="U430" s="24"/>
-      <c r="AF430" s="24"/>
-      <c r="AG430" s="24"/>
+      <c r="C430" s="23" t="s">
+        <v>2471</v>
+      </c>
+      <c r="D430" s="23">
+        <v>2020</v>
+      </c>
+      <c r="F430" s="23" t="s">
+        <v>455</v>
+      </c>
+      <c r="G430" s="23" t="s">
+        <v>1160</v>
+      </c>
+      <c r="H430" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I430" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="J430" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="K430" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="L430" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="M430" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="N430" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="O430" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="P430" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q430" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="S430" s="24" t="s">
+        <v>2470</v>
+      </c>
+      <c r="T430" s="19"/>
+      <c r="U430" s="19"/>
+      <c r="V430" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="W430" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="X430" s="23" t="s">
+        <v>266</v>
+      </c>
+      <c r="Y430" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z430" s="23" t="s">
+        <v>2494</v>
+      </c>
+      <c r="AA430" s="23" t="s">
+        <v>2495</v>
+      </c>
+      <c r="AB430" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC430" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD430" s="23" t="s">
+        <v>2496</v>
+      </c>
+      <c r="AE430" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF430" s="19"/>
+      <c r="AG430" s="24">
+        <v>-0.13200000000000001</v>
+      </c>
+      <c r="AH430" s="23">
+        <v>6.4285999999999996E-2</v>
+      </c>
+      <c r="AI430" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ430" s="23">
+        <v>-0.25800000000000001</v>
+      </c>
+      <c r="AK430" s="23">
+        <v>-6.0000000000000001E-3</v>
+      </c>
+      <c r="AL430" s="23">
+        <v>0.95</v>
+      </c>
+      <c r="AN430" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO430" s="23" t="s">
+        <v>2497</v>
+      </c>
+      <c r="AP430" s="23" t="s">
+        <v>2501</v>
+      </c>
+      <c r="AQ430" s="23" t="s">
+        <v>1839</v>
+      </c>
+      <c r="AR430" s="23" t="s">
+        <v>2498</v>
+      </c>
+      <c r="AS430" s="23">
+        <v>18</v>
+      </c>
+      <c r="AU430" s="23" t="s">
+        <v>2499</v>
+      </c>
+      <c r="AV430" s="23" t="s">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="431" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A431" s="21"/>
+      <c r="B431" s="22"/>
+      <c r="S431" s="24" t="s">
+        <v>2472</v>
+      </c>
+      <c r="T431" s="19"/>
+      <c r="U431" s="19"/>
+      <c r="V431" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="W431" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="X431" s="23" t="s">
+        <v>266</v>
+      </c>
+      <c r="Y431" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z431" s="23" t="s">
+        <v>2494</v>
+      </c>
+      <c r="AA431" s="23" t="s">
+        <v>2495</v>
+      </c>
+      <c r="AB431" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC431" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD431" s="23" t="s">
+        <v>2496</v>
+      </c>
+      <c r="AE431" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF431" s="19"/>
+      <c r="AG431" s="24">
+        <v>-2.569</v>
+      </c>
+      <c r="AH431" s="23">
+        <v>0.283163</v>
+      </c>
+      <c r="AI431" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ431" s="23">
+        <v>-3.1240000000000001</v>
+      </c>
+      <c r="AK431" s="23">
+        <v>-2.0139999999999998</v>
+      </c>
+      <c r="AL431" s="23">
+        <v>0.95</v>
+      </c>
+      <c r="AN431" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO431" s="23" t="s">
+        <v>2497</v>
+      </c>
+      <c r="AP431" s="23" t="s">
+        <v>2501</v>
+      </c>
+      <c r="AQ431" s="23" t="s">
+        <v>1839</v>
+      </c>
+      <c r="AR431" s="23" t="s">
+        <v>2498</v>
+      </c>
+      <c r="AS431" s="23">
+        <v>14</v>
+      </c>
+      <c r="AU431" s="23" t="s">
+        <v>2502</v>
+      </c>
+      <c r="AV431" s="23" t="s">
+        <v>2503</v>
+      </c>
+    </row>
+    <row r="432" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A432" s="21"/>
+      <c r="B432" s="22"/>
+      <c r="S432" s="24" t="s">
+        <v>2473</v>
+      </c>
+      <c r="T432" s="19"/>
+      <c r="U432" s="19"/>
+      <c r="V432" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="W432" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="X432" s="23" t="s">
+        <v>266</v>
+      </c>
+      <c r="Y432" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z432" s="23" t="s">
+        <v>2494</v>
+      </c>
+      <c r="AA432" s="23" t="s">
+        <v>2504</v>
+      </c>
+      <c r="AB432" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC432" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD432" s="23" t="s">
+        <v>2505</v>
+      </c>
+      <c r="AE432" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF432" s="19"/>
+      <c r="AG432" s="24">
+        <v>-0.996</v>
+      </c>
+      <c r="AH432" s="23">
+        <v>0.244643</v>
+      </c>
+      <c r="AI432" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ432" s="23">
+        <v>-1.4750000000000001</v>
+      </c>
+      <c r="AK432" s="23">
+        <v>-0.51600000000000001</v>
+      </c>
+      <c r="AL432" s="23">
+        <v>0.95</v>
+      </c>
+      <c r="AN432" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO432" s="23" t="s">
+        <v>2506</v>
+      </c>
+      <c r="AP432" s="23" t="s">
+        <v>2501</v>
+      </c>
+      <c r="AQ432" s="23" t="s">
+        <v>1839</v>
+      </c>
+      <c r="AR432" s="23" t="s">
+        <v>2498</v>
+      </c>
+      <c r="AS432" s="23">
+        <v>11</v>
+      </c>
+      <c r="AT432" s="23" t="s">
+        <v>2507</v>
+      </c>
+      <c r="AU432" s="23" t="s">
+        <v>2499</v>
+      </c>
+      <c r="AV432" s="23" t="s">
+        <v>2508</v>
+      </c>
+    </row>
+    <row r="433" spans="1:49" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A433" s="21"/>
+      <c r="B433" s="22"/>
+      <c r="S433" s="24" t="s">
+        <v>2474</v>
+      </c>
+      <c r="T433" s="19"/>
+      <c r="U433" s="19"/>
+      <c r="V433" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="W433" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="X433" s="23" t="s">
+        <v>266</v>
+      </c>
+      <c r="Y433" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z433" s="23" t="s">
+        <v>2494</v>
+      </c>
+      <c r="AA433" s="23" t="s">
+        <v>2504</v>
+      </c>
+      <c r="AB433" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC433" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD433" s="23" t="s">
+        <v>2505</v>
+      </c>
+      <c r="AE433" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF433" s="19"/>
+      <c r="AG433" s="24">
+        <v>-1.948</v>
+      </c>
+      <c r="AH433" s="23">
+        <v>0.25025500000000001</v>
+      </c>
+      <c r="AI433" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ433" s="23">
+        <v>-2.4380000000000002</v>
+      </c>
+      <c r="AK433" s="23">
+        <v>-1.4570000000000001</v>
+      </c>
+      <c r="AL433" s="23">
+        <v>0.95</v>
+      </c>
+      <c r="AN433" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP433" s="23" t="s">
+        <v>2501</v>
+      </c>
+      <c r="AQ433" s="23" t="s">
+        <v>1839</v>
+      </c>
+      <c r="AR433" s="23" t="s">
+        <v>2498</v>
+      </c>
+      <c r="AS433" s="23">
+        <v>10</v>
+      </c>
+      <c r="AT433" s="23" t="s">
+        <v>2509</v>
+      </c>
+      <c r="AU433" s="23" t="s">
+        <v>2502</v>
+      </c>
+      <c r="AV433" s="23" t="s">
+        <v>2510</v>
+      </c>
+    </row>
+    <row r="434" spans="1:49" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A434" s="21"/>
+      <c r="B434" s="22"/>
+      <c r="S434" s="24" t="s">
+        <v>2475</v>
+      </c>
+      <c r="T434" s="19"/>
+      <c r="U434" s="19"/>
+      <c r="V434" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="W434" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="X434" s="23" t="s">
+        <v>266</v>
+      </c>
+      <c r="Y434" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z434" s="23" t="s">
+        <v>2494</v>
+      </c>
+      <c r="AA434" s="23" t="s">
+        <v>468</v>
+      </c>
+      <c r="AB434" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC434" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD434" s="23" t="s">
+        <v>468</v>
+      </c>
+      <c r="AE434" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF434" s="19"/>
+      <c r="AG434" s="24">
+        <v>-1.1519999999999999</v>
+      </c>
+      <c r="AH434" s="23">
+        <v>0.51326499999999997</v>
+      </c>
+      <c r="AI434" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ434" s="23">
+        <v>-2.1579999999999999</v>
+      </c>
+      <c r="AK434" s="23">
+        <v>-0.14599999999999999</v>
+      </c>
+      <c r="AL434" s="23">
+        <v>0.95</v>
+      </c>
+      <c r="AN434" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP434" s="23" t="s">
+        <v>2501</v>
+      </c>
+      <c r="AQ434" s="23" t="s">
+        <v>1839</v>
+      </c>
+      <c r="AR434" s="23" t="s">
+        <v>2498</v>
+      </c>
+      <c r="AT434" s="23" t="s">
+        <v>2511</v>
+      </c>
+      <c r="AU434" s="23" t="s">
+        <v>2499</v>
+      </c>
+      <c r="AV434" s="23" t="s">
+        <v>2512</v>
+      </c>
+    </row>
+    <row r="435" spans="1:49" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A435" s="21"/>
+      <c r="B435" s="22"/>
+      <c r="S435" s="24" t="s">
+        <v>2476</v>
+      </c>
+      <c r="T435" s="19"/>
+      <c r="U435" s="19"/>
+      <c r="V435" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="W435" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="X435" s="23" t="s">
+        <v>266</v>
+      </c>
+      <c r="Y435" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z435" s="23" t="s">
+        <v>2494</v>
+      </c>
+      <c r="AA435" s="23" t="s">
+        <v>2513</v>
+      </c>
+      <c r="AB435" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC435" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD435" s="23" t="s">
+        <v>2513</v>
+      </c>
+      <c r="AE435" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF435" s="19"/>
+      <c r="AG435" s="24">
+        <v>-0.89400000000000002</v>
+      </c>
+      <c r="AH435" s="23">
+        <v>0.57398000000000005</v>
+      </c>
+      <c r="AI435" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ435" s="23">
+        <v>-2.0190000000000001</v>
+      </c>
+      <c r="AK435" s="23">
+        <v>0.23100000000000001</v>
+      </c>
+      <c r="AL435" s="23">
+        <v>0.95</v>
+      </c>
+      <c r="AN435" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP435" s="23" t="s">
+        <v>2501</v>
+      </c>
+      <c r="AQ435" s="23" t="s">
+        <v>1839</v>
+      </c>
+      <c r="AR435" s="23" t="s">
+        <v>2498</v>
+      </c>
+      <c r="AT435" s="23" t="s">
+        <v>2514</v>
+      </c>
+      <c r="AU435" s="23" t="s">
+        <v>2499</v>
+      </c>
+      <c r="AV435" s="23" t="s">
+        <v>2512</v>
+      </c>
+    </row>
+    <row r="436" spans="1:49" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A436" s="21"/>
+      <c r="B436" s="22"/>
+      <c r="S436" s="24" t="s">
+        <v>2477</v>
+      </c>
+      <c r="T436" s="19"/>
+      <c r="U436" s="19"/>
+      <c r="V436" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="W436" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="X436" s="23" t="s">
+        <v>266</v>
+      </c>
+      <c r="Y436" s="23" t="s">
+        <v>353</v>
+      </c>
+      <c r="Z436" s="23" t="s">
+        <v>2515</v>
+      </c>
+      <c r="AA436" s="23" t="s">
+        <v>2516</v>
+      </c>
+      <c r="AB436" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC436" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD436" s="23" t="s">
+        <v>2516</v>
+      </c>
+      <c r="AE436" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF436" s="19"/>
+      <c r="AG436" s="24">
+        <v>-0.98099999999999998</v>
+      </c>
+      <c r="AH436" s="23">
+        <v>0.18979599999999999</v>
+      </c>
+      <c r="AI436" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ436" s="23">
+        <v>-1.353</v>
+      </c>
+      <c r="AK436" s="23">
+        <v>-0.60899999999999999</v>
+      </c>
+      <c r="AL436" s="23">
+        <v>0.95</v>
+      </c>
+      <c r="AN436" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO436" s="23" t="s">
+        <v>2506</v>
+      </c>
+      <c r="AP436" s="23" t="s">
+        <v>2501</v>
+      </c>
+      <c r="AQ436" s="23" t="s">
+        <v>1839</v>
+      </c>
+      <c r="AR436" s="23" t="s">
+        <v>2498</v>
+      </c>
+      <c r="AS436" s="23">
+        <v>12</v>
+      </c>
+      <c r="AT436" s="23" t="s">
+        <v>2517</v>
+      </c>
+      <c r="AU436" s="23" t="s">
+        <v>2499</v>
+      </c>
+      <c r="AV436" s="23" t="s">
+        <v>2518</v>
+      </c>
+    </row>
+    <row r="437" spans="1:49" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A437" s="21"/>
+      <c r="B437" s="22"/>
+      <c r="S437" s="24" t="s">
+        <v>2478</v>
+      </c>
+      <c r="T437" s="19"/>
+      <c r="U437" s="19"/>
+      <c r="V437" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="W437" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="X437" s="23" t="s">
+        <v>266</v>
+      </c>
+      <c r="Y437" s="23" t="s">
+        <v>353</v>
+      </c>
+      <c r="Z437" s="23" t="s">
+        <v>2515</v>
+      </c>
+      <c r="AA437" s="23" t="s">
+        <v>2516</v>
+      </c>
+      <c r="AB437" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC437" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD437" s="23" t="s">
+        <v>2516</v>
+      </c>
+      <c r="AE437" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF437" s="19"/>
+      <c r="AG437" s="24">
+        <v>-2.3250000000000002</v>
+      </c>
+      <c r="AH437" s="23">
+        <v>0.25969399999999998</v>
+      </c>
+      <c r="AI437" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ437" s="23">
+        <v>-2.8340000000000001</v>
+      </c>
+      <c r="AK437" s="23">
+        <v>-1.8160000000000001</v>
+      </c>
+      <c r="AL437" s="23">
+        <v>0.95</v>
+      </c>
+      <c r="AN437" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO437" s="23" t="s">
+        <v>2506</v>
+      </c>
+      <c r="AP437" s="23" t="s">
+        <v>2501</v>
+      </c>
+      <c r="AQ437" s="23" t="s">
+        <v>1839</v>
+      </c>
+      <c r="AR437" s="23" t="s">
+        <v>2498</v>
+      </c>
+      <c r="AS437" s="23">
+        <v>10</v>
+      </c>
+      <c r="AT437" s="23" t="s">
+        <v>2519</v>
+      </c>
+      <c r="AU437" s="23" t="s">
+        <v>2502</v>
+      </c>
+      <c r="AV437" s="23" t="s">
+        <v>2520</v>
+      </c>
+    </row>
+    <row r="438" spans="1:49" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A438" s="21"/>
+      <c r="B438" s="22"/>
+      <c r="S438" s="24" t="s">
+        <v>2479</v>
+      </c>
+      <c r="T438" s="19"/>
+      <c r="U438" s="19"/>
+      <c r="V438" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="W438" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="X438" s="23" t="s">
+        <v>266</v>
+      </c>
+      <c r="Y438" s="23" t="s">
+        <v>353</v>
+      </c>
+      <c r="Z438" s="23" t="s">
+        <v>2515</v>
+      </c>
+      <c r="AA438" s="23" t="s">
+        <v>2521</v>
+      </c>
+      <c r="AB438" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC438" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD438" s="23" t="s">
+        <v>2521</v>
+      </c>
+      <c r="AE438" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF438" s="19"/>
+      <c r="AG438" s="24">
+        <v>-1.095</v>
+      </c>
+      <c r="AH438" s="23">
+        <v>0.40867300000000001</v>
+      </c>
+      <c r="AI438" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ438" s="23">
+        <v>-1.8959999999999999</v>
+      </c>
+      <c r="AK438" s="23">
+        <v>-0.29399999999999998</v>
+      </c>
+      <c r="AL438" s="23">
+        <v>0.95</v>
+      </c>
+      <c r="AN438" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP438" s="23" t="s">
+        <v>2501</v>
+      </c>
+      <c r="AQ438" s="23" t="s">
+        <v>1839</v>
+      </c>
+      <c r="AR438" s="23" t="s">
+        <v>2498</v>
+      </c>
+      <c r="AT438" s="23" t="s">
+        <v>2522</v>
+      </c>
+      <c r="AU438" s="23" t="s">
+        <v>2499</v>
+      </c>
+      <c r="AV438" s="23" t="s">
+        <v>2523</v>
+      </c>
+    </row>
+    <row r="439" spans="1:49" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A439" s="21"/>
+      <c r="B439" s="22"/>
+      <c r="S439" s="24" t="s">
+        <v>2480</v>
+      </c>
+      <c r="T439" s="19"/>
+      <c r="U439" s="19"/>
+      <c r="V439" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="W439" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="X439" s="23" t="s">
+        <v>266</v>
+      </c>
+      <c r="Y439" s="23" t="s">
+        <v>353</v>
+      </c>
+      <c r="Z439" s="23" t="s">
+        <v>2515</v>
+      </c>
+      <c r="AA439" s="23" t="s">
+        <v>2524</v>
+      </c>
+      <c r="AB439" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC439" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD439" s="23" t="s">
+        <v>2524</v>
+      </c>
+      <c r="AE439" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF439" s="19"/>
+      <c r="AG439" s="24">
+        <v>-1.077</v>
+      </c>
+      <c r="AH439" s="23">
+        <v>0.36249999999999999</v>
+      </c>
+      <c r="AI439" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ439" s="23">
+        <v>-1.7869999999999999</v>
+      </c>
+      <c r="AK439" s="23">
+        <v>-0.36599999999999999</v>
+      </c>
+      <c r="AL439" s="23">
+        <v>0.95</v>
+      </c>
+      <c r="AN439" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP439" s="23" t="s">
+        <v>2501</v>
+      </c>
+      <c r="AQ439" s="23" t="s">
+        <v>1839</v>
+      </c>
+      <c r="AR439" s="23" t="s">
+        <v>2498</v>
+      </c>
+      <c r="AT439" s="23" t="s">
+        <v>2525</v>
+      </c>
+      <c r="AU439" s="23" t="s">
+        <v>2499</v>
+      </c>
+      <c r="AV439" s="23" t="s">
+        <v>2523</v>
+      </c>
+    </row>
+    <row r="440" spans="1:49" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A440" s="21"/>
+      <c r="B440" s="22"/>
+      <c r="S440" s="24" t="s">
+        <v>2481</v>
+      </c>
+      <c r="T440" s="19"/>
+      <c r="U440" s="19"/>
+      <c r="V440" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="W440" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="X440" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y440" s="23" t="s">
+        <v>434</v>
+      </c>
+      <c r="Z440" s="23" t="s">
+        <v>2526</v>
+      </c>
+      <c r="AA440" s="23" t="s">
+        <v>480</v>
+      </c>
+      <c r="AB440" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC440" s="23" t="s">
+        <v>480</v>
+      </c>
+      <c r="AE440" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF440" s="19"/>
+      <c r="AG440" s="24">
+        <v>-0.42599999999999999</v>
+      </c>
+      <c r="AH440" s="23">
+        <v>0.106888</v>
+      </c>
+      <c r="AI440" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ440" s="23">
+        <v>-0.63600000000000001</v>
+      </c>
+      <c r="AK440" s="23">
+        <v>-0.217</v>
+      </c>
+      <c r="AL440" s="23">
+        <v>0.95</v>
+      </c>
+      <c r="AN440" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO440" s="23" t="s">
+        <v>2506</v>
+      </c>
+      <c r="AP440" s="23" t="s">
+        <v>2501</v>
+      </c>
+      <c r="AQ440" s="23" t="s">
+        <v>1839</v>
+      </c>
+      <c r="AR440" s="23" t="s">
+        <v>2498</v>
+      </c>
+      <c r="AS440" s="23">
+        <v>19</v>
+      </c>
+      <c r="AT440" s="23" t="s">
+        <v>2527</v>
+      </c>
+      <c r="AU440" s="23" t="s">
+        <v>2499</v>
+      </c>
+      <c r="AV440" s="23" t="s">
+        <v>2528</v>
+      </c>
+    </row>
+    <row r="441" spans="1:49" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A441" s="21"/>
+      <c r="B441" s="22"/>
+      <c r="S441" s="24" t="s">
+        <v>2482</v>
+      </c>
+      <c r="T441" s="19"/>
+      <c r="U441" s="19"/>
+      <c r="V441" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="W441" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="X441" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y441" s="23" t="s">
+        <v>434</v>
+      </c>
+      <c r="Z441" s="23" t="s">
+        <v>2526</v>
+      </c>
+      <c r="AA441" s="23" t="s">
+        <v>480</v>
+      </c>
+      <c r="AB441" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC441" s="23" t="s">
+        <v>480</v>
+      </c>
+      <c r="AE441" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF441" s="19"/>
+      <c r="AG441" s="24">
+        <v>-1.1140000000000001</v>
+      </c>
+      <c r="AH441" s="23">
+        <v>9.5662999999999998E-2</v>
+      </c>
+      <c r="AI441" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ441" s="23">
+        <v>-1.302</v>
+      </c>
+      <c r="AK441" s="23">
+        <v>-0.92700000000000005</v>
+      </c>
+      <c r="AL441" s="23">
+        <v>0.95</v>
+      </c>
+      <c r="AN441" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO441" s="23" t="s">
+        <v>2506</v>
+      </c>
+      <c r="AP441" s="23" t="s">
+        <v>2501</v>
+      </c>
+      <c r="AQ441" s="23" t="s">
+        <v>1839</v>
+      </c>
+      <c r="AR441" s="23" t="s">
+        <v>2498</v>
+      </c>
+      <c r="AS441" s="23">
+        <v>19</v>
+      </c>
+      <c r="AT441" s="23" t="s">
+        <v>2529</v>
+      </c>
+      <c r="AU441" s="23" t="s">
+        <v>2502</v>
+      </c>
+      <c r="AV441" s="23" t="s">
+        <v>2530</v>
+      </c>
+    </row>
+    <row r="442" spans="1:49" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A442" s="21"/>
+      <c r="B442" s="22"/>
+      <c r="S442" s="24" t="s">
+        <v>2483</v>
+      </c>
+      <c r="T442" s="19"/>
+      <c r="U442" s="19"/>
+      <c r="V442" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="W442" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="X442" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y442" s="23" t="s">
+        <v>434</v>
+      </c>
+      <c r="Z442" s="23" t="s">
+        <v>2526</v>
+      </c>
+      <c r="AA442" s="23" t="s">
+        <v>2531</v>
+      </c>
+      <c r="AB442" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC442" s="23" t="s">
+        <v>480</v>
+      </c>
+      <c r="AD442" s="23" t="s">
+        <v>2532</v>
+      </c>
+      <c r="AE442" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF442" s="19"/>
+      <c r="AG442" s="24">
+        <v>-0.30199999999999999</v>
+      </c>
+      <c r="AH442" s="23">
+        <v>0.24260200000000001</v>
+      </c>
+      <c r="AI442" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ442" s="23">
+        <v>-0.77800000000000002</v>
+      </c>
+      <c r="AK442" s="23">
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="AL442" s="23">
+        <v>0.95</v>
+      </c>
+      <c r="AP442" s="23" t="s">
+        <v>2501</v>
+      </c>
+      <c r="AQ442" s="23" t="s">
+        <v>1839</v>
+      </c>
+      <c r="AR442" s="23" t="s">
+        <v>2498</v>
+      </c>
+      <c r="AT442" s="23" t="s">
+        <v>2533</v>
+      </c>
+      <c r="AU442" s="23" t="s">
+        <v>2499</v>
+      </c>
+      <c r="AV442" s="23" t="s">
+        <v>2541</v>
+      </c>
+      <c r="AW442" s="23" t="s">
+        <v>2534</v>
+      </c>
+    </row>
+    <row r="443" spans="1:49" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A443" s="21"/>
+      <c r="B443" s="22"/>
+      <c r="S443" s="24" t="s">
+        <v>2484</v>
+      </c>
+      <c r="T443" s="19"/>
+      <c r="U443" s="19"/>
+      <c r="V443" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="W443" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="X443" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y443" s="23" t="s">
+        <v>434</v>
+      </c>
+      <c r="Z443" s="23" t="s">
+        <v>2526</v>
+      </c>
+      <c r="AA443" s="23" t="s">
+        <v>2535</v>
+      </c>
+      <c r="AB443" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC443" s="23" t="s">
+        <v>802</v>
+      </c>
+      <c r="AD443" s="23" t="s">
+        <v>2536</v>
+      </c>
+      <c r="AE443" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF443" s="19"/>
+      <c r="AG443" s="24">
+        <v>-0.36599999999999999</v>
+      </c>
+      <c r="AH443" s="23">
+        <v>0.14260200000000001</v>
+      </c>
+      <c r="AI443" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ443" s="23">
+        <v>-0.64600000000000002</v>
+      </c>
+      <c r="AK443" s="23">
+        <v>-8.6999999999999994E-2</v>
+      </c>
+      <c r="AL443" s="23">
+        <v>0.95</v>
+      </c>
+      <c r="AP443" s="23" t="s">
+        <v>2501</v>
+      </c>
+      <c r="AQ443" s="23" t="s">
+        <v>1839</v>
+      </c>
+      <c r="AR443" s="23" t="s">
+        <v>2498</v>
+      </c>
+      <c r="AT443" s="23" t="s">
+        <v>2537</v>
+      </c>
+      <c r="AU443" s="23" t="s">
+        <v>2499</v>
+      </c>
+      <c r="AV443" s="23" t="s">
+        <v>2541</v>
+      </c>
+      <c r="AW443" s="23" t="s">
+        <v>2534</v>
+      </c>
+    </row>
+    <row r="444" spans="1:49" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A444" s="21"/>
+      <c r="B444" s="22"/>
+      <c r="S444" s="24" t="s">
+        <v>2485</v>
+      </c>
+      <c r="T444" s="19"/>
+      <c r="U444" s="19"/>
+      <c r="V444" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="W444" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="X444" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y444" s="23" t="s">
+        <v>434</v>
+      </c>
+      <c r="Z444" s="23" t="s">
+        <v>2526</v>
+      </c>
+      <c r="AA444" s="23" t="s">
+        <v>2538</v>
+      </c>
+      <c r="AB444" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC444" s="23" t="s">
+        <v>802</v>
+      </c>
+      <c r="AD444" s="23" t="s">
+        <v>2539</v>
+      </c>
+      <c r="AE444" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF444" s="19"/>
+      <c r="AG444" s="24">
+        <v>-0.20799999999999999</v>
+      </c>
+      <c r="AH444" s="23">
+        <v>0.20535700000000001</v>
+      </c>
+      <c r="AI444" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ444" s="23">
+        <v>-0.61099999999999999</v>
+      </c>
+      <c r="AK444" s="23">
+        <v>0.19400000000000001</v>
+      </c>
+      <c r="AL444" s="23">
+        <v>0.95</v>
+      </c>
+      <c r="AP444" s="23" t="s">
+        <v>2501</v>
+      </c>
+      <c r="AQ444" s="23" t="s">
+        <v>1839</v>
+      </c>
+      <c r="AR444" s="23" t="s">
+        <v>2498</v>
+      </c>
+      <c r="AT444" s="23" t="s">
+        <v>2540</v>
+      </c>
+      <c r="AU444" s="23" t="s">
+        <v>2499</v>
+      </c>
+      <c r="AV444" s="23" t="s">
+        <v>2541</v>
+      </c>
+    </row>
+    <row r="445" spans="1:49" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A445" s="21"/>
+      <c r="B445" s="22"/>
+      <c r="S445" s="24" t="s">
+        <v>2486</v>
+      </c>
+      <c r="T445" s="19"/>
+      <c r="U445" s="19"/>
+      <c r="V445" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="W445" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="X445" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y445" s="23" t="s">
+        <v>1756</v>
+      </c>
+      <c r="Z445" s="23" t="s">
+        <v>2542</v>
+      </c>
+      <c r="AA445" s="23" t="s">
+        <v>487</v>
+      </c>
+      <c r="AB445" s="23" t="s">
+        <v>487</v>
+      </c>
+      <c r="AC445" s="23" t="s">
+        <v>487</v>
+      </c>
+      <c r="AE445" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF445" s="19"/>
+      <c r="AG445" s="24">
+        <v>-0.17699999999999999</v>
+      </c>
+      <c r="AH445" s="23">
+        <v>0.132908</v>
+      </c>
+      <c r="AI445" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ445" s="23">
+        <v>-0.437</v>
+      </c>
+      <c r="AK445" s="23">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="AL445" s="23">
+        <v>0.95</v>
+      </c>
+      <c r="AO445" s="23" t="s">
+        <v>2506</v>
+      </c>
+      <c r="AP445" s="23" t="s">
+        <v>2501</v>
+      </c>
+      <c r="AQ445" s="23" t="s">
+        <v>1839</v>
+      </c>
+      <c r="AR445" s="23" t="s">
+        <v>2498</v>
+      </c>
+      <c r="AS445" s="23">
+        <v>14</v>
+      </c>
+      <c r="AT445" s="23" t="s">
+        <v>2543</v>
+      </c>
+      <c r="AU445" s="23" t="s">
+        <v>2499</v>
+      </c>
+      <c r="AV445" s="23" t="s">
+        <v>2544</v>
+      </c>
+    </row>
+    <row r="446" spans="1:49" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A446" s="21"/>
+      <c r="B446" s="22"/>
+      <c r="S446" s="24" t="s">
+        <v>2487</v>
+      </c>
+      <c r="T446" s="19"/>
+      <c r="U446" s="19"/>
+      <c r="V446" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="W446" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="X446" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y446" s="23" t="s">
+        <v>1756</v>
+      </c>
+      <c r="Z446" s="23" t="s">
+        <v>2542</v>
+      </c>
+      <c r="AA446" s="23" t="s">
+        <v>487</v>
+      </c>
+      <c r="AB446" s="23" t="s">
+        <v>487</v>
+      </c>
+      <c r="AC446" s="23" t="s">
+        <v>487</v>
+      </c>
+      <c r="AE446" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF446" s="19"/>
+      <c r="AG446" s="24">
+        <v>-1.4</v>
+      </c>
+      <c r="AH446" s="23">
+        <v>0.158418</v>
+      </c>
+      <c r="AI446" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ446" s="23">
+        <v>-1.7110000000000001</v>
+      </c>
+      <c r="AK446" s="23">
+        <v>-1.0900000000000001</v>
+      </c>
+      <c r="AL446" s="23">
+        <v>0.95</v>
+      </c>
+      <c r="AP446" s="23" t="s">
+        <v>2501</v>
+      </c>
+      <c r="AQ446" s="23" t="s">
+        <v>1839</v>
+      </c>
+      <c r="AR446" s="23" t="s">
+        <v>2498</v>
+      </c>
+      <c r="AS446" s="23">
+        <v>14</v>
+      </c>
+      <c r="AT446" s="23" t="s">
+        <v>2545</v>
+      </c>
+      <c r="AU446" s="23" t="s">
+        <v>2502</v>
+      </c>
+      <c r="AV446" s="23" t="s">
+        <v>2546</v>
+      </c>
+    </row>
+    <row r="447" spans="1:49" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A447" s="21"/>
+      <c r="B447" s="22"/>
+      <c r="S447" s="24" t="s">
+        <v>2488</v>
+      </c>
+      <c r="T447" s="19"/>
+      <c r="U447" s="19"/>
+      <c r="V447" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="W447" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="X447" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y447" s="23" t="s">
+        <v>1762</v>
+      </c>
+      <c r="Z447" s="23" t="s">
+        <v>2547</v>
+      </c>
+      <c r="AA447" s="23" t="s">
+        <v>1795</v>
+      </c>
+      <c r="AB447" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="AC447" s="23" t="s">
+        <v>1834</v>
+      </c>
+      <c r="AE447" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF447" s="19"/>
+      <c r="AG447" s="24">
+        <v>-0.17199999999999999</v>
+      </c>
+      <c r="AH447" s="23">
+        <v>0.190306</v>
+      </c>
+      <c r="AI447" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ447" s="23">
+        <v>-0.54500000000000004</v>
+      </c>
+      <c r="AK447" s="23">
+        <v>0.20100000000000001</v>
+      </c>
+      <c r="AL447" s="23">
+        <v>0.95</v>
+      </c>
+      <c r="AO447" s="23" t="s">
+        <v>2506</v>
+      </c>
+      <c r="AP447" s="23" t="s">
+        <v>2501</v>
+      </c>
+      <c r="AQ447" s="23" t="s">
+        <v>1839</v>
+      </c>
+      <c r="AR447" s="23" t="s">
+        <v>2498</v>
+      </c>
+      <c r="AS447" s="23">
+        <v>12</v>
+      </c>
+      <c r="AT447" s="23" t="s">
+        <v>2548</v>
+      </c>
+      <c r="AU447" s="23" t="s">
+        <v>2499</v>
+      </c>
+      <c r="AV447" s="23" t="s">
+        <v>2549</v>
+      </c>
+    </row>
+    <row r="448" spans="1:49" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A448" s="21"/>
+      <c r="B448" s="22"/>
+      <c r="S448" s="24" t="s">
+        <v>2489</v>
+      </c>
+      <c r="T448" s="19"/>
+      <c r="U448" s="19"/>
+      <c r="V448" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="W448" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="X448" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y448" s="23" t="s">
+        <v>1762</v>
+      </c>
+      <c r="Z448" s="23" t="s">
+        <v>2547</v>
+      </c>
+      <c r="AA448" s="23" t="s">
+        <v>1795</v>
+      </c>
+      <c r="AB448" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="AC448" s="23" t="s">
+        <v>1834</v>
+      </c>
+      <c r="AE448" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF448" s="19"/>
+      <c r="AG448" s="24">
+        <v>-0.91300000000000003</v>
+      </c>
+      <c r="AH448" s="23">
+        <v>0.20535700000000001</v>
+      </c>
+      <c r="AI448" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ448" s="23">
+        <v>-1.3160000000000001</v>
+      </c>
+      <c r="AK448" s="23">
+        <v>-0.51100000000000001</v>
+      </c>
+      <c r="AL448" s="23">
+        <v>0.95</v>
+      </c>
+      <c r="AO448" s="23" t="s">
+        <v>2506</v>
+      </c>
+      <c r="AP448" s="23" t="s">
+        <v>2501</v>
+      </c>
+      <c r="AQ448" s="23" t="s">
+        <v>1839</v>
+      </c>
+      <c r="AR448" s="23" t="s">
+        <v>2498</v>
+      </c>
+      <c r="AS448" s="23">
+        <v>12</v>
+      </c>
+      <c r="AT448" s="23" t="s">
+        <v>2550</v>
+      </c>
+      <c r="AU448" s="23" t="s">
+        <v>2502</v>
+      </c>
+      <c r="AV448" s="23" t="s">
+        <v>2551</v>
+      </c>
+    </row>
+    <row r="449" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A449" s="21"/>
+      <c r="B449" s="22"/>
+      <c r="S449" s="24" t="s">
+        <v>2490</v>
+      </c>
+      <c r="T449" s="19"/>
+      <c r="U449" s="19"/>
+      <c r="V449" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="W449" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="X449" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y449" s="23" t="s">
+        <v>1762</v>
+      </c>
+      <c r="Z449" s="23" t="s">
+        <v>2547</v>
+      </c>
+      <c r="AA449" s="23" t="s">
+        <v>2552</v>
+      </c>
+      <c r="AB449" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="AC449" s="23" t="s">
+        <v>1834</v>
+      </c>
+      <c r="AD449" s="23" t="s">
+        <v>2553</v>
+      </c>
+      <c r="AE449" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF449" s="19"/>
+      <c r="AG449" s="24">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="AH449" s="23">
+        <v>0.15867300000000001</v>
+      </c>
+      <c r="AI449" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ449" s="23">
+        <v>-0.24299999999999999</v>
+      </c>
+      <c r="AK449" s="23">
+        <v>0.379</v>
+      </c>
+      <c r="AL449" s="23">
+        <v>0.95</v>
+      </c>
+      <c r="AP449" s="23" t="s">
+        <v>2501</v>
+      </c>
+      <c r="AQ449" s="23" t="s">
+        <v>1839</v>
+      </c>
+      <c r="AR449" s="23" t="s">
+        <v>2498</v>
+      </c>
+      <c r="AT449" s="23" t="s">
+        <v>2554</v>
+      </c>
+      <c r="AU449" s="23" t="s">
+        <v>2499</v>
+      </c>
+      <c r="AV449" s="23" t="s">
+        <v>2555</v>
+      </c>
+    </row>
+    <row r="450" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A450" s="21"/>
+      <c r="B450" s="22"/>
+      <c r="S450" s="24" t="s">
+        <v>2491</v>
+      </c>
+      <c r="T450" s="19"/>
+      <c r="U450" s="19"/>
+      <c r="V450" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="W450" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="X450" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y450" s="23" t="s">
+        <v>1762</v>
+      </c>
+      <c r="Z450" s="23" t="s">
+        <v>2547</v>
+      </c>
+      <c r="AA450" s="23" t="s">
+        <v>2556</v>
+      </c>
+      <c r="AB450" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="AC450" s="23" t="s">
+        <v>1834</v>
+      </c>
+      <c r="AD450" s="23" t="s">
+        <v>2557</v>
+      </c>
+      <c r="AE450" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF450" s="19"/>
+      <c r="AG450" s="24">
+        <v>-8.8999999999999996E-2</v>
+      </c>
+      <c r="AH450" s="23">
+        <v>0.37729600000000002</v>
+      </c>
+      <c r="AI450" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ450" s="23">
+        <v>-0.82799999999999996</v>
+      </c>
+      <c r="AK450" s="23">
+        <v>0.65100000000000002</v>
+      </c>
+      <c r="AL450" s="23">
+        <v>0.95</v>
+      </c>
+      <c r="AP450" s="23" t="s">
+        <v>2501</v>
+      </c>
+      <c r="AQ450" s="23" t="s">
+        <v>1839</v>
+      </c>
+      <c r="AR450" s="23" t="s">
+        <v>2498</v>
+      </c>
+      <c r="AT450" s="23" t="s">
+        <v>2558</v>
+      </c>
+      <c r="AU450" s="23" t="s">
+        <v>2499</v>
+      </c>
+      <c r="AV450" s="23" t="s">
+        <v>2555</v>
+      </c>
+    </row>
+    <row r="451" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A451" s="21"/>
+      <c r="B451" s="22"/>
+      <c r="S451" s="24" t="s">
+        <v>2492</v>
+      </c>
+      <c r="T451" s="19"/>
+      <c r="U451" s="19"/>
+      <c r="V451" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="W451" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="X451" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y451" s="23" t="s">
+        <v>2559</v>
+      </c>
+      <c r="Z451" s="23" t="s">
+        <v>2560</v>
+      </c>
+      <c r="AA451" s="23" t="s">
+        <v>1995</v>
+      </c>
+      <c r="AB451" s="23" t="s">
+        <v>1855</v>
+      </c>
+      <c r="AC451" s="23" t="s">
+        <v>1856</v>
+      </c>
+      <c r="AD451" s="23" t="s">
+        <v>1995</v>
+      </c>
+      <c r="AE451" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF451" s="19"/>
+      <c r="AG451" s="24">
+        <v>-0.191</v>
+      </c>
+      <c r="AH451" s="23">
+        <v>0.277806</v>
+      </c>
+      <c r="AI451" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ451" s="23">
+        <v>-0.73499999999999999</v>
+      </c>
+      <c r="AK451" s="23">
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="AL451" s="23">
+        <v>0.95</v>
+      </c>
+      <c r="AO451" s="23" t="s">
+        <v>2506</v>
+      </c>
+      <c r="AP451" s="23" t="s">
+        <v>2501</v>
+      </c>
+      <c r="AQ451" s="23" t="s">
+        <v>1839</v>
+      </c>
+      <c r="AR451" s="23" t="s">
+        <v>2498</v>
+      </c>
+      <c r="AS451" s="23">
+        <v>5</v>
+      </c>
+      <c r="AT451" s="23" t="s">
+        <v>2561</v>
+      </c>
+      <c r="AU451" s="23" t="s">
+        <v>2499</v>
+      </c>
+      <c r="AV451" s="23" t="s">
+        <v>2562</v>
+      </c>
+    </row>
+    <row r="452" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A452" s="21"/>
+      <c r="B452" s="22"/>
+      <c r="S452" s="24" t="s">
+        <v>2493</v>
+      </c>
+      <c r="T452" s="19"/>
+      <c r="U452" s="19"/>
+      <c r="V452" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="W452" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="X452" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y452" s="23" t="s">
+        <v>2559</v>
+      </c>
+      <c r="Z452" s="23" t="s">
+        <v>2560</v>
+      </c>
+      <c r="AA452" s="23" t="s">
+        <v>1995</v>
+      </c>
+      <c r="AB452" s="23" t="s">
+        <v>1855</v>
+      </c>
+      <c r="AC452" s="23" t="s">
+        <v>1856</v>
+      </c>
+      <c r="AD452" s="23" t="s">
+        <v>1995</v>
+      </c>
+      <c r="AE452" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF452" s="19"/>
+      <c r="AG452" s="24">
+        <v>-0.63300000000000001</v>
+      </c>
+      <c r="AH452" s="23">
+        <v>0.221939</v>
+      </c>
+      <c r="AI452" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ452" s="23">
+        <v>-1.0680000000000001</v>
+      </c>
+      <c r="AK452" s="23">
+        <v>-0.19800000000000001</v>
+      </c>
+      <c r="AL452" s="23">
+        <v>0.95</v>
+      </c>
+      <c r="AO452" s="23" t="s">
+        <v>2506</v>
+      </c>
+      <c r="AP452" s="23" t="s">
+        <v>2501</v>
+      </c>
+      <c r="AQ452" s="23" t="s">
+        <v>1839</v>
+      </c>
+      <c r="AR452" s="23" t="s">
+        <v>2498</v>
+      </c>
+      <c r="AS452" s="23">
+        <v>5</v>
+      </c>
+      <c r="AT452" s="23" t="s">
+        <v>2563</v>
+      </c>
+      <c r="AU452" s="23" t="s">
+        <v>2502</v>
+      </c>
+      <c r="AV452" s="23" t="s">
+        <v>2564</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Data/coded-Dataset.xlsx
+++ b/Data/coded-Dataset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laura/Desktop/GITHUB-METAREVIEW/Meta-review-cognitive-profiles-ADHD-Dyslexia/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C9D1EC3-6A19-CE48-AEE4-2754906E53FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76AF789C-F3FD-0940-88DC-9B4898B9E89C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30260" yWindow="600" windowWidth="38380" windowHeight="19220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15759" uniqueCount="2565">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16308" uniqueCount="2606">
   <si>
     <t>ID_article</t>
   </si>
@@ -7734,6 +7734,130 @@
   </si>
   <si>
     <t>Auditory temporal processing (ATP) pooled estimate for RD vs CA.```</t>
+  </si>
+  <si>
+    <t>2044</t>
+  </si>
+  <si>
+    <t>A meta-analysis of reading-level match dyslexia studies in consistent alphabetic orthographies</t>
+  </si>
+  <si>
+    <t>2044_1</t>
+  </si>
+  <si>
+    <t>Rochelle, K. S. H.; Talcott, J. B.</t>
+  </si>
+  <si>
+    <t>Impaired balance in developmental dyslexia? A meta-analysis of the contending evidence</t>
+  </si>
+  <si>
+    <t>The meta-analysis focuses on balance/postural stability (motor control); extracted as a neuropsychological/motor-control outcome within protocol scope.; The article reports 15 studies contributing to the meta-analysis, but collapses non-independent study sets into 9 aggregated units; k_primary_studies reflects 15 with this dependency noted.</t>
+  </si>
+  <si>
+    <t>Single overall pooled estimate of balance deficit in dyslexia vs controls across included studies (with non-independent research groups collapsed).</t>
+  </si>
+  <si>
+    <t>Balance deficit (behavioural measures of balance / postural stability)</t>
+  </si>
+  <si>
+    <t>Fail-safe N=684; 'file drawer' estimate=55 unpublished studies.</t>
+  </si>
+  <si>
+    <t>Paediatric and adult samples included (age moderator analysed).</t>
+  </si>
+  <si>
+    <t>Total N=491 participants; 48% classified with dyslexia.</t>
+  </si>
+  <si>
+    <t>Dyslexia vs control (balance/postural stability)</t>
+  </si>
+  <si>
+    <t>Only one protocol-relevant pooled outcome is reported (overall balance deficit). Study-level d values (Table 2) and moderator associations (Table 3) are not extracted as separate pooled cognitive-domain outcomes.</t>
+  </si>
+  <si>
+    <t>2047</t>
+  </si>
+  <si>
+    <t>2047_1</t>
+  </si>
+  <si>
+    <t>2047_2</t>
+  </si>
+  <si>
+    <t>2047_3</t>
+  </si>
+  <si>
+    <t>2047_4</t>
+  </si>
+  <si>
+    <t>M. van Witteloostuijn; P. Boersma; F. Wijnen; J. Rispens</t>
+  </si>
+  <si>
+    <t>No tau/tau2 values were located in the article text; Tau_heterogeneity left null for all rows.</t>
+  </si>
+  <si>
+    <t>Overall pooled effect across 13 studies on visual artificial grammar learning (overall test-phase accuracy), dyslexia vs typically developing controls.</t>
+  </si>
+  <si>
+    <t>Overall accuracy score in the test phase (visual AGL)</t>
+  </si>
+  <si>
+    <t>Artificial grammar learning</t>
+  </si>
+  <si>
+    <t>Funnel plot + Egger regression (t[11] = 4.014, p = 0.002) + trim-and-fill (L0) indicated five missing negative studies.</t>
+  </si>
+  <si>
+    <t>Studies involving either child or adult participants.</t>
+  </si>
+  <si>
+    <t>255 participants with dyslexia and 292 control participants.</t>
+  </si>
+  <si>
+    <t>Dyslexia vs TD controls (visual AGL overall accuracy)</t>
+  </si>
+  <si>
+    <t>Subgroup pooled effect for child studies (N = 7) on visual AGL performance (overall test-phase accuracy), dyslexia vs controls.</t>
+  </si>
+  <si>
+    <t>Overall accuracy score in the test phase (visual AGL) — child studies</t>
+  </si>
+  <si>
+    <t>Child studies.</t>
+  </si>
+  <si>
+    <t>Subgroup pooled effect for adult studies (N = 6) on visual AGL performance (overall test-phase accuracy), dyslexia vs controls.</t>
+  </si>
+  <si>
+    <t>Overall accuracy score in the test phase (visual AGL) — adult studies</t>
+  </si>
+  <si>
+    <t>Adult studies.</t>
+  </si>
+  <si>
+    <t>Trim-and-fill adjusted pooled effect after imputing five missing negative studies.</t>
+  </si>
+  <si>
+    <t>Overall accuracy score in the test phase (visual AGL) — trim-and-fill adjusted</t>
+  </si>
+  <si>
+    <t>Trim-and-fill (L0) imputed five missing negative studies; adjusted pooled effect was not significant.</t>
+  </si>
+  <si>
+    <t>Trim-and-fill sensitivity analysis: “five imputed missing studies… added to our dataset of 13 studies”.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Subgroup estimate reported for adult studies only (N = 6). </t>
+  </si>
+  <si>
+    <t>Subgroup estimate reported for child studies only (N = 7).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Random-effects model (REML) with Knapp-Hartung adjustment; performance measured as overall test-phase accuracy. </t>
+  </si>
+  <si>
+    <t>Publication bias methods include Trim and Fill and Classic Fail-Safe N; bias_method_reported coded as Other.
+    Several outcomes report additional sensitivity/adjusted estimates (outlier-removed, controlled-for-matching, trim-and-fill adjusted); primary pooled estimates extracted, with notes where relevant.</t>
   </si>
 </sst>
 </file>
@@ -8208,11 +8332,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AX452"/>
+  <dimension ref="A1:AX457"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AI1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A415" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AP455" sqref="AP455"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A413" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q442" sqref="Q442"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -64762,6 +64886,9 @@
       <c r="D430" s="23">
         <v>2020</v>
       </c>
+      <c r="E430" s="23" t="s">
+        <v>2566</v>
+      </c>
       <c r="F430" s="23" t="s">
         <v>455</v>
       </c>
@@ -64797,6 +64924,9 @@
       </c>
       <c r="Q430" s="23" t="s">
         <v>46</v>
+      </c>
+      <c r="R430" s="28" t="s">
+        <v>2605</v>
       </c>
       <c r="S430" s="24" t="s">
         <v>2470</v>
@@ -64878,8 +65008,60 @@
       </c>
     </row>
     <row r="431" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A431" s="21"/>
-      <c r="B431" s="22"/>
+      <c r="A431" s="21" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B431" s="22" t="s">
+        <v>2469</v>
+      </c>
+      <c r="C431" s="23" t="s">
+        <v>2471</v>
+      </c>
+      <c r="D431" s="23">
+        <v>2020</v>
+      </c>
+      <c r="E431" s="23" t="s">
+        <v>2566</v>
+      </c>
+      <c r="F431" s="23" t="s">
+        <v>455</v>
+      </c>
+      <c r="G431" s="23" t="s">
+        <v>1160</v>
+      </c>
+      <c r="H431" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I431" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="J431" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="K431" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="L431" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="M431" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="N431" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="O431" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="P431" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q431" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="R431" s="28" t="s">
+        <v>2605</v>
+      </c>
       <c r="S431" s="24" t="s">
         <v>2472</v>
       </c>
@@ -64960,8 +65142,60 @@
       </c>
     </row>
     <row r="432" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A432" s="21"/>
-      <c r="B432" s="22"/>
+      <c r="A432" s="21" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B432" s="22" t="s">
+        <v>2469</v>
+      </c>
+      <c r="C432" s="23" t="s">
+        <v>2471</v>
+      </c>
+      <c r="D432" s="23">
+        <v>2020</v>
+      </c>
+      <c r="E432" s="23" t="s">
+        <v>2566</v>
+      </c>
+      <c r="F432" s="23" t="s">
+        <v>455</v>
+      </c>
+      <c r="G432" s="23" t="s">
+        <v>1160</v>
+      </c>
+      <c r="H432" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I432" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="J432" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="K432" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="L432" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="M432" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="N432" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="O432" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="P432" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q432" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="R432" s="28" t="s">
+        <v>2605</v>
+      </c>
       <c r="S432" s="24" t="s">
         <v>2473</v>
       </c>
@@ -65045,8 +65279,60 @@
       </c>
     </row>
     <row r="433" spans="1:49" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A433" s="21"/>
-      <c r="B433" s="22"/>
+      <c r="A433" s="21" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B433" s="22" t="s">
+        <v>2469</v>
+      </c>
+      <c r="C433" s="23" t="s">
+        <v>2471</v>
+      </c>
+      <c r="D433" s="23">
+        <v>2020</v>
+      </c>
+      <c r="E433" s="23" t="s">
+        <v>2566</v>
+      </c>
+      <c r="F433" s="23" t="s">
+        <v>455</v>
+      </c>
+      <c r="G433" s="23" t="s">
+        <v>1160</v>
+      </c>
+      <c r="H433" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I433" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="J433" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="K433" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="L433" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="M433" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="N433" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="O433" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="P433" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q433" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="R433" s="28" t="s">
+        <v>2605</v>
+      </c>
       <c r="S433" s="24" t="s">
         <v>2474</v>
       </c>
@@ -65127,8 +65413,60 @@
       </c>
     </row>
     <row r="434" spans="1:49" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A434" s="21"/>
-      <c r="B434" s="22"/>
+      <c r="A434" s="21" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B434" s="22" t="s">
+        <v>2469</v>
+      </c>
+      <c r="C434" s="23" t="s">
+        <v>2471</v>
+      </c>
+      <c r="D434" s="23">
+        <v>2020</v>
+      </c>
+      <c r="E434" s="23" t="s">
+        <v>2566</v>
+      </c>
+      <c r="F434" s="23" t="s">
+        <v>455</v>
+      </c>
+      <c r="G434" s="23" t="s">
+        <v>1160</v>
+      </c>
+      <c r="H434" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I434" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="J434" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="K434" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="L434" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="M434" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="N434" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="O434" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="P434" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q434" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="R434" s="28" t="s">
+        <v>2605</v>
+      </c>
       <c r="S434" s="24" t="s">
         <v>2475</v>
       </c>
@@ -65206,8 +65544,60 @@
       </c>
     </row>
     <row r="435" spans="1:49" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A435" s="21"/>
-      <c r="B435" s="22"/>
+      <c r="A435" s="21" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B435" s="22" t="s">
+        <v>2469</v>
+      </c>
+      <c r="C435" s="23" t="s">
+        <v>2471</v>
+      </c>
+      <c r="D435" s="23">
+        <v>2020</v>
+      </c>
+      <c r="E435" s="23" t="s">
+        <v>2566</v>
+      </c>
+      <c r="F435" s="23" t="s">
+        <v>455</v>
+      </c>
+      <c r="G435" s="23" t="s">
+        <v>1160</v>
+      </c>
+      <c r="H435" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I435" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="J435" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="K435" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="L435" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="M435" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="N435" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="O435" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="P435" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q435" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="R435" s="28" t="s">
+        <v>2605</v>
+      </c>
       <c r="S435" s="24" t="s">
         <v>2476</v>
       </c>
@@ -65285,8 +65675,60 @@
       </c>
     </row>
     <row r="436" spans="1:49" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A436" s="21"/>
-      <c r="B436" s="22"/>
+      <c r="A436" s="21" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B436" s="22" t="s">
+        <v>2469</v>
+      </c>
+      <c r="C436" s="23" t="s">
+        <v>2471</v>
+      </c>
+      <c r="D436" s="23">
+        <v>2020</v>
+      </c>
+      <c r="E436" s="23" t="s">
+        <v>2566</v>
+      </c>
+      <c r="F436" s="23" t="s">
+        <v>455</v>
+      </c>
+      <c r="G436" s="23" t="s">
+        <v>1160</v>
+      </c>
+      <c r="H436" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I436" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="J436" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="K436" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="L436" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="M436" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="N436" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="O436" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="P436" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q436" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="R436" s="28" t="s">
+        <v>2605</v>
+      </c>
       <c r="S436" s="24" t="s">
         <v>2477</v>
       </c>
@@ -65370,8 +65812,60 @@
       </c>
     </row>
     <row r="437" spans="1:49" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A437" s="21"/>
-      <c r="B437" s="22"/>
+      <c r="A437" s="21" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B437" s="22" t="s">
+        <v>2469</v>
+      </c>
+      <c r="C437" s="23" t="s">
+        <v>2471</v>
+      </c>
+      <c r="D437" s="23">
+        <v>2020</v>
+      </c>
+      <c r="E437" s="23" t="s">
+        <v>2566</v>
+      </c>
+      <c r="F437" s="23" t="s">
+        <v>455</v>
+      </c>
+      <c r="G437" s="23" t="s">
+        <v>1160</v>
+      </c>
+      <c r="H437" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I437" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="J437" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="K437" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="L437" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="M437" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="N437" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="O437" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="P437" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q437" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="R437" s="28" t="s">
+        <v>2605</v>
+      </c>
       <c r="S437" s="24" t="s">
         <v>2478</v>
       </c>
@@ -65455,8 +65949,60 @@
       </c>
     </row>
     <row r="438" spans="1:49" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A438" s="21"/>
-      <c r="B438" s="22"/>
+      <c r="A438" s="21" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B438" s="22" t="s">
+        <v>2469</v>
+      </c>
+      <c r="C438" s="23" t="s">
+        <v>2471</v>
+      </c>
+      <c r="D438" s="23">
+        <v>2020</v>
+      </c>
+      <c r="E438" s="23" t="s">
+        <v>2566</v>
+      </c>
+      <c r="F438" s="23" t="s">
+        <v>455</v>
+      </c>
+      <c r="G438" s="23" t="s">
+        <v>1160</v>
+      </c>
+      <c r="H438" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I438" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="J438" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="K438" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="L438" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="M438" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="N438" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="O438" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="P438" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q438" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="R438" s="28" t="s">
+        <v>2605</v>
+      </c>
       <c r="S438" s="24" t="s">
         <v>2479</v>
       </c>
@@ -65534,8 +66080,60 @@
       </c>
     </row>
     <row r="439" spans="1:49" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A439" s="21"/>
-      <c r="B439" s="22"/>
+      <c r="A439" s="21" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B439" s="22" t="s">
+        <v>2469</v>
+      </c>
+      <c r="C439" s="23" t="s">
+        <v>2471</v>
+      </c>
+      <c r="D439" s="23">
+        <v>2020</v>
+      </c>
+      <c r="E439" s="23" t="s">
+        <v>2566</v>
+      </c>
+      <c r="F439" s="23" t="s">
+        <v>455</v>
+      </c>
+      <c r="G439" s="23" t="s">
+        <v>1160</v>
+      </c>
+      <c r="H439" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I439" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="J439" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="K439" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="L439" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="M439" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="N439" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="O439" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="P439" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q439" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="R439" s="28" t="s">
+        <v>2605</v>
+      </c>
       <c r="S439" s="24" t="s">
         <v>2480</v>
       </c>
@@ -65613,8 +66211,60 @@
       </c>
     </row>
     <row r="440" spans="1:49" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A440" s="21"/>
-      <c r="B440" s="22"/>
+      <c r="A440" s="21" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B440" s="22" t="s">
+        <v>2469</v>
+      </c>
+      <c r="C440" s="23" t="s">
+        <v>2471</v>
+      </c>
+      <c r="D440" s="23">
+        <v>2020</v>
+      </c>
+      <c r="E440" s="23" t="s">
+        <v>2566</v>
+      </c>
+      <c r="F440" s="23" t="s">
+        <v>455</v>
+      </c>
+      <c r="G440" s="23" t="s">
+        <v>1160</v>
+      </c>
+      <c r="H440" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I440" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="J440" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="K440" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="L440" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="M440" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="N440" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="O440" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="P440" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q440" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="R440" s="28" t="s">
+        <v>2605</v>
+      </c>
       <c r="S440" s="24" t="s">
         <v>2481</v>
       </c>
@@ -65695,8 +66345,60 @@
       </c>
     </row>
     <row r="441" spans="1:49" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A441" s="21"/>
-      <c r="B441" s="22"/>
+      <c r="A441" s="21" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B441" s="22" t="s">
+        <v>2469</v>
+      </c>
+      <c r="C441" s="23" t="s">
+        <v>2471</v>
+      </c>
+      <c r="D441" s="23">
+        <v>2020</v>
+      </c>
+      <c r="E441" s="23" t="s">
+        <v>2566</v>
+      </c>
+      <c r="F441" s="23" t="s">
+        <v>455</v>
+      </c>
+      <c r="G441" s="23" t="s">
+        <v>1160</v>
+      </c>
+      <c r="H441" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I441" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="J441" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="K441" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="L441" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="M441" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="N441" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="O441" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="P441" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q441" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="R441" s="28" t="s">
+        <v>2605</v>
+      </c>
       <c r="S441" s="24" t="s">
         <v>2482</v>
       </c>
@@ -65777,8 +66479,60 @@
       </c>
     </row>
     <row r="442" spans="1:49" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A442" s="21"/>
-      <c r="B442" s="22"/>
+      <c r="A442" s="21" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B442" s="22" t="s">
+        <v>2469</v>
+      </c>
+      <c r="C442" s="23" t="s">
+        <v>2471</v>
+      </c>
+      <c r="D442" s="23">
+        <v>2020</v>
+      </c>
+      <c r="E442" s="23" t="s">
+        <v>2566</v>
+      </c>
+      <c r="F442" s="23" t="s">
+        <v>455</v>
+      </c>
+      <c r="G442" s="23" t="s">
+        <v>1160</v>
+      </c>
+      <c r="H442" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I442" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="J442" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="K442" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="L442" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="M442" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="N442" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="O442" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="P442" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q442" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="R442" s="28" t="s">
+        <v>2605</v>
+      </c>
       <c r="S442" s="24" t="s">
         <v>2483</v>
       </c>
@@ -65856,8 +66610,60 @@
       </c>
     </row>
     <row r="443" spans="1:49" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A443" s="21"/>
-      <c r="B443" s="22"/>
+      <c r="A443" s="21" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B443" s="22" t="s">
+        <v>2469</v>
+      </c>
+      <c r="C443" s="23" t="s">
+        <v>2471</v>
+      </c>
+      <c r="D443" s="23">
+        <v>2020</v>
+      </c>
+      <c r="E443" s="23" t="s">
+        <v>2566</v>
+      </c>
+      <c r="F443" s="23" t="s">
+        <v>455</v>
+      </c>
+      <c r="G443" s="23" t="s">
+        <v>1160</v>
+      </c>
+      <c r="H443" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I443" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="J443" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="K443" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="L443" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="M443" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="N443" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="O443" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="P443" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q443" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="R443" s="28" t="s">
+        <v>2605</v>
+      </c>
       <c r="S443" s="24" t="s">
         <v>2484</v>
       </c>
@@ -65935,8 +66741,60 @@
       </c>
     </row>
     <row r="444" spans="1:49" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A444" s="21"/>
-      <c r="B444" s="22"/>
+      <c r="A444" s="21" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B444" s="22" t="s">
+        <v>2469</v>
+      </c>
+      <c r="C444" s="23" t="s">
+        <v>2471</v>
+      </c>
+      <c r="D444" s="23">
+        <v>2020</v>
+      </c>
+      <c r="E444" s="23" t="s">
+        <v>2566</v>
+      </c>
+      <c r="F444" s="23" t="s">
+        <v>455</v>
+      </c>
+      <c r="G444" s="23" t="s">
+        <v>1160</v>
+      </c>
+      <c r="H444" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I444" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="J444" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="K444" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="L444" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="M444" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="N444" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="O444" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="P444" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q444" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="R444" s="28" t="s">
+        <v>2605</v>
+      </c>
       <c r="S444" s="24" t="s">
         <v>2485</v>
       </c>
@@ -66011,8 +66869,60 @@
       </c>
     </row>
     <row r="445" spans="1:49" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A445" s="21"/>
-      <c r="B445" s="22"/>
+      <c r="A445" s="21" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B445" s="22" t="s">
+        <v>2469</v>
+      </c>
+      <c r="C445" s="23" t="s">
+        <v>2471</v>
+      </c>
+      <c r="D445" s="23">
+        <v>2020</v>
+      </c>
+      <c r="E445" s="23" t="s">
+        <v>2566</v>
+      </c>
+      <c r="F445" s="23" t="s">
+        <v>455</v>
+      </c>
+      <c r="G445" s="23" t="s">
+        <v>1160</v>
+      </c>
+      <c r="H445" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I445" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="J445" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="K445" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="L445" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="M445" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="N445" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="O445" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="P445" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q445" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="R445" s="28" t="s">
+        <v>2605</v>
+      </c>
       <c r="S445" s="24" t="s">
         <v>2486</v>
       </c>
@@ -66090,8 +67000,60 @@
       </c>
     </row>
     <row r="446" spans="1:49" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A446" s="21"/>
-      <c r="B446" s="22"/>
+      <c r="A446" s="21" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B446" s="22" t="s">
+        <v>2469</v>
+      </c>
+      <c r="C446" s="23" t="s">
+        <v>2471</v>
+      </c>
+      <c r="D446" s="23">
+        <v>2020</v>
+      </c>
+      <c r="E446" s="23" t="s">
+        <v>2566</v>
+      </c>
+      <c r="F446" s="23" t="s">
+        <v>455</v>
+      </c>
+      <c r="G446" s="23" t="s">
+        <v>1160</v>
+      </c>
+      <c r="H446" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I446" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="J446" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="K446" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="L446" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="M446" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="N446" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="O446" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="P446" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q446" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="R446" s="28" t="s">
+        <v>2605</v>
+      </c>
       <c r="S446" s="24" t="s">
         <v>2487</v>
       </c>
@@ -66166,8 +67128,60 @@
       </c>
     </row>
     <row r="447" spans="1:49" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A447" s="21"/>
-      <c r="B447" s="22"/>
+      <c r="A447" s="21" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B447" s="22" t="s">
+        <v>2469</v>
+      </c>
+      <c r="C447" s="23" t="s">
+        <v>2471</v>
+      </c>
+      <c r="D447" s="23">
+        <v>2020</v>
+      </c>
+      <c r="E447" s="23" t="s">
+        <v>2566</v>
+      </c>
+      <c r="F447" s="23" t="s">
+        <v>455</v>
+      </c>
+      <c r="G447" s="23" t="s">
+        <v>1160</v>
+      </c>
+      <c r="H447" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I447" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="J447" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="K447" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="L447" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="M447" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="N447" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="O447" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="P447" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q447" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="R447" s="28" t="s">
+        <v>2605</v>
+      </c>
       <c r="S447" s="24" t="s">
         <v>2488</v>
       </c>
@@ -66245,8 +67259,60 @@
       </c>
     </row>
     <row r="448" spans="1:49" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A448" s="21"/>
-      <c r="B448" s="22"/>
+      <c r="A448" s="21" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B448" s="22" t="s">
+        <v>2469</v>
+      </c>
+      <c r="C448" s="23" t="s">
+        <v>2471</v>
+      </c>
+      <c r="D448" s="23">
+        <v>2020</v>
+      </c>
+      <c r="E448" s="23" t="s">
+        <v>2566</v>
+      </c>
+      <c r="F448" s="23" t="s">
+        <v>455</v>
+      </c>
+      <c r="G448" s="23" t="s">
+        <v>1160</v>
+      </c>
+      <c r="H448" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I448" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="J448" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="K448" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="L448" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="M448" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="N448" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="O448" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="P448" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q448" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="R448" s="28" t="s">
+        <v>2605</v>
+      </c>
       <c r="S448" s="24" t="s">
         <v>2489</v>
       </c>
@@ -66324,8 +67390,60 @@
       </c>
     </row>
     <row r="449" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A449" s="21"/>
-      <c r="B449" s="22"/>
+      <c r="A449" s="21" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B449" s="22" t="s">
+        <v>2469</v>
+      </c>
+      <c r="C449" s="23" t="s">
+        <v>2471</v>
+      </c>
+      <c r="D449" s="23">
+        <v>2020</v>
+      </c>
+      <c r="E449" s="23" t="s">
+        <v>2566</v>
+      </c>
+      <c r="F449" s="23" t="s">
+        <v>455</v>
+      </c>
+      <c r="G449" s="23" t="s">
+        <v>1160</v>
+      </c>
+      <c r="H449" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I449" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="J449" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="K449" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="L449" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="M449" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="N449" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="O449" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="P449" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q449" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="R449" s="28" t="s">
+        <v>2605</v>
+      </c>
       <c r="S449" s="24" t="s">
         <v>2490</v>
       </c>
@@ -66400,8 +67518,60 @@
       </c>
     </row>
     <row r="450" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A450" s="21"/>
-      <c r="B450" s="22"/>
+      <c r="A450" s="21" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B450" s="22" t="s">
+        <v>2469</v>
+      </c>
+      <c r="C450" s="23" t="s">
+        <v>2471</v>
+      </c>
+      <c r="D450" s="23">
+        <v>2020</v>
+      </c>
+      <c r="E450" s="23" t="s">
+        <v>2566</v>
+      </c>
+      <c r="F450" s="23" t="s">
+        <v>455</v>
+      </c>
+      <c r="G450" s="23" t="s">
+        <v>1160</v>
+      </c>
+      <c r="H450" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I450" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="J450" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="K450" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="L450" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="M450" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="N450" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="O450" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="P450" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q450" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="R450" s="28" t="s">
+        <v>2605</v>
+      </c>
       <c r="S450" s="24" t="s">
         <v>2491</v>
       </c>
@@ -66476,8 +67646,60 @@
       </c>
     </row>
     <row r="451" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A451" s="21"/>
-      <c r="B451" s="22"/>
+      <c r="A451" s="21" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B451" s="22" t="s">
+        <v>2469</v>
+      </c>
+      <c r="C451" s="23" t="s">
+        <v>2471</v>
+      </c>
+      <c r="D451" s="23">
+        <v>2020</v>
+      </c>
+      <c r="E451" s="23" t="s">
+        <v>2566</v>
+      </c>
+      <c r="F451" s="23" t="s">
+        <v>455</v>
+      </c>
+      <c r="G451" s="23" t="s">
+        <v>1160</v>
+      </c>
+      <c r="H451" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I451" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="J451" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="K451" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="L451" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="M451" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="N451" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="O451" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="P451" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q451" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="R451" s="28" t="s">
+        <v>2605</v>
+      </c>
       <c r="S451" s="24" t="s">
         <v>2492</v>
       </c>
@@ -66558,8 +67780,60 @@
       </c>
     </row>
     <row r="452" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A452" s="21"/>
-      <c r="B452" s="22"/>
+      <c r="A452" s="21" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B452" s="22" t="s">
+        <v>2469</v>
+      </c>
+      <c r="C452" s="23" t="s">
+        <v>2471</v>
+      </c>
+      <c r="D452" s="23">
+        <v>2020</v>
+      </c>
+      <c r="E452" s="23" t="s">
+        <v>2566</v>
+      </c>
+      <c r="F452" s="23" t="s">
+        <v>455</v>
+      </c>
+      <c r="G452" s="23" t="s">
+        <v>1160</v>
+      </c>
+      <c r="H452" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I452" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="J452" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="K452" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="L452" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="M452" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="N452" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="O452" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="P452" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q452" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="R452" s="28" t="s">
+        <v>2605</v>
+      </c>
       <c r="S452" s="24" t="s">
         <v>2493</v>
       </c>
@@ -66637,6 +67911,655 @@
       </c>
       <c r="AV452" s="23" t="s">
         <v>2564</v>
+      </c>
+    </row>
+    <row r="453" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A453" s="14" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B453" s="15" t="s">
+        <v>2565</v>
+      </c>
+      <c r="C453" s="16" t="s">
+        <v>2568</v>
+      </c>
+      <c r="D453" s="16">
+        <v>2006</v>
+      </c>
+      <c r="E453" s="16" t="s">
+        <v>2569</v>
+      </c>
+      <c r="F453" s="16" t="s">
+        <v>226</v>
+      </c>
+      <c r="G453" s="16" t="s">
+        <v>1160</v>
+      </c>
+      <c r="H453" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I453" s="16" t="s">
+        <v>409</v>
+      </c>
+      <c r="J453" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="K453" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="L453" s="16" t="s">
+        <v>772</v>
+      </c>
+      <c r="M453" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="N453" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="O453" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="P453" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q453" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="R453" s="16" t="s">
+        <v>2570</v>
+      </c>
+      <c r="S453" s="17" t="s">
+        <v>2567</v>
+      </c>
+      <c r="T453" s="19"/>
+      <c r="U453" s="19"/>
+      <c r="V453" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="W453" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="X453" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y453" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z453" s="16" t="s">
+        <v>2571</v>
+      </c>
+      <c r="AA453" s="16" t="s">
+        <v>2572</v>
+      </c>
+      <c r="AB453" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="AE453" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF453" s="19"/>
+      <c r="AG453" s="17">
+        <v>0.64</v>
+      </c>
+      <c r="AH453" s="16">
+        <v>8.6734694000000001E-2</v>
+      </c>
+      <c r="AI453" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ453" s="16">
+        <v>0.44</v>
+      </c>
+      <c r="AK453" s="16">
+        <v>0.78</v>
+      </c>
+      <c r="AL453" s="16">
+        <v>0.95</v>
+      </c>
+      <c r="AN453" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO453" s="16" t="s">
+        <v>2573</v>
+      </c>
+      <c r="AQ453" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="AR453" s="16" t="s">
+        <v>2574</v>
+      </c>
+      <c r="AS453" s="16">
+        <v>15</v>
+      </c>
+      <c r="AT453" s="16" t="s">
+        <v>2575</v>
+      </c>
+      <c r="AU453" s="16" t="s">
+        <v>2576</v>
+      </c>
+      <c r="AV453" s="16" t="s">
+        <v>2577</v>
+      </c>
+    </row>
+    <row r="454" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A454" s="21" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B454" s="22" t="s">
+        <v>2578</v>
+      </c>
+      <c r="C454" s="23" t="s">
+        <v>2583</v>
+      </c>
+      <c r="D454" s="23">
+        <v>2017</v>
+      </c>
+      <c r="E454" s="23" t="s">
+        <v>2104</v>
+      </c>
+      <c r="F454" s="23" t="s">
+        <v>904</v>
+      </c>
+      <c r="G454" s="23" t="s">
+        <v>1160</v>
+      </c>
+      <c r="H454" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="I454" s="23" t="s">
+        <v>858</v>
+      </c>
+      <c r="J454" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="K454" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="L454" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="M454" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="N454" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="O454" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="P454" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q454" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="R454" s="23" t="s">
+        <v>2584</v>
+      </c>
+      <c r="S454" s="24" t="s">
+        <v>2579</v>
+      </c>
+      <c r="T454" s="19"/>
+      <c r="U454" s="19"/>
+      <c r="V454" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="W454" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="X454" s="23" t="s">
+        <v>266</v>
+      </c>
+      <c r="Y454" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z454" s="23" t="s">
+        <v>2585</v>
+      </c>
+      <c r="AA454" s="23" t="s">
+        <v>2586</v>
+      </c>
+      <c r="AB454" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="AC454" s="23" t="s">
+        <v>745</v>
+      </c>
+      <c r="AD454" s="23" t="s">
+        <v>2587</v>
+      </c>
+      <c r="AE454" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF454" s="19"/>
+      <c r="AG454" s="24">
+        <v>0.46</v>
+      </c>
+      <c r="AH454" s="23">
+        <v>0.160714285714285</v>
+      </c>
+      <c r="AI454" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ454" s="23">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="AK454" s="23">
+        <v>0.77</v>
+      </c>
+      <c r="AL454" s="23">
+        <v>0.95</v>
+      </c>
+      <c r="AN454" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO454" s="23" t="s">
+        <v>2588</v>
+      </c>
+      <c r="AQ454" s="23" t="s">
+        <v>307</v>
+      </c>
+      <c r="AR454" s="23" t="s">
+        <v>2589</v>
+      </c>
+      <c r="AS454" s="23">
+        <v>13</v>
+      </c>
+      <c r="AT454" s="23" t="s">
+        <v>2590</v>
+      </c>
+      <c r="AU454" s="23" t="s">
+        <v>2591</v>
+      </c>
+      <c r="AV454" s="23" t="s">
+        <v>2604</v>
+      </c>
+    </row>
+    <row r="455" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A455" s="21" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B455" s="22" t="s">
+        <v>2578</v>
+      </c>
+      <c r="C455" s="23" t="s">
+        <v>2583</v>
+      </c>
+      <c r="D455" s="23">
+        <v>2017</v>
+      </c>
+      <c r="E455" s="23" t="s">
+        <v>2104</v>
+      </c>
+      <c r="F455" s="23" t="s">
+        <v>904</v>
+      </c>
+      <c r="G455" s="23" t="s">
+        <v>1160</v>
+      </c>
+      <c r="H455" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="I455" s="23" t="s">
+        <v>858</v>
+      </c>
+      <c r="J455" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="K455" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="L455" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="M455" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="N455" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="O455" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="P455" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q455" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="R455" s="23" t="s">
+        <v>2584</v>
+      </c>
+      <c r="S455" s="24" t="s">
+        <v>2580</v>
+      </c>
+      <c r="T455" s="19"/>
+      <c r="U455" s="19"/>
+      <c r="V455" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="W455" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="X455" s="23" t="s">
+        <v>266</v>
+      </c>
+      <c r="Y455" s="23" t="s">
+        <v>353</v>
+      </c>
+      <c r="Z455" s="23" t="s">
+        <v>2592</v>
+      </c>
+      <c r="AA455" s="23" t="s">
+        <v>2593</v>
+      </c>
+      <c r="AB455" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="AC455" s="23" t="s">
+        <v>745</v>
+      </c>
+      <c r="AD455" s="23" t="s">
+        <v>2587</v>
+      </c>
+      <c r="AE455" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF455" s="19"/>
+      <c r="AG455" s="24">
+        <v>0.71</v>
+      </c>
+      <c r="AH455" s="23">
+        <v>0.18112244897959101</v>
+      </c>
+      <c r="AI455" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ455" s="23">
+        <v>0.36</v>
+      </c>
+      <c r="AK455" s="23">
+        <v>1.07</v>
+      </c>
+      <c r="AL455" s="23">
+        <v>0.95</v>
+      </c>
+      <c r="AN455" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ455" s="23" t="s">
+        <v>1839</v>
+      </c>
+      <c r="AR455" s="23" t="s">
+        <v>2594</v>
+      </c>
+      <c r="AS455" s="23">
+        <v>7</v>
+      </c>
+      <c r="AU455" s="23" t="s">
+        <v>2591</v>
+      </c>
+      <c r="AV455" s="23" t="s">
+        <v>2603</v>
+      </c>
+    </row>
+    <row r="456" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A456" s="21" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B456" s="22" t="s">
+        <v>2578</v>
+      </c>
+      <c r="C456" s="23" t="s">
+        <v>2583</v>
+      </c>
+      <c r="D456" s="23">
+        <v>2017</v>
+      </c>
+      <c r="E456" s="23" t="s">
+        <v>2104</v>
+      </c>
+      <c r="F456" s="23" t="s">
+        <v>904</v>
+      </c>
+      <c r="G456" s="23" t="s">
+        <v>1160</v>
+      </c>
+      <c r="H456" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="I456" s="23" t="s">
+        <v>858</v>
+      </c>
+      <c r="J456" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="K456" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="L456" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="M456" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="N456" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="O456" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="P456" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q456" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="R456" s="23" t="s">
+        <v>2584</v>
+      </c>
+      <c r="S456" s="24" t="s">
+        <v>2581</v>
+      </c>
+      <c r="T456" s="19"/>
+      <c r="U456" s="19"/>
+      <c r="V456" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="W456" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="X456" s="23" t="s">
+        <v>266</v>
+      </c>
+      <c r="Y456" s="23" t="s">
+        <v>434</v>
+      </c>
+      <c r="Z456" s="23" t="s">
+        <v>2595</v>
+      </c>
+      <c r="AA456" s="23" t="s">
+        <v>2596</v>
+      </c>
+      <c r="AB456" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="AC456" s="23" t="s">
+        <v>745</v>
+      </c>
+      <c r="AD456" s="23" t="s">
+        <v>2587</v>
+      </c>
+      <c r="AE456" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF456" s="19"/>
+      <c r="AG456" s="24">
+        <v>0.16</v>
+      </c>
+      <c r="AH456" s="23">
+        <v>0.26785714285714202</v>
+      </c>
+      <c r="AI456" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ456" s="23">
+        <v>-0.36</v>
+      </c>
+      <c r="AK456" s="23">
+        <v>0.69</v>
+      </c>
+      <c r="AL456" s="23">
+        <v>0.95</v>
+      </c>
+      <c r="AN456" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ456" s="23" t="s">
+        <v>1837</v>
+      </c>
+      <c r="AR456" s="23" t="s">
+        <v>2597</v>
+      </c>
+      <c r="AS456" s="23">
+        <v>6</v>
+      </c>
+      <c r="AU456" s="23" t="s">
+        <v>2591</v>
+      </c>
+      <c r="AV456" s="23" t="s">
+        <v>2602</v>
+      </c>
+    </row>
+    <row r="457" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A457" s="21" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B457" s="22" t="s">
+        <v>2578</v>
+      </c>
+      <c r="C457" s="23" t="s">
+        <v>2583</v>
+      </c>
+      <c r="D457" s="23">
+        <v>2017</v>
+      </c>
+      <c r="E457" s="23" t="s">
+        <v>2104</v>
+      </c>
+      <c r="F457" s="23" t="s">
+        <v>904</v>
+      </c>
+      <c r="G457" s="23" t="s">
+        <v>1160</v>
+      </c>
+      <c r="H457" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="I457" s="23" t="s">
+        <v>858</v>
+      </c>
+      <c r="J457" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="K457" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="L457" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="M457" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="N457" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="O457" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="P457" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q457" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="R457" s="23" t="s">
+        <v>2584</v>
+      </c>
+      <c r="S457" s="24" t="s">
+        <v>2582</v>
+      </c>
+      <c r="T457" s="19"/>
+      <c r="U457" s="19"/>
+      <c r="V457" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="W457" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="X457" s="23" t="s">
+        <v>266</v>
+      </c>
+      <c r="Y457" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z457" s="23" t="s">
+        <v>2598</v>
+      </c>
+      <c r="AA457" s="23" t="s">
+        <v>2599</v>
+      </c>
+      <c r="AB457" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="AC457" s="23" t="s">
+        <v>745</v>
+      </c>
+      <c r="AD457" s="23" t="s">
+        <v>2587</v>
+      </c>
+      <c r="AE457" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF457" s="19"/>
+      <c r="AG457" s="24">
+        <v>0.2</v>
+      </c>
+      <c r="AH457" s="23">
+        <v>0.155612244897959</v>
+      </c>
+      <c r="AI457" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ457" s="23">
+        <v>-0.11</v>
+      </c>
+      <c r="AK457" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="AL457" s="23">
+        <v>0.95</v>
+      </c>
+      <c r="AN457" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO457" s="23" t="s">
+        <v>2600</v>
+      </c>
+      <c r="AQ457" s="23" t="s">
+        <v>307</v>
+      </c>
+      <c r="AR457" s="23" t="s">
+        <v>2589</v>
+      </c>
+      <c r="AS457" s="23">
+        <v>13</v>
+      </c>
+      <c r="AU457" s="23" t="s">
+        <v>2591</v>
+      </c>
+      <c r="AV457" s="23" t="s">
+        <v>2601</v>
       </c>
     </row>
   </sheetData>

--- a/Data/coded-Dataset.xlsx
+++ b/Data/coded-Dataset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laura/Desktop/GITHUB-METAREVIEW/Meta-review-cognitive-profiles-ADHD-Dyslexia/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76AF789C-F3FD-0940-88DC-9B4898B9E89C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F278B46-4438-654D-9A66-986C0FA19FBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30260" yWindow="600" windowWidth="38380" windowHeight="19220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="660" windowWidth="30240" windowHeight="17200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="effect_sizes" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16308" uniqueCount="2606">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16501" uniqueCount="2666">
   <si>
     <t>ID_article</t>
   </si>
@@ -7858,6 +7858,188 @@
   <si>
     <t>Publication bias methods include Trim and Fill and Classic Fail-Safe N; bias_method_reported coded as Other.
     Several outcomes report additional sensitivity/adjusted estimates (outlier-removed, controlled-for-matching, trim-and-fill adjusted); primary pooled estimates extracted, with notes where relevant.</t>
+  </si>
+  <si>
+    <t>2053</t>
+  </si>
+  <si>
+    <t>2053_1</t>
+  </si>
+  <si>
+    <t>2053_2</t>
+  </si>
+  <si>
+    <t>2053_3</t>
+  </si>
+  <si>
+    <t>2053_4</t>
+  </si>
+  <si>
+    <t>2053_5</t>
+  </si>
+  <si>
+    <t>2053_6</t>
+  </si>
+  <si>
+    <t>2053_7</t>
+  </si>
+  <si>
+    <t>2053_8</t>
+  </si>
+  <si>
+    <t>Chamberlain, R.; Brunswick, N.; Siev, J.; McManus, I. C.</t>
+  </si>
+  <si>
+    <t>Meta-analytic findings reveal lower means but higher variances in visuospatial ability in dyslexia</t>
+  </si>
+  <si>
+    <t>British Journal of Psychology</t>
+  </si>
+  <si>
+    <t>['I2', 'other']</t>
+  </si>
+  <si>
+    <t>Effect size types include Glass’s delta and lnSDR, which are not in the dataset’s canonical Type_effect_size list; coded with notes and/or null Type_effect_size as required.; Abstract reports SD-differences effect size as +.118 while Table 2 reports lnSDR = .102 (SDR = 1.107); discrepancy noted, Table 2 values extracted.; Non-Winsorized overall mean-difference pooled effect (-0.511) is reported without SE/CI; Std_Err left null per rules.;
+Tau_heterogeneity derived from s^2 (between-study variance) reported in Table 2; treated as tau^2-equivalent and square-rooted (documented in Notes).; Age range for included samples is not reported as a single range; Age_group coded as mixed because samples include children and adults across studies (per discussion of age moderator).;
+Domain mapping for the 'All measures' rows is inherently mixed across perception/memory/imagery; Domain_L1_general left null and flagged.</t>
+  </si>
+  <si>
+    <t>2053_9</t>
+  </si>
+  <si>
+    <t>2053_10</t>
+  </si>
+  <si>
+    <t>Table 2 pooled effects for All measures and task-type subsets (Perception/Memory/Imagery) likely share overlapping primary studies.</t>
+  </si>
+  <si>
+    <t>Visuospatial ability (all measures): mean differences</t>
+  </si>
+  <si>
+    <t>Fail-safe N reported; funnel plot/trim-and-fill and Egger’s regression test reported (Table 3).</t>
+  </si>
+  <si>
+    <t>Overall sample: 909 non-dyslexic and 956 dyslexic; Table 2 mean-differences analysis: 28 clusters (114 outcomes).</t>
+  </si>
+  <si>
+    <t>Dyslexic vs control groups</t>
+  </si>
+  <si>
+    <t>Table 2 reports Glass’s delta (SE). Glass’s delta coded under 'Standardized Mean Difference' per canonical list. Tau derived as sqrt(s^2=0.4315) from Table 2 note that s^2 is between-study variance.</t>
+  </si>
+  <si>
+    <t>Visuospatial ability (all measures): standard deviation differences</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Fail-safe N and funnel plot/trim-and-fill/Egger’s test reported (Table 3); trim-and-fill suggested 8 missing studies for lnSDR, implying lnSDR may be underestimated.</t>
+  </si>
+  <si>
+    <t>Table 2 SD-differences analysis: 24 clusters (97 outcomes). SDR reported as 1.107 in Table 2. Overall sample: 909 non-dyslexic and 956 dyslexic.</t>
+  </si>
+  <si>
+    <t>Effect metric is lnSDR (log SD ratio). Type_effect_size set to null because lnSDR is not in canonical list. Tau derived as sqrt(s^2=0.0325). Abstract reports '+.118; SD ratio = 1.107' while Table 2 reports lnSDR=.102 and SDR=1.107.</t>
+  </si>
+  <si>
+    <t>Task-type subsets (Perception/Memory/Imagery) are subgroups within the same meta-analytic corpus.</t>
+  </si>
+  <si>
+    <t>Perception tasks: mean differences</t>
+  </si>
+  <si>
+    <t>Publication-bias analyses reported at least for overall Glass’s delta and lnSDR (Table 3); task-specific bias not separately reported.</t>
+  </si>
+  <si>
+    <t>Table 2 perception mean-differences analysis: 12 clusters (34 outcomes).</t>
+  </si>
+  <si>
+    <t>Glass’s delta coded under 'Standardized Mean Difference'. Tau derived as sqrt(s^2=0.4793).</t>
+  </si>
+  <si>
+    <t>Perception tasks: standard deviation differences</t>
+  </si>
+  <si>
+    <t>Publication-bias analyses reported for overall lnSDR (Table 3); task-specific bias not separately reported.</t>
+  </si>
+  <si>
+    <t>Table 2 perception SD-differences analysis: 10 clusters (30 outcomes). SDR reported as 1.065 in Table 2.</t>
+  </si>
+  <si>
+    <t>Effect metric is lnSDR; Type_effect_size null. Tau derived as sqrt(s^2=0.0376).</t>
+  </si>
+  <si>
+    <t>Memory tasks: mean differences</t>
+  </si>
+  <si>
+    <t>Table 2 memory mean-differences analysis: 13 clusters (46 outcomes).</t>
+  </si>
+  <si>
+    <t>Glass’s delta coded under 'Standardized Mean Difference'. Tau derived as sqrt(s^2=0.2546).</t>
+  </si>
+  <si>
+    <t>Memory tasks: standard deviation differences</t>
+  </si>
+  <si>
+    <t>Table 2 memory SD-differences analysis: 12 clusters (45 outcomes). SDR reported as 1.121 in Table 2.</t>
+  </si>
+  <si>
+    <t>Effect metric is lnSDR; Type_effect_size null. Tau derived as sqrt(s^2=0.0328).</t>
+  </si>
+  <si>
+    <t>Imagery tasks: mean differences</t>
+  </si>
+  <si>
+    <t>Imagery</t>
+  </si>
+  <si>
+    <t>Table 2 imagery mean-differences analysis: 13 clusters (34 outcomes).</t>
+  </si>
+  <si>
+    <t>Imagery mapping to Perception/Visual perception is uncertain but treated as visuospatial imagery tasks; flagged by overall domain-mapping caution for visuospatial constructs. Glass’s delta coded under 'Standardized Mean Difference'. Tau derived as sqrt(s^2=0.9915).</t>
+  </si>
+  <si>
+    <t>Imagery tasks: standard deviation differences</t>
+  </si>
+  <si>
+    <t>Table 2 imagery SD-differences analysis: 11 clusters (22 outcomes). SDR reported as 1.147 in Table 2.</t>
+  </si>
+  <si>
+    <t>Effect metric is lnSDR; Type_effect_size null. Tau derived as sqrt(s^2=0.0174).</t>
+  </si>
+  <si>
+    <t>Sensitivity analysis using non-Winsorized values for the overall mean-differences meta-analysis; likely same study pool as Table 2 overall.</t>
+  </si>
+  <si>
+    <t>Visuospatial ability (all measures): mean differences (non-Winsorized sensitivity)</t>
+  </si>
+  <si>
+    <t>Publication-bias analyses reported overall (Table 3); sensitivity-specific bias not separately reported.</t>
+  </si>
+  <si>
+    <t>Non-Winsorized overall mean-differences pooled effect reported with t and df but without SE/CI.</t>
+  </si>
+  <si>
+    <t>Reported as a parallel calculation: 'Calculation using the non-Winsorized values ... (overall effect = −0.511, t = 4.07, 26.8 df, p = .000372)'. SE not reported; not derived from t per rules.</t>
+  </si>
+  <si>
+    <t>Sensitivity analysis using non-Winsorized values for the overall lnSDR meta-analysis; likely same study pool as Table 2 overall.</t>
+  </si>
+  <si>
+    <t>Visuospatial ability (all measures): standard deviation differences (non-Winsorized sensitivity)</t>
+  </si>
+  <si>
+    <t>Publication-bias analyses reported overall for lnSDR (Table 3); sensitivity-specific bias not separately reported.</t>
+  </si>
+  <si>
+    <t>Non-Winsorized lnSDR intercept reported with SE and df (text), but without a separate heterogeneity variance for this sensitivity run.</t>
+  </si>
+  <si>
+    <t>Reported as: 'parallel calculation using non-Winsorized values … lnSDR intercept = .102 (SE .0383)'. Tau not available for this sensitivity run.</t>
+  </si>
+  <si>
+    <t>2056</t>
   </si>
 </sst>
 </file>
@@ -8332,11 +8514,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AX457"/>
+  <dimension ref="A1:AX468"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A413" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q442" sqref="Q442"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A442" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B474" sqref="B474"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -68562,6 +68744,759 @@
         <v>2601</v>
       </c>
     </row>
+    <row r="458" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A458" s="14" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B458" s="15" t="s">
+        <v>2606</v>
+      </c>
+      <c r="C458" s="16" t="s">
+        <v>2615</v>
+      </c>
+      <c r="D458" s="16">
+        <v>2018</v>
+      </c>
+      <c r="E458" s="16" t="s">
+        <v>2616</v>
+      </c>
+      <c r="F458" s="16" t="s">
+        <v>2617</v>
+      </c>
+      <c r="G458" s="16" t="s">
+        <v>1160</v>
+      </c>
+      <c r="H458" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I458" s="16" t="s">
+        <v>2618</v>
+      </c>
+      <c r="J458" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="K458" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="L458" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="M458" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="N458" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="O458" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="P458" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q458" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="R458" s="18" t="s">
+        <v>2619</v>
+      </c>
+      <c r="S458" s="17" t="s">
+        <v>2607</v>
+      </c>
+      <c r="T458" s="19"/>
+      <c r="U458" s="19"/>
+      <c r="V458" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="W458" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="X458" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y458" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z458" s="16" t="s">
+        <v>2622</v>
+      </c>
+      <c r="AA458" s="16" t="s">
+        <v>2623</v>
+      </c>
+      <c r="AE458" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="AF458" s="17"/>
+      <c r="AG458" s="17">
+        <v>-0.45700000000000002</v>
+      </c>
+      <c r="AH458" s="16">
+        <v>0.109</v>
+      </c>
+      <c r="AI458" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="AM458" s="16">
+        <v>0.656887</v>
+      </c>
+      <c r="AN458" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="AO458" s="16" t="s">
+        <v>2624</v>
+      </c>
+      <c r="AQ458" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="AS458" s="16">
+        <v>28</v>
+      </c>
+      <c r="AT458" s="16" t="s">
+        <v>2625</v>
+      </c>
+      <c r="AU458" s="16" t="s">
+        <v>2626</v>
+      </c>
+      <c r="AV458" s="16" t="s">
+        <v>2627</v>
+      </c>
+    </row>
+    <row r="459" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A459" s="14" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B459" s="15"/>
+      <c r="S459" s="17" t="s">
+        <v>2608</v>
+      </c>
+      <c r="T459" s="19"/>
+      <c r="U459" s="19"/>
+      <c r="V459" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="W459" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="X459" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y459" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z459" s="16" t="s">
+        <v>2622</v>
+      </c>
+      <c r="AA459" s="16" t="s">
+        <v>2628</v>
+      </c>
+      <c r="AF459" s="17"/>
+      <c r="AG459" s="17">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="AH459" s="16">
+        <v>3.6600000000000001E-2</v>
+      </c>
+      <c r="AI459" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="AM459" s="16">
+        <v>0.18027799999999999</v>
+      </c>
+      <c r="AN459" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="AO459" s="16" t="s">
+        <v>2630</v>
+      </c>
+      <c r="AQ459" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="AS459" s="16">
+        <v>24</v>
+      </c>
+      <c r="AT459" s="16" t="s">
+        <v>2631</v>
+      </c>
+      <c r="AU459" s="16" t="s">
+        <v>2626</v>
+      </c>
+      <c r="AV459" s="16" t="s">
+        <v>2632</v>
+      </c>
+    </row>
+    <row r="460" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A460" s="14" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B460" s="15"/>
+      <c r="S460" s="17" t="s">
+        <v>2609</v>
+      </c>
+      <c r="T460" s="19"/>
+      <c r="U460" s="19"/>
+      <c r="V460" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="W460" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="X460" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y460" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z460" s="16" t="s">
+        <v>2633</v>
+      </c>
+      <c r="AA460" s="16" t="s">
+        <v>2634</v>
+      </c>
+      <c r="AB460" s="16" t="s">
+        <v>1855</v>
+      </c>
+      <c r="AC460" s="16" t="s">
+        <v>1857</v>
+      </c>
+      <c r="AE460" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="AF460" s="17"/>
+      <c r="AG460" s="17">
+        <v>-0.38900000000000001</v>
+      </c>
+      <c r="AH460" s="16">
+        <v>0.193</v>
+      </c>
+      <c r="AI460" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="AM460" s="16">
+        <v>0.69231699999999996</v>
+      </c>
+      <c r="AN460" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="AO460" s="16" t="s">
+        <v>2635</v>
+      </c>
+      <c r="AQ460" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="AS460" s="16">
+        <v>12</v>
+      </c>
+      <c r="AT460" s="16" t="s">
+        <v>2636</v>
+      </c>
+      <c r="AU460" s="16" t="s">
+        <v>2626</v>
+      </c>
+      <c r="AV460" s="16" t="s">
+        <v>2637</v>
+      </c>
+    </row>
+    <row r="461" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A461" s="14" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B461" s="15"/>
+      <c r="S461" s="17" t="s">
+        <v>2610</v>
+      </c>
+      <c r="T461" s="19"/>
+      <c r="U461" s="19"/>
+      <c r="V461" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="W461" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="X461" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y461" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z461" s="16" t="s">
+        <v>2633</v>
+      </c>
+      <c r="AA461" s="16" t="s">
+        <v>2638</v>
+      </c>
+      <c r="AB461" s="16" t="s">
+        <v>1855</v>
+      </c>
+      <c r="AC461" s="16" t="s">
+        <v>1857</v>
+      </c>
+      <c r="AE461" s="16" t="s">
+        <v>2629</v>
+      </c>
+      <c r="AF461" s="17"/>
+      <c r="AG461" s="17">
+        <v>6.3E-2</v>
+      </c>
+      <c r="AH461" s="16">
+        <v>5.3400000000000003E-2</v>
+      </c>
+      <c r="AI461" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="AM461" s="16">
+        <v>0.193907</v>
+      </c>
+      <c r="AN461" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="AO461" s="16" t="s">
+        <v>2639</v>
+      </c>
+      <c r="AQ461" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="AS461" s="16">
+        <v>10</v>
+      </c>
+      <c r="AT461" s="16" t="s">
+        <v>2640</v>
+      </c>
+      <c r="AU461" s="16" t="s">
+        <v>2626</v>
+      </c>
+      <c r="AV461" s="16" t="s">
+        <v>2641</v>
+      </c>
+    </row>
+    <row r="462" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A462" s="14" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B462" s="15"/>
+      <c r="S462" s="17" t="s">
+        <v>2611</v>
+      </c>
+      <c r="T462" s="19"/>
+      <c r="U462" s="19"/>
+      <c r="V462" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="W462" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="X462" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y462" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z462" s="16" t="s">
+        <v>2633</v>
+      </c>
+      <c r="AA462" s="16" t="s">
+        <v>2642</v>
+      </c>
+      <c r="AB462" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="AC462" s="16" t="s">
+        <v>1540</v>
+      </c>
+      <c r="AE462" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="AF462" s="17"/>
+      <c r="AG462" s="17">
+        <v>-0.39100000000000001</v>
+      </c>
+      <c r="AH462" s="16">
+        <v>0.105</v>
+      </c>
+      <c r="AI462" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="AM462" s="16">
+        <v>0.504579</v>
+      </c>
+      <c r="AN462" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="AO462" s="16" t="s">
+        <v>2635</v>
+      </c>
+      <c r="AQ462" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="AS462" s="16">
+        <v>13</v>
+      </c>
+      <c r="AT462" s="16" t="s">
+        <v>2643</v>
+      </c>
+      <c r="AU462" s="16" t="s">
+        <v>2626</v>
+      </c>
+      <c r="AV462" s="16" t="s">
+        <v>2644</v>
+      </c>
+    </row>
+    <row r="463" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A463" s="14" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B463" s="15"/>
+      <c r="S463" s="17" t="s">
+        <v>2612</v>
+      </c>
+      <c r="T463" s="19"/>
+      <c r="U463" s="19"/>
+      <c r="V463" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="W463" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="X463" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y463" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z463" s="16" t="s">
+        <v>2633</v>
+      </c>
+      <c r="AA463" s="16" t="s">
+        <v>2645</v>
+      </c>
+      <c r="AB463" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="AC463" s="16" t="s">
+        <v>1540</v>
+      </c>
+      <c r="AE463" s="16" t="s">
+        <v>2629</v>
+      </c>
+      <c r="AF463" s="17"/>
+      <c r="AG463" s="17">
+        <v>0.114</v>
+      </c>
+      <c r="AH463" s="16">
+        <v>4.7199999999999999E-2</v>
+      </c>
+      <c r="AI463" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="AM463" s="16">
+        <v>0.18110799999999999</v>
+      </c>
+      <c r="AN463" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="AO463" s="16" t="s">
+        <v>2639</v>
+      </c>
+      <c r="AQ463" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="AS463" s="16">
+        <v>12</v>
+      </c>
+      <c r="AT463" s="16" t="s">
+        <v>2646</v>
+      </c>
+      <c r="AU463" s="16" t="s">
+        <v>2626</v>
+      </c>
+      <c r="AV463" s="16" t="s">
+        <v>2647</v>
+      </c>
+    </row>
+    <row r="464" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A464" s="14" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B464" s="15"/>
+      <c r="S464" s="17" t="s">
+        <v>2613</v>
+      </c>
+      <c r="T464" s="19"/>
+      <c r="U464" s="19"/>
+      <c r="V464" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="W464" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="X464" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y464" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z464" s="16" t="s">
+        <v>2633</v>
+      </c>
+      <c r="AA464" s="16" t="s">
+        <v>2648</v>
+      </c>
+      <c r="AB464" s="16" t="s">
+        <v>1855</v>
+      </c>
+      <c r="AC464" s="16" t="s">
+        <v>1857</v>
+      </c>
+      <c r="AD464" s="16" t="s">
+        <v>2649</v>
+      </c>
+      <c r="AE464" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="AF464" s="17"/>
+      <c r="AG464" s="17">
+        <v>-0.70599999999999996</v>
+      </c>
+      <c r="AH464" s="16">
+        <v>0.22700000000000001</v>
+      </c>
+      <c r="AI464" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="AM464" s="16">
+        <v>0.99574099999999999</v>
+      </c>
+      <c r="AN464" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="AO464" s="16" t="s">
+        <v>2635</v>
+      </c>
+      <c r="AQ464" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="AS464" s="16">
+        <v>13</v>
+      </c>
+      <c r="AT464" s="16" t="s">
+        <v>2650</v>
+      </c>
+      <c r="AU464" s="16" t="s">
+        <v>2626</v>
+      </c>
+      <c r="AV464" s="16" t="s">
+        <v>2651</v>
+      </c>
+    </row>
+    <row r="465" spans="1:49" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A465" s="14" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B465" s="15"/>
+      <c r="S465" s="17" t="s">
+        <v>2614</v>
+      </c>
+      <c r="T465" s="19"/>
+      <c r="U465" s="19"/>
+      <c r="V465" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="W465" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="X465" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y465" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z465" s="16" t="s">
+        <v>2633</v>
+      </c>
+      <c r="AA465" s="16" t="s">
+        <v>2652</v>
+      </c>
+      <c r="AB465" s="16" t="s">
+        <v>1855</v>
+      </c>
+      <c r="AC465" s="16" t="s">
+        <v>1857</v>
+      </c>
+      <c r="AD465" s="16" t="s">
+        <v>2649</v>
+      </c>
+      <c r="AE465" s="16" t="s">
+        <v>2629</v>
+      </c>
+      <c r="AF465" s="17"/>
+      <c r="AG465" s="17">
+        <v>0.153</v>
+      </c>
+      <c r="AH465" s="16">
+        <v>5.8400000000000001E-2</v>
+      </c>
+      <c r="AI465" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="AM465" s="16">
+        <v>0.131909</v>
+      </c>
+      <c r="AN465" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="AO465" s="16" t="s">
+        <v>2639</v>
+      </c>
+      <c r="AQ465" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="AS465" s="16">
+        <v>11</v>
+      </c>
+      <c r="AT465" s="16" t="s">
+        <v>2653</v>
+      </c>
+      <c r="AU465" s="16" t="s">
+        <v>2626</v>
+      </c>
+      <c r="AV465" s="16" t="s">
+        <v>2654</v>
+      </c>
+    </row>
+    <row r="466" spans="1:49" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A466" s="14" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B466" s="15"/>
+      <c r="S466" s="17" t="s">
+        <v>2620</v>
+      </c>
+      <c r="T466" s="19"/>
+      <c r="U466" s="19"/>
+      <c r="V466" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="W466" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="X466" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y466" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z466" s="16" t="s">
+        <v>2655</v>
+      </c>
+      <c r="AA466" s="16" t="s">
+        <v>2656</v>
+      </c>
+      <c r="AE466" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="AF466" s="17"/>
+      <c r="AG466" s="17">
+        <v>-0.51100000000000001</v>
+      </c>
+      <c r="AJ466" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AN466" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO466" s="16" t="s">
+        <v>2657</v>
+      </c>
+      <c r="AQ466" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="AT466" s="16" t="s">
+        <v>2658</v>
+      </c>
+      <c r="AU466" s="16" t="s">
+        <v>2626</v>
+      </c>
+      <c r="AV466" s="16" t="s">
+        <v>2659</v>
+      </c>
+    </row>
+    <row r="467" spans="1:49" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A467" s="14" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B467" s="15"/>
+      <c r="S467" s="17" t="s">
+        <v>2621</v>
+      </c>
+      <c r="T467" s="19"/>
+      <c r="U467" s="19"/>
+      <c r="V467" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="W467" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="X467" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y467" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z467" s="16" t="s">
+        <v>2660</v>
+      </c>
+      <c r="AA467" s="16" t="s">
+        <v>2661</v>
+      </c>
+      <c r="AE467" s="16" t="s">
+        <v>2629</v>
+      </c>
+      <c r="AF467" s="17"/>
+      <c r="AG467" s="17">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="AH467" s="16">
+        <v>3.8300000000000001E-2</v>
+      </c>
+      <c r="AI467" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="AL467" s="16" t="s">
+        <v>2629</v>
+      </c>
+      <c r="AN467" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO467" s="16" t="s">
+        <v>2662</v>
+      </c>
+      <c r="AQ467" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="AT467" s="16" t="s">
+        <v>2663</v>
+      </c>
+      <c r="AU467" s="16" t="s">
+        <v>2626</v>
+      </c>
+      <c r="AV467" s="16" t="s">
+        <v>2664</v>
+      </c>
+      <c r="AW467" s="16" t="s">
+        <v>2664</v>
+      </c>
+    </row>
+    <row r="468" spans="1:49" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A468" s="21" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B468" s="22" t="s">
+        <v>2665</v>
+      </c>
+      <c r="S468" s="24"/>
+      <c r="T468" s="24"/>
+      <c r="U468" s="24"/>
+      <c r="AF468" s="24"/>
+      <c r="AG468" s="24"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Data/coded-Dataset.xlsx
+++ b/Data/coded-Dataset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laura/Desktop/GITHUB-METAREVIEW/Meta-review-cognitive-profiles-ADHD-Dyslexia/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F278B46-4438-654D-9A66-986C0FA19FBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40FAD69C-41CE-4F44-A97C-9FEACAF7C6E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="660" windowWidth="30240" windowHeight="17200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30300" yWindow="600" windowWidth="38380" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="effect_sizes" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16501" uniqueCount="2666">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16747" uniqueCount="2687">
   <si>
     <t>ID_article</t>
   </si>
@@ -8040,6 +8040,70 @@
   </si>
   <si>
     <t>2056</t>
+  </si>
+  <si>
+    <t>Ocular findings from otoneurological examinations in children with and without dyslexia: a systematic review with meta-analysis</t>
+  </si>
+  <si>
+    <t>Brazilian Journal of Otorhinolaryngology</t>
+  </si>
+  <si>
+    <t>Effect size metric label discrepancy: Results text refers to mean difference, but forest plots label saccade amplitude and fixation duration as standardized mean difference.;
+All pooled outcomes are ocular movement measures from VNG/VENG (oculomotor), not standard neuropsychological tests; confirm scope alignment if needed.</t>
+  </si>
+  <si>
+    <t>2056_1</t>
+  </si>
+  <si>
+    <t>Three meta-analyses of ocular movement measures (amplitude, fixation duration, total saccades); overlap of primary studies likely but outcome-specific subsets are unclear.</t>
+  </si>
+  <si>
+    <t>Amplitude of saccades</t>
+  </si>
+  <si>
+    <t>Not reported.</t>
+  </si>
+  <si>
+    <t>Children (included observational cross-sectional studies of children).</t>
+  </si>
+  <si>
+    <t>4 studies meta-analysed for saccade amplitude (Fig. 2; Table 3). :contentReference[oaicite:0]{index=0}</t>
+  </si>
+  <si>
+    <t>Dyslexic children vs typical children</t>
+  </si>
+  <si>
+    <t>2056_2</t>
+  </si>
+  <si>
+    <t>2056_3</t>
+  </si>
+  <si>
+    <t>Duration of fixation</t>
+  </si>
+  <si>
+    <t>4 studies meta-analysed for fixation duration (Fig. 3; Table 4). :contentReference[oaicite:0]{index=0}</t>
+  </si>
+  <si>
+    <t>Total number of saccades</t>
+  </si>
+  <si>
+    <t>2 studies meta-analysed for total number of saccades (Fig. 4; Table 5). :contentReference[oaicite:0]{index=0}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Forest plot labels this outcome as Std. Mean Difference; Results text calls it mean difference. Tau derived from Tau^2=12.41 (Fig. 2). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Forest plot labels this outcome as Std. Mean Difference. Tau derived from Tau^2=0.11 (Fig. 3). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Forest plot labels this outcome as Mean Difference. Tau derived from Tau^2=0.00 (Fig. 4). </t>
+  </si>
+  <si>
+    <t>2058</t>
+  </si>
+  <si>
+    <t>Macambira, Y. K.; Barbosa, J. V. S.; de Queiroga, B. M.; Cordeiro, A. A. A.; Menezes, D. C.; Timóteo de Lima, M. L. L.; Advíncula, K. P.</t>
   </si>
 </sst>
 </file>
@@ -8514,11 +8578,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AX468"/>
+  <dimension ref="A1:AX471"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A442" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B474" sqref="B474"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A443" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="T465" sqref="T465"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -68825,7 +68889,7 @@
       <c r="AE458" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="AF458" s="17"/>
+      <c r="AF458" s="19"/>
       <c r="AG458" s="17">
         <v>-0.45700000000000002</v>
       </c>
@@ -68864,7 +68928,57 @@
       <c r="A459" s="14" t="s">
         <v>1858</v>
       </c>
-      <c r="B459" s="15"/>
+      <c r="B459" s="15" t="s">
+        <v>2606</v>
+      </c>
+      <c r="C459" s="16" t="s">
+        <v>2615</v>
+      </c>
+      <c r="D459" s="16">
+        <v>2018</v>
+      </c>
+      <c r="E459" s="16" t="s">
+        <v>2616</v>
+      </c>
+      <c r="F459" s="16" t="s">
+        <v>2617</v>
+      </c>
+      <c r="G459" s="16" t="s">
+        <v>1160</v>
+      </c>
+      <c r="H459" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I459" s="16" t="s">
+        <v>2618</v>
+      </c>
+      <c r="J459" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="K459" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="L459" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="M459" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="N459" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="O459" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="P459" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q459" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="R459" s="18" t="s">
+        <v>2619</v>
+      </c>
       <c r="S459" s="17" t="s">
         <v>2608</v>
       </c>
@@ -68888,7 +69002,7 @@
       <c r="AA459" s="16" t="s">
         <v>2628</v>
       </c>
-      <c r="AF459" s="17"/>
+      <c r="AF459" s="19"/>
       <c r="AG459" s="17">
         <v>0.10199999999999999</v>
       </c>
@@ -68927,7 +69041,57 @@
       <c r="A460" s="14" t="s">
         <v>1858</v>
       </c>
-      <c r="B460" s="15"/>
+      <c r="B460" s="15" t="s">
+        <v>2606</v>
+      </c>
+      <c r="C460" s="16" t="s">
+        <v>2615</v>
+      </c>
+      <c r="D460" s="16">
+        <v>2018</v>
+      </c>
+      <c r="E460" s="16" t="s">
+        <v>2616</v>
+      </c>
+      <c r="F460" s="16" t="s">
+        <v>2617</v>
+      </c>
+      <c r="G460" s="16" t="s">
+        <v>1160</v>
+      </c>
+      <c r="H460" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I460" s="16" t="s">
+        <v>2618</v>
+      </c>
+      <c r="J460" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="K460" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="L460" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="M460" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="N460" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="O460" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="P460" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q460" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="R460" s="18" t="s">
+        <v>2619</v>
+      </c>
       <c r="S460" s="17" t="s">
         <v>2609</v>
       </c>
@@ -68960,7 +69124,7 @@
       <c r="AE460" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="AF460" s="17"/>
+      <c r="AF460" s="19"/>
       <c r="AG460" s="17">
         <v>-0.38900000000000001</v>
       </c>
@@ -68999,7 +69163,57 @@
       <c r="A461" s="14" t="s">
         <v>1858</v>
       </c>
-      <c r="B461" s="15"/>
+      <c r="B461" s="15" t="s">
+        <v>2606</v>
+      </c>
+      <c r="C461" s="16" t="s">
+        <v>2615</v>
+      </c>
+      <c r="D461" s="16">
+        <v>2018</v>
+      </c>
+      <c r="E461" s="16" t="s">
+        <v>2616</v>
+      </c>
+      <c r="F461" s="16" t="s">
+        <v>2617</v>
+      </c>
+      <c r="G461" s="16" t="s">
+        <v>1160</v>
+      </c>
+      <c r="H461" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I461" s="16" t="s">
+        <v>2618</v>
+      </c>
+      <c r="J461" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="K461" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="L461" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="M461" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="N461" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="O461" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="P461" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q461" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="R461" s="18" t="s">
+        <v>2619</v>
+      </c>
       <c r="S461" s="17" t="s">
         <v>2610</v>
       </c>
@@ -69032,7 +69246,7 @@
       <c r="AE461" s="16" t="s">
         <v>2629</v>
       </c>
-      <c r="AF461" s="17"/>
+      <c r="AF461" s="19"/>
       <c r="AG461" s="17">
         <v>6.3E-2</v>
       </c>
@@ -69071,7 +69285,57 @@
       <c r="A462" s="14" t="s">
         <v>1858</v>
       </c>
-      <c r="B462" s="15"/>
+      <c r="B462" s="15" t="s">
+        <v>2606</v>
+      </c>
+      <c r="C462" s="16" t="s">
+        <v>2615</v>
+      </c>
+      <c r="D462" s="16">
+        <v>2018</v>
+      </c>
+      <c r="E462" s="16" t="s">
+        <v>2616</v>
+      </c>
+      <c r="F462" s="16" t="s">
+        <v>2617</v>
+      </c>
+      <c r="G462" s="16" t="s">
+        <v>1160</v>
+      </c>
+      <c r="H462" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I462" s="16" t="s">
+        <v>2618</v>
+      </c>
+      <c r="J462" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="K462" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="L462" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="M462" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="N462" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="O462" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="P462" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q462" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="R462" s="18" t="s">
+        <v>2619</v>
+      </c>
       <c r="S462" s="17" t="s">
         <v>2611</v>
       </c>
@@ -69104,7 +69368,7 @@
       <c r="AE462" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="AF462" s="17"/>
+      <c r="AF462" s="19"/>
       <c r="AG462" s="17">
         <v>-0.39100000000000001</v>
       </c>
@@ -69143,7 +69407,57 @@
       <c r="A463" s="14" t="s">
         <v>1858</v>
       </c>
-      <c r="B463" s="15"/>
+      <c r="B463" s="15" t="s">
+        <v>2606</v>
+      </c>
+      <c r="C463" s="16" t="s">
+        <v>2615</v>
+      </c>
+      <c r="D463" s="16">
+        <v>2018</v>
+      </c>
+      <c r="E463" s="16" t="s">
+        <v>2616</v>
+      </c>
+      <c r="F463" s="16" t="s">
+        <v>2617</v>
+      </c>
+      <c r="G463" s="16" t="s">
+        <v>1160</v>
+      </c>
+      <c r="H463" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I463" s="16" t="s">
+        <v>2618</v>
+      </c>
+      <c r="J463" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="K463" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="L463" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="M463" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="N463" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="O463" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="P463" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q463" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="R463" s="18" t="s">
+        <v>2619</v>
+      </c>
       <c r="S463" s="17" t="s">
         <v>2612</v>
       </c>
@@ -69176,7 +69490,7 @@
       <c r="AE463" s="16" t="s">
         <v>2629</v>
       </c>
-      <c r="AF463" s="17"/>
+      <c r="AF463" s="19"/>
       <c r="AG463" s="17">
         <v>0.114</v>
       </c>
@@ -69215,7 +69529,57 @@
       <c r="A464" s="14" t="s">
         <v>1858</v>
       </c>
-      <c r="B464" s="15"/>
+      <c r="B464" s="15" t="s">
+        <v>2606</v>
+      </c>
+      <c r="C464" s="16" t="s">
+        <v>2615</v>
+      </c>
+      <c r="D464" s="16">
+        <v>2018</v>
+      </c>
+      <c r="E464" s="16" t="s">
+        <v>2616</v>
+      </c>
+      <c r="F464" s="16" t="s">
+        <v>2617</v>
+      </c>
+      <c r="G464" s="16" t="s">
+        <v>1160</v>
+      </c>
+      <c r="H464" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I464" s="16" t="s">
+        <v>2618</v>
+      </c>
+      <c r="J464" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="K464" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="L464" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="M464" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="N464" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="O464" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="P464" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q464" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="R464" s="18" t="s">
+        <v>2619</v>
+      </c>
       <c r="S464" s="17" t="s">
         <v>2613</v>
       </c>
@@ -69251,7 +69615,7 @@
       <c r="AE464" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="AF464" s="17"/>
+      <c r="AF464" s="19"/>
       <c r="AG464" s="17">
         <v>-0.70599999999999996</v>
       </c>
@@ -69290,7 +69654,57 @@
       <c r="A465" s="14" t="s">
         <v>1858</v>
       </c>
-      <c r="B465" s="15"/>
+      <c r="B465" s="15" t="s">
+        <v>2606</v>
+      </c>
+      <c r="C465" s="16" t="s">
+        <v>2615</v>
+      </c>
+      <c r="D465" s="16">
+        <v>2018</v>
+      </c>
+      <c r="E465" s="16" t="s">
+        <v>2616</v>
+      </c>
+      <c r="F465" s="16" t="s">
+        <v>2617</v>
+      </c>
+      <c r="G465" s="16" t="s">
+        <v>1160</v>
+      </c>
+      <c r="H465" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I465" s="16" t="s">
+        <v>2618</v>
+      </c>
+      <c r="J465" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="K465" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="L465" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="M465" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="N465" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="O465" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="P465" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q465" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="R465" s="18" t="s">
+        <v>2619</v>
+      </c>
       <c r="S465" s="17" t="s">
         <v>2614</v>
       </c>
@@ -69326,7 +69740,7 @@
       <c r="AE465" s="16" t="s">
         <v>2629</v>
       </c>
-      <c r="AF465" s="17"/>
+      <c r="AF465" s="19"/>
       <c r="AG465" s="17">
         <v>0.153</v>
       </c>
@@ -69365,7 +69779,57 @@
       <c r="A466" s="14" t="s">
         <v>1858</v>
       </c>
-      <c r="B466" s="15"/>
+      <c r="B466" s="15" t="s">
+        <v>2606</v>
+      </c>
+      <c r="C466" s="16" t="s">
+        <v>2615</v>
+      </c>
+      <c r="D466" s="16">
+        <v>2018</v>
+      </c>
+      <c r="E466" s="16" t="s">
+        <v>2616</v>
+      </c>
+      <c r="F466" s="16" t="s">
+        <v>2617</v>
+      </c>
+      <c r="G466" s="16" t="s">
+        <v>1160</v>
+      </c>
+      <c r="H466" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I466" s="16" t="s">
+        <v>2618</v>
+      </c>
+      <c r="J466" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="K466" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="L466" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="M466" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="N466" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="O466" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="P466" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q466" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="R466" s="18" t="s">
+        <v>2619</v>
+      </c>
       <c r="S466" s="17" t="s">
         <v>2620</v>
       </c>
@@ -69392,7 +69856,7 @@
       <c r="AE466" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="AF466" s="17"/>
+      <c r="AF466" s="19"/>
       <c r="AG466" s="17">
         <v>-0.51100000000000001</v>
       </c>
@@ -69422,7 +69886,57 @@
       <c r="A467" s="14" t="s">
         <v>1858</v>
       </c>
-      <c r="B467" s="15"/>
+      <c r="B467" s="15" t="s">
+        <v>2606</v>
+      </c>
+      <c r="C467" s="16" t="s">
+        <v>2615</v>
+      </c>
+      <c r="D467" s="16">
+        <v>2018</v>
+      </c>
+      <c r="E467" s="16" t="s">
+        <v>2616</v>
+      </c>
+      <c r="F467" s="16" t="s">
+        <v>2617</v>
+      </c>
+      <c r="G467" s="16" t="s">
+        <v>1160</v>
+      </c>
+      <c r="H467" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I467" s="16" t="s">
+        <v>2618</v>
+      </c>
+      <c r="J467" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="K467" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="L467" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="M467" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="N467" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="O467" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="P467" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q467" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="R467" s="18" t="s">
+        <v>2619</v>
+      </c>
       <c r="S467" s="17" t="s">
         <v>2621</v>
       </c>
@@ -69449,7 +69963,7 @@
       <c r="AE467" s="16" t="s">
         <v>2629</v>
       </c>
-      <c r="AF467" s="17"/>
+      <c r="AF467" s="19"/>
       <c r="AG467" s="17">
         <v>0.10199999999999999</v>
       </c>
@@ -69491,11 +70005,404 @@
       <c r="B468" s="22" t="s">
         <v>2665</v>
       </c>
-      <c r="S468" s="24"/>
-      <c r="T468" s="24"/>
-      <c r="U468" s="24"/>
-      <c r="AF468" s="24"/>
-      <c r="AG468" s="24"/>
+      <c r="C468" s="23" t="s">
+        <v>2686</v>
+      </c>
+      <c r="D468" s="23">
+        <v>2022</v>
+      </c>
+      <c r="E468" s="23" t="s">
+        <v>2666</v>
+      </c>
+      <c r="F468" s="23" t="s">
+        <v>2667</v>
+      </c>
+      <c r="G468" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="H468" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="I468" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="J468" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="K468" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="L468" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="M468" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="N468" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="O468" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="P468" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q468" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="R468" s="28" t="s">
+        <v>2668</v>
+      </c>
+      <c r="S468" s="24" t="s">
+        <v>2669</v>
+      </c>
+      <c r="T468" s="19"/>
+      <c r="U468" s="19"/>
+      <c r="V468" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="W468" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="X468" s="23" t="s">
+        <v>266</v>
+      </c>
+      <c r="Y468" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z468" s="23" t="s">
+        <v>2670</v>
+      </c>
+      <c r="AA468" s="23" t="s">
+        <v>2671</v>
+      </c>
+      <c r="AB468" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="AE468" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="AF468" s="19"/>
+      <c r="AG468" s="24">
+        <v>-3.33</v>
+      </c>
+      <c r="AH468" s="23">
+        <v>1.77806122448979</v>
+      </c>
+      <c r="AI468" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ468" s="23">
+        <v>-6.82</v>
+      </c>
+      <c r="AK468" s="23">
+        <v>0.15</v>
+      </c>
+      <c r="AL468" s="23">
+        <v>0.95</v>
+      </c>
+      <c r="AM468" s="23">
+        <v>3.5227829907617001</v>
+      </c>
+      <c r="AN468" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="AO468" s="23" t="s">
+        <v>2672</v>
+      </c>
+      <c r="AQ468" s="23" t="s">
+        <v>1839</v>
+      </c>
+      <c r="AR468" s="23" t="s">
+        <v>2673</v>
+      </c>
+      <c r="AS468" s="23">
+        <v>4</v>
+      </c>
+      <c r="AT468" s="23" t="s">
+        <v>2674</v>
+      </c>
+      <c r="AU468" s="23" t="s">
+        <v>2675</v>
+      </c>
+      <c r="AV468" s="23" t="s">
+        <v>2682</v>
+      </c>
+    </row>
+    <row r="469" spans="1:49" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A469" s="21" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B469" s="22" t="s">
+        <v>2665</v>
+      </c>
+      <c r="C469" s="23" t="s">
+        <v>2686</v>
+      </c>
+      <c r="D469" s="23">
+        <v>2022</v>
+      </c>
+      <c r="E469" s="23" t="s">
+        <v>2666</v>
+      </c>
+      <c r="F469" s="23" t="s">
+        <v>2667</v>
+      </c>
+      <c r="G469" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="H469" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="I469" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="J469" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="K469" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="L469" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="M469" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="N469" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="O469" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="P469" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q469" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="R469" s="28" t="s">
+        <v>2668</v>
+      </c>
+      <c r="S469" s="24" t="s">
+        <v>2676</v>
+      </c>
+      <c r="T469" s="19"/>
+      <c r="U469" s="19"/>
+      <c r="V469" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="W469" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="X469" s="23" t="s">
+        <v>266</v>
+      </c>
+      <c r="Y469" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z469" s="23" t="s">
+        <v>2670</v>
+      </c>
+      <c r="AA469" s="23" t="s">
+        <v>2678</v>
+      </c>
+      <c r="AB469" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="AE469" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="AF469" s="19"/>
+      <c r="AG469" s="24">
+        <v>1.19</v>
+      </c>
+      <c r="AH469" s="23">
+        <v>0.26020408163265302</v>
+      </c>
+      <c r="AI469" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ469" s="23">
+        <v>0.68</v>
+      </c>
+      <c r="AK469" s="23">
+        <v>1.7</v>
+      </c>
+      <c r="AL469" s="23">
+        <v>0.95</v>
+      </c>
+      <c r="AM469" s="23">
+        <v>0.33166247903553903</v>
+      </c>
+      <c r="AN469" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="AO469" s="23" t="s">
+        <v>2672</v>
+      </c>
+      <c r="AQ469" s="23" t="s">
+        <v>1839</v>
+      </c>
+      <c r="AR469" s="23" t="s">
+        <v>2673</v>
+      </c>
+      <c r="AS469" s="23">
+        <v>4</v>
+      </c>
+      <c r="AT469" s="23" t="s">
+        <v>2679</v>
+      </c>
+      <c r="AU469" s="23" t="s">
+        <v>2675</v>
+      </c>
+      <c r="AV469" s="23" t="s">
+        <v>2683</v>
+      </c>
+    </row>
+    <row r="470" spans="1:49" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A470" s="21" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B470" s="22" t="s">
+        <v>2665</v>
+      </c>
+      <c r="C470" s="23" t="s">
+        <v>2686</v>
+      </c>
+      <c r="D470" s="23">
+        <v>2022</v>
+      </c>
+      <c r="E470" s="23" t="s">
+        <v>2666</v>
+      </c>
+      <c r="F470" s="23" t="s">
+        <v>2667</v>
+      </c>
+      <c r="G470" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="H470" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="I470" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="J470" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="K470" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="L470" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="M470" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="N470" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="O470" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="P470" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q470" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="R470" s="28" t="s">
+        <v>2668</v>
+      </c>
+      <c r="S470" s="24" t="s">
+        <v>2677</v>
+      </c>
+      <c r="T470" s="19"/>
+      <c r="U470" s="19"/>
+      <c r="V470" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="W470" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="X470" s="23" t="s">
+        <v>266</v>
+      </c>
+      <c r="Y470" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z470" s="23" t="s">
+        <v>2670</v>
+      </c>
+      <c r="AA470" s="23" t="s">
+        <v>2680</v>
+      </c>
+      <c r="AB470" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="AE470" s="23" t="s">
+        <v>1293</v>
+      </c>
+      <c r="AF470" s="19"/>
+      <c r="AG470" s="24">
+        <v>59.12</v>
+      </c>
+      <c r="AH470" s="23">
+        <v>2.7678571428571401</v>
+      </c>
+      <c r="AI470" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ470" s="23">
+        <v>53.69</v>
+      </c>
+      <c r="AK470" s="23">
+        <v>64.540000000000006</v>
+      </c>
+      <c r="AL470" s="23">
+        <v>0.95</v>
+      </c>
+      <c r="AM470" s="23">
+        <v>0</v>
+      </c>
+      <c r="AN470" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="AO470" s="23" t="s">
+        <v>2672</v>
+      </c>
+      <c r="AQ470" s="23" t="s">
+        <v>1839</v>
+      </c>
+      <c r="AR470" s="23" t="s">
+        <v>2673</v>
+      </c>
+      <c r="AS470" s="23">
+        <v>2</v>
+      </c>
+      <c r="AT470" s="23" t="s">
+        <v>2681</v>
+      </c>
+      <c r="AU470" s="23" t="s">
+        <v>2675</v>
+      </c>
+      <c r="AV470" s="23" t="s">
+        <v>2684</v>
+      </c>
+    </row>
+    <row r="471" spans="1:49" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A471" s="14" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B471" s="15" t="s">
+        <v>2685</v>
+      </c>
+      <c r="S471" s="17"/>
+      <c r="T471" s="17"/>
+      <c r="U471" s="17"/>
+      <c r="AF471" s="17"/>
+      <c r="AG471" s="17"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Data/coded-Dataset.xlsx
+++ b/Data/coded-Dataset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laura/Desktop/GITHUB-METAREVIEW/Meta-review-cognitive-profiles-ADHD-Dyslexia/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40FAD69C-41CE-4F44-A97C-9FEACAF7C6E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C0D67A8-0995-444E-954F-677F044009E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30300" yWindow="600" windowWidth="38380" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16747" uniqueCount="2687">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17234" uniqueCount="2763">
   <si>
     <t>ID_article</t>
   </si>
@@ -8105,12 +8105,241 @@
   <si>
     <t>Macambira, Y. K.; Barbosa, J. V. S.; de Queiroga, B. M.; Cordeiro, A. A. A.; Menezes, D. C.; Timóteo de Lima, M. L. L.; Advíncula, K. P.</t>
   </si>
+  <si>
+    <t>2058_1</t>
+  </si>
+  <si>
+    <t>2058_2</t>
+  </si>
+  <si>
+    <t>2058_3</t>
+  </si>
+  <si>
+    <t>2058_4</t>
+  </si>
+  <si>
+    <t>2058_5</t>
+  </si>
+  <si>
+    <t>2058_6</t>
+  </si>
+  <si>
+    <t>2058_7</t>
+  </si>
+  <si>
+    <t>2058_8</t>
+  </si>
+  <si>
+    <t>2058_9</t>
+  </si>
+  <si>
+    <t>2058_10</t>
+  </si>
+  <si>
+    <t>2058_11</t>
+  </si>
+  <si>
+    <t>2058_12</t>
+  </si>
+  <si>
+    <t>2058_13</t>
+  </si>
+  <si>
+    <t>Eligible pooled estimates for group-difference analyses (overall and subgroups) from Table 5; likely overlapping study pools.</t>
+  </si>
+  <si>
+    <t>Coherence motion perception (group differences)</t>
+  </si>
+  <si>
+    <t>Coherence motion perception</t>
+  </si>
+  <si>
+    <t>Group-difference studies include both child and adult samples (Table 5 stratifies by age).</t>
+  </si>
+  <si>
+    <t>Results: total 2322 participants (809 dyslexics; 1401 controls); Abstract/Discussion: total 2334 participants.</t>
+  </si>
+  <si>
+    <t>Dyslexia vs age-matched typically reading controls</t>
+  </si>
+  <si>
+    <t>Extracted from Table 5 (Type of test: Group diff).</t>
+  </si>
+  <si>
+    <t>Eligible pooled estimate for correlational analyses from Table 5.</t>
+  </si>
+  <si>
+    <t>Relationship between motion coherence threshold and reading ability (correlational)</t>
+  </si>
+  <si>
+    <t>Age breakdown not provided for correlational pooled estimate in Table 5.</t>
+  </si>
+  <si>
+    <t>Table 5 reports n=15 correlational experiments; total N not summarized in Table 5.</t>
+  </si>
+  <si>
+    <t>Association: reading ability with motion sensitivity</t>
+  </si>
+  <si>
+    <t>Extracted from Table 5 (Type of test: Correlational).</t>
+  </si>
+  <si>
+    <t>Group-difference subgroup pooled estimates by stimulus dot number (Table 5).</t>
+  </si>
+  <si>
+    <t>Coherence motion perception (No of dots: &lt;150)</t>
+  </si>
+  <si>
+    <t>Not stratified by age for this subgroup in Table 5.</t>
+  </si>
+  <si>
+    <t>Subgroup defined by dot-number category (Table 5).</t>
+  </si>
+  <si>
+    <t>Table 5, GROUP DIFFERENCES → No of dots → “o150 dots”.</t>
+  </si>
+  <si>
+    <t>Coherence motion perception (No of dots: 150)</t>
+  </si>
+  <si>
+    <t>Table 5, GROUP DIFFERENCES → No of dots → “150 dots”.</t>
+  </si>
+  <si>
+    <t>Coherence motion perception (No of dots: 300)</t>
+  </si>
+  <si>
+    <t>Table 5, GROUP DIFFERENCES → No of dots → “300 dots”.</t>
+  </si>
+  <si>
+    <t>Coherence motion perception (No of dots: &gt;300)</t>
+  </si>
+  <si>
+    <t>Table 5, GROUP DIFFERENCES → No of dots → “4300 dots” category label used by authors for the highest-dot group.</t>
+  </si>
+  <si>
+    <t>Group-difference subgroup pooled estimates by task type (Table 5).</t>
+  </si>
+  <si>
+    <t>Coherence motion perception (Type of test: Dots)</t>
+  </si>
+  <si>
+    <t>Subgroup defined by motion stimulus type (dots) (Table 5).</t>
+  </si>
+  <si>
+    <t>Table 5, GROUP DIFFERENCES → Type of test → “Dots”.</t>
+  </si>
+  <si>
+    <t>Coherence motion perception (Type of test: Gratings)</t>
+  </si>
+  <si>
+    <t>Subgroup defined by motion stimulus type (gratings) (Table 5).</t>
+  </si>
+  <si>
+    <t>Table 5, GROUP DIFFERENCES → Type of test → “Gratings”.</t>
+  </si>
+  <si>
+    <t>Group-difference subgroup pooled estimates by age group (Table 5).</t>
+  </si>
+  <si>
+    <t>Coherence motion perception (Age: Children)</t>
+  </si>
+  <si>
+    <t>Children (as labeled by authors in Table 5).</t>
+  </si>
+  <si>
+    <t>Subgroup defined by sample age (Table 5).</t>
+  </si>
+  <si>
+    <t>Table 5, GROUP DIFFERENCES → Age → “Children”.</t>
+  </si>
+  <si>
+    <t>Coherence motion perception (Age: Adults)</t>
+  </si>
+  <si>
+    <t>Adults (as labeled by authors in Table 5).</t>
+  </si>
+  <si>
+    <t>Table 5, GROUP DIFFERENCES → Age → “Adults”.</t>
+  </si>
+  <si>
+    <t>Group-difference subgroup pooled estimates by visual field (Table 5).</t>
+  </si>
+  <si>
+    <t>Coherence motion perception (Visual field: &lt;10 deg)</t>
+  </si>
+  <si>
+    <t>Subgroup defined by visual field category (Table 5).</t>
+  </si>
+  <si>
+    <t>Table 5, GROUP DIFFERENCES → Visual field → “o10 deg”.</t>
+  </si>
+  <si>
+    <t>Coherence motion perception (Visual field: &lt;20 deg)</t>
+  </si>
+  <si>
+    <t>Table 5, GROUP DIFFERENCES → Visual field → “o20 deg”.</t>
+  </si>
+  <si>
+    <t>Coherence motion perception (Visual field: &gt;20 deg)</t>
+  </si>
+  <si>
+    <t>Table 5, GROUP DIFFERENCES → Visual field → “420 deg” category label used by authors for the widest-field group.</t>
+  </si>
+  <si>
+    <t>Coherence Motion Perception in Developmental Dyslexia: A Meta-analysis of Behavioral Studies</t>
+  </si>
+  <si>
+    <t>The paper reports a single 'global' mean ES (d=0.675) pooling across group-difference and correlational analyses; this mixed pooled estimate was not extracted as it is not purely categorical or dimensional.; The paper states r was used for correlational analyses and converted to d; Table 5 reports pooled results in d (used here).; Total sample size is reported inconsistently (2322 in Results; 2334 in Abstract/Discussion).; Moderator 'Velocity' is reported as an analysis (p=0.31) without a pooled mean ES/CI in Table 5; no extractable pooled estimate for velocity was provided.</t>
+  </si>
+  <si>
+    <t>Benassi, M.; Simonelli, L.; Giovagnoli, S.; Bolzani, R.</t>
+  </si>
+  <si>
+    <t>2060</t>
+  </si>
+  <si>
+    <t>Lee, S. M.-K.; Cui, Y.; Tong, S. X.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toward a Model of Statistical Learning and Reading: Evidence From a Meta-Analysis. </t>
+  </si>
+  <si>
+    <t>2060_1</t>
+  </si>
+  <si>
+    <t>['I2', 'Q', 'other', 'tau2']</t>
+  </si>
+  <si>
+    <t>No explicit preregistration registry (e.g., PROSPERO/OSF) statement was found in the PDF text extraction; coded as Unclear.; Search dates/time-window for the current meta-analysis were not clearly stated in the extracted text; coded as Unclear.; No pooled subgroup effect sizes were reported for task modality (visual vs auditory vs audiovisual); only an omnibus test (F) was reported.
+  ],</t>
+  </si>
+  <si>
+    <t>Overall pooled dyslexia vs typically developing difference in statistical learning (across paradigms/orthographies).</t>
+  </si>
+  <si>
+    <t>Statistical learning</t>
+  </si>
+  <si>
+    <t>Not significant (e.g., trim-and-fill: no missing on left; p-uniform p=.993).</t>
+  </si>
+  <si>
+    <t>Studies included both children and adults; overall estimate combines across ages.</t>
+  </si>
+  <si>
+    <t>1,259 participants with dyslexia; 1,459 typically developing controls.</t>
+  </si>
+  <si>
+    <t>Dyslexia vs typically developing controls</t>
+  </si>
+  <si>
+    <t>Effect size reported as Cohen’s d; Std_Err derived from explicitly reported 95% CI. Tau derived from reported RVE-based τ2 = 0.12 (Tau = sqrt(tau2)).</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -8141,6 +8370,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -8215,10 +8451,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -8272,13 +8509,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="16" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -8578,11 +8817,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AX471"/>
+  <dimension ref="A1:AX486"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A443" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T465" sqref="T465"/>
+    <sheetView tabSelected="1" topLeftCell="AQ1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A459" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="V487" sqref="V487"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -70398,11 +70637,1835 @@
       <c r="B471" s="15" t="s">
         <v>2685</v>
       </c>
-      <c r="S471" s="17"/>
-      <c r="T471" s="17"/>
-      <c r="U471" s="17"/>
-      <c r="AF471" s="17"/>
-      <c r="AG471" s="17"/>
+      <c r="C471" s="16" t="s">
+        <v>2749</v>
+      </c>
+      <c r="D471" s="16">
+        <v>2010</v>
+      </c>
+      <c r="E471" s="16" t="s">
+        <v>2747</v>
+      </c>
+      <c r="F471" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="G471" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="H471" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="I471" s="16" t="s">
+        <v>409</v>
+      </c>
+      <c r="J471" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="K471" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="L471" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="M471" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="N471" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="O471" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="P471" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q471" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="R471" s="16" t="s">
+        <v>2748</v>
+      </c>
+      <c r="S471" s="17" t="s">
+        <v>2687</v>
+      </c>
+      <c r="T471" s="19"/>
+      <c r="U471" s="19"/>
+      <c r="V471" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="W471" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="X471" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y471" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z471" s="16" t="s">
+        <v>2700</v>
+      </c>
+      <c r="AA471" s="16" t="s">
+        <v>2701</v>
+      </c>
+      <c r="AB471" s="16" t="s">
+        <v>1855</v>
+      </c>
+      <c r="AC471" s="16" t="s">
+        <v>1857</v>
+      </c>
+      <c r="AD471" s="16" t="s">
+        <v>2702</v>
+      </c>
+      <c r="AE471" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF471" s="19"/>
+      <c r="AG471" s="17">
+        <v>0.747</v>
+      </c>
+      <c r="AH471" s="16">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="AI471" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="AJ471" s="16">
+        <v>0.61199999999999999</v>
+      </c>
+      <c r="AK471" s="16">
+        <v>0.88200000000000001</v>
+      </c>
+      <c r="AL471" s="16">
+        <v>0.95</v>
+      </c>
+      <c r="AN471" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ471" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="AR471" s="16" t="s">
+        <v>2703</v>
+      </c>
+      <c r="AS471" s="16">
+        <v>38</v>
+      </c>
+      <c r="AT471" s="16" t="s">
+        <v>2704</v>
+      </c>
+      <c r="AU471" s="16" t="s">
+        <v>2705</v>
+      </c>
+      <c r="AV471" s="16" t="s">
+        <v>2706</v>
+      </c>
+    </row>
+    <row r="472" spans="1:49" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A472" s="14" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B472" s="15" t="s">
+        <v>2685</v>
+      </c>
+      <c r="C472" s="16" t="s">
+        <v>2749</v>
+      </c>
+      <c r="D472" s="16">
+        <v>2010</v>
+      </c>
+      <c r="E472" s="16" t="s">
+        <v>2747</v>
+      </c>
+      <c r="F472" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="G472" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="H472" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="I472" s="16" t="s">
+        <v>409</v>
+      </c>
+      <c r="J472" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="K472" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="L472" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="M472" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="N472" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="O472" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="P472" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q472" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="R472" s="16" t="s">
+        <v>2748</v>
+      </c>
+      <c r="S472" s="17" t="s">
+        <v>2688</v>
+      </c>
+      <c r="T472" s="19"/>
+      <c r="U472" s="19"/>
+      <c r="V472" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="W472" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="X472" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y472" s="16" t="s">
+        <v>353</v>
+      </c>
+      <c r="Z472" s="16" t="s">
+        <v>2707</v>
+      </c>
+      <c r="AA472" s="16" t="s">
+        <v>2708</v>
+      </c>
+      <c r="AB472" s="16" t="s">
+        <v>1855</v>
+      </c>
+      <c r="AC472" s="16" t="s">
+        <v>1857</v>
+      </c>
+      <c r="AD472" s="16" t="s">
+        <v>2702</v>
+      </c>
+      <c r="AE472" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF472" s="19"/>
+      <c r="AG472" s="17">
+        <v>0.19400000000000001</v>
+      </c>
+      <c r="AH472" s="16">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="AI472" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="AJ472" s="16">
+        <v>0.106084</v>
+      </c>
+      <c r="AK472" s="16">
+        <v>0.254</v>
+      </c>
+      <c r="AL472" s="16">
+        <v>0.95</v>
+      </c>
+      <c r="AN472" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ472" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="AR472" s="16" t="s">
+        <v>2709</v>
+      </c>
+      <c r="AS472" s="16">
+        <v>15</v>
+      </c>
+      <c r="AT472" s="16" t="s">
+        <v>2710</v>
+      </c>
+      <c r="AU472" s="16" t="s">
+        <v>2711</v>
+      </c>
+      <c r="AV472" s="16" t="s">
+        <v>2712</v>
+      </c>
+    </row>
+    <row r="473" spans="1:49" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A473" s="14" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B473" s="15" t="s">
+        <v>2685</v>
+      </c>
+      <c r="C473" s="16" t="s">
+        <v>2749</v>
+      </c>
+      <c r="D473" s="16">
+        <v>2010</v>
+      </c>
+      <c r="E473" s="16" t="s">
+        <v>2747</v>
+      </c>
+      <c r="F473" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="G473" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="H473" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="I473" s="16" t="s">
+        <v>409</v>
+      </c>
+      <c r="J473" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="K473" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="L473" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="M473" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="N473" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="O473" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="P473" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q473" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="R473" s="16" t="s">
+        <v>2748</v>
+      </c>
+      <c r="S473" s="17" t="s">
+        <v>2689</v>
+      </c>
+      <c r="T473" s="19"/>
+      <c r="U473" s="19"/>
+      <c r="V473" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="W473" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="X473" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y473" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z473" s="16" t="s">
+        <v>2713</v>
+      </c>
+      <c r="AA473" s="16" t="s">
+        <v>2714</v>
+      </c>
+      <c r="AB473" s="16" t="s">
+        <v>1855</v>
+      </c>
+      <c r="AC473" s="16" t="s">
+        <v>1857</v>
+      </c>
+      <c r="AD473" s="16" t="s">
+        <v>2702</v>
+      </c>
+      <c r="AE473" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF473" s="19"/>
+      <c r="AG473" s="17">
+        <v>1.008</v>
+      </c>
+      <c r="AH473" s="16">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="AI473" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="AJ473" s="16">
+        <v>0.66600000000000004</v>
+      </c>
+      <c r="AK473" s="16">
+        <v>1.349</v>
+      </c>
+      <c r="AL473" s="16">
+        <v>0.95</v>
+      </c>
+      <c r="AN473" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ473" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="AR473" s="16" t="s">
+        <v>2715</v>
+      </c>
+      <c r="AS473" s="16">
+        <v>9</v>
+      </c>
+      <c r="AT473" s="16" t="s">
+        <v>2716</v>
+      </c>
+      <c r="AU473" s="16" t="s">
+        <v>2705</v>
+      </c>
+      <c r="AV473" s="16" t="s">
+        <v>2717</v>
+      </c>
+    </row>
+    <row r="474" spans="1:49" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A474" s="14" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B474" s="15" t="s">
+        <v>2685</v>
+      </c>
+      <c r="C474" s="16" t="s">
+        <v>2749</v>
+      </c>
+      <c r="D474" s="16">
+        <v>2010</v>
+      </c>
+      <c r="E474" s="16" t="s">
+        <v>2747</v>
+      </c>
+      <c r="F474" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="G474" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="H474" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="I474" s="16" t="s">
+        <v>409</v>
+      </c>
+      <c r="J474" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="K474" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="L474" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="M474" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="N474" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="O474" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="P474" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q474" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="R474" s="16" t="s">
+        <v>2748</v>
+      </c>
+      <c r="S474" s="17" t="s">
+        <v>2690</v>
+      </c>
+      <c r="T474" s="19"/>
+      <c r="U474" s="19"/>
+      <c r="V474" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="W474" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="X474" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y474" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z474" s="16" t="s">
+        <v>2713</v>
+      </c>
+      <c r="AA474" s="16" t="s">
+        <v>2718</v>
+      </c>
+      <c r="AB474" s="16" t="s">
+        <v>1855</v>
+      </c>
+      <c r="AC474" s="16" t="s">
+        <v>1857</v>
+      </c>
+      <c r="AD474" s="16" t="s">
+        <v>2702</v>
+      </c>
+      <c r="AE474" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF474" s="19"/>
+      <c r="AG474" s="17">
+        <v>1.0589999999999999</v>
+      </c>
+      <c r="AH474" s="16">
+        <v>0.29599999999999999</v>
+      </c>
+      <c r="AI474" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="AJ474" s="16">
+        <v>0.47799999999999998</v>
+      </c>
+      <c r="AK474" s="16">
+        <v>1.639</v>
+      </c>
+      <c r="AL474" s="16">
+        <v>0.95</v>
+      </c>
+      <c r="AN474" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ474" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="AR474" s="16" t="s">
+        <v>2715</v>
+      </c>
+      <c r="AS474" s="16">
+        <v>5</v>
+      </c>
+      <c r="AT474" s="16" t="s">
+        <v>2716</v>
+      </c>
+      <c r="AU474" s="16" t="s">
+        <v>2705</v>
+      </c>
+      <c r="AV474" s="16" t="s">
+        <v>2719</v>
+      </c>
+    </row>
+    <row r="475" spans="1:49" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A475" s="14" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B475" s="15" t="s">
+        <v>2685</v>
+      </c>
+      <c r="C475" s="16" t="s">
+        <v>2749</v>
+      </c>
+      <c r="D475" s="16">
+        <v>2010</v>
+      </c>
+      <c r="E475" s="16" t="s">
+        <v>2747</v>
+      </c>
+      <c r="F475" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="G475" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="H475" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="I475" s="16" t="s">
+        <v>409</v>
+      </c>
+      <c r="J475" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="K475" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="L475" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="M475" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="N475" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="O475" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="P475" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q475" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="R475" s="16" t="s">
+        <v>2748</v>
+      </c>
+      <c r="S475" s="17" t="s">
+        <v>2691</v>
+      </c>
+      <c r="T475" s="19"/>
+      <c r="U475" s="19"/>
+      <c r="V475" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="W475" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="X475" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y475" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z475" s="16" t="s">
+        <v>2713</v>
+      </c>
+      <c r="AA475" s="16" t="s">
+        <v>2720</v>
+      </c>
+      <c r="AB475" s="16" t="s">
+        <v>1855</v>
+      </c>
+      <c r="AC475" s="16" t="s">
+        <v>1857</v>
+      </c>
+      <c r="AD475" s="16" t="s">
+        <v>2702</v>
+      </c>
+      <c r="AE475" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF475" s="19"/>
+      <c r="AG475" s="17">
+        <v>0.72099999999999997</v>
+      </c>
+      <c r="AH475" s="16">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="AI475" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="AJ475" s="16">
+        <v>0.57199999999999995</v>
+      </c>
+      <c r="AK475" s="16">
+        <v>0.871</v>
+      </c>
+      <c r="AL475" s="16">
+        <v>0.95</v>
+      </c>
+      <c r="AN475" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ475" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="AR475" s="16" t="s">
+        <v>2715</v>
+      </c>
+      <c r="AS475" s="16">
+        <v>13</v>
+      </c>
+      <c r="AT475" s="16" t="s">
+        <v>2716</v>
+      </c>
+      <c r="AU475" s="16" t="s">
+        <v>2705</v>
+      </c>
+      <c r="AV475" s="16" t="s">
+        <v>2721</v>
+      </c>
+    </row>
+    <row r="476" spans="1:49" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A476" s="14" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B476" s="15" t="s">
+        <v>2685</v>
+      </c>
+      <c r="C476" s="16" t="s">
+        <v>2749</v>
+      </c>
+      <c r="D476" s="16">
+        <v>2010</v>
+      </c>
+      <c r="E476" s="16" t="s">
+        <v>2747</v>
+      </c>
+      <c r="F476" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="G476" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="H476" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="I476" s="16" t="s">
+        <v>409</v>
+      </c>
+      <c r="J476" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="K476" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="L476" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="M476" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="N476" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="O476" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="P476" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q476" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="R476" s="16" t="s">
+        <v>2748</v>
+      </c>
+      <c r="S476" s="17" t="s">
+        <v>2692</v>
+      </c>
+      <c r="T476" s="19"/>
+      <c r="U476" s="19"/>
+      <c r="V476" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="W476" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="X476" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y476" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z476" s="16" t="s">
+        <v>2713</v>
+      </c>
+      <c r="AA476" s="16" t="s">
+        <v>2722</v>
+      </c>
+      <c r="AB476" s="16" t="s">
+        <v>1855</v>
+      </c>
+      <c r="AC476" s="16" t="s">
+        <v>1857</v>
+      </c>
+      <c r="AD476" s="16" t="s">
+        <v>2702</v>
+      </c>
+      <c r="AE476" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF476" s="19"/>
+      <c r="AG476" s="17">
+        <v>0.44800000000000001</v>
+      </c>
+      <c r="AH476" s="16">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="AI476" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="AJ476" s="16">
+        <v>0.253</v>
+      </c>
+      <c r="AK476" s="16">
+        <v>0.64200000000000002</v>
+      </c>
+      <c r="AL476" s="16">
+        <v>0.95</v>
+      </c>
+      <c r="AN476" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ476" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="AR476" s="16" t="s">
+        <v>2715</v>
+      </c>
+      <c r="AS476" s="16">
+        <v>8</v>
+      </c>
+      <c r="AT476" s="16" t="s">
+        <v>2716</v>
+      </c>
+      <c r="AU476" s="16" t="s">
+        <v>2705</v>
+      </c>
+      <c r="AV476" s="16" t="s">
+        <v>2723</v>
+      </c>
+    </row>
+    <row r="477" spans="1:49" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A477" s="14" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B477" s="15" t="s">
+        <v>2685</v>
+      </c>
+      <c r="C477" s="16" t="s">
+        <v>2749</v>
+      </c>
+      <c r="D477" s="16">
+        <v>2010</v>
+      </c>
+      <c r="E477" s="16" t="s">
+        <v>2747</v>
+      </c>
+      <c r="F477" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="G477" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="H477" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="I477" s="16" t="s">
+        <v>409</v>
+      </c>
+      <c r="J477" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="K477" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="L477" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="M477" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="N477" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="O477" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="P477" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q477" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="R477" s="16" t="s">
+        <v>2748</v>
+      </c>
+      <c r="S477" s="17" t="s">
+        <v>2693</v>
+      </c>
+      <c r="T477" s="19"/>
+      <c r="U477" s="19"/>
+      <c r="V477" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="W477" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="X477" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y477" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z477" s="16" t="s">
+        <v>2724</v>
+      </c>
+      <c r="AA477" s="16" t="s">
+        <v>2725</v>
+      </c>
+      <c r="AB477" s="16" t="s">
+        <v>1855</v>
+      </c>
+      <c r="AC477" s="16" t="s">
+        <v>1857</v>
+      </c>
+      <c r="AD477" s="16" t="s">
+        <v>2702</v>
+      </c>
+      <c r="AE477" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF477" s="19"/>
+      <c r="AG477" s="17">
+        <v>0.76700000000000002</v>
+      </c>
+      <c r="AH477" s="16">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="AI477" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="AJ477" s="16">
+        <v>0.629</v>
+      </c>
+      <c r="AK477" s="16">
+        <v>0.91400000000000003</v>
+      </c>
+      <c r="AL477" s="16">
+        <v>0.95</v>
+      </c>
+      <c r="AN477" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ477" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="AR477" s="16" t="s">
+        <v>2715</v>
+      </c>
+      <c r="AS477" s="16">
+        <v>35</v>
+      </c>
+      <c r="AT477" s="16" t="s">
+        <v>2726</v>
+      </c>
+      <c r="AU477" s="16" t="s">
+        <v>2705</v>
+      </c>
+      <c r="AV477" s="16" t="s">
+        <v>2727</v>
+      </c>
+    </row>
+    <row r="478" spans="1:49" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A478" s="14" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B478" s="15" t="s">
+        <v>2685</v>
+      </c>
+      <c r="C478" s="16" t="s">
+        <v>2749</v>
+      </c>
+      <c r="D478" s="16">
+        <v>2010</v>
+      </c>
+      <c r="E478" s="16" t="s">
+        <v>2747</v>
+      </c>
+      <c r="F478" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="G478" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="H478" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="I478" s="16" t="s">
+        <v>409</v>
+      </c>
+      <c r="J478" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="K478" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="L478" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="M478" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="N478" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="O478" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="P478" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q478" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="R478" s="16" t="s">
+        <v>2748</v>
+      </c>
+      <c r="S478" s="17" t="s">
+        <v>2694</v>
+      </c>
+      <c r="T478" s="19"/>
+      <c r="U478" s="19"/>
+      <c r="V478" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="W478" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="X478" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y478" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z478" s="16" t="s">
+        <v>2724</v>
+      </c>
+      <c r="AA478" s="16" t="s">
+        <v>2728</v>
+      </c>
+      <c r="AB478" s="16" t="s">
+        <v>1855</v>
+      </c>
+      <c r="AC478" s="16" t="s">
+        <v>1857</v>
+      </c>
+      <c r="AD478" s="16" t="s">
+        <v>2702</v>
+      </c>
+      <c r="AE478" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF478" s="19"/>
+      <c r="AG478" s="17">
+        <v>0.58599999999999997</v>
+      </c>
+      <c r="AH478" s="16">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="AI478" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="AJ478" s="16">
+        <v>0.29699999999999999</v>
+      </c>
+      <c r="AK478" s="16">
+        <v>0.875</v>
+      </c>
+      <c r="AL478" s="16">
+        <v>0.95</v>
+      </c>
+      <c r="AN478" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ478" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="AR478" s="16" t="s">
+        <v>2715</v>
+      </c>
+      <c r="AS478" s="16">
+        <v>3</v>
+      </c>
+      <c r="AT478" s="16" t="s">
+        <v>2729</v>
+      </c>
+      <c r="AU478" s="16" t="s">
+        <v>2705</v>
+      </c>
+      <c r="AV478" s="16" t="s">
+        <v>2730</v>
+      </c>
+    </row>
+    <row r="479" spans="1:49" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A479" s="14" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B479" s="15" t="s">
+        <v>2685</v>
+      </c>
+      <c r="C479" s="16" t="s">
+        <v>2749</v>
+      </c>
+      <c r="D479" s="16">
+        <v>2010</v>
+      </c>
+      <c r="E479" s="16" t="s">
+        <v>2747</v>
+      </c>
+      <c r="F479" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="G479" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="H479" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="I479" s="16" t="s">
+        <v>409</v>
+      </c>
+      <c r="J479" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="K479" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="L479" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="M479" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="N479" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="O479" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="P479" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q479" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="R479" s="16" t="s">
+        <v>2748</v>
+      </c>
+      <c r="S479" s="17" t="s">
+        <v>2695</v>
+      </c>
+      <c r="T479" s="19"/>
+      <c r="U479" s="19"/>
+      <c r="V479" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="W479" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="X479" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y479" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z479" s="16" t="s">
+        <v>2731</v>
+      </c>
+      <c r="AA479" s="16" t="s">
+        <v>2732</v>
+      </c>
+      <c r="AB479" s="16" t="s">
+        <v>1855</v>
+      </c>
+      <c r="AC479" s="16" t="s">
+        <v>1857</v>
+      </c>
+      <c r="AD479" s="16" t="s">
+        <v>2702</v>
+      </c>
+      <c r="AE479" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF479" s="19"/>
+      <c r="AG479" s="17">
+        <v>0.621</v>
+      </c>
+      <c r="AH479" s="16">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="AI479" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="AJ479" s="16">
+        <v>0.45300000000000001</v>
+      </c>
+      <c r="AK479" s="16">
+        <v>0.78900000000000003</v>
+      </c>
+      <c r="AL479" s="16">
+        <v>0.95</v>
+      </c>
+      <c r="AN479" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ479" s="16" t="s">
+        <v>1839</v>
+      </c>
+      <c r="AR479" s="16" t="s">
+        <v>2733</v>
+      </c>
+      <c r="AS479" s="16">
+        <v>23</v>
+      </c>
+      <c r="AT479" s="16" t="s">
+        <v>2734</v>
+      </c>
+      <c r="AU479" s="16" t="s">
+        <v>2705</v>
+      </c>
+      <c r="AV479" s="16" t="s">
+        <v>2735</v>
+      </c>
+    </row>
+    <row r="480" spans="1:49" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A480" s="14" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B480" s="15" t="s">
+        <v>2685</v>
+      </c>
+      <c r="C480" s="16" t="s">
+        <v>2749</v>
+      </c>
+      <c r="D480" s="16">
+        <v>2010</v>
+      </c>
+      <c r="E480" s="16" t="s">
+        <v>2747</v>
+      </c>
+      <c r="F480" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="G480" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="H480" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="I480" s="16" t="s">
+        <v>409</v>
+      </c>
+      <c r="J480" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="K480" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="L480" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="M480" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="N480" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="O480" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="P480" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q480" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="R480" s="16" t="s">
+        <v>2748</v>
+      </c>
+      <c r="S480" s="17" t="s">
+        <v>2696</v>
+      </c>
+      <c r="T480" s="19"/>
+      <c r="U480" s="19"/>
+      <c r="V480" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="W480" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="X480" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y480" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z480" s="16" t="s">
+        <v>2731</v>
+      </c>
+      <c r="AA480" s="16" t="s">
+        <v>2736</v>
+      </c>
+      <c r="AB480" s="16" t="s">
+        <v>1855</v>
+      </c>
+      <c r="AC480" s="16" t="s">
+        <v>1857</v>
+      </c>
+      <c r="AD480" s="16" t="s">
+        <v>2702</v>
+      </c>
+      <c r="AE480" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF480" s="19"/>
+      <c r="AG480" s="17">
+        <v>0.99299999999999999</v>
+      </c>
+      <c r="AH480" s="16">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="AI480" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="AJ480" s="16">
+        <v>0.81599999999999995</v>
+      </c>
+      <c r="AK480" s="16">
+        <v>1.171</v>
+      </c>
+      <c r="AL480" s="16">
+        <v>0.95</v>
+      </c>
+      <c r="AN480" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ480" s="16" t="s">
+        <v>1837</v>
+      </c>
+      <c r="AR480" s="16" t="s">
+        <v>2737</v>
+      </c>
+      <c r="AS480" s="16">
+        <v>15</v>
+      </c>
+      <c r="AT480" s="16" t="s">
+        <v>2734</v>
+      </c>
+      <c r="AU480" s="16" t="s">
+        <v>2705</v>
+      </c>
+      <c r="AV480" s="16" t="s">
+        <v>2738</v>
+      </c>
+    </row>
+    <row r="481" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A481" s="14" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B481" s="15" t="s">
+        <v>2685</v>
+      </c>
+      <c r="C481" s="16" t="s">
+        <v>2749</v>
+      </c>
+      <c r="D481" s="16">
+        <v>2010</v>
+      </c>
+      <c r="E481" s="16" t="s">
+        <v>2747</v>
+      </c>
+      <c r="F481" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="G481" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="H481" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="I481" s="16" t="s">
+        <v>409</v>
+      </c>
+      <c r="J481" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="K481" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="L481" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="M481" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="N481" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="O481" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="P481" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q481" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="R481" s="16" t="s">
+        <v>2748</v>
+      </c>
+      <c r="S481" s="17" t="s">
+        <v>2697</v>
+      </c>
+      <c r="T481" s="19"/>
+      <c r="U481" s="19"/>
+      <c r="V481" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="W481" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="X481" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y481" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z481" s="16" t="s">
+        <v>2739</v>
+      </c>
+      <c r="AA481" s="16" t="s">
+        <v>2740</v>
+      </c>
+      <c r="AB481" s="16" t="s">
+        <v>1855</v>
+      </c>
+      <c r="AC481" s="16" t="s">
+        <v>1857</v>
+      </c>
+      <c r="AD481" s="16" t="s">
+        <v>2702</v>
+      </c>
+      <c r="AE481" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF481" s="19"/>
+      <c r="AG481" s="17">
+        <v>0.79700000000000004</v>
+      </c>
+      <c r="AH481" s="16">
+        <v>0.114</v>
+      </c>
+      <c r="AI481" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="AJ481" s="16">
+        <v>0.57399999999999995</v>
+      </c>
+      <c r="AK481" s="16">
+        <v>1.0189999999999999</v>
+      </c>
+      <c r="AL481" s="16">
+        <v>0.95</v>
+      </c>
+      <c r="AN481" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ481" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="AR481" s="16" t="s">
+        <v>2715</v>
+      </c>
+      <c r="AS481" s="16">
+        <v>11</v>
+      </c>
+      <c r="AT481" s="16" t="s">
+        <v>2741</v>
+      </c>
+      <c r="AU481" s="16" t="s">
+        <v>2705</v>
+      </c>
+      <c r="AV481" s="16" t="s">
+        <v>2742</v>
+      </c>
+    </row>
+    <row r="482" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A482" s="14" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B482" s="15" t="s">
+        <v>2685</v>
+      </c>
+      <c r="C482" s="16" t="s">
+        <v>2749</v>
+      </c>
+      <c r="D482" s="16">
+        <v>2010</v>
+      </c>
+      <c r="E482" s="16" t="s">
+        <v>2747</v>
+      </c>
+      <c r="F482" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="G482" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="H482" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="I482" s="16" t="s">
+        <v>409</v>
+      </c>
+      <c r="J482" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="K482" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="L482" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="M482" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="N482" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="O482" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="P482" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q482" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="R482" s="16" t="s">
+        <v>2748</v>
+      </c>
+      <c r="S482" s="17" t="s">
+        <v>2698</v>
+      </c>
+      <c r="T482" s="19"/>
+      <c r="U482" s="19"/>
+      <c r="V482" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="W482" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="X482" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y482" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z482" s="16" t="s">
+        <v>2739</v>
+      </c>
+      <c r="AA482" s="16" t="s">
+        <v>2743</v>
+      </c>
+      <c r="AB482" s="16" t="s">
+        <v>1855</v>
+      </c>
+      <c r="AC482" s="16" t="s">
+        <v>1857</v>
+      </c>
+      <c r="AD482" s="16" t="s">
+        <v>2702</v>
+      </c>
+      <c r="AE482" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF482" s="19"/>
+      <c r="AG482" s="17">
+        <v>0.69399999999999995</v>
+      </c>
+      <c r="AH482" s="16">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="AI482" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="AJ482" s="16">
+        <v>0.51600000000000001</v>
+      </c>
+      <c r="AK482" s="16">
+        <v>0.872</v>
+      </c>
+      <c r="AL482" s="16">
+        <v>0.95</v>
+      </c>
+      <c r="AN482" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ482" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="AR482" s="16" t="s">
+        <v>2715</v>
+      </c>
+      <c r="AS482" s="16">
+        <v>14</v>
+      </c>
+      <c r="AT482" s="16" t="s">
+        <v>2741</v>
+      </c>
+      <c r="AU482" s="16" t="s">
+        <v>2705</v>
+      </c>
+      <c r="AV482" s="16" t="s">
+        <v>2744</v>
+      </c>
+    </row>
+    <row r="483" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A483" s="14" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B483" s="15" t="s">
+        <v>2685</v>
+      </c>
+      <c r="C483" s="16" t="s">
+        <v>2749</v>
+      </c>
+      <c r="D483" s="16">
+        <v>2010</v>
+      </c>
+      <c r="E483" s="16" t="s">
+        <v>2747</v>
+      </c>
+      <c r="F483" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="G483" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="H483" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="I483" s="16" t="s">
+        <v>409</v>
+      </c>
+      <c r="J483" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="K483" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="L483" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="M483" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="N483" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="O483" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="P483" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q483" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="R483" s="16" t="s">
+        <v>2748</v>
+      </c>
+      <c r="S483" s="17" t="s">
+        <v>2699</v>
+      </c>
+      <c r="T483" s="19"/>
+      <c r="U483" s="19"/>
+      <c r="V483" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="W483" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="X483" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y483" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z483" s="16" t="s">
+        <v>2739</v>
+      </c>
+      <c r="AA483" s="16" t="s">
+        <v>2745</v>
+      </c>
+      <c r="AB483" s="16" t="s">
+        <v>1855</v>
+      </c>
+      <c r="AC483" s="16" t="s">
+        <v>1857</v>
+      </c>
+      <c r="AD483" s="16" t="s">
+        <v>2702</v>
+      </c>
+      <c r="AE483" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF483" s="19"/>
+      <c r="AG483" s="17">
+        <v>1.0309999999999999</v>
+      </c>
+      <c r="AH483" s="16">
+        <v>0.42799999999999999</v>
+      </c>
+      <c r="AI483" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="AJ483" s="16">
+        <v>0.192</v>
+      </c>
+      <c r="AK483" s="16">
+        <v>1.869</v>
+      </c>
+      <c r="AL483" s="16">
+        <v>0.95</v>
+      </c>
+      <c r="AN483" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ483" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="AR483" s="16" t="s">
+        <v>2715</v>
+      </c>
+      <c r="AS483" s="16">
+        <v>4</v>
+      </c>
+      <c r="AT483" s="16" t="s">
+        <v>2741</v>
+      </c>
+      <c r="AU483" s="16" t="s">
+        <v>2705</v>
+      </c>
+      <c r="AV483" s="16" t="s">
+        <v>2746</v>
+      </c>
+    </row>
+    <row r="484" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A484" s="21" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B484" s="22" t="s">
+        <v>2750</v>
+      </c>
+      <c r="C484" s="23" t="s">
+        <v>2751</v>
+      </c>
+      <c r="D484" s="23">
+        <v>2022</v>
+      </c>
+      <c r="E484" s="23" t="s">
+        <v>2752</v>
+      </c>
+      <c r="F484" s="23" t="s">
+        <v>1177</v>
+      </c>
+      <c r="G484" s="23" t="s">
+        <v>1160</v>
+      </c>
+      <c r="H484" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I484" s="23" t="s">
+        <v>2754</v>
+      </c>
+      <c r="J484" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="K484" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="L484" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="M484" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="N484" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="O484" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="P484" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q484" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="R484" s="28" t="s">
+        <v>2755</v>
+      </c>
+      <c r="S484" s="24" t="s">
+        <v>2753</v>
+      </c>
+      <c r="T484" s="19"/>
+      <c r="U484" s="19"/>
+      <c r="V484" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="W484" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="X484" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y484" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z484" s="23" t="s">
+        <v>2756</v>
+      </c>
+      <c r="AA484" s="23" t="s">
+        <v>2757</v>
+      </c>
+      <c r="AB484" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="AE484" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF484" s="19"/>
+      <c r="AG484" s="24">
+        <v>0.47</v>
+      </c>
+      <c r="AH484" s="23">
+        <v>5.8673469399999997E-2</v>
+      </c>
+      <c r="AI484" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ484" s="23">
+        <v>0.36</v>
+      </c>
+      <c r="AK484" s="23">
+        <v>0.59</v>
+      </c>
+      <c r="AL484" s="23">
+        <v>0.95</v>
+      </c>
+      <c r="AM484" s="23">
+        <v>0.34641016149999998</v>
+      </c>
+      <c r="AN484" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="AO484" s="23" t="s">
+        <v>2758</v>
+      </c>
+      <c r="AQ484" s="23" t="s">
+        <v>307</v>
+      </c>
+      <c r="AR484" s="23" t="s">
+        <v>2759</v>
+      </c>
+      <c r="AS484" s="23">
+        <v>59</v>
+      </c>
+      <c r="AT484" s="23" t="s">
+        <v>2760</v>
+      </c>
+      <c r="AU484" s="23" t="s">
+        <v>2761</v>
+      </c>
+      <c r="AV484" s="23" t="s">
+        <v>2762</v>
+      </c>
+    </row>
+    <row r="486" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R486" s="29"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Data/coded-Dataset.xlsx
+++ b/Data/coded-Dataset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laura/Desktop/GITHUB-METAREVIEW/Meta-review-cognitive-profiles-ADHD-Dyslexia/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C0D67A8-0995-444E-954F-677F044009E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{663E541B-3C94-5941-A291-EC630C672B4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30300" yWindow="600" windowWidth="38380" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="660" windowWidth="30240" windowHeight="17260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="effect_sizes" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17234" uniqueCount="2763">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17269" uniqueCount="2776">
   <si>
     <t>ID_article</t>
   </si>
@@ -8333,6 +8333,45 @@
   </si>
   <si>
     <t>Effect size reported as Cohen’s d; Std_Err derived from explicitly reported 95% CI. Tau derived from reported RVE-based τ2 = 0.12 (Tau = sqrt(tau2)).</t>
+  </si>
+  <si>
+    <t>2063</t>
+  </si>
+  <si>
+    <t>2063_1</t>
+  </si>
+  <si>
+    <t>Subgroup summary effect for reading-impaired samples within the case-control (group difference) synthesis.</t>
+  </si>
+  <si>
+    <t>Audiovisual multisensory integration</t>
+  </si>
+  <si>
+    <t>Limited evidence for publication bias (Egger MLMA p = .168).</t>
+  </si>
+  <si>
+    <t>Childhood to adulthood</t>
+  </si>
+  <si>
+    <t>Participant ages ranged from childhood to adulthood across studies.</t>
+  </si>
+  <si>
+    <t>k refers to clusters focused on reading impairments (not necessarily unique primary studies).</t>
+  </si>
+  <si>
+    <t>Reading impairment vs comparison participants without reading or language impairments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extracted the reading-impairment subgroup estimate reported in text: g = −0.60, p = .001. Subgroup CI/SE not reported in main text. </t>
+  </si>
+  <si>
+    <t>Pulliam, G.; Feldman, J. I.; Woynaroski, T. G.</t>
+  </si>
+  <si>
+    <t>Audiovisual multisensory integration in individuals with reading and language impairments: A systematic review and meta-analysis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The paper reports an overall group-difference summary effect combining reading and language impairments (g = −0.74) which is not separable into a single eligible disorder code; only the reading-impairment subgroup estimate was extracted for Dyslexia.; The correlation meta-analysis reports an overall pooled Fisher’s z across reading-impairment, language-impairment, and combined samples; no pooled reading-impairment-only estimate is reported, so no Dyslexia-only correlational row was extracted.; Subgroup (reading-impairment) CI/SE and heterogeneity (tau/tau2) are not reported in the main text for the subgroup estimate; CI/SE/tau fields are left null.; Age range spans childhood to adulthood across included primary studies; extracted row coded as mixed age group.; Domain mapping of 'audiovisual multisensory integration' to Perception is a best-fit within the controlled vocabulary; a more specific L2 is not explicitly supported by authors’ labeling. </t>
   </si>
 </sst>
 </file>
@@ -8455,7 +8494,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -8514,6 +8553,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -8817,11 +8857,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AX486"/>
+  <dimension ref="A1:AX489"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AQ1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A459" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V487" sqref="V487"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="94" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A456" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R480" sqref="R480"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -71940,7 +71980,7 @@
         <v>2738</v>
       </c>
     </row>
-    <row r="481" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:49" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A481" s="14" t="s">
         <v>1858</v>
       </c>
@@ -72071,7 +72111,7 @@
         <v>2742</v>
       </c>
     </row>
-    <row r="482" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:49" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A482" s="14" t="s">
         <v>1858</v>
       </c>
@@ -72202,7 +72242,7 @@
         <v>2744</v>
       </c>
     </row>
-    <row r="483" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:49" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A483" s="14" t="s">
         <v>1858</v>
       </c>
@@ -72333,7 +72373,7 @@
         <v>2746</v>
       </c>
     </row>
-    <row r="484" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:49" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A484" s="21" t="s">
         <v>1858</v>
       </c>
@@ -72464,8 +72504,130 @@
         <v>2762</v>
       </c>
     </row>
-    <row r="486" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:49" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A485" s="14" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B485" s="15" t="s">
+        <v>2763</v>
+      </c>
+      <c r="C485" s="16" t="s">
+        <v>2773</v>
+      </c>
+      <c r="D485" s="16">
+        <v>2023</v>
+      </c>
+      <c r="E485" s="16" t="s">
+        <v>2774</v>
+      </c>
+      <c r="F485" s="16" t="s">
+        <v>442</v>
+      </c>
+      <c r="G485" s="16" t="s">
+        <v>818</v>
+      </c>
+      <c r="H485" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I485" s="16" t="s">
+        <v>409</v>
+      </c>
+      <c r="J485" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="K485" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="L485" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="M485" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="N485" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="O485" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="P485" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q485" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="R485" s="16" t="s">
+        <v>2775</v>
+      </c>
+      <c r="S485" s="17" t="s">
+        <v>2764</v>
+      </c>
+      <c r="T485" s="17"/>
+      <c r="U485" s="17"/>
+      <c r="V485" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="W485" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="X485" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y485" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z485" s="16" t="s">
+        <v>2765</v>
+      </c>
+      <c r="AA485" s="16" t="s">
+        <v>2766</v>
+      </c>
+      <c r="AB485" s="16" t="s">
+        <v>1855</v>
+      </c>
+      <c r="AE485" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF485" s="17"/>
+      <c r="AG485" s="17">
+        <v>-0.6</v>
+      </c>
+      <c r="AI485" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AN485" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO485" s="16" t="s">
+        <v>2767</v>
+      </c>
+      <c r="AP485" s="16" t="s">
+        <v>2768</v>
+      </c>
+      <c r="AQ485" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="AR485" s="16" t="s">
+        <v>2769</v>
+      </c>
+      <c r="AS485" s="16">
+        <v>23</v>
+      </c>
+      <c r="AT485" s="16" t="s">
+        <v>2770</v>
+      </c>
+      <c r="AU485" s="16" t="s">
+        <v>2771</v>
+      </c>
+      <c r="AV485" s="16" t="s">
+        <v>2772</v>
+      </c>
+    </row>
+    <row r="486" spans="1:49" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="R486" s="29"/>
+    </row>
+    <row r="489" spans="1:49" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AW489" s="30"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Data/coded-Dataset.xlsx
+++ b/Data/coded-Dataset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laura/Desktop/GITHUB-METAREVIEW/Meta-review-cognitive-profiles-ADHD-Dyslexia/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{663E541B-3C94-5941-A291-EC630C672B4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3FE2BC1-6AC7-9A4D-8119-3F4C84B29575}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="660" windowWidth="30240" windowHeight="17260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="680" windowWidth="30240" windowHeight="17260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="effect_sizes" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17269" uniqueCount="2776">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17441" uniqueCount="2807">
   <si>
     <t>ID_article</t>
   </si>
@@ -8372,6 +8372,99 @@
   </si>
   <si>
     <t xml:space="preserve">The paper reports an overall group-difference summary effect combining reading and language impairments (g = −0.74) which is not separable into a single eligible disorder code; only the reading-impairment subgroup estimate was extracted for Dyslexia.; The correlation meta-analysis reports an overall pooled Fisher’s z across reading-impairment, language-impairment, and combined samples; no pooled reading-impairment-only estimate is reported, so no Dyslexia-only correlational row was extracted.; Subgroup (reading-impairment) CI/SE and heterogeneity (tau/tau2) are not reported in the main text for the subgroup estimate; CI/SE/tau fields are left null.; Age range spans childhood to adulthood across included primary studies; extracted row coded as mixed age group.; Domain mapping of 'audiovisual multisensory integration' to Perception is a best-fit within the controlled vocabulary; a more specific L2 is not explicitly supported by authors’ labeling. </t>
+  </si>
+  <si>
+    <t>2078</t>
+  </si>
+  <si>
+    <t>2078_1</t>
+  </si>
+  <si>
+    <t>2078_2</t>
+  </si>
+  <si>
+    <t>2078_3</t>
+  </si>
+  <si>
+    <t>Pooled categorical perception effects by task and comparator; study pools overlap across task-specific estimates.</t>
+  </si>
+  <si>
+    <t>categorical perception (identification)</t>
+  </si>
+  <si>
+    <t>Categorical perception</t>
+  </si>
+  <si>
+    <t>Egger p &gt; .05; no indication in funnel plots (identification).</t>
+  </si>
+  <si>
+    <t>range = 8–62 (dyslexia); range = 8–93 (CA); range = 8–37 (RL)</t>
+  </si>
+  <si>
+    <t>M = 20.94, SD = 12.42, range = 8–62 (dyslexia); M = 25.39, SD = 16.73, range = 8–93 (CA)</t>
+  </si>
+  <si>
+    <t>754 individuals with dyslexia; 914 CA controls.</t>
+  </si>
+  <si>
+    <t>Dyslexia vs chronological-age controls (identification)</t>
+  </si>
+  <si>
+    <t>Heterogeneity: Q(33) = 43.78, p = .10, I2 = 27%. :contentReference[oaicite:0]{index=0}</t>
+  </si>
+  <si>
+    <t>2078_4</t>
+  </si>
+  <si>
+    <t>2078_5</t>
+  </si>
+  <si>
+    <t>categorical perception (discrimination)</t>
+  </si>
+  <si>
+    <t>Egger p &gt; .05; slight funnel plot asymmetry (discrimination).</t>
+  </si>
+  <si>
+    <t>Participant ages ranged from childhood to adulthood across included studies.</t>
+  </si>
+  <si>
+    <t>13 studies, more than 250 participants per group.</t>
+  </si>
+  <si>
+    <t>Dyslexia vs chronological-age controls (discrimination)</t>
+  </si>
+  <si>
+    <t>Heterogeneity: Q(12) = 40.29, p &lt; .001, I2 = 65%. :contentReference[oaicite:0]{index=0}</t>
+  </si>
+  <si>
+    <t>M = 18.78, SD = 9.82, range = 8–37 (RL)</t>
+  </si>
+  <si>
+    <t>nine studies; 169 individuals (RL controls).</t>
+  </si>
+  <si>
+    <t>Dyslexia vs reading-level controls (identification)</t>
+  </si>
+  <si>
+    <t>The number of studies reporting discrimination results with RL controls was too small (only three). :contentReference[oaicite:0]{index=0}</t>
+  </si>
+  <si>
+    <t>Pairwise (within-study) subset including only studies with both identification and discrimination data.</t>
+  </si>
+  <si>
+    <t>Dyslexia vs chronological-age controls (identification; pairwise subset)</t>
+  </si>
+  <si>
+    <t>Dyslexia vs chronological-age controls (discrimination; pairwise subset)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pairwise comparison including only the 11 studies in which both identification and discrimination data were available (d = 0.64 vs. 0.97); no CI/SE reported. </t>
+  </si>
+  <si>
+    <t>20821</t>
+  </si>
+  <si>
+    <t>Categorical perception deficit in dyslexia: A meta-analysis</t>
   </si>
 </sst>
 </file>
@@ -8552,8 +8645,8 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -8857,11 +8950,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AX489"/>
+  <dimension ref="A1:BC499"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="94" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A456" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R480" sqref="R480"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A466" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H496" sqref="H496"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -71980,7 +72073,7 @@
         <v>2738</v>
       </c>
     </row>
-    <row r="481" spans="1:49" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:55" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A481" s="14" t="s">
         <v>1858</v>
       </c>
@@ -72111,7 +72204,7 @@
         <v>2742</v>
       </c>
     </row>
-    <row r="482" spans="1:49" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:55" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A482" s="14" t="s">
         <v>1858</v>
       </c>
@@ -72242,7 +72335,7 @@
         <v>2744</v>
       </c>
     </row>
-    <row r="483" spans="1:49" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:55" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A483" s="14" t="s">
         <v>1858</v>
       </c>
@@ -72373,7 +72466,7 @@
         <v>2746</v>
       </c>
     </row>
-    <row r="484" spans="1:49" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:55" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A484" s="21" t="s">
         <v>1858</v>
       </c>
@@ -72504,7 +72597,7 @@
         <v>2762</v>
       </c>
     </row>
-    <row r="485" spans="1:49" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:55" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A485" s="14" t="s">
         <v>1858</v>
       </c>
@@ -72562,8 +72655,8 @@
       <c r="S485" s="17" t="s">
         <v>2764</v>
       </c>
-      <c r="T485" s="17"/>
-      <c r="U485" s="17"/>
+      <c r="T485" s="19"/>
+      <c r="U485" s="19"/>
       <c r="V485" s="16" t="s">
         <v>63</v>
       </c>
@@ -72623,11 +72716,763 @@
         <v>2772</v>
       </c>
     </row>
-    <row r="486" spans="1:49" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="R486" s="29"/>
+    <row r="486" spans="1:55" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A486" s="21" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B486" s="22" t="s">
+        <v>2776</v>
+      </c>
+      <c r="C486" s="23" t="s">
+        <v>2338</v>
+      </c>
+      <c r="D486" s="23">
+        <v>2015</v>
+      </c>
+      <c r="E486" s="23" t="s">
+        <v>2806</v>
+      </c>
+      <c r="F486" s="23" t="s">
+        <v>387</v>
+      </c>
+      <c r="G486" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H486" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I486" s="23" t="s">
+        <v>858</v>
+      </c>
+      <c r="J486" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="K486" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="L486" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="M486" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="N486" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="O486" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="P486" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q486" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="R486" s="30"/>
+      <c r="S486" s="24" t="s">
+        <v>2777</v>
+      </c>
+      <c r="T486" s="19"/>
+      <c r="U486" s="19"/>
+      <c r="V486" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="W486" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="X486" s="23" t="s">
+        <v>266</v>
+      </c>
+      <c r="Y486" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z486" s="23" t="s">
+        <v>2780</v>
+      </c>
+      <c r="AA486" s="23" t="s">
+        <v>2781</v>
+      </c>
+      <c r="AB486" s="23" t="s">
+        <v>1855</v>
+      </c>
+      <c r="AC486" s="23" t="s">
+        <v>1856</v>
+      </c>
+      <c r="AD486" s="23" t="s">
+        <v>2782</v>
+      </c>
+      <c r="AE486" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF486" s="24"/>
+      <c r="AG486" s="24">
+        <v>0.66</v>
+      </c>
+      <c r="AH486" s="23">
+        <v>5.8673469387755098E-2</v>
+      </c>
+      <c r="AI486" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ486" s="23">
+        <v>0.54</v>
+      </c>
+      <c r="AK486" s="23">
+        <v>0.77</v>
+      </c>
+      <c r="AL486" s="23">
+        <v>0.95</v>
+      </c>
+      <c r="AN486" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO486" s="23" t="s">
+        <v>2783</v>
+      </c>
+      <c r="AP486" s="23" t="s">
+        <v>2784</v>
+      </c>
+      <c r="AQ486" s="23" t="s">
+        <v>307</v>
+      </c>
+      <c r="AR486" s="23" t="s">
+        <v>2785</v>
+      </c>
+      <c r="AS486" s="23">
+        <v>34</v>
+      </c>
+      <c r="AT486" s="23" t="s">
+        <v>2786</v>
+      </c>
+      <c r="AU486" s="23" t="s">
+        <v>2787</v>
+      </c>
+      <c r="AV486" s="23" t="s">
+        <v>2788</v>
+      </c>
     </row>
-    <row r="489" spans="1:49" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AW489" s="30"/>
+    <row r="487" spans="1:55" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A487" s="21" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B487" s="22" t="s">
+        <v>2776</v>
+      </c>
+      <c r="C487" s="23" t="s">
+        <v>2338</v>
+      </c>
+      <c r="D487" s="23">
+        <v>2015</v>
+      </c>
+      <c r="E487" s="23" t="s">
+        <v>2806</v>
+      </c>
+      <c r="F487" s="23" t="s">
+        <v>387</v>
+      </c>
+      <c r="G487" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H487" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I487" s="23" t="s">
+        <v>858</v>
+      </c>
+      <c r="J487" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="K487" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="L487" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="M487" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="N487" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="O487" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="P487" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q487" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="S487" s="24" t="s">
+        <v>2778</v>
+      </c>
+      <c r="T487" s="19"/>
+      <c r="U487" s="19"/>
+      <c r="V487" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="W487" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="X487" s="23" t="s">
+        <v>266</v>
+      </c>
+      <c r="Y487" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z487" s="23" t="s">
+        <v>2780</v>
+      </c>
+      <c r="AA487" s="23" t="s">
+        <v>2791</v>
+      </c>
+      <c r="AB487" s="23" t="s">
+        <v>1855</v>
+      </c>
+      <c r="AC487" s="23" t="s">
+        <v>1856</v>
+      </c>
+      <c r="AD487" s="23" t="s">
+        <v>2782</v>
+      </c>
+      <c r="AE487" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF487" s="24"/>
+      <c r="AG487" s="24">
+        <v>0.86</v>
+      </c>
+      <c r="AH487" s="23">
+        <v>0.15306122448979501</v>
+      </c>
+      <c r="AI487" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ487" s="23">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="AK487" s="23">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="AL487" s="23">
+        <v>0.95</v>
+      </c>
+      <c r="AN487" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO487" s="23" t="s">
+        <v>2792</v>
+      </c>
+      <c r="AP487" s="23" t="s">
+        <v>2784</v>
+      </c>
+      <c r="AQ487" s="23" t="s">
+        <v>307</v>
+      </c>
+      <c r="AR487" s="23" t="s">
+        <v>2793</v>
+      </c>
+      <c r="AS487" s="23">
+        <v>13</v>
+      </c>
+      <c r="AT487" s="23" t="s">
+        <v>2794</v>
+      </c>
+      <c r="AU487" s="23" t="s">
+        <v>2795</v>
+      </c>
+      <c r="AV487" s="23" t="s">
+        <v>2796</v>
+      </c>
+    </row>
+    <row r="488" spans="1:55" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A488" s="21" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B488" s="22" t="s">
+        <v>2776</v>
+      </c>
+      <c r="C488" s="23" t="s">
+        <v>2338</v>
+      </c>
+      <c r="D488" s="23">
+        <v>2015</v>
+      </c>
+      <c r="E488" s="23" t="s">
+        <v>2806</v>
+      </c>
+      <c r="F488" s="23" t="s">
+        <v>387</v>
+      </c>
+      <c r="G488" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H488" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I488" s="23" t="s">
+        <v>858</v>
+      </c>
+      <c r="J488" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="K488" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="L488" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="M488" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="N488" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="O488" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="P488" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q488" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="S488" s="24" t="s">
+        <v>2779</v>
+      </c>
+      <c r="T488" s="19"/>
+      <c r="U488" s="19"/>
+      <c r="V488" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="W488" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="X488" s="23" t="s">
+        <v>266</v>
+      </c>
+      <c r="Y488" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z488" s="23" t="s">
+        <v>2780</v>
+      </c>
+      <c r="AA488" s="23" t="s">
+        <v>2781</v>
+      </c>
+      <c r="AB488" s="23" t="s">
+        <v>1855</v>
+      </c>
+      <c r="AC488" s="23" t="s">
+        <v>1856</v>
+      </c>
+      <c r="AD488" s="23" t="s">
+        <v>2782</v>
+      </c>
+      <c r="AE488" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF488" s="24"/>
+      <c r="AG488" s="24">
+        <v>0.32</v>
+      </c>
+      <c r="AH488" s="23">
+        <v>0.10969387755102</v>
+      </c>
+      <c r="AI488" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ488" s="23">
+        <v>0.1</v>
+      </c>
+      <c r="AK488" s="23">
+        <v>0.53</v>
+      </c>
+      <c r="AL488" s="23">
+        <v>0.95</v>
+      </c>
+      <c r="AN488" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP488" s="23" t="s">
+        <v>2784</v>
+      </c>
+      <c r="AQ488" s="23" t="s">
+        <v>307</v>
+      </c>
+      <c r="AR488" s="23" t="s">
+        <v>2797</v>
+      </c>
+      <c r="AS488" s="23">
+        <v>9</v>
+      </c>
+      <c r="AT488" s="23" t="s">
+        <v>2798</v>
+      </c>
+      <c r="AU488" s="23" t="s">
+        <v>2799</v>
+      </c>
+      <c r="AV488" s="23" t="s">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="489" spans="1:55" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A489" s="21" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B489" s="22" t="s">
+        <v>2776</v>
+      </c>
+      <c r="C489" s="23" t="s">
+        <v>2338</v>
+      </c>
+      <c r="D489" s="23">
+        <v>2015</v>
+      </c>
+      <c r="E489" s="23" t="s">
+        <v>2806</v>
+      </c>
+      <c r="F489" s="23" t="s">
+        <v>387</v>
+      </c>
+      <c r="G489" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H489" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I489" s="23" t="s">
+        <v>858</v>
+      </c>
+      <c r="J489" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="K489" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="L489" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="M489" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="N489" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="O489" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="P489" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q489" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="S489" s="24" t="s">
+        <v>2789</v>
+      </c>
+      <c r="T489" s="19"/>
+      <c r="U489" s="19"/>
+      <c r="V489" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="W489" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="X489" s="23" t="s">
+        <v>266</v>
+      </c>
+      <c r="Y489" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z489" s="23" t="s">
+        <v>2801</v>
+      </c>
+      <c r="AA489" s="23" t="s">
+        <v>2781</v>
+      </c>
+      <c r="AB489" s="23" t="s">
+        <v>1855</v>
+      </c>
+      <c r="AC489" s="23" t="s">
+        <v>1856</v>
+      </c>
+      <c r="AD489" s="23" t="s">
+        <v>2782</v>
+      </c>
+      <c r="AE489" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF489" s="24"/>
+      <c r="AG489" s="24">
+        <v>0.64</v>
+      </c>
+      <c r="AI489" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AN489" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ489" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AS489" s="23">
+        <v>11</v>
+      </c>
+      <c r="AU489" s="23" t="s">
+        <v>2802</v>
+      </c>
+      <c r="AV489" s="23" t="s">
+        <v>2804</v>
+      </c>
+    </row>
+    <row r="490" spans="1:55" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A490" s="21" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B490" s="22" t="s">
+        <v>2776</v>
+      </c>
+      <c r="C490" s="23" t="s">
+        <v>2338</v>
+      </c>
+      <c r="D490" s="23">
+        <v>2015</v>
+      </c>
+      <c r="E490" s="23" t="s">
+        <v>2806</v>
+      </c>
+      <c r="F490" s="23" t="s">
+        <v>387</v>
+      </c>
+      <c r="G490" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H490" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I490" s="23" t="s">
+        <v>858</v>
+      </c>
+      <c r="J490" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="K490" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="L490" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="M490" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="N490" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="O490" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="P490" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q490" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="S490" s="24" t="s">
+        <v>2790</v>
+      </c>
+      <c r="T490" s="19"/>
+      <c r="U490" s="19"/>
+      <c r="V490" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="W490" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="X490" s="23" t="s">
+        <v>266</v>
+      </c>
+      <c r="Y490" s="23" t="s">
+        <v>353</v>
+      </c>
+      <c r="Z490" s="23" t="s">
+        <v>2801</v>
+      </c>
+      <c r="AA490" s="23" t="s">
+        <v>2791</v>
+      </c>
+      <c r="AB490" s="23" t="s">
+        <v>1855</v>
+      </c>
+      <c r="AC490" s="23" t="s">
+        <v>1856</v>
+      </c>
+      <c r="AD490" s="23" t="s">
+        <v>2782</v>
+      </c>
+      <c r="AE490" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF490" s="24"/>
+      <c r="AG490" s="24">
+        <v>0.97</v>
+      </c>
+      <c r="AI490" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AN490" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AS490" s="23">
+        <v>11</v>
+      </c>
+      <c r="AU490" s="23" t="s">
+        <v>2803</v>
+      </c>
+      <c r="AV490" s="23" t="s">
+        <v>2804</v>
+      </c>
+    </row>
+    <row r="491" spans="1:55" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A491" s="14" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B491" s="15" t="s">
+        <v>2805</v>
+      </c>
+      <c r="S491" s="17"/>
+      <c r="T491" s="17"/>
+      <c r="U491" s="17"/>
+      <c r="AF491" s="17"/>
+      <c r="AG491" s="17"/>
+    </row>
+    <row r="492" spans="1:55" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AM492" s="29"/>
+      <c r="AN492" s="29"/>
+      <c r="AO492" s="29"/>
+      <c r="AP492" s="29"/>
+      <c r="AQ492" s="29"/>
+      <c r="AR492" s="29"/>
+      <c r="AS492" s="29"/>
+      <c r="AT492" s="29"/>
+      <c r="AU492" s="29"/>
+    </row>
+    <row r="493" spans="1:55" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AM493" s="29"/>
+      <c r="AN493" s="29"/>
+      <c r="AO493" s="29"/>
+      <c r="AX493" s="29"/>
+      <c r="AY493" s="29"/>
+      <c r="AZ493" s="29"/>
+      <c r="BA493" s="29"/>
+      <c r="BB493" s="29"/>
+      <c r="BC493" s="29"/>
+    </row>
+    <row r="494" spans="1:55" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AM494" s="29"/>
+      <c r="AN494" s="29"/>
+      <c r="AO494" s="29"/>
+      <c r="AP494" s="29"/>
+      <c r="AQ494" s="29"/>
+      <c r="AR494" s="29"/>
+      <c r="AS494" s="29"/>
+      <c r="AT494" s="29"/>
+      <c r="AU494" s="29"/>
+      <c r="AV494" s="29"/>
+      <c r="AW494" s="29"/>
+      <c r="AX494" s="29"/>
+      <c r="AY494" s="29"/>
+      <c r="AZ494" s="29"/>
+      <c r="BA494" s="29"/>
+      <c r="BB494" s="29"/>
+      <c r="BC494" s="29"/>
+    </row>
+    <row r="495" spans="1:55" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AM495" s="29"/>
+      <c r="AN495" s="29"/>
+      <c r="AO495" s="29"/>
+      <c r="AP495" s="29"/>
+      <c r="AQ495" s="29"/>
+      <c r="AR495" s="29"/>
+      <c r="AS495" s="29"/>
+      <c r="AT495" s="29"/>
+      <c r="AU495" s="29"/>
+      <c r="AV495" s="29"/>
+      <c r="AW495" s="29"/>
+      <c r="AX495" s="29"/>
+      <c r="AY495" s="29"/>
+      <c r="AZ495" s="29"/>
+      <c r="BA495" s="29"/>
+      <c r="BB495" s="29"/>
+      <c r="BC495" s="29"/>
+    </row>
+    <row r="496" spans="1:55" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AM496" s="29"/>
+      <c r="AN496" s="29"/>
+      <c r="AO496" s="29"/>
+      <c r="AP496" s="29"/>
+      <c r="AQ496" s="29"/>
+      <c r="AR496" s="29"/>
+      <c r="AS496" s="29"/>
+      <c r="AT496" s="29"/>
+      <c r="AU496" s="29"/>
+      <c r="AV496" s="29"/>
+      <c r="AW496" s="29"/>
+      <c r="AX496" s="29"/>
+      <c r="AY496" s="29"/>
+      <c r="AZ496" s="29"/>
+      <c r="BA496" s="29"/>
+      <c r="BB496" s="29"/>
+      <c r="BC496" s="29"/>
+    </row>
+    <row r="497" spans="39:55" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AM497" s="29"/>
+      <c r="AN497" s="29"/>
+      <c r="AO497" s="29"/>
+      <c r="AP497" s="29"/>
+      <c r="AQ497" s="29"/>
+      <c r="AR497" s="29"/>
+      <c r="AS497" s="29"/>
+      <c r="AT497" s="29"/>
+      <c r="AU497" s="29"/>
+      <c r="AV497" s="29"/>
+      <c r="AW497" s="29"/>
+      <c r="AX497" s="29"/>
+      <c r="AY497" s="29"/>
+      <c r="AZ497" s="29"/>
+      <c r="BA497" s="29"/>
+      <c r="BB497" s="29"/>
+      <c r="BC497" s="29"/>
+    </row>
+    <row r="498" spans="39:55" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AM498" s="29"/>
+      <c r="AN498" s="29"/>
+      <c r="AO498" s="29"/>
+      <c r="AP498" s="29"/>
+      <c r="AQ498" s="29"/>
+      <c r="AR498" s="29"/>
+      <c r="AS498" s="29"/>
+      <c r="AT498" s="29"/>
+      <c r="AU498" s="29"/>
+      <c r="AV498" s="29"/>
+      <c r="AW498" s="29"/>
+      <c r="AX498" s="29"/>
+      <c r="AY498" s="29"/>
+      <c r="AZ498" s="29"/>
+      <c r="BA498" s="29"/>
+      <c r="BB498" s="29"/>
+      <c r="BC498" s="29"/>
+    </row>
+    <row r="499" spans="39:55" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AM499" s="29"/>
+      <c r="AN499" s="29"/>
+      <c r="AO499" s="29"/>
+      <c r="AP499" s="29"/>
+      <c r="AQ499" s="29"/>
+      <c r="AR499" s="29"/>
+      <c r="AS499" s="29"/>
+      <c r="AT499" s="29"/>
+      <c r="AU499" s="29"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Data/coded-Dataset.xlsx
+++ b/Data/coded-Dataset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laura/Desktop/GITHUB-METAREVIEW/Meta-review-cognitive-profiles-ADHD-Dyslexia/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3FE2BC1-6AC7-9A4D-8119-3F4C84B29575}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AD4528E-78B4-364E-B09F-C7EA3D52CC61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="680" windowWidth="30240" windowHeight="17260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="660" windowWidth="30240" windowHeight="17260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="effect_sizes" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17441" uniqueCount="2807">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17647" uniqueCount="2855">
   <si>
     <t>ID_article</t>
   </si>
@@ -8461,10 +8461,154 @@
     <t xml:space="preserve">Pairwise comparison including only the 11 studies in which both identification and discrimination data were available (d = 0.64 vs. 0.97); no CI/SE reported. </t>
   </si>
   <si>
-    <t>20821</t>
-  </si>
-  <si>
     <t>Categorical perception deficit in dyslexia: A meta-analysis</t>
+  </si>
+  <si>
+    <t>2081</t>
+  </si>
+  <si>
+    <t>2081_1</t>
+  </si>
+  <si>
+    <t>2081_2</t>
+  </si>
+  <si>
+    <t>2081_3</t>
+  </si>
+  <si>
+    <t>2081_4</t>
+  </si>
+  <si>
+    <t>2081_5</t>
+  </si>
+  <si>
+    <t>2081_6</t>
+  </si>
+  <si>
+    <t>SRT task (group design): dyslexia subgroup effect from moderator analysis.</t>
+  </si>
+  <si>
+    <t>Serial reaction time task (SRT)</t>
+  </si>
+  <si>
+    <t>No evidence reported for the SRT group-design meta-analysis (overall meta-analysis).</t>
+  </si>
+  <si>
+    <t>Studies categorized as including adult or child participants (moderator coded).</t>
+  </si>
+  <si>
+    <t>Overall SRT group-design meta-analysis: 610 language-disorder participants; 698 controls (not dyslexia-specific).</t>
+  </si>
+  <si>
+    <t>Dyslexia vs age-matched controls (procedural learning on SRT tasks).</t>
+  </si>
+  <si>
+    <t>Extracted the dyslexia subgroup pooled estimate reported in the SRT moderator analysis (Type of Learning Disorder).</t>
+  </si>
+  <si>
+    <t>Hebb serial order learning task (group design): dyslexia subgroup effect from moderator analysis.</t>
+  </si>
+  <si>
+    <t>Hebb serial order learning task</t>
+  </si>
+  <si>
+    <t>No evidence reported for the Hebb group-design meta-analysis (overall meta-analysis).</t>
+  </si>
+  <si>
+    <t>Overall Hebb group-design meta-analysis: 200 language-disorder participants; 201 controls (not dyslexia-specific).</t>
+  </si>
+  <si>
+    <t>Dyslexia vs age-matched controls (procedural learning on Hebb tasks).</t>
+  </si>
+  <si>
+    <t>Extracted the dyslexia subgroup pooled estimate reported in the Hebb moderator analysis (Type of Learning Disorder).</t>
+  </si>
+  <si>
+    <t>Artificial grammar learning + statistical learning tasks (group design): dyslexia subgroup effect from moderator analysis.</t>
+  </si>
+  <si>
+    <t>Artificial grammar learning and statistical learning tasks</t>
+  </si>
+  <si>
+    <t>Publication bias indicated for AGL/SL group-design meta-analysis (overall meta-analysis; trim-and-fill adjusted estimate reported).</t>
+  </si>
+  <si>
+    <t>Overall AGL/SL group-design meta-analysis: 660 language-disorder participants; 907 controls (not dyslexia-specific).</t>
+  </si>
+  <si>
+    <t>Dyslexia vs age-matched controls (procedural learning on AGL/SL tasks).</t>
+  </si>
+  <si>
+    <t>Extracted the dyslexia subgroup pooled estimate reported in the AGL/SL moderator analysis (Type of Learning Disorder). Publication-bias statement/adjusted estimate pertains to the overall AGL/SL meta-analysis.</t>
+  </si>
+  <si>
+    <t>SRT task correlational meta-analysis (procedural learning vs language-related ability).</t>
+  </si>
+  <si>
+    <t>Serial reaction time task (SRT) — correlational</t>
+  </si>
+  <si>
+    <t>Not explicitly restricted to children; one included study reported adults and children.</t>
+  </si>
+  <si>
+    <t>Association between SRT performance and language/decoding measures (as reported).</t>
+  </si>
+  <si>
+    <t>Correlational meta-analysis relates procedural learning (SRT) to language-related ability; treated as dimensional dyslexia/reading-skills framework.</t>
+  </si>
+  <si>
+    <t>AGL/SL correlational meta-analysis (procedural learning vs language/decoding).</t>
+  </si>
+  <si>
+    <t>Artificial grammar/statistical learning tasks — correlational</t>
+  </si>
+  <si>
+    <t>Includes at least one mixed adults+children sample; not restricted to children.</t>
+  </si>
+  <si>
+    <t>289 participants across included studies (as reported for this correlational meta-analysis).</t>
+  </si>
+  <si>
+    <t>Association between implicit learning (AGL/SL) and language/decoding measures (as reported).</t>
+  </si>
+  <si>
+    <t>The correlational meta-analysis pooled r for relationship between implicit learning on AGL/SL tasks and measures of language and decoding.</t>
+  </si>
+  <si>
+    <t>Sensitivity variant of EG05: Qi et al. child-only subset reading measures added (as reported).</t>
+  </si>
+  <si>
+    <t>Artificial grammar/statistical learning tasks — correlational (child subset sensitivity)</t>
+  </si>
+  <si>
+    <t>Subset of children only (n = 36) from one included study (as described).</t>
+  </si>
+  <si>
+    <t>Child subset n = 36 (Qi et al., 2019) within the correlational set.</t>
+  </si>
+  <si>
+    <t>Association between implicit learning (AGL/SL) and word/nonword reading measures (child subset; as reported).</t>
+  </si>
+  <si>
+    <t>Reported as a variant when adding child-only reading measures from Qi et al. (2019); treated as a sensitivity pooled estimate within the same evidence group.</t>
+  </si>
+  <si>
+    <t>2083</t>
+  </si>
+  <si>
+    <t>2083_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">West, G.; Melby-Lervåg, M.; Hulme, C. </t>
+  </si>
+  <si>
+    <t>Procedural learning in language disorder: A meta-analytic review</t>
+  </si>
+  <si>
+    <t>Developmental Psychology</t>
+  </si>
+  <si>
+    <t>This article meta-analyzes mixed 'language disorder' samples (dyslexia + developmental language disorder). Rows below use dyslexia-specific subgroup effects when reported; pooled mixed-disorder effects were not extracted as Target_disorder must be a single eligible disorder.; Probabilistic category learning tasks and contextual cuing tasks were not extracted because no dyslexia-specific pooled effect was reported (and contextual cuing had insufficient data for meta-analysis).; Correlational meta-analyses are coded as Dimensional_approach=Yes because they relate procedural learning performance to language/decoding measures in broadly sampled data (direction as reported).</t>
   </si>
 </sst>
 </file>
@@ -8952,9 +9096,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BC499"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A466" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H496" sqref="H496"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A469" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R491" sqref="R491:R496"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -72073,7 +72217,7 @@
         <v>2738</v>
       </c>
     </row>
-    <row r="481" spans="1:55" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A481" s="14" t="s">
         <v>1858</v>
       </c>
@@ -72204,7 +72348,7 @@
         <v>2742</v>
       </c>
     </row>
-    <row r="482" spans="1:55" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A482" s="14" t="s">
         <v>1858</v>
       </c>
@@ -72335,7 +72479,7 @@
         <v>2744</v>
       </c>
     </row>
-    <row r="483" spans="1:55" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A483" s="14" t="s">
         <v>1858</v>
       </c>
@@ -72466,7 +72610,7 @@
         <v>2746</v>
       </c>
     </row>
-    <row r="484" spans="1:55" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A484" s="21" t="s">
         <v>1858</v>
       </c>
@@ -72597,7 +72741,7 @@
         <v>2762</v>
       </c>
     </row>
-    <row r="485" spans="1:55" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A485" s="14" t="s">
         <v>1858</v>
       </c>
@@ -72681,7 +72825,7 @@
       <c r="AE485" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="AF485" s="17"/>
+      <c r="AF485" s="19"/>
       <c r="AG485" s="17">
         <v>-0.6</v>
       </c>
@@ -72716,7 +72860,7 @@
         <v>2772</v>
       </c>
     </row>
-    <row r="486" spans="1:55" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A486" s="21" t="s">
         <v>1858</v>
       </c>
@@ -72730,7 +72874,7 @@
         <v>2015</v>
       </c>
       <c r="E486" s="23" t="s">
-        <v>2806</v>
+        <v>2805</v>
       </c>
       <c r="F486" s="23" t="s">
         <v>387</v>
@@ -72804,7 +72948,7 @@
       <c r="AE486" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="AF486" s="24"/>
+      <c r="AF486" s="19"/>
       <c r="AG486" s="24">
         <v>0.66</v>
       </c>
@@ -72851,7 +72995,7 @@
         <v>2788</v>
       </c>
     </row>
-    <row r="487" spans="1:55" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A487" s="21" t="s">
         <v>1858</v>
       </c>
@@ -72865,7 +73009,7 @@
         <v>2015</v>
       </c>
       <c r="E487" s="23" t="s">
-        <v>2806</v>
+        <v>2805</v>
       </c>
       <c r="F487" s="23" t="s">
         <v>387</v>
@@ -72938,7 +73082,7 @@
       <c r="AE487" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="AF487" s="24"/>
+      <c r="AF487" s="19"/>
       <c r="AG487" s="24">
         <v>0.86</v>
       </c>
@@ -72985,7 +73129,7 @@
         <v>2796</v>
       </c>
     </row>
-    <row r="488" spans="1:55" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A488" s="21" t="s">
         <v>1858</v>
       </c>
@@ -72999,7 +73143,7 @@
         <v>2015</v>
       </c>
       <c r="E488" s="23" t="s">
-        <v>2806</v>
+        <v>2805</v>
       </c>
       <c r="F488" s="23" t="s">
         <v>387</v>
@@ -73072,7 +73216,7 @@
       <c r="AE488" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="AF488" s="24"/>
+      <c r="AF488" s="19"/>
       <c r="AG488" s="24">
         <v>0.32</v>
       </c>
@@ -73116,7 +73260,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="489" spans="1:55" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A489" s="21" t="s">
         <v>1858</v>
       </c>
@@ -73130,7 +73274,7 @@
         <v>2015</v>
       </c>
       <c r="E489" s="23" t="s">
-        <v>2806</v>
+        <v>2805</v>
       </c>
       <c r="F489" s="23" t="s">
         <v>387</v>
@@ -73203,7 +73347,7 @@
       <c r="AE489" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="AF489" s="24"/>
+      <c r="AF489" s="19"/>
       <c r="AG489" s="24">
         <v>0.64</v>
       </c>
@@ -73226,7 +73370,7 @@
         <v>2804</v>
       </c>
     </row>
-    <row r="490" spans="1:55" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A490" s="21" t="s">
         <v>1858</v>
       </c>
@@ -73240,7 +73384,7 @@
         <v>2015</v>
       </c>
       <c r="E490" s="23" t="s">
-        <v>2806</v>
+        <v>2805</v>
       </c>
       <c r="F490" s="23" t="s">
         <v>387</v>
@@ -73313,7 +73457,7 @@
       <c r="AE490" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="AF490" s="24"/>
+      <c r="AF490" s="19"/>
       <c r="AG490" s="24">
         <v>0.97</v>
       </c>
@@ -73333,118 +73477,794 @@
         <v>2804</v>
       </c>
     </row>
-    <row r="491" spans="1:55" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A491" s="14" t="s">
         <v>1858</v>
       </c>
       <c r="B491" s="15" t="s">
-        <v>2805</v>
-      </c>
-      <c r="S491" s="17"/>
-      <c r="T491" s="17"/>
-      <c r="U491" s="17"/>
+        <v>2806</v>
+      </c>
+      <c r="C491" s="16" t="s">
+        <v>2851</v>
+      </c>
+      <c r="D491" s="16">
+        <v>2021</v>
+      </c>
+      <c r="E491" s="16" t="s">
+        <v>2852</v>
+      </c>
+      <c r="F491" s="16" t="s">
+        <v>2853</v>
+      </c>
+      <c r="G491" s="16" t="s">
+        <v>1160</v>
+      </c>
+      <c r="H491" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I491" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="J491" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="K491" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="L491" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="M491" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="N491" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="O491" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="P491" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q491" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="R491" s="16" t="s">
+        <v>2854</v>
+      </c>
+      <c r="S491" s="17" t="s">
+        <v>2807</v>
+      </c>
+      <c r="T491" s="19"/>
+      <c r="U491" s="19"/>
+      <c r="V491" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="W491" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="X491" s="16" t="s">
+        <v>266</v>
+      </c>
+      <c r="Y491" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z491" s="16" t="s">
+        <v>2813</v>
+      </c>
+      <c r="AA491" s="16" t="s">
+        <v>2814</v>
+      </c>
+      <c r="AB491" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="AC491" s="16" t="s">
+        <v>745</v>
+      </c>
+      <c r="AE491" s="16" t="s">
+        <v>54</v>
+      </c>
       <c r="AF491" s="17"/>
-      <c r="AG491" s="17"/>
+      <c r="AG491" s="17">
+        <v>-0.28000000000000003</v>
+      </c>
+      <c r="AH491" s="16">
+        <v>0.10204100000000001</v>
+      </c>
+      <c r="AI491" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ491" s="16">
+        <v>-0.48</v>
+      </c>
+      <c r="AK491" s="16">
+        <v>-0.08</v>
+      </c>
+      <c r="AL491" s="16">
+        <v>0.95</v>
+      </c>
+      <c r="AN491" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO491" s="16" t="s">
+        <v>2815</v>
+      </c>
+      <c r="AQ491" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="AR491" s="16" t="s">
+        <v>2816</v>
+      </c>
+      <c r="AS491" s="16">
+        <v>17</v>
+      </c>
+      <c r="AT491" s="16" t="s">
+        <v>2817</v>
+      </c>
+      <c r="AU491" s="16" t="s">
+        <v>2818</v>
+      </c>
+      <c r="AV491" s="16" t="s">
+        <v>2819</v>
+      </c>
     </row>
-    <row r="492" spans="1:55" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AM492" s="29"/>
-      <c r="AN492" s="29"/>
-      <c r="AO492" s="29"/>
-      <c r="AP492" s="29"/>
-      <c r="AQ492" s="29"/>
-      <c r="AR492" s="29"/>
-      <c r="AS492" s="29"/>
-      <c r="AT492" s="29"/>
-      <c r="AU492" s="29"/>
+    <row r="492" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A492" s="14" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B492" s="15" t="s">
+        <v>2806</v>
+      </c>
+      <c r="C492" s="16" t="s">
+        <v>2851</v>
+      </c>
+      <c r="D492" s="16">
+        <v>2021</v>
+      </c>
+      <c r="E492" s="16" t="s">
+        <v>2852</v>
+      </c>
+      <c r="F492" s="16" t="s">
+        <v>2853</v>
+      </c>
+      <c r="G492" s="16" t="s">
+        <v>1160</v>
+      </c>
+      <c r="H492" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I492" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="J492" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="K492" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="L492" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="M492" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="N492" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="O492" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="P492" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q492" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="R492" s="16" t="s">
+        <v>2854</v>
+      </c>
+      <c r="S492" s="17" t="s">
+        <v>2808</v>
+      </c>
+      <c r="T492" s="19"/>
+      <c r="U492" s="19"/>
+      <c r="V492" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="W492" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="X492" s="16" t="s">
+        <v>266</v>
+      </c>
+      <c r="Y492" s="16" t="s">
+        <v>353</v>
+      </c>
+      <c r="Z492" s="16" t="s">
+        <v>2820</v>
+      </c>
+      <c r="AA492" s="16" t="s">
+        <v>2821</v>
+      </c>
+      <c r="AB492" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="AC492" s="16" t="s">
+        <v>745</v>
+      </c>
+      <c r="AE492" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF492" s="17"/>
+      <c r="AG492" s="17">
+        <v>-0.33</v>
+      </c>
+      <c r="AH492" s="16">
+        <v>0.125</v>
+      </c>
+      <c r="AI492" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ492" s="16">
+        <v>-0.57999999999999996</v>
+      </c>
+      <c r="AK492" s="16">
+        <v>-0.09</v>
+      </c>
+      <c r="AL492" s="16">
+        <v>0.95</v>
+      </c>
+      <c r="AN492" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO492" s="16" t="s">
+        <v>2822</v>
+      </c>
+      <c r="AQ492" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="AR492" s="16" t="s">
+        <v>2816</v>
+      </c>
+      <c r="AS492" s="16">
+        <v>7</v>
+      </c>
+      <c r="AT492" s="16" t="s">
+        <v>2823</v>
+      </c>
+      <c r="AU492" s="16" t="s">
+        <v>2824</v>
+      </c>
+      <c r="AV492" s="16" t="s">
+        <v>2825</v>
+      </c>
     </row>
-    <row r="493" spans="1:55" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AM493" s="29"/>
-      <c r="AN493" s="29"/>
-      <c r="AO493" s="29"/>
-      <c r="AX493" s="29"/>
-      <c r="AY493" s="29"/>
-      <c r="AZ493" s="29"/>
-      <c r="BA493" s="29"/>
-      <c r="BB493" s="29"/>
-      <c r="BC493" s="29"/>
+    <row r="493" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A493" s="14" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B493" s="15" t="s">
+        <v>2806</v>
+      </c>
+      <c r="C493" s="16" t="s">
+        <v>2851</v>
+      </c>
+      <c r="D493" s="16">
+        <v>2021</v>
+      </c>
+      <c r="E493" s="16" t="s">
+        <v>2852</v>
+      </c>
+      <c r="F493" s="16" t="s">
+        <v>2853</v>
+      </c>
+      <c r="G493" s="16" t="s">
+        <v>1160</v>
+      </c>
+      <c r="H493" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I493" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="J493" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="K493" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="L493" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="M493" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="N493" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="O493" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="P493" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q493" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="R493" s="16" t="s">
+        <v>2854</v>
+      </c>
+      <c r="S493" s="17" t="s">
+        <v>2809</v>
+      </c>
+      <c r="T493" s="19"/>
+      <c r="U493" s="19"/>
+      <c r="V493" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="W493" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="X493" s="16" t="s">
+        <v>266</v>
+      </c>
+      <c r="Y493" s="16" t="s">
+        <v>434</v>
+      </c>
+      <c r="Z493" s="16" t="s">
+        <v>2826</v>
+      </c>
+      <c r="AA493" s="16" t="s">
+        <v>2827</v>
+      </c>
+      <c r="AB493" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="AC493" s="16" t="s">
+        <v>745</v>
+      </c>
+      <c r="AE493" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF493" s="17"/>
+      <c r="AG493" s="17">
+        <v>-0.44</v>
+      </c>
+      <c r="AH493" s="16">
+        <v>0.158163</v>
+      </c>
+      <c r="AI493" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ493" s="16">
+        <v>-0.75</v>
+      </c>
+      <c r="AK493" s="16">
+        <v>-0.13</v>
+      </c>
+      <c r="AL493" s="16">
+        <v>0.95</v>
+      </c>
+      <c r="AN493" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO493" s="16" t="s">
+        <v>2828</v>
+      </c>
+      <c r="AQ493" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="AR493" s="16" t="s">
+        <v>2816</v>
+      </c>
+      <c r="AS493" s="16">
+        <v>16</v>
+      </c>
+      <c r="AT493" s="16" t="s">
+        <v>2829</v>
+      </c>
+      <c r="AU493" s="16" t="s">
+        <v>2830</v>
+      </c>
+      <c r="AV493" s="16" t="s">
+        <v>2831</v>
+      </c>
     </row>
-    <row r="494" spans="1:55" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AM494" s="29"/>
-      <c r="AN494" s="29"/>
-      <c r="AO494" s="29"/>
-      <c r="AP494" s="29"/>
-      <c r="AQ494" s="29"/>
-      <c r="AR494" s="29"/>
-      <c r="AS494" s="29"/>
-      <c r="AT494" s="29"/>
-      <c r="AU494" s="29"/>
-      <c r="AV494" s="29"/>
-      <c r="AW494" s="29"/>
-      <c r="AX494" s="29"/>
-      <c r="AY494" s="29"/>
-      <c r="AZ494" s="29"/>
-      <c r="BA494" s="29"/>
-      <c r="BB494" s="29"/>
-      <c r="BC494" s="29"/>
+    <row r="494" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A494" s="14" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B494" s="15" t="s">
+        <v>2806</v>
+      </c>
+      <c r="C494" s="16" t="s">
+        <v>2851</v>
+      </c>
+      <c r="D494" s="16">
+        <v>2021</v>
+      </c>
+      <c r="E494" s="16" t="s">
+        <v>2852</v>
+      </c>
+      <c r="F494" s="16" t="s">
+        <v>2853</v>
+      </c>
+      <c r="G494" s="16" t="s">
+        <v>1160</v>
+      </c>
+      <c r="H494" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I494" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="J494" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="K494" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="L494" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="M494" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="N494" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="O494" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="P494" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q494" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="R494" s="16" t="s">
+        <v>2854</v>
+      </c>
+      <c r="S494" s="17" t="s">
+        <v>2810</v>
+      </c>
+      <c r="T494" s="19"/>
+      <c r="U494" s="19"/>
+      <c r="V494" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="W494" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="X494" s="16" t="s">
+        <v>266</v>
+      </c>
+      <c r="Y494" s="16" t="s">
+        <v>1756</v>
+      </c>
+      <c r="Z494" s="16" t="s">
+        <v>2832</v>
+      </c>
+      <c r="AA494" s="16" t="s">
+        <v>2833</v>
+      </c>
+      <c r="AB494" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="AC494" s="16" t="s">
+        <v>745</v>
+      </c>
+      <c r="AE494" s="16" t="s">
+        <v>1037</v>
+      </c>
+      <c r="AF494" s="17"/>
+      <c r="AG494" s="17">
+        <v>0.03</v>
+      </c>
+      <c r="AH494" s="16">
+        <v>4.8468999999999998E-2</v>
+      </c>
+      <c r="AI494" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ494" s="16">
+        <v>-0.06</v>
+      </c>
+      <c r="AK494" s="16">
+        <v>0.13</v>
+      </c>
+      <c r="AL494" s="16">
+        <v>0.95</v>
+      </c>
+      <c r="AN494" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ494" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="AR494" s="16" t="s">
+        <v>2834</v>
+      </c>
+      <c r="AS494" s="16">
+        <v>5</v>
+      </c>
+      <c r="AU494" s="16" t="s">
+        <v>2835</v>
+      </c>
+      <c r="AV494" s="16" t="s">
+        <v>2836</v>
+      </c>
     </row>
-    <row r="495" spans="1:55" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AM495" s="29"/>
-      <c r="AN495" s="29"/>
-      <c r="AO495" s="29"/>
-      <c r="AP495" s="29"/>
-      <c r="AQ495" s="29"/>
-      <c r="AR495" s="29"/>
-      <c r="AS495" s="29"/>
-      <c r="AT495" s="29"/>
-      <c r="AU495" s="29"/>
-      <c r="AV495" s="29"/>
-      <c r="AW495" s="29"/>
-      <c r="AX495" s="29"/>
-      <c r="AY495" s="29"/>
-      <c r="AZ495" s="29"/>
-      <c r="BA495" s="29"/>
-      <c r="BB495" s="29"/>
-      <c r="BC495" s="29"/>
+    <row r="495" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A495" s="14" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B495" s="15" t="s">
+        <v>2806</v>
+      </c>
+      <c r="C495" s="16" t="s">
+        <v>2851</v>
+      </c>
+      <c r="D495" s="16">
+        <v>2021</v>
+      </c>
+      <c r="E495" s="16" t="s">
+        <v>2852</v>
+      </c>
+      <c r="F495" s="16" t="s">
+        <v>2853</v>
+      </c>
+      <c r="G495" s="16" t="s">
+        <v>1160</v>
+      </c>
+      <c r="H495" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I495" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="J495" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="K495" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="L495" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="M495" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="N495" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="O495" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="P495" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q495" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="R495" s="16" t="s">
+        <v>2854</v>
+      </c>
+      <c r="S495" s="17" t="s">
+        <v>2811</v>
+      </c>
+      <c r="T495" s="19"/>
+      <c r="U495" s="19"/>
+      <c r="V495" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="W495" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="X495" s="16" t="s">
+        <v>266</v>
+      </c>
+      <c r="Y495" s="16" t="s">
+        <v>1762</v>
+      </c>
+      <c r="Z495" s="16" t="s">
+        <v>2837</v>
+      </c>
+      <c r="AA495" s="16" t="s">
+        <v>2838</v>
+      </c>
+      <c r="AB495" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="AC495" s="16" t="s">
+        <v>745</v>
+      </c>
+      <c r="AE495" s="16" t="s">
+        <v>1037</v>
+      </c>
+      <c r="AF495" s="17"/>
+      <c r="AG495" s="17">
+        <v>0.3</v>
+      </c>
+      <c r="AH495" s="16">
+        <v>5.6121999999999998E-2</v>
+      </c>
+      <c r="AI495" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ495" s="16">
+        <v>0.19</v>
+      </c>
+      <c r="AK495" s="16">
+        <v>0.41</v>
+      </c>
+      <c r="AL495" s="16">
+        <v>0.95</v>
+      </c>
+      <c r="AN495" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ495" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="AR495" s="16" t="s">
+        <v>2839</v>
+      </c>
+      <c r="AS495" s="16">
+        <v>5</v>
+      </c>
+      <c r="AT495" s="16" t="s">
+        <v>2840</v>
+      </c>
+      <c r="AU495" s="16" t="s">
+        <v>2841</v>
+      </c>
+      <c r="AV495" s="16" t="s">
+        <v>2842</v>
+      </c>
     </row>
-    <row r="496" spans="1:55" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AM496" s="29"/>
-      <c r="AN496" s="29"/>
-      <c r="AO496" s="29"/>
-      <c r="AP496" s="29"/>
-      <c r="AQ496" s="29"/>
-      <c r="AR496" s="29"/>
-      <c r="AS496" s="29"/>
-      <c r="AT496" s="29"/>
-      <c r="AU496" s="29"/>
-      <c r="AV496" s="29"/>
-      <c r="AW496" s="29"/>
-      <c r="AX496" s="29"/>
-      <c r="AY496" s="29"/>
-      <c r="AZ496" s="29"/>
-      <c r="BA496" s="29"/>
-      <c r="BB496" s="29"/>
-      <c r="BC496" s="29"/>
+    <row r="496" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A496" s="14" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B496" s="15" t="s">
+        <v>2806</v>
+      </c>
+      <c r="C496" s="16" t="s">
+        <v>2851</v>
+      </c>
+      <c r="D496" s="16">
+        <v>2021</v>
+      </c>
+      <c r="E496" s="16" t="s">
+        <v>2852</v>
+      </c>
+      <c r="F496" s="16" t="s">
+        <v>2853</v>
+      </c>
+      <c r="G496" s="16" t="s">
+        <v>1160</v>
+      </c>
+      <c r="H496" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I496" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="J496" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="K496" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="L496" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="M496" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="N496" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="O496" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="P496" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q496" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="R496" s="16" t="s">
+        <v>2854</v>
+      </c>
+      <c r="S496" s="17" t="s">
+        <v>2812</v>
+      </c>
+      <c r="T496" s="19"/>
+      <c r="U496" s="19"/>
+      <c r="V496" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="W496" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="X496" s="16" t="s">
+        <v>266</v>
+      </c>
+      <c r="Y496" s="16" t="s">
+        <v>1762</v>
+      </c>
+      <c r="Z496" s="16" t="s">
+        <v>2843</v>
+      </c>
+      <c r="AA496" s="16" t="s">
+        <v>2844</v>
+      </c>
+      <c r="AB496" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="AC496" s="16" t="s">
+        <v>745</v>
+      </c>
+      <c r="AE496" s="16" t="s">
+        <v>1037</v>
+      </c>
+      <c r="AF496" s="17"/>
+      <c r="AG496" s="17">
+        <v>0.25</v>
+      </c>
+      <c r="AH496" s="16">
+        <v>6.1224000000000001E-2</v>
+      </c>
+      <c r="AI496" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ496" s="16">
+        <v>0.12</v>
+      </c>
+      <c r="AK496" s="16">
+        <v>0.36</v>
+      </c>
+      <c r="AL496" s="16">
+        <v>0.95</v>
+      </c>
+      <c r="AN496" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ496" s="16" t="s">
+        <v>1839</v>
+      </c>
+      <c r="AR496" s="16" t="s">
+        <v>2845</v>
+      </c>
+      <c r="AS496" s="16">
+        <v>5</v>
+      </c>
+      <c r="AT496" s="16" t="s">
+        <v>2846</v>
+      </c>
+      <c r="AU496" s="16" t="s">
+        <v>2847</v>
+      </c>
+      <c r="AV496" s="16" t="s">
+        <v>2848</v>
+      </c>
     </row>
-    <row r="497" spans="39:55" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AM497" s="29"/>
-      <c r="AN497" s="29"/>
-      <c r="AO497" s="29"/>
-      <c r="AP497" s="29"/>
-      <c r="AQ497" s="29"/>
-      <c r="AR497" s="29"/>
-      <c r="AS497" s="29"/>
-      <c r="AT497" s="29"/>
-      <c r="AU497" s="29"/>
-      <c r="AV497" s="29"/>
-      <c r="AW497" s="29"/>
-      <c r="AX497" s="29"/>
-      <c r="AY497" s="29"/>
-      <c r="AZ497" s="29"/>
-      <c r="BA497" s="29"/>
-      <c r="BB497" s="29"/>
-      <c r="BC497" s="29"/>
+    <row r="497" spans="1:55" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A497" s="21"/>
+      <c r="B497" s="22" t="s">
+        <v>2849</v>
+      </c>
+      <c r="S497" s="24" t="s">
+        <v>2850</v>
+      </c>
+      <c r="T497" s="24"/>
+      <c r="U497" s="24"/>
+      <c r="AF497" s="24"/>
+      <c r="AG497" s="24"/>
     </row>
-    <row r="498" spans="39:55" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:55" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AM498" s="29"/>
       <c r="AN498" s="29"/>
       <c r="AO498" s="29"/>
@@ -73463,7 +74283,7 @@
       <c r="BB498" s="29"/>
       <c r="BC498" s="29"/>
     </row>
-    <row r="499" spans="39:55" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:55" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AM499" s="29"/>
       <c r="AN499" s="29"/>
       <c r="AO499" s="29"/>

--- a/Data/coded-Dataset.xlsx
+++ b/Data/coded-Dataset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laura/Desktop/GITHUB-METAREVIEW/Meta-review-cognitive-profiles-ADHD-Dyslexia/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AD4528E-78B4-364E-B09F-C7EA3D52CC61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3088F98-F889-DB48-A522-653A4FADB6ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="660" windowWidth="30240" windowHeight="17260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="660" windowWidth="30240" windowHeight="17200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="effect_sizes" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17647" uniqueCount="2855">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18107" uniqueCount="2926">
   <si>
     <t>ID_article</t>
   </si>
@@ -8609,6 +8609,219 @@
   </si>
   <si>
     <t>This article meta-analyzes mixed 'language disorder' samples (dyslexia + developmental language disorder). Rows below use dyslexia-specific subgroup effects when reported; pooled mixed-disorder effects were not extracted as Target_disorder must be a single eligible disorder.; Probabilistic category learning tasks and contextual cuing tasks were not extracted because no dyslexia-specific pooled effect was reported (and contextual cuing had insufficient data for meta-analysis).; Correlational meta-analyses are coded as Dimensional_approach=Yes because they relate procedural learning performance to language/decoding measures in broadly sampled data (direction as reported).</t>
+  </si>
+  <si>
+    <t>2118</t>
+  </si>
+  <si>
+    <t>2162</t>
+  </si>
+  <si>
+    <t>2162_1</t>
+  </si>
+  <si>
+    <t>2162_2</t>
+  </si>
+  <si>
+    <t>2162_3</t>
+  </si>
+  <si>
+    <t>2162_4</t>
+  </si>
+  <si>
+    <t>2162_5</t>
+  </si>
+  <si>
+    <t>2162_6</t>
+  </si>
+  <si>
+    <t>2162_7</t>
+  </si>
+  <si>
+    <t>2162_8</t>
+  </si>
+  <si>
+    <t>2162_9</t>
+  </si>
+  <si>
+    <t>2162_10</t>
+  </si>
+  <si>
+    <t>2162_11</t>
+  </si>
+  <si>
+    <t>2162_12</t>
+  </si>
+  <si>
+    <t>2162_13</t>
+  </si>
+  <si>
+    <t>All pooled estimates concern SRD vs reading-level matched controls on nonword reading; multiple subgroup summaries use overlapping subsets.</t>
+  </si>
+  <si>
+    <t>Nonword reading difference between groups</t>
+  </si>
+  <si>
+    <t>Includes child/adolescent samples and some adult samples (adult comparisons discussed as outliers in moderator analyses).</t>
+  </si>
+  <si>
+    <t>34 studies; 39 comparisons; N = 2865.</t>
+  </si>
+  <si>
+    <t>SRD vs reading-level matched (RL) control groups</t>
+  </si>
+  <si>
+    <t>Overall pooled effect. Authors also report Fisher Z = 0.32 and r = 0.31 for this pooled estimate; CI/SE not provided.</t>
+  </si>
+  <si>
+    <t>Replication subset corresponding to Ijzendoorn &amp; Bus (1994) original 16 studies.</t>
+  </si>
+  <si>
+    <t>Nonword reading ability</t>
+  </si>
+  <si>
+    <t>Primarily child/adolescent samples (adult not indicated for this subset summary).</t>
+  </si>
+  <si>
+    <t>Original studies subset N = 1183.</t>
+  </si>
+  <si>
+    <t>Replication of Ijzendoorn &amp; Bus pooled estimate; authors also report Fisher Z = 0.24 and r = 0.24; CI/SE not provided.</t>
+  </si>
+  <si>
+    <t>Additional studies analysed separately (new sample beyond the original 16 studies).</t>
+  </si>
+  <si>
+    <t>Includes child/adolescent samples and some adult samples.</t>
+  </si>
+  <si>
+    <t>Additional studies subset N = 1682.</t>
+  </si>
+  <si>
+    <t>Authors also report Fisher Z = 0.37 and r = 0.35; CI/SE not provided.</t>
+  </si>
+  <si>
+    <t>Moderator subgroup by reading test used to match reading level: Woodcock Word Identification category.</t>
+  </si>
+  <si>
+    <t>Nonword reading deficits (Woodcock Word Identification matching)</t>
+  </si>
+  <si>
+    <t>Not reported for this subgroup summary.</t>
+  </si>
+  <si>
+    <t>12 comparisons (Woodcock Word Identification).</t>
+  </si>
+  <si>
+    <t>Subgroup mean effect size with SD reported (not CI/SE).</t>
+  </si>
+  <si>
+    <t>Moderator subgroup by reading test used to match reading level: other word-level reading accuracy tests.</t>
+  </si>
+  <si>
+    <t>Nonword reading deficits (other word-level reading accuracy matching)</t>
+  </si>
+  <si>
+    <t>20 comparisons (other word-level reading accuracy tests).</t>
+  </si>
+  <si>
+    <t>Moderator subgroup by reading test used to match reading level: passage/story reading tests.</t>
+  </si>
+  <si>
+    <t>Nonword reading deficits (passage reading matching)</t>
+  </si>
+  <si>
+    <t>Group of studies using passage reading tests (count not explicitly stated here).</t>
+  </si>
+  <si>
+    <t>Moderator subgroup by nonword reading test used: Word Attack subtest vs other nonword measures (across studies).</t>
+  </si>
+  <si>
+    <t>Nonword reading deficits (Word Attack subtest outcome)</t>
+  </si>
+  <si>
+    <t>10 comparisons using the Word Attack subtest.</t>
+  </si>
+  <si>
+    <t>Mean d compared to other nonword measures; difference not statistically significant; SD/CI not reported.</t>
+  </si>
+  <si>
+    <t>Moderator subgroup by nonword reading test used: other nonword reading measures (comparator to Word Attack subgroup).</t>
+  </si>
+  <si>
+    <t>Nonword reading deficits (other nonword reading measures outcome)</t>
+  </si>
+  <si>
+    <t>Comparisons using non-Word-Attack measures (count not explicitly stated here).</t>
+  </si>
+  <si>
+    <t>Mean d for other nonword measures presented as comparator to Word Attack subgroup; SD/CI not reported.</t>
+  </si>
+  <si>
+    <t>Subset: studies that used Woodcock Word Identification to match groups; within that subset, those using Word Attack to measure nonword reading.</t>
+  </si>
+  <si>
+    <t>Nonword reading deficits (Woodcock matching + Word Attack outcome)</t>
+  </si>
+  <si>
+    <t>Count described as small; exact number not reported.</t>
+  </si>
+  <si>
+    <t>Mean d within Woodcock-matching studies; SD/CI not reported; exact comparison count not reported.</t>
+  </si>
+  <si>
+    <t>Subset: studies that used Woodcock Word Identification to match groups; within that subset, those using other nonword reading tests.</t>
+  </si>
+  <si>
+    <t>Nonword reading deficits (Woodcock matching + other nonword tests outcome)</t>
+  </si>
+  <si>
+    <t>Moderator subgroup by IQ test used to match groups: verbal IQ measures.</t>
+  </si>
+  <si>
+    <t>Nonword reading deficits (verbal IQ matching category)</t>
+  </si>
+  <si>
+    <t>11 comparisons (verbal IQ measures); S.D. = 0.25.</t>
+  </si>
+  <si>
+    <t>Mean d with SD reported (not CI/SE).</t>
+  </si>
+  <si>
+    <t>Moderator subgroup by IQ test used to match groups: full-scale IQ measures.</t>
+  </si>
+  <si>
+    <t>Nonword reading deficits (full-scale IQ matching category)</t>
+  </si>
+  <si>
+    <t>25 comparisons (full-scale IQ measures); S.D. = 0.42.</t>
+  </si>
+  <si>
+    <t>Moderator subgroup by IQ test used to match groups: nonverbal/performance IQ measures (reported but stated as not analysed).</t>
+  </si>
+  <si>
+    <t>Nonword reading deficits (nonverbal IQ matching category)</t>
+  </si>
+  <si>
+    <t>Two studies/comparisons reported; S.D. = 0.21.</t>
+  </si>
+  <si>
+    <t>Authors state these were not analysed; extracted because a pooled subgroup mean and SD are explicitly reported.</t>
+  </si>
+  <si>
+    <t>2185</t>
+  </si>
+  <si>
+    <t>Herrmann, J. A.; Matyas, T.; Pratt, C.</t>
+  </si>
+  <si>
+    <t>Meta-analysis of the Nonword Reading Deficit in Specific Reading Disorder</t>
+  </si>
+  <si>
+    <t>Yess</t>
+  </si>
+  <si>
+    <t>No pooled CI/SE is reported for pooled estimates; CI and SE fields are null.; Several subgroup summaries report mean d with SD (not CI/SE); captured as pooled effects with CI/SE null.; Some subgroup counts are reported as comparisons (not studies); k_primary_studies left null where not explicitly stated as studies.:; Model type (random/fixed) is not explicitly stated; coded as Unclear.; Publication bias assessment is not explicitly reported; coded as Unclear.</t>
   </si>
 </sst>
 </file>
@@ -8789,8 +9002,8 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -9094,11 +9307,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BC499"/>
+  <dimension ref="A1:AX1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A469" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R491" sqref="R491:R496"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A495" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O499" sqref="O499:O511"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -72912,7 +73125,7 @@
       <c r="Q486" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="R486" s="30"/>
+      <c r="R486" s="29"/>
       <c r="S486" s="24" t="s">
         <v>2777</v>
       </c>
@@ -73564,7 +73777,7 @@
       <c r="AE491" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="AF491" s="17"/>
+      <c r="AF491" s="19"/>
       <c r="AG491" s="17">
         <v>-0.28000000000000003</v>
       </c>
@@ -73695,7 +73908,7 @@
       <c r="AE492" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="AF492" s="17"/>
+      <c r="AF492" s="19"/>
       <c r="AG492" s="17">
         <v>-0.33</v>
       </c>
@@ -73826,7 +74039,7 @@
       <c r="AE493" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="AF493" s="17"/>
+      <c r="AF493" s="19"/>
       <c r="AG493" s="17">
         <v>-0.44</v>
       </c>
@@ -73957,7 +74170,7 @@
       <c r="AE494" s="16" t="s">
         <v>1037</v>
       </c>
-      <c r="AF494" s="17"/>
+      <c r="AF494" s="19"/>
       <c r="AG494" s="17">
         <v>0.03</v>
       </c>
@@ -74082,7 +74295,7 @@
       <c r="AE495" s="16" t="s">
         <v>1037</v>
       </c>
-      <c r="AF495" s="17"/>
+      <c r="AF495" s="19"/>
       <c r="AG495" s="17">
         <v>0.3</v>
       </c>
@@ -74210,7 +74423,7 @@
       <c r="AE496" s="16" t="s">
         <v>1037</v>
       </c>
-      <c r="AF496" s="17"/>
+      <c r="AF496" s="19"/>
       <c r="AG496" s="17">
         <v>0.25</v>
       </c>
@@ -74251,48 +74464,1566 @@
         <v>2848</v>
       </c>
     </row>
-    <row r="497" spans="1:55" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A497" s="21"/>
+    <row r="497" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A497" s="21" t="s">
+        <v>1858</v>
+      </c>
       <c r="B497" s="22" t="s">
         <v>2849</v>
       </c>
       <c r="S497" s="24" t="s">
         <v>2850</v>
       </c>
-      <c r="T497" s="24"/>
-      <c r="U497" s="24"/>
-      <c r="AF497" s="24"/>
+      <c r="T497" s="19"/>
+      <c r="U497" s="19"/>
+      <c r="AF497" s="19"/>
       <c r="AG497" s="24"/>
     </row>
-    <row r="498" spans="1:55" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AM498" s="29"/>
-      <c r="AN498" s="29"/>
-      <c r="AO498" s="29"/>
-      <c r="AP498" s="29"/>
-      <c r="AQ498" s="29"/>
-      <c r="AR498" s="29"/>
-      <c r="AS498" s="29"/>
-      <c r="AT498" s="29"/>
-      <c r="AU498" s="29"/>
-      <c r="AV498" s="29"/>
-      <c r="AW498" s="29"/>
-      <c r="AX498" s="29"/>
-      <c r="AY498" s="29"/>
-      <c r="AZ498" s="29"/>
-      <c r="BA498" s="29"/>
-      <c r="BB498" s="29"/>
-      <c r="BC498" s="29"/>
+    <row r="498" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A498" s="14" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B498" s="15" t="s">
+        <v>2855</v>
+      </c>
+      <c r="S498" s="17"/>
+      <c r="T498" s="19"/>
+      <c r="U498" s="19"/>
+      <c r="AF498" s="19"/>
+      <c r="AG498" s="17"/>
     </row>
-    <row r="499" spans="1:55" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AM499" s="29"/>
-      <c r="AN499" s="29"/>
-      <c r="AO499" s="29"/>
-      <c r="AP499" s="29"/>
-      <c r="AQ499" s="29"/>
-      <c r="AR499" s="29"/>
-      <c r="AS499" s="29"/>
-      <c r="AT499" s="29"/>
-      <c r="AU499" s="29"/>
+    <row r="499" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A499" s="21" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B499" s="22" t="s">
+        <v>2856</v>
+      </c>
+      <c r="C499" s="23" t="s">
+        <v>2922</v>
+      </c>
+      <c r="D499" s="23">
+        <v>2026</v>
+      </c>
+      <c r="E499" s="23" t="s">
+        <v>2923</v>
+      </c>
+      <c r="F499" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="G499" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="H499" s="23" t="s">
+        <v>2924</v>
+      </c>
+      <c r="I499" s="23" t="s">
+        <v>409</v>
+      </c>
+      <c r="J499" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="K499" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="L499" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="M499" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="N499" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="O499" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="P499" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q499" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="R499" s="23" t="s">
+        <v>2925</v>
+      </c>
+      <c r="S499" s="24" t="s">
+        <v>2857</v>
+      </c>
+      <c r="T499" s="19"/>
+      <c r="U499" s="19"/>
+      <c r="V499" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="W499" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="X499" s="23" t="s">
+        <v>266</v>
+      </c>
+      <c r="Y499" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z499" s="23" t="s">
+        <v>2870</v>
+      </c>
+      <c r="AA499" s="23" t="s">
+        <v>2871</v>
+      </c>
+      <c r="AB499" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC499" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD499" s="23" t="s">
+        <v>2516</v>
+      </c>
+      <c r="AE499" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF499" s="19"/>
+      <c r="AG499" s="24">
+        <v>0.65</v>
+      </c>
+      <c r="AI499" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AN499" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ499" s="23" t="s">
+        <v>307</v>
+      </c>
+      <c r="AR499" s="23" t="s">
+        <v>2872</v>
+      </c>
+      <c r="AS499" s="23">
+        <v>34</v>
+      </c>
+      <c r="AT499" s="23" t="s">
+        <v>2873</v>
+      </c>
+      <c r="AU499" s="23" t="s">
+        <v>2874</v>
+      </c>
+      <c r="AV499" s="23" t="s">
+        <v>2875</v>
+      </c>
+    </row>
+    <row r="500" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A500" s="21" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B500" s="22" t="s">
+        <v>2856</v>
+      </c>
+      <c r="C500" s="23" t="s">
+        <v>2922</v>
+      </c>
+      <c r="D500" s="23">
+        <v>2026</v>
+      </c>
+      <c r="E500" s="23" t="s">
+        <v>2923</v>
+      </c>
+      <c r="F500" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="G500" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="H500" s="23" t="s">
+        <v>2924</v>
+      </c>
+      <c r="I500" s="23" t="s">
+        <v>409</v>
+      </c>
+      <c r="J500" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="K500" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="L500" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="M500" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="N500" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="O500" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="P500" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q500" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="R500" s="23" t="s">
+        <v>2925</v>
+      </c>
+      <c r="S500" s="24" t="s">
+        <v>2858</v>
+      </c>
+      <c r="T500" s="19"/>
+      <c r="U500" s="19"/>
+      <c r="V500" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="W500" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="X500" s="23" t="s">
+        <v>266</v>
+      </c>
+      <c r="Y500" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z500" s="23" t="s">
+        <v>2876</v>
+      </c>
+      <c r="AA500" s="23" t="s">
+        <v>2877</v>
+      </c>
+      <c r="AB500" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC500" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD500" s="23" t="s">
+        <v>2516</v>
+      </c>
+      <c r="AE500" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF500" s="19"/>
+      <c r="AG500" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="AI500" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AN500" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ500" s="23" t="s">
+        <v>307</v>
+      </c>
+      <c r="AR500" s="23" t="s">
+        <v>2878</v>
+      </c>
+      <c r="AS500" s="23">
+        <v>16</v>
+      </c>
+      <c r="AT500" s="23" t="s">
+        <v>2879</v>
+      </c>
+      <c r="AU500" s="23" t="s">
+        <v>2874</v>
+      </c>
+      <c r="AV500" s="23" t="s">
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="501" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A501" s="21" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B501" s="22" t="s">
+        <v>2856</v>
+      </c>
+      <c r="C501" s="23" t="s">
+        <v>2922</v>
+      </c>
+      <c r="D501" s="23">
+        <v>2026</v>
+      </c>
+      <c r="E501" s="23" t="s">
+        <v>2923</v>
+      </c>
+      <c r="F501" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="G501" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="H501" s="23" t="s">
+        <v>2924</v>
+      </c>
+      <c r="I501" s="23" t="s">
+        <v>409</v>
+      </c>
+      <c r="J501" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="K501" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="L501" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="M501" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="N501" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="O501" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="P501" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q501" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="R501" s="23" t="s">
+        <v>2925</v>
+      </c>
+      <c r="S501" s="24" t="s">
+        <v>2859</v>
+      </c>
+      <c r="T501" s="19"/>
+      <c r="U501" s="19"/>
+      <c r="V501" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="W501" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="X501" s="23" t="s">
+        <v>266</v>
+      </c>
+      <c r="Y501" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z501" s="23" t="s">
+        <v>2881</v>
+      </c>
+      <c r="AA501" s="23" t="s">
+        <v>2877</v>
+      </c>
+      <c r="AB501" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC501" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD501" s="23" t="s">
+        <v>2516</v>
+      </c>
+      <c r="AE501" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF501" s="19"/>
+      <c r="AG501" s="24">
+        <v>0.76</v>
+      </c>
+      <c r="AI501" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AN501" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ501" s="23" t="s">
+        <v>307</v>
+      </c>
+      <c r="AR501" s="23" t="s">
+        <v>2882</v>
+      </c>
+      <c r="AS501" s="23">
+        <v>18</v>
+      </c>
+      <c r="AT501" s="23" t="s">
+        <v>2883</v>
+      </c>
+      <c r="AU501" s="23" t="s">
+        <v>2874</v>
+      </c>
+      <c r="AV501" s="23" t="s">
+        <v>2884</v>
+      </c>
+    </row>
+    <row r="502" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A502" s="21" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B502" s="22" t="s">
+        <v>2856</v>
+      </c>
+      <c r="C502" s="23" t="s">
+        <v>2922</v>
+      </c>
+      <c r="D502" s="23">
+        <v>2026</v>
+      </c>
+      <c r="E502" s="23" t="s">
+        <v>2923</v>
+      </c>
+      <c r="F502" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="G502" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="H502" s="23" t="s">
+        <v>2924</v>
+      </c>
+      <c r="I502" s="23" t="s">
+        <v>409</v>
+      </c>
+      <c r="J502" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="K502" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="L502" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="M502" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="N502" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="O502" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="P502" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q502" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="R502" s="23" t="s">
+        <v>2925</v>
+      </c>
+      <c r="S502" s="24" t="s">
+        <v>2860</v>
+      </c>
+      <c r="T502" s="19"/>
+      <c r="U502" s="19"/>
+      <c r="V502" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="W502" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="X502" s="23" t="s">
+        <v>266</v>
+      </c>
+      <c r="Y502" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z502" s="23" t="s">
+        <v>2885</v>
+      </c>
+      <c r="AA502" s="23" t="s">
+        <v>2886</v>
+      </c>
+      <c r="AB502" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC502" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD502" s="23" t="s">
+        <v>2516</v>
+      </c>
+      <c r="AE502" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF502" s="19"/>
+      <c r="AG502" s="24">
+        <v>0.84</v>
+      </c>
+      <c r="AI502" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AN502" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ502" s="23" t="s">
+        <v>307</v>
+      </c>
+      <c r="AR502" s="23" t="s">
+        <v>2887</v>
+      </c>
+      <c r="AT502" s="23" t="s">
+        <v>2888</v>
+      </c>
+      <c r="AU502" s="23" t="s">
+        <v>2874</v>
+      </c>
+      <c r="AV502" s="23" t="s">
+        <v>2889</v>
+      </c>
+    </row>
+    <row r="503" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A503" s="21" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B503" s="22" t="s">
+        <v>2856</v>
+      </c>
+      <c r="C503" s="23" t="s">
+        <v>2922</v>
+      </c>
+      <c r="D503" s="23">
+        <v>2026</v>
+      </c>
+      <c r="E503" s="23" t="s">
+        <v>2923</v>
+      </c>
+      <c r="F503" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="G503" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="H503" s="23" t="s">
+        <v>2924</v>
+      </c>
+      <c r="I503" s="23" t="s">
+        <v>409</v>
+      </c>
+      <c r="J503" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="K503" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="L503" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="M503" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="N503" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="O503" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="P503" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q503" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="R503" s="23" t="s">
+        <v>2925</v>
+      </c>
+      <c r="S503" s="24" t="s">
+        <v>2861</v>
+      </c>
+      <c r="T503" s="19"/>
+      <c r="U503" s="19"/>
+      <c r="V503" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="W503" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="X503" s="23" t="s">
+        <v>266</v>
+      </c>
+      <c r="Y503" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z503" s="23" t="s">
+        <v>2890</v>
+      </c>
+      <c r="AA503" s="23" t="s">
+        <v>2891</v>
+      </c>
+      <c r="AB503" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC503" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD503" s="23" t="s">
+        <v>2516</v>
+      </c>
+      <c r="AE503" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF503" s="19"/>
+      <c r="AG503" s="24">
+        <v>0.7</v>
+      </c>
+      <c r="AI503" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AN503" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ503" s="23" t="s">
+        <v>307</v>
+      </c>
+      <c r="AR503" s="23" t="s">
+        <v>2887</v>
+      </c>
+      <c r="AT503" s="23" t="s">
+        <v>2892</v>
+      </c>
+      <c r="AU503" s="23" t="s">
+        <v>2874</v>
+      </c>
+      <c r="AV503" s="23" t="s">
+        <v>2889</v>
+      </c>
+    </row>
+    <row r="504" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A504" s="21" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B504" s="22" t="s">
+        <v>2856</v>
+      </c>
+      <c r="C504" s="23" t="s">
+        <v>2922</v>
+      </c>
+      <c r="D504" s="23">
+        <v>2026</v>
+      </c>
+      <c r="E504" s="23" t="s">
+        <v>2923</v>
+      </c>
+      <c r="F504" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="G504" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="H504" s="23" t="s">
+        <v>2924</v>
+      </c>
+      <c r="I504" s="23" t="s">
+        <v>409</v>
+      </c>
+      <c r="J504" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="K504" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="L504" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="M504" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="N504" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="O504" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="P504" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q504" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="R504" s="23" t="s">
+        <v>2925</v>
+      </c>
+      <c r="S504" s="24" t="s">
+        <v>2862</v>
+      </c>
+      <c r="T504" s="19"/>
+      <c r="U504" s="19"/>
+      <c r="V504" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="W504" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="X504" s="23" t="s">
+        <v>266</v>
+      </c>
+      <c r="Y504" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z504" s="23" t="s">
+        <v>2893</v>
+      </c>
+      <c r="AA504" s="23" t="s">
+        <v>2894</v>
+      </c>
+      <c r="AB504" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC504" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD504" s="23" t="s">
+        <v>2516</v>
+      </c>
+      <c r="AE504" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF504" s="19"/>
+      <c r="AG504" s="24">
+        <v>0.33</v>
+      </c>
+      <c r="AI504" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AN504" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ504" s="23" t="s">
+        <v>307</v>
+      </c>
+      <c r="AR504" s="23" t="s">
+        <v>2887</v>
+      </c>
+      <c r="AT504" s="23" t="s">
+        <v>2895</v>
+      </c>
+      <c r="AU504" s="23" t="s">
+        <v>2874</v>
+      </c>
+      <c r="AV504" s="23" t="s">
+        <v>2889</v>
+      </c>
+    </row>
+    <row r="505" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A505" s="21" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B505" s="22" t="s">
+        <v>2856</v>
+      </c>
+      <c r="C505" s="23" t="s">
+        <v>2922</v>
+      </c>
+      <c r="D505" s="23">
+        <v>2026</v>
+      </c>
+      <c r="E505" s="23" t="s">
+        <v>2923</v>
+      </c>
+      <c r="F505" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="G505" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="H505" s="23" t="s">
+        <v>2924</v>
+      </c>
+      <c r="I505" s="23" t="s">
+        <v>409</v>
+      </c>
+      <c r="J505" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="K505" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="L505" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="M505" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="N505" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="O505" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="P505" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q505" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="R505" s="23" t="s">
+        <v>2925</v>
+      </c>
+      <c r="S505" s="24" t="s">
+        <v>2863</v>
+      </c>
+      <c r="T505" s="19"/>
+      <c r="U505" s="19"/>
+      <c r="V505" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="W505" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="X505" s="23" t="s">
+        <v>266</v>
+      </c>
+      <c r="Y505" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z505" s="23" t="s">
+        <v>2896</v>
+      </c>
+      <c r="AA505" s="23" t="s">
+        <v>2897</v>
+      </c>
+      <c r="AB505" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC505" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD505" s="23" t="s">
+        <v>2516</v>
+      </c>
+      <c r="AE505" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF505" s="19"/>
+      <c r="AG505" s="24">
+        <v>0.71</v>
+      </c>
+      <c r="AI505" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AN505" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ505" s="23" t="s">
+        <v>307</v>
+      </c>
+      <c r="AR505" s="23" t="s">
+        <v>2887</v>
+      </c>
+      <c r="AT505" s="23" t="s">
+        <v>2898</v>
+      </c>
+      <c r="AU505" s="23" t="s">
+        <v>2874</v>
+      </c>
+      <c r="AV505" s="23" t="s">
+        <v>2899</v>
+      </c>
+    </row>
+    <row r="506" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A506" s="21" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B506" s="22" t="s">
+        <v>2856</v>
+      </c>
+      <c r="C506" s="23" t="s">
+        <v>2922</v>
+      </c>
+      <c r="D506" s="23">
+        <v>2026</v>
+      </c>
+      <c r="E506" s="23" t="s">
+        <v>2923</v>
+      </c>
+      <c r="F506" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="G506" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="H506" s="23" t="s">
+        <v>2924</v>
+      </c>
+      <c r="I506" s="23" t="s">
+        <v>409</v>
+      </c>
+      <c r="J506" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="K506" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="L506" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="M506" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="N506" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="O506" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="P506" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q506" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="R506" s="23" t="s">
+        <v>2925</v>
+      </c>
+      <c r="S506" s="24" t="s">
+        <v>2864</v>
+      </c>
+      <c r="T506" s="19"/>
+      <c r="U506" s="19"/>
+      <c r="V506" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="W506" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="X506" s="23" t="s">
+        <v>266</v>
+      </c>
+      <c r="Y506" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z506" s="23" t="s">
+        <v>2900</v>
+      </c>
+      <c r="AA506" s="23" t="s">
+        <v>2901</v>
+      </c>
+      <c r="AB506" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC506" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD506" s="23" t="s">
+        <v>2516</v>
+      </c>
+      <c r="AE506" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF506" s="19"/>
+      <c r="AG506" s="24">
+        <v>0.65</v>
+      </c>
+      <c r="AI506" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AN506" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ506" s="23" t="s">
+        <v>307</v>
+      </c>
+      <c r="AR506" s="23" t="s">
+        <v>2887</v>
+      </c>
+      <c r="AT506" s="23" t="s">
+        <v>2902</v>
+      </c>
+      <c r="AU506" s="23" t="s">
+        <v>2874</v>
+      </c>
+      <c r="AV506" s="23" t="s">
+        <v>2903</v>
+      </c>
+    </row>
+    <row r="507" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A507" s="21" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B507" s="22" t="s">
+        <v>2856</v>
+      </c>
+      <c r="C507" s="23" t="s">
+        <v>2922</v>
+      </c>
+      <c r="D507" s="23">
+        <v>2026</v>
+      </c>
+      <c r="E507" s="23" t="s">
+        <v>2923</v>
+      </c>
+      <c r="F507" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="G507" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="H507" s="23" t="s">
+        <v>2924</v>
+      </c>
+      <c r="I507" s="23" t="s">
+        <v>409</v>
+      </c>
+      <c r="J507" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="K507" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="L507" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="M507" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="N507" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="O507" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="P507" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q507" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="R507" s="23" t="s">
+        <v>2925</v>
+      </c>
+      <c r="S507" s="24" t="s">
+        <v>2865</v>
+      </c>
+      <c r="T507" s="19"/>
+      <c r="U507" s="19"/>
+      <c r="V507" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="W507" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="X507" s="23" t="s">
+        <v>266</v>
+      </c>
+      <c r="Y507" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z507" s="23" t="s">
+        <v>2904</v>
+      </c>
+      <c r="AA507" s="23" t="s">
+        <v>2905</v>
+      </c>
+      <c r="AB507" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC507" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD507" s="23" t="s">
+        <v>2516</v>
+      </c>
+      <c r="AE507" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF507" s="19"/>
+      <c r="AG507" s="24">
+        <v>0.87</v>
+      </c>
+      <c r="AI507" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AN507" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ507" s="23" t="s">
+        <v>307</v>
+      </c>
+      <c r="AR507" s="23" t="s">
+        <v>2887</v>
+      </c>
+      <c r="AT507" s="23" t="s">
+        <v>2906</v>
+      </c>
+      <c r="AU507" s="23" t="s">
+        <v>2874</v>
+      </c>
+      <c r="AV507" s="23" t="s">
+        <v>2907</v>
+      </c>
+    </row>
+    <row r="508" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A508" s="21" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B508" s="22" t="s">
+        <v>2856</v>
+      </c>
+      <c r="C508" s="23" t="s">
+        <v>2922</v>
+      </c>
+      <c r="D508" s="23">
+        <v>2026</v>
+      </c>
+      <c r="E508" s="23" t="s">
+        <v>2923</v>
+      </c>
+      <c r="F508" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="G508" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="H508" s="23" t="s">
+        <v>2924</v>
+      </c>
+      <c r="I508" s="23" t="s">
+        <v>409</v>
+      </c>
+      <c r="J508" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="K508" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="L508" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="M508" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="N508" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="O508" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="P508" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q508" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="R508" s="23" t="s">
+        <v>2925</v>
+      </c>
+      <c r="S508" s="24" t="s">
+        <v>2866</v>
+      </c>
+      <c r="T508" s="19"/>
+      <c r="U508" s="19"/>
+      <c r="V508" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="W508" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="X508" s="23" t="s">
+        <v>266</v>
+      </c>
+      <c r="Y508" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z508" s="23" t="s">
+        <v>2908</v>
+      </c>
+      <c r="AA508" s="23" t="s">
+        <v>2909</v>
+      </c>
+      <c r="AB508" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC508" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD508" s="23" t="s">
+        <v>2516</v>
+      </c>
+      <c r="AE508" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF508" s="19"/>
+      <c r="AG508" s="24">
+        <v>0.8</v>
+      </c>
+      <c r="AI508" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AN508" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ508" s="23" t="s">
+        <v>307</v>
+      </c>
+      <c r="AR508" s="23" t="s">
+        <v>2887</v>
+      </c>
+      <c r="AT508" s="23" t="s">
+        <v>2906</v>
+      </c>
+      <c r="AU508" s="23" t="s">
+        <v>2874</v>
+      </c>
+      <c r="AV508" s="23" t="s">
+        <v>2907</v>
+      </c>
+    </row>
+    <row r="509" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A509" s="21" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B509" s="22" t="s">
+        <v>2856</v>
+      </c>
+      <c r="C509" s="23" t="s">
+        <v>2922</v>
+      </c>
+      <c r="D509" s="23">
+        <v>2026</v>
+      </c>
+      <c r="E509" s="23" t="s">
+        <v>2923</v>
+      </c>
+      <c r="F509" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="G509" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="H509" s="23" t="s">
+        <v>2924</v>
+      </c>
+      <c r="I509" s="23" t="s">
+        <v>409</v>
+      </c>
+      <c r="J509" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="K509" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="L509" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="M509" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="N509" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="O509" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="P509" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q509" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="R509" s="23" t="s">
+        <v>2925</v>
+      </c>
+      <c r="S509" s="24" t="s">
+        <v>2867</v>
+      </c>
+      <c r="T509" s="19"/>
+      <c r="U509" s="19"/>
+      <c r="V509" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="W509" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="X509" s="23" t="s">
+        <v>266</v>
+      </c>
+      <c r="Y509" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z509" s="23" t="s">
+        <v>2910</v>
+      </c>
+      <c r="AA509" s="23" t="s">
+        <v>2911</v>
+      </c>
+      <c r="AB509" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC509" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD509" s="23" t="s">
+        <v>2516</v>
+      </c>
+      <c r="AE509" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF509" s="19"/>
+      <c r="AG509" s="24">
+        <v>0.82</v>
+      </c>
+      <c r="AI509" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AN509" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ509" s="23" t="s">
+        <v>307</v>
+      </c>
+      <c r="AR509" s="23" t="s">
+        <v>2887</v>
+      </c>
+      <c r="AT509" s="23" t="s">
+        <v>2912</v>
+      </c>
+      <c r="AU509" s="23" t="s">
+        <v>2874</v>
+      </c>
+      <c r="AV509" s="23" t="s">
+        <v>2913</v>
+      </c>
+    </row>
+    <row r="510" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A510" s="21" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B510" s="22" t="s">
+        <v>2856</v>
+      </c>
+      <c r="C510" s="23" t="s">
+        <v>2922</v>
+      </c>
+      <c r="D510" s="23">
+        <v>2026</v>
+      </c>
+      <c r="E510" s="23" t="s">
+        <v>2923</v>
+      </c>
+      <c r="F510" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="G510" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="H510" s="23" t="s">
+        <v>2924</v>
+      </c>
+      <c r="I510" s="23" t="s">
+        <v>409</v>
+      </c>
+      <c r="J510" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="K510" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="L510" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="M510" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="N510" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="O510" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="P510" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q510" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="R510" s="23" t="s">
+        <v>2925</v>
+      </c>
+      <c r="S510" s="24" t="s">
+        <v>2868</v>
+      </c>
+      <c r="T510" s="19"/>
+      <c r="U510" s="19"/>
+      <c r="V510" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="W510" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="X510" s="23" t="s">
+        <v>266</v>
+      </c>
+      <c r="Y510" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z510" s="23" t="s">
+        <v>2914</v>
+      </c>
+      <c r="AA510" s="23" t="s">
+        <v>2915</v>
+      </c>
+      <c r="AB510" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC510" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD510" s="23" t="s">
+        <v>2516</v>
+      </c>
+      <c r="AE510" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF510" s="19"/>
+      <c r="AG510" s="24">
+        <v>0.65</v>
+      </c>
+      <c r="AI510" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AN510" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ510" s="23" t="s">
+        <v>307</v>
+      </c>
+      <c r="AR510" s="23" t="s">
+        <v>2887</v>
+      </c>
+      <c r="AT510" s="23" t="s">
+        <v>2916</v>
+      </c>
+      <c r="AU510" s="23" t="s">
+        <v>2874</v>
+      </c>
+      <c r="AV510" s="23" t="s">
+        <v>2913</v>
+      </c>
+    </row>
+    <row r="511" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A511" s="21" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B511" s="22" t="s">
+        <v>2856</v>
+      </c>
+      <c r="C511" s="23" t="s">
+        <v>2922</v>
+      </c>
+      <c r="D511" s="23">
+        <v>2026</v>
+      </c>
+      <c r="E511" s="23" t="s">
+        <v>2923</v>
+      </c>
+      <c r="F511" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="G511" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="H511" s="23" t="s">
+        <v>2924</v>
+      </c>
+      <c r="I511" s="23" t="s">
+        <v>409</v>
+      </c>
+      <c r="J511" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="K511" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="L511" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="M511" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="N511" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="O511" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="P511" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q511" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="R511" s="23" t="s">
+        <v>2925</v>
+      </c>
+      <c r="S511" s="24" t="s">
+        <v>2869</v>
+      </c>
+      <c r="T511" s="19"/>
+      <c r="U511" s="19"/>
+      <c r="V511" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="W511" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="X511" s="23" t="s">
+        <v>266</v>
+      </c>
+      <c r="Y511" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z511" s="23" t="s">
+        <v>2917</v>
+      </c>
+      <c r="AA511" s="23" t="s">
+        <v>2918</v>
+      </c>
+      <c r="AB511" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC511" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD511" s="23" t="s">
+        <v>2516</v>
+      </c>
+      <c r="AE511" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF511" s="19"/>
+      <c r="AG511" s="24">
+        <v>0.15</v>
+      </c>
+      <c r="AI511" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AN511" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ511" s="23" t="s">
+        <v>307</v>
+      </c>
+      <c r="AR511" s="23" t="s">
+        <v>2887</v>
+      </c>
+      <c r="AT511" s="23" t="s">
+        <v>2919</v>
+      </c>
+      <c r="AU511" s="23" t="s">
+        <v>2874</v>
+      </c>
+      <c r="AV511" s="23" t="s">
+        <v>2920</v>
+      </c>
+    </row>
+    <row r="512" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A512" s="14" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B512" s="15" t="s">
+        <v>2921</v>
+      </c>
+      <c r="S512" s="17"/>
+      <c r="T512" s="19"/>
+      <c r="U512" s="19"/>
+      <c r="AF512" s="19"/>
+      <c r="AG512" s="17"/>
+    </row>
+    <row r="1048576" spans="2:2" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1048576" s="30"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Data/coded-Dataset.xlsx
+++ b/Data/coded-Dataset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laura/Desktop/GITHUB-METAREVIEW/Meta-review-cognitive-profiles-ADHD-Dyslexia/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{673687F3-E75F-5A40-9283-0C5C327DA49A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9E7A69D-9578-FE47-A457-99A6850B1AEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30240" yWindow="600" windowWidth="38400" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19319" uniqueCount="3003">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19443" uniqueCount="3020">
   <si>
     <t>ID_article</t>
   </si>
@@ -9053,6 +9053,57 @@
   </si>
   <si>
     <t>Nonword repetition–VSTM</t>
+  </si>
+  <si>
+    <t>Georgiou, G. K; Martinez, D.; Alves Vieira, A. P.; Antoniuk, A.; Romero, S.; Guo K.</t>
+  </si>
+  <si>
+    <t>A meta-analytic review of comprehension deficits in students with dyslexia</t>
+  </si>
+  <si>
+    <t>Row extraction was restricted to Table 1 only (per instruction); no other tables/supplements were searched for additional pooled effects.; Table 1 reports k as number of samples and n as number of effect sizes; the number of primary studies is not explicitly reported.</t>
+  </si>
+  <si>
+    <t>2118_1</t>
+  </si>
+  <si>
+    <t>Reading comprehension pooled effects (CA-DYS and RL-DYS) reported in Table 1.</t>
+  </si>
+  <si>
+    <t>Table 1: k (samples)=91; n (effect sizes)=121.</t>
+  </si>
+  <si>
+    <t>CA-DYS</t>
+  </si>
+  <si>
+    <t>Table 1 labels the metric as 'g' and describes results as 'overall standardized mean differences'. Tau derived as sqrt(Tau2).</t>
+  </si>
+  <si>
+    <t>2118_2</t>
+  </si>
+  <si>
+    <t>2118_3</t>
+  </si>
+  <si>
+    <t>2118_4</t>
+  </si>
+  <si>
+    <t>Table 1: k (samples)=23; n (effect sizes)=26.</t>
+  </si>
+  <si>
+    <t>RL-DYS</t>
+  </si>
+  <si>
+    <t>Listening comprehension pooled effects (CA-DYS and RL-DYS) reported in Table 1.</t>
+  </si>
+  <si>
+    <t>Listening comprehension</t>
+  </si>
+  <si>
+    <t>Table 1: k (samples)=18; n (effect sizes)=23.</t>
+  </si>
+  <si>
+    <t>Table 1: k (samples)=4; n (effect sizes)=5.</t>
   </si>
 </sst>
 </file>
@@ -9588,11 +9639,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AX539"/>
+  <dimension ref="A1:AW542"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="92" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A488" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R526" sqref="R526"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A496" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R531" sqref="R531"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -77837,7 +77888,7 @@
         <v>2798</v>
       </c>
     </row>
-    <row r="513" spans="1:50" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:49" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A513" s="14" t="s">
         <v>1849</v>
       </c>
@@ -77967,7 +78018,7 @@
         <v>2803</v>
       </c>
     </row>
-    <row r="514" spans="1:50" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:49" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A514" s="14" t="s">
         <v>1849</v>
       </c>
@@ -78100,7 +78151,7 @@
         <v>2809</v>
       </c>
     </row>
-    <row r="515" spans="1:50" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:49" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A515" s="14" t="s">
         <v>1849</v>
       </c>
@@ -78233,7 +78284,7 @@
         <v>2815</v>
       </c>
     </row>
-    <row r="516" spans="1:50" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:49" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A516" s="21" t="s">
         <v>1849</v>
       </c>
@@ -78359,7 +78410,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="517" spans="1:50" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:49" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A517" s="21" t="s">
         <v>1849</v>
       </c>
@@ -78485,7 +78536,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="518" spans="1:50" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:49" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A518" s="21" t="s">
         <v>1849</v>
       </c>
@@ -78608,7 +78659,7 @@
         <v>2991</v>
       </c>
     </row>
-    <row r="519" spans="1:50" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:49" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A519" s="21" t="s">
         <v>1849</v>
       </c>
@@ -78734,7 +78785,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="520" spans="1:50" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:49" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A520" s="21" t="s">
         <v>1849</v>
       </c>
@@ -78860,7 +78911,7 @@
         <v>2994</v>
       </c>
     </row>
-    <row r="521" spans="1:50" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:49" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A521" s="21" t="s">
         <v>1849</v>
       </c>
@@ -78983,7 +79034,7 @@
         <v>2999</v>
       </c>
     </row>
-    <row r="522" spans="1:50" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:49" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A522" s="21" t="s">
         <v>1849</v>
       </c>
@@ -79106,7 +79157,7 @@
         <v>2999</v>
       </c>
     </row>
-    <row r="523" spans="1:50" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:49" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A523" s="21" t="s">
         <v>1849</v>
       </c>
@@ -79189,46 +79240,45 @@
       </c>
       <c r="AC523" s="39"/>
       <c r="AD523" s="39"/>
-      <c r="AE523" s="39"/>
+      <c r="AE523" s="24" t="s">
+        <v>1033</v>
+      </c>
       <c r="AF523" s="19"/>
-      <c r="AG523" s="24" t="s">
-        <v>1033</v>
-      </c>
-      <c r="AI523" s="23">
+      <c r="AG523" s="24">
         <v>0.33</v>
       </c>
-      <c r="AK523" s="23" t="s">
+      <c r="AI523" s="23" t="s">
         <v>56</v>
       </c>
+      <c r="AJ523" s="23">
+        <v>0.22</v>
+      </c>
+      <c r="AK523" s="23">
+        <v>0.43</v>
+      </c>
       <c r="AL523" s="23">
-        <v>0.22</v>
-      </c>
-      <c r="AM523" s="23">
-        <v>0.43</v>
-      </c>
-      <c r="AN523" s="23">
         <v>0.95</v>
       </c>
-      <c r="AP523" s="23" t="s">
+      <c r="AN523" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="AS523" s="23" t="s">
+      <c r="AQ523" s="23" t="s">
         <v>1831</v>
       </c>
-      <c r="AT523" s="23" t="s">
+      <c r="AR523" s="23" t="s">
         <v>2997</v>
       </c>
-      <c r="AU523" s="23">
+      <c r="AS523" s="23">
         <v>11</v>
       </c>
-      <c r="AW523" s="23" t="s">
+      <c r="AU523" s="23" t="s">
         <v>2998</v>
       </c>
-      <c r="AX523" s="23" t="s">
+      <c r="AV523" s="23" t="s">
         <v>2999</v>
       </c>
     </row>
-    <row r="524" spans="1:50" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:49" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A524" s="21" t="s">
         <v>1849</v>
       </c>
@@ -79351,398 +79401,487 @@
         <v>2999</v>
       </c>
     </row>
-    <row r="525" spans="1:50" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:49" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A525" s="14" t="s">
         <v>1849</v>
       </c>
       <c r="B525" s="15" t="s">
         <v>2822</v>
       </c>
-      <c r="S525" s="17"/>
+      <c r="C525" s="16" t="s">
+        <v>3003</v>
+      </c>
+      <c r="D525" s="16">
+        <v>2022</v>
+      </c>
+      <c r="E525" s="16" t="s">
+        <v>3004</v>
+      </c>
+      <c r="F525" s="16" t="s">
+        <v>453</v>
+      </c>
+      <c r="G525" s="16" t="s">
+        <v>1940</v>
+      </c>
+      <c r="H525" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I525" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="J525" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="K525" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="L525" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="M525" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="N525" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="O525" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="P525" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q525" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="R525" s="16" t="s">
+        <v>3005</v>
+      </c>
+      <c r="S525" s="17" t="s">
+        <v>3006</v>
+      </c>
       <c r="T525" s="19">
         <v>1</v>
       </c>
       <c r="U525" s="19"/>
-      <c r="AB525" s="38"/>
-      <c r="AC525" s="38"/>
+      <c r="V525" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="W525" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="X525" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y525" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z525" s="16" t="s">
+        <v>3007</v>
+      </c>
+      <c r="AA525" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="AB525" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC525" s="38" t="s">
+        <v>69</v>
+      </c>
       <c r="AD525" s="38"/>
-      <c r="AE525" s="38"/>
+      <c r="AE525" s="38" t="s">
+        <v>54</v>
+      </c>
       <c r="AF525" s="19"/>
-      <c r="AG525" s="17"/>
+      <c r="AG525" s="17">
+        <v>1.43</v>
+      </c>
+      <c r="AH525" s="16">
+        <v>9.1800000000000007E-2</v>
+      </c>
+      <c r="AI525" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ525" s="16">
+        <v>1.25</v>
+      </c>
+      <c r="AK525" s="16">
+        <v>1.61</v>
+      </c>
+      <c r="AL525" s="16">
+        <v>0.95</v>
+      </c>
+      <c r="AM525" s="16">
+        <v>0.76219999999999999</v>
+      </c>
+      <c r="AN525" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="AT525" s="16" t="s">
+        <v>3008</v>
+      </c>
+      <c r="AU525" s="16" t="s">
+        <v>3009</v>
+      </c>
+      <c r="AV525" s="16" t="s">
+        <v>3010</v>
+      </c>
     </row>
-    <row r="526" spans="1:50" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A526" s="21" t="s">
+    <row r="526" spans="1:49" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A526" s="14" t="s">
         <v>1849</v>
       </c>
-      <c r="B526" s="22" t="s">
-        <v>2823</v>
-      </c>
-      <c r="C526" s="23" t="s">
-        <v>2889</v>
-      </c>
-      <c r="D526" s="23">
-        <v>2026</v>
-      </c>
-      <c r="E526" s="23" t="s">
-        <v>2890</v>
-      </c>
-      <c r="F526" s="23" t="s">
+      <c r="B526" s="15" t="s">
+        <v>2822</v>
+      </c>
+      <c r="C526" s="16" t="s">
+        <v>3003</v>
+      </c>
+      <c r="E526" s="16" t="s">
+        <v>3004</v>
+      </c>
+      <c r="F526" s="16" t="s">
+        <v>453</v>
+      </c>
+      <c r="G526" s="16" t="s">
+        <v>1940</v>
+      </c>
+      <c r="H526" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I526" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="J526" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="K526" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="L526" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="M526" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="N526" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="O526" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="P526" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q526" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="R526" s="16" t="s">
+        <v>3005</v>
+      </c>
+      <c r="S526" s="17" t="s">
+        <v>3011</v>
+      </c>
+      <c r="T526" s="19"/>
+      <c r="U526" s="19"/>
+      <c r="V526" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="G526" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="H526" s="23" t="s">
-        <v>2891</v>
-      </c>
-      <c r="I526" s="23" t="s">
-        <v>407</v>
-      </c>
-      <c r="J526" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="K526" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="L526" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="M526" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="N526" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="O526" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="P526" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q526" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="R526" s="23" t="s">
-        <v>2892</v>
-      </c>
-      <c r="S526" s="24" t="s">
-        <v>2824</v>
-      </c>
-      <c r="T526" s="19">
-        <v>0</v>
-      </c>
-      <c r="U526" s="19" t="s">
-        <v>1824</v>
-      </c>
-      <c r="V526" s="23" t="s">
+      <c r="W526" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="X526" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y526" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z526" s="16" t="s">
+        <v>3007</v>
+      </c>
+      <c r="AA526" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="AB526" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC526" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD526" s="38"/>
+      <c r="AE526" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF526" s="19"/>
+      <c r="AG526" s="17">
+        <v>0.64</v>
+      </c>
+      <c r="AH526" s="16">
+        <v>0.30049999999999999</v>
+      </c>
+      <c r="AI526" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ526" s="16">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="AK526" s="16">
+        <v>1.23</v>
+      </c>
+      <c r="AL526" s="16">
+        <v>0.95</v>
+      </c>
+      <c r="AM526" s="16">
+        <v>1.0429999999999999</v>
+      </c>
+      <c r="AN526" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="AT526" s="16" t="s">
+        <v>3014</v>
+      </c>
+      <c r="AU526" s="16" t="s">
+        <v>3015</v>
+      </c>
+      <c r="AV526" s="16" t="s">
+        <v>3010</v>
+      </c>
+    </row>
+    <row r="527" spans="1:49" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A527" s="14" t="s">
+        <v>1849</v>
+      </c>
+      <c r="B527" s="15" t="s">
+        <v>2822</v>
+      </c>
+      <c r="C527" s="16" t="s">
+        <v>3003</v>
+      </c>
+      <c r="E527" s="16" t="s">
+        <v>3004</v>
+      </c>
+      <c r="F527" s="16" t="s">
+        <v>453</v>
+      </c>
+      <c r="G527" s="16" t="s">
+        <v>1940</v>
+      </c>
+      <c r="H527" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I527" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="J527" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="K527" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="L527" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="M527" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="N527" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="O527" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="P527" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q527" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="R527" s="16" t="s">
+        <v>3005</v>
+      </c>
+      <c r="S527" s="17" t="s">
+        <v>3012</v>
+      </c>
+      <c r="T527" s="19"/>
+      <c r="U527" s="19"/>
+      <c r="V527" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="W526" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="X526" s="23" t="s">
-        <v>266</v>
-      </c>
-      <c r="Y526" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z526" s="23" t="s">
-        <v>2837</v>
-      </c>
-      <c r="AA526" s="23" t="s">
-        <v>2838</v>
-      </c>
-      <c r="AB526" s="39" t="s">
-        <v>70</v>
-      </c>
-      <c r="AC526" s="39" t="s">
-        <v>72</v>
-      </c>
-      <c r="AD526" s="39" t="s">
-        <v>2489</v>
-      </c>
-      <c r="AE526" s="39" t="s">
-        <v>65</v>
-      </c>
-      <c r="AF526" s="19" t="s">
-        <v>1822</v>
-      </c>
-      <c r="AG526" s="24">
-        <v>0.65</v>
-      </c>
-      <c r="AI526" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="AN526" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="AQ526" s="23" t="s">
-        <v>306</v>
-      </c>
-      <c r="AR526" s="23" t="s">
-        <v>2839</v>
-      </c>
-      <c r="AS526" s="23">
-        <v>34</v>
-      </c>
-      <c r="AT526" s="23" t="s">
-        <v>2840</v>
-      </c>
-      <c r="AU526" s="23" t="s">
-        <v>2841</v>
-      </c>
-      <c r="AV526" s="23" t="s">
-        <v>2842</v>
+      <c r="W527" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="X527" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y527" s="16" t="s">
+        <v>351</v>
+      </c>
+      <c r="Z527" s="16" t="s">
+        <v>3016</v>
+      </c>
+      <c r="AA527" s="16" t="s">
+        <v>3017</v>
+      </c>
+      <c r="AB527" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC527" s="38"/>
+      <c r="AD527" s="38"/>
+      <c r="AE527" s="38"/>
+      <c r="AF527" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG527" s="17"/>
+      <c r="AH527" s="16">
+        <v>0.432</v>
+      </c>
+      <c r="AI527" s="16">
+        <v>0.1429</v>
+      </c>
+      <c r="AJ527" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK527" s="16">
+        <v>0.152</v>
+      </c>
+      <c r="AL527" s="16">
+        <v>0.71199999999999997</v>
+      </c>
+      <c r="AM527" s="16">
+        <v>0.95</v>
+      </c>
+      <c r="AN527" s="16">
+        <v>0.53180000000000005</v>
+      </c>
+      <c r="AO527" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="AU527" s="16" t="s">
+        <v>3018</v>
+      </c>
+      <c r="AV527" s="16" t="s">
+        <v>3009</v>
+      </c>
+      <c r="AW527" s="16" t="s">
+        <v>3010</v>
       </c>
     </row>
-    <row r="527" spans="1:50" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A527" s="21" t="s">
+    <row r="528" spans="1:49" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A528" s="14" t="s">
         <v>1849</v>
       </c>
-      <c r="B527" s="22" t="s">
-        <v>2823</v>
-      </c>
-      <c r="C527" s="23" t="s">
-        <v>2889</v>
-      </c>
-      <c r="D527" s="23">
-        <v>2026</v>
-      </c>
-      <c r="E527" s="23" t="s">
-        <v>2890</v>
-      </c>
-      <c r="F527" s="23" t="s">
+      <c r="B528" s="15" t="s">
+        <v>2822</v>
+      </c>
+      <c r="C528" s="16" t="s">
+        <v>3003</v>
+      </c>
+      <c r="E528" s="16" t="s">
+        <v>3004</v>
+      </c>
+      <c r="F528" s="16" t="s">
+        <v>453</v>
+      </c>
+      <c r="G528" s="16" t="s">
+        <v>1940</v>
+      </c>
+      <c r="H528" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I528" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="J528" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="K528" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="L528" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="M528" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="N528" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="O528" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="P528" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q528" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="R528" s="16" t="s">
+        <v>3005</v>
+      </c>
+      <c r="S528" s="17" t="s">
+        <v>3013</v>
+      </c>
+      <c r="T528" s="19"/>
+      <c r="U528" s="19"/>
+      <c r="V528" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="G527" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="H527" s="23" t="s">
-        <v>2891</v>
-      </c>
-      <c r="I527" s="23" t="s">
-        <v>407</v>
-      </c>
-      <c r="J527" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="K527" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="L527" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="M527" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="N527" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="O527" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="P527" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q527" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="R527" s="23" t="s">
-        <v>2892</v>
-      </c>
-      <c r="S527" s="24" t="s">
-        <v>2825</v>
-      </c>
-      <c r="T527" s="19">
-        <v>0</v>
-      </c>
-      <c r="U527" s="19" t="s">
-        <v>1824</v>
-      </c>
-      <c r="V527" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="W527" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="X527" s="23" t="s">
-        <v>266</v>
-      </c>
-      <c r="Y527" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z527" s="23" t="s">
-        <v>2843</v>
-      </c>
-      <c r="AA527" s="23" t="s">
-        <v>2844</v>
-      </c>
-      <c r="AB527" s="39" t="s">
-        <v>70</v>
-      </c>
-      <c r="AC527" s="39" t="s">
-        <v>72</v>
-      </c>
-      <c r="AD527" s="39" t="s">
-        <v>2489</v>
-      </c>
-      <c r="AE527" s="39" t="s">
-        <v>65</v>
-      </c>
-      <c r="AF527" s="19" t="s">
-        <v>1822</v>
-      </c>
-      <c r="AG527" s="24">
-        <v>0.5</v>
-      </c>
-      <c r="AI527" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="AN527" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="AQ527" s="23" t="s">
-        <v>306</v>
-      </c>
-      <c r="AR527" s="23" t="s">
-        <v>2845</v>
-      </c>
-      <c r="AS527" s="23">
-        <v>16</v>
-      </c>
-      <c r="AT527" s="23" t="s">
-        <v>2846</v>
-      </c>
-      <c r="AU527" s="23" t="s">
-        <v>2841</v>
-      </c>
-      <c r="AV527" s="23" t="s">
-        <v>2847</v>
-      </c>
-    </row>
-    <row r="528" spans="1:50" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A528" s="21" t="s">
-        <v>1849</v>
-      </c>
-      <c r="B528" s="22" t="s">
-        <v>2823</v>
-      </c>
-      <c r="C528" s="23" t="s">
-        <v>2889</v>
-      </c>
-      <c r="D528" s="23">
-        <v>2026</v>
-      </c>
-      <c r="E528" s="23" t="s">
-        <v>2890</v>
-      </c>
-      <c r="F528" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="G528" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="H528" s="23" t="s">
-        <v>2891</v>
-      </c>
-      <c r="I528" s="23" t="s">
-        <v>407</v>
-      </c>
-      <c r="J528" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="K528" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="L528" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="M528" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="N528" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="O528" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="P528" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q528" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="R528" s="23" t="s">
-        <v>2892</v>
-      </c>
-      <c r="S528" s="24" t="s">
-        <v>2826</v>
-      </c>
-      <c r="T528" s="19">
-        <v>0</v>
-      </c>
-      <c r="U528" s="19" t="s">
-        <v>1824</v>
-      </c>
-      <c r="V528" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="W528" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="X528" s="23" t="s">
-        <v>266</v>
-      </c>
-      <c r="Y528" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z528" s="23" t="s">
-        <v>2848</v>
-      </c>
-      <c r="AA528" s="23" t="s">
-        <v>2844</v>
-      </c>
-      <c r="AB528" s="39" t="s">
-        <v>70</v>
-      </c>
-      <c r="AC528" s="39" t="s">
-        <v>72</v>
-      </c>
-      <c r="AD528" s="39" t="s">
-        <v>2489</v>
-      </c>
-      <c r="AE528" s="39" t="s">
-        <v>65</v>
-      </c>
+      <c r="W528" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="X528" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y528" s="16" t="s">
+        <v>351</v>
+      </c>
+      <c r="Z528" s="16" t="s">
+        <v>3016</v>
+      </c>
+      <c r="AA528" s="16" t="s">
+        <v>3017</v>
+      </c>
+      <c r="AB528" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC528" s="38"/>
+      <c r="AD528" s="38"/>
+      <c r="AE528" s="38"/>
       <c r="AF528" s="19" t="s">
-        <v>1822</v>
-      </c>
-      <c r="AG528" s="24">
-        <v>0.76</v>
-      </c>
-      <c r="AI528" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="AN528" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="AQ528" s="23" t="s">
-        <v>306</v>
-      </c>
-      <c r="AR528" s="23" t="s">
-        <v>2849</v>
-      </c>
-      <c r="AS528" s="23">
-        <v>18</v>
-      </c>
-      <c r="AT528" s="23" t="s">
-        <v>2850</v>
-      </c>
-      <c r="AU528" s="23" t="s">
-        <v>2841</v>
-      </c>
-      <c r="AV528" s="23" t="s">
-        <v>2851</v>
+        <v>54</v>
+      </c>
+      <c r="AG528" s="17"/>
+      <c r="AH528" s="16">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="AI528" s="16">
+        <v>0.1439</v>
+      </c>
+      <c r="AJ528" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK528" s="16">
+        <v>-0.26100000000000001</v>
+      </c>
+      <c r="AL528" s="16">
+        <v>0.30299999999999999</v>
+      </c>
+      <c r="AM528" s="16">
+        <v>0.95</v>
+      </c>
+      <c r="AN528" s="16">
+        <v>8.8300000000000003E-2</v>
+      </c>
+      <c r="AO528" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="AU528" s="16" t="s">
+        <v>3019</v>
+      </c>
+      <c r="AV528" s="16" t="s">
+        <v>3015</v>
+      </c>
+      <c r="AW528" s="16" t="s">
+        <v>3010</v>
       </c>
     </row>
     <row r="529" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -79801,7 +79940,7 @@
         <v>2892</v>
       </c>
       <c r="S529" s="24" t="s">
-        <v>2827</v>
+        <v>2824</v>
       </c>
       <c r="T529" s="19">
         <v>0</v>
@@ -79822,10 +79961,10 @@
         <v>52</v>
       </c>
       <c r="Z529" s="23" t="s">
-        <v>2852</v>
+        <v>2837</v>
       </c>
       <c r="AA529" s="23" t="s">
-        <v>2853</v>
+        <v>2838</v>
       </c>
       <c r="AB529" s="39" t="s">
         <v>70</v>
@@ -79843,7 +79982,7 @@
         <v>1822</v>
       </c>
       <c r="AG529" s="24">
-        <v>0.84</v>
+        <v>0.65</v>
       </c>
       <c r="AI529" s="23" t="s">
         <v>56</v>
@@ -79855,16 +79994,19 @@
         <v>306</v>
       </c>
       <c r="AR529" s="23" t="s">
-        <v>2854</v>
+        <v>2839</v>
+      </c>
+      <c r="AS529" s="23">
+        <v>34</v>
       </c>
       <c r="AT529" s="23" t="s">
-        <v>2855</v>
+        <v>2840</v>
       </c>
       <c r="AU529" s="23" t="s">
         <v>2841</v>
       </c>
       <c r="AV529" s="23" t="s">
-        <v>2856</v>
+        <v>2842</v>
       </c>
     </row>
     <row r="530" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -79923,7 +80065,7 @@
         <v>2892</v>
       </c>
       <c r="S530" s="24" t="s">
-        <v>2828</v>
+        <v>2825</v>
       </c>
       <c r="T530" s="19">
         <v>0</v>
@@ -79944,10 +80086,10 @@
         <v>52</v>
       </c>
       <c r="Z530" s="23" t="s">
-        <v>2857</v>
+        <v>2843</v>
       </c>
       <c r="AA530" s="23" t="s">
-        <v>2858</v>
+        <v>2844</v>
       </c>
       <c r="AB530" s="39" t="s">
         <v>70</v>
@@ -79965,7 +80107,7 @@
         <v>1822</v>
       </c>
       <c r="AG530" s="24">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="AI530" s="23" t="s">
         <v>56</v>
@@ -79977,16 +80119,19 @@
         <v>306</v>
       </c>
       <c r="AR530" s="23" t="s">
-        <v>2854</v>
+        <v>2845</v>
+      </c>
+      <c r="AS530" s="23">
+        <v>16</v>
       </c>
       <c r="AT530" s="23" t="s">
-        <v>2859</v>
+        <v>2846</v>
       </c>
       <c r="AU530" s="23" t="s">
         <v>2841</v>
       </c>
       <c r="AV530" s="23" t="s">
-        <v>2856</v>
+        <v>2847</v>
       </c>
     </row>
     <row r="531" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -80045,7 +80190,7 @@
         <v>2892</v>
       </c>
       <c r="S531" s="24" t="s">
-        <v>2829</v>
+        <v>2826</v>
       </c>
       <c r="T531" s="19">
         <v>0</v>
@@ -80066,10 +80211,10 @@
         <v>52</v>
       </c>
       <c r="Z531" s="23" t="s">
-        <v>2860</v>
+        <v>2848</v>
       </c>
       <c r="AA531" s="23" t="s">
-        <v>2861</v>
+        <v>2844</v>
       </c>
       <c r="AB531" s="39" t="s">
         <v>70</v>
@@ -80087,7 +80232,7 @@
         <v>1822</v>
       </c>
       <c r="AG531" s="24">
-        <v>0.33</v>
+        <v>0.76</v>
       </c>
       <c r="AI531" s="23" t="s">
         <v>56</v>
@@ -80099,16 +80244,19 @@
         <v>306</v>
       </c>
       <c r="AR531" s="23" t="s">
-        <v>2854</v>
+        <v>2849</v>
+      </c>
+      <c r="AS531" s="23">
+        <v>18</v>
       </c>
       <c r="AT531" s="23" t="s">
-        <v>2862</v>
+        <v>2850</v>
       </c>
       <c r="AU531" s="23" t="s">
         <v>2841</v>
       </c>
       <c r="AV531" s="23" t="s">
-        <v>2856</v>
+        <v>2851</v>
       </c>
     </row>
     <row r="532" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -80167,7 +80315,7 @@
         <v>2892</v>
       </c>
       <c r="S532" s="24" t="s">
-        <v>2830</v>
+        <v>2827</v>
       </c>
       <c r="T532" s="19">
         <v>0</v>
@@ -80188,10 +80336,10 @@
         <v>52</v>
       </c>
       <c r="Z532" s="23" t="s">
-        <v>2863</v>
+        <v>2852</v>
       </c>
       <c r="AA532" s="23" t="s">
-        <v>2864</v>
+        <v>2853</v>
       </c>
       <c r="AB532" s="39" t="s">
         <v>70</v>
@@ -80209,7 +80357,7 @@
         <v>1822</v>
       </c>
       <c r="AG532" s="24">
-        <v>0.71</v>
+        <v>0.84</v>
       </c>
       <c r="AI532" s="23" t="s">
         <v>56</v>
@@ -80224,13 +80372,13 @@
         <v>2854</v>
       </c>
       <c r="AT532" s="23" t="s">
-        <v>2865</v>
+        <v>2855</v>
       </c>
       <c r="AU532" s="23" t="s">
         <v>2841</v>
       </c>
       <c r="AV532" s="23" t="s">
-        <v>2866</v>
+        <v>2856</v>
       </c>
     </row>
     <row r="533" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -80289,7 +80437,7 @@
         <v>2892</v>
       </c>
       <c r="S533" s="24" t="s">
-        <v>2831</v>
+        <v>2828</v>
       </c>
       <c r="T533" s="19">
         <v>0</v>
@@ -80310,10 +80458,10 @@
         <v>52</v>
       </c>
       <c r="Z533" s="23" t="s">
-        <v>2867</v>
+        <v>2857</v>
       </c>
       <c r="AA533" s="23" t="s">
-        <v>2868</v>
+        <v>2858</v>
       </c>
       <c r="AB533" s="39" t="s">
         <v>70</v>
@@ -80331,7 +80479,7 @@
         <v>1822</v>
       </c>
       <c r="AG533" s="24">
-        <v>0.65</v>
+        <v>0.7</v>
       </c>
       <c r="AI533" s="23" t="s">
         <v>56</v>
@@ -80346,13 +80494,13 @@
         <v>2854</v>
       </c>
       <c r="AT533" s="23" t="s">
-        <v>2869</v>
+        <v>2859</v>
       </c>
       <c r="AU533" s="23" t="s">
         <v>2841</v>
       </c>
       <c r="AV533" s="23" t="s">
-        <v>2870</v>
+        <v>2856</v>
       </c>
     </row>
     <row r="534" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -80411,7 +80559,7 @@
         <v>2892</v>
       </c>
       <c r="S534" s="24" t="s">
-        <v>2832</v>
+        <v>2829</v>
       </c>
       <c r="T534" s="19">
         <v>0</v>
@@ -80432,10 +80580,10 @@
         <v>52</v>
       </c>
       <c r="Z534" s="23" t="s">
-        <v>2871</v>
+        <v>2860</v>
       </c>
       <c r="AA534" s="23" t="s">
-        <v>2872</v>
+        <v>2861</v>
       </c>
       <c r="AB534" s="39" t="s">
         <v>70</v>
@@ -80453,7 +80601,7 @@
         <v>1822</v>
       </c>
       <c r="AG534" s="24">
-        <v>0.87</v>
+        <v>0.33</v>
       </c>
       <c r="AI534" s="23" t="s">
         <v>56</v>
@@ -80468,13 +80616,13 @@
         <v>2854</v>
       </c>
       <c r="AT534" s="23" t="s">
-        <v>2873</v>
+        <v>2862</v>
       </c>
       <c r="AU534" s="23" t="s">
         <v>2841</v>
       </c>
       <c r="AV534" s="23" t="s">
-        <v>2874</v>
+        <v>2856</v>
       </c>
     </row>
     <row r="535" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -80533,7 +80681,7 @@
         <v>2892</v>
       </c>
       <c r="S535" s="24" t="s">
-        <v>2833</v>
+        <v>2830</v>
       </c>
       <c r="T535" s="19">
         <v>0</v>
@@ -80554,10 +80702,10 @@
         <v>52</v>
       </c>
       <c r="Z535" s="23" t="s">
-        <v>2875</v>
+        <v>2863</v>
       </c>
       <c r="AA535" s="23" t="s">
-        <v>2876</v>
+        <v>2864</v>
       </c>
       <c r="AB535" s="39" t="s">
         <v>70</v>
@@ -80575,7 +80723,7 @@
         <v>1822</v>
       </c>
       <c r="AG535" s="24">
-        <v>0.8</v>
+        <v>0.71</v>
       </c>
       <c r="AI535" s="23" t="s">
         <v>56</v>
@@ -80590,13 +80738,13 @@
         <v>2854</v>
       </c>
       <c r="AT535" s="23" t="s">
-        <v>2873</v>
+        <v>2865</v>
       </c>
       <c r="AU535" s="23" t="s">
         <v>2841</v>
       </c>
       <c r="AV535" s="23" t="s">
-        <v>2874</v>
+        <v>2866</v>
       </c>
     </row>
     <row r="536" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -80655,7 +80803,7 @@
         <v>2892</v>
       </c>
       <c r="S536" s="24" t="s">
-        <v>2834</v>
+        <v>2831</v>
       </c>
       <c r="T536" s="19">
         <v>0</v>
@@ -80676,10 +80824,10 @@
         <v>52</v>
       </c>
       <c r="Z536" s="23" t="s">
-        <v>2877</v>
+        <v>2867</v>
       </c>
       <c r="AA536" s="23" t="s">
-        <v>2878</v>
+        <v>2868</v>
       </c>
       <c r="AB536" s="39" t="s">
         <v>70</v>
@@ -80697,7 +80845,7 @@
         <v>1822</v>
       </c>
       <c r="AG536" s="24">
-        <v>0.82</v>
+        <v>0.65</v>
       </c>
       <c r="AI536" s="23" t="s">
         <v>56</v>
@@ -80712,13 +80860,13 @@
         <v>2854</v>
       </c>
       <c r="AT536" s="23" t="s">
-        <v>2879</v>
+        <v>2869</v>
       </c>
       <c r="AU536" s="23" t="s">
         <v>2841</v>
       </c>
       <c r="AV536" s="23" t="s">
-        <v>2880</v>
+        <v>2870</v>
       </c>
     </row>
     <row r="537" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -80777,7 +80925,7 @@
         <v>2892</v>
       </c>
       <c r="S537" s="24" t="s">
-        <v>2835</v>
+        <v>2832</v>
       </c>
       <c r="T537" s="19">
         <v>0</v>
@@ -80798,10 +80946,10 @@
         <v>52</v>
       </c>
       <c r="Z537" s="23" t="s">
-        <v>2881</v>
+        <v>2871</v>
       </c>
       <c r="AA537" s="23" t="s">
-        <v>2882</v>
+        <v>2872</v>
       </c>
       <c r="AB537" s="39" t="s">
         <v>70</v>
@@ -80819,7 +80967,7 @@
         <v>1822</v>
       </c>
       <c r="AG537" s="24">
-        <v>0.65</v>
+        <v>0.87</v>
       </c>
       <c r="AI537" s="23" t="s">
         <v>56</v>
@@ -80834,13 +80982,13 @@
         <v>2854</v>
       </c>
       <c r="AT537" s="23" t="s">
-        <v>2883</v>
+        <v>2873</v>
       </c>
       <c r="AU537" s="23" t="s">
         <v>2841</v>
       </c>
       <c r="AV537" s="23" t="s">
-        <v>2880</v>
+        <v>2874</v>
       </c>
     </row>
     <row r="538" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -80899,7 +81047,7 @@
         <v>2892</v>
       </c>
       <c r="S538" s="24" t="s">
-        <v>2836</v>
+        <v>2833</v>
       </c>
       <c r="T538" s="19">
         <v>0</v>
@@ -80920,10 +81068,10 @@
         <v>52</v>
       </c>
       <c r="Z538" s="23" t="s">
-        <v>2884</v>
+        <v>2875</v>
       </c>
       <c r="AA538" s="23" t="s">
-        <v>2885</v>
+        <v>2876</v>
       </c>
       <c r="AB538" s="39" t="s">
         <v>70</v>
@@ -80941,7 +81089,7 @@
         <v>1822</v>
       </c>
       <c r="AG538" s="24">
-        <v>0.15</v>
+        <v>0.8</v>
       </c>
       <c r="AI538" s="23" t="s">
         <v>56</v>
@@ -80956,33 +81104,399 @@
         <v>2854</v>
       </c>
       <c r="AT538" s="23" t="s">
-        <v>2886</v>
+        <v>2873</v>
       </c>
       <c r="AU538" s="23" t="s">
         <v>2841</v>
       </c>
       <c r="AV538" s="23" t="s">
+        <v>2874</v>
+      </c>
+    </row>
+    <row r="539" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A539" s="21" t="s">
+        <v>1849</v>
+      </c>
+      <c r="B539" s="22" t="s">
+        <v>2823</v>
+      </c>
+      <c r="C539" s="23" t="s">
+        <v>2889</v>
+      </c>
+      <c r="D539" s="23">
+        <v>2026</v>
+      </c>
+      <c r="E539" s="23" t="s">
+        <v>2890</v>
+      </c>
+      <c r="F539" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="G539" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="H539" s="23" t="s">
+        <v>2891</v>
+      </c>
+      <c r="I539" s="23" t="s">
+        <v>407</v>
+      </c>
+      <c r="J539" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="K539" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="L539" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="M539" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="N539" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="O539" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="P539" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q539" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="R539" s="23" t="s">
+        <v>2892</v>
+      </c>
+      <c r="S539" s="24" t="s">
+        <v>2834</v>
+      </c>
+      <c r="T539" s="19">
+        <v>0</v>
+      </c>
+      <c r="U539" s="19" t="s">
+        <v>1824</v>
+      </c>
+      <c r="V539" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="W539" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="X539" s="23" t="s">
+        <v>266</v>
+      </c>
+      <c r="Y539" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z539" s="23" t="s">
+        <v>2877</v>
+      </c>
+      <c r="AA539" s="23" t="s">
+        <v>2878</v>
+      </c>
+      <c r="AB539" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC539" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD539" s="39" t="s">
+        <v>2489</v>
+      </c>
+      <c r="AE539" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF539" s="19" t="s">
+        <v>1822</v>
+      </c>
+      <c r="AG539" s="24">
+        <v>0.82</v>
+      </c>
+      <c r="AI539" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AN539" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ539" s="23" t="s">
+        <v>306</v>
+      </c>
+      <c r="AR539" s="23" t="s">
+        <v>2854</v>
+      </c>
+      <c r="AT539" s="23" t="s">
+        <v>2879</v>
+      </c>
+      <c r="AU539" s="23" t="s">
+        <v>2841</v>
+      </c>
+      <c r="AV539" s="23" t="s">
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="540" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A540" s="21" t="s">
+        <v>1849</v>
+      </c>
+      <c r="B540" s="22" t="s">
+        <v>2823</v>
+      </c>
+      <c r="C540" s="23" t="s">
+        <v>2889</v>
+      </c>
+      <c r="D540" s="23">
+        <v>2026</v>
+      </c>
+      <c r="E540" s="23" t="s">
+        <v>2890</v>
+      </c>
+      <c r="F540" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="G540" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="H540" s="23" t="s">
+        <v>2891</v>
+      </c>
+      <c r="I540" s="23" t="s">
+        <v>407</v>
+      </c>
+      <c r="J540" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="K540" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="L540" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="M540" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="N540" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="O540" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="P540" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q540" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="R540" s="23" t="s">
+        <v>2892</v>
+      </c>
+      <c r="S540" s="24" t="s">
+        <v>2835</v>
+      </c>
+      <c r="T540" s="19">
+        <v>0</v>
+      </c>
+      <c r="U540" s="19" t="s">
+        <v>1824</v>
+      </c>
+      <c r="V540" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="W540" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="X540" s="23" t="s">
+        <v>266</v>
+      </c>
+      <c r="Y540" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z540" s="23" t="s">
+        <v>2881</v>
+      </c>
+      <c r="AA540" s="23" t="s">
+        <v>2882</v>
+      </c>
+      <c r="AB540" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC540" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD540" s="39" t="s">
+        <v>2489</v>
+      </c>
+      <c r="AE540" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF540" s="19" t="s">
+        <v>1822</v>
+      </c>
+      <c r="AG540" s="24">
+        <v>0.65</v>
+      </c>
+      <c r="AI540" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AN540" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ540" s="23" t="s">
+        <v>306</v>
+      </c>
+      <c r="AR540" s="23" t="s">
+        <v>2854</v>
+      </c>
+      <c r="AT540" s="23" t="s">
+        <v>2883</v>
+      </c>
+      <c r="AU540" s="23" t="s">
+        <v>2841</v>
+      </c>
+      <c r="AV540" s="23" t="s">
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="541" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A541" s="21" t="s">
+        <v>1849</v>
+      </c>
+      <c r="B541" s="22" t="s">
+        <v>2823</v>
+      </c>
+      <c r="C541" s="23" t="s">
+        <v>2889</v>
+      </c>
+      <c r="D541" s="23">
+        <v>2026</v>
+      </c>
+      <c r="E541" s="23" t="s">
+        <v>2890</v>
+      </c>
+      <c r="F541" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="G541" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="H541" s="23" t="s">
+        <v>2891</v>
+      </c>
+      <c r="I541" s="23" t="s">
+        <v>407</v>
+      </c>
+      <c r="J541" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="K541" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="L541" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="M541" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="N541" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="O541" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="P541" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q541" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="R541" s="23" t="s">
+        <v>2892</v>
+      </c>
+      <c r="S541" s="24" t="s">
+        <v>2836</v>
+      </c>
+      <c r="T541" s="19">
+        <v>0</v>
+      </c>
+      <c r="U541" s="19" t="s">
+        <v>1824</v>
+      </c>
+      <c r="V541" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="W541" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="X541" s="23" t="s">
+        <v>266</v>
+      </c>
+      <c r="Y541" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z541" s="23" t="s">
+        <v>2884</v>
+      </c>
+      <c r="AA541" s="23" t="s">
+        <v>2885</v>
+      </c>
+      <c r="AB541" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC541" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD541" s="39" t="s">
+        <v>2489</v>
+      </c>
+      <c r="AE541" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF541" s="19" t="s">
+        <v>1822</v>
+      </c>
+      <c r="AG541" s="24">
+        <v>0.15</v>
+      </c>
+      <c r="AI541" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AN541" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ541" s="23" t="s">
+        <v>306</v>
+      </c>
+      <c r="AR541" s="23" t="s">
+        <v>2854</v>
+      </c>
+      <c r="AT541" s="23" t="s">
+        <v>2886</v>
+      </c>
+      <c r="AU541" s="23" t="s">
+        <v>2841</v>
+      </c>
+      <c r="AV541" s="23" t="s">
         <v>2887</v>
       </c>
     </row>
-    <row r="539" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A539" s="14" t="s">
+    <row r="542" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A542" s="14" t="s">
         <v>1849</v>
       </c>
-      <c r="B539" s="15" t="s">
+      <c r="B542" s="15" t="s">
         <v>2888</v>
       </c>
-      <c r="S539" s="17"/>
-      <c r="T539" s="19">
+      <c r="S542" s="17"/>
+      <c r="T542" s="19">
         <v>1</v>
       </c>
-      <c r="U539" s="19"/>
-      <c r="AB539" s="38"/>
-      <c r="AC539" s="38"/>
-      <c r="AD539" s="38"/>
-      <c r="AE539" s="38"/>
-      <c r="AF539" s="19"/>
-      <c r="AG539" s="17"/>
+      <c r="U542" s="19"/>
+      <c r="AB542" s="38"/>
+      <c r="AC542" s="38"/>
+      <c r="AD542" s="38"/>
+      <c r="AE542" s="38"/>
+      <c r="AF542" s="19"/>
+      <c r="AG542" s="17"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Data/coded-Dataset.xlsx
+++ b/Data/coded-Dataset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laura/Desktop/GITHUB-METAREVIEW/Meta-review-cognitive-profiles-ADHD-Dyslexia/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9E7A69D-9578-FE47-A457-99A6850B1AEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7D4AEF3-79B6-BD49-A670-AEFFDF30F28C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30240" yWindow="600" windowWidth="38400" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19443" uniqueCount="3020">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19712" uniqueCount="3042">
   <si>
     <t>ID_article</t>
   </si>
@@ -9104,6 +9104,72 @@
   </si>
   <si>
     <t>Table 1: k (samples)=4; n (effect sizes)=5.</t>
+  </si>
+  <si>
+    <t>2185_1</t>
+  </si>
+  <si>
+    <t>2185_2</t>
+  </si>
+  <si>
+    <t>2185_3</t>
+  </si>
+  <si>
+    <t>2185_4</t>
+  </si>
+  <si>
+    <t>2185_5</t>
+  </si>
+  <si>
+    <t>2185_6</t>
+  </si>
+  <si>
+    <t>2185_7</t>
+  </si>
+  <si>
+    <t>2185_8</t>
+  </si>
+  <si>
+    <t>Peng, P.; Wang, C.; Tao, S.; Sun, C.</t>
+  </si>
+  <si>
+    <t>The Deficit Profiles of Chinese Children with Reading Difficulties: a Meta-analysis</t>
+  </si>
+  <si>
+    <t>Educational Psychology Review</t>
+  </si>
+  <si>
+    <t>User-requested restriction applied: extracted ONLY the domain-level RD vs. A-TD pooled effects reported in the section 'The Deficit Profiles of RD as Compared to A-TD and R-TD' and in Fig. 1; all other protocol-relevant pooled effects elsewhere (e.g., domain subcomponents, moderators) were intentionally not extracted.; Domain mapping for 'Visual skills' is potentially ambiguous (could span multiple constructs); mapping recorded but should be treated cautiously.</t>
+  </si>
+  <si>
+    <t>Domain-level pooled estimates for RD vs. A-TD reported together (Fig. 1 / Deficit Profiles section). Likely overlapping underlying study pool across domains.</t>
+  </si>
+  <si>
+    <t>Egger test; funnel plot</t>
+  </si>
+  <si>
+    <t>Children (up to 16 years old per inclusion criteria)</t>
+  </si>
+  <si>
+    <t>RD vs. A-TD</t>
+  </si>
+  <si>
+    <t>Extracted from the paragraph under 'The Deficit Profiles of RD as Compared to A-TD and R-TD' and aligned with Fig. 1; RD vs. R-TD excluded by request.</t>
+  </si>
+  <si>
+    <t>Extracted from Deficit Profiles section and Fig. 1; RD vs. R-TD excluded by request.</t>
+  </si>
+  <si>
+    <t>Deterministic mapping applied: STM coded under Working memory (per dataset rule). Extracted from Deficit Profiles section and Fig. 1; RD vs. R-TD excluded by request.</t>
+  </si>
+  <si>
+    <t>Visual skills</t>
+  </si>
+  <si>
+    <t>Mapping to Perception/Visual perception is a best-fit interpretation based on the label 'visual skills' (domain is broad; may include heterogeneous tasks). Extracted from Deficit Profiles section and Fig. 1; RD vs. R-TD excluded by request.</t>
+  </si>
+  <si>
+    <t>Motor skills</t>
   </si>
 </sst>
 </file>
@@ -9639,11 +9705,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AW542"/>
+  <dimension ref="A1:AW549"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A496" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R531" sqref="R531"/>
+    <sheetView tabSelected="1" topLeftCell="Z1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A514" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AF553" sqref="AF553"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -81486,17 +81552,1006 @@
       <c r="B542" s="15" t="s">
         <v>2888</v>
       </c>
-      <c r="S542" s="17"/>
+      <c r="C542" s="16" t="s">
+        <v>3028</v>
+      </c>
+      <c r="D542" s="16">
+        <v>2017</v>
+      </c>
+      <c r="E542" s="16" t="s">
+        <v>3029</v>
+      </c>
+      <c r="F542" s="16" t="s">
+        <v>3030</v>
+      </c>
+      <c r="G542" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H542" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I542" s="16" t="s">
+        <v>816</v>
+      </c>
+      <c r="J542" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="K542" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="L542" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="M542" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="N542" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="O542" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="P542" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q542" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="R542" s="16" t="s">
+        <v>3031</v>
+      </c>
+      <c r="S542" s="17" t="s">
+        <v>3020</v>
+      </c>
       <c r="T542" s="19">
         <v>1</v>
       </c>
       <c r="U542" s="19"/>
-      <c r="AB542" s="38"/>
-      <c r="AC542" s="38"/>
+      <c r="V542" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="W542" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="X542" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y542" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z542" s="16" t="s">
+        <v>3032</v>
+      </c>
+      <c r="AA542" s="16" t="s">
+        <v>478</v>
+      </c>
+      <c r="AB542" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC542" s="38" t="s">
+        <v>478</v>
+      </c>
       <c r="AD542" s="38"/>
-      <c r="AE542" s="38"/>
+      <c r="AE542" s="38" t="s">
+        <v>54</v>
+      </c>
       <c r="AF542" s="19"/>
-      <c r="AG542" s="17"/>
+      <c r="AG542" s="17">
+        <v>-1.06</v>
+      </c>
+      <c r="AH542" s="16">
+        <v>0.125</v>
+      </c>
+      <c r="AI542" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ542" s="16">
+        <v>-1.31</v>
+      </c>
+      <c r="AK542" s="16">
+        <v>-0.82</v>
+      </c>
+      <c r="AL542" s="16">
+        <v>0.95</v>
+      </c>
+      <c r="AN542" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO542" s="16" t="s">
+        <v>3033</v>
+      </c>
+      <c r="AQ542" s="16" t="s">
+        <v>1831</v>
+      </c>
+      <c r="AR542" s="16" t="s">
+        <v>3034</v>
+      </c>
+      <c r="AU542" s="16" t="s">
+        <v>3035</v>
+      </c>
+      <c r="AV542" s="16" t="s">
+        <v>3036</v>
+      </c>
+    </row>
+    <row r="543" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A543" s="14" t="s">
+        <v>1849</v>
+      </c>
+      <c r="B543" s="15" t="s">
+        <v>2888</v>
+      </c>
+      <c r="C543" s="16" t="s">
+        <v>3028</v>
+      </c>
+      <c r="D543" s="16">
+        <v>2017</v>
+      </c>
+      <c r="E543" s="16" t="s">
+        <v>3029</v>
+      </c>
+      <c r="F543" s="16" t="s">
+        <v>3030</v>
+      </c>
+      <c r="G543" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H543" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I543" s="16" t="s">
+        <v>816</v>
+      </c>
+      <c r="J543" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="K543" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="L543" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="M543" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="N543" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="O543" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="P543" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q543" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="R543" s="16" t="s">
+        <v>3031</v>
+      </c>
+      <c r="S543" s="17" t="s">
+        <v>3021</v>
+      </c>
+      <c r="T543" s="19"/>
+      <c r="U543" s="19"/>
+      <c r="V543" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="W543" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="X543" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y543" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z543" s="16" t="s">
+        <v>3032</v>
+      </c>
+      <c r="AA543" s="16" t="s">
+        <v>910</v>
+      </c>
+      <c r="AB543" s="38" t="s">
+        <v>485</v>
+      </c>
+      <c r="AC543" s="38" t="s">
+        <v>485</v>
+      </c>
+      <c r="AD543" s="38"/>
+      <c r="AE543" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF543" s="19"/>
+      <c r="AG543" s="17">
+        <v>-1.17</v>
+      </c>
+      <c r="AH543" s="16">
+        <v>0.1352040816</v>
+      </c>
+      <c r="AI543" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ543" s="16">
+        <v>-1.44</v>
+      </c>
+      <c r="AK543" s="16">
+        <v>-0.91</v>
+      </c>
+      <c r="AL543" s="16">
+        <v>0.95</v>
+      </c>
+      <c r="AN543" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO543" s="16" t="s">
+        <v>3033</v>
+      </c>
+      <c r="AQ543" s="16" t="s">
+        <v>1831</v>
+      </c>
+      <c r="AR543" s="16" t="s">
+        <v>3034</v>
+      </c>
+      <c r="AU543" s="16" t="s">
+        <v>3035</v>
+      </c>
+      <c r="AV543" s="16" t="s">
+        <v>3037</v>
+      </c>
+    </row>
+    <row r="544" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A544" s="14" t="s">
+        <v>1849</v>
+      </c>
+      <c r="B544" s="15" t="s">
+        <v>2888</v>
+      </c>
+      <c r="C544" s="16" t="s">
+        <v>3028</v>
+      </c>
+      <c r="D544" s="16">
+        <v>2017</v>
+      </c>
+      <c r="E544" s="16" t="s">
+        <v>3029</v>
+      </c>
+      <c r="F544" s="16" t="s">
+        <v>3030</v>
+      </c>
+      <c r="G544" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H544" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I544" s="16" t="s">
+        <v>816</v>
+      </c>
+      <c r="J544" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="K544" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="L544" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="M544" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="N544" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="O544" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="P544" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q544" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="R544" s="16" t="s">
+        <v>3031</v>
+      </c>
+      <c r="S544" s="17" t="s">
+        <v>3022</v>
+      </c>
+      <c r="T544" s="19"/>
+      <c r="U544" s="19"/>
+      <c r="V544" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="W544" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="X544" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y544" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z544" s="16" t="s">
+        <v>3032</v>
+      </c>
+      <c r="AA544" s="16" t="s">
+        <v>493</v>
+      </c>
+      <c r="AB544" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC544" s="38" t="s">
+        <v>493</v>
+      </c>
+      <c r="AD544" s="38"/>
+      <c r="AE544" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF544" s="19"/>
+      <c r="AG544" s="17">
+        <v>-1.03</v>
+      </c>
+      <c r="AH544" s="16">
+        <v>0.26530612240000001</v>
+      </c>
+      <c r="AI544" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ544" s="16">
+        <v>-1.55</v>
+      </c>
+      <c r="AK544" s="16">
+        <v>-0.51</v>
+      </c>
+      <c r="AL544" s="16">
+        <v>0.95</v>
+      </c>
+      <c r="AN544" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO544" s="16" t="s">
+        <v>3033</v>
+      </c>
+      <c r="AQ544" s="16" t="s">
+        <v>1831</v>
+      </c>
+      <c r="AR544" s="16" t="s">
+        <v>3034</v>
+      </c>
+      <c r="AU544" s="16" t="s">
+        <v>3035</v>
+      </c>
+      <c r="AV544" s="16" t="s">
+        <v>3037</v>
+      </c>
+    </row>
+    <row r="545" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A545" s="14" t="s">
+        <v>1849</v>
+      </c>
+      <c r="B545" s="15" t="s">
+        <v>2888</v>
+      </c>
+      <c r="C545" s="16" t="s">
+        <v>3028</v>
+      </c>
+      <c r="D545" s="16">
+        <v>2017</v>
+      </c>
+      <c r="E545" s="16" t="s">
+        <v>3029</v>
+      </c>
+      <c r="F545" s="16" t="s">
+        <v>3030</v>
+      </c>
+      <c r="G545" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H545" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I545" s="16" t="s">
+        <v>816</v>
+      </c>
+      <c r="J545" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="K545" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="L545" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="M545" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="N545" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="O545" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="P545" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q545" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="R545" s="16" t="s">
+        <v>3031</v>
+      </c>
+      <c r="S545" s="17" t="s">
+        <v>3023</v>
+      </c>
+      <c r="T545" s="19"/>
+      <c r="U545" s="19"/>
+      <c r="V545" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="W545" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="X545" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y545" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z545" s="16" t="s">
+        <v>3032</v>
+      </c>
+      <c r="AA545" s="16" t="s">
+        <v>390</v>
+      </c>
+      <c r="AB545" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC545" s="38" t="s">
+        <v>390</v>
+      </c>
+      <c r="AD545" s="38"/>
+      <c r="AE545" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF545" s="19"/>
+      <c r="AG545" s="17">
+        <v>-1.2</v>
+      </c>
+      <c r="AH545" s="16">
+        <v>0.18367346940000001</v>
+      </c>
+      <c r="AI545" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ545" s="16">
+        <v>-1.56</v>
+      </c>
+      <c r="AK545" s="16">
+        <v>-0.84</v>
+      </c>
+      <c r="AL545" s="16">
+        <v>0.95</v>
+      </c>
+      <c r="AN545" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO545" s="16" t="s">
+        <v>3033</v>
+      </c>
+      <c r="AQ545" s="16" t="s">
+        <v>1831</v>
+      </c>
+      <c r="AR545" s="16" t="s">
+        <v>3034</v>
+      </c>
+      <c r="AU545" s="16" t="s">
+        <v>3035</v>
+      </c>
+      <c r="AV545" s="16" t="s">
+        <v>3037</v>
+      </c>
+    </row>
+    <row r="546" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A546" s="14" t="s">
+        <v>1849</v>
+      </c>
+      <c r="B546" s="15" t="s">
+        <v>2888</v>
+      </c>
+      <c r="C546" s="16" t="s">
+        <v>3028</v>
+      </c>
+      <c r="D546" s="16">
+        <v>2017</v>
+      </c>
+      <c r="E546" s="16" t="s">
+        <v>3029</v>
+      </c>
+      <c r="F546" s="16" t="s">
+        <v>3030</v>
+      </c>
+      <c r="G546" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H546" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I546" s="16" t="s">
+        <v>816</v>
+      </c>
+      <c r="J546" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="K546" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="L546" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="M546" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="N546" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="O546" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="P546" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q546" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="R546" s="16" t="s">
+        <v>3031</v>
+      </c>
+      <c r="S546" s="17" t="s">
+        <v>3024</v>
+      </c>
+      <c r="T546" s="19"/>
+      <c r="U546" s="19"/>
+      <c r="V546" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="W546" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="X546" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y546" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z546" s="16" t="s">
+        <v>3032</v>
+      </c>
+      <c r="AA546" s="16" t="s">
+        <v>927</v>
+      </c>
+      <c r="AB546" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="AC546" s="38" t="s">
+        <v>1825</v>
+      </c>
+      <c r="AD546" s="38"/>
+      <c r="AE546" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF546" s="19"/>
+      <c r="AG546" s="17">
+        <v>-0.71</v>
+      </c>
+      <c r="AH546" s="16">
+        <v>6.3775510199999996E-2</v>
+      </c>
+      <c r="AI546" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ546" s="16">
+        <v>-0.84</v>
+      </c>
+      <c r="AK546" s="16">
+        <v>-0.59</v>
+      </c>
+      <c r="AL546" s="16">
+        <v>0.95</v>
+      </c>
+      <c r="AN546" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO546" s="16" t="s">
+        <v>3033</v>
+      </c>
+      <c r="AQ546" s="16" t="s">
+        <v>1831</v>
+      </c>
+      <c r="AR546" s="16" t="s">
+        <v>3034</v>
+      </c>
+      <c r="AU546" s="16" t="s">
+        <v>3035</v>
+      </c>
+      <c r="AV546" s="16" t="s">
+        <v>3038</v>
+      </c>
+    </row>
+    <row r="547" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A547" s="14" t="s">
+        <v>1849</v>
+      </c>
+      <c r="B547" s="15" t="s">
+        <v>2888</v>
+      </c>
+      <c r="C547" s="16" t="s">
+        <v>3028</v>
+      </c>
+      <c r="D547" s="16">
+        <v>2017</v>
+      </c>
+      <c r="E547" s="16" t="s">
+        <v>3029</v>
+      </c>
+      <c r="F547" s="16" t="s">
+        <v>3030</v>
+      </c>
+      <c r="G547" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H547" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I547" s="16" t="s">
+        <v>816</v>
+      </c>
+      <c r="J547" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="K547" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="L547" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="M547" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="N547" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="O547" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="P547" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q547" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="R547" s="16" t="s">
+        <v>3031</v>
+      </c>
+      <c r="S547" s="17" t="s">
+        <v>3025</v>
+      </c>
+      <c r="T547" s="19"/>
+      <c r="U547" s="19"/>
+      <c r="V547" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="W547" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="X547" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y547" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z547" s="16" t="s">
+        <v>3032</v>
+      </c>
+      <c r="AA547" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="AB547" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="AC547" s="38" t="s">
+        <v>1825</v>
+      </c>
+      <c r="AD547" s="38"/>
+      <c r="AE547" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF547" s="19"/>
+      <c r="AG547" s="17">
+        <v>-1.18</v>
+      </c>
+      <c r="AH547" s="16">
+        <v>0.14030612240000001</v>
+      </c>
+      <c r="AI547" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ547" s="16">
+        <v>-1.46</v>
+      </c>
+      <c r="AK547" s="16">
+        <v>-0.91</v>
+      </c>
+      <c r="AL547" s="16">
+        <v>0.95</v>
+      </c>
+      <c r="AN547" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO547" s="16" t="s">
+        <v>3033</v>
+      </c>
+      <c r="AQ547" s="16" t="s">
+        <v>1831</v>
+      </c>
+      <c r="AR547" s="16" t="s">
+        <v>3034</v>
+      </c>
+      <c r="AU547" s="16" t="s">
+        <v>3035</v>
+      </c>
+      <c r="AV547" s="16" t="s">
+        <v>3037</v>
+      </c>
+    </row>
+    <row r="548" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A548" s="14" t="s">
+        <v>1849</v>
+      </c>
+      <c r="B548" s="15" t="s">
+        <v>2888</v>
+      </c>
+      <c r="C548" s="16" t="s">
+        <v>3028</v>
+      </c>
+      <c r="D548" s="16">
+        <v>2017</v>
+      </c>
+      <c r="E548" s="16" t="s">
+        <v>3029</v>
+      </c>
+      <c r="F548" s="16" t="s">
+        <v>3030</v>
+      </c>
+      <c r="G548" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H548" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I548" s="16" t="s">
+        <v>816</v>
+      </c>
+      <c r="J548" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="K548" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="L548" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="M548" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="N548" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="O548" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="P548" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q548" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="R548" s="16" t="s">
+        <v>3031</v>
+      </c>
+      <c r="S548" s="17" t="s">
+        <v>3026</v>
+      </c>
+      <c r="T548" s="19"/>
+      <c r="U548" s="19"/>
+      <c r="V548" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="W548" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="X548" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y548" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z548" s="16" t="s">
+        <v>3032</v>
+      </c>
+      <c r="AA548" s="16" t="s">
+        <v>3039</v>
+      </c>
+      <c r="AB548" s="38" t="s">
+        <v>1846</v>
+      </c>
+      <c r="AC548" s="38" t="s">
+        <v>1848</v>
+      </c>
+      <c r="AD548" s="38"/>
+      <c r="AE548" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF548" s="19"/>
+      <c r="AG548" s="17">
+        <v>-0.86</v>
+      </c>
+      <c r="AH548" s="16">
+        <v>0.14030612240000001</v>
+      </c>
+      <c r="AI548" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ548" s="16">
+        <v>-1.1399999999999999</v>
+      </c>
+      <c r="AK548" s="16">
+        <v>-0.59</v>
+      </c>
+      <c r="AL548" s="16">
+        <v>0.95</v>
+      </c>
+      <c r="AN548" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO548" s="16" t="s">
+        <v>3033</v>
+      </c>
+      <c r="AQ548" s="16" t="s">
+        <v>1831</v>
+      </c>
+      <c r="AR548" s="16" t="s">
+        <v>3034</v>
+      </c>
+      <c r="AU548" s="16" t="s">
+        <v>3035</v>
+      </c>
+      <c r="AV548" s="16" t="s">
+        <v>3040</v>
+      </c>
+    </row>
+    <row r="549" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A549" s="14" t="s">
+        <v>1849</v>
+      </c>
+      <c r="B549" s="15" t="s">
+        <v>2888</v>
+      </c>
+      <c r="C549" s="16" t="s">
+        <v>3028</v>
+      </c>
+      <c r="D549" s="16">
+        <v>2017</v>
+      </c>
+      <c r="E549" s="16" t="s">
+        <v>3029</v>
+      </c>
+      <c r="F549" s="16" t="s">
+        <v>3030</v>
+      </c>
+      <c r="G549" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H549" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I549" s="16" t="s">
+        <v>816</v>
+      </c>
+      <c r="J549" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="K549" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="L549" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="M549" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="N549" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="O549" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="P549" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q549" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="R549" s="16" t="s">
+        <v>3031</v>
+      </c>
+      <c r="S549" s="17" t="s">
+        <v>3027</v>
+      </c>
+      <c r="T549" s="19"/>
+      <c r="U549" s="19"/>
+      <c r="V549" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="W549" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="X549" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y549" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z549" s="16" t="s">
+        <v>3032</v>
+      </c>
+      <c r="AA549" s="16" t="s">
+        <v>3041</v>
+      </c>
+      <c r="AB549" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="AC549" s="38"/>
+      <c r="AD549" s="38"/>
+      <c r="AE549" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF549" s="19"/>
+      <c r="AG549" s="17">
+        <v>-0.54</v>
+      </c>
+      <c r="AH549" s="16">
+        <v>6.6326530600000003E-2</v>
+      </c>
+      <c r="AI549" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ549" s="16">
+        <v>-0.67</v>
+      </c>
+      <c r="AK549" s="16">
+        <v>-0.41</v>
+      </c>
+      <c r="AL549" s="16">
+        <v>0.95</v>
+      </c>
+      <c r="AN549" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO549" s="16" t="s">
+        <v>3033</v>
+      </c>
+      <c r="AQ549" s="16" t="s">
+        <v>1831</v>
+      </c>
+      <c r="AR549" s="16" t="s">
+        <v>3034</v>
+      </c>
+      <c r="AU549" s="16" t="s">
+        <v>3035</v>
+      </c>
+      <c r="AV549" s="16" t="s">
+        <v>3037</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Data/coded-Dataset.xlsx
+++ b/Data/coded-Dataset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laura/Desktop/GITHUB-METAREVIEW/Meta-review-cognitive-profiles-ADHD-Dyslexia/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7D4AEF3-79B6-BD49-A670-AEFFDF30F28C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4A856A7-2981-0E4D-893D-5ED91524CB73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30240" yWindow="600" windowWidth="38400" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30240" yWindow="600" windowWidth="38400" windowHeight="19220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="effect_sizes" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19712" uniqueCount="3042">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19784" uniqueCount="3061">
   <si>
     <t>ID_article</t>
   </si>
@@ -9170,6 +9170,63 @@
   </si>
   <si>
     <t>Motor skills</t>
+  </si>
+  <si>
+    <t>2193</t>
+  </si>
+  <si>
+    <t>2193_1</t>
+  </si>
+  <si>
+    <t>2193_2</t>
+  </si>
+  <si>
+    <t>Visuo-spatial working memory pooled effects. Row 2 is a subset analysis excluding Chinese-speaker studies and likely overlaps strongly with Row 1.</t>
+  </si>
+  <si>
+    <t>Visuo-spatial working memory (VSWM)</t>
+  </si>
+  <si>
+    <t>No publication bias detected (funnel plot).</t>
+  </si>
+  <si>
+    <t>Participants in the original study should be under 18.</t>
+  </si>
+  <si>
+    <t>Total DD=517; Total TD=652.</t>
+  </si>
+  <si>
+    <t>Subset analysis excluding Chinese-speaker studies; likely overlaps with the main study pool.</t>
+  </si>
+  <si>
+    <t>Visuo-spatial working memory (except for Chinese speakers)</t>
+  </si>
+  <si>
+    <t>Total DD=456; Total TD=592.</t>
+  </si>
+  <si>
+    <t>DD vs TD (excluding Chinese speakers)</t>
+  </si>
+  <si>
+    <t>&gt; 18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pooled effect reported as 'OR' in Results, but forest plot header is 'Std. Mean Difference' (Figure 2, p. 299) and Methods state Hedge’s g; Tau derived as sqrt(Tau2=0.16). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Subset analysis described as removing the two Chinese studies (Figure 4, p. 300). Pooled effect again labelled 'OR' in text; Tau derived as sqrt(Tau2=0.18). </t>
+  </si>
+  <si>
+    <t>Du, Y.;  Zhang, C.</t>
+  </si>
+  <si>
+    <t>The Deficit in Visuo-spatial Working Memory in Dyslexic Population? A Systemic Review and Meta-analysis</t>
+  </si>
+  <si>
+    <t>International Journal on Social and Education Sciences (IJonSES)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Results text labels the pooled effect size as 'OR', while the forest plots are headed 'Std. Mean Difference' and Methods state Hedge’s g; coded as Hedges g (note in Notes).; Sensitivity analysis states Attree (2009) was removed, but Attree (2009) still appears in the forest plots with 0.0% weight; whether it contributed is unclear.; No other protocol-relevant cognitive domains beyond visuo-spatial working memory were meta-analyzed; only the two pooled estimates reported in Figures 2 and 4 were extracted. </t>
   </si>
 </sst>
 </file>
@@ -9705,11 +9762,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AW549"/>
+  <dimension ref="A1:AW551"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A514" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AF553" sqref="AF553"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A519" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H555" sqref="H555"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -82553,6 +82610,282 @@
         <v>3037</v>
       </c>
     </row>
+    <row r="550" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A550" s="21" t="s">
+        <v>1849</v>
+      </c>
+      <c r="B550" s="22" t="s">
+        <v>3042</v>
+      </c>
+      <c r="C550" s="23" t="s">
+        <v>3057</v>
+      </c>
+      <c r="D550" s="23">
+        <v>2023</v>
+      </c>
+      <c r="E550" s="23" t="s">
+        <v>3058</v>
+      </c>
+      <c r="F550" s="23" t="s">
+        <v>3059</v>
+      </c>
+      <c r="G550" s="23" t="s">
+        <v>645</v>
+      </c>
+      <c r="H550" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="I550" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="J550" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="K550" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="L550" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="M550" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="N550" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="O550" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="P550" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q550" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="R550" s="23" t="s">
+        <v>3060</v>
+      </c>
+      <c r="S550" s="24" t="s">
+        <v>3043</v>
+      </c>
+      <c r="T550" s="19"/>
+      <c r="U550" s="19"/>
+      <c r="V550" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="W550" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="X550" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y550" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z550" s="23" t="s">
+        <v>3045</v>
+      </c>
+      <c r="AA550" s="23" t="s">
+        <v>3046</v>
+      </c>
+      <c r="AB550" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="AC550" s="39" t="s">
+        <v>1827</v>
+      </c>
+      <c r="AD550" s="39"/>
+      <c r="AE550" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF550" s="19"/>
+      <c r="AG550" s="24">
+        <v>-0.33</v>
+      </c>
+      <c r="AH550" s="23">
+        <v>0.1198979592</v>
+      </c>
+      <c r="AI550" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ550" s="23">
+        <v>-0.56999999999999995</v>
+      </c>
+      <c r="AK550" s="23">
+        <v>-0.1</v>
+      </c>
+      <c r="AL550" s="23">
+        <v>0.95</v>
+      </c>
+      <c r="AM550" s="23">
+        <v>0.4</v>
+      </c>
+      <c r="AN550" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="AO550" s="23" t="s">
+        <v>3047</v>
+      </c>
+      <c r="AP550" s="23" t="s">
+        <v>3054</v>
+      </c>
+      <c r="AQ550" s="23" t="s">
+        <v>1831</v>
+      </c>
+      <c r="AR550" s="23" t="s">
+        <v>3048</v>
+      </c>
+      <c r="AS550" s="23">
+        <v>16</v>
+      </c>
+      <c r="AT550" s="23" t="s">
+        <v>3049</v>
+      </c>
+      <c r="AU550" s="23" t="s">
+        <v>1952</v>
+      </c>
+      <c r="AV550" s="23" t="s">
+        <v>3055</v>
+      </c>
+    </row>
+    <row r="551" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A551" s="21" t="s">
+        <v>1849</v>
+      </c>
+      <c r="B551" s="22" t="s">
+        <v>3042</v>
+      </c>
+      <c r="C551" s="23" t="s">
+        <v>3057</v>
+      </c>
+      <c r="D551" s="23">
+        <v>2023</v>
+      </c>
+      <c r="E551" s="23" t="s">
+        <v>3058</v>
+      </c>
+      <c r="F551" s="23" t="s">
+        <v>3059</v>
+      </c>
+      <c r="G551" s="23" t="s">
+        <v>645</v>
+      </c>
+      <c r="H551" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="I551" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="J551" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="K551" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="L551" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="M551" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="N551" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="O551" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="P551" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q551" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="R551" s="23" t="s">
+        <v>3060</v>
+      </c>
+      <c r="S551" s="24" t="s">
+        <v>3044</v>
+      </c>
+      <c r="T551" s="19"/>
+      <c r="U551" s="19"/>
+      <c r="V551" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="W551" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="X551" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y551" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z551" s="23" t="s">
+        <v>3050</v>
+      </c>
+      <c r="AA551" s="23" t="s">
+        <v>3051</v>
+      </c>
+      <c r="AB551" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="AC551" s="39" t="s">
+        <v>1827</v>
+      </c>
+      <c r="AD551" s="39"/>
+      <c r="AE551" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF551" s="19"/>
+      <c r="AG551" s="24">
+        <v>-0.33</v>
+      </c>
+      <c r="AH551" s="23">
+        <v>0.1352040816</v>
+      </c>
+      <c r="AI551" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ551" s="23">
+        <v>-0.6</v>
+      </c>
+      <c r="AK551" s="23">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="AL551" s="23">
+        <v>0.95</v>
+      </c>
+      <c r="AM551" s="23">
+        <v>0.4242640687</v>
+      </c>
+      <c r="AN551" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="AO551" s="23" t="s">
+        <v>3047</v>
+      </c>
+      <c r="AP551" s="23" t="s">
+        <v>3054</v>
+      </c>
+      <c r="AQ551" s="23" t="s">
+        <v>1831</v>
+      </c>
+      <c r="AR551" s="23" t="s">
+        <v>3048</v>
+      </c>
+      <c r="AS551" s="23">
+        <v>14</v>
+      </c>
+      <c r="AT551" s="23" t="s">
+        <v>3052</v>
+      </c>
+      <c r="AU551" s="23" t="s">
+        <v>3053</v>
+      </c>
+      <c r="AV551" s="23" t="s">
+        <v>3056</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Data/coded-Dataset.xlsx
+++ b/Data/coded-Dataset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laura/Desktop/GITHUB-METAREVIEW/Meta-review-cognitive-profiles-ADHD-Dyslexia/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4A856A7-2981-0E4D-893D-5ED91524CB73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBCE3A14-620E-1E43-8BFD-88F699A54C39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30240" yWindow="600" windowWidth="38400" windowHeight="19220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19784" uniqueCount="3061">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19948" uniqueCount="3087">
   <si>
     <t>ID_article</t>
   </si>
@@ -9227,6 +9227,84 @@
   </si>
   <si>
     <t xml:space="preserve">The Results text labels the pooled effect size as 'OR', while the forest plots are headed 'Std. Mean Difference' and Methods state Hedge’s g; coded as Hedges g (note in Notes).; Sensitivity analysis states Attree (2009) was removed, but Attree (2009) still appears in the forest plots with 0.0% weight; whether it contributed is unclear.; No other protocol-relevant cognitive domains beyond visuo-spatial working memory were meta-analyzed; only the two pooled estimates reported in Figures 2 and 4 were extracted. </t>
+  </si>
+  <si>
+    <t>2197</t>
+  </si>
+  <si>
+    <t>2197_1</t>
+  </si>
+  <si>
+    <t>2197_2</t>
+  </si>
+  <si>
+    <t>2197_3</t>
+  </si>
+  <si>
+    <t>2197_4</t>
+  </si>
+  <si>
+    <t>2197_5</t>
+  </si>
+  <si>
+    <t>Working Memory and Manual Dexterity in Dyslexic Children: A Systematic Review and Meta-Analysis</t>
+  </si>
+  <si>
+    <t>Egger; Begg</t>
+  </si>
+  <si>
+    <t>Working memory meta-analyses (visuospatial and verbal) reported separately; underlying study pools appear related but not explicitly stated as identical.</t>
+  </si>
+  <si>
+    <t>6–16 years</t>
+  </si>
+  <si>
+    <t>children aged 6–16 years old</t>
+  </si>
+  <si>
+    <t>total sample size = 994 participants</t>
+  </si>
+  <si>
+    <t>Developmental dyslexia vs typical developmental group</t>
+  </si>
+  <si>
+    <t>Paper also reports pooled comparisons vs 'different comorbidities' groups for this outcome; those are excluded here because comparator is non-healthy. Effect size computation described as Hedges’ g; figure captions also refer to SMD. :contentReference[oaicite:0]{index=0}</t>
+  </si>
+  <si>
+    <t>total sample size = 449 participants</t>
+  </si>
+  <si>
+    <t>Manual dexterity meta-analyses reported separately (fine motor skills, handwriting, manual motor speed); study pools may partially overlap across these outcomes.</t>
+  </si>
+  <si>
+    <t>Fine motor skills</t>
+  </si>
+  <si>
+    <t>total sample size = 232 participants</t>
+  </si>
+  <si>
+    <t>Paper also reports a pooled comparison involving a 'different comorbidity group' for fine motor skills; excluded here because comparator is non-healthy. Effect size computation described as Hedges’ g; figure captions also refer to SMD. :contentReference[oaicite:0]{index=0}</t>
+  </si>
+  <si>
+    <t>Handwriting</t>
+  </si>
+  <si>
+    <t>No publication bias observed (Egger’s and Begg’s tests).</t>
+  </si>
+  <si>
+    <t>total sample size = 947 participants</t>
+  </si>
+  <si>
+    <t>Paper also reports pooled comparisons vs 'different comorbidities' groups for handwriting; those are excluded here because comparator is non-healthy. Effect size computation described as Hedges’ g; figure captions also refer to SMD. :contentReference[oaicite:0]{index=0}</t>
+  </si>
+  <si>
+    <t>Manual motor speed</t>
+  </si>
+  <si>
+    <t>total sample size = 1203 participants</t>
+  </si>
+  <si>
+    <t>Paper also reports a pooled comparison vs 'different comorbidities' groups for manual motor speed; excluded here because comparator is non-healthy. Effect size computation described as Hedges’ g; figure captions also refer to SMD. :contentReference[oaicite:0]{index=0}</t>
   </si>
 </sst>
 </file>
@@ -9762,11 +9840,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AW551"/>
+  <dimension ref="A1:AW556"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A519" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H555" sqref="H555"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A520" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R554" sqref="R554"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -81982,7 +82060,7 @@
         <v>3037</v>
       </c>
     </row>
-    <row r="545" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:49" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A545" s="14" t="s">
         <v>1849</v>
       </c>
@@ -82108,7 +82186,7 @@
         <v>3037</v>
       </c>
     </row>
-    <row r="546" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:49" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A546" s="14" t="s">
         <v>1849</v>
       </c>
@@ -82234,7 +82312,7 @@
         <v>3038</v>
       </c>
     </row>
-    <row r="547" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:49" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A547" s="14" t="s">
         <v>1849</v>
       </c>
@@ -82360,7 +82438,7 @@
         <v>3037</v>
       </c>
     </row>
-    <row r="548" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:49" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A548" s="14" t="s">
         <v>1849</v>
       </c>
@@ -82486,7 +82564,7 @@
         <v>3040</v>
       </c>
     </row>
-    <row r="549" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:49" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A549" s="14" t="s">
         <v>1849</v>
       </c>
@@ -82610,7 +82688,7 @@
         <v>3037</v>
       </c>
     </row>
-    <row r="550" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:49" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A550" s="21" t="s">
         <v>1849</v>
       </c>
@@ -82748,7 +82826,7 @@
         <v>3055</v>
       </c>
     </row>
-    <row r="551" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:49" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A551" s="21" t="s">
         <v>1849</v>
       </c>
@@ -82884,6 +82962,639 @@
       </c>
       <c r="AV551" s="23" t="s">
         <v>3056</v>
+      </c>
+    </row>
+    <row r="552" spans="1:49" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A552" s="14" t="s">
+        <v>1849</v>
+      </c>
+      <c r="B552" s="15" t="s">
+        <v>3061</v>
+      </c>
+      <c r="D552" s="16">
+        <v>2023</v>
+      </c>
+      <c r="E552" s="16" t="s">
+        <v>3067</v>
+      </c>
+      <c r="F552" s="16" t="s">
+        <v>319</v>
+      </c>
+      <c r="G552" s="16" t="s">
+        <v>3068</v>
+      </c>
+      <c r="H552" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="I552" s="16" t="s">
+        <v>441</v>
+      </c>
+      <c r="J552" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="K552" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="L552" s="16" t="s">
+        <v>769</v>
+      </c>
+      <c r="M552" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="N552" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="O552" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="P552" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q552" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="S552" s="17" t="s">
+        <v>3062</v>
+      </c>
+      <c r="T552" s="19"/>
+      <c r="U552" s="19"/>
+      <c r="V552" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="W552" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="X552" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y552" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z552" s="16" t="s">
+        <v>3069</v>
+      </c>
+      <c r="AA552" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="AB552" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="AC552" s="38" t="s">
+        <v>1827</v>
+      </c>
+      <c r="AD552" s="38"/>
+      <c r="AE552" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF552" s="17"/>
+      <c r="AG552" s="17">
+        <v>-0.61</v>
+      </c>
+      <c r="AH552" s="16">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="AI552" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ552" s="16">
+        <v>-0.87</v>
+      </c>
+      <c r="AK552" s="16">
+        <v>-0.35</v>
+      </c>
+      <c r="AL552" s="16">
+        <v>0.95</v>
+      </c>
+      <c r="AN552" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP552" s="16" t="s">
+        <v>3070</v>
+      </c>
+      <c r="AQ552" s="16" t="s">
+        <v>1831</v>
+      </c>
+      <c r="AR552" s="16" t="s">
+        <v>3071</v>
+      </c>
+      <c r="AS552" s="16">
+        <v>7</v>
+      </c>
+      <c r="AT552" s="16" t="s">
+        <v>3072</v>
+      </c>
+      <c r="AU552" s="16" t="s">
+        <v>3073</v>
+      </c>
+      <c r="AV552" s="16" t="s">
+        <v>3074</v>
+      </c>
+    </row>
+    <row r="553" spans="1:49" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A553" s="14" t="s">
+        <v>1849</v>
+      </c>
+      <c r="B553" s="15" t="s">
+        <v>3061</v>
+      </c>
+      <c r="D553" s="16">
+        <v>2023</v>
+      </c>
+      <c r="E553" s="16" t="s">
+        <v>3067</v>
+      </c>
+      <c r="F553" s="16" t="s">
+        <v>319</v>
+      </c>
+      <c r="G553" s="16" t="s">
+        <v>3068</v>
+      </c>
+      <c r="H553" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="I553" s="16" t="s">
+        <v>441</v>
+      </c>
+      <c r="J553" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="K553" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="L553" s="16" t="s">
+        <v>769</v>
+      </c>
+      <c r="M553" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="N553" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="O553" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="P553" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q553" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="S553" s="17" t="s">
+        <v>3063</v>
+      </c>
+      <c r="T553" s="19"/>
+      <c r="U553" s="19"/>
+      <c r="V553" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="W553" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="X553" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y553" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z553" s="16" t="s">
+        <v>3069</v>
+      </c>
+      <c r="AA553" s="16" t="s">
+        <v>2964</v>
+      </c>
+      <c r="AB553" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="AC553" s="38" t="s">
+        <v>1826</v>
+      </c>
+      <c r="AD553" s="38"/>
+      <c r="AE553" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF553" s="17"/>
+      <c r="AG553" s="17">
+        <v>-0.83</v>
+      </c>
+      <c r="AH553" s="16">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="AI553" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ553" s="16">
+        <v>-1.03</v>
+      </c>
+      <c r="AK553" s="16">
+        <v>-0.63</v>
+      </c>
+      <c r="AL553" s="16">
+        <v>0.95</v>
+      </c>
+      <c r="AN553" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP553" s="16" t="s">
+        <v>3070</v>
+      </c>
+      <c r="AQ553" s="16" t="s">
+        <v>1831</v>
+      </c>
+      <c r="AR553" s="16" t="s">
+        <v>3071</v>
+      </c>
+      <c r="AS553" s="16">
+        <v>7</v>
+      </c>
+      <c r="AT553" s="16" t="s">
+        <v>3075</v>
+      </c>
+      <c r="AU553" s="16" t="s">
+        <v>3073</v>
+      </c>
+      <c r="AV553" s="16" t="s">
+        <v>3074</v>
+      </c>
+    </row>
+    <row r="554" spans="1:49" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A554" s="14" t="s">
+        <v>1849</v>
+      </c>
+      <c r="B554" s="15" t="s">
+        <v>3061</v>
+      </c>
+      <c r="D554" s="16">
+        <v>2023</v>
+      </c>
+      <c r="E554" s="16" t="s">
+        <v>3067</v>
+      </c>
+      <c r="F554" s="16" t="s">
+        <v>319</v>
+      </c>
+      <c r="G554" s="16" t="s">
+        <v>3068</v>
+      </c>
+      <c r="H554" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="I554" s="16" t="s">
+        <v>441</v>
+      </c>
+      <c r="J554" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="K554" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="L554" s="16" t="s">
+        <v>769</v>
+      </c>
+      <c r="M554" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="N554" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="O554" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="P554" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q554" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="S554" s="17" t="s">
+        <v>3064</v>
+      </c>
+      <c r="T554" s="19"/>
+      <c r="U554" s="19"/>
+      <c r="V554" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="W554" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="X554" s="16" t="s">
+        <v>266</v>
+      </c>
+      <c r="Y554" s="16" t="s">
+        <v>351</v>
+      </c>
+      <c r="Z554" s="16" t="s">
+        <v>3076</v>
+      </c>
+      <c r="AA554" s="16" t="s">
+        <v>3077</v>
+      </c>
+      <c r="AB554" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="AC554" s="38"/>
+      <c r="AD554" s="38"/>
+      <c r="AE554" s="38"/>
+      <c r="AF554" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG554" s="17"/>
+      <c r="AH554" s="16">
+        <v>0.02</v>
+      </c>
+      <c r="AI554" s="16">
+        <v>0.26300000000000001</v>
+      </c>
+      <c r="AJ554" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK554" s="16">
+        <v>-0.5</v>
+      </c>
+      <c r="AL554" s="16">
+        <v>0.53</v>
+      </c>
+      <c r="AM554" s="16">
+        <v>0.95</v>
+      </c>
+      <c r="AO554" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ554" s="16" t="s">
+        <v>3070</v>
+      </c>
+      <c r="AR554" s="16" t="s">
+        <v>1831</v>
+      </c>
+      <c r="AS554" s="16" t="s">
+        <v>3071</v>
+      </c>
+      <c r="AT554" s="16">
+        <v>4</v>
+      </c>
+      <c r="AU554" s="16" t="s">
+        <v>3078</v>
+      </c>
+      <c r="AV554" s="16" t="s">
+        <v>3073</v>
+      </c>
+      <c r="AW554" s="16" t="s">
+        <v>3079</v>
+      </c>
+    </row>
+    <row r="555" spans="1:49" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A555" s="14" t="s">
+        <v>1849</v>
+      </c>
+      <c r="B555" s="15" t="s">
+        <v>3061</v>
+      </c>
+      <c r="D555" s="16">
+        <v>2023</v>
+      </c>
+      <c r="E555" s="16" t="s">
+        <v>3067</v>
+      </c>
+      <c r="F555" s="16" t="s">
+        <v>319</v>
+      </c>
+      <c r="G555" s="16" t="s">
+        <v>3068</v>
+      </c>
+      <c r="H555" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="I555" s="16" t="s">
+        <v>441</v>
+      </c>
+      <c r="J555" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="K555" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="L555" s="16" t="s">
+        <v>769</v>
+      </c>
+      <c r="M555" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="N555" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="O555" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="P555" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q555" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="S555" s="17" t="s">
+        <v>3065</v>
+      </c>
+      <c r="T555" s="19"/>
+      <c r="U555" s="19"/>
+      <c r="V555" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="W555" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="X555" s="16" t="s">
+        <v>266</v>
+      </c>
+      <c r="Y555" s="16" t="s">
+        <v>351</v>
+      </c>
+      <c r="Z555" s="16" t="s">
+        <v>3076</v>
+      </c>
+      <c r="AA555" s="16" t="s">
+        <v>3080</v>
+      </c>
+      <c r="AB555" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="AC555" s="38"/>
+      <c r="AD555" s="38"/>
+      <c r="AE555" s="38"/>
+      <c r="AF555" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG555" s="17"/>
+      <c r="AH555" s="16">
+        <v>-0.22</v>
+      </c>
+      <c r="AI555" s="16">
+        <v>0.158</v>
+      </c>
+      <c r="AJ555" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK555" s="16">
+        <v>-0.53</v>
+      </c>
+      <c r="AL555" s="16">
+        <v>0.09</v>
+      </c>
+      <c r="AM555" s="16">
+        <v>0.95</v>
+      </c>
+      <c r="AO555" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP555" s="16" t="s">
+        <v>3081</v>
+      </c>
+      <c r="AQ555" s="16" t="s">
+        <v>3070</v>
+      </c>
+      <c r="AR555" s="16" t="s">
+        <v>1831</v>
+      </c>
+      <c r="AS555" s="16" t="s">
+        <v>3071</v>
+      </c>
+      <c r="AT555" s="16">
+        <v>8</v>
+      </c>
+      <c r="AU555" s="16" t="s">
+        <v>3082</v>
+      </c>
+      <c r="AV555" s="16" t="s">
+        <v>3073</v>
+      </c>
+      <c r="AW555" s="16" t="s">
+        <v>3083</v>
+      </c>
+    </row>
+    <row r="556" spans="1:49" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A556" s="14" t="s">
+        <v>1849</v>
+      </c>
+      <c r="B556" s="15" t="s">
+        <v>3061</v>
+      </c>
+      <c r="D556" s="16">
+        <v>2023</v>
+      </c>
+      <c r="E556" s="16" t="s">
+        <v>3067</v>
+      </c>
+      <c r="F556" s="16" t="s">
+        <v>319</v>
+      </c>
+      <c r="G556" s="16" t="s">
+        <v>3068</v>
+      </c>
+      <c r="H556" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="I556" s="16" t="s">
+        <v>441</v>
+      </c>
+      <c r="J556" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="K556" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="L556" s="16" t="s">
+        <v>769</v>
+      </c>
+      <c r="M556" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="N556" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="O556" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="P556" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q556" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="S556" s="17" t="s">
+        <v>3066</v>
+      </c>
+      <c r="T556" s="19"/>
+      <c r="U556" s="19"/>
+      <c r="V556" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="W556" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="X556" s="16" t="s">
+        <v>266</v>
+      </c>
+      <c r="Y556" s="16" t="s">
+        <v>351</v>
+      </c>
+      <c r="Z556" s="16" t="s">
+        <v>3076</v>
+      </c>
+      <c r="AA556" s="16" t="s">
+        <v>3084</v>
+      </c>
+      <c r="AB556" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="AC556" s="38"/>
+      <c r="AD556" s="38"/>
+      <c r="AE556" s="38"/>
+      <c r="AF556" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG556" s="17"/>
+      <c r="AH556" s="16">
+        <v>0.17</v>
+      </c>
+      <c r="AI556" s="16">
+        <v>0.23200000000000001</v>
+      </c>
+      <c r="AJ556" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK556" s="16">
+        <v>-0.28000000000000003</v>
+      </c>
+      <c r="AL556" s="16">
+        <v>0.63</v>
+      </c>
+      <c r="AM556" s="16">
+        <v>0.95</v>
+      </c>
+      <c r="AO556" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP556" s="16" t="s">
+        <v>3081</v>
+      </c>
+      <c r="AQ556" s="16" t="s">
+        <v>3070</v>
+      </c>
+      <c r="AR556" s="16" t="s">
+        <v>1831</v>
+      </c>
+      <c r="AS556" s="16" t="s">
+        <v>3071</v>
+      </c>
+      <c r="AT556" s="16">
+        <v>8</v>
+      </c>
+      <c r="AU556" s="16" t="s">
+        <v>3085</v>
+      </c>
+      <c r="AV556" s="16" t="s">
+        <v>3073</v>
+      </c>
+      <c r="AW556" s="16" t="s">
+        <v>3086</v>
       </c>
     </row>
   </sheetData>

--- a/Data/coded-Dataset.xlsx
+++ b/Data/coded-Dataset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laura/Desktop/GITHUB-METAREVIEW/Meta-review-cognitive-profiles-ADHD-Dyslexia/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2004F886-34A5-8048-8ACA-3EDE1C9BC127}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86BF1241-8B30-0046-A5BB-0C3883565A9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30240" yWindow="600" windowWidth="38400" windowHeight="19220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20300" uniqueCount="3139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20468" uniqueCount="3168">
   <si>
     <t>ID_article</t>
   </si>
@@ -9256,9 +9256,6 @@
     <t>6–16 years</t>
   </si>
   <si>
-    <t>children aged 6–16 years old</t>
-  </si>
-  <si>
     <t>total sample size = 994 participants</t>
   </si>
   <si>
@@ -9461,6 +9458,96 @@
   </si>
   <si>
     <t>This paper reports pooled mean-difference effects (Glass’s delta) AND pooled variability effects (lnSDR/SDR). lnSDR is not in the dataset’s allowed Type_effect_size list; Type_effect_size is left null for lnSDR rows and metric is documented in Notes.; Domain mapping is uncertain for the overall pooled visuospatial estimate (mixes perception, memory, and imagery) and for the imagery domain (no clear controlled-vocabulary L1 match).; Tau_heterogeneity was derived by treating Table 2 s^2 (between-study variance) as tau2 (per Table 2 note).; Publication-bias analyses are reported for overall lnSDR and overall Glass’s delta (Table 3); not clearly reported separately for each subdomain.</t>
+  </si>
+  <si>
+    <t>2295</t>
+  </si>
+  <si>
+    <t>2295_1</t>
+  </si>
+  <si>
+    <t>Korrel, H,; Mueller, K. L.; Silk, Tim; Anderson, V.; Sciberras, E.</t>
+  </si>
+  <si>
+    <t>Research Review: Language problems in children with Attention-Deficit Hyperactivity Disorder – a systematic meta-analytic review</t>
+  </si>
+  <si>
+    <t>2295_2</t>
+  </si>
+  <si>
+    <t>2295_3</t>
+  </si>
+  <si>
+    <t>2295_4</t>
+  </si>
+  <si>
+    <t>The paper reports no meta-analysis for the 'other language' domain due to non-homogeneous outcomes; therefore no pooled effect sizes exist for those outcomes.</t>
+  </si>
+  <si>
+    <t>2295_5</t>
+  </si>
+  <si>
+    <t>All pooled language-domain estimates are based on study pools within this paper; overlap across domains is unclear and conservatively assumed possible.</t>
+  </si>
+  <si>
+    <t>Overall language</t>
+  </si>
+  <si>
+    <t>Funnel plot; Egger regression; trim-and-fill; p-curve</t>
+  </si>
+  <si>
+    <t>3–14 years</t>
+  </si>
+  <si>
+    <t>N=830 (Control=395; ADHD=435)</t>
+  </si>
+  <si>
+    <t>Pooled estimate from Table 4 (weighted mean). CI bounds computed from ±95% CI half-width (.30).</t>
+  </si>
+  <si>
+    <t>Expressive language</t>
+  </si>
+  <si>
+    <t>N=653 (Control=258; ADHD=395)</t>
+  </si>
+  <si>
+    <t>Pooled estimate from Table 4 (weighted mean). CI bounds computed from ±95% CI half-width (.32).</t>
+  </si>
+  <si>
+    <t>Receptive language</t>
+  </si>
+  <si>
+    <t>Funnel plot; Egger regression; p-curve</t>
+  </si>
+  <si>
+    <t>N=1,252 (Control=622; ADHD=630)</t>
+  </si>
+  <si>
+    <t>Pooled estimate from Table 4 (weighted mean). CI bounds computed from ±95% CI half-width (.34).</t>
+  </si>
+  <si>
+    <t>Pragmatic language</t>
+  </si>
+  <si>
+    <t>N=315 (Control=115; ADHD=200)</t>
+  </si>
+  <si>
+    <t>Pooled estimate from Table 4 (weighted mean). CI bounds computed from ±95% CI half-width (.51).</t>
+  </si>
+  <si>
+    <t>2327_1</t>
+  </si>
+  <si>
+    <t>Overall language (adjusted)</t>
+  </si>
+  <si>
+    <t>Trim-and-fill adjusted pooled estimate (overall language)</t>
+  </si>
+  <si>
+    <t>Adjusted pooled estimate reported in text for overall language after trim-and-fill; CI bounds computed from ±95% CI half-width (.29).</t>
+  </si>
+  <si>
+    <t>2327</t>
   </si>
 </sst>
 </file>
@@ -10025,11 +10112,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AW570"/>
+  <dimension ref="A1:AW573"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A517" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R572" sqref="R572"/>
+    <sheetView tabSelected="1" topLeftCell="AN1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A545" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AR567" sqref="AR567"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -83188,7 +83275,7 @@
         <v>3060</v>
       </c>
       <c r="C552" s="16" t="s">
-        <v>3083</v>
+        <v>3082</v>
       </c>
       <c r="D552" s="16">
         <v>2023</v>
@@ -83293,20 +83380,17 @@
       <c r="AQ552" s="16" t="s">
         <v>1831</v>
       </c>
-      <c r="AR552" s="16" t="s">
-        <v>3070</v>
-      </c>
       <c r="AS552" s="16">
         <v>7</v>
       </c>
       <c r="AT552" s="16" t="s">
+        <v>3070</v>
+      </c>
+      <c r="AU552" s="16" t="s">
         <v>3071</v>
       </c>
-      <c r="AU552" s="16" t="s">
-        <v>3072</v>
-      </c>
       <c r="AV552" s="16" t="s">
-        <v>3106</v>
+        <v>3105</v>
       </c>
     </row>
     <row r="553" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -83317,7 +83401,7 @@
         <v>3060</v>
       </c>
       <c r="C553" s="16" t="s">
-        <v>3083</v>
+        <v>3082</v>
       </c>
       <c r="D553" s="16">
         <v>2023</v>
@@ -83422,20 +83506,17 @@
       <c r="AQ553" s="16" t="s">
         <v>1831</v>
       </c>
-      <c r="AR553" s="16" t="s">
-        <v>3070</v>
-      </c>
       <c r="AS553" s="16">
         <v>7</v>
       </c>
       <c r="AT553" s="16" t="s">
-        <v>3073</v>
+        <v>3072</v>
       </c>
       <c r="AU553" s="16" t="s">
-        <v>3072</v>
+        <v>3071</v>
       </c>
       <c r="AV553" s="16" t="s">
-        <v>3106</v>
+        <v>3105</v>
       </c>
     </row>
     <row r="554" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -83446,7 +83527,7 @@
         <v>3060</v>
       </c>
       <c r="C554" s="16" t="s">
-        <v>3083</v>
+        <v>3082</v>
       </c>
       <c r="D554" s="16">
         <v>2023</v>
@@ -83508,10 +83589,10 @@
         <v>351</v>
       </c>
       <c r="Z554" s="16" t="s">
+        <v>3073</v>
+      </c>
+      <c r="AA554" s="16" t="s">
         <v>3074</v>
-      </c>
-      <c r="AA554" s="16" t="s">
-        <v>3075</v>
       </c>
       <c r="AB554" s="38" t="s">
         <v>95</v>
@@ -83549,20 +83630,17 @@
       <c r="AQ554" s="16" t="s">
         <v>1831</v>
       </c>
-      <c r="AR554" s="16" t="s">
-        <v>3070</v>
-      </c>
       <c r="AS554" s="16">
         <v>4</v>
       </c>
       <c r="AT554" s="16" t="s">
-        <v>3076</v>
+        <v>3075</v>
       </c>
       <c r="AU554" s="16" t="s">
-        <v>3072</v>
+        <v>3071</v>
       </c>
       <c r="AV554" s="16" t="s">
-        <v>3107</v>
+        <v>3106</v>
       </c>
     </row>
     <row r="555" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -83573,7 +83651,7 @@
         <v>3060</v>
       </c>
       <c r="C555" s="16" t="s">
-        <v>3083</v>
+        <v>3082</v>
       </c>
       <c r="D555" s="16">
         <v>2023</v>
@@ -83635,10 +83713,10 @@
         <v>351</v>
       </c>
       <c r="Z555" s="16" t="s">
-        <v>3074</v>
+        <v>3073</v>
       </c>
       <c r="AA555" s="16" t="s">
-        <v>3077</v>
+        <v>3076</v>
       </c>
       <c r="AB555" s="38" t="s">
         <v>95</v>
@@ -83671,7 +83749,7 @@
         <v>56</v>
       </c>
       <c r="AO555" s="16" t="s">
-        <v>3078</v>
+        <v>3077</v>
       </c>
       <c r="AP555" s="16" t="s">
         <v>3069</v>
@@ -83679,20 +83757,17 @@
       <c r="AQ555" s="16" t="s">
         <v>1831</v>
       </c>
-      <c r="AR555" s="16" t="s">
-        <v>3070</v>
-      </c>
       <c r="AS555" s="16">
         <v>8</v>
       </c>
       <c r="AT555" s="16" t="s">
-        <v>3079</v>
+        <v>3078</v>
       </c>
       <c r="AU555" s="16" t="s">
-        <v>3072</v>
+        <v>3071</v>
       </c>
       <c r="AV555" s="16" t="s">
-        <v>3108</v>
+        <v>3107</v>
       </c>
     </row>
     <row r="556" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -83703,7 +83778,7 @@
         <v>3060</v>
       </c>
       <c r="C556" s="16" t="s">
-        <v>3083</v>
+        <v>3082</v>
       </c>
       <c r="D556" s="16">
         <v>2023</v>
@@ -83765,10 +83840,10 @@
         <v>351</v>
       </c>
       <c r="Z556" s="16" t="s">
-        <v>3074</v>
+        <v>3073</v>
       </c>
       <c r="AA556" s="16" t="s">
-        <v>3080</v>
+        <v>3079</v>
       </c>
       <c r="AB556" s="38" t="s">
         <v>95</v>
@@ -83801,7 +83876,7 @@
         <v>56</v>
       </c>
       <c r="AO556" s="16" t="s">
-        <v>3078</v>
+        <v>3077</v>
       </c>
       <c r="AP556" s="16" t="s">
         <v>3069</v>
@@ -83809,20 +83884,17 @@
       <c r="AQ556" s="16" t="s">
         <v>1831</v>
       </c>
-      <c r="AR556" s="16" t="s">
-        <v>3070</v>
-      </c>
       <c r="AS556" s="16">
         <v>8</v>
       </c>
       <c r="AT556" s="16" t="s">
-        <v>3081</v>
+        <v>3080</v>
       </c>
       <c r="AU556" s="16" t="s">
-        <v>3072</v>
+        <v>3071</v>
       </c>
       <c r="AV556" s="16" t="s">
-        <v>3109</v>
+        <v>3108</v>
       </c>
     </row>
     <row r="557" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -83830,19 +83902,19 @@
         <v>1849</v>
       </c>
       <c r="B557" s="22" t="s">
-        <v>3082</v>
+        <v>3081</v>
       </c>
       <c r="C557" s="23" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
       <c r="D557" s="23">
         <v>2020</v>
       </c>
       <c r="E557" s="23" t="s">
+        <v>3085</v>
+      </c>
+      <c r="F557" s="23" t="s">
         <v>3086</v>
-      </c>
-      <c r="F557" s="23" t="s">
-        <v>3087</v>
       </c>
       <c r="G557" s="23" t="s">
         <v>815</v>
@@ -83878,10 +83950,10 @@
         <v>61</v>
       </c>
       <c r="R557" s="23" t="s">
-        <v>3090</v>
+        <v>3089</v>
       </c>
       <c r="S557" s="24" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
       <c r="T557" s="19"/>
       <c r="U557" s="19"/>
@@ -83898,10 +83970,10 @@
         <v>52</v>
       </c>
       <c r="Z557" s="23" t="s">
+        <v>3090</v>
+      </c>
+      <c r="AA557" s="23" t="s">
         <v>3091</v>
-      </c>
-      <c r="AA557" s="23" t="s">
-        <v>3092</v>
       </c>
       <c r="AB557" s="39" t="s">
         <v>98</v>
@@ -83939,25 +84011,25 @@
         <v>113</v>
       </c>
       <c r="AO557" s="23" t="s">
-        <v>3093</v>
+        <v>3092</v>
       </c>
       <c r="AQ557" s="23" t="s">
         <v>306</v>
       </c>
       <c r="AR557" s="23" t="s">
-        <v>3094</v>
+        <v>3093</v>
       </c>
       <c r="AS557" s="23">
         <v>7</v>
       </c>
       <c r="AT557" s="23" t="s">
+        <v>3094</v>
+      </c>
+      <c r="AU557" s="23" t="s">
         <v>3095</v>
       </c>
-      <c r="AU557" s="23" t="s">
-        <v>3096</v>
-      </c>
       <c r="AV557" s="23" t="s">
-        <v>3103</v>
+        <v>3102</v>
       </c>
     </row>
     <row r="558" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -83965,19 +84037,19 @@
         <v>1849</v>
       </c>
       <c r="B558" s="22" t="s">
-        <v>3082</v>
+        <v>3081</v>
       </c>
       <c r="C558" s="23" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
       <c r="D558" s="23">
         <v>2020</v>
       </c>
       <c r="E558" s="23" t="s">
+        <v>3085</v>
+      </c>
+      <c r="F558" s="23" t="s">
         <v>3086</v>
-      </c>
-      <c r="F558" s="23" t="s">
-        <v>3087</v>
       </c>
       <c r="G558" s="23" t="s">
         <v>815</v>
@@ -84013,10 +84085,10 @@
         <v>61</v>
       </c>
       <c r="R558" s="23" t="s">
-        <v>3090</v>
+        <v>3089</v>
       </c>
       <c r="S558" s="24" t="s">
-        <v>3088</v>
+        <v>3087</v>
       </c>
       <c r="T558" s="19"/>
       <c r="U558" s="19"/>
@@ -84033,10 +84105,10 @@
         <v>52</v>
       </c>
       <c r="Z558" s="23" t="s">
+        <v>3096</v>
+      </c>
+      <c r="AA558" s="23" t="s">
         <v>3097</v>
-      </c>
-      <c r="AA558" s="23" t="s">
-        <v>3098</v>
       </c>
       <c r="AB558" s="39" t="s">
         <v>98</v>
@@ -84074,16 +84146,16 @@
         <v>1831</v>
       </c>
       <c r="AR558" s="23" t="s">
-        <v>3099</v>
+        <v>3098</v>
       </c>
       <c r="AS558" s="23">
         <v>5</v>
       </c>
       <c r="AU558" s="23" t="s">
-        <v>3096</v>
+        <v>3095</v>
       </c>
       <c r="AV558" s="23" t="s">
-        <v>3104</v>
+        <v>3103</v>
       </c>
     </row>
     <row r="559" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -84091,19 +84163,19 @@
         <v>1849</v>
       </c>
       <c r="B559" s="22" t="s">
-        <v>3082</v>
+        <v>3081</v>
       </c>
       <c r="C559" s="23" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
       <c r="D559" s="23">
         <v>2020</v>
       </c>
       <c r="E559" s="23" t="s">
+        <v>3085</v>
+      </c>
+      <c r="F559" s="23" t="s">
         <v>3086</v>
-      </c>
-      <c r="F559" s="23" t="s">
-        <v>3087</v>
       </c>
       <c r="G559" s="23" t="s">
         <v>815</v>
@@ -84139,10 +84211,10 @@
         <v>61</v>
       </c>
       <c r="R559" s="23" t="s">
-        <v>3090</v>
+        <v>3089</v>
       </c>
       <c r="S559" s="24" t="s">
-        <v>3089</v>
+        <v>3088</v>
       </c>
       <c r="T559" s="19"/>
       <c r="U559" s="19"/>
@@ -84159,10 +84231,10 @@
         <v>52</v>
       </c>
       <c r="Z559" s="23" t="s">
+        <v>3099</v>
+      </c>
+      <c r="AA559" s="23" t="s">
         <v>3100</v>
-      </c>
-      <c r="AA559" s="23" t="s">
-        <v>3101</v>
       </c>
       <c r="AB559" s="39" t="s">
         <v>98</v>
@@ -84200,16 +84272,16 @@
         <v>1829</v>
       </c>
       <c r="AR559" s="23" t="s">
-        <v>3102</v>
+        <v>3101</v>
       </c>
       <c r="AS559" s="23">
         <v>2</v>
       </c>
       <c r="AU559" s="23" t="s">
-        <v>3096</v>
+        <v>3095</v>
       </c>
       <c r="AV559" s="23" t="s">
-        <v>3105</v>
+        <v>3104</v>
       </c>
     </row>
     <row r="560" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -84217,7 +84289,7 @@
         <v>1849</v>
       </c>
       <c r="B560" s="15" t="s">
-        <v>3110</v>
+        <v>3109</v>
       </c>
       <c r="C560" s="16" t="s">
         <v>2588</v>
@@ -84265,10 +84337,10 @@
         <v>46</v>
       </c>
       <c r="R560" s="16" t="s">
-        <v>3138</v>
+        <v>3137</v>
       </c>
       <c r="S560" s="17" t="s">
-        <v>3111</v>
+        <v>3110</v>
       </c>
       <c r="T560" s="19"/>
       <c r="U560" s="19"/>
@@ -84285,10 +84357,10 @@
         <v>52</v>
       </c>
       <c r="Z560" s="16" t="s">
+        <v>3118</v>
+      </c>
+      <c r="AA560" s="16" t="s">
         <v>3119</v>
-      </c>
-      <c r="AA560" s="16" t="s">
-        <v>3120</v>
       </c>
       <c r="AB560" s="38"/>
       <c r="AC560" s="38"/>
@@ -84313,27 +84385,27 @@
         <v>113</v>
       </c>
       <c r="AO560" s="16" t="s">
-        <v>3121</v>
+        <v>3120</v>
       </c>
       <c r="AS560" s="16">
         <v>28</v>
       </c>
       <c r="AT560" s="16" t="s">
+        <v>3121</v>
+      </c>
+      <c r="AU560" s="16" t="s">
         <v>3122</v>
       </c>
-      <c r="AU560" s="16" t="s">
+      <c r="AV560" s="16" t="s">
         <v>3123</v>
       </c>
-      <c r="AV560" s="16" t="s">
-        <v>3124</v>
-      </c>
     </row>
-    <row r="561" spans="1:49" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A561" s="14" t="s">
         <v>1849</v>
       </c>
       <c r="B561" s="15" t="s">
-        <v>3110</v>
+        <v>3109</v>
       </c>
       <c r="C561" s="16" t="s">
         <v>2588</v>
@@ -84381,10 +84453,10 @@
         <v>46</v>
       </c>
       <c r="R561" s="16" t="s">
-        <v>3138</v>
+        <v>3137</v>
       </c>
       <c r="S561" s="17" t="s">
-        <v>3112</v>
+        <v>3111</v>
       </c>
       <c r="T561" s="19"/>
       <c r="U561" s="19"/>
@@ -84401,7 +84473,7 @@
         <v>52</v>
       </c>
       <c r="Z561" s="16" t="s">
-        <v>3119</v>
+        <v>3118</v>
       </c>
       <c r="AA561" s="16" t="s">
         <v>1846</v>
@@ -84436,21 +84508,21 @@
         <v>12</v>
       </c>
       <c r="AT561" s="16" t="s">
+        <v>3121</v>
+      </c>
+      <c r="AU561" s="16" t="s">
         <v>3122</v>
       </c>
-      <c r="AU561" s="16" t="s">
-        <v>3123</v>
-      </c>
       <c r="AV561" s="16" t="s">
-        <v>3125</v>
+        <v>3124</v>
       </c>
     </row>
-    <row r="562" spans="1:49" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A562" s="14" t="s">
         <v>1849</v>
       </c>
       <c r="B562" s="15" t="s">
-        <v>3110</v>
+        <v>3109</v>
       </c>
       <c r="C562" s="16" t="s">
         <v>2588</v>
@@ -84498,10 +84570,10 @@
         <v>46</v>
       </c>
       <c r="R562" s="16" t="s">
-        <v>3138</v>
+        <v>3137</v>
       </c>
       <c r="S562" s="17" t="s">
-        <v>3113</v>
+        <v>3112</v>
       </c>
       <c r="T562" s="19"/>
       <c r="U562" s="19"/>
@@ -84518,10 +84590,10 @@
         <v>52</v>
       </c>
       <c r="Z562" s="16" t="s">
-        <v>3119</v>
+        <v>3118</v>
       </c>
       <c r="AA562" s="16" t="s">
-        <v>3126</v>
+        <v>3125</v>
       </c>
       <c r="AB562" s="38" t="s">
         <v>98</v>
@@ -84553,21 +84625,21 @@
         <v>13</v>
       </c>
       <c r="AT562" s="16" t="s">
+        <v>3121</v>
+      </c>
+      <c r="AU562" s="16" t="s">
         <v>3122</v>
       </c>
-      <c r="AU562" s="16" t="s">
-        <v>3123</v>
-      </c>
       <c r="AV562" s="16" t="s">
-        <v>3127</v>
+        <v>3126</v>
       </c>
     </row>
-    <row r="563" spans="1:49" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A563" s="14" t="s">
         <v>1849</v>
       </c>
       <c r="B563" s="15" t="s">
-        <v>3110</v>
+        <v>3109</v>
       </c>
       <c r="C563" s="16" t="s">
         <v>2588</v>
@@ -84615,10 +84687,10 @@
         <v>46</v>
       </c>
       <c r="R563" s="16" t="s">
-        <v>3138</v>
+        <v>3137</v>
       </c>
       <c r="S563" s="17" t="s">
-        <v>3114</v>
+        <v>3113</v>
       </c>
       <c r="T563" s="19"/>
       <c r="U563" s="19"/>
@@ -84635,7 +84707,7 @@
         <v>52</v>
       </c>
       <c r="Z563" s="16" t="s">
-        <v>3119</v>
+        <v>3118</v>
       </c>
       <c r="AA563" s="16" t="s">
         <v>2622</v>
@@ -84666,21 +84738,21 @@
         <v>13</v>
       </c>
       <c r="AT563" s="16" t="s">
+        <v>3121</v>
+      </c>
+      <c r="AU563" s="16" t="s">
         <v>3122</v>
       </c>
-      <c r="AU563" s="16" t="s">
-        <v>3123</v>
-      </c>
       <c r="AV563" s="16" t="s">
-        <v>3128</v>
+        <v>3127</v>
       </c>
     </row>
-    <row r="564" spans="1:49" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A564" s="14" t="s">
         <v>1849</v>
       </c>
       <c r="B564" s="15" t="s">
-        <v>3110</v>
+        <v>3109</v>
       </c>
       <c r="C564" s="16" t="s">
         <v>2588</v>
@@ -84728,10 +84800,10 @@
         <v>46</v>
       </c>
       <c r="R564" s="16" t="s">
-        <v>3138</v>
+        <v>3137</v>
       </c>
       <c r="S564" s="17" t="s">
-        <v>3115</v>
+        <v>3114</v>
       </c>
       <c r="T564" s="19"/>
       <c r="U564" s="19"/>
@@ -84748,10 +84820,10 @@
         <v>52</v>
       </c>
       <c r="Z564" s="16" t="s">
+        <v>3118</v>
+      </c>
+      <c r="AA564" s="16" t="s">
         <v>3119</v>
-      </c>
-      <c r="AA564" s="16" t="s">
-        <v>3120</v>
       </c>
       <c r="AB564" s="38"/>
       <c r="AC564" s="38"/>
@@ -84773,27 +84845,27 @@
         <v>113</v>
       </c>
       <c r="AO564" s="16" t="s">
-        <v>3129</v>
+        <v>3128</v>
       </c>
       <c r="AS564" s="16">
         <v>24</v>
       </c>
       <c r="AT564" s="16" t="s">
+        <v>3129</v>
+      </c>
+      <c r="AU564" s="16" t="s">
+        <v>3122</v>
+      </c>
+      <c r="AV564" s="16" t="s">
         <v>3130</v>
       </c>
-      <c r="AU564" s="16" t="s">
-        <v>3123</v>
-      </c>
-      <c r="AV564" s="16" t="s">
-        <v>3131</v>
-      </c>
     </row>
-    <row r="565" spans="1:49" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A565" s="14" t="s">
         <v>1849</v>
       </c>
       <c r="B565" s="15" t="s">
-        <v>3110</v>
+        <v>3109</v>
       </c>
       <c r="C565" s="16" t="s">
         <v>2588</v>
@@ -84841,10 +84913,10 @@
         <v>46</v>
       </c>
       <c r="R565" s="16" t="s">
-        <v>3138</v>
+        <v>3137</v>
       </c>
       <c r="S565" s="17" t="s">
-        <v>3116</v>
+        <v>3115</v>
       </c>
       <c r="T565" s="19"/>
       <c r="U565" s="19"/>
@@ -84861,7 +84933,7 @@
         <v>52</v>
       </c>
       <c r="Z565" s="16" t="s">
-        <v>3119</v>
+        <v>3118</v>
       </c>
       <c r="AA565" s="16" t="s">
         <v>1846</v>
@@ -84894,21 +84966,21 @@
         <v>10</v>
       </c>
       <c r="AT565" s="16" t="s">
+        <v>3131</v>
+      </c>
+      <c r="AU565" s="16" t="s">
+        <v>3122</v>
+      </c>
+      <c r="AV565" s="16" t="s">
         <v>3132</v>
       </c>
-      <c r="AU565" s="16" t="s">
-        <v>3123</v>
-      </c>
-      <c r="AV565" s="16" t="s">
-        <v>3133</v>
-      </c>
     </row>
-    <row r="566" spans="1:49" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A566" s="14" t="s">
         <v>1849</v>
       </c>
       <c r="B566" s="15" t="s">
-        <v>3110</v>
+        <v>3109</v>
       </c>
       <c r="C566" s="16" t="s">
         <v>2588</v>
@@ -84956,10 +85028,10 @@
         <v>46</v>
       </c>
       <c r="R566" s="16" t="s">
-        <v>3138</v>
+        <v>3137</v>
       </c>
       <c r="S566" s="17" t="s">
-        <v>3117</v>
+        <v>3116</v>
       </c>
       <c r="T566" s="19"/>
       <c r="U566" s="19"/>
@@ -84976,10 +85048,10 @@
         <v>52</v>
       </c>
       <c r="Z566" s="16" t="s">
-        <v>3119</v>
+        <v>3118</v>
       </c>
       <c r="AA566" s="16" t="s">
-        <v>3126</v>
+        <v>3125</v>
       </c>
       <c r="AB566" s="38" t="s">
         <v>98</v>
@@ -85009,21 +85081,21 @@
         <v>12</v>
       </c>
       <c r="AT566" s="16" t="s">
+        <v>3133</v>
+      </c>
+      <c r="AU566" s="16" t="s">
+        <v>3122</v>
+      </c>
+      <c r="AV566" s="16" t="s">
         <v>3134</v>
       </c>
-      <c r="AU566" s="16" t="s">
-        <v>3123</v>
-      </c>
-      <c r="AV566" s="16" t="s">
-        <v>3135</v>
-      </c>
     </row>
-    <row r="567" spans="1:49" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A567" s="14" t="s">
         <v>1849</v>
       </c>
       <c r="B567" s="15" t="s">
-        <v>3110</v>
+        <v>3109</v>
       </c>
       <c r="C567" s="16" t="s">
         <v>2588</v>
@@ -85071,10 +85143,10 @@
         <v>46</v>
       </c>
       <c r="R567" s="16" t="s">
-        <v>3138</v>
+        <v>3137</v>
       </c>
       <c r="S567" s="17" t="s">
-        <v>3118</v>
+        <v>3117</v>
       </c>
       <c r="T567" s="19"/>
       <c r="U567" s="19"/>
@@ -85091,7 +85163,7 @@
         <v>52</v>
       </c>
       <c r="Z567" s="16" t="s">
-        <v>3119</v>
+        <v>3118</v>
       </c>
       <c r="AA567" s="16" t="s">
         <v>2622</v>
@@ -85119,20 +85191,684 @@
         <v>11</v>
       </c>
       <c r="AT567" s="16" t="s">
+        <v>3135</v>
+      </c>
+      <c r="AU567" s="16" t="s">
+        <v>3122</v>
+      </c>
+      <c r="AV567" s="16" t="s">
         <v>3136</v>
       </c>
-      <c r="AU567" s="16" t="s">
-        <v>3123</v>
-      </c>
-      <c r="AV567" s="16" t="s">
-        <v>3137</v>
-      </c>
     </row>
-    <row r="569" spans="1:49" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AW569" s="16"/>
+    <row r="568" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A568" s="21" t="s">
+        <v>1849</v>
+      </c>
+      <c r="B568" s="22" t="s">
+        <v>3138</v>
+      </c>
+      <c r="C568" s="23" t="s">
+        <v>3140</v>
+      </c>
+      <c r="D568" s="23">
+        <v>2017</v>
+      </c>
+      <c r="E568" s="23" t="s">
+        <v>3141</v>
+      </c>
+      <c r="F568" s="23" t="s">
+        <v>226</v>
+      </c>
+      <c r="G568" s="23" t="s">
+        <v>1156</v>
+      </c>
+      <c r="H568" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I568" s="23" t="s">
+        <v>855</v>
+      </c>
+      <c r="J568" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="K568" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="L568" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="M568" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="N568" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="O568" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="P568" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q568" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="R568" s="23" t="s">
+        <v>3145</v>
+      </c>
+      <c r="S568" s="24" t="s">
+        <v>3139</v>
+      </c>
+      <c r="T568" s="19"/>
+      <c r="U568" s="19"/>
+      <c r="V568" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="W568" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="X568" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y568" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z568" s="23" t="s">
+        <v>3147</v>
+      </c>
+      <c r="AA568" s="23" t="s">
+        <v>3148</v>
+      </c>
+      <c r="AB568" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC568" s="39"/>
+      <c r="AD568" s="39"/>
+      <c r="AE568" s="51" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF568" s="24"/>
+      <c r="AG568" s="24">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="AH568" s="58">
+        <v>0.15310000000000001</v>
+      </c>
+      <c r="AI568" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ568" s="23">
+        <v>0.79</v>
+      </c>
+      <c r="AK568" s="23">
+        <v>1.39</v>
+      </c>
+      <c r="AL568" s="23">
+        <v>0.95</v>
+      </c>
+      <c r="AN568" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO568" s="23" t="s">
+        <v>3149</v>
+      </c>
+      <c r="AP568" s="23" t="s">
+        <v>3150</v>
+      </c>
+      <c r="AQ568" s="23" t="s">
+        <v>1831</v>
+      </c>
+      <c r="AS568" s="23">
+        <v>10</v>
+      </c>
+      <c r="AT568" s="23" t="s">
+        <v>3151</v>
+      </c>
+      <c r="AU568" s="23" t="s">
+        <v>1434</v>
+      </c>
+      <c r="AV568" s="23" t="s">
+        <v>3152</v>
+      </c>
     </row>
-    <row r="570" spans="1:49" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AW570" s="16"/>
+    <row r="569" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A569" s="21" t="s">
+        <v>1849</v>
+      </c>
+      <c r="B569" s="22" t="s">
+        <v>3138</v>
+      </c>
+      <c r="C569" s="23" t="s">
+        <v>3140</v>
+      </c>
+      <c r="D569" s="23">
+        <v>2017</v>
+      </c>
+      <c r="E569" s="23" t="s">
+        <v>3141</v>
+      </c>
+      <c r="F569" s="23" t="s">
+        <v>226</v>
+      </c>
+      <c r="G569" s="23" t="s">
+        <v>1156</v>
+      </c>
+      <c r="H569" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I569" s="23" t="s">
+        <v>855</v>
+      </c>
+      <c r="J569" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="K569" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="L569" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="M569" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="N569" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="O569" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="P569" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q569" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="R569" s="23" t="s">
+        <v>3145</v>
+      </c>
+      <c r="S569" s="24" t="s">
+        <v>3142</v>
+      </c>
+      <c r="T569" s="19"/>
+      <c r="U569" s="19"/>
+      <c r="V569" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="W569" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="X569" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y569" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z569" s="23" t="s">
+        <v>3147</v>
+      </c>
+      <c r="AA569" s="23" t="s">
+        <v>3153</v>
+      </c>
+      <c r="AB569" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC569" s="39"/>
+      <c r="AD569" s="39"/>
+      <c r="AE569" s="51" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF569" s="24"/>
+      <c r="AG569" s="24">
+        <v>1.23</v>
+      </c>
+      <c r="AH569" s="58">
+        <v>0.1633</v>
+      </c>
+      <c r="AI569" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ569" s="23">
+        <v>0.91</v>
+      </c>
+      <c r="AK569" s="23">
+        <v>1.55</v>
+      </c>
+      <c r="AL569" s="23">
+        <v>0.95</v>
+      </c>
+      <c r="AN569" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO569" s="23" t="s">
+        <v>3149</v>
+      </c>
+      <c r="AP569" s="23" t="s">
+        <v>3150</v>
+      </c>
+      <c r="AQ569" s="23" t="s">
+        <v>1831</v>
+      </c>
+      <c r="AS569" s="23">
+        <v>10</v>
+      </c>
+      <c r="AT569" s="23" t="s">
+        <v>3154</v>
+      </c>
+      <c r="AU569" s="23" t="s">
+        <v>1434</v>
+      </c>
+      <c r="AV569" s="23" t="s">
+        <v>3155</v>
+      </c>
+    </row>
+    <row r="570" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A570" s="21" t="s">
+        <v>1849</v>
+      </c>
+      <c r="B570" s="22" t="s">
+        <v>3138</v>
+      </c>
+      <c r="C570" s="23" t="s">
+        <v>3140</v>
+      </c>
+      <c r="D570" s="23">
+        <v>2017</v>
+      </c>
+      <c r="E570" s="23" t="s">
+        <v>3141</v>
+      </c>
+      <c r="F570" s="23" t="s">
+        <v>226</v>
+      </c>
+      <c r="G570" s="23" t="s">
+        <v>1156</v>
+      </c>
+      <c r="H570" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I570" s="23" t="s">
+        <v>855</v>
+      </c>
+      <c r="J570" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="K570" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="L570" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="M570" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="N570" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="O570" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="P570" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q570" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="R570" s="23" t="s">
+        <v>3145</v>
+      </c>
+      <c r="S570" s="24" t="s">
+        <v>3143</v>
+      </c>
+      <c r="T570" s="19"/>
+      <c r="U570" s="19"/>
+      <c r="V570" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="W570" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="X570" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y570" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z570" s="23" t="s">
+        <v>3147</v>
+      </c>
+      <c r="AA570" s="23" t="s">
+        <v>3156</v>
+      </c>
+      <c r="AB570" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC570" s="39"/>
+      <c r="AD570" s="39"/>
+      <c r="AE570" s="51" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF570" s="24"/>
+      <c r="AG570" s="24">
+        <v>0.97</v>
+      </c>
+      <c r="AH570" s="58">
+        <v>0.17349999999999999</v>
+      </c>
+      <c r="AI570" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ570" s="23">
+        <v>0.63</v>
+      </c>
+      <c r="AK570" s="23">
+        <v>1.31</v>
+      </c>
+      <c r="AL570" s="23">
+        <v>0.95</v>
+      </c>
+      <c r="AN570" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO570" s="23" t="s">
+        <v>3157</v>
+      </c>
+      <c r="AP570" s="23" t="s">
+        <v>3150</v>
+      </c>
+      <c r="AQ570" s="23" t="s">
+        <v>1831</v>
+      </c>
+      <c r="AS570" s="23">
+        <v>10</v>
+      </c>
+      <c r="AT570" s="23" t="s">
+        <v>3158</v>
+      </c>
+      <c r="AU570" s="23" t="s">
+        <v>1434</v>
+      </c>
+      <c r="AV570" s="23" t="s">
+        <v>3159</v>
+      </c>
+    </row>
+    <row r="571" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A571" s="21" t="s">
+        <v>1849</v>
+      </c>
+      <c r="B571" s="22" t="s">
+        <v>3138</v>
+      </c>
+      <c r="C571" s="23" t="s">
+        <v>3140</v>
+      </c>
+      <c r="D571" s="23">
+        <v>2017</v>
+      </c>
+      <c r="E571" s="23" t="s">
+        <v>3141</v>
+      </c>
+      <c r="F571" s="23" t="s">
+        <v>226</v>
+      </c>
+      <c r="G571" s="23" t="s">
+        <v>1156</v>
+      </c>
+      <c r="H571" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I571" s="23" t="s">
+        <v>855</v>
+      </c>
+      <c r="J571" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="K571" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="L571" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="M571" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="N571" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="O571" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="P571" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q571" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="R571" s="23" t="s">
+        <v>3145</v>
+      </c>
+      <c r="S571" s="24" t="s">
+        <v>3144</v>
+      </c>
+      <c r="T571" s="19"/>
+      <c r="U571" s="19"/>
+      <c r="V571" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="W571" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="X571" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y571" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z571" s="23" t="s">
+        <v>3147</v>
+      </c>
+      <c r="AA571" s="23" t="s">
+        <v>3160</v>
+      </c>
+      <c r="AB571" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC571" s="39"/>
+      <c r="AD571" s="39"/>
+      <c r="AE571" s="51" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF571" s="24"/>
+      <c r="AG571" s="24">
+        <v>0.98</v>
+      </c>
+      <c r="AH571" s="58">
+        <v>0.26019999999999999</v>
+      </c>
+      <c r="AI571" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ571" s="23">
+        <v>0.47</v>
+      </c>
+      <c r="AK571" s="23">
+        <v>1.49</v>
+      </c>
+      <c r="AL571" s="23">
+        <v>0.95</v>
+      </c>
+      <c r="AN571" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO571" s="23" t="s">
+        <v>3157</v>
+      </c>
+      <c r="AP571" s="23" t="s">
+        <v>3150</v>
+      </c>
+      <c r="AQ571" s="23" t="s">
+        <v>1831</v>
+      </c>
+      <c r="AS571" s="23">
+        <v>4</v>
+      </c>
+      <c r="AT571" s="23" t="s">
+        <v>3161</v>
+      </c>
+      <c r="AU571" s="23" t="s">
+        <v>1434</v>
+      </c>
+      <c r="AV571" s="23" t="s">
+        <v>3162</v>
+      </c>
+    </row>
+    <row r="572" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A572" s="21" t="s">
+        <v>1849</v>
+      </c>
+      <c r="B572" s="22" t="s">
+        <v>3138</v>
+      </c>
+      <c r="C572" s="23" t="s">
+        <v>3140</v>
+      </c>
+      <c r="D572" s="23">
+        <v>2017</v>
+      </c>
+      <c r="E572" s="23" t="s">
+        <v>3141</v>
+      </c>
+      <c r="F572" s="23" t="s">
+        <v>226</v>
+      </c>
+      <c r="G572" s="23" t="s">
+        <v>1156</v>
+      </c>
+      <c r="H572" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I572" s="23" t="s">
+        <v>855</v>
+      </c>
+      <c r="J572" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="K572" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="L572" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="M572" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="N572" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="O572" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="P572" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q572" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="R572" s="23" t="s">
+        <v>3145</v>
+      </c>
+      <c r="S572" s="24" t="s">
+        <v>3146</v>
+      </c>
+      <c r="T572" s="19"/>
+      <c r="U572" s="19"/>
+      <c r="V572" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="W572" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="X572" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y572" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z572" s="23" t="s">
+        <v>3147</v>
+      </c>
+      <c r="AA572" s="23" t="s">
+        <v>3164</v>
+      </c>
+      <c r="AB572" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC572" s="39"/>
+      <c r="AD572" s="39"/>
+      <c r="AE572" s="51" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF572" s="24"/>
+      <c r="AG572" s="24">
+        <v>1.04</v>
+      </c>
+      <c r="AH572" s="58">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="AI572" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ572" s="23">
+        <v>0.75</v>
+      </c>
+      <c r="AK572" s="23">
+        <v>1.33</v>
+      </c>
+      <c r="AL572" s="23">
+        <v>0.95</v>
+      </c>
+      <c r="AN572" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO572" s="23" t="s">
+        <v>3165</v>
+      </c>
+      <c r="AP572" s="23" t="s">
+        <v>3150</v>
+      </c>
+      <c r="AQ572" s="23" t="s">
+        <v>1831</v>
+      </c>
+      <c r="AS572" s="23">
+        <v>10</v>
+      </c>
+      <c r="AT572" s="23" t="s">
+        <v>3151</v>
+      </c>
+      <c r="AU572" s="23" t="s">
+        <v>1434</v>
+      </c>
+      <c r="AV572" s="23" t="s">
+        <v>3166</v>
+      </c>
+    </row>
+    <row r="573" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A573" s="14" t="s">
+        <v>1849</v>
+      </c>
+      <c r="B573" s="15" t="s">
+        <v>3167</v>
+      </c>
+      <c r="S573" s="17" t="s">
+        <v>3163</v>
+      </c>
+      <c r="T573" s="17"/>
+      <c r="U573" s="17"/>
+      <c r="AB573" s="38"/>
+      <c r="AC573" s="38"/>
+      <c r="AD573" s="38"/>
+      <c r="AE573" s="50"/>
+      <c r="AF573" s="17"/>
+      <c r="AG573" s="17"/>
+      <c r="AH573" s="57"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Data/coded-Dataset.xlsx
+++ b/Data/coded-Dataset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laura/Desktop/GITHUB-METAREVIEW/Meta-review-cognitive-profiles-ADHD-Dyslexia/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86BF1241-8B30-0046-A5BB-0C3883565A9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D794F19-4B4F-2842-9346-4F90E3370F55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30240" yWindow="600" windowWidth="38400" windowHeight="19220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20468" uniqueCount="3168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20833" uniqueCount="3207">
   <si>
     <t>ID_article</t>
   </si>
@@ -9376,90 +9376,6 @@
     <t>2238</t>
   </si>
   <si>
-    <t>2238_1</t>
-  </si>
-  <si>
-    <t>2238_2</t>
-  </si>
-  <si>
-    <t>2238_3</t>
-  </si>
-  <si>
-    <t>2238_4</t>
-  </si>
-  <si>
-    <t>2238_5</t>
-  </si>
-  <si>
-    <t>2238_6</t>
-  </si>
-  <si>
-    <t>2238_7</t>
-  </si>
-  <si>
-    <t>2238_8</t>
-  </si>
-  <si>
-    <t>Overall and subdomain pooled estimates are derived from the same meta-analytic corpus and likely overlap in included studies/outcomes.</t>
-  </si>
-  <si>
-    <t>All measures</t>
-  </si>
-  <si>
-    <t>Fail-safe N; funnel plot; trim-and-fill; Egger’s regression test (reported for overall Glass’s delta).</t>
-  </si>
-  <si>
-    <t>Meta-analysis sample: 909 non-dyslexic and 956 dyslexic individuals; 114 unique effect sizes over 36 unique empirical studies.</t>
-  </si>
-  <si>
-    <t>Dyslexic vs control</t>
-  </si>
-  <si>
-    <t>Table 2 (Analysis of mean differences): Number of clusters (outcomes) 28 (114). Effect size reported as Glass’s delta; Cohen’s d used as surrogate in some cases. Tau derived as sqrt(s^2)=sqrt(0.4315).</t>
-  </si>
-  <si>
-    <t>Table 2 (Analysis of mean differences): Number of clusters (outcomes) 12 (34). Tau derived as sqrt(s^2)=sqrt(0.4793).</t>
-  </si>
-  <si>
-    <t>Memory</t>
-  </si>
-  <si>
-    <t>Table 2 (Analysis of mean differences): Number of clusters (outcomes) 13 (46). Tau derived as sqrt(s^2)=sqrt(0.2546).</t>
-  </si>
-  <si>
-    <t>Table 2 (Analysis of mean differences): Number of clusters (outcomes) 13 (34). No clear Domain_L1_general match for imagery in controlled vocabulary. Tau derived as sqrt(s^2)=sqrt(0.9915).</t>
-  </si>
-  <si>
-    <t>Fail-safe N; funnel plot; trim-and-fill; Egger’s regression test (reported for overall lnSDR).</t>
-  </si>
-  <si>
-    <t>SD differences meta-analysis: 24 clusters (97 effect sizes with SDs available). Overall SDR reported as 1.107.</t>
-  </si>
-  <si>
-    <t>Table 2 (Analysis of standard deviation differences): pooled effect is lnSDR (SE) .102 (.0366); SDR=1.107. Type_effect_size left null because lnSDR is not in allowed list. Tau derived as sqrt(s^2)=sqrt(0.0325).</t>
-  </si>
-  <si>
-    <t>SD differences meta-analysis: 10 clusters (30 effect sizes with SDs available). SDR reported as 1.065.</t>
-  </si>
-  <si>
-    <t>Table 2 (Analysis of standard deviation differences): pooled effect is lnSDR (SE) .063 (.0534); SDR=1.065. Type_effect_size left null because lnSDR is not in allowed list. Tau derived as sqrt(s^2)=sqrt(0.0376).</t>
-  </si>
-  <si>
-    <t>SD differences meta-analysis: 12 clusters (45 effect sizes with SDs available). SDR reported as 1.121.</t>
-  </si>
-  <si>
-    <t>Table 2 (Analysis of standard deviation differences): pooled effect is lnSDR (SE) .114 (.0472); SDR=1.121. Type_effect_size left null because lnSDR is not in allowed list. Tau derived as sqrt(s^2)=sqrt(0.0328).</t>
-  </si>
-  <si>
-    <t>SD differences meta-analysis: 11 clusters (22 effect sizes with SDs available). SDR reported as 1.147.</t>
-  </si>
-  <si>
-    <t>Table 2 (Analysis of standard deviation differences): pooled effect is lnSDR (SE) .153 (.0584); SDR=1.147. No clear Domain_L1_general match for imagery in controlled vocabulary. Type_effect_size left null because lnSDR is not in allowed list. Tau derived as sqrt(s^2)=sqrt(0.0174).</t>
-  </si>
-  <si>
-    <t>This paper reports pooled mean-difference effects (Glass’s delta) AND pooled variability effects (lnSDR/SDR). lnSDR is not in the dataset’s allowed Type_effect_size list; Type_effect_size is left null for lnSDR rows and metric is documented in Notes.; Domain mapping is uncertain for the overall pooled visuospatial estimate (mixes perception, memory, and imagery) and for the imagery domain (no clear controlled-vocabulary L1 match).; Tau_heterogeneity was derived by treating Table 2 s^2 (between-study variance) as tau2 (per Table 2 note).; Publication-bias analyses are reported for overall lnSDR and overall Glass’s delta (Table 3); not clearly reported separately for each subdomain.</t>
-  </si>
-  <si>
     <t>2295</t>
   </si>
   <si>
@@ -9535,9 +9451,6 @@
     <t>Pooled estimate from Table 4 (weighted mean). CI bounds computed from ±95% CI half-width (.51).</t>
   </si>
   <si>
-    <t>2327_1</t>
-  </si>
-  <si>
     <t>Overall language (adjusted)</t>
   </si>
   <si>
@@ -9548,6 +9461,210 @@
   </si>
   <si>
     <t>2327</t>
+  </si>
+  <si>
+    <t>2424</t>
+  </si>
+  <si>
+    <t>2424_1</t>
+  </si>
+  <si>
+    <t>è il paper 2053</t>
+  </si>
+  <si>
+    <t>2424_2</t>
+  </si>
+  <si>
+    <t>2424_3</t>
+  </si>
+  <si>
+    <t>2424_4</t>
+  </si>
+  <si>
+    <t>2424_5</t>
+  </si>
+  <si>
+    <t>2424_6</t>
+  </si>
+  <si>
+    <t>2424_7</t>
+  </si>
+  <si>
+    <t>2424_8</t>
+  </si>
+  <si>
+    <t>2424_9</t>
+  </si>
+  <si>
+    <t>A Meta-Analytic Review of Cognition and Reading Difficulties: Individual Differences, Moderation, and Language Mediation Mechanisms</t>
+  </si>
+  <si>
+    <t>The paper also reports variance-difference effect sizes (ln SDR) for individual differences; these are protocol-relevant but cannot be encoded under the restricted Type_effect_size list, so they are not extracted here</t>
+  </si>
+  <si>
+    <t>Question 1 pooled mean differences (RD vs TD) across cognition and cognitive skills.</t>
+  </si>
+  <si>
+    <t>Cognitive skills in general</t>
+  </si>
+  <si>
+    <t>Egger regression test; contour funnel plots</t>
+  </si>
+  <si>
+    <t>Independent samples: 541 (peer-reviewed 504; other types 37). Effect sizes: 3,655 (3,420; 235).</t>
+  </si>
+  <si>
+    <t>RD vs TD (group mean difference)</t>
+  </si>
+  <si>
+    <t>k_primary_studies taken as number of independent samples reported in Table 2 (Publication type).</t>
+  </si>
+  <si>
+    <t>Independent samples: 182 (peer-reviewed 172; other types 10). Effect sizes: 704 (656; 48).</t>
+  </si>
+  <si>
+    <t>2424_10</t>
+  </si>
+  <si>
+    <t>2424_11</t>
+  </si>
+  <si>
+    <t>2424_12</t>
+  </si>
+  <si>
+    <t>2424_13</t>
+  </si>
+  <si>
+    <t>2424_14</t>
+  </si>
+  <si>
+    <t>2424_15</t>
+  </si>
+  <si>
+    <t>2424_16</t>
+  </si>
+  <si>
+    <t>2424_17</t>
+  </si>
+  <si>
+    <t>Independent samples: 100 (peer-reviewed 92; other types 8). Effect sizes: 447 (413; 34).</t>
+  </si>
+  <si>
+    <t>Switching</t>
+  </si>
+  <si>
+    <t>Independent samples: 63 (peer-reviewed 60; other types 3). Effect sizes: 143 (136; 7).</t>
+  </si>
+  <si>
+    <t>Updating</t>
+  </si>
+  <si>
+    <t>Independent samples: 19 (peer-reviewed 18; other types 1). Effect sizes: 60 (54; 6).</t>
+  </si>
+  <si>
+    <t>Authors label this as an executive-function component (“updating”); coded under Working memory due to controlled L2 list limitations.</t>
+  </si>
+  <si>
+    <t>Independent samples: 112 (peer-reviewed 102; other types 10). Effect sizes: 230 (199; 31).</t>
+  </si>
+  <si>
+    <t>Independent samples: 137 (peer-reviewed 126; other types 11). Effect sizes: 392 (364; 28).</t>
+  </si>
+  <si>
+    <t>Independent samples: 361 (peer-reviewed 346; other types 15). Effect sizes: 1,313 (1,261; 52).</t>
+  </si>
+  <si>
+    <t>Mapped to Domain_L1=Working memory per deterministic rule for STM/simple span outcomes.</t>
+  </si>
+  <si>
+    <t>Visuospatial skills</t>
+  </si>
+  <si>
+    <t>Independent samples: 105 (peer-reviewed 95; other types 10). Effect sizes: 368 (339; 29).</t>
+  </si>
+  <si>
+    <t>Coded under Perception/Visual perception based on outcome label “visuospatial skills”.</t>
+  </si>
+  <si>
+    <t>MASEM pooled correlations (Table 8) between RD vs TD and cognitive/language variables.</t>
+  </si>
+  <si>
+    <t>Cumulative sample size: 2,474 (Table 7, RD vs TD × Working memory).</t>
+  </si>
+  <si>
+    <t>RD vs TD association (MASEM pooled r)</t>
+  </si>
+  <si>
+    <t>Pooled r from Table 8 lower triangle; tau derived from Table 8 upper triangle tau2=0.03 for this correlation.</t>
+  </si>
+  <si>
+    <t>Cumulative sample size: 3,373 (Table 7, RD vs TD × Short-term memory).</t>
+  </si>
+  <si>
+    <t>Pooled r from Table 8 lower triangle; tau derived from Table 8 upper triangle tau2=0.01 for this correlation. Domain mapping follows STM rule.</t>
+  </si>
+  <si>
+    <t>Cumulative sample size: 1,092 (Table 7, RD vs TD × Visuospatial skills).</t>
+  </si>
+  <si>
+    <t>Cumulative sample size: 1,460 (Table 7, RD vs TD × Executive function).</t>
+  </si>
+  <si>
+    <t>Pooled r from Table 8 lower triangle; tau derived from Table 8 upper triangle tau2=0.01 for this correlation.</t>
+  </si>
+  <si>
+    <t>Cumulative sample size: 3,976 (Table 7, RD vs TD × Phonological awareness).</t>
+  </si>
+  <si>
+    <t>Pooled r from Table 8 lower triangle; tau derived from Table 8 upper triangle tau2=0.02 for this correlation.</t>
+  </si>
+  <si>
+    <t>Cumulative sample size: 2,449 (Table 7, RD vs TD × Vocabulary).</t>
+  </si>
+  <si>
+    <t>Cumulative sample size: 2,001 (Table 7, RD vs TD × Rapid naming).</t>
+  </si>
+  <si>
+    <t>Cumulative sample size: 1,950 (Table 7, RD vs TD × Listening comprehension).</t>
+  </si>
+  <si>
+    <t>2567</t>
+  </si>
+  <si>
+    <t>Peng, P.; Zhang, Z.; Wang, W.; Lee, K.; Wang, T.; Wang, C.; Luo, J.; Lin, J.</t>
+  </si>
+  <si>
+    <t>Khoury, J. E.; Milligan, K.</t>
+  </si>
+  <si>
+    <t>Comparing Executive Functioning in Children and Adolescents With Fetal Alcohol Spectrum Disorders and ADHD: A Meta-Analysis</t>
+  </si>
+  <si>
+    <t>Paper reports pooled effects for FASD vs TD and FASD vs ADHD, plus EF-domain moderator effects for FASD vs ADHD; these are not eligible for this dataset (wrong disorder and/or non-healthy comparator).; No ADHD vs TD pooled estimates are reported separately for EF subdomains/tasks (only overall EF).</t>
+  </si>
+  <si>
+    <t>2567_1</t>
+  </si>
+  <si>
+    <t>Single eligible pooled estimate: overall executive functioning (EF) for ADHD vs typically developing (TD) controls.</t>
+  </si>
+  <si>
+    <t>Overall EF performance</t>
+  </si>
+  <si>
+    <t>Trim-and-fill and Fail-safe N reported for ADHD vs TD; no studies trimmed.</t>
+  </si>
+  <si>
+    <t>Children and adolescents (up to 18 years old)</t>
+  </si>
+  <si>
+    <t>Meta-analysis total N across all included studies: 880 ADHD; 669 TD (overall paper totals; not uniquely for ADHD vs TD).</t>
+  </si>
+  <si>
+    <t>Eligible pooled effect size is reported only for overall EF in ADHD vs TD. Paper states 'Ten of the 15 studies also included a TD comparison group' (used as k for ADHD vs TD). :contentReference[oaicite:0]{index=0}</t>
+  </si>
+  <si>
+    <t>≥18 years old</t>
   </si>
 </sst>
 </file>
@@ -9678,7 +9795,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -9807,6 +9924,19 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -10112,11 +10242,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AW573"/>
+  <dimension ref="A1:AW584"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AN1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A545" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AR567" sqref="AR567"/>
+    <sheetView tabSelected="1" topLeftCell="AR1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A553" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AU581" sqref="AU581"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -84284,839 +84414,721 @@
         <v>3104</v>
       </c>
     </row>
-    <row r="560" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A560" s="14" t="s">
+    <row r="560" spans="1:48" s="62" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A560" s="60"/>
+      <c r="B560" s="61" t="s">
+        <v>3109</v>
+      </c>
+      <c r="C560" s="62" t="s">
+        <v>3141</v>
+      </c>
+      <c r="S560" s="63"/>
+      <c r="T560" s="63"/>
+      <c r="U560" s="63"/>
+      <c r="AB560" s="64"/>
+      <c r="AC560" s="64"/>
+      <c r="AD560" s="64"/>
+      <c r="AE560" s="65"/>
+      <c r="AF560" s="63"/>
+      <c r="AG560" s="63"/>
+      <c r="AH560" s="66"/>
+    </row>
+    <row r="561" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A561" s="21" t="s">
         <v>1849</v>
       </c>
-      <c r="B560" s="15" t="s">
-        <v>3109</v>
-      </c>
-      <c r="C560" s="16" t="s">
-        <v>2588</v>
-      </c>
-      <c r="D560" s="16">
-        <v>2018</v>
-      </c>
-      <c r="E560" s="16" t="s">
-        <v>2589</v>
-      </c>
-      <c r="F560" s="16" t="s">
-        <v>2590</v>
-      </c>
-      <c r="G560" s="16" t="s">
+      <c r="B561" s="22" t="s">
+        <v>3110</v>
+      </c>
+      <c r="C561" s="23" t="s">
+        <v>3112</v>
+      </c>
+      <c r="D561" s="23">
+        <v>2017</v>
+      </c>
+      <c r="E561" s="23" t="s">
+        <v>3113</v>
+      </c>
+      <c r="F561" s="23" t="s">
+        <v>226</v>
+      </c>
+      <c r="G561" s="23" t="s">
         <v>1156</v>
       </c>
-      <c r="H560" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="I560" s="16" t="s">
-        <v>2591</v>
-      </c>
-      <c r="J560" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="K560" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="L560" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="M560" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="N560" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="O560" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="P560" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q560" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="R560" s="16" t="s">
-        <v>3137</v>
-      </c>
-      <c r="S560" s="17" t="s">
-        <v>3110</v>
-      </c>
-      <c r="T560" s="19"/>
-      <c r="U560" s="19"/>
-      <c r="V560" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="W560" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="X560" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y560" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z560" s="16" t="s">
-        <v>3118</v>
-      </c>
-      <c r="AA560" s="16" t="s">
-        <v>3119</v>
-      </c>
-      <c r="AB560" s="38"/>
-      <c r="AC560" s="38"/>
-      <c r="AD560" s="38"/>
-      <c r="AE560" s="50" t="s">
-        <v>112</v>
-      </c>
-      <c r="AF560" s="19"/>
-      <c r="AG560" s="17">
-        <v>-0.45700000000000002</v>
-      </c>
-      <c r="AH560" s="57">
-        <v>0.109</v>
-      </c>
-      <c r="AI560" s="16" t="s">
-        <v>304</v>
-      </c>
-      <c r="AM560" s="16">
-        <v>0.65690000000000004</v>
-      </c>
-      <c r="AN560" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="AO560" s="16" t="s">
-        <v>3120</v>
-      </c>
-      <c r="AS560" s="16">
-        <v>28</v>
-      </c>
-      <c r="AT560" s="16" t="s">
-        <v>3121</v>
-      </c>
-      <c r="AU560" s="16" t="s">
-        <v>3122</v>
-      </c>
-      <c r="AV560" s="16" t="s">
-        <v>3123</v>
-      </c>
-    </row>
-    <row r="561" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A561" s="14" t="s">
-        <v>1849</v>
-      </c>
-      <c r="B561" s="15" t="s">
-        <v>3109</v>
-      </c>
-      <c r="C561" s="16" t="s">
-        <v>2588</v>
-      </c>
-      <c r="D561" s="16">
-        <v>2018</v>
-      </c>
-      <c r="E561" s="16" t="s">
-        <v>2589</v>
-      </c>
-      <c r="F561" s="16" t="s">
-        <v>2590</v>
-      </c>
-      <c r="G561" s="16" t="s">
-        <v>1156</v>
-      </c>
-      <c r="H561" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="I561" s="16" t="s">
-        <v>2591</v>
-      </c>
-      <c r="J561" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="K561" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="L561" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="M561" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="N561" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="O561" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="P561" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q561" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="R561" s="16" t="s">
-        <v>3137</v>
-      </c>
-      <c r="S561" s="17" t="s">
+      <c r="H561" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I561" s="23" t="s">
+        <v>855</v>
+      </c>
+      <c r="J561" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="K561" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="L561" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="M561" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="N561" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="O561" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="P561" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q561" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="R561" s="23" t="s">
+        <v>3117</v>
+      </c>
+      <c r="S561" s="24" t="s">
         <v>3111</v>
       </c>
       <c r="T561" s="19"/>
       <c r="U561" s="19"/>
-      <c r="V561" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="W561" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="X561" s="16" t="s">
+      <c r="V561" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="W561" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="X561" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="Y561" s="16" t="s">
+      <c r="Y561" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="Z561" s="16" t="s">
-        <v>3118</v>
-      </c>
-      <c r="AA561" s="16" t="s">
-        <v>1846</v>
-      </c>
-      <c r="AB561" s="38" t="s">
-        <v>1846</v>
-      </c>
-      <c r="AC561" s="38" t="s">
-        <v>1848</v>
-      </c>
-      <c r="AD561" s="38"/>
-      <c r="AE561" s="50" t="s">
-        <v>112</v>
-      </c>
-      <c r="AF561" s="19"/>
-      <c r="AG561" s="17">
-        <v>-0.38900000000000001</v>
-      </c>
-      <c r="AH561" s="57">
-        <v>0.193</v>
-      </c>
-      <c r="AI561" s="16" t="s">
-        <v>304</v>
-      </c>
-      <c r="AM561" s="16">
-        <v>0.69230000000000003</v>
-      </c>
-      <c r="AN561" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="AS561" s="16">
-        <v>12</v>
-      </c>
-      <c r="AT561" s="16" t="s">
+      <c r="Z561" s="23" t="s">
+        <v>3119</v>
+      </c>
+      <c r="AA561" s="23" t="s">
+        <v>3120</v>
+      </c>
+      <c r="AB561" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC561" s="39"/>
+      <c r="AD561" s="39"/>
+      <c r="AE561" s="51" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF561" s="24"/>
+      <c r="AG561" s="24">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="AH561" s="58">
+        <v>0.15310000000000001</v>
+      </c>
+      <c r="AI561" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ561" s="23">
+        <v>0.79</v>
+      </c>
+      <c r="AK561" s="23">
+        <v>1.39</v>
+      </c>
+      <c r="AL561" s="23">
+        <v>0.95</v>
+      </c>
+      <c r="AN561" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO561" s="23" t="s">
         <v>3121</v>
       </c>
-      <c r="AU561" s="16" t="s">
+      <c r="AP561" s="23" t="s">
         <v>3122</v>
       </c>
-      <c r="AV561" s="16" t="s">
+      <c r="AQ561" s="23" t="s">
+        <v>1831</v>
+      </c>
+      <c r="AS561" s="23">
+        <v>10</v>
+      </c>
+      <c r="AT561" s="23" t="s">
+        <v>3123</v>
+      </c>
+      <c r="AU561" s="23" t="s">
+        <v>1434</v>
+      </c>
+      <c r="AV561" s="23" t="s">
         <v>3124</v>
       </c>
     </row>
-    <row r="562" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A562" s="14" t="s">
+    <row r="562" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A562" s="21" t="s">
         <v>1849</v>
       </c>
-      <c r="B562" s="15" t="s">
-        <v>3109</v>
-      </c>
-      <c r="C562" s="16" t="s">
-        <v>2588</v>
-      </c>
-      <c r="D562" s="16">
-        <v>2018</v>
-      </c>
-      <c r="E562" s="16" t="s">
-        <v>2589</v>
-      </c>
-      <c r="F562" s="16" t="s">
-        <v>2590</v>
-      </c>
-      <c r="G562" s="16" t="s">
+      <c r="B562" s="22" t="s">
+        <v>3110</v>
+      </c>
+      <c r="C562" s="23" t="s">
+        <v>3112</v>
+      </c>
+      <c r="D562" s="23">
+        <v>2017</v>
+      </c>
+      <c r="E562" s="23" t="s">
+        <v>3113</v>
+      </c>
+      <c r="F562" s="23" t="s">
+        <v>226</v>
+      </c>
+      <c r="G562" s="23" t="s">
         <v>1156</v>
       </c>
-      <c r="H562" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="I562" s="16" t="s">
-        <v>2591</v>
-      </c>
-      <c r="J562" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="K562" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="L562" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="M562" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="N562" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="O562" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="P562" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q562" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="R562" s="16" t="s">
-        <v>3137</v>
-      </c>
-      <c r="S562" s="17" t="s">
-        <v>3112</v>
+      <c r="H562" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I562" s="23" t="s">
+        <v>855</v>
+      </c>
+      <c r="J562" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="K562" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="L562" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="M562" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="N562" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="O562" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="P562" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q562" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="R562" s="23" t="s">
+        <v>3117</v>
+      </c>
+      <c r="S562" s="24" t="s">
+        <v>3114</v>
       </c>
       <c r="T562" s="19"/>
       <c r="U562" s="19"/>
-      <c r="V562" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="W562" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="X562" s="16" t="s">
+      <c r="V562" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="W562" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="X562" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="Y562" s="16" t="s">
+      <c r="Y562" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="Z562" s="16" t="s">
-        <v>3118</v>
-      </c>
-      <c r="AA562" s="16" t="s">
+      <c r="Z562" s="23" t="s">
+        <v>3119</v>
+      </c>
+      <c r="AA562" s="23" t="s">
         <v>3125</v>
       </c>
-      <c r="AB562" s="38" t="s">
-        <v>98</v>
-      </c>
-      <c r="AC562" s="38" t="s">
-        <v>1535</v>
-      </c>
-      <c r="AD562" s="38"/>
-      <c r="AE562" s="50" t="s">
-        <v>112</v>
-      </c>
-      <c r="AF562" s="19"/>
-      <c r="AG562" s="17">
-        <v>-0.39100000000000001</v>
-      </c>
-      <c r="AH562" s="57">
-        <v>0.105</v>
-      </c>
-      <c r="AI562" s="16" t="s">
-        <v>304</v>
-      </c>
-      <c r="AM562" s="16">
-        <v>0.50460000000000005</v>
-      </c>
-      <c r="AN562" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="AS562" s="16">
-        <v>13</v>
-      </c>
-      <c r="AT562" s="16" t="s">
+      <c r="AB562" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC562" s="39"/>
+      <c r="AD562" s="39"/>
+      <c r="AE562" s="51" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF562" s="24"/>
+      <c r="AG562" s="24">
+        <v>1.23</v>
+      </c>
+      <c r="AH562" s="58">
+        <v>0.1633</v>
+      </c>
+      <c r="AI562" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ562" s="23">
+        <v>0.91</v>
+      </c>
+      <c r="AK562" s="23">
+        <v>1.55</v>
+      </c>
+      <c r="AL562" s="23">
+        <v>0.95</v>
+      </c>
+      <c r="AN562" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO562" s="23" t="s">
         <v>3121</v>
       </c>
-      <c r="AU562" s="16" t="s">
+      <c r="AP562" s="23" t="s">
         <v>3122</v>
       </c>
-      <c r="AV562" s="16" t="s">
+      <c r="AQ562" s="23" t="s">
+        <v>1831</v>
+      </c>
+      <c r="AS562" s="23">
+        <v>10</v>
+      </c>
+      <c r="AT562" s="23" t="s">
         <v>3126</v>
       </c>
+      <c r="AU562" s="23" t="s">
+        <v>1434</v>
+      </c>
+      <c r="AV562" s="23" t="s">
+        <v>3127</v>
+      </c>
     </row>
-    <row r="563" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A563" s="14" t="s">
+    <row r="563" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A563" s="21" t="s">
         <v>1849</v>
       </c>
-      <c r="B563" s="15" t="s">
-        <v>3109</v>
-      </c>
-      <c r="C563" s="16" t="s">
-        <v>2588</v>
-      </c>
-      <c r="D563" s="16">
-        <v>2018</v>
-      </c>
-      <c r="E563" s="16" t="s">
-        <v>2589</v>
-      </c>
-      <c r="F563" s="16" t="s">
-        <v>2590</v>
-      </c>
-      <c r="G563" s="16" t="s">
+      <c r="B563" s="22" t="s">
+        <v>3110</v>
+      </c>
+      <c r="C563" s="23" t="s">
+        <v>3112</v>
+      </c>
+      <c r="D563" s="23">
+        <v>2017</v>
+      </c>
+      <c r="E563" s="23" t="s">
+        <v>3113</v>
+      </c>
+      <c r="F563" s="23" t="s">
+        <v>226</v>
+      </c>
+      <c r="G563" s="23" t="s">
         <v>1156</v>
       </c>
-      <c r="H563" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="I563" s="16" t="s">
-        <v>2591</v>
-      </c>
-      <c r="J563" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="K563" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="L563" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="M563" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="N563" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="O563" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="P563" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q563" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="R563" s="16" t="s">
-        <v>3137</v>
-      </c>
-      <c r="S563" s="17" t="s">
-        <v>3113</v>
+      <c r="H563" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I563" s="23" t="s">
+        <v>855</v>
+      </c>
+      <c r="J563" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="K563" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="L563" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="M563" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="N563" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="O563" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="P563" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q563" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="R563" s="23" t="s">
+        <v>3117</v>
+      </c>
+      <c r="S563" s="24" t="s">
+        <v>3115</v>
       </c>
       <c r="T563" s="19"/>
       <c r="U563" s="19"/>
-      <c r="V563" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="W563" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="X563" s="16" t="s">
+      <c r="V563" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="W563" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="X563" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="Y563" s="16" t="s">
+      <c r="Y563" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="Z563" s="16" t="s">
-        <v>3118</v>
-      </c>
-      <c r="AA563" s="16" t="s">
-        <v>2622</v>
-      </c>
-      <c r="AB563" s="38"/>
-      <c r="AC563" s="38"/>
-      <c r="AD563" s="38"/>
-      <c r="AE563" s="50" t="s">
-        <v>112</v>
-      </c>
-      <c r="AF563" s="19"/>
-      <c r="AG563" s="17">
-        <v>-0.70599999999999996</v>
-      </c>
-      <c r="AH563" s="57">
-        <v>0.22700000000000001</v>
-      </c>
-      <c r="AI563" s="16" t="s">
-        <v>304</v>
-      </c>
-      <c r="AM563" s="16">
-        <v>0.99570000000000003</v>
-      </c>
-      <c r="AN563" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="AS563" s="16">
-        <v>13</v>
-      </c>
-      <c r="AT563" s="16" t="s">
-        <v>3121</v>
-      </c>
-      <c r="AU563" s="16" t="s">
+      <c r="Z563" s="23" t="s">
+        <v>3119</v>
+      </c>
+      <c r="AA563" s="23" t="s">
+        <v>3128</v>
+      </c>
+      <c r="AB563" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC563" s="39"/>
+      <c r="AD563" s="39"/>
+      <c r="AE563" s="51" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF563" s="24"/>
+      <c r="AG563" s="24">
+        <v>0.97</v>
+      </c>
+      <c r="AH563" s="58">
+        <v>0.17349999999999999</v>
+      </c>
+      <c r="AI563" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ563" s="23">
+        <v>0.63</v>
+      </c>
+      <c r="AK563" s="23">
+        <v>1.31</v>
+      </c>
+      <c r="AL563" s="23">
+        <v>0.95</v>
+      </c>
+      <c r="AN563" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO563" s="23" t="s">
+        <v>3129</v>
+      </c>
+      <c r="AP563" s="23" t="s">
         <v>3122</v>
       </c>
-      <c r="AV563" s="16" t="s">
-        <v>3127</v>
+      <c r="AQ563" s="23" t="s">
+        <v>1831</v>
+      </c>
+      <c r="AS563" s="23">
+        <v>10</v>
+      </c>
+      <c r="AT563" s="23" t="s">
+        <v>3130</v>
+      </c>
+      <c r="AU563" s="23" t="s">
+        <v>1434</v>
+      </c>
+      <c r="AV563" s="23" t="s">
+        <v>3131</v>
       </c>
     </row>
-    <row r="564" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A564" s="14" t="s">
+    <row r="564" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A564" s="21" t="s">
         <v>1849</v>
       </c>
-      <c r="B564" s="15" t="s">
-        <v>3109</v>
-      </c>
-      <c r="C564" s="16" t="s">
-        <v>2588</v>
-      </c>
-      <c r="D564" s="16">
-        <v>2018</v>
-      </c>
-      <c r="E564" s="16" t="s">
-        <v>2589</v>
-      </c>
-      <c r="F564" s="16" t="s">
-        <v>2590</v>
-      </c>
-      <c r="G564" s="16" t="s">
+      <c r="B564" s="22" t="s">
+        <v>3110</v>
+      </c>
+      <c r="C564" s="23" t="s">
+        <v>3112</v>
+      </c>
+      <c r="D564" s="23">
+        <v>2017</v>
+      </c>
+      <c r="E564" s="23" t="s">
+        <v>3113</v>
+      </c>
+      <c r="F564" s="23" t="s">
+        <v>226</v>
+      </c>
+      <c r="G564" s="23" t="s">
         <v>1156</v>
       </c>
-      <c r="H564" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="I564" s="16" t="s">
-        <v>2591</v>
-      </c>
-      <c r="J564" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="K564" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="L564" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="M564" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="N564" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="O564" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="P564" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q564" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="R564" s="16" t="s">
-        <v>3137</v>
-      </c>
-      <c r="S564" s="17" t="s">
-        <v>3114</v>
+      <c r="H564" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I564" s="23" t="s">
+        <v>855</v>
+      </c>
+      <c r="J564" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="K564" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="L564" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="M564" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="N564" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="O564" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="P564" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q564" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="R564" s="23" t="s">
+        <v>3117</v>
+      </c>
+      <c r="S564" s="24" t="s">
+        <v>3116</v>
       </c>
       <c r="T564" s="19"/>
       <c r="U564" s="19"/>
-      <c r="V564" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="W564" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="X564" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y564" s="16" t="s">
+      <c r="V564" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="W564" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="X564" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y564" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="Z564" s="16" t="s">
+      <c r="Z564" s="23" t="s">
+        <v>3119</v>
+      </c>
+      <c r="AA564" s="23" t="s">
+        <v>3132</v>
+      </c>
+      <c r="AB564" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC564" s="39"/>
+      <c r="AD564" s="39"/>
+      <c r="AE564" s="51" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF564" s="24"/>
+      <c r="AG564" s="24">
+        <v>0.98</v>
+      </c>
+      <c r="AH564" s="58">
+        <v>0.26019999999999999</v>
+      </c>
+      <c r="AI564" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ564" s="23">
+        <v>0.47</v>
+      </c>
+      <c r="AK564" s="23">
+        <v>1.49</v>
+      </c>
+      <c r="AL564" s="23">
+        <v>0.95</v>
+      </c>
+      <c r="AN564" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO564" s="23" t="s">
+        <v>3129</v>
+      </c>
+      <c r="AP564" s="23" t="s">
+        <v>3122</v>
+      </c>
+      <c r="AQ564" s="23" t="s">
+        <v>1831</v>
+      </c>
+      <c r="AS564" s="23">
+        <v>4</v>
+      </c>
+      <c r="AT564" s="23" t="s">
+        <v>3133</v>
+      </c>
+      <c r="AU564" s="23" t="s">
+        <v>1434</v>
+      </c>
+      <c r="AV564" s="23" t="s">
+        <v>3134</v>
+      </c>
+    </row>
+    <row r="565" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A565" s="21" t="s">
+        <v>1849</v>
+      </c>
+      <c r="B565" s="22" t="s">
+        <v>3110</v>
+      </c>
+      <c r="C565" s="23" t="s">
+        <v>3112</v>
+      </c>
+      <c r="D565" s="23">
+        <v>2017</v>
+      </c>
+      <c r="E565" s="23" t="s">
+        <v>3113</v>
+      </c>
+      <c r="F565" s="23" t="s">
+        <v>226</v>
+      </c>
+      <c r="G565" s="23" t="s">
+        <v>1156</v>
+      </c>
+      <c r="H565" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I565" s="23" t="s">
+        <v>855</v>
+      </c>
+      <c r="J565" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="K565" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="L565" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="M565" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="N565" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="O565" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="P565" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q565" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="R565" s="23" t="s">
+        <v>3117</v>
+      </c>
+      <c r="S565" s="24" t="s">
         <v>3118</v>
-      </c>
-      <c r="AA564" s="16" t="s">
-        <v>3119</v>
-      </c>
-      <c r="AB564" s="38"/>
-      <c r="AC564" s="38"/>
-      <c r="AD564" s="38"/>
-      <c r="AE564" s="50"/>
-      <c r="AG564" s="17">
-        <v>0.10199999999999999</v>
-      </c>
-      <c r="AH564" s="57">
-        <v>3.6600000000000001E-2</v>
-      </c>
-      <c r="AI564" s="16" t="s">
-        <v>304</v>
-      </c>
-      <c r="AM564" s="16">
-        <v>0.18029999999999999</v>
-      </c>
-      <c r="AN564" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="AO564" s="16" t="s">
-        <v>3128</v>
-      </c>
-      <c r="AS564" s="16">
-        <v>24</v>
-      </c>
-      <c r="AT564" s="16" t="s">
-        <v>3129</v>
-      </c>
-      <c r="AU564" s="16" t="s">
-        <v>3122</v>
-      </c>
-      <c r="AV564" s="16" t="s">
-        <v>3130</v>
-      </c>
-    </row>
-    <row r="565" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A565" s="14" t="s">
-        <v>1849</v>
-      </c>
-      <c r="B565" s="15" t="s">
-        <v>3109</v>
-      </c>
-      <c r="C565" s="16" t="s">
-        <v>2588</v>
-      </c>
-      <c r="D565" s="16">
-        <v>2018</v>
-      </c>
-      <c r="E565" s="16" t="s">
-        <v>2589</v>
-      </c>
-      <c r="F565" s="16" t="s">
-        <v>2590</v>
-      </c>
-      <c r="G565" s="16" t="s">
-        <v>1156</v>
-      </c>
-      <c r="H565" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="I565" s="16" t="s">
-        <v>2591</v>
-      </c>
-      <c r="J565" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="K565" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="L565" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="M565" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="N565" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="O565" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="P565" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q565" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="R565" s="16" t="s">
-        <v>3137</v>
-      </c>
-      <c r="S565" s="17" t="s">
-        <v>3115</v>
       </c>
       <c r="T565" s="19"/>
       <c r="U565" s="19"/>
-      <c r="V565" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="W565" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="X565" s="16" t="s">
+      <c r="V565" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="W565" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="X565" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="Y565" s="16" t="s">
+      <c r="Y565" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="Z565" s="16" t="s">
-        <v>3118</v>
-      </c>
-      <c r="AA565" s="16" t="s">
-        <v>1846</v>
-      </c>
-      <c r="AB565" s="38" t="s">
-        <v>1846</v>
-      </c>
-      <c r="AC565" s="38" t="s">
-        <v>1848</v>
-      </c>
-      <c r="AD565" s="38"/>
-      <c r="AE565" s="50"/>
-      <c r="AF565" s="17"/>
-      <c r="AG565" s="17">
-        <v>6.3E-2</v>
-      </c>
-      <c r="AH565" s="57">
-        <v>5.3400000000000003E-2</v>
-      </c>
-      <c r="AI565" s="16" t="s">
-        <v>304</v>
-      </c>
-      <c r="AM565" s="16">
-        <v>0.19389999999999999</v>
-      </c>
-      <c r="AN565" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="AS565" s="16">
+      <c r="Z565" s="23" t="s">
+        <v>3119</v>
+      </c>
+      <c r="AA565" s="23" t="s">
+        <v>3135</v>
+      </c>
+      <c r="AB565" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC565" s="39"/>
+      <c r="AD565" s="39"/>
+      <c r="AE565" s="51" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF565" s="24"/>
+      <c r="AG565" s="24">
+        <v>1.04</v>
+      </c>
+      <c r="AH565" s="58">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="AI565" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ565" s="23">
+        <v>0.75</v>
+      </c>
+      <c r="AK565" s="23">
+        <v>1.33</v>
+      </c>
+      <c r="AL565" s="23">
+        <v>0.95</v>
+      </c>
+      <c r="AN565" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO565" s="23" t="s">
+        <v>3136</v>
+      </c>
+      <c r="AP565" s="23" t="s">
+        <v>3122</v>
+      </c>
+      <c r="AQ565" s="23" t="s">
+        <v>1831</v>
+      </c>
+      <c r="AS565" s="23">
         <v>10</v>
       </c>
-      <c r="AT565" s="16" t="s">
-        <v>3131</v>
-      </c>
-      <c r="AU565" s="16" t="s">
-        <v>3122</v>
-      </c>
-      <c r="AV565" s="16" t="s">
-        <v>3132</v>
+      <c r="AT565" s="23" t="s">
+        <v>3123</v>
+      </c>
+      <c r="AU565" s="23" t="s">
+        <v>1434</v>
+      </c>
+      <c r="AV565" s="23" t="s">
+        <v>3137</v>
       </c>
     </row>
-    <row r="566" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A566" s="14" t="s">
-        <v>1849</v>
-      </c>
-      <c r="B566" s="15" t="s">
-        <v>3109</v>
-      </c>
-      <c r="C566" s="16" t="s">
-        <v>2588</v>
-      </c>
-      <c r="D566" s="16">
-        <v>2018</v>
-      </c>
-      <c r="E566" s="16" t="s">
-        <v>2589</v>
-      </c>
-      <c r="F566" s="16" t="s">
-        <v>2590</v>
-      </c>
-      <c r="G566" s="16" t="s">
-        <v>1156</v>
-      </c>
-      <c r="H566" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="I566" s="16" t="s">
-        <v>2591</v>
-      </c>
-      <c r="J566" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="K566" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="L566" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="M566" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="N566" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="O566" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="P566" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q566" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="R566" s="16" t="s">
-        <v>3137</v>
-      </c>
-      <c r="S566" s="17" t="s">
-        <v>3116</v>
-      </c>
-      <c r="T566" s="19"/>
-      <c r="U566" s="19"/>
-      <c r="V566" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="W566" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="X566" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y566" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z566" s="16" t="s">
-        <v>3118</v>
-      </c>
-      <c r="AA566" s="16" t="s">
-        <v>3125</v>
-      </c>
-      <c r="AB566" s="38" t="s">
-        <v>98</v>
-      </c>
-      <c r="AC566" s="38" t="s">
-        <v>1535</v>
-      </c>
-      <c r="AD566" s="38"/>
-      <c r="AE566" s="50"/>
-      <c r="AF566" s="17"/>
-      <c r="AG566" s="17">
-        <v>0.114</v>
-      </c>
-      <c r="AH566" s="57">
-        <v>4.7199999999999999E-2</v>
-      </c>
-      <c r="AI566" s="16" t="s">
-        <v>304</v>
-      </c>
-      <c r="AM566" s="16">
-        <v>0.18110000000000001</v>
-      </c>
-      <c r="AN566" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="AS566" s="16">
-        <v>12</v>
-      </c>
-      <c r="AT566" s="16" t="s">
-        <v>3133</v>
-      </c>
-      <c r="AU566" s="16" t="s">
-        <v>3122</v>
-      </c>
-      <c r="AV566" s="16" t="s">
-        <v>3134</v>
-      </c>
+    <row r="566" spans="1:48" s="62" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A566" s="60"/>
+      <c r="B566" s="61" t="s">
+        <v>3138</v>
+      </c>
+      <c r="C566" s="62" t="s">
+        <v>3141</v>
+      </c>
+      <c r="S566" s="63"/>
+      <c r="T566" s="63"/>
+      <c r="U566" s="63"/>
+      <c r="AB566" s="64"/>
+      <c r="AC566" s="64"/>
+      <c r="AD566" s="64"/>
+      <c r="AE566" s="65"/>
+      <c r="AF566" s="63"/>
+      <c r="AG566" s="63"/>
+      <c r="AH566" s="66"/>
     </row>
     <row r="567" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A567" s="14" t="s">
         <v>1849</v>
       </c>
       <c r="B567" s="15" t="s">
-        <v>3109</v>
+        <v>3139</v>
       </c>
       <c r="C567" s="16" t="s">
-        <v>2588</v>
+        <v>3195</v>
       </c>
       <c r="D567" s="16">
-        <v>2018</v>
+        <v>2022</v>
       </c>
       <c r="E567" s="16" t="s">
-        <v>2589</v>
+        <v>3150</v>
       </c>
       <c r="F567" s="16" t="s">
-        <v>2590</v>
+        <v>794</v>
       </c>
       <c r="G567" s="16" t="s">
-        <v>1156</v>
+        <v>45</v>
       </c>
       <c r="H567" s="16" t="s">
         <v>46</v>
       </c>
       <c r="I567" s="16" t="s">
-        <v>2591</v>
+        <v>145</v>
       </c>
       <c r="J567" s="16" t="s">
         <v>46</v>
@@ -85125,7 +85137,7 @@
         <v>46</v>
       </c>
       <c r="L567" s="16" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="M567" s="16" t="s">
         <v>61</v>
@@ -85143,10 +85155,10 @@
         <v>46</v>
       </c>
       <c r="R567" s="16" t="s">
-        <v>3137</v>
+        <v>3151</v>
       </c>
       <c r="S567" s="17" t="s">
-        <v>3117</v>
+        <v>3140</v>
       </c>
       <c r="T567" s="19"/>
       <c r="U567" s="19"/>
@@ -85157,697 +85169,711 @@
         <v>50</v>
       </c>
       <c r="X567" s="16" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="Y567" s="16" t="s">
         <v>52</v>
       </c>
       <c r="Z567" s="16" t="s">
-        <v>3118</v>
+        <v>3152</v>
       </c>
       <c r="AA567" s="16" t="s">
-        <v>2622</v>
-      </c>
-      <c r="AB567" s="38"/>
-      <c r="AC567" s="38"/>
+        <v>3153</v>
+      </c>
+      <c r="AB567" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC567" s="38" t="s">
+        <v>74</v>
+      </c>
       <c r="AD567" s="38"/>
-      <c r="AE567" s="50"/>
+      <c r="AE567" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF567" s="17"/>
       <c r="AG567" s="17">
-        <v>0.153</v>
+        <v>-0.69</v>
       </c>
       <c r="AH567" s="57">
-        <v>5.8400000000000001E-2</v>
-      </c>
-      <c r="AI567" s="50" t="s">
-        <v>304</v>
-      </c>
-      <c r="AM567" s="16">
-        <v>0.13189999999999999</v>
+        <v>2.04081632653061E-2</v>
+      </c>
+      <c r="AI567" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ567" s="16">
+        <v>-0.73</v>
+      </c>
+      <c r="AK567" s="16">
+        <v>-0.65</v>
+      </c>
+      <c r="AL567" s="16">
+        <v>0.95</v>
       </c>
       <c r="AN567" s="16" t="s">
-        <v>113</v>
+        <v>56</v>
+      </c>
+      <c r="AO567" s="16" t="s">
+        <v>3154</v>
+      </c>
+      <c r="AQ567" s="16" t="s">
+        <v>306</v>
       </c>
       <c r="AS567" s="16">
-        <v>11</v>
+        <v>541</v>
       </c>
       <c r="AT567" s="16" t="s">
-        <v>3135</v>
+        <v>3155</v>
       </c>
       <c r="AU567" s="16" t="s">
-        <v>3122</v>
+        <v>3156</v>
       </c>
       <c r="AV567" s="16" t="s">
-        <v>3136</v>
+        <v>3157</v>
       </c>
     </row>
-    <row r="568" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A568" s="21" t="s">
+    <row r="568" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A568" s="14" t="s">
         <v>1849</v>
       </c>
-      <c r="B568" s="22" t="s">
-        <v>3138</v>
-      </c>
-      <c r="C568" s="23" t="s">
-        <v>3140</v>
-      </c>
-      <c r="D568" s="23">
-        <v>2017</v>
-      </c>
-      <c r="E568" s="23" t="s">
-        <v>3141</v>
-      </c>
-      <c r="F568" s="23" t="s">
-        <v>226</v>
-      </c>
-      <c r="G568" s="23" t="s">
-        <v>1156</v>
-      </c>
-      <c r="H568" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="I568" s="23" t="s">
-        <v>855</v>
-      </c>
-      <c r="J568" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="K568" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="L568" s="23" t="s">
+      <c r="B568" s="15" t="s">
+        <v>3139</v>
+      </c>
+      <c r="C568" s="16" t="s">
+        <v>3195</v>
+      </c>
+      <c r="D568" s="16">
+        <v>2022</v>
+      </c>
+      <c r="E568" s="16" t="s">
+        <v>3150</v>
+      </c>
+      <c r="F568" s="16" t="s">
+        <v>794</v>
+      </c>
+      <c r="G568" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H568" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I568" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="J568" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="K568" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="L568" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="M568" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="N568" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="O568" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="P568" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q568" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="R568" s="23" t="s">
-        <v>3145</v>
-      </c>
-      <c r="S568" s="24" t="s">
-        <v>3139</v>
+      <c r="M568" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="N568" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="O568" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="P568" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q568" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="R568" s="16" t="s">
+        <v>3151</v>
+      </c>
+      <c r="S568" s="17" t="s">
+        <v>3142</v>
       </c>
       <c r="T568" s="19"/>
       <c r="U568" s="19"/>
-      <c r="V568" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="W568" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="X568" s="23" t="s">
+      <c r="V568" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="W568" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="X568" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="Y568" s="23" t="s">
+      <c r="Y568" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="Z568" s="23" t="s">
-        <v>3147</v>
-      </c>
-      <c r="AA568" s="23" t="s">
-        <v>3148</v>
-      </c>
-      <c r="AB568" s="39" t="s">
-        <v>85</v>
-      </c>
-      <c r="AC568" s="39"/>
-      <c r="AD568" s="39"/>
-      <c r="AE568" s="51" t="s">
+      <c r="Z568" s="16" t="s">
+        <v>3152</v>
+      </c>
+      <c r="AA568" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="AB568" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="AC568" s="38" t="s">
+        <v>1825</v>
+      </c>
+      <c r="AD568" s="38"/>
+      <c r="AE568" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="AF568" s="24"/>
-      <c r="AG568" s="24">
-        <v>1.0900000000000001</v>
-      </c>
-      <c r="AH568" s="58">
-        <v>0.15310000000000001</v>
-      </c>
-      <c r="AI568" s="23" t="s">
+      <c r="AF568" s="17"/>
+      <c r="AG568" s="17">
+        <v>-0.66</v>
+      </c>
+      <c r="AH568" s="57">
+        <v>3.3163265306122403E-2</v>
+      </c>
+      <c r="AI568" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="AJ568" s="23">
-        <v>0.79</v>
-      </c>
-      <c r="AK568" s="23">
-        <v>1.39</v>
-      </c>
-      <c r="AL568" s="23">
+      <c r="AJ568" s="16">
+        <v>-0.73</v>
+      </c>
+      <c r="AK568" s="16">
+        <v>-0.6</v>
+      </c>
+      <c r="AL568" s="16">
         <v>0.95</v>
       </c>
-      <c r="AN568" s="23" t="s">
+      <c r="AN568" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="AO568" s="23" t="s">
-        <v>3149</v>
-      </c>
-      <c r="AP568" s="23" t="s">
+      <c r="AO568" s="16" t="s">
+        <v>3154</v>
+      </c>
+      <c r="AQ568" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="AS568" s="16">
+        <v>182</v>
+      </c>
+      <c r="AT568" s="16" t="s">
+        <v>3158</v>
+      </c>
+      <c r="AU568" s="16" t="s">
+        <v>3156</v>
+      </c>
+      <c r="AV568" s="16" t="s">
+        <v>3157</v>
+      </c>
+    </row>
+    <row r="569" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A569" s="14" t="s">
+        <v>1849</v>
+      </c>
+      <c r="B569" s="15" t="s">
+        <v>3139</v>
+      </c>
+      <c r="C569" s="16" t="s">
+        <v>3195</v>
+      </c>
+      <c r="D569" s="16">
+        <v>2022</v>
+      </c>
+      <c r="E569" s="16" t="s">
         <v>3150</v>
       </c>
-      <c r="AQ568" s="23" t="s">
-        <v>1831</v>
-      </c>
-      <c r="AS568" s="23">
-        <v>10</v>
-      </c>
-      <c r="AT568" s="23" t="s">
+      <c r="F569" s="16" t="s">
+        <v>794</v>
+      </c>
+      <c r="G569" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H569" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I569" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="J569" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="K569" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="L569" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="M569" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="N569" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="O569" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="P569" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q569" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="R569" s="16" t="s">
         <v>3151</v>
       </c>
-      <c r="AU568" s="23" t="s">
-        <v>1434</v>
-      </c>
-      <c r="AV568" s="23" t="s">
-        <v>3152</v>
-      </c>
-    </row>
-    <row r="569" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A569" s="21" t="s">
-        <v>1849</v>
-      </c>
-      <c r="B569" s="22" t="s">
-        <v>3138</v>
-      </c>
-      <c r="C569" s="23" t="s">
-        <v>3140</v>
-      </c>
-      <c r="D569" s="23">
-        <v>2017</v>
-      </c>
-      <c r="E569" s="23" t="s">
-        <v>3141</v>
-      </c>
-      <c r="F569" s="23" t="s">
-        <v>226</v>
-      </c>
-      <c r="G569" s="23" t="s">
-        <v>1156</v>
-      </c>
-      <c r="H569" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="I569" s="23" t="s">
-        <v>855</v>
-      </c>
-      <c r="J569" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="K569" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="L569" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="M569" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="N569" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="O569" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="P569" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q569" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="R569" s="23" t="s">
-        <v>3145</v>
-      </c>
-      <c r="S569" s="24" t="s">
-        <v>3142</v>
+      <c r="S569" s="17" t="s">
+        <v>3143</v>
       </c>
       <c r="T569" s="19"/>
       <c r="U569" s="19"/>
-      <c r="V569" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="W569" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="X569" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y569" s="23" t="s">
+      <c r="V569" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="W569" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="X569" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y569" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="Z569" s="23" t="s">
-        <v>3147</v>
-      </c>
-      <c r="AA569" s="23" t="s">
-        <v>3153</v>
-      </c>
-      <c r="AB569" s="39" t="s">
-        <v>85</v>
-      </c>
-      <c r="AC569" s="39"/>
-      <c r="AD569" s="39"/>
-      <c r="AE569" s="51" t="s">
+      <c r="Z569" s="16" t="s">
+        <v>3152</v>
+      </c>
+      <c r="AA569" s="16" t="s">
+        <v>593</v>
+      </c>
+      <c r="AB569" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC569" s="38" t="s">
+        <v>269</v>
+      </c>
+      <c r="AD569" s="38"/>
+      <c r="AE569" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="AF569" s="24"/>
-      <c r="AG569" s="24">
-        <v>1.23</v>
-      </c>
-      <c r="AH569" s="58">
-        <v>0.1633</v>
-      </c>
-      <c r="AI569" s="23" t="s">
+      <c r="AF569" s="17"/>
+      <c r="AG569" s="17">
+        <v>-0.66</v>
+      </c>
+      <c r="AH569" s="57">
+        <v>6.3775510204081606E-2</v>
+      </c>
+      <c r="AI569" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="AJ569" s="23">
-        <v>0.91</v>
-      </c>
-      <c r="AK569" s="23">
-        <v>1.55</v>
-      </c>
-      <c r="AL569" s="23">
+      <c r="AJ569" s="16">
+        <v>-0.78</v>
+      </c>
+      <c r="AK569" s="16">
+        <v>-0.53</v>
+      </c>
+      <c r="AL569" s="16">
         <v>0.95</v>
       </c>
-      <c r="AN569" s="23" t="s">
+      <c r="AN569" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="AO569" s="23" t="s">
-        <v>3149</v>
-      </c>
-      <c r="AP569" s="23" t="s">
+      <c r="AO569" s="16" t="s">
+        <v>3154</v>
+      </c>
+      <c r="AQ569" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="AS569" s="16">
+        <v>100</v>
+      </c>
+      <c r="AT569" s="16" t="s">
+        <v>3167</v>
+      </c>
+      <c r="AU569" s="16" t="s">
+        <v>3156</v>
+      </c>
+      <c r="AV569" s="16" t="s">
+        <v>3157</v>
+      </c>
+    </row>
+    <row r="570" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A570" s="14" t="s">
+        <v>1849</v>
+      </c>
+      <c r="B570" s="15" t="s">
+        <v>3139</v>
+      </c>
+      <c r="C570" s="16" t="s">
+        <v>3195</v>
+      </c>
+      <c r="D570" s="16">
+        <v>2022</v>
+      </c>
+      <c r="E570" s="16" t="s">
         <v>3150</v>
       </c>
-      <c r="AQ569" s="23" t="s">
-        <v>1831</v>
-      </c>
-      <c r="AS569" s="23">
-        <v>10</v>
-      </c>
-      <c r="AT569" s="23" t="s">
-        <v>3154</v>
-      </c>
-      <c r="AU569" s="23" t="s">
-        <v>1434</v>
-      </c>
-      <c r="AV569" s="23" t="s">
-        <v>3155</v>
-      </c>
-    </row>
-    <row r="570" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A570" s="21" t="s">
-        <v>1849</v>
-      </c>
-      <c r="B570" s="22" t="s">
-        <v>3138</v>
-      </c>
-      <c r="C570" s="23" t="s">
-        <v>3140</v>
-      </c>
-      <c r="D570" s="23">
-        <v>2017</v>
-      </c>
-      <c r="E570" s="23" t="s">
-        <v>3141</v>
-      </c>
-      <c r="F570" s="23" t="s">
-        <v>226</v>
-      </c>
-      <c r="G570" s="23" t="s">
-        <v>1156</v>
-      </c>
-      <c r="H570" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="I570" s="23" t="s">
-        <v>855</v>
-      </c>
-      <c r="J570" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="K570" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="L570" s="23" t="s">
+      <c r="F570" s="16" t="s">
+        <v>794</v>
+      </c>
+      <c r="G570" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H570" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I570" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="J570" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="K570" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="L570" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="M570" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="N570" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="O570" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="P570" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q570" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="R570" s="23" t="s">
-        <v>3145</v>
-      </c>
-      <c r="S570" s="24" t="s">
-        <v>3143</v>
+      <c r="M570" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="N570" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="O570" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="P570" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q570" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="R570" s="16" t="s">
+        <v>3151</v>
+      </c>
+      <c r="S570" s="17" t="s">
+        <v>3144</v>
       </c>
       <c r="T570" s="19"/>
       <c r="U570" s="19"/>
-      <c r="V570" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="W570" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="X570" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y570" s="23" t="s">
+      <c r="V570" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="W570" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="X570" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y570" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="Z570" s="23" t="s">
-        <v>3147</v>
-      </c>
-      <c r="AA570" s="23" t="s">
+      <c r="Z570" s="16" t="s">
+        <v>3152</v>
+      </c>
+      <c r="AA570" s="16" t="s">
+        <v>3168</v>
+      </c>
+      <c r="AB570" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC570" s="38" t="s">
+        <v>217</v>
+      </c>
+      <c r="AD570" s="38"/>
+      <c r="AE570" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF570" s="17"/>
+      <c r="AG570" s="17">
+        <v>-0.56000000000000005</v>
+      </c>
+      <c r="AH570" s="57">
+        <v>6.6326530612244805E-2</v>
+      </c>
+      <c r="AI570" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ570" s="16">
+        <v>-0.69</v>
+      </c>
+      <c r="AK570" s="16">
+        <v>-0.43</v>
+      </c>
+      <c r="AL570" s="16">
+        <v>0.95</v>
+      </c>
+      <c r="AN570" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO570" s="16" t="s">
+        <v>3154</v>
+      </c>
+      <c r="AQ570" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="AS570" s="16">
+        <v>63</v>
+      </c>
+      <c r="AT570" s="16" t="s">
+        <v>3169</v>
+      </c>
+      <c r="AU570" s="16" t="s">
         <v>3156</v>
       </c>
-      <c r="AB570" s="39" t="s">
-        <v>85</v>
-      </c>
-      <c r="AC570" s="39"/>
-      <c r="AD570" s="39"/>
-      <c r="AE570" s="51" t="s">
-        <v>54</v>
-      </c>
-      <c r="AF570" s="24"/>
-      <c r="AG570" s="24">
-        <v>0.97</v>
-      </c>
-      <c r="AH570" s="58">
-        <v>0.17349999999999999</v>
-      </c>
-      <c r="AI570" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="AJ570" s="23">
-        <v>0.63</v>
-      </c>
-      <c r="AK570" s="23">
-        <v>1.31</v>
-      </c>
-      <c r="AL570" s="23">
-        <v>0.95</v>
-      </c>
-      <c r="AN570" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="AO570" s="23" t="s">
+      <c r="AV570" s="16" t="s">
         <v>3157</v>
       </c>
-      <c r="AP570" s="23" t="s">
+    </row>
+    <row r="571" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A571" s="14" t="s">
+        <v>1849</v>
+      </c>
+      <c r="B571" s="15" t="s">
+        <v>3139</v>
+      </c>
+      <c r="C571" s="16" t="s">
+        <v>3195</v>
+      </c>
+      <c r="D571" s="16">
+        <v>2022</v>
+      </c>
+      <c r="E571" s="16" t="s">
         <v>3150</v>
       </c>
-      <c r="AQ570" s="23" t="s">
-        <v>1831</v>
-      </c>
-      <c r="AS570" s="23">
-        <v>10</v>
-      </c>
-      <c r="AT570" s="23" t="s">
-        <v>3158</v>
-      </c>
-      <c r="AU570" s="23" t="s">
-        <v>1434</v>
-      </c>
-      <c r="AV570" s="23" t="s">
-        <v>3159</v>
-      </c>
-    </row>
-    <row r="571" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A571" s="21" t="s">
-        <v>1849</v>
-      </c>
-      <c r="B571" s="22" t="s">
-        <v>3138</v>
-      </c>
-      <c r="C571" s="23" t="s">
-        <v>3140</v>
-      </c>
-      <c r="D571" s="23">
-        <v>2017</v>
-      </c>
-      <c r="E571" s="23" t="s">
-        <v>3141</v>
-      </c>
-      <c r="F571" s="23" t="s">
-        <v>226</v>
-      </c>
-      <c r="G571" s="23" t="s">
-        <v>1156</v>
-      </c>
-      <c r="H571" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="I571" s="23" t="s">
-        <v>855</v>
-      </c>
-      <c r="J571" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="K571" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="L571" s="23" t="s">
+      <c r="F571" s="16" t="s">
+        <v>794</v>
+      </c>
+      <c r="G571" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H571" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I571" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="J571" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="K571" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="L571" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="M571" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="N571" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="O571" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="P571" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q571" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="R571" s="23" t="s">
+      <c r="M571" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="N571" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="O571" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="P571" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q571" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="R571" s="16" t="s">
+        <v>3151</v>
+      </c>
+      <c r="S571" s="17" t="s">
         <v>3145</v>
-      </c>
-      <c r="S571" s="24" t="s">
-        <v>3144</v>
       </c>
       <c r="T571" s="19"/>
       <c r="U571" s="19"/>
-      <c r="V571" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="W571" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="X571" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y571" s="23" t="s">
+      <c r="V571" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="W571" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="X571" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y571" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="Z571" s="23" t="s">
-        <v>3147</v>
-      </c>
-      <c r="AA571" s="23" t="s">
-        <v>3160</v>
-      </c>
-      <c r="AB571" s="39" t="s">
-        <v>85</v>
-      </c>
-      <c r="AC571" s="39"/>
-      <c r="AD571" s="39"/>
-      <c r="AE571" s="51" t="s">
+      <c r="Z571" s="16" t="s">
+        <v>3152</v>
+      </c>
+      <c r="AA571" s="16" t="s">
+        <v>3170</v>
+      </c>
+      <c r="AB571" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="AC571" s="38" t="s">
+        <v>1825</v>
+      </c>
+      <c r="AD571" s="38"/>
+      <c r="AE571" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="AF571" s="24"/>
-      <c r="AG571" s="24">
-        <v>0.98</v>
-      </c>
-      <c r="AH571" s="58">
-        <v>0.26019999999999999</v>
-      </c>
-      <c r="AI571" s="23" t="s">
+      <c r="AF571" s="17"/>
+      <c r="AG571" s="17">
+        <v>-0.48</v>
+      </c>
+      <c r="AH571" s="57">
+        <v>0.15816326530612199</v>
+      </c>
+      <c r="AI571" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="AJ571" s="23">
-        <v>0.47</v>
-      </c>
-      <c r="AK571" s="23">
-        <v>1.49</v>
-      </c>
-      <c r="AL571" s="23">
+      <c r="AJ571" s="16">
+        <v>-0.79</v>
+      </c>
+      <c r="AK571" s="16">
+        <v>-0.17</v>
+      </c>
+      <c r="AL571" s="16">
         <v>0.95</v>
       </c>
-      <c r="AN571" s="23" t="s">
+      <c r="AN571" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="AO571" s="23" t="s">
-        <v>3157</v>
-      </c>
-      <c r="AP571" s="23" t="s">
+      <c r="AO571" s="16" t="s">
+        <v>3154</v>
+      </c>
+      <c r="AQ571" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="AS571" s="16">
+        <v>19</v>
+      </c>
+      <c r="AT571" s="16" t="s">
+        <v>3171</v>
+      </c>
+      <c r="AU571" s="16" t="s">
+        <v>3156</v>
+      </c>
+      <c r="AV571" s="16" t="s">
+        <v>3172</v>
+      </c>
+    </row>
+    <row r="572" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A572" s="14" t="s">
+        <v>1849</v>
+      </c>
+      <c r="B572" s="15" t="s">
+        <v>3139</v>
+      </c>
+      <c r="C572" s="16" t="s">
+        <v>3195</v>
+      </c>
+      <c r="D572" s="16">
+        <v>2022</v>
+      </c>
+      <c r="E572" s="16" t="s">
         <v>3150</v>
       </c>
-      <c r="AQ571" s="23" t="s">
-        <v>1831</v>
-      </c>
-      <c r="AS571" s="23">
-        <v>4</v>
-      </c>
-      <c r="AT571" s="23" t="s">
-        <v>3161</v>
-      </c>
-      <c r="AU571" s="23" t="s">
-        <v>1434</v>
-      </c>
-      <c r="AV571" s="23" t="s">
-        <v>3162</v>
-      </c>
-    </row>
-    <row r="572" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A572" s="21" t="s">
-        <v>1849</v>
-      </c>
-      <c r="B572" s="22" t="s">
-        <v>3138</v>
-      </c>
-      <c r="C572" s="23" t="s">
-        <v>3140</v>
-      </c>
-      <c r="D572" s="23">
-        <v>2017</v>
-      </c>
-      <c r="E572" s="23" t="s">
-        <v>3141</v>
-      </c>
-      <c r="F572" s="23" t="s">
-        <v>226</v>
-      </c>
-      <c r="G572" s="23" t="s">
-        <v>1156</v>
-      </c>
-      <c r="H572" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="I572" s="23" t="s">
-        <v>855</v>
-      </c>
-      <c r="J572" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="K572" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="L572" s="23" t="s">
+      <c r="F572" s="16" t="s">
+        <v>794</v>
+      </c>
+      <c r="G572" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H572" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I572" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="J572" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="K572" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="L572" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="M572" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="N572" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="O572" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="P572" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q572" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="R572" s="23" t="s">
-        <v>3145</v>
-      </c>
-      <c r="S572" s="24" t="s">
+      <c r="M572" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="N572" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="O572" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="P572" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q572" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="R572" s="16" t="s">
+        <v>3151</v>
+      </c>
+      <c r="S572" s="17" t="s">
         <v>3146</v>
       </c>
       <c r="T572" s="19"/>
       <c r="U572" s="19"/>
-      <c r="V572" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="W572" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="X572" s="23" t="s">
+      <c r="V572" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="W572" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="X572" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="Y572" s="23" t="s">
+      <c r="Y572" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="Z572" s="23" t="s">
-        <v>3147</v>
-      </c>
-      <c r="AA572" s="23" t="s">
-        <v>3164</v>
-      </c>
-      <c r="AB572" s="39" t="s">
-        <v>85</v>
-      </c>
-      <c r="AC572" s="39"/>
-      <c r="AD572" s="39"/>
-      <c r="AE572" s="51" t="s">
+      <c r="Z572" s="16" t="s">
+        <v>3152</v>
+      </c>
+      <c r="AA572" s="16" t="s">
+        <v>277</v>
+      </c>
+      <c r="AB572" s="38" t="s">
+        <v>277</v>
+      </c>
+      <c r="AC572" s="38" t="s">
+        <v>303</v>
+      </c>
+      <c r="AD572" s="38"/>
+      <c r="AE572" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="AF572" s="24"/>
-      <c r="AG572" s="24">
-        <v>1.04</v>
-      </c>
-      <c r="AH572" s="58">
-        <v>0.14799999999999999</v>
-      </c>
-      <c r="AI572" s="23" t="s">
+      <c r="AF572" s="17"/>
+      <c r="AG572" s="17">
+        <v>-0.7</v>
+      </c>
+      <c r="AH572" s="57">
+        <v>4.8469387755101997E-2</v>
+      </c>
+      <c r="AI572" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="AJ572" s="23">
-        <v>0.75</v>
-      </c>
-      <c r="AK572" s="23">
-        <v>1.33</v>
-      </c>
-      <c r="AL572" s="23">
+      <c r="AJ572" s="16">
+        <v>-0.79</v>
+      </c>
+      <c r="AK572" s="16">
+        <v>-0.6</v>
+      </c>
+      <c r="AL572" s="16">
         <v>0.95</v>
       </c>
-      <c r="AN572" s="23" t="s">
+      <c r="AN572" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="AO572" s="23" t="s">
-        <v>3165</v>
-      </c>
-      <c r="AP572" s="23" t="s">
-        <v>3150</v>
-      </c>
-      <c r="AQ572" s="23" t="s">
-        <v>1831</v>
-      </c>
-      <c r="AS572" s="23">
-        <v>10</v>
-      </c>
-      <c r="AT572" s="23" t="s">
-        <v>3151</v>
-      </c>
-      <c r="AU572" s="23" t="s">
-        <v>1434</v>
-      </c>
-      <c r="AV572" s="23" t="s">
-        <v>3166</v>
+      <c r="AO572" s="16" t="s">
+        <v>3154</v>
+      </c>
+      <c r="AQ572" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="AS572" s="16">
+        <v>112</v>
+      </c>
+      <c r="AT572" s="16" t="s">
+        <v>3173</v>
+      </c>
+      <c r="AU572" s="16" t="s">
+        <v>3156</v>
+      </c>
+      <c r="AV572" s="16" t="s">
+        <v>3157</v>
       </c>
     </row>
     <row r="573" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -85855,20 +85881,1481 @@
         <v>1849</v>
       </c>
       <c r="B573" s="15" t="s">
-        <v>3167</v>
+        <v>3139</v>
+      </c>
+      <c r="C573" s="16" t="s">
+        <v>3195</v>
+      </c>
+      <c r="D573" s="16">
+        <v>2022</v>
+      </c>
+      <c r="E573" s="16" t="s">
+        <v>3150</v>
+      </c>
+      <c r="F573" s="16" t="s">
+        <v>794</v>
+      </c>
+      <c r="G573" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H573" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I573" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="J573" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="K573" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="L573" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="M573" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="N573" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="O573" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="P573" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q573" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="R573" s="16" t="s">
+        <v>3151</v>
       </c>
       <c r="S573" s="17" t="s">
+        <v>3147</v>
+      </c>
+      <c r="T573" s="19"/>
+      <c r="U573" s="19"/>
+      <c r="V573" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="W573" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="X573" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y573" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z573" s="16" t="s">
+        <v>3152</v>
+      </c>
+      <c r="AA573" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB573" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC573" s="38" t="s">
+        <v>78</v>
+      </c>
+      <c r="AD573" s="38"/>
+      <c r="AE573" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF573" s="17"/>
+      <c r="AG573" s="17">
+        <v>-0.72</v>
+      </c>
+      <c r="AH573" s="57">
+        <v>4.5918367346938702E-2</v>
+      </c>
+      <c r="AI573" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ573" s="16">
+        <v>-0.81</v>
+      </c>
+      <c r="AK573" s="16">
+        <v>-0.63</v>
+      </c>
+      <c r="AL573" s="16">
+        <v>0.95</v>
+      </c>
+      <c r="AN573" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO573" s="16" t="s">
+        <v>3154</v>
+      </c>
+      <c r="AQ573" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="AS573" s="16">
+        <v>137</v>
+      </c>
+      <c r="AT573" s="16" t="s">
+        <v>3174</v>
+      </c>
+      <c r="AU573" s="16" t="s">
+        <v>3156</v>
+      </c>
+      <c r="AV573" s="16" t="s">
+        <v>3157</v>
+      </c>
+    </row>
+    <row r="574" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A574" s="14" t="s">
+        <v>1849</v>
+      </c>
+      <c r="B574" s="15" t="s">
+        <v>3139</v>
+      </c>
+      <c r="C574" s="16" t="s">
+        <v>3195</v>
+      </c>
+      <c r="D574" s="16">
+        <v>2022</v>
+      </c>
+      <c r="E574" s="16" t="s">
+        <v>3150</v>
+      </c>
+      <c r="F574" s="16" t="s">
+        <v>794</v>
+      </c>
+      <c r="G574" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H574" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I574" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="J574" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="K574" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="L574" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="M574" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="N574" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="O574" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="P574" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q574" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="R574" s="16" t="s">
+        <v>3151</v>
+      </c>
+      <c r="S574" s="17" t="s">
+        <v>3148</v>
+      </c>
+      <c r="T574" s="19"/>
+      <c r="U574" s="19"/>
+      <c r="V574" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="W574" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="X574" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y574" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z574" s="16" t="s">
+        <v>3152</v>
+      </c>
+      <c r="AA574" s="16" t="s">
+        <v>927</v>
+      </c>
+      <c r="AB574" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="AC574" s="38" t="s">
+        <v>1825</v>
+      </c>
+      <c r="AD574" s="38"/>
+      <c r="AE574" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF574" s="17"/>
+      <c r="AG574" s="17">
+        <v>-0.7</v>
+      </c>
+      <c r="AH574" s="57">
+        <v>2.8061224489795901E-2</v>
+      </c>
+      <c r="AI574" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ574" s="16">
+        <v>-0.75</v>
+      </c>
+      <c r="AK574" s="16">
+        <v>-0.64</v>
+      </c>
+      <c r="AL574" s="16">
+        <v>0.95</v>
+      </c>
+      <c r="AN574" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO574" s="16" t="s">
+        <v>3154</v>
+      </c>
+      <c r="AQ574" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="AS574" s="16">
+        <v>361</v>
+      </c>
+      <c r="AT574" s="16" t="s">
+        <v>3175</v>
+      </c>
+      <c r="AU574" s="16" t="s">
+        <v>3156</v>
+      </c>
+      <c r="AV574" s="16" t="s">
+        <v>3176</v>
+      </c>
+    </row>
+    <row r="575" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A575" s="14" t="s">
+        <v>1849</v>
+      </c>
+      <c r="B575" s="15" t="s">
+        <v>3139</v>
+      </c>
+      <c r="C575" s="16" t="s">
+        <v>3195</v>
+      </c>
+      <c r="D575" s="16">
+        <v>2022</v>
+      </c>
+      <c r="E575" s="16" t="s">
+        <v>3150</v>
+      </c>
+      <c r="F575" s="16" t="s">
+        <v>794</v>
+      </c>
+      <c r="G575" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H575" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I575" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="J575" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="K575" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="L575" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="M575" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="N575" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="O575" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="P575" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q575" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="R575" s="16" t="s">
+        <v>3151</v>
+      </c>
+      <c r="S575" s="17" t="s">
+        <v>3149</v>
+      </c>
+      <c r="T575" s="19"/>
+      <c r="U575" s="19"/>
+      <c r="V575" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="W575" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="X575" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y575" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z575" s="16" t="s">
+        <v>3152</v>
+      </c>
+      <c r="AA575" s="16" t="s">
+        <v>3177</v>
+      </c>
+      <c r="AB575" s="38" t="s">
+        <v>1846</v>
+      </c>
+      <c r="AC575" s="38" t="s">
+        <v>1848</v>
+      </c>
+      <c r="AD575" s="38"/>
+      <c r="AE575" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF575" s="17"/>
+      <c r="AG575" s="17">
+        <v>-0.54</v>
+      </c>
+      <c r="AH575" s="57">
+        <v>5.8673469387755098E-2</v>
+      </c>
+      <c r="AI575" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ575" s="16">
+        <v>-0.65</v>
+      </c>
+      <c r="AK575" s="16">
+        <v>-0.42</v>
+      </c>
+      <c r="AL575" s="16">
+        <v>0.95</v>
+      </c>
+      <c r="AN575" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO575" s="16" t="s">
+        <v>3154</v>
+      </c>
+      <c r="AQ575" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="AS575" s="16">
+        <v>105</v>
+      </c>
+      <c r="AT575" s="16" t="s">
+        <v>3178</v>
+      </c>
+      <c r="AU575" s="16" t="s">
+        <v>3156</v>
+      </c>
+      <c r="AV575" s="16" t="s">
+        <v>3179</v>
+      </c>
+    </row>
+    <row r="576" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A576" s="14" t="s">
+        <v>1849</v>
+      </c>
+      <c r="B576" s="15" t="s">
+        <v>3139</v>
+      </c>
+      <c r="C576" s="16" t="s">
+        <v>3195</v>
+      </c>
+      <c r="D576" s="16">
+        <v>2022</v>
+      </c>
+      <c r="E576" s="16" t="s">
+        <v>3150</v>
+      </c>
+      <c r="F576" s="16" t="s">
+        <v>794</v>
+      </c>
+      <c r="G576" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H576" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I576" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="J576" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="K576" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="L576" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="M576" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="N576" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="O576" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="P576" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q576" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="R576" s="16" t="s">
+        <v>3151</v>
+      </c>
+      <c r="S576" s="17" t="s">
+        <v>3159</v>
+      </c>
+      <c r="T576" s="19"/>
+      <c r="U576" s="19"/>
+      <c r="V576" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="W576" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="X576" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y576" s="16" t="s">
+        <v>351</v>
+      </c>
+      <c r="Z576" s="16" t="s">
+        <v>3180</v>
+      </c>
+      <c r="AA576" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="AB576" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="AC576" s="38" t="s">
+        <v>1825</v>
+      </c>
+      <c r="AD576" s="38"/>
+      <c r="AE576" s="50" t="s">
+        <v>1033</v>
+      </c>
+      <c r="AF576" s="17"/>
+      <c r="AG576" s="17">
+        <v>-0.28999999999999998</v>
+      </c>
+      <c r="AH576" s="57"/>
+      <c r="AI576" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM576" s="16">
+        <v>0.17320508075688701</v>
+      </c>
+      <c r="AN576" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="AO576" s="16" t="s">
+        <v>3154</v>
+      </c>
+      <c r="AQ576" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="AS576" s="16">
+        <v>24</v>
+      </c>
+      <c r="AT576" s="16" t="s">
+        <v>3181</v>
+      </c>
+      <c r="AU576" s="16" t="s">
+        <v>3182</v>
+      </c>
+      <c r="AV576" s="16" t="s">
+        <v>3183</v>
+      </c>
+    </row>
+    <row r="577" spans="1:49" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A577" s="14" t="s">
+        <v>1849</v>
+      </c>
+      <c r="B577" s="15" t="s">
+        <v>3139</v>
+      </c>
+      <c r="C577" s="16" t="s">
+        <v>3195</v>
+      </c>
+      <c r="D577" s="16">
+        <v>2022</v>
+      </c>
+      <c r="E577" s="16" t="s">
+        <v>3150</v>
+      </c>
+      <c r="F577" s="16" t="s">
+        <v>794</v>
+      </c>
+      <c r="G577" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H577" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I577" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="J577" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="K577" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="L577" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="M577" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="N577" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="O577" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="P577" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q577" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="R577" s="16" t="s">
+        <v>3151</v>
+      </c>
+      <c r="S577" s="17" t="s">
+        <v>3160</v>
+      </c>
+      <c r="T577" s="19"/>
+      <c r="U577" s="19"/>
+      <c r="V577" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="W577" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="X577" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y577" s="16" t="s">
+        <v>351</v>
+      </c>
+      <c r="Z577" s="16" t="s">
+        <v>3180</v>
+      </c>
+      <c r="AA577" s="16" t="s">
+        <v>927</v>
+      </c>
+      <c r="AB577" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="AC577" s="38" t="s">
+        <v>1825</v>
+      </c>
+      <c r="AD577" s="38"/>
+      <c r="AE577" s="50" t="s">
+        <v>1033</v>
+      </c>
+      <c r="AF577" s="17"/>
+      <c r="AG577" s="17">
+        <v>-0.28999999999999998</v>
+      </c>
+      <c r="AH577" s="57"/>
+      <c r="AI577" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM577" s="16">
+        <v>0.1</v>
+      </c>
+      <c r="AN577" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="AO577" s="16" t="s">
+        <v>3154</v>
+      </c>
+      <c r="AQ577" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="AS577" s="16">
+        <v>38</v>
+      </c>
+      <c r="AT577" s="16" t="s">
+        <v>3184</v>
+      </c>
+      <c r="AU577" s="16" t="s">
+        <v>3182</v>
+      </c>
+      <c r="AV577" s="16" t="s">
+        <v>3185</v>
+      </c>
+    </row>
+    <row r="578" spans="1:49" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A578" s="14" t="s">
+        <v>1849</v>
+      </c>
+      <c r="B578" s="15" t="s">
+        <v>3139</v>
+      </c>
+      <c r="C578" s="16" t="s">
+        <v>3195</v>
+      </c>
+      <c r="D578" s="16">
+        <v>2022</v>
+      </c>
+      <c r="E578" s="16" t="s">
+        <v>3150</v>
+      </c>
+      <c r="F578" s="16" t="s">
+        <v>794</v>
+      </c>
+      <c r="G578" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H578" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I578" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="J578" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="K578" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="L578" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="M578" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="N578" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="O578" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="P578" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q578" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="R578" s="16" t="s">
+        <v>3151</v>
+      </c>
+      <c r="S578" s="17" t="s">
+        <v>3161</v>
+      </c>
+      <c r="T578" s="19"/>
+      <c r="U578" s="19"/>
+      <c r="V578" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="W578" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="X578" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y578" s="16" t="s">
+        <v>351</v>
+      </c>
+      <c r="Z578" s="16" t="s">
+        <v>3180</v>
+      </c>
+      <c r="AA578" s="16" t="s">
+        <v>3177</v>
+      </c>
+      <c r="AB578" s="38" t="s">
+        <v>1846</v>
+      </c>
+      <c r="AC578" s="38" t="s">
+        <v>1848</v>
+      </c>
+      <c r="AD578" s="38"/>
+      <c r="AE578" s="50" t="s">
+        <v>1033</v>
+      </c>
+      <c r="AF578" s="17"/>
+      <c r="AG578" s="17">
+        <v>-0.26</v>
+      </c>
+      <c r="AH578" s="57"/>
+      <c r="AI578" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM578" s="16">
+        <v>0.17320508075688701</v>
+      </c>
+      <c r="AN578" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="AO578" s="16" t="s">
+        <v>3154</v>
+      </c>
+      <c r="AQ578" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="AS578" s="16">
+        <v>12</v>
+      </c>
+      <c r="AT578" s="16" t="s">
+        <v>3186</v>
+      </c>
+      <c r="AU578" s="16" t="s">
+        <v>3182</v>
+      </c>
+      <c r="AV578" s="16" t="s">
+        <v>3183</v>
+      </c>
+    </row>
+    <row r="579" spans="1:49" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A579" s="14" t="s">
+        <v>1849</v>
+      </c>
+      <c r="B579" s="15" t="s">
+        <v>3139</v>
+      </c>
+      <c r="C579" s="16" t="s">
+        <v>3195</v>
+      </c>
+      <c r="D579" s="16">
+        <v>2022</v>
+      </c>
+      <c r="E579" s="16" t="s">
+        <v>3150</v>
+      </c>
+      <c r="F579" s="16" t="s">
+        <v>794</v>
+      </c>
+      <c r="G579" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H579" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I579" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="J579" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="K579" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="L579" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="M579" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="N579" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="O579" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="P579" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q579" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="R579" s="16" t="s">
+        <v>3151</v>
+      </c>
+      <c r="S579" s="17" t="s">
+        <v>3162</v>
+      </c>
+      <c r="T579" s="19"/>
+      <c r="U579" s="19"/>
+      <c r="V579" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="W579" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="X579" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y579" s="16" t="s">
+        <v>351</v>
+      </c>
+      <c r="Z579" s="16" t="s">
+        <v>3180</v>
+      </c>
+      <c r="AA579" s="16" t="s">
+        <v>1061</v>
+      </c>
+      <c r="AB579" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC579" s="38"/>
+      <c r="AD579" s="38"/>
+      <c r="AE579" s="17" t="s">
+        <v>1033</v>
+      </c>
+      <c r="AF579" s="17"/>
+      <c r="AG579" s="17">
+        <v>-0.3</v>
+      </c>
+      <c r="AI579" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM579" s="16">
+        <v>0.1</v>
+      </c>
+      <c r="AN579" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="AO579" s="16" t="s">
+        <v>3154</v>
+      </c>
+      <c r="AQ579" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="AS579" s="16">
+        <v>12</v>
+      </c>
+      <c r="AT579" s="16" t="s">
+        <v>3187</v>
+      </c>
+      <c r="AU579" s="16" t="s">
+        <v>3182</v>
+      </c>
+      <c r="AW579" s="16" t="s">
+        <v>3188</v>
+      </c>
+    </row>
+    <row r="580" spans="1:49" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A580" s="14" t="s">
+        <v>1849</v>
+      </c>
+      <c r="B580" s="15" t="s">
+        <v>3139</v>
+      </c>
+      <c r="C580" s="16" t="s">
+        <v>3195</v>
+      </c>
+      <c r="D580" s="16">
+        <v>2022</v>
+      </c>
+      <c r="E580" s="16" t="s">
+        <v>3150</v>
+      </c>
+      <c r="F580" s="16" t="s">
+        <v>794</v>
+      </c>
+      <c r="G580" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H580" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I580" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="J580" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="K580" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="L580" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="M580" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="N580" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="O580" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="P580" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q580" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="R580" s="16" t="s">
+        <v>3151</v>
+      </c>
+      <c r="S580" s="17" t="s">
         <v>3163</v>
       </c>
-      <c r="T573" s="17"/>
-      <c r="U573" s="17"/>
-      <c r="AB573" s="38"/>
-      <c r="AC573" s="38"/>
-      <c r="AD573" s="38"/>
-      <c r="AE573" s="50"/>
-      <c r="AF573" s="17"/>
-      <c r="AG573" s="17"/>
-      <c r="AH573" s="57"/>
+      <c r="T580" s="19"/>
+      <c r="U580" s="19"/>
+      <c r="V580" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="W580" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="X580" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y580" s="16" t="s">
+        <v>351</v>
+      </c>
+      <c r="Z580" s="16" t="s">
+        <v>3180</v>
+      </c>
+      <c r="AA580" s="16" t="s">
+        <v>478</v>
+      </c>
+      <c r="AB580" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC580" s="38" t="s">
+        <v>478</v>
+      </c>
+      <c r="AD580" s="38"/>
+      <c r="AE580" s="50" t="s">
+        <v>1033</v>
+      </c>
+      <c r="AF580" s="17"/>
+      <c r="AG580" s="17">
+        <v>-0.48</v>
+      </c>
+      <c r="AH580" s="57"/>
+      <c r="AI580" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM580" s="16">
+        <v>0.141421356237309</v>
+      </c>
+      <c r="AN580" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="AO580" s="16" t="s">
+        <v>3154</v>
+      </c>
+      <c r="AQ580" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="AS580" s="16">
+        <v>48</v>
+      </c>
+      <c r="AT580" s="16" t="s">
+        <v>3189</v>
+      </c>
+      <c r="AU580" s="16" t="s">
+        <v>3182</v>
+      </c>
+      <c r="AV580" s="16" t="s">
+        <v>3190</v>
+      </c>
+    </row>
+    <row r="581" spans="1:49" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A581" s="14" t="s">
+        <v>1849</v>
+      </c>
+      <c r="B581" s="15" t="s">
+        <v>3139</v>
+      </c>
+      <c r="C581" s="16" t="s">
+        <v>3195</v>
+      </c>
+      <c r="D581" s="16">
+        <v>2022</v>
+      </c>
+      <c r="E581" s="16" t="s">
+        <v>3150</v>
+      </c>
+      <c r="F581" s="16" t="s">
+        <v>794</v>
+      </c>
+      <c r="G581" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H581" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I581" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="J581" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="K581" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="L581" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="M581" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="N581" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="O581" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="P581" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q581" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="R581" s="16" t="s">
+        <v>3151</v>
+      </c>
+      <c r="S581" s="17" t="s">
+        <v>3164</v>
+      </c>
+      <c r="T581" s="19"/>
+      <c r="U581" s="19"/>
+      <c r="V581" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="W581" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="X581" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y581" s="16" t="s">
+        <v>351</v>
+      </c>
+      <c r="Z581" s="16" t="s">
+        <v>3180</v>
+      </c>
+      <c r="AA581" s="16" t="s">
+        <v>910</v>
+      </c>
+      <c r="AB581" s="38" t="s">
+        <v>485</v>
+      </c>
+      <c r="AC581" s="38" t="s">
+        <v>485</v>
+      </c>
+      <c r="AD581" s="38"/>
+      <c r="AE581" s="50" t="s">
+        <v>1033</v>
+      </c>
+      <c r="AF581" s="17"/>
+      <c r="AG581" s="17">
+        <v>-0.28999999999999998</v>
+      </c>
+      <c r="AH581" s="57"/>
+      <c r="AI581" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM581" s="16">
+        <v>0.1</v>
+      </c>
+      <c r="AN581" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="AO581" s="16" t="s">
+        <v>3154</v>
+      </c>
+      <c r="AQ581" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="AS581" s="16">
+        <v>27</v>
+      </c>
+      <c r="AT581" s="16" t="s">
+        <v>3192</v>
+      </c>
+      <c r="AU581" s="16" t="s">
+        <v>3182</v>
+      </c>
+      <c r="AV581" s="16" t="s">
+        <v>3188</v>
+      </c>
+    </row>
+    <row r="582" spans="1:49" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A582" s="14" t="s">
+        <v>1849</v>
+      </c>
+      <c r="B582" s="15" t="s">
+        <v>3139</v>
+      </c>
+      <c r="C582" s="16" t="s">
+        <v>3195</v>
+      </c>
+      <c r="D582" s="16">
+        <v>2022</v>
+      </c>
+      <c r="E582" s="16" t="s">
+        <v>3150</v>
+      </c>
+      <c r="F582" s="16" t="s">
+        <v>794</v>
+      </c>
+      <c r="G582" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H582" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I582" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="J582" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="K582" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="L582" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="M582" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="N582" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="O582" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="P582" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q582" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="R582" s="16" t="s">
+        <v>3151</v>
+      </c>
+      <c r="S582" s="17" t="s">
+        <v>3165</v>
+      </c>
+      <c r="T582" s="19"/>
+      <c r="U582" s="19"/>
+      <c r="V582" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="W582" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="X582" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y582" s="16" t="s">
+        <v>351</v>
+      </c>
+      <c r="Z582" s="16" t="s">
+        <v>3180</v>
+      </c>
+      <c r="AA582" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB582" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC582" s="38"/>
+      <c r="AD582" s="38"/>
+      <c r="AE582" s="50" t="s">
+        <v>1033</v>
+      </c>
+      <c r="AF582" s="17"/>
+      <c r="AG582" s="17">
+        <v>-0.42</v>
+      </c>
+      <c r="AH582" s="57"/>
+      <c r="AI582" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM582" s="16">
+        <v>0.141421356237309</v>
+      </c>
+      <c r="AN582" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="AO582" s="16" t="s">
+        <v>3154</v>
+      </c>
+      <c r="AQ582" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="AS582" s="16">
+        <v>31</v>
+      </c>
+      <c r="AT582" s="16" t="s">
+        <v>3191</v>
+      </c>
+      <c r="AU582" s="16" t="s">
+        <v>3182</v>
+      </c>
+      <c r="AV582" s="16" t="s">
+        <v>3190</v>
+      </c>
+    </row>
+    <row r="583" spans="1:49" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A583" s="14" t="s">
+        <v>1849</v>
+      </c>
+      <c r="B583" s="15" t="s">
+        <v>3139</v>
+      </c>
+      <c r="C583" s="16" t="s">
+        <v>3195</v>
+      </c>
+      <c r="D583" s="16">
+        <v>2022</v>
+      </c>
+      <c r="E583" s="16" t="s">
+        <v>3150</v>
+      </c>
+      <c r="F583" s="16" t="s">
+        <v>794</v>
+      </c>
+      <c r="G583" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H583" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I583" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="J583" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="K583" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="L583" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="M583" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="N583" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="O583" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="P583" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q583" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="R583" s="16" t="s">
+        <v>3151</v>
+      </c>
+      <c r="S583" s="17" t="s">
+        <v>3166</v>
+      </c>
+      <c r="T583" s="19"/>
+      <c r="U583" s="19"/>
+      <c r="V583" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="W583" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="X583" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y583" s="16" t="s">
+        <v>351</v>
+      </c>
+      <c r="Z583" s="16" t="s">
+        <v>3180</v>
+      </c>
+      <c r="AA583" s="16" t="s">
+        <v>3016</v>
+      </c>
+      <c r="AB583" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC583" s="38"/>
+      <c r="AD583" s="38"/>
+      <c r="AE583" s="50" t="s">
+        <v>1033</v>
+      </c>
+      <c r="AF583" s="17"/>
+      <c r="AG583" s="17">
+        <v>-0.37</v>
+      </c>
+      <c r="AH583" s="57"/>
+      <c r="AI583" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM583" s="16">
+        <v>0.1</v>
+      </c>
+      <c r="AN583" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="AO583" s="16" t="s">
+        <v>3154</v>
+      </c>
+      <c r="AQ583" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="AS583" s="16">
+        <v>24</v>
+      </c>
+      <c r="AT583" s="16" t="s">
+        <v>3193</v>
+      </c>
+      <c r="AU583" s="16" t="s">
+        <v>3182</v>
+      </c>
+      <c r="AV583" s="16" t="s">
+        <v>3188</v>
+      </c>
+    </row>
+    <row r="584" spans="1:49" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A584" s="21" t="s">
+        <v>1849</v>
+      </c>
+      <c r="B584" s="22" t="s">
+        <v>3194</v>
+      </c>
+      <c r="C584" s="23" t="s">
+        <v>3196</v>
+      </c>
+      <c r="D584" s="23">
+        <v>2016</v>
+      </c>
+      <c r="E584" s="23" t="s">
+        <v>3197</v>
+      </c>
+      <c r="F584" s="23" t="s">
+        <v>405</v>
+      </c>
+      <c r="G584" s="23" t="s">
+        <v>1940</v>
+      </c>
+      <c r="H584" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I584" s="23" t="s">
+        <v>407</v>
+      </c>
+      <c r="J584" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="K584" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="L584" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="M584" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="N584" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="O584" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="P584" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q584" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="R584" s="23" t="s">
+        <v>3198</v>
+      </c>
+      <c r="S584" s="24" t="s">
+        <v>3199</v>
+      </c>
+      <c r="T584" s="24"/>
+      <c r="U584" s="24"/>
+      <c r="V584" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="W584" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="X584" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y584" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z584" s="23" t="s">
+        <v>3200</v>
+      </c>
+      <c r="AA584" s="23" t="s">
+        <v>3201</v>
+      </c>
+      <c r="AB584" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC584" s="39"/>
+      <c r="AD584" s="39"/>
+      <c r="AE584" s="51" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF584" s="24"/>
+      <c r="AG584" s="24">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AH584" s="58">
+        <v>0.1020408163</v>
+      </c>
+      <c r="AI584" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ584" s="23">
+        <v>0.35</v>
+      </c>
+      <c r="AK584" s="23">
+        <v>0.75</v>
+      </c>
+      <c r="AL584" s="23">
+        <v>0.95</v>
+      </c>
+      <c r="AN584" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO584" s="23" t="s">
+        <v>3202</v>
+      </c>
+      <c r="AP584" s="23" t="s">
+        <v>3206</v>
+      </c>
+      <c r="AQ584" s="23" t="s">
+        <v>1831</v>
+      </c>
+      <c r="AR584" s="23" t="s">
+        <v>3203</v>
+      </c>
+      <c r="AS584" s="23">
+        <v>10</v>
+      </c>
+      <c r="AT584" s="23" t="s">
+        <v>3204</v>
+      </c>
+      <c r="AU584" s="23" t="s">
+        <v>3095</v>
+      </c>
+      <c r="AV584" s="23" t="s">
+        <v>3205</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Data/coded-Dataset.xlsx
+++ b/Data/coded-Dataset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laura/Desktop/GITHUB-METAREVIEW/Meta-review-cognitive-profiles-ADHD-Dyslexia/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D794F19-4B4F-2842-9346-4F90E3370F55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47414C49-1334-494D-BA1D-DB5326C6579D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30240" yWindow="600" windowWidth="38400" windowHeight="19220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -9661,17 +9661,17 @@
     <t>Meta-analysis total N across all included studies: 880 ADHD; 669 TD (overall paper totals; not uniquely for ADHD vs TD).</t>
   </si>
   <si>
-    <t>Eligible pooled effect size is reported only for overall EF in ADHD vs TD. Paper states 'Ten of the 15 studies also included a TD comparison group' (used as k for ADHD vs TD). :contentReference[oaicite:0]{index=0}</t>
-  </si>
-  <si>
     <t>≥18 years old</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eligible pooled effect size is reported only for overall EF in ADHD vs TD. Paper states 'Ten of the 15 studies also included a TD comparison group' (used as k for ADHD vs TD). </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -10244,12 +10244,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AW584"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AR1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A553" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AU581" sqref="AU581"/>
+    <sheetView tabSelected="1" topLeftCell="AD1" zoomScale="50" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A497" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AN524" sqref="AN524"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15.5" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15.5" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="18" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.83203125" style="2" bestFit="1" customWidth="1"/>
@@ -10300,7 +10300,7 @@
     <col min="48" max="48" width="133.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" s="5" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:48" s="5" customFormat="1" ht="18.5" customHeight="1">
       <c r="A1" s="11" t="s">
         <v>1844</v>
       </c>
@@ -10446,7 +10446,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:48" ht="15.5" customHeight="1">
       <c r="A2" t="s">
         <v>1845</v>
       </c>
@@ -10580,7 +10580,7 @@
         <v>1809</v>
       </c>
     </row>
-    <row r="3" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:48" ht="15.5" customHeight="1">
       <c r="A3" t="s">
         <v>1845</v>
       </c>
@@ -10711,7 +10711,7 @@
         <v>1808</v>
       </c>
     </row>
-    <row r="4" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:48" ht="15.5" customHeight="1">
       <c r="A4" t="s">
         <v>1845</v>
       </c>
@@ -10842,7 +10842,7 @@
         <v>1808</v>
       </c>
     </row>
-    <row r="5" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:48" ht="15.5" customHeight="1">
       <c r="A5" t="s">
         <v>1845</v>
       </c>
@@ -10973,7 +10973,7 @@
         <v>1808</v>
       </c>
     </row>
-    <row r="6" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:48" ht="15.5" customHeight="1">
       <c r="A6" t="s">
         <v>1845</v>
       </c>
@@ -11104,7 +11104,7 @@
         <v>1808</v>
       </c>
     </row>
-    <row r="7" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:48" ht="15.5" customHeight="1">
       <c r="A7" t="s">
         <v>1845</v>
       </c>
@@ -11232,7 +11232,7 @@
         <v>1808</v>
       </c>
     </row>
-    <row r="8" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:48" ht="15.5" customHeight="1">
       <c r="A8" t="s">
         <v>1845</v>
       </c>
@@ -11372,7 +11372,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="9" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:48" ht="15.5" customHeight="1">
       <c r="A9" t="s">
         <v>1845</v>
       </c>
@@ -11512,7 +11512,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="10" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:48" ht="15.5" customHeight="1">
       <c r="A10" t="s">
         <v>1845</v>
       </c>
@@ -11652,7 +11652,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="11" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:48" ht="15.5" customHeight="1">
       <c r="A11" t="s">
         <v>1845</v>
       </c>
@@ -11789,7 +11789,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="12" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:48" ht="15.5" customHeight="1">
       <c r="A12" t="s">
         <v>1845</v>
       </c>
@@ -11926,7 +11926,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="13" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:48" ht="15.5" customHeight="1">
       <c r="A13" t="s">
         <v>1845</v>
       </c>
@@ -12063,7 +12063,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="14" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:48" ht="15.5" customHeight="1">
       <c r="A14" t="s">
         <v>1845</v>
       </c>
@@ -12203,7 +12203,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="15" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:48" ht="15.5" customHeight="1">
       <c r="A15" t="s">
         <v>1845</v>
       </c>
@@ -12346,7 +12346,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="16" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:48" ht="15.5" customHeight="1">
       <c r="A16" t="s">
         <v>1845</v>
       </c>
@@ -12486,7 +12486,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="17" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:48" ht="15.5" customHeight="1">
       <c r="A17" t="s">
         <v>1845</v>
       </c>
@@ -12629,7 +12629,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="18" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:48" ht="15.5" customHeight="1">
       <c r="A18" t="s">
         <v>1845</v>
       </c>
@@ -12772,7 +12772,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="19" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:48" ht="15.5" customHeight="1">
       <c r="A19" t="s">
         <v>1845</v>
       </c>
@@ -12909,7 +12909,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="20" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:48" ht="15.5" customHeight="1">
       <c r="A20" t="s">
         <v>1845</v>
       </c>
@@ -13046,7 +13046,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="21" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:48" ht="15.5" customHeight="1">
       <c r="A21" t="s">
         <v>1845</v>
       </c>
@@ -13183,7 +13183,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="22" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:48" ht="15.5" customHeight="1">
       <c r="A22" t="s">
         <v>1845</v>
       </c>
@@ -13317,7 +13317,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="23" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:48" ht="15.5" customHeight="1">
       <c r="A23" t="s">
         <v>1845</v>
       </c>
@@ -13454,7 +13454,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="24" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:48" ht="15.5" customHeight="1">
       <c r="A24" t="s">
         <v>1845</v>
       </c>
@@ -13588,7 +13588,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="25" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:48" ht="15.5" customHeight="1">
       <c r="A25" t="s">
         <v>1845</v>
       </c>
@@ -13722,7 +13722,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="26" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:48" ht="15.5" customHeight="1">
       <c r="A26" t="s">
         <v>1845</v>
       </c>
@@ -13856,7 +13856,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="27" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:48" ht="15.5" customHeight="1">
       <c r="A27" t="s">
         <v>1845</v>
       </c>
@@ -13993,7 +13993,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="28" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:48" ht="15.5" customHeight="1">
       <c r="A28" t="s">
         <v>1845</v>
       </c>
@@ -14133,7 +14133,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="29" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:48" ht="15.5" customHeight="1">
       <c r="A29" t="s">
         <v>1845</v>
       </c>
@@ -14270,7 +14270,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="30" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:48" ht="15.5" customHeight="1">
       <c r="A30" t="s">
         <v>1845</v>
       </c>
@@ -14410,7 +14410,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="31" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:48" ht="15.5" customHeight="1">
       <c r="A31" t="s">
         <v>1845</v>
       </c>
@@ -14547,7 +14547,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="32" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:48" ht="15.5" customHeight="1">
       <c r="A32" t="s">
         <v>1845</v>
       </c>
@@ -14690,7 +14690,7 @@
         <v>2895</v>
       </c>
     </row>
-    <row r="33" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:48" ht="15.5" customHeight="1">
       <c r="A33" t="s">
         <v>1845</v>
       </c>
@@ -14815,7 +14815,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="34" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:48" ht="15.5" customHeight="1">
       <c r="A34" t="s">
         <v>1845</v>
       </c>
@@ -14940,7 +14940,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="35" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:48" ht="15.5" customHeight="1">
       <c r="A35" t="s">
         <v>1845</v>
       </c>
@@ -15065,7 +15065,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="36" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:48" ht="15.5" customHeight="1">
       <c r="A36" t="s">
         <v>1845</v>
       </c>
@@ -15190,7 +15190,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="37" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:48" ht="15.5" customHeight="1">
       <c r="A37" t="s">
         <v>1845</v>
       </c>
@@ -15330,7 +15330,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="38" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:48" ht="15.5" customHeight="1">
       <c r="A38" t="s">
         <v>1845</v>
       </c>
@@ -15470,7 +15470,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="39" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:48" ht="15.5" customHeight="1">
       <c r="A39" t="s">
         <v>1845</v>
       </c>
@@ -15607,7 +15607,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="40" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:48" ht="15.5" customHeight="1">
       <c r="A40" t="s">
         <v>1845</v>
       </c>
@@ -15744,7 +15744,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="41" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:48" ht="15.5" customHeight="1">
       <c r="A41" t="s">
         <v>1845</v>
       </c>
@@ -15884,7 +15884,7 @@
         <v>2896</v>
       </c>
     </row>
-    <row r="42" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:48" ht="15.5" customHeight="1">
       <c r="A42" t="s">
         <v>1845</v>
       </c>
@@ -16018,7 +16018,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="43" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:48" ht="15.5" customHeight="1">
       <c r="A43" t="s">
         <v>1845</v>
       </c>
@@ -16152,7 +16152,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="44" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:48" ht="15.5" customHeight="1">
       <c r="A44" t="s">
         <v>1845</v>
       </c>
@@ -16286,7 +16286,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="45" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:48" ht="15.5" customHeight="1">
       <c r="A45" t="s">
         <v>1845</v>
       </c>
@@ -16420,7 +16420,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="46" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:48" ht="15.5" customHeight="1">
       <c r="A46" t="s">
         <v>1845</v>
       </c>
@@ -16554,7 +16554,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="47" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:48" ht="15.5" customHeight="1">
       <c r="A47" t="s">
         <v>1845</v>
       </c>
@@ -16691,7 +16691,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="48" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:48" ht="15.5" customHeight="1">
       <c r="A48" t="s">
         <v>1845</v>
       </c>
@@ -16825,7 +16825,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="49" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:48" ht="15.5" customHeight="1">
       <c r="A49" t="s">
         <v>1845</v>
       </c>
@@ -16959,7 +16959,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="50" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:48" ht="15.5" customHeight="1">
       <c r="A50" t="s">
         <v>1845</v>
       </c>
@@ -17099,7 +17099,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="51" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:48" ht="15.5" customHeight="1">
       <c r="A51" t="s">
         <v>1845</v>
       </c>
@@ -17236,7 +17236,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="52" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:48" ht="15.5" customHeight="1">
       <c r="A52" t="s">
         <v>1845</v>
       </c>
@@ -17376,7 +17376,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="53" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:48" ht="15.5" customHeight="1">
       <c r="A53" t="s">
         <v>1845</v>
       </c>
@@ -17516,7 +17516,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="54" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:48" ht="15.5" customHeight="1">
       <c r="A54" t="s">
         <v>1845</v>
       </c>
@@ -17653,7 +17653,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="55" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:48" ht="15.5" customHeight="1">
       <c r="A55" t="s">
         <v>1845</v>
       </c>
@@ -17790,7 +17790,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="56" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:48" ht="15.5" customHeight="1">
       <c r="A56" t="s">
         <v>1845</v>
       </c>
@@ -17927,7 +17927,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="57" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:48" ht="15.5" customHeight="1">
       <c r="A57" t="s">
         <v>1845</v>
       </c>
@@ -18061,7 +18061,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="58" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:48" ht="15.5" customHeight="1">
       <c r="A58" t="s">
         <v>1845</v>
       </c>
@@ -18198,7 +18198,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="59" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:48" ht="15.5" customHeight="1">
       <c r="A59" t="s">
         <v>1845</v>
       </c>
@@ -18338,7 +18338,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="60" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:48" ht="15.5" customHeight="1">
       <c r="A60" t="s">
         <v>1845</v>
       </c>
@@ -18475,7 +18475,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="61" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:48" ht="15.5" customHeight="1">
       <c r="A61" t="s">
         <v>1845</v>
       </c>
@@ -18615,7 +18615,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="62" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:48" ht="15.5" customHeight="1">
       <c r="A62" t="s">
         <v>1845</v>
       </c>
@@ -18752,7 +18752,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="63" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:48" ht="15.5" customHeight="1">
       <c r="A63" t="s">
         <v>1845</v>
       </c>
@@ -18889,7 +18889,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="64" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:48" ht="15.5" customHeight="1">
       <c r="A64" t="s">
         <v>1845</v>
       </c>
@@ -19023,7 +19023,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="65" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:48" ht="15.5" customHeight="1">
       <c r="A65" t="s">
         <v>1845</v>
       </c>
@@ -19160,7 +19160,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="66" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:48" ht="15.5" customHeight="1">
       <c r="A66" t="s">
         <v>1845</v>
       </c>
@@ -19294,7 +19294,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="67" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:48" ht="15.5" customHeight="1">
       <c r="A67" t="s">
         <v>1845</v>
       </c>
@@ -19428,7 +19428,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="68" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:48" ht="15.5" customHeight="1">
       <c r="A68" t="s">
         <v>1845</v>
       </c>
@@ -19562,7 +19562,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="69" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:48" ht="15.5" customHeight="1">
       <c r="A69" t="s">
         <v>1845</v>
       </c>
@@ -19693,7 +19693,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="70" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:48" ht="15.5" customHeight="1">
       <c r="A70" t="s">
         <v>1845</v>
       </c>
@@ -19824,7 +19824,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="71" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:48" ht="15.5" customHeight="1">
       <c r="A71" t="s">
         <v>1845</v>
       </c>
@@ -19952,7 +19952,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="72" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:48" ht="15.5" customHeight="1">
       <c r="A72" t="s">
         <v>1845</v>
       </c>
@@ -20080,7 +20080,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="73" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:48" ht="15.5" customHeight="1">
       <c r="A73" t="s">
         <v>1845</v>
       </c>
@@ -20208,7 +20208,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="74" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:48" ht="15.5" customHeight="1">
       <c r="A74" t="s">
         <v>1845</v>
       </c>
@@ -20336,7 +20336,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="75" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:48" ht="15.5" customHeight="1">
       <c r="A75" t="s">
         <v>1845</v>
       </c>
@@ -20473,7 +20473,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="76" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:48" ht="15.5" customHeight="1">
       <c r="A76" t="s">
         <v>1845</v>
       </c>
@@ -20598,7 +20598,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="77" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:48" ht="15.5" customHeight="1">
       <c r="A77" t="s">
         <v>1845</v>
       </c>
@@ -20723,7 +20723,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="78" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:48" ht="15.5" customHeight="1">
       <c r="A78" t="s">
         <v>1845</v>
       </c>
@@ -20851,7 +20851,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="79" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:48" ht="15.5" customHeight="1">
       <c r="A79" t="s">
         <v>1845</v>
       </c>
@@ -20985,7 +20985,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="80" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:48" ht="15.5" customHeight="1">
       <c r="A80" t="s">
         <v>1845</v>
       </c>
@@ -21122,7 +21122,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="81" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:48" ht="15.5" customHeight="1">
       <c r="A81" t="s">
         <v>1845</v>
       </c>
@@ -21259,7 +21259,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="82" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:48" ht="15.5" customHeight="1">
       <c r="A82" t="s">
         <v>1845</v>
       </c>
@@ -21396,7 +21396,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="83" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:48" ht="15.5" customHeight="1">
       <c r="A83" t="s">
         <v>1845</v>
       </c>
@@ -21521,7 +21521,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="84" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:48" ht="15.5" customHeight="1">
       <c r="A84" t="s">
         <v>1845</v>
       </c>
@@ -21646,7 +21646,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="85" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:48" ht="15.5" customHeight="1">
       <c r="A85" t="s">
         <v>1845</v>
       </c>
@@ -21771,7 +21771,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="86" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:48" ht="15.5" customHeight="1">
       <c r="A86" t="s">
         <v>1845</v>
       </c>
@@ -21896,7 +21896,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="87" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:48" ht="15.5" customHeight="1">
       <c r="A87" t="s">
         <v>1845</v>
       </c>
@@ -22021,7 +22021,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="88" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:48" ht="15.5" customHeight="1">
       <c r="A88" t="s">
         <v>1845</v>
       </c>
@@ -22146,7 +22146,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="89" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:48" ht="15.5" customHeight="1">
       <c r="A89" t="s">
         <v>1845</v>
       </c>
@@ -22283,7 +22283,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="90" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:48" ht="15.5" customHeight="1">
       <c r="A90" t="s">
         <v>1845</v>
       </c>
@@ -22420,7 +22420,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="91" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:48" ht="15.5" customHeight="1">
       <c r="A91" t="s">
         <v>1845</v>
       </c>
@@ -22557,7 +22557,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="92" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:48" ht="15.5" customHeight="1">
       <c r="A92" t="s">
         <v>1845</v>
       </c>
@@ -22694,7 +22694,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="93" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:48" ht="15.5" customHeight="1">
       <c r="A93" t="s">
         <v>1845</v>
       </c>
@@ -22831,7 +22831,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="94" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:48" ht="15.5" customHeight="1">
       <c r="A94" t="s">
         <v>1845</v>
       </c>
@@ -22968,7 +22968,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="95" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:48" ht="15.5" customHeight="1">
       <c r="A95" t="s">
         <v>1845</v>
       </c>
@@ -23105,7 +23105,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="96" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:48" ht="15.5" customHeight="1">
       <c r="A96" t="s">
         <v>1845</v>
       </c>
@@ -23230,7 +23230,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="97" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:48" ht="15.5" customHeight="1">
       <c r="A97" t="s">
         <v>1845</v>
       </c>
@@ -23355,7 +23355,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="98" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:48" ht="15.5" customHeight="1">
       <c r="A98" t="s">
         <v>1845</v>
       </c>
@@ -23480,7 +23480,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="99" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:48" ht="15.5" customHeight="1">
       <c r="A99" t="s">
         <v>1845</v>
       </c>
@@ -23605,7 +23605,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="100" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:48" ht="15.5" customHeight="1">
       <c r="A100" t="s">
         <v>1845</v>
       </c>
@@ -23730,7 +23730,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="101" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:48" ht="15.5" customHeight="1">
       <c r="A101" t="s">
         <v>1845</v>
       </c>
@@ -23867,7 +23867,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="102" spans="1:48" s="9" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:48" s="9" customFormat="1" ht="15.5" customHeight="1">
       <c r="A102" t="s">
         <v>1845</v>
       </c>
@@ -23999,7 +23999,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="103" spans="1:48" s="9" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:48" s="9" customFormat="1" ht="15.5" customHeight="1">
       <c r="A103" t="s">
         <v>1845</v>
       </c>
@@ -24131,7 +24131,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="104" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:48" ht="15.5" customHeight="1">
       <c r="A104" t="s">
         <v>1845</v>
       </c>
@@ -24268,7 +24268,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="105" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:48" ht="15.5" customHeight="1">
       <c r="A105" t="s">
         <v>1845</v>
       </c>
@@ -24405,7 +24405,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="106" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:48" ht="15.5" customHeight="1">
       <c r="A106" t="s">
         <v>1845</v>
       </c>
@@ -24542,7 +24542,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="107" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:48" ht="15.5" customHeight="1">
       <c r="A107" t="s">
         <v>1845</v>
       </c>
@@ -24676,7 +24676,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="108" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:48" ht="15.5" customHeight="1">
       <c r="A108" t="s">
         <v>1845</v>
       </c>
@@ -24810,7 +24810,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="109" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:48" ht="15.5" customHeight="1">
       <c r="A109" t="s">
         <v>1845</v>
       </c>
@@ -24944,7 +24944,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="110" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:48" ht="15.5" customHeight="1">
       <c r="A110" t="s">
         <v>1845</v>
       </c>
@@ -25078,7 +25078,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="111" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:48" ht="15.5" customHeight="1">
       <c r="A111" t="s">
         <v>1845</v>
       </c>
@@ -25212,7 +25212,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="112" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:48" ht="15.5" customHeight="1">
       <c r="A112" t="s">
         <v>1845</v>
       </c>
@@ -25337,7 +25337,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="113" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:48" ht="15.5" customHeight="1">
       <c r="A113" t="s">
         <v>1845</v>
       </c>
@@ -25465,7 +25465,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="114" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:48" ht="15.5" customHeight="1">
       <c r="A114" t="s">
         <v>1845</v>
       </c>
@@ -25593,7 +25593,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="115" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:48" ht="15.5" customHeight="1">
       <c r="A115" t="s">
         <v>1845</v>
       </c>
@@ -25721,7 +25721,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="116" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:48" ht="15.5" customHeight="1">
       <c r="A116" t="s">
         <v>1845</v>
       </c>
@@ -25849,7 +25849,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="117" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:48" ht="15.5" customHeight="1">
       <c r="A117" t="s">
         <v>1845</v>
       </c>
@@ -25977,7 +25977,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="118" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:48" ht="15.5" customHeight="1">
       <c r="A118" t="s">
         <v>1845</v>
       </c>
@@ -26105,7 +26105,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="119" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:48" ht="15.5" customHeight="1">
       <c r="A119" t="s">
         <v>1845</v>
       </c>
@@ -26233,7 +26233,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="120" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:48" ht="15.5" customHeight="1">
       <c r="A120" t="s">
         <v>1845</v>
       </c>
@@ -26361,7 +26361,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="121" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:48" ht="15.5" customHeight="1">
       <c r="A121" t="s">
         <v>1845</v>
       </c>
@@ -26495,7 +26495,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="122" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:48" ht="15.5" customHeight="1">
       <c r="A122" t="s">
         <v>1845</v>
       </c>
@@ -26629,7 +26629,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="123" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:48" ht="15.5" customHeight="1">
       <c r="A123" t="s">
         <v>1845</v>
       </c>
@@ -26763,7 +26763,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="124" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:48" ht="15.5" customHeight="1">
       <c r="A124" t="s">
         <v>1845</v>
       </c>
@@ -26897,7 +26897,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="125" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:48" ht="15.5" customHeight="1">
       <c r="A125" t="s">
         <v>1845</v>
       </c>
@@ -27028,7 +27028,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="126" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:48" ht="15.5" customHeight="1">
       <c r="A126" t="s">
         <v>1845</v>
       </c>
@@ -27162,7 +27162,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="127" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:48" ht="15.5" customHeight="1">
       <c r="A127" t="s">
         <v>1845</v>
       </c>
@@ -27296,7 +27296,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="128" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:48" ht="15.5" customHeight="1">
       <c r="A128" t="s">
         <v>1845</v>
       </c>
@@ -27430,7 +27430,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="129" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:48" ht="15.5" customHeight="1">
       <c r="A129" t="s">
         <v>1845</v>
       </c>
@@ -27561,7 +27561,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="130" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:48" ht="15.5" customHeight="1">
       <c r="A130" t="s">
         <v>1845</v>
       </c>
@@ -27695,7 +27695,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="131" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:48" ht="15.5" customHeight="1">
       <c r="A131" t="s">
         <v>1845</v>
       </c>
@@ -27835,7 +27835,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="132" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:48" ht="15.5" customHeight="1">
       <c r="A132" t="s">
         <v>1845</v>
       </c>
@@ -27972,7 +27972,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="133" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:48" ht="15.5" customHeight="1">
       <c r="A133" t="s">
         <v>1845</v>
       </c>
@@ -28109,7 +28109,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="134" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:48" ht="15.5" customHeight="1">
       <c r="A134" t="s">
         <v>1845</v>
       </c>
@@ -28246,7 +28246,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="135" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:48" ht="15.5" customHeight="1">
       <c r="A135" t="s">
         <v>1845</v>
       </c>
@@ -28383,7 +28383,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="136" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:48" ht="15.5" customHeight="1">
       <c r="A136" t="s">
         <v>1845</v>
       </c>
@@ -28517,7 +28517,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="137" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:48" ht="15.5" customHeight="1">
       <c r="A137" t="s">
         <v>1845</v>
       </c>
@@ -28651,7 +28651,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="138" spans="1:48" s="5" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:48" s="5" customFormat="1" ht="15.5" customHeight="1">
       <c r="A138" t="s">
         <v>1845</v>
       </c>
@@ -28787,7 +28787,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="139" spans="1:48" s="5" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:48" s="5" customFormat="1" ht="15.5" customHeight="1">
       <c r="A139" t="s">
         <v>1845</v>
       </c>
@@ -28920,7 +28920,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="140" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:48" ht="15.5" customHeight="1">
       <c r="A140" t="s">
         <v>1845</v>
       </c>
@@ -29045,7 +29045,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="141" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:48" ht="15.5" customHeight="1">
       <c r="A141" t="s">
         <v>1845</v>
       </c>
@@ -29167,7 +29167,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="142" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:48" ht="15.5" customHeight="1">
       <c r="A142" t="s">
         <v>1845</v>
       </c>
@@ -29289,7 +29289,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="143" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:48" ht="15.5" customHeight="1">
       <c r="A143" t="s">
         <v>1845</v>
       </c>
@@ -29423,7 +29423,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="144" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:48" ht="15.5" customHeight="1">
       <c r="A144" t="s">
         <v>1845</v>
       </c>
@@ -29560,7 +29560,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="145" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:48" ht="15.5" customHeight="1">
       <c r="A145" t="s">
         <v>1845</v>
       </c>
@@ -29691,7 +29691,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="146" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:48" ht="15.5" customHeight="1">
       <c r="A146" t="s">
         <v>1845</v>
       </c>
@@ -29825,7 +29825,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="147" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:48" ht="15.5" customHeight="1">
       <c r="A147" t="s">
         <v>1845</v>
       </c>
@@ -29962,7 +29962,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="148" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:48" ht="15.5" customHeight="1">
       <c r="A148" t="s">
         <v>1845</v>
       </c>
@@ -30096,7 +30096,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="149" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:48" ht="15.5" customHeight="1">
       <c r="A149" t="s">
         <v>1845</v>
       </c>
@@ -30218,7 +30218,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="150" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:48" ht="15.5" customHeight="1">
       <c r="A150" t="s">
         <v>1845</v>
       </c>
@@ -30358,7 +30358,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="151" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:48" ht="15.5" customHeight="1">
       <c r="A151" t="s">
         <v>1845</v>
       </c>
@@ -30498,7 +30498,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="152" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:48" ht="15.5" customHeight="1">
       <c r="A152" t="s">
         <v>1845</v>
       </c>
@@ -30638,7 +30638,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="153" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:48" ht="15.5" customHeight="1">
       <c r="A153" t="s">
         <v>1845</v>
       </c>
@@ -30778,7 +30778,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="154" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:48" ht="15.5" customHeight="1">
       <c r="A154" t="s">
         <v>1845</v>
       </c>
@@ -30915,7 +30915,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="155" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:48" ht="15.5" customHeight="1">
       <c r="A155" t="s">
         <v>1845</v>
       </c>
@@ -31055,7 +31055,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="156" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:48" ht="15.5" customHeight="1">
       <c r="A156" t="s">
         <v>1845</v>
       </c>
@@ -31195,7 +31195,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="157" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:48" ht="15.5" customHeight="1">
       <c r="A157" t="s">
         <v>1845</v>
       </c>
@@ -31335,7 +31335,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="158" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:48" ht="15.5" customHeight="1">
       <c r="A158" t="s">
         <v>1845</v>
       </c>
@@ -31475,7 +31475,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="159" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:48" ht="15.5" customHeight="1">
       <c r="A159" t="s">
         <v>1845</v>
       </c>
@@ -31615,7 +31615,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="160" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:48" ht="15.5" customHeight="1">
       <c r="A160" t="s">
         <v>1845</v>
       </c>
@@ -31755,7 +31755,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="161" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:48" ht="15.5" customHeight="1">
       <c r="A161" t="s">
         <v>1845</v>
       </c>
@@ -31895,7 +31895,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="162" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:48" ht="15.5" customHeight="1">
       <c r="A162" t="s">
         <v>1845</v>
       </c>
@@ -32035,7 +32035,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="163" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:48" ht="15.5" customHeight="1">
       <c r="A163" t="s">
         <v>1845</v>
       </c>
@@ -32175,7 +32175,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="164" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:48" ht="15.5" customHeight="1">
       <c r="A164" t="s">
         <v>1845</v>
       </c>
@@ -32309,7 +32309,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="165" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:48" ht="15.5" customHeight="1">
       <c r="A165" t="s">
         <v>1845</v>
       </c>
@@ -32443,7 +32443,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="166" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:48" ht="15.5" customHeight="1">
       <c r="A166" t="s">
         <v>1845</v>
       </c>
@@ -32577,7 +32577,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="167" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:48" ht="15.5" customHeight="1">
       <c r="A167" t="s">
         <v>1845</v>
       </c>
@@ -32711,7 +32711,7 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="168" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:48" ht="15.5" customHeight="1">
       <c r="A168" t="s">
         <v>1845</v>
       </c>
@@ -32845,7 +32845,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="169" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:48" ht="15.5" customHeight="1">
       <c r="A169" t="s">
         <v>1845</v>
       </c>
@@ -32979,7 +32979,7 @@
         <v>1189</v>
       </c>
     </row>
-    <row r="170" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:48" ht="15.5" customHeight="1">
       <c r="A170" t="s">
         <v>1845</v>
       </c>
@@ -33113,7 +33113,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="171" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:48" ht="15.5" customHeight="1">
       <c r="A171" t="s">
         <v>1845</v>
       </c>
@@ -33244,7 +33244,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="172" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:48" ht="15.5" customHeight="1">
       <c r="A172" t="s">
         <v>1845</v>
       </c>
@@ -33375,7 +33375,7 @@
         <v>1198</v>
       </c>
     </row>
-    <row r="173" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:48" ht="15.5" customHeight="1">
       <c r="A173" t="s">
         <v>1845</v>
       </c>
@@ -33506,7 +33506,7 @@
         <v>1201</v>
       </c>
     </row>
-    <row r="174" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:48" ht="15.5" customHeight="1">
       <c r="A174" t="s">
         <v>1845</v>
       </c>
@@ -33637,7 +33637,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="175" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:48" ht="15.5" customHeight="1">
       <c r="A175" t="s">
         <v>1845</v>
       </c>
@@ -33771,7 +33771,7 @@
         <v>1207</v>
       </c>
     </row>
-    <row r="176" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:48" ht="15.5" customHeight="1">
       <c r="A176" t="s">
         <v>1845</v>
       </c>
@@ -33905,7 +33905,7 @@
         <v>1210</v>
       </c>
     </row>
-    <row r="177" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:48" ht="15.5" customHeight="1">
       <c r="A177" t="s">
         <v>1845</v>
       </c>
@@ -34039,7 +34039,7 @@
         <v>1213</v>
       </c>
     </row>
-    <row r="178" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:48" ht="15.5" customHeight="1">
       <c r="A178" t="s">
         <v>1845</v>
       </c>
@@ -34173,7 +34173,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="179" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:48" ht="15.5" customHeight="1">
       <c r="A179" t="s">
         <v>1845</v>
       </c>
@@ -34307,7 +34307,7 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="180" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:48" ht="15.5" customHeight="1">
       <c r="A180" t="s">
         <v>1845</v>
       </c>
@@ -34441,7 +34441,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="181" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:48" ht="15.5" customHeight="1">
       <c r="A181" t="s">
         <v>1845</v>
       </c>
@@ -34572,7 +34572,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="182" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:48" ht="15.5" customHeight="1">
       <c r="A182" t="s">
         <v>1845</v>
       </c>
@@ -34706,7 +34706,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="183" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:48" ht="15.5" customHeight="1">
       <c r="A183" t="s">
         <v>1845</v>
       </c>
@@ -34840,7 +34840,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="184" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:48" ht="15.5" customHeight="1">
       <c r="A184" t="s">
         <v>1845</v>
       </c>
@@ -34974,7 +34974,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="185" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:48" ht="15.5" customHeight="1">
       <c r="A185" t="s">
         <v>1845</v>
       </c>
@@ -35111,7 +35111,7 @@
         <v>1249</v>
       </c>
     </row>
-    <row r="186" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:48" ht="15.5" customHeight="1">
       <c r="A186" t="s">
         <v>1845</v>
       </c>
@@ -35248,7 +35248,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="187" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:48" ht="15.5" customHeight="1">
       <c r="A187" t="s">
         <v>1845</v>
       </c>
@@ -35385,7 +35385,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="188" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:48" ht="15.5" customHeight="1">
       <c r="A188" t="s">
         <v>1845</v>
       </c>
@@ -35522,7 +35522,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="189" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:48" ht="15.5" customHeight="1">
       <c r="A189" t="s">
         <v>1845</v>
       </c>
@@ -35656,7 +35656,7 @@
         <v>1275</v>
       </c>
     </row>
-    <row r="190" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:48" ht="15.5" customHeight="1">
       <c r="A190" t="s">
         <v>1845</v>
       </c>
@@ -35790,7 +35790,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="191" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:48" ht="15.5" customHeight="1">
       <c r="A191" t="s">
         <v>1845</v>
       </c>
@@ -35927,7 +35927,7 @@
         <v>1285</v>
       </c>
     </row>
-    <row r="192" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:48" ht="15.5" customHeight="1">
       <c r="A192" t="s">
         <v>1845</v>
       </c>
@@ -36064,7 +36064,7 @@
         <v>1291</v>
       </c>
     </row>
-    <row r="193" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:48" ht="15.5" customHeight="1">
       <c r="A193" t="s">
         <v>1845</v>
       </c>
@@ -36204,7 +36204,7 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="194" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:48" ht="15.5" customHeight="1">
       <c r="A194" t="s">
         <v>1845</v>
       </c>
@@ -36335,7 +36335,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="195" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:48" ht="15.5" customHeight="1">
       <c r="A195" t="s">
         <v>1845</v>
       </c>
@@ -36469,7 +36469,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="196" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:48" ht="15.5" customHeight="1">
       <c r="A196" t="s">
         <v>1845</v>
       </c>
@@ -36603,7 +36603,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="197" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:48" ht="15.5" customHeight="1">
       <c r="A197" t="s">
         <v>1845</v>
       </c>
@@ -36737,7 +36737,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="198" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:48" ht="15.5" customHeight="1">
       <c r="A198" t="s">
         <v>1845</v>
       </c>
@@ -36868,7 +36868,7 @@
         <v>1328</v>
       </c>
     </row>
-    <row r="199" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:48" ht="15.5" customHeight="1">
       <c r="A199" t="s">
         <v>1845</v>
       </c>
@@ -36999,7 +36999,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="200" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:48" ht="15.5" customHeight="1">
       <c r="A200" t="s">
         <v>1845</v>
       </c>
@@ -37127,7 +37127,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="201" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:48" ht="15.5" customHeight="1">
       <c r="A201" t="s">
         <v>1845</v>
       </c>
@@ -37258,7 +37258,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="202" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:48" ht="15.5" customHeight="1">
       <c r="A202" t="s">
         <v>1845</v>
       </c>
@@ -37389,7 +37389,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="203" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:48" ht="15.5" customHeight="1">
       <c r="A203" t="s">
         <v>1845</v>
       </c>
@@ -37520,7 +37520,7 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="204" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:48" ht="15.5" customHeight="1">
       <c r="A204" t="s">
         <v>1845</v>
       </c>
@@ -37648,7 +37648,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="205" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:48" ht="15.5" customHeight="1">
       <c r="A205" t="s">
         <v>1845</v>
       </c>
@@ -37785,7 +37785,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="206" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:48" ht="15.5" customHeight="1">
       <c r="A206" t="s">
         <v>1845</v>
       </c>
@@ -37922,7 +37922,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="207" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:48" ht="15.5" customHeight="1">
       <c r="A207" t="s">
         <v>1845</v>
       </c>
@@ -38056,7 +38056,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="208" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:48" ht="15.5" customHeight="1">
       <c r="A208" t="s">
         <v>1845</v>
       </c>
@@ -38193,7 +38193,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="209" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:48" ht="15.5" customHeight="1">
       <c r="A209" t="s">
         <v>1845</v>
       </c>
@@ -38330,7 +38330,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="210" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:48" ht="15.5" customHeight="1">
       <c r="A210" t="s">
         <v>1845</v>
       </c>
@@ -38464,7 +38464,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="211" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:48" ht="15.5" customHeight="1">
       <c r="A211" t="s">
         <v>1845</v>
       </c>
@@ -38601,7 +38601,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="212" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:48" ht="15.5" customHeight="1">
       <c r="A212" t="s">
         <v>1845</v>
       </c>
@@ -38741,7 +38741,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="213" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:48" ht="15.5" customHeight="1">
       <c r="A213" t="s">
         <v>1845</v>
       </c>
@@ -38881,7 +38881,7 @@
         <v>1395</v>
       </c>
     </row>
-    <row r="214" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:48" ht="15.5" customHeight="1">
       <c r="A214" t="s">
         <v>1845</v>
       </c>
@@ -39021,7 +39021,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="215" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:48" ht="15.5" customHeight="1">
       <c r="A215" t="s">
         <v>1845</v>
       </c>
@@ -39161,7 +39161,7 @@
         <v>1403</v>
       </c>
     </row>
-    <row r="216" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:48" ht="15.5" customHeight="1">
       <c r="A216" t="s">
         <v>1845</v>
       </c>
@@ -39301,7 +39301,7 @@
         <v>1407</v>
       </c>
     </row>
-    <row r="217" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:48" ht="15.5" customHeight="1">
       <c r="A217" t="s">
         <v>1845</v>
       </c>
@@ -39441,7 +39441,7 @@
         <v>1412</v>
       </c>
     </row>
-    <row r="218" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:48" ht="15.5" customHeight="1">
       <c r="A218" t="s">
         <v>1845</v>
       </c>
@@ -39581,7 +39581,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="219" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:48" ht="15.5" customHeight="1">
       <c r="A219" t="s">
         <v>1845</v>
       </c>
@@ -39721,7 +39721,7 @@
         <v>1419</v>
       </c>
     </row>
-    <row r="220" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:48" ht="15.5" customHeight="1">
       <c r="A220" t="s">
         <v>1845</v>
       </c>
@@ -39861,7 +39861,7 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="221" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:48" ht="15.5" customHeight="1">
       <c r="A221" t="s">
         <v>1845</v>
       </c>
@@ -39995,7 +39995,7 @@
         <v>1435</v>
       </c>
     </row>
-    <row r="222" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:48" ht="15.5" customHeight="1">
       <c r="A222" t="s">
         <v>1845</v>
       </c>
@@ -40135,7 +40135,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="223" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:48" ht="15.5" customHeight="1">
       <c r="A223" t="s">
         <v>1845</v>
       </c>
@@ -40275,7 +40275,7 @@
         <v>1445</v>
       </c>
     </row>
-    <row r="224" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:48" ht="15.5" customHeight="1">
       <c r="A224" t="s">
         <v>1845</v>
       </c>
@@ -40415,7 +40415,7 @@
         <v>1450</v>
       </c>
     </row>
-    <row r="225" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:48" ht="15.5" customHeight="1">
       <c r="A225" t="s">
         <v>1845</v>
       </c>
@@ -40555,7 +40555,7 @@
         <v>1455</v>
       </c>
     </row>
-    <row r="226" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:48" ht="15.5" customHeight="1">
       <c r="A226" t="s">
         <v>1845</v>
       </c>
@@ -40695,7 +40695,7 @@
         <v>1460</v>
       </c>
     </row>
-    <row r="227" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:48" ht="15.5" customHeight="1">
       <c r="A227" t="s">
         <v>1845</v>
       </c>
@@ -40835,7 +40835,7 @@
         <v>1464</v>
       </c>
     </row>
-    <row r="228" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:48" ht="15.5" customHeight="1">
       <c r="A228" t="s">
         <v>1845</v>
       </c>
@@ -40975,7 +40975,7 @@
         <v>1468</v>
       </c>
     </row>
-    <row r="229" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:48" ht="15.5" customHeight="1">
       <c r="A229" t="s">
         <v>1845</v>
       </c>
@@ -41115,7 +41115,7 @@
         <v>1472</v>
       </c>
     </row>
-    <row r="230" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:48" ht="15.5" customHeight="1">
       <c r="A230" t="s">
         <v>1845</v>
       </c>
@@ -41255,7 +41255,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="231" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:48" ht="15.5" customHeight="1">
       <c r="A231" t="s">
         <v>1845</v>
       </c>
@@ -41392,7 +41392,7 @@
         <v>1481</v>
       </c>
     </row>
-    <row r="232" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:48" ht="15.5" customHeight="1">
       <c r="A232" t="s">
         <v>1845</v>
       </c>
@@ -41529,7 +41529,7 @@
         <v>1485</v>
       </c>
     </row>
-    <row r="233" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:48" ht="15.5" customHeight="1">
       <c r="A233" t="s">
         <v>1845</v>
       </c>
@@ -41669,7 +41669,7 @@
         <v>1497</v>
       </c>
     </row>
-    <row r="234" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:48" ht="15.5" customHeight="1">
       <c r="A234" t="s">
         <v>1845</v>
       </c>
@@ -41806,7 +41806,7 @@
         <v>1501</v>
       </c>
     </row>
-    <row r="235" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:48" ht="15.5" customHeight="1">
       <c r="A235" t="s">
         <v>1845</v>
       </c>
@@ -41946,7 +41946,7 @@
         <v>1505</v>
       </c>
     </row>
-    <row r="236" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:48" ht="15.5" customHeight="1">
       <c r="A236" t="s">
         <v>1845</v>
       </c>
@@ -42086,7 +42086,7 @@
         <v>1510</v>
       </c>
     </row>
-    <row r="237" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:48" ht="15.5" customHeight="1">
       <c r="A237" t="s">
         <v>1845</v>
       </c>
@@ -42226,7 +42226,7 @@
         <v>1514</v>
       </c>
     </row>
-    <row r="238" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:48" ht="15.5" customHeight="1">
       <c r="A238" t="s">
         <v>1845</v>
       </c>
@@ -42366,7 +42366,7 @@
         <v>1519</v>
       </c>
     </row>
-    <row r="239" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:48" ht="15.5" customHeight="1">
       <c r="A239" t="s">
         <v>1845</v>
       </c>
@@ -42506,7 +42506,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="240" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:48" ht="15.5" customHeight="1">
       <c r="A240" t="s">
         <v>1845</v>
       </c>
@@ -42646,7 +42646,7 @@
         <v>1497</v>
       </c>
     </row>
-    <row r="241" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:48" ht="15.5" customHeight="1">
       <c r="A241" t="s">
         <v>1845</v>
       </c>
@@ -42786,7 +42786,7 @@
         <v>1532</v>
       </c>
     </row>
-    <row r="242" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:48" ht="15.5" customHeight="1">
       <c r="A242" t="s">
         <v>1845</v>
       </c>
@@ -42929,7 +42929,7 @@
         <v>1538</v>
       </c>
     </row>
-    <row r="243" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:48" ht="15.5" customHeight="1">
       <c r="A243" t="s">
         <v>1845</v>
       </c>
@@ -43063,7 +43063,7 @@
         <v>1549</v>
       </c>
     </row>
-    <row r="244" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:48" ht="15.5" customHeight="1">
       <c r="A244" t="s">
         <v>1845</v>
       </c>
@@ -43197,7 +43197,7 @@
         <v>1554</v>
       </c>
     </row>
-    <row r="245" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:48" ht="15.5" customHeight="1">
       <c r="A245" t="s">
         <v>1845</v>
       </c>
@@ -43331,7 +43331,7 @@
         <v>1559</v>
       </c>
     </row>
-    <row r="246" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:48" ht="15.5" customHeight="1">
       <c r="A246" t="s">
         <v>1845</v>
       </c>
@@ -43465,7 +43465,7 @@
         <v>1563</v>
       </c>
     </row>
-    <row r="247" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:48" ht="15.5" customHeight="1">
       <c r="A247" t="s">
         <v>1845</v>
       </c>
@@ -43599,7 +43599,7 @@
         <v>1572</v>
       </c>
     </row>
-    <row r="248" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:48" ht="15.5" customHeight="1">
       <c r="A248" t="s">
         <v>1845</v>
       </c>
@@ -43727,7 +43727,7 @@
         <v>1572</v>
       </c>
     </row>
-    <row r="249" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:48" ht="15.5" customHeight="1">
       <c r="A249" t="s">
         <v>1845</v>
       </c>
@@ -43855,7 +43855,7 @@
         <v>1572</v>
       </c>
     </row>
-    <row r="250" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:48" ht="15.5" customHeight="1">
       <c r="A250" t="s">
         <v>1845</v>
       </c>
@@ -43980,7 +43980,7 @@
         <v>1572</v>
       </c>
     </row>
-    <row r="251" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:48" ht="15.5" customHeight="1">
       <c r="A251" t="s">
         <v>1845</v>
       </c>
@@ -44105,7 +44105,7 @@
         <v>1572</v>
       </c>
     </row>
-    <row r="252" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:48" ht="15.5" customHeight="1">
       <c r="A252" t="s">
         <v>1845</v>
       </c>
@@ -44233,7 +44233,7 @@
         <v>1572</v>
       </c>
     </row>
-    <row r="253" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:48" ht="15.5" customHeight="1">
       <c r="A253" t="s">
         <v>1845</v>
       </c>
@@ -44361,7 +44361,7 @@
         <v>1572</v>
       </c>
     </row>
-    <row r="254" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:48" ht="15.5" customHeight="1">
       <c r="A254" t="s">
         <v>1845</v>
       </c>
@@ -44489,7 +44489,7 @@
         <v>1572</v>
       </c>
     </row>
-    <row r="255" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:48" ht="15.5" customHeight="1">
       <c r="A255" t="s">
         <v>1845</v>
       </c>
@@ -44617,7 +44617,7 @@
         <v>1572</v>
       </c>
     </row>
-    <row r="256" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:48" ht="15.5" customHeight="1">
       <c r="A256" t="s">
         <v>1845</v>
       </c>
@@ -44745,7 +44745,7 @@
         <v>1572</v>
       </c>
     </row>
-    <row r="257" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:48" ht="15.5" customHeight="1">
       <c r="A257" t="s">
         <v>1845</v>
       </c>
@@ -44873,7 +44873,7 @@
         <v>1572</v>
       </c>
     </row>
-    <row r="258" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:48" ht="15.5" customHeight="1">
       <c r="A258" t="s">
         <v>1845</v>
       </c>
@@ -45001,7 +45001,7 @@
         <v>1572</v>
       </c>
     </row>
-    <row r="259" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:48" ht="15.5" customHeight="1">
       <c r="A259" t="s">
         <v>1845</v>
       </c>
@@ -45129,7 +45129,7 @@
         <v>1572</v>
       </c>
     </row>
-    <row r="260" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:48" ht="15.5" customHeight="1">
       <c r="A260" t="s">
         <v>1845</v>
       </c>
@@ -45257,7 +45257,7 @@
         <v>1572</v>
       </c>
     </row>
-    <row r="261" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:48" ht="15.5" customHeight="1">
       <c r="A261" t="s">
         <v>1845</v>
       </c>
@@ -45385,7 +45385,7 @@
         <v>1572</v>
       </c>
     </row>
-    <row r="262" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:48" ht="15.5" customHeight="1">
       <c r="A262" t="s">
         <v>1845</v>
       </c>
@@ -45513,7 +45513,7 @@
         <v>1572</v>
       </c>
     </row>
-    <row r="263" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:48" ht="15.5" customHeight="1">
       <c r="A263" t="s">
         <v>1845</v>
       </c>
@@ -45641,7 +45641,7 @@
         <v>1572</v>
       </c>
     </row>
-    <row r="264" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:48" ht="15.5" customHeight="1">
       <c r="A264" t="s">
         <v>1845</v>
       </c>
@@ -45769,7 +45769,7 @@
         <v>1572</v>
       </c>
     </row>
-    <row r="265" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:48" ht="15.5" customHeight="1">
       <c r="A265" t="s">
         <v>1845</v>
       </c>
@@ -45897,7 +45897,7 @@
         <v>1572</v>
       </c>
     </row>
-    <row r="266" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:48" ht="15.5" customHeight="1">
       <c r="A266" t="s">
         <v>1845</v>
       </c>
@@ -46025,7 +46025,7 @@
         <v>1572</v>
       </c>
     </row>
-    <row r="267" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:48" ht="15.5" customHeight="1">
       <c r="A267" t="s">
         <v>1845</v>
       </c>
@@ -46153,7 +46153,7 @@
         <v>1572</v>
       </c>
     </row>
-    <row r="268" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:48" ht="15.5" customHeight="1">
       <c r="A268" t="s">
         <v>1845</v>
       </c>
@@ -46281,7 +46281,7 @@
         <v>1572</v>
       </c>
     </row>
-    <row r="269" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:48" ht="15.5" customHeight="1">
       <c r="A269" t="s">
         <v>1845</v>
       </c>
@@ -46409,7 +46409,7 @@
         <v>1572</v>
       </c>
     </row>
-    <row r="270" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:48" ht="15.5" customHeight="1">
       <c r="A270" t="s">
         <v>1845</v>
       </c>
@@ -46537,7 +46537,7 @@
         <v>1572</v>
       </c>
     </row>
-    <row r="271" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:48" ht="15.5" customHeight="1">
       <c r="A271" t="s">
         <v>1845</v>
       </c>
@@ -46665,7 +46665,7 @@
         <v>1572</v>
       </c>
     </row>
-    <row r="272" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:48" ht="15.5" customHeight="1">
       <c r="A272" t="s">
         <v>1845</v>
       </c>
@@ -46790,7 +46790,7 @@
         <v>1572</v>
       </c>
     </row>
-    <row r="273" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:48" ht="15.5" customHeight="1">
       <c r="A273" t="s">
         <v>1845</v>
       </c>
@@ -46915,7 +46915,7 @@
         <v>1572</v>
       </c>
     </row>
-    <row r="274" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:48" ht="15.5" customHeight="1">
       <c r="A274" t="s">
         <v>1845</v>
       </c>
@@ -47046,7 +47046,7 @@
         <v>1572</v>
       </c>
     </row>
-    <row r="275" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:48" ht="15.5" customHeight="1">
       <c r="A275" t="s">
         <v>1845</v>
       </c>
@@ -47177,7 +47177,7 @@
         <v>1572</v>
       </c>
     </row>
-    <row r="276" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:48" ht="15.5" customHeight="1">
       <c r="A276" t="s">
         <v>1845</v>
       </c>
@@ -47302,7 +47302,7 @@
         <v>1572</v>
       </c>
     </row>
-    <row r="277" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:48" ht="15.5" customHeight="1">
       <c r="A277" t="s">
         <v>1845</v>
       </c>
@@ -47427,7 +47427,7 @@
         <v>1572</v>
       </c>
     </row>
-    <row r="278" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:48" ht="15.5" customHeight="1">
       <c r="A278" t="s">
         <v>1845</v>
       </c>
@@ -47555,7 +47555,7 @@
         <v>1572</v>
       </c>
     </row>
-    <row r="279" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:48" ht="15.5" customHeight="1">
       <c r="A279" t="s">
         <v>1845</v>
       </c>
@@ -47680,7 +47680,7 @@
         <v>1572</v>
       </c>
     </row>
-    <row r="280" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:48" ht="15.5" customHeight="1">
       <c r="A280" t="s">
         <v>1845</v>
       </c>
@@ -47805,7 +47805,7 @@
         <v>1572</v>
       </c>
     </row>
-    <row r="281" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:48" ht="15.5" customHeight="1">
       <c r="A281" t="s">
         <v>1845</v>
       </c>
@@ -47927,7 +47927,7 @@
         <v>1662</v>
       </c>
     </row>
-    <row r="282" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:48" ht="15.5" customHeight="1">
       <c r="A282" t="s">
         <v>1845</v>
       </c>
@@ -48049,7 +48049,7 @@
         <v>1662</v>
       </c>
     </row>
-    <row r="283" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:48" ht="15.5" customHeight="1">
       <c r="A283" t="s">
         <v>1845</v>
       </c>
@@ -48171,7 +48171,7 @@
         <v>1662</v>
       </c>
     </row>
-    <row r="284" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:48" ht="15.5" customHeight="1">
       <c r="A284" t="s">
         <v>1845</v>
       </c>
@@ -48293,7 +48293,7 @@
         <v>1662</v>
       </c>
     </row>
-    <row r="285" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:48" ht="15.5" customHeight="1">
       <c r="A285" t="s">
         <v>1845</v>
       </c>
@@ -48415,7 +48415,7 @@
         <v>1662</v>
       </c>
     </row>
-    <row r="286" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:48" ht="15.5" customHeight="1">
       <c r="A286" t="s">
         <v>1845</v>
       </c>
@@ -48537,7 +48537,7 @@
         <v>1662</v>
       </c>
     </row>
-    <row r="287" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:48" ht="15.5" customHeight="1">
       <c r="A287" t="s">
         <v>1845</v>
       </c>
@@ -48659,7 +48659,7 @@
         <v>1662</v>
       </c>
     </row>
-    <row r="288" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:48" ht="15.5" customHeight="1">
       <c r="A288" t="s">
         <v>1845</v>
       </c>
@@ -48781,7 +48781,7 @@
         <v>1662</v>
       </c>
     </row>
-    <row r="289" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:48" ht="15.5" customHeight="1">
       <c r="A289" t="s">
         <v>1845</v>
       </c>
@@ -48903,7 +48903,7 @@
         <v>1680</v>
       </c>
     </row>
-    <row r="290" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:48" ht="15.5" customHeight="1">
       <c r="A290" t="s">
         <v>1845</v>
       </c>
@@ -49025,7 +49025,7 @@
         <v>1691</v>
       </c>
     </row>
-    <row r="291" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:48" ht="15.5" customHeight="1">
       <c r="A291" t="s">
         <v>1845</v>
       </c>
@@ -49147,7 +49147,7 @@
         <v>1691</v>
       </c>
     </row>
-    <row r="292" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:48" ht="15.5" customHeight="1">
       <c r="A292" t="s">
         <v>1845</v>
       </c>
@@ -49269,7 +49269,7 @@
         <v>1691</v>
       </c>
     </row>
-    <row r="293" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:48" ht="15.5" customHeight="1">
       <c r="A293" t="s">
         <v>1845</v>
       </c>
@@ -49391,7 +49391,7 @@
         <v>1701</v>
       </c>
     </row>
-    <row r="294" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:48" ht="15.5" customHeight="1">
       <c r="A294" t="s">
         <v>1845</v>
       </c>
@@ -49516,7 +49516,7 @@
         <v>1712</v>
       </c>
     </row>
-    <row r="295" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:48" ht="15.5" customHeight="1">
       <c r="A295" t="s">
         <v>1845</v>
       </c>
@@ -49641,7 +49641,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="296" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:48" ht="15.5" customHeight="1">
       <c r="A296" t="s">
         <v>1845</v>
       </c>
@@ -49766,7 +49766,7 @@
         <v>1719</v>
       </c>
     </row>
-    <row r="297" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:48" ht="15.5" customHeight="1">
       <c r="A297" t="s">
         <v>1845</v>
       </c>
@@ -49891,7 +49891,7 @@
         <v>1722</v>
       </c>
     </row>
-    <row r="298" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:48" ht="15.5" customHeight="1">
       <c r="A298" t="s">
         <v>1845</v>
       </c>
@@ -50028,7 +50028,7 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="299" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:48" ht="15.5" customHeight="1">
       <c r="A299" t="s">
         <v>1845</v>
       </c>
@@ -50165,7 +50165,7 @@
         <v>1737</v>
       </c>
     </row>
-    <row r="300" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:48" ht="15.5" customHeight="1">
       <c r="A300" t="s">
         <v>1845</v>
       </c>
@@ -50302,7 +50302,7 @@
         <v>1741</v>
       </c>
     </row>
-    <row r="301" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:48" ht="15.5" customHeight="1">
       <c r="A301" t="s">
         <v>1845</v>
       </c>
@@ -50439,7 +50439,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="302" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:48" ht="15.5" customHeight="1">
       <c r="A302" t="s">
         <v>1845</v>
       </c>
@@ -50579,7 +50579,7 @@
         <v>1748</v>
       </c>
     </row>
-    <row r="303" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:48" ht="15.5" customHeight="1">
       <c r="A303" t="s">
         <v>1845</v>
       </c>
@@ -50716,7 +50716,7 @@
         <v>1754</v>
       </c>
     </row>
-    <row r="304" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:48" ht="15.5" customHeight="1">
       <c r="A304" t="s">
         <v>1845</v>
       </c>
@@ -50856,7 +50856,7 @@
         <v>1760</v>
       </c>
     </row>
-    <row r="305" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:48" ht="15.5" customHeight="1">
       <c r="A305" t="s">
         <v>1845</v>
       </c>
@@ -50996,7 +50996,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="306" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:48" ht="15.5" customHeight="1">
       <c r="A306" t="s">
         <v>1845</v>
       </c>
@@ -51136,7 +51136,7 @@
         <v>1764</v>
       </c>
     </row>
-    <row r="307" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:48" ht="15.5" customHeight="1">
       <c r="A307" t="s">
         <v>1845</v>
       </c>
@@ -51276,7 +51276,7 @@
         <v>1766</v>
       </c>
     </row>
-    <row r="308" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:48" ht="15.5" customHeight="1">
       <c r="A308" t="s">
         <v>1845</v>
       </c>
@@ -51416,7 +51416,7 @@
         <v>1768</v>
       </c>
     </row>
-    <row r="309" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:48" ht="15.5" customHeight="1">
       <c r="A309" t="s">
         <v>1845</v>
       </c>
@@ -51556,7 +51556,7 @@
         <v>1770</v>
       </c>
     </row>
-    <row r="310" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:48" ht="15.5" customHeight="1">
       <c r="A310" t="s">
         <v>1845</v>
       </c>
@@ -51690,7 +51690,7 @@
         <v>1780</v>
       </c>
     </row>
-    <row r="311" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:48" ht="15.5" customHeight="1">
       <c r="A311" t="s">
         <v>1845</v>
       </c>
@@ -51824,7 +51824,7 @@
         <v>1787</v>
       </c>
     </row>
-    <row r="312" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:48" ht="15.5" customHeight="1">
       <c r="A312" t="s">
         <v>1845</v>
       </c>
@@ -51958,7 +51958,7 @@
         <v>1787</v>
       </c>
     </row>
-    <row r="313" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1">
       <c r="A313" s="14" t="s">
         <v>1849</v>
       </c>
@@ -52094,7 +52094,7 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="314" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1">
       <c r="A314" s="14" t="s">
         <v>1849</v>
       </c>
@@ -52230,7 +52230,7 @@
         <v>1887</v>
       </c>
     </row>
-    <row r="315" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1">
       <c r="A315" s="14" t="s">
         <v>1849</v>
       </c>
@@ -52368,7 +52368,7 @@
         <v>1888</v>
       </c>
     </row>
-    <row r="316" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1">
       <c r="A316" s="14" t="s">
         <v>1849</v>
       </c>
@@ -52504,7 +52504,7 @@
         <v>1889</v>
       </c>
     </row>
-    <row r="317" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1">
       <c r="A317" s="14" t="s">
         <v>1849</v>
       </c>
@@ -52640,7 +52640,7 @@
         <v>1890</v>
       </c>
     </row>
-    <row r="318" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1">
       <c r="A318" s="14" t="s">
         <v>1849</v>
       </c>
@@ -52776,7 +52776,7 @@
         <v>1891</v>
       </c>
     </row>
-    <row r="319" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1">
       <c r="A319" s="14" t="s">
         <v>1849</v>
       </c>
@@ -52912,7 +52912,7 @@
         <v>1892</v>
       </c>
     </row>
-    <row r="320" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1">
       <c r="A320" s="14" t="s">
         <v>1849</v>
       </c>
@@ -53045,7 +53045,7 @@
         <v>1896</v>
       </c>
     </row>
-    <row r="321" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1">
       <c r="A321" s="14" t="s">
         <v>1849</v>
       </c>
@@ -53175,7 +53175,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="322" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1">
       <c r="A322" s="14" t="s">
         <v>1849</v>
       </c>
@@ -53305,7 +53305,7 @@
         <v>1904</v>
       </c>
     </row>
-    <row r="323" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1">
       <c r="A323" s="14" t="s">
         <v>1849</v>
       </c>
@@ -53438,7 +53438,7 @@
         <v>1908</v>
       </c>
     </row>
-    <row r="324" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1">
       <c r="A324" s="14" t="s">
         <v>1849</v>
       </c>
@@ -53571,7 +53571,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="325" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1">
       <c r="A325" s="21" t="s">
         <v>1849</v>
       </c>
@@ -53713,7 +53713,7 @@
         <v>1923</v>
       </c>
     </row>
-    <row r="326" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1">
       <c r="A326" s="21" t="s">
         <v>1849</v>
       </c>
@@ -53855,7 +53855,7 @@
         <v>1930</v>
       </c>
     </row>
-    <row r="327" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1">
       <c r="A327" s="21" t="s">
         <v>1849</v>
       </c>
@@ -53997,7 +53997,7 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="328" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1">
       <c r="A328" s="21" t="s">
         <v>1849</v>
       </c>
@@ -54139,7 +54139,7 @@
         <v>1934</v>
       </c>
     </row>
-    <row r="329" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1">
       <c r="A329" s="21" t="s">
         <v>1849</v>
       </c>
@@ -54278,7 +54278,7 @@
         <v>1936</v>
       </c>
     </row>
-    <row r="330" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1">
       <c r="A330" s="14" t="s">
         <v>1849</v>
       </c>
@@ -54411,7 +54411,7 @@
         <v>1953</v>
       </c>
     </row>
-    <row r="331" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1">
       <c r="A331" s="14" t="s">
         <v>1849</v>
       </c>
@@ -54527,7 +54527,7 @@
         <v>1954</v>
       </c>
     </row>
-    <row r="332" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1">
       <c r="A332" s="14" t="s">
         <v>1849</v>
       </c>
@@ -54643,7 +54643,7 @@
         <v>1954</v>
       </c>
     </row>
-    <row r="333" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1">
       <c r="A333" s="14" t="s">
         <v>1849</v>
       </c>
@@ -54773,7 +54773,7 @@
         <v>1958</v>
       </c>
     </row>
-    <row r="334" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1">
       <c r="A334" s="14" t="s">
         <v>1849</v>
       </c>
@@ -54903,7 +54903,7 @@
         <v>1956</v>
       </c>
     </row>
-    <row r="335" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1">
       <c r="A335" s="14" t="s">
         <v>1849</v>
       </c>
@@ -55033,7 +55033,7 @@
         <v>1957</v>
       </c>
     </row>
-    <row r="336" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1">
       <c r="A336" s="14" t="s">
         <v>1849</v>
       </c>
@@ -55163,7 +55163,7 @@
         <v>1959</v>
       </c>
     </row>
-    <row r="337" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1">
       <c r="A337" s="21" t="s">
         <v>1849</v>
       </c>
@@ -55301,7 +55301,7 @@
         <v>1982</v>
       </c>
     </row>
-    <row r="338" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1">
       <c r="A338" s="21" t="s">
         <v>1849</v>
       </c>
@@ -55436,7 +55436,7 @@
         <v>1992</v>
       </c>
     </row>
-    <row r="339" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1">
       <c r="A339" s="21" t="s">
         <v>1849</v>
       </c>
@@ -55574,7 +55574,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="340" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1">
       <c r="A340" s="21" t="s">
         <v>1849</v>
       </c>
@@ -55709,7 +55709,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="341" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1">
       <c r="A341" s="21" t="s">
         <v>1849</v>
       </c>
@@ -55847,7 +55847,7 @@
         <v>1997</v>
       </c>
     </row>
-    <row r="342" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1">
       <c r="A342" s="21" t="s">
         <v>1849</v>
       </c>
@@ -55985,7 +55985,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="343" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1">
       <c r="A343" s="21" t="s">
         <v>1849</v>
       </c>
@@ -56123,7 +56123,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="344" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1">
       <c r="A344" s="21" t="s">
         <v>1849</v>
       </c>
@@ -56261,7 +56261,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="345" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1">
       <c r="A345" s="21" t="s">
         <v>1849</v>
       </c>
@@ -56399,7 +56399,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="346" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1">
       <c r="A346" s="21" t="s">
         <v>1849</v>
       </c>
@@ -56537,7 +56537,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="347" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1">
       <c r="A347" s="21" t="s">
         <v>1849</v>
       </c>
@@ -56677,7 +56677,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="348" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1">
       <c r="A348" s="21" t="s">
         <v>1849</v>
       </c>
@@ -56818,7 +56818,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="349" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1">
       <c r="A349" s="21" t="s">
         <v>1849</v>
       </c>
@@ -56959,7 +56959,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="350" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1">
       <c r="A350" s="14" t="s">
         <v>1849</v>
       </c>
@@ -57103,7 +57103,7 @@
         <v>2033</v>
       </c>
     </row>
-    <row r="351" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1">
       <c r="A351" s="14" t="s">
         <v>1849</v>
       </c>
@@ -57238,7 +57238,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="352" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1">
       <c r="A352" s="14" t="s">
         <v>1849</v>
       </c>
@@ -57373,7 +57373,7 @@
         <v>2077</v>
       </c>
     </row>
-    <row r="353" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1">
       <c r="A353" s="14" t="s">
         <v>1849</v>
       </c>
@@ -57508,7 +57508,7 @@
         <v>2081</v>
       </c>
     </row>
-    <row r="354" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1">
       <c r="A354" s="14" t="s">
         <v>1849</v>
       </c>
@@ -57643,7 +57643,7 @@
         <v>2084</v>
       </c>
     </row>
-    <row r="355" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1">
       <c r="A355" s="14" t="s">
         <v>1849</v>
       </c>
@@ -57778,7 +57778,7 @@
         <v>2088</v>
       </c>
     </row>
-    <row r="356" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1">
       <c r="A356" s="14" t="s">
         <v>1849</v>
       </c>
@@ -57913,7 +57913,7 @@
         <v>2091</v>
       </c>
     </row>
-    <row r="357" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1">
       <c r="A357" s="14" t="s">
         <v>1849</v>
       </c>
@@ -58045,7 +58045,7 @@
         <v>2106</v>
       </c>
     </row>
-    <row r="358" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1">
       <c r="A358" s="14" t="s">
         <v>1849</v>
       </c>
@@ -58180,7 +58180,7 @@
         <v>2109</v>
       </c>
     </row>
-    <row r="359" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1">
       <c r="A359" s="14" t="s">
         <v>1849</v>
       </c>
@@ -58315,7 +58315,7 @@
         <v>2113</v>
       </c>
     </row>
-    <row r="360" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1">
       <c r="A360" s="14" t="s">
         <v>1849</v>
       </c>
@@ -58450,7 +58450,7 @@
         <v>2116</v>
       </c>
     </row>
-    <row r="361" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1">
       <c r="A361" s="14" t="s">
         <v>1849</v>
       </c>
@@ -58585,7 +58585,7 @@
         <v>2120</v>
       </c>
     </row>
-    <row r="362" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1">
       <c r="A362" s="14" t="s">
         <v>1849</v>
       </c>
@@ -58720,7 +58720,7 @@
         <v>2123</v>
       </c>
     </row>
-    <row r="363" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1">
       <c r="A363" s="14" t="s">
         <v>1849</v>
       </c>
@@ -58855,7 +58855,7 @@
         <v>2127</v>
       </c>
     </row>
-    <row r="364" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1">
       <c r="A364" s="14" t="s">
         <v>1849</v>
       </c>
@@ -58990,7 +58990,7 @@
         <v>2130</v>
       </c>
     </row>
-    <row r="365" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1">
       <c r="A365" s="14" t="s">
         <v>1849</v>
       </c>
@@ -59125,7 +59125,7 @@
         <v>2134</v>
       </c>
     </row>
-    <row r="366" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1">
       <c r="A366" s="14" t="s">
         <v>1849</v>
       </c>
@@ -59260,7 +59260,7 @@
         <v>2138</v>
       </c>
     </row>
-    <row r="367" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1">
       <c r="A367" s="14" t="s">
         <v>1849</v>
       </c>
@@ -59395,7 +59395,7 @@
         <v>2142</v>
       </c>
     </row>
-    <row r="368" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1">
       <c r="A368" s="14" t="s">
         <v>1849</v>
       </c>
@@ -59530,7 +59530,7 @@
         <v>2145</v>
       </c>
     </row>
-    <row r="369" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1">
       <c r="A369" s="14" t="s">
         <v>1849</v>
       </c>
@@ -59665,7 +59665,7 @@
         <v>2148</v>
       </c>
     </row>
-    <row r="370" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1">
       <c r="A370" s="14" t="s">
         <v>1849</v>
       </c>
@@ -59800,7 +59800,7 @@
         <v>2150</v>
       </c>
     </row>
-    <row r="371" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1">
       <c r="A371" s="14" t="s">
         <v>1849</v>
       </c>
@@ -59935,7 +59935,7 @@
         <v>2154</v>
       </c>
     </row>
-    <row r="372" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1">
       <c r="A372" s="14" t="s">
         <v>1849</v>
       </c>
@@ -60070,7 +60070,7 @@
         <v>2158</v>
       </c>
     </row>
-    <row r="373" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1">
       <c r="A373" s="14" t="s">
         <v>1849</v>
       </c>
@@ -60205,7 +60205,7 @@
         <v>2162</v>
       </c>
     </row>
-    <row r="374" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1">
       <c r="A374" s="14" t="s">
         <v>1849</v>
       </c>
@@ -60340,7 +60340,7 @@
         <v>2166</v>
       </c>
     </row>
-    <row r="375" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1">
       <c r="A375" s="14" t="s">
         <v>1849</v>
       </c>
@@ -60475,7 +60475,7 @@
         <v>2169</v>
       </c>
     </row>
-    <row r="376" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1">
       <c r="A376" s="14" t="s">
         <v>1849</v>
       </c>
@@ -60610,7 +60610,7 @@
         <v>2171</v>
       </c>
     </row>
-    <row r="377" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1">
       <c r="A377" s="14" t="s">
         <v>1849</v>
       </c>
@@ -60745,7 +60745,7 @@
         <v>2174</v>
       </c>
     </row>
-    <row r="378" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1">
       <c r="A378" s="14" t="s">
         <v>1849</v>
       </c>
@@ -60880,7 +60880,7 @@
         <v>2176</v>
       </c>
     </row>
-    <row r="379" spans="1:48" s="40" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:48" s="40" customFormat="1" ht="15.5" customHeight="1">
       <c r="A379" s="40" t="s">
         <v>1849</v>
       </c>
@@ -61013,7 +61013,7 @@
         <v>2182</v>
       </c>
     </row>
-    <row r="380" spans="1:48" s="40" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:48" s="40" customFormat="1" ht="15.5" customHeight="1">
       <c r="A380" s="40" t="s">
         <v>1849</v>
       </c>
@@ -61145,7 +61145,7 @@
         <v>2187</v>
       </c>
     </row>
-    <row r="381" spans="1:48" s="40" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:48" s="40" customFormat="1" ht="15.5" customHeight="1">
       <c r="A381" s="40" t="s">
         <v>1849</v>
       </c>
@@ -61277,7 +61277,7 @@
         <v>2191</v>
       </c>
     </row>
-    <row r="382" spans="1:48" s="40" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:48" s="40" customFormat="1" ht="15.5" customHeight="1">
       <c r="A382" s="40" t="s">
         <v>1849</v>
       </c>
@@ -61409,7 +61409,7 @@
         <v>2195</v>
       </c>
     </row>
-    <row r="383" spans="1:48" s="40" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:48" s="40" customFormat="1" ht="15.5" customHeight="1">
       <c r="A383" s="40" t="s">
         <v>1849</v>
       </c>
@@ -61541,7 +61541,7 @@
         <v>2199</v>
       </c>
     </row>
-    <row r="384" spans="1:48" s="40" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:48" s="40" customFormat="1" ht="15.5" customHeight="1">
       <c r="A384" s="40" t="s">
         <v>1849</v>
       </c>
@@ -61673,7 +61673,7 @@
         <v>2203</v>
       </c>
     </row>
-    <row r="385" spans="1:48" s="40" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:48" s="40" customFormat="1" ht="15.5" customHeight="1">
       <c r="A385" s="40" t="s">
         <v>1849</v>
       </c>
@@ -61805,7 +61805,7 @@
         <v>2207</v>
       </c>
     </row>
-    <row r="386" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1">
       <c r="A386" s="14" t="s">
         <v>1849</v>
       </c>
@@ -61934,7 +61934,7 @@
         <v>2210</v>
       </c>
     </row>
-    <row r="387" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1">
       <c r="A387" s="21" t="s">
         <v>1849</v>
       </c>
@@ -62071,7 +62071,7 @@
         <v>2102</v>
       </c>
     </row>
-    <row r="388" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1">
       <c r="A388" s="21" t="s">
         <v>1849</v>
       </c>
@@ -62204,7 +62204,7 @@
         <v>2221</v>
       </c>
     </row>
-    <row r="389" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1">
       <c r="A389" s="21" t="s">
         <v>1849</v>
       </c>
@@ -62337,7 +62337,7 @@
         <v>2225</v>
       </c>
     </row>
-    <row r="390" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1">
       <c r="A390" s="21" t="s">
         <v>1849</v>
       </c>
@@ -62470,7 +62470,7 @@
         <v>2230</v>
       </c>
     </row>
-    <row r="391" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1">
       <c r="A391" s="14" t="s">
         <v>1849</v>
       </c>
@@ -62608,7 +62608,7 @@
         <v>2306</v>
       </c>
     </row>
-    <row r="392" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1">
       <c r="A392" s="21" t="s">
         <v>1849</v>
       </c>
@@ -62743,7 +62743,7 @@
         <v>2902</v>
       </c>
     </row>
-    <row r="393" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1">
       <c r="A393" s="21" t="s">
         <v>1849</v>
       </c>
@@ -62861,7 +62861,7 @@
         <v>2903</v>
       </c>
     </row>
-    <row r="394" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1">
       <c r="A394" s="21" t="s">
         <v>1849</v>
       </c>
@@ -62979,7 +62979,7 @@
         <v>2903</v>
       </c>
     </row>
-    <row r="395" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1">
       <c r="A395" s="21" t="s">
         <v>1849</v>
       </c>
@@ -63097,7 +63097,7 @@
         <v>2903</v>
       </c>
     </row>
-    <row r="396" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1">
       <c r="A396" s="21" t="s">
         <v>1849</v>
       </c>
@@ -63215,7 +63215,7 @@
         <v>2903</v>
       </c>
     </row>
-    <row r="397" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1">
       <c r="A397" s="21" t="s">
         <v>1849</v>
       </c>
@@ -63335,7 +63335,7 @@
         <v>2904</v>
       </c>
     </row>
-    <row r="398" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1">
       <c r="A398" s="21" t="s">
         <v>1849</v>
       </c>
@@ -63462,7 +63462,7 @@
         <v>2905</v>
       </c>
     </row>
-    <row r="399" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1">
       <c r="A399" s="21" t="s">
         <v>1849</v>
       </c>
@@ -63589,7 +63589,7 @@
         <v>2906</v>
       </c>
     </row>
-    <row r="400" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1">
       <c r="A400" s="21" t="s">
         <v>1849</v>
       </c>
@@ -63716,7 +63716,7 @@
         <v>2907</v>
       </c>
     </row>
-    <row r="401" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1">
       <c r="A401" s="21" t="s">
         <v>1849</v>
       </c>
@@ -63843,7 +63843,7 @@
         <v>2908</v>
       </c>
     </row>
-    <row r="402" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1">
       <c r="A402" s="21" t="s">
         <v>1849</v>
       </c>
@@ -63970,7 +63970,7 @@
         <v>2909</v>
       </c>
     </row>
-    <row r="403" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1">
       <c r="A403" s="21" t="s">
         <v>1849</v>
       </c>
@@ -64097,7 +64097,7 @@
         <v>2910</v>
       </c>
     </row>
-    <row r="404" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1">
       <c r="A404" s="21" t="s">
         <v>1849</v>
       </c>
@@ -64224,7 +64224,7 @@
         <v>2911</v>
       </c>
     </row>
-    <row r="405" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1">
       <c r="A405" s="21" t="s">
         <v>1849</v>
       </c>
@@ -64351,7 +64351,7 @@
         <v>2912</v>
       </c>
     </row>
-    <row r="406" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1">
       <c r="A406" s="21" t="s">
         <v>1849</v>
       </c>
@@ -64478,7 +64478,7 @@
         <v>2913</v>
       </c>
     </row>
-    <row r="407" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1">
       <c r="A407" s="21" t="s">
         <v>1849</v>
       </c>
@@ -64605,7 +64605,7 @@
         <v>2290</v>
       </c>
     </row>
-    <row r="408" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1">
       <c r="A408" s="21" t="s">
         <v>1849</v>
       </c>
@@ -64732,7 +64732,7 @@
         <v>2293</v>
       </c>
     </row>
-    <row r="409" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1">
       <c r="A409" s="21" t="s">
         <v>1849</v>
       </c>
@@ -64859,7 +64859,7 @@
         <v>2296</v>
       </c>
     </row>
-    <row r="410" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1">
       <c r="A410" s="14" t="s">
         <v>1849</v>
       </c>
@@ -65000,7 +65000,7 @@
         <v>2327</v>
       </c>
     </row>
-    <row r="411" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1">
       <c r="A411" s="14" t="s">
         <v>1849</v>
       </c>
@@ -65141,7 +65141,7 @@
         <v>2327</v>
       </c>
     </row>
-    <row r="412" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1">
       <c r="A412" s="14" t="s">
         <v>1849</v>
       </c>
@@ -65281,7 +65281,7 @@
         <v>2327</v>
       </c>
     </row>
-    <row r="413" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1">
       <c r="A413" s="14" t="s">
         <v>1849</v>
       </c>
@@ -65402,7 +65402,7 @@
         <v>2339</v>
       </c>
     </row>
-    <row r="414" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1">
       <c r="A414" s="14" t="s">
         <v>1849</v>
       </c>
@@ -65523,7 +65523,7 @@
         <v>2339</v>
       </c>
     </row>
-    <row r="415" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1">
       <c r="A415" s="21" t="s">
         <v>1849</v>
       </c>
@@ -65650,7 +65650,7 @@
         <v>2352</v>
       </c>
     </row>
-    <row r="416" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1">
       <c r="A416" s="14" t="s">
         <v>1849</v>
       </c>
@@ -65778,7 +65778,7 @@
         <v>2951</v>
       </c>
     </row>
-    <row r="417" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1">
       <c r="A417" s="14" t="s">
         <v>1849</v>
       </c>
@@ -65904,7 +65904,7 @@
         <v>2951</v>
       </c>
     </row>
-    <row r="418" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1">
       <c r="A418" s="14" t="s">
         <v>1849</v>
       </c>
@@ -66030,7 +66030,7 @@
         <v>2951</v>
       </c>
     </row>
-    <row r="419" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1">
       <c r="A419" s="14" t="s">
         <v>1849</v>
       </c>
@@ -66156,7 +66156,7 @@
         <v>2951</v>
       </c>
     </row>
-    <row r="420" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1">
       <c r="A420" s="14" t="s">
         <v>1849</v>
       </c>
@@ -66280,7 +66280,7 @@
         <v>2951</v>
       </c>
     </row>
-    <row r="421" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1">
       <c r="A421" s="14" t="s">
         <v>1849</v>
       </c>
@@ -66406,7 +66406,7 @@
         <v>2951</v>
       </c>
     </row>
-    <row r="422" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1">
       <c r="A422" s="14" t="s">
         <v>1849</v>
       </c>
@@ -66534,7 +66534,7 @@
         <v>2951</v>
       </c>
     </row>
-    <row r="423" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1">
       <c r="A423" s="14" t="s">
         <v>1849</v>
       </c>
@@ -66662,7 +66662,7 @@
         <v>2951</v>
       </c>
     </row>
-    <row r="424" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1">
       <c r="A424" s="14" t="s">
         <v>1849</v>
       </c>
@@ -66790,7 +66790,7 @@
         <v>2951</v>
       </c>
     </row>
-    <row r="425" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1">
       <c r="A425" s="14" t="s">
         <v>1849</v>
       </c>
@@ -66918,7 +66918,7 @@
         <v>2951</v>
       </c>
     </row>
-    <row r="426" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1">
       <c r="A426" s="14" t="s">
         <v>1849</v>
       </c>
@@ -67044,7 +67044,7 @@
         <v>2951</v>
       </c>
     </row>
-    <row r="427" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1">
       <c r="A427" s="14" t="s">
         <v>1849</v>
       </c>
@@ -67170,7 +67170,7 @@
         <v>2951</v>
       </c>
     </row>
-    <row r="428" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1">
       <c r="A428" s="14" t="s">
         <v>1849</v>
       </c>
@@ -67295,7 +67295,7 @@
         <v>2951</v>
       </c>
     </row>
-    <row r="429" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1">
       <c r="A429" s="14" t="s">
         <v>1849</v>
       </c>
@@ -67419,7 +67419,7 @@
         <v>2951</v>
       </c>
     </row>
-    <row r="430" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1">
       <c r="A430" s="14" t="s">
         <v>1849</v>
       </c>
@@ -67545,7 +67545,7 @@
         <v>2951</v>
       </c>
     </row>
-    <row r="431" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1">
       <c r="A431" s="14" t="s">
         <v>1849</v>
       </c>
@@ -67673,7 +67673,7 @@
         <v>2951</v>
       </c>
     </row>
-    <row r="432" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1">
       <c r="A432" s="14" t="s">
         <v>1849</v>
       </c>
@@ -67801,7 +67801,7 @@
         <v>2951</v>
       </c>
     </row>
-    <row r="433" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1">
       <c r="A433" s="14" t="s">
         <v>1849</v>
       </c>
@@ -67927,7 +67927,7 @@
         <v>2951</v>
       </c>
     </row>
-    <row r="434" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1">
       <c r="A434" s="14" t="s">
         <v>1849</v>
       </c>
@@ -68053,7 +68053,7 @@
         <v>2951</v>
       </c>
     </row>
-    <row r="435" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1">
       <c r="A435" s="14" t="s">
         <v>1849</v>
       </c>
@@ -68179,7 +68179,7 @@
         <v>2951</v>
       </c>
     </row>
-    <row r="436" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1">
       <c r="A436" s="14" t="s">
         <v>1849</v>
       </c>
@@ -68305,7 +68305,7 @@
         <v>2951</v>
       </c>
     </row>
-    <row r="437" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1">
       <c r="A437" s="14" t="s">
         <v>1849</v>
       </c>
@@ -68431,7 +68431,7 @@
         <v>2951</v>
       </c>
     </row>
-    <row r="438" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1">
       <c r="A438" s="21" t="s">
         <v>1849</v>
       </c>
@@ -68568,7 +68568,7 @@
         <v>2368</v>
       </c>
     </row>
-    <row r="439" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1">
       <c r="A439" s="14" t="s">
         <v>1849</v>
       </c>
@@ -68709,7 +68709,7 @@
         <v>2390</v>
       </c>
     </row>
-    <row r="440" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1">
       <c r="A440" s="14" t="s">
         <v>1849</v>
       </c>
@@ -68847,7 +68847,7 @@
         <v>2395</v>
       </c>
     </row>
-    <row r="441" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1">
       <c r="A441" s="14" t="s">
         <v>1849</v>
       </c>
@@ -68985,7 +68985,7 @@
         <v>2401</v>
       </c>
     </row>
-    <row r="442" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1">
       <c r="A442" s="14" t="s">
         <v>1849</v>
       </c>
@@ -69123,7 +69123,7 @@
         <v>2407</v>
       </c>
     </row>
-    <row r="443" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1">
       <c r="A443" s="14" t="s">
         <v>1849</v>
       </c>
@@ -69261,7 +69261,7 @@
         <v>2413</v>
       </c>
     </row>
-    <row r="444" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1">
       <c r="A444" s="14" t="s">
         <v>1849</v>
       </c>
@@ -69399,7 +69399,7 @@
         <v>2419</v>
       </c>
     </row>
-    <row r="445" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1">
       <c r="A445" s="14" t="s">
         <v>1849</v>
       </c>
@@ -69537,7 +69537,7 @@
         <v>2424</v>
       </c>
     </row>
-    <row r="446" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1">
       <c r="A446" s="14" t="s">
         <v>1849</v>
       </c>
@@ -69675,7 +69675,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="447" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1">
       <c r="A447" s="14" t="s">
         <v>1849</v>
       </c>
@@ -69804,7 +69804,7 @@
         <v>2435</v>
       </c>
     </row>
-    <row r="448" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1">
       <c r="A448" s="14" t="s">
         <v>1849</v>
       </c>
@@ -69933,7 +69933,7 @@
         <v>2441</v>
       </c>
     </row>
-    <row r="449" spans="1:49" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:49" s="23" customFormat="1" ht="15.5" customHeight="1">
       <c r="A449" s="21" t="s">
         <v>1849</v>
       </c>
@@ -70073,7 +70073,7 @@
         <v>2473</v>
       </c>
     </row>
-    <row r="450" spans="1:49" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:49" s="23" customFormat="1" ht="15.5" customHeight="1">
       <c r="A450" s="21" t="s">
         <v>1849</v>
       </c>
@@ -70211,7 +70211,7 @@
         <v>2476</v>
       </c>
     </row>
-    <row r="451" spans="1:49" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:49" s="23" customFormat="1" ht="15.5" customHeight="1">
       <c r="A451" s="21" t="s">
         <v>1849</v>
       </c>
@@ -70354,7 +70354,7 @@
         <v>2481</v>
       </c>
     </row>
-    <row r="452" spans="1:49" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:49" s="23" customFormat="1" ht="15.5" customHeight="1">
       <c r="A452" s="21" t="s">
         <v>1849</v>
       </c>
@@ -70492,7 +70492,7 @@
         <v>2483</v>
       </c>
     </row>
-    <row r="453" spans="1:49" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:49" s="23" customFormat="1" ht="15.5" customHeight="1">
       <c r="A453" s="21" t="s">
         <v>1849</v>
       </c>
@@ -70629,7 +70629,7 @@
         <v>2485</v>
       </c>
     </row>
-    <row r="454" spans="1:49" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:49" s="23" customFormat="1" ht="15.5" customHeight="1">
       <c r="A454" s="21" t="s">
         <v>1849</v>
       </c>
@@ -70766,7 +70766,7 @@
         <v>2485</v>
       </c>
     </row>
-    <row r="455" spans="1:49" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:49" s="23" customFormat="1" ht="15.5" customHeight="1">
       <c r="A455" s="21" t="s">
         <v>1849</v>
       </c>
@@ -70909,7 +70909,7 @@
         <v>2491</v>
       </c>
     </row>
-    <row r="456" spans="1:49" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:49" s="23" customFormat="1" ht="15.5" customHeight="1">
       <c r="A456" s="21" t="s">
         <v>1849</v>
       </c>
@@ -71050,7 +71050,7 @@
         <v>2493</v>
       </c>
     </row>
-    <row r="457" spans="1:49" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:49" s="23" customFormat="1" ht="15.5" customHeight="1">
       <c r="A457" s="21" t="s">
         <v>1849</v>
       </c>
@@ -71187,7 +71187,7 @@
         <v>2496</v>
       </c>
     </row>
-    <row r="458" spans="1:49" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:49" s="23" customFormat="1" ht="15.5" customHeight="1">
       <c r="A458" s="21" t="s">
         <v>1849</v>
       </c>
@@ -71324,7 +71324,7 @@
         <v>2496</v>
       </c>
     </row>
-    <row r="459" spans="1:49" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:49" s="23" customFormat="1" ht="15.5" customHeight="1">
       <c r="A459" s="21" t="s">
         <v>1849</v>
       </c>
@@ -71465,7 +71465,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="460" spans="1:49" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:49" s="23" customFormat="1" ht="15.5" customHeight="1">
       <c r="A460" s="21" t="s">
         <v>1849</v>
       </c>
@@ -71604,7 +71604,7 @@
         <v>2503</v>
       </c>
     </row>
-    <row r="461" spans="1:49" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:49" s="23" customFormat="1" ht="15.5" customHeight="1">
       <c r="A461" s="21" t="s">
         <v>1849</v>
       </c>
@@ -71741,7 +71741,7 @@
         <v>2507</v>
       </c>
     </row>
-    <row r="462" spans="1:49" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:49" s="23" customFormat="1" ht="15.5" customHeight="1">
       <c r="A462" s="21" t="s">
         <v>1849</v>
       </c>
@@ -71878,7 +71878,7 @@
         <v>2507</v>
       </c>
     </row>
-    <row r="463" spans="1:49" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:49" s="23" customFormat="1" ht="15.5" customHeight="1">
       <c r="A463" s="21" t="s">
         <v>1849</v>
       </c>
@@ -72012,7 +72012,7 @@
         <v>2514</v>
       </c>
     </row>
-    <row r="464" spans="1:49" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:49" s="23" customFormat="1" ht="15.5" customHeight="1">
       <c r="A464" s="21" t="s">
         <v>1849</v>
       </c>
@@ -72150,7 +72150,7 @@
         <v>2517</v>
       </c>
     </row>
-    <row r="465" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1">
       <c r="A465" s="21" t="s">
         <v>1849</v>
       </c>
@@ -72283,7 +72283,7 @@
         <v>2519</v>
       </c>
     </row>
-    <row r="466" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1">
       <c r="A466" s="21" t="s">
         <v>1849</v>
       </c>
@@ -72421,7 +72421,7 @@
         <v>2522</v>
       </c>
     </row>
-    <row r="467" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1">
       <c r="A467" s="21" t="s">
         <v>1849</v>
       </c>
@@ -72557,7 +72557,7 @@
         <v>2524</v>
       </c>
     </row>
-    <row r="468" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1">
       <c r="A468" s="21" t="s">
         <v>1849</v>
       </c>
@@ -72691,7 +72691,7 @@
         <v>2528</v>
       </c>
     </row>
-    <row r="469" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1">
       <c r="A469" s="21" t="s">
         <v>1849</v>
       </c>
@@ -72825,7 +72825,7 @@
         <v>2528</v>
       </c>
     </row>
-    <row r="470" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1">
       <c r="A470" s="21" t="s">
         <v>1849</v>
       </c>
@@ -72965,7 +72965,7 @@
         <v>2535</v>
       </c>
     </row>
-    <row r="471" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1">
       <c r="A471" s="21" t="s">
         <v>1849</v>
       </c>
@@ -73103,7 +73103,7 @@
         <v>2537</v>
       </c>
     </row>
-    <row r="472" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1">
       <c r="A472" s="14" t="s">
         <v>1849</v>
       </c>
@@ -73237,7 +73237,7 @@
         <v>2550</v>
       </c>
     </row>
-    <row r="473" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1">
       <c r="A473" s="21" t="s">
         <v>1849</v>
       </c>
@@ -73375,7 +73375,7 @@
         <v>2577</v>
       </c>
     </row>
-    <row r="474" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1">
       <c r="A474" s="21" t="s">
         <v>1849</v>
       </c>
@@ -73507,7 +73507,7 @@
         <v>2576</v>
       </c>
     </row>
-    <row r="475" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1">
       <c r="A475" s="21" t="s">
         <v>1849</v>
       </c>
@@ -73639,7 +73639,7 @@
         <v>2575</v>
       </c>
     </row>
-    <row r="476" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1">
       <c r="A476" s="21" t="s">
         <v>1849</v>
       </c>
@@ -73774,7 +73774,7 @@
         <v>2574</v>
       </c>
     </row>
-    <row r="477" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1">
       <c r="A477" s="14" t="s">
         <v>1849</v>
       </c>
@@ -73897,7 +73897,7 @@
         <v>2600</v>
       </c>
     </row>
-    <row r="478" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1">
       <c r="A478" s="14" t="s">
         <v>1849</v>
       </c>
@@ -74018,7 +74018,7 @@
         <v>2605</v>
       </c>
     </row>
-    <row r="479" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1">
       <c r="A479" s="14" t="s">
         <v>1849</v>
       </c>
@@ -74145,7 +74145,7 @@
         <v>2610</v>
       </c>
     </row>
-    <row r="480" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1">
       <c r="A480" s="14" t="s">
         <v>1849</v>
       </c>
@@ -74272,7 +74272,7 @@
         <v>2614</v>
       </c>
     </row>
-    <row r="481" spans="1:49" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:49" s="16" customFormat="1" ht="15.5" customHeight="1">
       <c r="A481" s="14" t="s">
         <v>1849</v>
       </c>
@@ -74399,7 +74399,7 @@
         <v>2617</v>
       </c>
     </row>
-    <row r="482" spans="1:49" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:49" s="16" customFormat="1" ht="15.5" customHeight="1">
       <c r="A482" s="14" t="s">
         <v>1849</v>
       </c>
@@ -74526,7 +74526,7 @@
         <v>2620</v>
       </c>
     </row>
-    <row r="483" spans="1:49" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:49" s="16" customFormat="1" ht="15.5" customHeight="1">
       <c r="A483" s="14" t="s">
         <v>1849</v>
       </c>
@@ -74655,7 +74655,7 @@
         <v>2624</v>
       </c>
     </row>
-    <row r="484" spans="1:49" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:49" s="16" customFormat="1" ht="15.5" customHeight="1">
       <c r="A484" s="14" t="s">
         <v>1849</v>
       </c>
@@ -74784,7 +74784,7 @@
         <v>2627</v>
       </c>
     </row>
-    <row r="485" spans="1:49" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:49" s="16" customFormat="1" ht="15.5" customHeight="1">
       <c r="A485" s="14" t="s">
         <v>1849</v>
       </c>
@@ -74899,7 +74899,7 @@
         <v>2632</v>
       </c>
     </row>
-    <row r="486" spans="1:49" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:49" s="16" customFormat="1" ht="15.5" customHeight="1">
       <c r="A486" s="14" t="s">
         <v>1849</v>
       </c>
@@ -75022,7 +75022,7 @@
         <v>2637</v>
       </c>
     </row>
-    <row r="487" spans="1:49" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:49" s="23" customFormat="1" ht="15.5" customHeight="1">
       <c r="A487" s="21" t="s">
         <v>1849</v>
       </c>
@@ -75161,7 +75161,7 @@
         <v>2652</v>
       </c>
     </row>
-    <row r="488" spans="1:49" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:49" s="23" customFormat="1" ht="15.5" customHeight="1">
       <c r="A488" s="21" t="s">
         <v>1849</v>
       </c>
@@ -75298,7 +75298,7 @@
         <v>2653</v>
       </c>
     </row>
-    <row r="489" spans="1:49" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:49" s="23" customFormat="1" ht="15.5" customHeight="1">
       <c r="A489" s="21" t="s">
         <v>1849</v>
       </c>
@@ -75437,7 +75437,7 @@
         <v>2654</v>
       </c>
     </row>
-    <row r="490" spans="1:49" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:49" s="16" customFormat="1" ht="15.5" customHeight="1">
       <c r="A490" s="14" t="s">
         <v>1849</v>
       </c>
@@ -75572,7 +75572,7 @@
         <v>2676</v>
       </c>
     </row>
-    <row r="491" spans="1:49" s="40" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:49" s="40" customFormat="1" ht="15.5" customHeight="1">
       <c r="A491" s="40" t="s">
         <v>1849</v>
       </c>
@@ -75707,7 +75707,7 @@
         <v>2682</v>
       </c>
     </row>
-    <row r="492" spans="1:49" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:49" s="16" customFormat="1" ht="15.5" customHeight="1">
       <c r="A492" s="14" t="s">
         <v>1849</v>
       </c>
@@ -75842,7 +75842,7 @@
         <v>2687</v>
       </c>
     </row>
-    <row r="493" spans="1:49" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:49" s="16" customFormat="1" ht="15.5" customHeight="1">
       <c r="A493" s="14" t="s">
         <v>1849</v>
       </c>
@@ -75977,7 +75977,7 @@
         <v>2689</v>
       </c>
     </row>
-    <row r="494" spans="1:49" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:49" s="16" customFormat="1" ht="15.5" customHeight="1">
       <c r="A494" s="14" t="s">
         <v>1849</v>
       </c>
@@ -76112,7 +76112,7 @@
         <v>2691</v>
       </c>
     </row>
-    <row r="495" spans="1:49" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:49" s="16" customFormat="1" ht="15.5" customHeight="1">
       <c r="A495" s="14" t="s">
         <v>1849</v>
       </c>
@@ -76247,7 +76247,7 @@
         <v>2693</v>
       </c>
     </row>
-    <row r="496" spans="1:49" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:49" s="16" customFormat="1" ht="15.5" customHeight="1">
       <c r="A496" s="14" t="s">
         <v>1849</v>
       </c>
@@ -76382,7 +76382,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="497" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1">
       <c r="A497" s="14" t="s">
         <v>1849</v>
       </c>
@@ -76517,7 +76517,7 @@
         <v>2700</v>
       </c>
     </row>
-    <row r="498" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1">
       <c r="A498" s="14" t="s">
         <v>1849</v>
       </c>
@@ -76652,7 +76652,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="499" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1">
       <c r="A499" s="14" t="s">
         <v>1849</v>
       </c>
@@ -76787,7 +76787,7 @@
         <v>2708</v>
       </c>
     </row>
-    <row r="500" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1">
       <c r="A500" s="14" t="s">
         <v>1849</v>
       </c>
@@ -76922,7 +76922,7 @@
         <v>2712</v>
       </c>
     </row>
-    <row r="501" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1">
       <c r="A501" s="14" t="s">
         <v>1849</v>
       </c>
@@ -77057,7 +77057,7 @@
         <v>2714</v>
       </c>
     </row>
-    <row r="502" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1">
       <c r="A502" s="14" t="s">
         <v>1849</v>
       </c>
@@ -77192,7 +77192,7 @@
         <v>2716</v>
       </c>
     </row>
-    <row r="503" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1">
       <c r="A503" s="21" t="s">
         <v>1849</v>
       </c>
@@ -77329,7 +77329,7 @@
         <v>2732</v>
       </c>
     </row>
-    <row r="504" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1">
       <c r="A504" s="14" t="s">
         <v>1849</v>
       </c>
@@ -77455,7 +77455,7 @@
         <v>2742</v>
       </c>
     </row>
-    <row r="505" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1">
       <c r="A505" s="21" t="s">
         <v>1849</v>
       </c>
@@ -77594,7 +77594,7 @@
         <v>2917</v>
       </c>
     </row>
-    <row r="506" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1">
       <c r="A506" s="21" t="s">
         <v>1849</v>
       </c>
@@ -77732,7 +77732,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="507" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1">
       <c r="A507" s="21" t="s">
         <v>1849</v>
       </c>
@@ -77869,7 +77869,7 @@
         <v>2919</v>
       </c>
     </row>
-    <row r="508" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1">
       <c r="A508" s="21" t="s">
         <v>1849</v>
       </c>
@@ -77984,7 +77984,7 @@
         <v>2771</v>
       </c>
     </row>
-    <row r="509" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1">
       <c r="A509" s="21" t="s">
         <v>1849</v>
       </c>
@@ -78096,7 +78096,7 @@
         <v>2771</v>
       </c>
     </row>
-    <row r="510" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1">
       <c r="A510" s="14" t="s">
         <v>1849</v>
       </c>
@@ -78232,7 +78232,7 @@
         <v>2786</v>
       </c>
     </row>
-    <row r="511" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1">
       <c r="A511" s="14" t="s">
         <v>1849</v>
       </c>
@@ -78368,7 +78368,7 @@
         <v>2792</v>
       </c>
     </row>
-    <row r="512" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1">
       <c r="A512" s="14" t="s">
         <v>1849</v>
       </c>
@@ -78504,7 +78504,7 @@
         <v>2798</v>
       </c>
     </row>
-    <row r="513" spans="1:49" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1">
       <c r="A513" s="14" t="s">
         <v>1849</v>
       </c>
@@ -78634,7 +78634,7 @@
         <v>2803</v>
       </c>
     </row>
-    <row r="514" spans="1:49" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1">
       <c r="A514" s="14" t="s">
         <v>1849</v>
       </c>
@@ -78767,7 +78767,7 @@
         <v>2809</v>
       </c>
     </row>
-    <row r="515" spans="1:49" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1">
       <c r="A515" s="14" t="s">
         <v>1849</v>
       </c>
@@ -78900,7 +78900,7 @@
         <v>2815</v>
       </c>
     </row>
-    <row r="516" spans="1:49" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1">
       <c r="A516" s="21" t="s">
         <v>1849</v>
       </c>
@@ -79026,7 +79026,7 @@
         <v>2988</v>
       </c>
     </row>
-    <row r="517" spans="1:49" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1">
       <c r="A517" s="21" t="s">
         <v>1849</v>
       </c>
@@ -79152,7 +79152,7 @@
         <v>2988</v>
       </c>
     </row>
-    <row r="518" spans="1:49" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1">
       <c r="A518" s="21" t="s">
         <v>1849</v>
       </c>
@@ -79276,7 +79276,7 @@
         <v>2990</v>
       </c>
     </row>
-    <row r="519" spans="1:49" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1">
       <c r="A519" s="21" t="s">
         <v>1849</v>
       </c>
@@ -79402,7 +79402,7 @@
         <v>2988</v>
       </c>
     </row>
-    <row r="520" spans="1:49" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1">
       <c r="A520" s="21" t="s">
         <v>1849</v>
       </c>
@@ -79528,7 +79528,7 @@
         <v>2993</v>
       </c>
     </row>
-    <row r="521" spans="1:49" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1">
       <c r="A521" s="21" t="s">
         <v>1849</v>
       </c>
@@ -79652,7 +79652,7 @@
         <v>2998</v>
       </c>
     </row>
-    <row r="522" spans="1:49" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1">
       <c r="A522" s="21" t="s">
         <v>1849</v>
       </c>
@@ -79776,7 +79776,7 @@
         <v>2998</v>
       </c>
     </row>
-    <row r="523" spans="1:49" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1">
       <c r="A523" s="21" t="s">
         <v>1849</v>
       </c>
@@ -79898,7 +79898,7 @@
         <v>2998</v>
       </c>
     </row>
-    <row r="524" spans="1:49" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1">
       <c r="A524" s="21" t="s">
         <v>1849</v>
       </c>
@@ -80022,7 +80022,7 @@
         <v>2998</v>
       </c>
     </row>
-    <row r="525" spans="1:49" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1">
       <c r="A525" s="14" t="s">
         <v>1849</v>
       </c>
@@ -80147,7 +80147,7 @@
         <v>3009</v>
       </c>
     </row>
-    <row r="526" spans="1:49" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1">
       <c r="A526" s="14" t="s">
         <v>1849</v>
       </c>
@@ -80267,7 +80267,7 @@
         <v>3009</v>
       </c>
     </row>
-    <row r="527" spans="1:49" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1">
       <c r="A527" s="14" t="s">
         <v>1849</v>
       </c>
@@ -80351,42 +80351,41 @@
       <c r="AF527" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="AG527" s="17"/>
-      <c r="AH527" s="57">
+      <c r="AG527" s="17">
         <v>0.432</v>
       </c>
-      <c r="AI527" s="16">
+      <c r="AH527" s="16">
         <v>0.1429</v>
       </c>
-      <c r="AJ527" s="16" t="s">
+      <c r="AI527" s="16" t="s">
         <v>55</v>
       </c>
+      <c r="AJ527" s="16">
+        <v>0.152</v>
+      </c>
       <c r="AK527" s="16">
-        <v>0.152</v>
+        <v>0.71199999999999997</v>
       </c>
       <c r="AL527" s="16">
-        <v>0.71199999999999997</v>
+        <v>0.95</v>
       </c>
       <c r="AM527" s="16">
-        <v>0.95</v>
-      </c>
-      <c r="AN527" s="16">
         <v>0.53180000000000005</v>
       </c>
-      <c r="AO527" s="16" t="s">
+      <c r="AN527" s="16" t="s">
         <v>113</v>
       </c>
+      <c r="AT527" s="16" t="s">
+        <v>3017</v>
+      </c>
       <c r="AU527" s="16" t="s">
-        <v>3017</v>
+        <v>3008</v>
       </c>
       <c r="AV527" s="16" t="s">
-        <v>3008</v>
-      </c>
-      <c r="AW527" s="16" t="s">
         <v>3009</v>
       </c>
     </row>
-    <row r="528" spans="1:49" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1">
       <c r="A528" s="14" t="s">
         <v>1849</v>
       </c>
@@ -80470,42 +80469,41 @@
       <c r="AF528" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="AG528" s="17"/>
-      <c r="AH528" s="57">
+      <c r="AG528" s="17">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="AI528" s="16">
+      <c r="AH528" s="16">
         <v>0.1439</v>
       </c>
-      <c r="AJ528" s="16" t="s">
+      <c r="AI528" s="16" t="s">
         <v>55</v>
       </c>
+      <c r="AJ528" s="16">
+        <v>-0.26100000000000001</v>
+      </c>
       <c r="AK528" s="16">
-        <v>-0.26100000000000001</v>
+        <v>0.30299999999999999</v>
       </c>
       <c r="AL528" s="16">
-        <v>0.30299999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AM528" s="16">
-        <v>0.95</v>
-      </c>
-      <c r="AN528" s="16">
         <v>8.8300000000000003E-2</v>
       </c>
-      <c r="AO528" s="16" t="s">
+      <c r="AN528" s="16" t="s">
         <v>113</v>
       </c>
+      <c r="AT528" s="16" t="s">
+        <v>3018</v>
+      </c>
       <c r="AU528" s="16" t="s">
-        <v>3018</v>
+        <v>3014</v>
       </c>
       <c r="AV528" s="16" t="s">
-        <v>3014</v>
-      </c>
-      <c r="AW528" s="16" t="s">
         <v>3009</v>
       </c>
     </row>
-    <row r="529" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1">
       <c r="A529" s="21" t="s">
         <v>1849</v>
       </c>
@@ -80631,7 +80629,7 @@
         <v>2842</v>
       </c>
     </row>
-    <row r="530" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1">
       <c r="A530" s="21" t="s">
         <v>1849</v>
       </c>
@@ -80757,7 +80755,7 @@
         <v>2847</v>
       </c>
     </row>
-    <row r="531" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1">
       <c r="A531" s="21" t="s">
         <v>1849</v>
       </c>
@@ -80883,7 +80881,7 @@
         <v>2851</v>
       </c>
     </row>
-    <row r="532" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1">
       <c r="A532" s="21" t="s">
         <v>1849</v>
       </c>
@@ -81006,7 +81004,7 @@
         <v>2856</v>
       </c>
     </row>
-    <row r="533" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1">
       <c r="A533" s="21" t="s">
         <v>1849</v>
       </c>
@@ -81129,7 +81127,7 @@
         <v>2856</v>
       </c>
     </row>
-    <row r="534" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1">
       <c r="A534" s="21" t="s">
         <v>1849</v>
       </c>
@@ -81252,7 +81250,7 @@
         <v>2856</v>
       </c>
     </row>
-    <row r="535" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1">
       <c r="A535" s="21" t="s">
         <v>1849</v>
       </c>
@@ -81375,7 +81373,7 @@
         <v>2866</v>
       </c>
     </row>
-    <row r="536" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1">
       <c r="A536" s="21" t="s">
         <v>1849</v>
       </c>
@@ -81498,7 +81496,7 @@
         <v>2870</v>
       </c>
     </row>
-    <row r="537" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1">
       <c r="A537" s="21" t="s">
         <v>1849</v>
       </c>
@@ -81621,7 +81619,7 @@
         <v>2874</v>
       </c>
     </row>
-    <row r="538" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1">
       <c r="A538" s="21" t="s">
         <v>1849</v>
       </c>
@@ -81744,7 +81742,7 @@
         <v>2874</v>
       </c>
     </row>
-    <row r="539" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1">
       <c r="A539" s="21" t="s">
         <v>1849</v>
       </c>
@@ -81867,7 +81865,7 @@
         <v>2880</v>
       </c>
     </row>
-    <row r="540" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1">
       <c r="A540" s="21" t="s">
         <v>1849</v>
       </c>
@@ -81990,7 +81988,7 @@
         <v>2880</v>
       </c>
     </row>
-    <row r="541" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1">
       <c r="A541" s="21" t="s">
         <v>1849</v>
       </c>
@@ -82113,7 +82111,7 @@
         <v>2887</v>
       </c>
     </row>
-    <row r="542" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1">
       <c r="A542" s="14" t="s">
         <v>1849</v>
       </c>
@@ -82241,7 +82239,7 @@
         <v>3035</v>
       </c>
     </row>
-    <row r="543" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1">
       <c r="A543" s="14" t="s">
         <v>1849</v>
       </c>
@@ -82367,7 +82365,7 @@
         <v>3036</v>
       </c>
     </row>
-    <row r="544" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1">
       <c r="A544" s="14" t="s">
         <v>1849</v>
       </c>
@@ -82493,7 +82491,7 @@
         <v>3036</v>
       </c>
     </row>
-    <row r="545" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1">
       <c r="A545" s="14" t="s">
         <v>1849</v>
       </c>
@@ -82619,7 +82617,7 @@
         <v>3036</v>
       </c>
     </row>
-    <row r="546" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1">
       <c r="A546" s="14" t="s">
         <v>1849</v>
       </c>
@@ -82745,7 +82743,7 @@
         <v>3037</v>
       </c>
     </row>
-    <row r="547" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1">
       <c r="A547" s="14" t="s">
         <v>1849</v>
       </c>
@@ -82871,7 +82869,7 @@
         <v>3036</v>
       </c>
     </row>
-    <row r="548" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1">
       <c r="A548" s="14" t="s">
         <v>1849</v>
       </c>
@@ -82997,7 +82995,7 @@
         <v>3039</v>
       </c>
     </row>
-    <row r="549" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1">
       <c r="A549" s="14" t="s">
         <v>1849</v>
       </c>
@@ -83121,7 +83119,7 @@
         <v>3036</v>
       </c>
     </row>
-    <row r="550" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1">
       <c r="A550" s="21" t="s">
         <v>1849</v>
       </c>
@@ -83259,7 +83257,7 @@
         <v>3054</v>
       </c>
     </row>
-    <row r="551" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1">
       <c r="A551" s="21" t="s">
         <v>1849</v>
       </c>
@@ -83397,7 +83395,7 @@
         <v>3055</v>
       </c>
     </row>
-    <row r="552" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1">
       <c r="A552" s="14" t="s">
         <v>1849</v>
       </c>
@@ -83523,7 +83521,7 @@
         <v>3105</v>
       </c>
     </row>
-    <row r="553" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1">
       <c r="A553" s="14" t="s">
         <v>1849</v>
       </c>
@@ -83649,7 +83647,7 @@
         <v>3105</v>
       </c>
     </row>
-    <row r="554" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1">
       <c r="A554" s="14" t="s">
         <v>1849</v>
       </c>
@@ -83773,7 +83771,7 @@
         <v>3106</v>
       </c>
     </row>
-    <row r="555" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1">
       <c r="A555" s="14" t="s">
         <v>1849</v>
       </c>
@@ -83900,7 +83898,7 @@
         <v>3107</v>
       </c>
     </row>
-    <row r="556" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1">
       <c r="A556" s="14" t="s">
         <v>1849</v>
       </c>
@@ -84027,7 +84025,7 @@
         <v>3108</v>
       </c>
     </row>
-    <row r="557" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1">
       <c r="A557" s="21" t="s">
         <v>1849</v>
       </c>
@@ -84162,7 +84160,7 @@
         <v>3102</v>
       </c>
     </row>
-    <row r="558" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1">
       <c r="A558" s="21" t="s">
         <v>1849</v>
       </c>
@@ -84288,7 +84286,7 @@
         <v>3103</v>
       </c>
     </row>
-    <row r="559" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1">
       <c r="A559" s="21" t="s">
         <v>1849</v>
       </c>
@@ -84414,7 +84412,7 @@
         <v>3104</v>
       </c>
     </row>
-    <row r="560" spans="1:48" s="62" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:48" s="62" customFormat="1" ht="15.5" customHeight="1">
       <c r="A560" s="60"/>
       <c r="B560" s="61" t="s">
         <v>3109</v>
@@ -84429,11 +84427,11 @@
       <c r="AC560" s="64"/>
       <c r="AD560" s="64"/>
       <c r="AE560" s="65"/>
-      <c r="AF560" s="63"/>
+      <c r="AF560" s="19"/>
       <c r="AG560" s="63"/>
       <c r="AH560" s="66"/>
     </row>
-    <row r="561" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1">
       <c r="A561" s="21" t="s">
         <v>1849</v>
       </c>
@@ -84519,7 +84517,7 @@
       <c r="AE561" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="AF561" s="24"/>
+      <c r="AF561" s="19"/>
       <c r="AG561" s="24">
         <v>1.0900000000000001</v>
       </c>
@@ -84563,7 +84561,7 @@
         <v>3124</v>
       </c>
     </row>
-    <row r="562" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1">
       <c r="A562" s="21" t="s">
         <v>1849</v>
       </c>
@@ -84649,7 +84647,7 @@
       <c r="AE562" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="AF562" s="24"/>
+      <c r="AF562" s="19"/>
       <c r="AG562" s="24">
         <v>1.23</v>
       </c>
@@ -84693,7 +84691,7 @@
         <v>3127</v>
       </c>
     </row>
-    <row r="563" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1">
       <c r="A563" s="21" t="s">
         <v>1849</v>
       </c>
@@ -84779,7 +84777,7 @@
       <c r="AE563" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="AF563" s="24"/>
+      <c r="AF563" s="19"/>
       <c r="AG563" s="24">
         <v>0.97</v>
       </c>
@@ -84823,7 +84821,7 @@
         <v>3131</v>
       </c>
     </row>
-    <row r="564" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1">
       <c r="A564" s="21" t="s">
         <v>1849</v>
       </c>
@@ -84909,7 +84907,7 @@
       <c r="AE564" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="AF564" s="24"/>
+      <c r="AF564" s="19"/>
       <c r="AG564" s="24">
         <v>0.98</v>
       </c>
@@ -84953,7 +84951,7 @@
         <v>3134</v>
       </c>
     </row>
-    <row r="565" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1">
       <c r="A565" s="21" t="s">
         <v>1849</v>
       </c>
@@ -85039,7 +85037,7 @@
       <c r="AE565" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="AF565" s="24"/>
+      <c r="AF565" s="19"/>
       <c r="AG565" s="24">
         <v>1.04</v>
       </c>
@@ -85083,7 +85081,7 @@
         <v>3137</v>
       </c>
     </row>
-    <row r="566" spans="1:48" s="62" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:48" s="62" customFormat="1" ht="15.5" customHeight="1">
       <c r="A566" s="60"/>
       <c r="B566" s="61" t="s">
         <v>3138</v>
@@ -85098,11 +85096,11 @@
       <c r="AC566" s="64"/>
       <c r="AD566" s="64"/>
       <c r="AE566" s="65"/>
-      <c r="AF566" s="63"/>
+      <c r="AF566" s="19"/>
       <c r="AG566" s="63"/>
       <c r="AH566" s="66"/>
     </row>
-    <row r="567" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1">
       <c r="A567" s="14" t="s">
         <v>1849</v>
       </c>
@@ -85190,7 +85188,7 @@
       <c r="AE567" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="AF567" s="17"/>
+      <c r="AF567" s="19"/>
       <c r="AG567" s="17">
         <v>-0.69</v>
       </c>
@@ -85231,7 +85229,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="568" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1">
       <c r="A568" s="14" t="s">
         <v>1849</v>
       </c>
@@ -85319,7 +85317,7 @@
       <c r="AE568" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="AF568" s="17"/>
+      <c r="AF568" s="19"/>
       <c r="AG568" s="17">
         <v>-0.66</v>
       </c>
@@ -85360,7 +85358,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="569" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1">
       <c r="A569" s="14" t="s">
         <v>1849</v>
       </c>
@@ -85448,7 +85446,7 @@
       <c r="AE569" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="AF569" s="17"/>
+      <c r="AF569" s="19"/>
       <c r="AG569" s="17">
         <v>-0.66</v>
       </c>
@@ -85489,7 +85487,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="570" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1">
       <c r="A570" s="14" t="s">
         <v>1849</v>
       </c>
@@ -85577,7 +85575,7 @@
       <c r="AE570" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="AF570" s="17"/>
+      <c r="AF570" s="19"/>
       <c r="AG570" s="17">
         <v>-0.56000000000000005</v>
       </c>
@@ -85618,7 +85616,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="571" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1">
       <c r="A571" s="14" t="s">
         <v>1849</v>
       </c>
@@ -85706,7 +85704,7 @@
       <c r="AE571" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="AF571" s="17"/>
+      <c r="AF571" s="19"/>
       <c r="AG571" s="17">
         <v>-0.48</v>
       </c>
@@ -85747,7 +85745,7 @@
         <v>3172</v>
       </c>
     </row>
-    <row r="572" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1">
       <c r="A572" s="14" t="s">
         <v>1849</v>
       </c>
@@ -85835,7 +85833,7 @@
       <c r="AE572" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="AF572" s="17"/>
+      <c r="AF572" s="19"/>
       <c r="AG572" s="17">
         <v>-0.7</v>
       </c>
@@ -85876,7 +85874,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="573" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1">
       <c r="A573" s="14" t="s">
         <v>1849</v>
       </c>
@@ -85964,7 +85962,7 @@
       <c r="AE573" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="AF573" s="17"/>
+      <c r="AF573" s="19"/>
       <c r="AG573" s="17">
         <v>-0.72</v>
       </c>
@@ -86005,7 +86003,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="574" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1">
       <c r="A574" s="14" t="s">
         <v>1849</v>
       </c>
@@ -86093,7 +86091,7 @@
       <c r="AE574" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="AF574" s="17"/>
+      <c r="AF574" s="19"/>
       <c r="AG574" s="17">
         <v>-0.7</v>
       </c>
@@ -86134,7 +86132,7 @@
         <v>3176</v>
       </c>
     </row>
-    <row r="575" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1">
       <c r="A575" s="14" t="s">
         <v>1849</v>
       </c>
@@ -86222,7 +86220,7 @@
       <c r="AE575" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="AF575" s="17"/>
+      <c r="AF575" s="19"/>
       <c r="AG575" s="17">
         <v>-0.54</v>
       </c>
@@ -86263,7 +86261,7 @@
         <v>3179</v>
       </c>
     </row>
-    <row r="576" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1">
       <c r="A576" s="14" t="s">
         <v>1849</v>
       </c>
@@ -86351,7 +86349,7 @@
       <c r="AE576" s="50" t="s">
         <v>1033</v>
       </c>
-      <c r="AF576" s="17"/>
+      <c r="AF576" s="19"/>
       <c r="AG576" s="17">
         <v>-0.28999999999999998</v>
       </c>
@@ -86384,7 +86382,7 @@
         <v>3183</v>
       </c>
     </row>
-    <row r="577" spans="1:49" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1">
       <c r="A577" s="14" t="s">
         <v>1849</v>
       </c>
@@ -86472,7 +86470,7 @@
       <c r="AE577" s="50" t="s">
         <v>1033</v>
       </c>
-      <c r="AF577" s="17"/>
+      <c r="AF577" s="19"/>
       <c r="AG577" s="17">
         <v>-0.28999999999999998</v>
       </c>
@@ -86505,7 +86503,7 @@
         <v>3185</v>
       </c>
     </row>
-    <row r="578" spans="1:49" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1">
       <c r="A578" s="14" t="s">
         <v>1849</v>
       </c>
@@ -86593,7 +86591,7 @@
       <c r="AE578" s="50" t="s">
         <v>1033</v>
       </c>
-      <c r="AF578" s="17"/>
+      <c r="AF578" s="19"/>
       <c r="AG578" s="17">
         <v>-0.26</v>
       </c>
@@ -86626,7 +86624,7 @@
         <v>3183</v>
       </c>
     </row>
-    <row r="579" spans="1:49" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1">
       <c r="A579" s="14" t="s">
         <v>1849</v>
       </c>
@@ -86712,7 +86710,7 @@
       <c r="AE579" s="17" t="s">
         <v>1033</v>
       </c>
-      <c r="AF579" s="17"/>
+      <c r="AF579" s="19"/>
       <c r="AG579" s="17">
         <v>-0.3</v>
       </c>
@@ -86740,11 +86738,11 @@
       <c r="AU579" s="16" t="s">
         <v>3182</v>
       </c>
-      <c r="AW579" s="16" t="s">
+      <c r="AV579" s="16" t="s">
         <v>3188</v>
       </c>
     </row>
-    <row r="580" spans="1:49" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1">
       <c r="A580" s="14" t="s">
         <v>1849</v>
       </c>
@@ -86832,7 +86830,7 @@
       <c r="AE580" s="50" t="s">
         <v>1033</v>
       </c>
-      <c r="AF580" s="17"/>
+      <c r="AF580" s="19"/>
       <c r="AG580" s="17">
         <v>-0.48</v>
       </c>
@@ -86865,7 +86863,7 @@
         <v>3190</v>
       </c>
     </row>
-    <row r="581" spans="1:49" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1">
       <c r="A581" s="14" t="s">
         <v>1849</v>
       </c>
@@ -86953,7 +86951,7 @@
       <c r="AE581" s="50" t="s">
         <v>1033</v>
       </c>
-      <c r="AF581" s="17"/>
+      <c r="AF581" s="19"/>
       <c r="AG581" s="17">
         <v>-0.28999999999999998</v>
       </c>
@@ -86986,7 +86984,7 @@
         <v>3188</v>
       </c>
     </row>
-    <row r="582" spans="1:49" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1">
       <c r="A582" s="14" t="s">
         <v>1849</v>
       </c>
@@ -87072,7 +87070,7 @@
       <c r="AE582" s="50" t="s">
         <v>1033</v>
       </c>
-      <c r="AF582" s="17"/>
+      <c r="AF582" s="19"/>
       <c r="AG582" s="17">
         <v>-0.42</v>
       </c>
@@ -87105,7 +87103,7 @@
         <v>3190</v>
       </c>
     </row>
-    <row r="583" spans="1:49" s="16" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:48" s="16" customFormat="1" ht="15.5" customHeight="1">
       <c r="A583" s="14" t="s">
         <v>1849</v>
       </c>
@@ -87191,7 +87189,7 @@
       <c r="AE583" s="50" t="s">
         <v>1033</v>
       </c>
-      <c r="AF583" s="17"/>
+      <c r="AF583" s="19"/>
       <c r="AG583" s="17">
         <v>-0.37</v>
       </c>
@@ -87224,7 +87222,7 @@
         <v>3188</v>
       </c>
     </row>
-    <row r="584" spans="1:49" s="23" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:48" s="23" customFormat="1" ht="15.5" customHeight="1">
       <c r="A584" s="21" t="s">
         <v>1849</v>
       </c>
@@ -87282,8 +87280,8 @@
       <c r="S584" s="24" t="s">
         <v>3199</v>
       </c>
-      <c r="T584" s="24"/>
-      <c r="U584" s="24"/>
+      <c r="T584" s="19"/>
+      <c r="U584" s="19"/>
       <c r="V584" s="23" t="s">
         <v>49</v>
       </c>
@@ -87310,7 +87308,7 @@
       <c r="AE584" s="51" t="s">
         <v>65</v>
       </c>
-      <c r="AF584" s="24"/>
+      <c r="AF584" s="19"/>
       <c r="AG584" s="24">
         <v>0.55000000000000004</v>
       </c>
@@ -87336,7 +87334,7 @@
         <v>3202</v>
       </c>
       <c r="AP584" s="23" t="s">
-        <v>3206</v>
+        <v>3205</v>
       </c>
       <c r="AQ584" s="23" t="s">
         <v>1831</v>
@@ -87354,7 +87352,7 @@
         <v>3095</v>
       </c>
       <c r="AV584" s="23" t="s">
-        <v>3205</v>
+        <v>3206</v>
       </c>
     </row>
   </sheetData>
@@ -87372,21 +87370,21 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="20"/>
       <c r="C1" t="s">
         <v>1875</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" s="16"/>
       <c r="C2" t="s">
         <v>1876</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" s="25"/>
       <c r="C4" t="s">
         <v>2020</v>
